--- a/PDA Lifetime Predictions.xlsx
+++ b/PDA Lifetime Predictions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thigg\Desktop\Hockey Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24BDE44-9045-4B55-B3F7-53EDBF6B261F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E37E9F-AB05-4E24-ABDD-644EA5988FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51480" yWindow="-195" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="23" r:id="rId3"/>
+    <pivotCache cacheId="7" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -470,7 +470,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -668,6 +668,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -830,7 +836,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -845,6 +851,7 @@
     <xf numFmtId="164" fontId="0" fillId="34" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
@@ -906,7 +913,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45311.880152199075" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="311" xr:uid="{D3A71568-3061-40C8-A74B-8B86C64C3ADC}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45311.923933101854" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="311" xr:uid="{D3A71568-3061-40C8-A74B-8B86C64C3ADC}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:I1048576" sheet="Predictions"/>
   </cacheSource>
@@ -4706,7 +4713,7 @@
     <n v="0.45440000000000003"/>
     <s v="Playing At:  Vancouver Canucks   Home"/>
     <x v="4"/>
-    <n v="1"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="5"/>
@@ -4745,86 +4752,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{80C3D042-980E-40EE-B50F-CF37801A1A1D}" name="PivotTable3" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="L3:N10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="10">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="8">
-        <item h="1" x="6"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Count of Winner1" fld="2" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Model" fld="8" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1FB34DD3-8207-4009-92F5-73C183F63DF8}" name="PivotTable1" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1FB34DD3-8207-4009-92F5-73C183F63DF8}" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A5:C12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
@@ -5278,6 +5206,85 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{80C3D042-980E-40EE-B50F-CF37801A1A1D}" name="PivotTable3" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="L3:N10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="8">
+        <item h="1" x="6"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Count of Winner1" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Model" fld="8" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5578,23 +5585,23 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>80</v>
       </c>
@@ -5602,7 +5609,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -5610,7 +5617,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -5627,17 +5634,17 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="E4" s="8"/>
       <c r="F4" s="6"/>
       <c r="G4" s="10"/>
       <c r="L4" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="M4" s="12">
+      <c r="M4" s="13">
         <v>66</v>
       </c>
-      <c r="N4" s="12">
+      <c r="N4" s="13">
         <v>38</v>
       </c>
       <c r="O4" s="4">
@@ -5645,7 +5652,7 @@
         <v>0.5757575757575758</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>53</v>
       </c>
@@ -5670,10 +5677,10 @@
       <c r="L5" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="13">
         <v>54</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="13">
         <v>31</v>
       </c>
       <c r="O5" s="4">
@@ -5681,14 +5688,14 @@
         <v>0.57407407407407407</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="13">
         <v>3</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="13">
         <v>3</v>
       </c>
       <c r="D6" s="5">
@@ -5710,10 +5717,10 @@
       <c r="L6" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6" s="13">
         <v>36</v>
       </c>
-      <c r="N6" s="12">
+      <c r="N6" s="13">
         <v>24</v>
       </c>
       <c r="O6" s="4">
@@ -5721,14 +5728,14 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="13">
         <v>10</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="13">
         <v>10</v>
       </c>
       <c r="D7" s="5">
@@ -5737,7 +5744,7 @@
       </c>
       <c r="E7" s="8">
         <f>SUM(C9:C11)</f>
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F7" s="6">
         <f>SUM(C6:C8)</f>
@@ -5750,10 +5757,10 @@
       <c r="L7" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7" s="13">
         <v>57</v>
       </c>
-      <c r="N7" s="12">
+      <c r="N7" s="13">
         <v>35</v>
       </c>
       <c r="O7" s="4">
@@ -5761,14 +5768,14 @@
         <v>0.61403508771929827</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="13">
         <v>72</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="13">
         <v>45</v>
       </c>
       <c r="D8" s="5">
@@ -5777,7 +5784,7 @@
       </c>
       <c r="E8" s="9">
         <f>E7/E6</f>
-        <v>0.56888888888888889</v>
+        <v>0.56444444444444442</v>
       </c>
       <c r="F8" s="7">
         <f>F7/F6</f>
@@ -5790,10 +5797,10 @@
       <c r="L8" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="M8" s="12">
+      <c r="M8" s="13">
         <v>48</v>
       </c>
-      <c r="N8" s="12">
+      <c r="N8" s="13">
         <v>24</v>
       </c>
       <c r="O8" s="4">
@@ -5801,14 +5808,14 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="13">
         <v>98</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="13">
         <v>58</v>
       </c>
       <c r="D9" s="5">
@@ -5818,25 +5825,25 @@
       <c r="L9" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M9" s="12">
+      <c r="M9" s="13">
         <v>49</v>
       </c>
-      <c r="N9" s="12">
-        <v>34</v>
+      <c r="N9" s="13">
+        <v>33</v>
       </c>
       <c r="O9" s="4">
         <f t="shared" si="0"/>
-        <v>0.69387755102040816</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.67346938775510201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="13">
         <v>62</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="13">
         <v>34</v>
       </c>
       <c r="D10" s="5">
@@ -5846,49 +5853,49 @@
       <c r="L10" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="M10" s="12">
+      <c r="M10" s="13">
         <v>310</v>
       </c>
-      <c r="N10" s="12">
-        <v>186</v>
+      <c r="N10" s="13">
+        <v>185</v>
       </c>
       <c r="O10" s="4">
         <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.59677419354838712</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="13">
         <v>65</v>
       </c>
-      <c r="C11" s="12">
-        <v>36</v>
+      <c r="C11" s="13">
+        <v>35</v>
       </c>
       <c r="D11" s="5">
         <f t="shared" si="1"/>
-        <v>0.55384615384615388</v>
+        <v>0.53846153846153844</v>
       </c>
       <c r="O11" s="4" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="13">
         <v>310</v>
       </c>
-      <c r="C12" s="12">
-        <v>186</v>
+      <c r="C12" s="13">
+        <v>185</v>
       </c>
       <c r="D12" s="5">
         <f t="shared" si="1"/>
-        <v>0.6</v>
+        <v>0.59677419354838712</v>
       </c>
     </row>
   </sheetData>
@@ -5901,24 +5908,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I311"/>
   <sheetViews>
-    <sheetView topLeftCell="A269" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G286" sqref="G286"/>
+    <sheetView topLeftCell="A290" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I311" sqref="I311"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7265625" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="43" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>80</v>
       </c>
@@ -5947,7 +5954,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>87</v>
       </c>
@@ -5976,7 +5983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>87</v>
       </c>
@@ -6005,7 +6012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>87</v>
       </c>
@@ -6034,7 +6041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>87</v>
       </c>
@@ -6063,7 +6070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>87</v>
       </c>
@@ -6092,7 +6099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>87</v>
       </c>
@@ -6121,7 +6128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>87</v>
       </c>
@@ -6150,7 +6157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>87</v>
       </c>
@@ -6179,7 +6186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -6208,7 +6215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>87</v>
       </c>
@@ -6237,7 +6244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>87</v>
       </c>
@@ -6266,7 +6273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>87</v>
       </c>
@@ -6295,7 +6302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>87</v>
       </c>
@@ -6324,7 +6331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>87</v>
       </c>
@@ -6353,7 +6360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>87</v>
       </c>
@@ -6382,7 +6389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>87</v>
       </c>
@@ -6411,7 +6418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>87</v>
       </c>
@@ -6440,7 +6447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>87</v>
       </c>
@@ -6469,7 +6476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>87</v>
       </c>
@@ -6498,7 +6505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>87</v>
       </c>
@@ -6527,7 +6534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>87</v>
       </c>
@@ -6556,7 +6563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>87</v>
       </c>
@@ -6585,7 +6592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>87</v>
       </c>
@@ -6614,7 +6621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>87</v>
       </c>
@@ -6643,7 +6650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>87</v>
       </c>
@@ -6672,7 +6679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>87</v>
       </c>
@@ -6701,7 +6708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>87</v>
       </c>
@@ -6730,7 +6737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>87</v>
       </c>
@@ -6759,7 +6766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>87</v>
       </c>
@@ -6788,7 +6795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>87</v>
       </c>
@@ -6817,7 +6824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>87</v>
       </c>
@@ -6846,7 +6853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>87</v>
       </c>
@@ -6875,7 +6882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>87</v>
       </c>
@@ -6904,7 +6911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>87</v>
       </c>
@@ -6933,7 +6940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>87</v>
       </c>
@@ -6962,7 +6969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>87</v>
       </c>
@@ -6991,7 +6998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>87</v>
       </c>
@@ -7020,7 +7027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>87</v>
       </c>
@@ -7049,7 +7056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>87</v>
       </c>
@@ -7078,7 +7085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>87</v>
       </c>
@@ -7107,7 +7114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>87</v>
       </c>
@@ -7136,7 +7143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>87</v>
       </c>
@@ -7165,7 +7172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>87</v>
       </c>
@@ -7194,7 +7201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>87</v>
       </c>
@@ -7223,7 +7230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>87</v>
       </c>
@@ -7252,7 +7259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>87</v>
       </c>
@@ -7281,7 +7288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>87</v>
       </c>
@@ -7310,7 +7317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>87</v>
       </c>
@@ -7339,7 +7346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>87</v>
       </c>
@@ -7368,7 +7375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>87</v>
       </c>
@@ -7397,7 +7404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>87</v>
       </c>
@@ -7426,7 +7433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>87</v>
       </c>
@@ -7455,7 +7462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>87</v>
       </c>
@@ -7484,7 +7491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>87</v>
       </c>
@@ -7513,7 +7520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>87</v>
       </c>
@@ -7542,7 +7549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>87</v>
       </c>
@@ -7571,7 +7578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>87</v>
       </c>
@@ -7600,7 +7607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>87</v>
       </c>
@@ -7629,7 +7636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>87</v>
       </c>
@@ -7658,7 +7665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>87</v>
       </c>
@@ -7687,7 +7694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>87</v>
       </c>
@@ -7716,7 +7723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>87</v>
       </c>
@@ -7745,7 +7752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>87</v>
       </c>
@@ -7774,7 +7781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>87</v>
       </c>
@@ -7803,7 +7810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>87</v>
       </c>
@@ -7832,7 +7839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>87</v>
       </c>
@@ -7861,7 +7868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>88</v>
       </c>
@@ -7890,7 +7897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>88</v>
       </c>
@@ -7919,7 +7926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>88</v>
       </c>
@@ -7948,7 +7955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>88</v>
       </c>
@@ -7977,7 +7984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>88</v>
       </c>
@@ -8006,7 +8013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>88</v>
       </c>
@@ -8035,7 +8042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>88</v>
       </c>
@@ -8064,7 +8071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>88</v>
       </c>
@@ -8093,7 +8100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>88</v>
       </c>
@@ -8122,7 +8129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>88</v>
       </c>
@@ -8151,7 +8158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>88</v>
       </c>
@@ -8180,7 +8187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>88</v>
       </c>
@@ -8209,7 +8216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>88</v>
       </c>
@@ -8238,7 +8245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>88</v>
       </c>
@@ -8267,7 +8274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>88</v>
       </c>
@@ -8296,7 +8303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>88</v>
       </c>
@@ -8325,7 +8332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>88</v>
       </c>
@@ -8354,7 +8361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>88</v>
       </c>
@@ -8383,7 +8390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>88</v>
       </c>
@@ -8412,7 +8419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>88</v>
       </c>
@@ -8441,7 +8448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>88</v>
       </c>
@@ -8470,7 +8477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -8499,7 +8506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -8528,7 +8535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>88</v>
       </c>
@@ -8557,7 +8564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>88</v>
       </c>
@@ -8586,7 +8593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>88</v>
       </c>
@@ -8615,7 +8622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>88</v>
       </c>
@@ -8644,7 +8651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>88</v>
       </c>
@@ -8673,7 +8680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>88</v>
       </c>
@@ -8702,7 +8709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>88</v>
       </c>
@@ -8731,7 +8738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>88</v>
       </c>
@@ -8760,7 +8767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>88</v>
       </c>
@@ -8789,7 +8796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>88</v>
       </c>
@@ -8818,7 +8825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>88</v>
       </c>
@@ -8847,7 +8854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>88</v>
       </c>
@@ -8876,7 +8883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>88</v>
       </c>
@@ -8905,7 +8912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>88</v>
       </c>
@@ -8934,7 +8941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>88</v>
       </c>
@@ -8963,7 +8970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>88</v>
       </c>
@@ -8992,7 +8999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>88</v>
       </c>
@@ -9021,7 +9028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>88</v>
       </c>
@@ -9050,7 +9057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>88</v>
       </c>
@@ -9079,7 +9086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>88</v>
       </c>
@@ -9108,7 +9115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>88</v>
       </c>
@@ -9137,7 +9144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>88</v>
       </c>
@@ -9166,7 +9173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>88</v>
       </c>
@@ -9195,7 +9202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>88</v>
       </c>
@@ -9224,7 +9231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>88</v>
       </c>
@@ -9253,7 +9260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>88</v>
       </c>
@@ -9282,7 +9289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>88</v>
       </c>
@@ -9311,7 +9318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>88</v>
       </c>
@@ -9340,7 +9347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>88</v>
       </c>
@@ -9369,7 +9376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>88</v>
       </c>
@@ -9398,7 +9405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>88</v>
       </c>
@@ -9427,7 +9434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>89</v>
       </c>
@@ -9456,7 +9463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>89</v>
       </c>
@@ -9485,7 +9492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>89</v>
       </c>
@@ -9514,7 +9521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>89</v>
       </c>
@@ -9543,7 +9550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>89</v>
       </c>
@@ -9572,7 +9579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>89</v>
       </c>
@@ -9601,7 +9608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>89</v>
       </c>
@@ -9630,7 +9637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>89</v>
       </c>
@@ -9659,7 +9666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>89</v>
       </c>
@@ -9688,7 +9695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>89</v>
       </c>
@@ -9717,7 +9724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>89</v>
       </c>
@@ -9746,7 +9753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>89</v>
       </c>
@@ -9775,7 +9782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>89</v>
       </c>
@@ -9804,7 +9811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>89</v>
       </c>
@@ -9833,7 +9840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>89</v>
       </c>
@@ -9862,7 +9869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>89</v>
       </c>
@@ -9891,7 +9898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>89</v>
       </c>
@@ -9920,7 +9927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>89</v>
       </c>
@@ -9949,7 +9956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>89</v>
       </c>
@@ -9978,7 +9985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>89</v>
       </c>
@@ -10007,7 +10014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>89</v>
       </c>
@@ -10036,7 +10043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>89</v>
       </c>
@@ -10065,7 +10072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>89</v>
       </c>
@@ -10094,7 +10101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>89</v>
       </c>
@@ -10123,7 +10130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>89</v>
       </c>
@@ -10152,7 +10159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>89</v>
       </c>
@@ -10181,7 +10188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>89</v>
       </c>
@@ -10210,7 +10217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>89</v>
       </c>
@@ -10239,7 +10246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>89</v>
       </c>
@@ -10268,7 +10275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>89</v>
       </c>
@@ -10297,7 +10304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>89</v>
       </c>
@@ -10326,7 +10333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>89</v>
       </c>
@@ -10355,7 +10362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>89</v>
       </c>
@@ -10384,7 +10391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>89</v>
       </c>
@@ -10413,7 +10420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>89</v>
       </c>
@@ -10442,7 +10449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>89</v>
       </c>
@@ -10471,7 +10478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>90</v>
       </c>
@@ -10500,7 +10507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>90</v>
       </c>
@@ -10529,7 +10536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>90</v>
       </c>
@@ -10558,7 +10565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>90</v>
       </c>
@@ -10587,7 +10594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>90</v>
       </c>
@@ -10616,7 +10623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>90</v>
       </c>
@@ -10645,7 +10652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>90</v>
       </c>
@@ -10674,7 +10681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>90</v>
       </c>
@@ -10703,7 +10710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>90</v>
       </c>
@@ -10732,7 +10739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>90</v>
       </c>
@@ -10761,7 +10768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>90</v>
       </c>
@@ -10790,7 +10797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>90</v>
       </c>
@@ -10819,7 +10826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>90</v>
       </c>
@@ -10848,7 +10855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>90</v>
       </c>
@@ -10877,7 +10884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>90</v>
       </c>
@@ -10906,7 +10913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>90</v>
       </c>
@@ -10935,7 +10942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>90</v>
       </c>
@@ -10964,7 +10971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>90</v>
       </c>
@@ -10993,7 +11000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>90</v>
       </c>
@@ -11022,7 +11029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>90</v>
       </c>
@@ -11051,7 +11058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>90</v>
       </c>
@@ -11080,7 +11087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>90</v>
       </c>
@@ -11109,7 +11116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>90</v>
       </c>
@@ -11138,7 +11145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>90</v>
       </c>
@@ -11167,7 +11174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>90</v>
       </c>
@@ -11196,7 +11203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>90</v>
       </c>
@@ -11225,7 +11232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>90</v>
       </c>
@@ -11254,7 +11261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>90</v>
       </c>
@@ -11283,7 +11290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>90</v>
       </c>
@@ -11312,7 +11319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>90</v>
       </c>
@@ -11341,7 +11348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>90</v>
       </c>
@@ -11370,7 +11377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>90</v>
       </c>
@@ -11399,7 +11406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>90</v>
       </c>
@@ -11428,7 +11435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>90</v>
       </c>
@@ -11457,7 +11464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>90</v>
       </c>
@@ -11486,7 +11493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>90</v>
       </c>
@@ -11515,7 +11522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>90</v>
       </c>
@@ -11544,7 +11551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>90</v>
       </c>
@@ -11573,7 +11580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>90</v>
       </c>
@@ -11602,7 +11609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>90</v>
       </c>
@@ -11631,7 +11638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>90</v>
       </c>
@@ -11660,7 +11667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>90</v>
       </c>
@@ -11689,7 +11696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>90</v>
       </c>
@@ -11718,7 +11725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>90</v>
       </c>
@@ -11747,7 +11754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>90</v>
       </c>
@@ -11776,7 +11783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>90</v>
       </c>
@@ -11805,7 +11812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>90</v>
       </c>
@@ -11834,7 +11841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>90</v>
       </c>
@@ -11863,7 +11870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>90</v>
       </c>
@@ -11892,7 +11899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>90</v>
       </c>
@@ -11921,7 +11928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>90</v>
       </c>
@@ -11950,7 +11957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>90</v>
       </c>
@@ -11979,7 +11986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>90</v>
       </c>
@@ -12008,7 +12015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>90</v>
       </c>
@@ -12037,7 +12044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>90</v>
       </c>
@@ -12066,7 +12073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>90</v>
       </c>
@@ -12095,7 +12102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>90</v>
       </c>
@@ -12124,7 +12131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>92</v>
       </c>
@@ -12153,7 +12160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>92</v>
       </c>
@@ -12182,7 +12189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>92</v>
       </c>
@@ -12211,7 +12218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>92</v>
       </c>
@@ -12240,7 +12247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>92</v>
       </c>
@@ -12269,7 +12276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>92</v>
       </c>
@@ -12298,7 +12305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>92</v>
       </c>
@@ -12327,7 +12334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>92</v>
       </c>
@@ -12356,7 +12363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>92</v>
       </c>
@@ -12385,7 +12392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>92</v>
       </c>
@@ -12414,7 +12421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>92</v>
       </c>
@@ -12443,7 +12450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>92</v>
       </c>
@@ -12472,7 +12479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>92</v>
       </c>
@@ -12501,7 +12508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>92</v>
       </c>
@@ -12530,7 +12537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>92</v>
       </c>
@@ -12559,7 +12566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>92</v>
       </c>
@@ -12588,7 +12595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>92</v>
       </c>
@@ -12617,7 +12624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>92</v>
       </c>
@@ -12646,7 +12653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>92</v>
       </c>
@@ -12675,7 +12682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>92</v>
       </c>
@@ -12704,7 +12711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>92</v>
       </c>
@@ -12733,7 +12740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>92</v>
       </c>
@@ -12762,7 +12769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>92</v>
       </c>
@@ -12791,7 +12798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>92</v>
       </c>
@@ -12820,7 +12827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>92</v>
       </c>
@@ -12849,7 +12856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>92</v>
       </c>
@@ -12878,7 +12885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>92</v>
       </c>
@@ -12907,7 +12914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>92</v>
       </c>
@@ -12936,7 +12943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>92</v>
       </c>
@@ -12965,7 +12972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>92</v>
       </c>
@@ -12994,7 +13001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>92</v>
       </c>
@@ -13023,7 +13030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>92</v>
       </c>
@@ -13052,7 +13059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>92</v>
       </c>
@@ -13081,7 +13088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>92</v>
       </c>
@@ -13110,7 +13117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>92</v>
       </c>
@@ -13139,7 +13146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>92</v>
       </c>
@@ -13168,7 +13175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>92</v>
       </c>
@@ -13197,7 +13204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>92</v>
       </c>
@@ -13226,7 +13233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>92</v>
       </c>
@@ -13255,7 +13262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>92</v>
       </c>
@@ -13284,7 +13291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>92</v>
       </c>
@@ -13313,7 +13320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>92</v>
       </c>
@@ -13342,7 +13349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>92</v>
       </c>
@@ -13371,7 +13378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>92</v>
       </c>
@@ -13400,7 +13407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>92</v>
       </c>
@@ -13429,7 +13436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>92</v>
       </c>
@@ -13458,7 +13465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>92</v>
       </c>
@@ -13487,7 +13494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>92</v>
       </c>
@@ -13516,7 +13523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>91</v>
       </c>
@@ -13545,7 +13552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>91</v>
       </c>
@@ -13574,7 +13581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>91</v>
       </c>
@@ -13603,7 +13610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>91</v>
       </c>
@@ -13632,7 +13639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>91</v>
       </c>
@@ -13661,7 +13668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>91</v>
       </c>
@@ -13690,7 +13697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>91</v>
       </c>
@@ -13719,7 +13726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>91</v>
       </c>
@@ -13748,7 +13755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>91</v>
       </c>
@@ -13777,7 +13784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>91</v>
       </c>
@@ -13806,7 +13813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>91</v>
       </c>
@@ -13835,7 +13842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>91</v>
       </c>
@@ -13864,7 +13871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>91</v>
       </c>
@@ -13893,7 +13900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>91</v>
       </c>
@@ -13922,7 +13929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>91</v>
       </c>
@@ -13951,7 +13958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>91</v>
       </c>
@@ -13980,7 +13987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>91</v>
       </c>
@@ -14009,7 +14016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>91</v>
       </c>
@@ -14038,7 +14045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>91</v>
       </c>
@@ -14067,7 +14074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>91</v>
       </c>
@@ -14096,7 +14103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>91</v>
       </c>
@@ -14125,7 +14132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>91</v>
       </c>
@@ -14154,7 +14161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>91</v>
       </c>
@@ -14183,7 +14190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>91</v>
       </c>
@@ -14212,7 +14219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>91</v>
       </c>
@@ -14241,7 +14248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>91</v>
       </c>
@@ -14270,7 +14277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>91</v>
       </c>
@@ -14299,7 +14306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>91</v>
       </c>
@@ -14328,7 +14335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>91</v>
       </c>
@@ -14357,7 +14364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>91</v>
       </c>
@@ -14386,7 +14393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>91</v>
       </c>
@@ -14415,7 +14422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>91</v>
       </c>
@@ -14444,7 +14451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>91</v>
       </c>
@@ -14473,7 +14480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>91</v>
       </c>
@@ -14502,7 +14509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>91</v>
       </c>
@@ -14531,7 +14538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>91</v>
       </c>
@@ -14560,7 +14567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>91</v>
       </c>
@@ -14589,7 +14596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>91</v>
       </c>
@@ -14618,7 +14625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>91</v>
       </c>
@@ -14643,11 +14650,11 @@
       <c r="H301" t="s">
         <v>51</v>
       </c>
-      <c r="I301">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I301" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>91</v>
       </c>
@@ -14672,11 +14679,11 @@
       <c r="H302" t="s">
         <v>52</v>
       </c>
-      <c r="I302">
+      <c r="I302" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>91</v>
       </c>
@@ -14701,11 +14708,11 @@
       <c r="H303" t="s">
         <v>52</v>
       </c>
-      <c r="I303">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I303" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>91</v>
       </c>
@@ -14734,7 +14741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>91</v>
       </c>
@@ -14763,7 +14770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>91</v>
       </c>
@@ -14788,11 +14795,11 @@
       <c r="H306" t="s">
         <v>85</v>
       </c>
-      <c r="I306">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I306" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>91</v>
       </c>
@@ -14817,11 +14824,11 @@
       <c r="H307" t="s">
         <v>85</v>
       </c>
-      <c r="I307">
+      <c r="I307" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>91</v>
       </c>
@@ -14850,7 +14857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>91</v>
       </c>
@@ -14875,11 +14882,11 @@
       <c r="H309" t="s">
         <v>86</v>
       </c>
-      <c r="I309">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I309" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>91</v>
       </c>
@@ -14908,7 +14915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>91</v>
       </c>

--- a/PDA Lifetime Predictions.xlsx
+++ b/PDA Lifetime Predictions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thigg\Desktop\Hockey Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92EB57FE-9A4A-4A72-AE8B-D1963A56AA72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EF15BB-48D1-49BD-8A99-06D2AEADFEB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="28" r:id="rId3"/>
+    <pivotCache cacheId="14" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1594" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1624" uniqueCount="100">
   <si>
     <t>Date</t>
   </si>
@@ -334,6 +334,9 @@
   </si>
   <si>
     <t>75% or greater</t>
+  </si>
+  <si>
+    <t>PDA7</t>
   </si>
 </sst>
 </file>
@@ -851,7 +854,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -866,10 +869,12 @@
     <xf numFmtId="164" fontId="0" fillId="34" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="35" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="36" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -930,24 +935,25 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45311.949893287034" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="311" xr:uid="{D3A71568-3061-40C8-A74B-8B86C64C3ADC}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45312.431761342596" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="318" xr:uid="{D3A71568-3061-40C8-A74B-8B86C64C3ADC}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:I1048576" sheet="Predictions"/>
   </cacheSource>
   <cacheFields count="10">
     <cacheField name="Model Used" numFmtId="0">
-      <sharedItems containsBlank="1" count="7">
+      <sharedItems containsBlank="1" count="8">
         <s v="PDA1"/>
         <s v="PDA2"/>
         <s v="PDA3"/>
         <s v="PDA4"/>
         <s v="PDA5"/>
         <s v="PDA6"/>
+        <s v="PDA7"/>
         <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2024-01-21T00:00:00" count="41">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2024-01-22T00:00:00" count="42">
         <d v="2023-12-09T00:00:00"/>
         <d v="2023-12-10T00:00:00"/>
         <d v="2023-12-11T00:00:00"/>
@@ -988,14 +994,15 @@
         <d v="2024-01-18T00:00:00"/>
         <d v="2024-01-19T00:00:00"/>
         <d v="2024-01-20T00:00:00"/>
+        <d v="2024-01-21T00:00:00"/>
         <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="Winner1" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
-    <cacheField name="Winner Probability" numFmtId="164">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="0.50009999999999999" maxValue="0.87610539305886403" count="608">
+    <cacheField name="Winner Probability" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="0.50009999999999999" maxValue="0.87610539305886403" count="614">
         <n v="0.87609999999999999"/>
         <n v="0.78059999999999996"/>
         <n v="0.65859999999999996"/>
@@ -1294,6 +1301,12 @@
         <n v="0.55630000000000002"/>
         <n v="0.52470000000000006"/>
         <n v="0.52190000000000003"/>
+        <n v="0.77761999999999998"/>
+        <n v="0.62456999999999996"/>
+        <n v="0.58115000000000006"/>
+        <n v="0.58060999999999996"/>
+        <n v="0.54981999999999998"/>
+        <n v="0.52839000000000003"/>
         <m/>
         <n v="0.87610539305886403" u="1"/>
         <n v="0.78056782297496197" u="1"/>
@@ -1609,7 +1622,7 @@
     <cacheField name="Loser1" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
-    <cacheField name="Loser Probability" numFmtId="164">
+    <cacheField name="Loser Probability" numFmtId="0">
       <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="0.1239" maxValue="0.49990000000000001"/>
     </cacheField>
     <cacheField name="Site" numFmtId="0">
@@ -1642,7 +1655,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="311">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="318">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -5018,7 +5031,7 @@
     <n v="0.43780000000000002"/>
     <s v="Playing At:  San Jose Sharks   Home"/>
     <x v="3"/>
-    <n v="1"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="5"/>
@@ -5029,7 +5042,7 @@
     <n v="0.44369999999999998"/>
     <s v="Playing At:  Los Angeles Kings   Home"/>
     <x v="3"/>
-    <n v="1"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="5"/>
@@ -5056,30 +5069,108 @@
   <r>
     <x v="6"/>
     <x v="40"/>
+    <s v="New York Rangers"/>
+    <x v="298"/>
+    <s v="Anaheim Ducks"/>
+    <n v="0.22237999999999999"/>
+    <s v="Playing At:  Anaheim Ducks   Home"/>
+    <x v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="40"/>
+    <s v="Carolina Hurricanes"/>
+    <x v="299"/>
+    <s v="Minnesota Wild"/>
+    <n v="0.37542999999999999"/>
+    <s v="Playing At:  Carolina Hurricanes   Home"/>
+    <x v="2"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="40"/>
+    <s v="Tampa Bay Lightning"/>
+    <x v="300"/>
+    <s v="Detroit Red Wings"/>
+    <n v="0.41885"/>
+    <s v="Playing At:  Detroit Red Wings   Home"/>
+    <x v="3"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="40"/>
+    <s v="Dallas Stars"/>
+    <x v="301"/>
+    <s v="New York Islanders"/>
+    <n v="0.41938999999999999"/>
+    <s v="Playing At:  New York Islanders   Home"/>
+    <x v="3"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="40"/>
+    <s v="Toronto Maple Leafs"/>
+    <x v="302"/>
+    <s v="Seattle Kraken"/>
+    <n v="0.45018000000000002"/>
+    <s v="Playing At:  Seattle Kraken   Home"/>
+    <x v="4"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="40"/>
+    <s v="Ottawa Senators"/>
+    <x v="303"/>
+    <s v="Philadelphia Flyers"/>
+    <n v="0.47160999999999997"/>
+    <s v="Playing At:  Philadelphia Flyers   Home"/>
+    <x v="4"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="41"/>
     <m/>
-    <x v="298"/>
+    <x v="304"/>
     <m/>
     <m/>
     <m/>
     <x v="7"/>
     <m/>
   </r>
+  <r>
+    <x v="7"/>
+    <x v="41"/>
+    <m/>
+    <x v="304"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="7"/>
+    <m/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{80C3D042-980E-40EE-B50F-CF37801A1A1D}" name="PivotTable3" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{80C3D042-980E-40EE-B50F-CF37801A1A1D}" name="PivotTable3" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="L3:N10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" showAll="0">
-      <items count="8">
-        <item h="1" x="6"/>
+      <items count="9">
+        <item h="1" x="7"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
         <item x="5"/>
+        <item h="1" x="6"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -5147,23 +5238,24 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1FB34DD3-8207-4009-92F5-73C183F63DF8}" name="PivotTable1" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1FB34DD3-8207-4009-92F5-73C183F63DF8}" name="PivotTable1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A5:C13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="8">
-        <item x="6"/>
+      <items count="9">
+        <item x="7"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
         <item x="5"/>
+        <item x="6"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisPage" showAll="0">
-      <items count="42">
+      <items count="43">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -5203,21 +5295,16 @@
         <item x="36"/>
         <item x="37"/>
         <item x="38"/>
+        <item x="41"/>
+        <item x="39"/>
         <item x="40"/>
-        <item x="39"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="609">
-        <item x="298"/>
-        <item m="1" x="299"/>
-        <item m="1" x="300"/>
-        <item m="1" x="301"/>
-        <item m="1" x="302"/>
-        <item m="1" x="303"/>
-        <item m="1" x="304"/>
+      <items count="615">
+        <item x="304"/>
         <item m="1" x="305"/>
         <item m="1" x="306"/>
         <item m="1" x="307"/>
@@ -5520,8 +5607,14 @@
         <item m="1" x="604"/>
         <item m="1" x="605"/>
         <item m="1" x="606"/>
+        <item m="1" x="607"/>
+        <item m="1" x="608"/>
+        <item m="1" x="609"/>
+        <item m="1" x="610"/>
+        <item m="1" x="611"/>
+        <item m="1" x="612"/>
         <item x="9"/>
-        <item m="1" x="607"/>
+        <item m="1" x="613"/>
         <item x="286"/>
         <item x="287"/>
         <item x="288"/>
@@ -5819,6 +5912,12 @@
         <item x="283"/>
         <item x="284"/>
         <item x="285"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -6202,8 +6301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6256,15 +6355,15 @@
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="E4" s="8"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="13"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="10"/>
       <c r="L4" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="M4" s="12">
+      <c r="M4" s="16">
         <v>66</v>
       </c>
-      <c r="N4" s="12">
+      <c r="N4" s="16">
         <v>38</v>
       </c>
       <c r="O4" s="4">
@@ -6291,7 +6390,7 @@
       <c r="F5" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="12" t="s">
         <v>98</v>
       </c>
       <c r="H5" s="10" t="s">
@@ -6300,10 +6399,10 @@
       <c r="L5" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="16">
         <v>54</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="16">
         <v>31</v>
       </c>
       <c r="O5" s="4">
@@ -6315,10 +6414,10 @@
       <c r="A6" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="16">
         <v>4</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="16">
         <v>4</v>
       </c>
       <c r="D6" s="5">
@@ -6327,15 +6426,15 @@
       </c>
       <c r="E6" s="8">
         <f>SUM(B10:B12)</f>
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="F6" s="6">
         <f>SUM(B6:B9)</f>
-        <v>85</v>
-      </c>
-      <c r="G6" s="13">
+        <v>86</v>
+      </c>
+      <c r="G6" s="12">
         <f>SUM(B6:B8)</f>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" s="10">
         <f>SUM(B6:B7)</f>
@@ -6344,10 +6443,10 @@
       <c r="L6" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6" s="16">
         <v>36</v>
       </c>
-      <c r="N6" s="12">
+      <c r="N6" s="16">
         <v>24</v>
       </c>
       <c r="O6" s="4">
@@ -6359,10 +6458,10 @@
       <c r="A7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="16">
         <v>9</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="16">
         <v>9</v>
       </c>
       <c r="D7" s="5">
@@ -6371,15 +6470,15 @@
       </c>
       <c r="E7" s="8">
         <f>SUM(C10:C12)</f>
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F7" s="6">
         <f>SUM(C6:C9)</f>
-        <v>58</v>
-      </c>
-      <c r="G7" s="13">
+        <v>59</v>
+      </c>
+      <c r="G7" s="12">
         <f>SUM(C6:C8)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H7" s="10">
         <f>SUM(C6:C7)</f>
@@ -6388,10 +6487,10 @@
       <c r="L7" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7" s="16">
         <v>57</v>
       </c>
-      <c r="N7" s="12">
+      <c r="N7" s="16">
         <v>35</v>
       </c>
       <c r="O7" s="4">
@@ -6403,27 +6502,27 @@
       <c r="A8" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B8" s="12">
-        <v>33</v>
-      </c>
-      <c r="C8" s="12">
-        <v>19</v>
+      <c r="B8" s="16">
+        <v>34</v>
+      </c>
+      <c r="C8" s="16">
+        <v>20</v>
       </c>
       <c r="D8" s="5">
         <f t="shared" si="1"/>
-        <v>0.5757575757575758</v>
+        <v>0.58823529411764708</v>
       </c>
       <c r="E8" s="9">
         <f>E7/E6</f>
-        <v>0.56444444444444442</v>
+        <v>0.55652173913043479</v>
       </c>
       <c r="F8" s="7">
         <f>F7/F6</f>
-        <v>0.68235294117647061</v>
-      </c>
-      <c r="G8" s="14">
+        <v>0.68604651162790697</v>
+      </c>
+      <c r="G8" s="13">
         <f>G7/G6</f>
-        <v>0.69565217391304346</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="H8" s="11">
         <f>H7/H6</f>
@@ -6432,10 +6531,10 @@
       <c r="L8" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M8" s="12">
+      <c r="M8" s="16">
         <v>48</v>
       </c>
-      <c r="N8" s="12">
+      <c r="N8" s="16">
         <v>24</v>
       </c>
       <c r="O8" s="4">
@@ -6447,10 +6546,10 @@
       <c r="A9" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="16">
         <v>39</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="16">
         <v>26</v>
       </c>
       <c r="D9" s="5">
@@ -6460,58 +6559,58 @@
       <c r="L9" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="M9" s="12">
+      <c r="M9" s="16">
         <v>49</v>
       </c>
-      <c r="N9" s="12">
-        <v>33</v>
+      <c r="N9" s="16">
+        <v>31</v>
       </c>
       <c r="O9" s="4">
         <f t="shared" si="0"/>
-        <v>0.67346938775510201</v>
+        <v>0.63265306122448983</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="12">
-        <v>98</v>
-      </c>
-      <c r="C10" s="12">
+      <c r="B10" s="16">
+        <v>99</v>
+      </c>
+      <c r="C10" s="16">
         <v>58</v>
       </c>
       <c r="D10" s="5">
         <f t="shared" si="1"/>
-        <v>0.59183673469387754</v>
+        <v>0.58585858585858586</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="M10" s="12">
+      <c r="M10" s="16">
         <v>310</v>
       </c>
-      <c r="N10" s="12">
-        <v>185</v>
+      <c r="N10" s="16">
+        <v>183</v>
       </c>
       <c r="O10" s="4">
         <f t="shared" si="0"/>
-        <v>0.59677419354838712</v>
+        <v>0.5903225806451613</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="12">
-        <v>64</v>
-      </c>
-      <c r="C11" s="12">
+      <c r="B11" s="16">
+        <v>66</v>
+      </c>
+      <c r="C11" s="16">
         <v>36</v>
       </c>
       <c r="D11" s="5">
         <f t="shared" si="1"/>
-        <v>0.5625</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="O11" s="4" t="e">
         <f t="shared" si="0"/>
@@ -6522,30 +6621,30 @@
       <c r="A12" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="12">
-        <v>63</v>
-      </c>
-      <c r="C12" s="12">
-        <v>33</v>
+      <c r="B12" s="16">
+        <v>65</v>
+      </c>
+      <c r="C12" s="16">
+        <v>34</v>
       </c>
       <c r="D12" s="5">
         <f t="shared" si="1"/>
-        <v>0.52380952380952384</v>
+        <v>0.52307692307692311</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="12">
-        <v>310</v>
-      </c>
-      <c r="C13" s="12">
-        <v>185</v>
+      <c r="B13" s="16">
+        <v>316</v>
+      </c>
+      <c r="C13" s="16">
+        <v>187</v>
       </c>
       <c r="D13" s="5">
         <f t="shared" si="1"/>
-        <v>0.59677419354838712</v>
+        <v>0.59177215189873422</v>
       </c>
     </row>
   </sheetData>
@@ -6556,10 +6655,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I311"/>
+  <dimension ref="A1:I317"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A310" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C315" sqref="C315"/>
+    <sheetView topLeftCell="A293" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A312" sqref="A312:XFD312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12299,7 +12398,7 @@
       <c r="C198" t="s">
         <v>43</v>
       </c>
-      <c r="D198" s="15" t="s">
+      <c r="D198" s="14" t="s">
         <v>95</v>
       </c>
       <c r="E198" t="s">
@@ -13436,7 +13535,7 @@
       <c r="E237" t="s">
         <v>37</v>
       </c>
-      <c r="F237" s="15" t="s">
+      <c r="F237" s="14" t="s">
         <v>96</v>
       </c>
       <c r="G237" t="s">
@@ -14184,7 +14283,7 @@
       <c r="C263" t="s">
         <v>25</v>
       </c>
-      <c r="D263" s="15" t="s">
+      <c r="D263" s="14" t="s">
         <v>97</v>
       </c>
       <c r="E263" t="s">
@@ -15272,7 +15371,7 @@
       <c r="H300" t="s">
         <v>61</v>
       </c>
-      <c r="I300" s="13">
+      <c r="I300" s="15">
         <v>1</v>
       </c>
     </row>
@@ -15301,7 +15400,7 @@
       <c r="H301" t="s">
         <v>94</v>
       </c>
-      <c r="I301" s="13">
+      <c r="I301" s="15">
         <v>1</v>
       </c>
     </row>
@@ -15330,7 +15429,7 @@
       <c r="H302" t="s">
         <v>51</v>
       </c>
-      <c r="I302" s="13">
+      <c r="I302" s="15">
         <v>0</v>
       </c>
     </row>
@@ -15359,7 +15458,7 @@
       <c r="H303" t="s">
         <v>51</v>
       </c>
-      <c r="I303">
+      <c r="I303" s="15">
         <v>1</v>
       </c>
     </row>
@@ -15388,7 +15487,7 @@
       <c r="H304" t="s">
         <v>51</v>
       </c>
-      <c r="I304">
+      <c r="I304" s="15">
         <v>1</v>
       </c>
     </row>
@@ -15417,7 +15516,7 @@
       <c r="H305" t="s">
         <v>51</v>
       </c>
-      <c r="I305" s="13">
+      <c r="I305" s="15">
         <v>1</v>
       </c>
     </row>
@@ -15446,7 +15545,7 @@
       <c r="H306" t="s">
         <v>84</v>
       </c>
-      <c r="I306" s="13">
+      <c r="I306" s="15">
         <v>1</v>
       </c>
     </row>
@@ -15475,7 +15574,7 @@
       <c r="H307" t="s">
         <v>84</v>
       </c>
-      <c r="I307" s="13">
+      <c r="I307" s="15">
         <v>0</v>
       </c>
     </row>
@@ -15504,8 +15603,8 @@
       <c r="H308" t="s">
         <v>84</v>
       </c>
-      <c r="I308">
-        <v>1</v>
+      <c r="I308" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.35">
@@ -15533,8 +15632,8 @@
       <c r="H309" t="s">
         <v>84</v>
       </c>
-      <c r="I309">
-        <v>1</v>
+      <c r="I309" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.35">
@@ -15562,7 +15661,7 @@
       <c r="H310" t="s">
         <v>85</v>
       </c>
-      <c r="I310" s="13">
+      <c r="I310" s="15">
         <v>0</v>
       </c>
     </row>
@@ -15591,8 +15690,182 @@
       <c r="H311" t="s">
         <v>85</v>
       </c>
-      <c r="I311" s="13">
-        <v>1</v>
+      <c r="I311" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A312" t="s">
+        <v>99</v>
+      </c>
+      <c r="B312" s="1">
+        <v>45312</v>
+      </c>
+      <c r="C312" t="s">
+        <v>25</v>
+      </c>
+      <c r="D312" s="17">
+        <v>0.77761999999999998</v>
+      </c>
+      <c r="E312" t="s">
+        <v>17</v>
+      </c>
+      <c r="F312" s="17">
+        <v>0.22237999999999999</v>
+      </c>
+      <c r="G312" t="s">
+        <v>18</v>
+      </c>
+      <c r="H312" t="s">
+        <v>93</v>
+      </c>
+      <c r="I312" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A313" t="s">
+        <v>99</v>
+      </c>
+      <c r="B313" s="1">
+        <v>45312</v>
+      </c>
+      <c r="C313" t="s">
+        <v>43</v>
+      </c>
+      <c r="D313" s="17">
+        <v>0.62456999999999996</v>
+      </c>
+      <c r="E313" t="s">
+        <v>58</v>
+      </c>
+      <c r="F313" s="17">
+        <v>0.37542999999999999</v>
+      </c>
+      <c r="G313" t="s">
+        <v>74</v>
+      </c>
+      <c r="H313" t="s">
+        <v>51</v>
+      </c>
+      <c r="I313" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A314" t="s">
+        <v>99</v>
+      </c>
+      <c r="B314" s="1">
+        <v>45312</v>
+      </c>
+      <c r="C314" t="s">
+        <v>22</v>
+      </c>
+      <c r="D314" s="17">
+        <v>0.58115000000000006</v>
+      </c>
+      <c r="E314" t="s">
+        <v>37</v>
+      </c>
+      <c r="F314" s="17">
+        <v>0.41885</v>
+      </c>
+      <c r="G314" t="s">
+        <v>38</v>
+      </c>
+      <c r="H314" t="s">
+        <v>84</v>
+      </c>
+      <c r="I314" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A315" t="s">
+        <v>99</v>
+      </c>
+      <c r="B315" s="1">
+        <v>45312</v>
+      </c>
+      <c r="C315" t="s">
+        <v>28</v>
+      </c>
+      <c r="D315" s="17">
+        <v>0.58060999999999996</v>
+      </c>
+      <c r="E315" t="s">
+        <v>39</v>
+      </c>
+      <c r="F315" s="17">
+        <v>0.41938999999999999</v>
+      </c>
+      <c r="G315" t="s">
+        <v>41</v>
+      </c>
+      <c r="H315" t="s">
+        <v>84</v>
+      </c>
+      <c r="I315" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A316" t="s">
+        <v>99</v>
+      </c>
+      <c r="B316" s="1">
+        <v>45312</v>
+      </c>
+      <c r="C316" t="s">
+        <v>19</v>
+      </c>
+      <c r="D316" s="17">
+        <v>0.54981999999999998</v>
+      </c>
+      <c r="E316" t="s">
+        <v>23</v>
+      </c>
+      <c r="F316" s="17">
+        <v>0.45018000000000002</v>
+      </c>
+      <c r="G316" t="s">
+        <v>24</v>
+      </c>
+      <c r="H316" t="s">
+        <v>85</v>
+      </c>
+      <c r="I316" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A317" t="s">
+        <v>99</v>
+      </c>
+      <c r="B317" s="1">
+        <v>45312</v>
+      </c>
+      <c r="C317" t="s">
+        <v>36</v>
+      </c>
+      <c r="D317" s="17">
+        <v>0.52839000000000003</v>
+      </c>
+      <c r="E317" t="s">
+        <v>8</v>
+      </c>
+      <c r="F317" s="17">
+        <v>0.47160999999999997</v>
+      </c>
+      <c r="G317" t="s">
+        <v>73</v>
+      </c>
+      <c r="H317" t="s">
+        <v>85</v>
+      </c>
+      <c r="I317" s="15">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/PDA Lifetime Predictions.xlsx
+++ b/PDA Lifetime Predictions.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thigg\Desktop\Hockey Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EF15BB-48D1-49BD-8A99-06D2AEADFEB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA134765-E83A-47FF-9F7F-A8C539CF34DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51480" yWindow="-195" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="14" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1624" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1685" uniqueCount="107">
   <si>
     <t>Date</t>
   </si>
@@ -337,6 +337,27 @@
   </si>
   <si>
     <t>PDA7</t>
+  </si>
+  <si>
+    <t>PDA1 Total</t>
+  </si>
+  <si>
+    <t>PDA2 Total</t>
+  </si>
+  <si>
+    <t>PDA3 Total</t>
+  </si>
+  <si>
+    <t>PDA4 Total</t>
+  </si>
+  <si>
+    <t>PDA5 Total</t>
+  </si>
+  <si>
+    <t>PDA6 Total</t>
+  </si>
+  <si>
+    <t>PDA7 Total</t>
   </si>
 </sst>
 </file>
@@ -854,14 +875,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -872,9 +892,8 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="36" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -935,7 +954,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45312.431761342596" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="318" xr:uid="{D3A71568-3061-40C8-A74B-8B86C64C3ADC}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45313.33396851852" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="323" xr:uid="{D3A71568-3061-40C8-A74B-8B86C64C3ADC}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:I1048576" sheet="Predictions"/>
   </cacheSource>
@@ -953,7 +972,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2024-01-22T00:00:00" count="42">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2024-01-23T00:00:00" count="43">
         <d v="2023-12-09T00:00:00"/>
         <d v="2023-12-10T00:00:00"/>
         <d v="2023-12-11T00:00:00"/>
@@ -995,6 +1014,7 @@
         <d v="2024-01-19T00:00:00"/>
         <d v="2024-01-20T00:00:00"/>
         <d v="2024-01-21T00:00:00"/>
+        <d v="2024-01-22T00:00:00"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -1002,7 +1022,7 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Winner Probability" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="0.50009999999999999" maxValue="0.87610539305886403" count="614">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="0.50009999999999999" maxValue="0.87610539305886403" count="620">
         <n v="0.87609999999999999"/>
         <n v="0.78059999999999996"/>
         <n v="0.65859999999999996"/>
@@ -1307,6 +1327,12 @@
         <n v="0.58060999999999996"/>
         <n v="0.54981999999999998"/>
         <n v="0.52839000000000003"/>
+        <n v="0.7742"/>
+        <n v="0.76790000000000003"/>
+        <n v="0.68989999999999996"/>
+        <n v="0.59699999999999998"/>
+        <n v="0.52280000000000004"/>
+        <n v="0.50860000000000005"/>
         <m/>
         <n v="0.87610539305886403" u="1"/>
         <n v="0.78056782297496197" u="1"/>
@@ -1655,7 +1681,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="318">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="323">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -5097,7 +5123,7 @@
     <n v="0.41885"/>
     <s v="Playing At:  Detroit Red Wings   Home"/>
     <x v="3"/>
-    <n v="1"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="6"/>
@@ -5108,7 +5134,7 @@
     <n v="0.41938999999999999"/>
     <s v="Playing At:  New York Islanders   Home"/>
     <x v="3"/>
-    <n v="1"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="6"/>
@@ -5130,115 +5156,90 @@
     <n v="0.47160999999999997"/>
     <s v="Playing At:  Philadelphia Flyers   Home"/>
     <x v="4"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="41"/>
+    <s v="Vancouver Canucks"/>
+    <x v="304"/>
+    <s v="Chicago Blackhawks"/>
+    <n v="0.2258"/>
+    <s v="Playing At:  Vancouver Canucks   Home"/>
+    <x v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="41"/>
+    <s v="Los Angeles Kings"/>
+    <x v="305"/>
+    <s v="San Jose Sharks"/>
+    <n v="0.2321"/>
+    <s v="Playing At:  Los Angeles Kings   Home"/>
+    <x v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="41"/>
+    <s v="Boston Bruins"/>
+    <x v="306"/>
+    <s v="Winnipeg Jets"/>
+    <n v="0.31009999999999999"/>
+    <s v="Playing At:  Boston Bruins   Home"/>
+    <x v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="41"/>
+    <s v="Pittsburgh Penguins"/>
+    <x v="307"/>
+    <s v="Arizona Coyotes"/>
+    <n v="0.40300000000000002"/>
+    <s v="Playing At:  Arizona Coyotes   Home"/>
+    <x v="3"/>
     <n v="0"/>
   </r>
   <r>
+    <x v="6"/>
+    <x v="41"/>
+    <s v="New Jersey Devils"/>
+    <x v="308"/>
+    <s v="Vegas Golden Knights"/>
+    <n v="0.47720000000000001"/>
+    <s v="Playing At:  New Jersey Devils   Home"/>
+    <x v="4"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="41"/>
+    <s v="Florida Panthers"/>
+    <x v="309"/>
+    <s v="Nashville Predators"/>
+    <n v="0.4914"/>
+    <s v="Playing At:  Nashville Predators   Home"/>
+    <x v="4"/>
+    <n v="1"/>
+  </r>
+  <r>
     <x v="7"/>
-    <x v="41"/>
+    <x v="42"/>
     <m/>
-    <x v="304"/>
+    <x v="310"/>
     <m/>
     <m/>
     <m/>
     <x v="7"/>
     <m/>
   </r>
-  <r>
-    <x v="7"/>
-    <x v="41"/>
-    <m/>
-    <x v="304"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="7"/>
-    <m/>
-  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{80C3D042-980E-40EE-B50F-CF37801A1A1D}" name="PivotTable3" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="L3:N10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="10">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="9">
-        <item h="1" x="7"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item h="1" x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Count of Winner1" fld="2" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Model" fld="8" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1FB34DD3-8207-4009-92F5-73C183F63DF8}" name="PivotTable1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1FB34DD3-8207-4009-92F5-73C183F63DF8}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A5:C13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
@@ -5255,7 +5256,7 @@
       </items>
     </pivotField>
     <pivotField axis="axisPage" showAll="0">
-      <items count="43">
+      <items count="44">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -5295,22 +5296,17 @@
         <item x="36"/>
         <item x="37"/>
         <item x="38"/>
-        <item x="41"/>
+        <item x="42"/>
         <item x="39"/>
         <item x="40"/>
+        <item x="41"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="615">
-        <item x="304"/>
-        <item m="1" x="305"/>
-        <item m="1" x="306"/>
-        <item m="1" x="307"/>
-        <item m="1" x="308"/>
-        <item m="1" x="309"/>
-        <item m="1" x="310"/>
+      <items count="621">
+        <item x="310"/>
         <item m="1" x="311"/>
         <item m="1" x="312"/>
         <item m="1" x="313"/>
@@ -5613,8 +5609,14 @@
         <item m="1" x="610"/>
         <item m="1" x="611"/>
         <item m="1" x="612"/>
+        <item m="1" x="613"/>
+        <item m="1" x="614"/>
+        <item m="1" x="615"/>
+        <item m="1" x="616"/>
+        <item m="1" x="617"/>
+        <item m="1" x="618"/>
         <item x="9"/>
-        <item m="1" x="613"/>
+        <item m="1" x="619"/>
         <item x="286"/>
         <item x="287"/>
         <item x="288"/>
@@ -5918,6 +5920,12 @@
         <item x="301"/>
         <item x="302"/>
         <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -5986,6 +5994,173 @@
     <pageField fld="1" hier="-1"/>
     <pageField fld="3" hier="-1"/>
   </pageFields>
+  <dataFields count="2">
+    <dataField name="Count of Winner1" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Model" fld="8" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{80C3D042-980E-40EE-B50F-CF37801A1A1D}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="L3:O32" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
+  <pivotFields count="10">
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="9">
+        <item h="1" x="7"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" numFmtId="14" outline="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="10">
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="2"/>
+        <item x="6"/>
+        <item m="1" x="8"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="29">
+    <i>
+      <x v="1"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i t="default">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i t="default">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i t="default">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+      <x v="5"/>
+    </i>
+    <i t="default">
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
   <dataFields count="2">
     <dataField name="Count of Winner1" fld="2" subtotal="count" baseField="0" baseItem="0"/>
     <dataField name="Sum of Model" fld="8" baseField="0" baseItem="0"/>
@@ -6299,27 +6474,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>79</v>
       </c>
@@ -6327,7 +6501,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -6335,7 +6509,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -6343,35 +6517,44 @@
         <v>80</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="M3" t="s">
+        <v>79</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N3" t="s">
         <v>92</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="E4" s="8"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="10"/>
-      <c r="L4" s="3" t="s">
+      <c r="P3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E4" s="7"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="9"/>
+      <c r="L4" t="s">
         <v>86</v>
       </c>
-      <c r="M4" s="16">
-        <v>66</v>
-      </c>
-      <c r="N4" s="16">
-        <v>38</v>
-      </c>
-      <c r="O4" s="4">
-        <f>N4/M4</f>
-        <v>0.5757575757575758</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="M4" t="s">
+        <v>94</v>
+      </c>
+      <c r="N4" s="15">
+        <v>5</v>
+      </c>
+      <c r="O4" s="15">
+        <v>5</v>
+      </c>
+      <c r="P4" s="4">
+        <f>O4/N4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>52</v>
       </c>
@@ -6384,298 +6567,759 @@
       <c r="D5" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="L5" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="M5" s="16">
-        <v>54</v>
-      </c>
-      <c r="N5" s="16">
-        <v>31</v>
-      </c>
-      <c r="O5" s="4">
-        <f t="shared" ref="O5:O11" si="0">N5/M5</f>
-        <v>0.57407407407407407</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="M5" t="s">
+        <v>93</v>
+      </c>
+      <c r="N5" s="15">
+        <v>7</v>
+      </c>
+      <c r="O5" s="15">
+        <v>4</v>
+      </c>
+      <c r="P5" s="4">
+        <f t="shared" ref="P5:P53" si="0">O5/N5</f>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="15">
         <v>4</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="15">
         <v>4</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <f>C6/B6</f>
         <v>1</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <f>SUM(B10:B12)</f>
-        <v>230</v>
-      </c>
-      <c r="F6" s="6">
+        <v>234</v>
+      </c>
+      <c r="F6" s="5">
         <f>SUM(B6:B9)</f>
-        <v>86</v>
-      </c>
-      <c r="G6" s="12">
+        <v>88</v>
+      </c>
+      <c r="G6" s="11">
         <f>SUM(B6:B8)</f>
-        <v>47</v>
-      </c>
-      <c r="H6" s="10">
+        <v>49</v>
+      </c>
+      <c r="H6" s="9">
         <f>SUM(B6:B7)</f>
         <v>13</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="M6" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" s="15">
+        <v>2</v>
+      </c>
+      <c r="O6" s="15">
+        <v>2</v>
+      </c>
+      <c r="P6" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="15">
+        <v>9</v>
+      </c>
+      <c r="C7" s="15">
+        <v>9</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" ref="D7:D13" si="1">C7/B7</f>
+        <v>1</v>
+      </c>
+      <c r="E7" s="7">
+        <f>SUM(C10:C12)</f>
+        <v>129</v>
+      </c>
+      <c r="F7" s="5">
+        <f>SUM(C6:C9)</f>
+        <v>61</v>
+      </c>
+      <c r="G7" s="11">
+        <f>SUM(C6:C8)</f>
+        <v>35</v>
+      </c>
+      <c r="H7" s="9">
+        <f>SUM(C6:C7)</f>
+        <v>13</v>
+      </c>
+      <c r="M7" t="s">
+        <v>61</v>
+      </c>
+      <c r="N7" s="15">
+        <v>1</v>
+      </c>
+      <c r="O7" s="15">
+        <v>1</v>
+      </c>
+      <c r="P7" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="15">
+        <v>36</v>
+      </c>
+      <c r="C8" s="15">
+        <v>22</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="1"/>
+        <v>0.61111111111111116</v>
+      </c>
+      <c r="E8" s="8">
+        <f>E7/E6</f>
+        <v>0.55128205128205132</v>
+      </c>
+      <c r="F8" s="6">
+        <f>F7/F6</f>
+        <v>0.69318181818181823</v>
+      </c>
+      <c r="G8" s="12">
+        <f>G7/G6</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="H8" s="10">
+        <f>H7/H6</f>
+        <v>1</v>
+      </c>
+      <c r="L8" t="s">
+        <v>100</v>
+      </c>
+      <c r="N8" s="15">
+        <v>15</v>
+      </c>
+      <c r="O8" s="15">
+        <v>12</v>
+      </c>
+      <c r="P8" s="4">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="15">
+        <v>39</v>
+      </c>
+      <c r="C9" s="15">
+        <v>26</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L9" t="s">
+        <v>87</v>
+      </c>
+      <c r="M9" t="s">
+        <v>94</v>
+      </c>
+      <c r="N9" s="15">
+        <v>8</v>
+      </c>
+      <c r="O9" s="15">
+        <v>5</v>
+      </c>
+      <c r="P9" s="4">
+        <f t="shared" si="0"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="15">
+        <v>100</v>
+      </c>
+      <c r="C10" s="15">
+        <v>59</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="1"/>
+        <v>0.59</v>
+      </c>
+      <c r="M10" t="s">
+        <v>93</v>
+      </c>
+      <c r="N10" s="15">
+        <v>6</v>
+      </c>
+      <c r="O10" s="15">
+        <v>1</v>
+      </c>
+      <c r="P10" s="4">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="15">
+        <v>67</v>
+      </c>
+      <c r="C11" s="15">
+        <v>34</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="1"/>
+        <v>0.5074626865671642</v>
+      </c>
+      <c r="M11" t="s">
+        <v>50</v>
+      </c>
+      <c r="N11" s="15">
+        <v>1</v>
+      </c>
+      <c r="O11" s="15">
+        <v>1</v>
+      </c>
+      <c r="P11" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="15">
+        <v>67</v>
+      </c>
+      <c r="C12" s="15">
+        <v>36</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="1"/>
+        <v>0.53731343283582089</v>
+      </c>
+      <c r="L12" t="s">
+        <v>101</v>
+      </c>
+      <c r="N12" s="15">
+        <v>15</v>
+      </c>
+      <c r="O12" s="15">
+        <v>7</v>
+      </c>
+      <c r="P12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.46666666666666667</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="15">
+        <v>322</v>
+      </c>
+      <c r="C13" s="15">
+        <v>190</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="1"/>
+        <v>0.59006211180124224</v>
+      </c>
+      <c r="L13" t="s">
         <v>88</v>
       </c>
-      <c r="M6" s="16">
-        <v>36</v>
-      </c>
-      <c r="N6" s="16">
-        <v>24</v>
-      </c>
-      <c r="O6" s="4">
+      <c r="M13" t="s">
+        <v>94</v>
+      </c>
+      <c r="N13" s="15">
+        <v>3</v>
+      </c>
+      <c r="O13" s="15">
+        <v>2</v>
+      </c>
+      <c r="P13" s="4">
         <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M14" t="s">
+        <v>93</v>
+      </c>
+      <c r="N14" s="15">
+        <v>7</v>
+      </c>
+      <c r="O14" s="15">
+        <v>4</v>
+      </c>
+      <c r="P14" s="4">
+        <f t="shared" si="0"/>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M15" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="16">
+      <c r="N15" s="15">
+        <v>2</v>
+      </c>
+      <c r="O15" s="15">
+        <v>2</v>
+      </c>
+      <c r="P15" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L16" t="s">
+        <v>102</v>
+      </c>
+      <c r="N16" s="15">
+        <v>12</v>
+      </c>
+      <c r="O16" s="15">
+        <v>8</v>
+      </c>
+      <c r="P16" s="4">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="17" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L17" t="s">
+        <v>89</v>
+      </c>
+      <c r="M17" t="s">
+        <v>94</v>
+      </c>
+      <c r="N17" s="15">
         <v>9</v>
       </c>
-      <c r="C7" s="16">
-        <v>9</v>
-      </c>
-      <c r="D7" s="5">
-        <f t="shared" ref="D7:D13" si="1">C7/B7</f>
-        <v>1</v>
-      </c>
-      <c r="E7" s="8">
-        <f>SUM(C10:C12)</f>
-        <v>128</v>
-      </c>
-      <c r="F7" s="6">
-        <f>SUM(C6:C9)</f>
-        <v>59</v>
-      </c>
-      <c r="G7" s="12">
-        <f>SUM(C6:C8)</f>
-        <v>33</v>
-      </c>
-      <c r="H7" s="10">
-        <f>SUM(C6:C7)</f>
-        <v>13</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="M7" s="16">
-        <v>57</v>
-      </c>
-      <c r="N7" s="16">
-        <v>35</v>
-      </c>
-      <c r="O7" s="4">
+      <c r="O17" s="15">
+        <v>5</v>
+      </c>
+      <c r="P17" s="4">
         <f t="shared" si="0"/>
-        <v>0.61403508771929827</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="18" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="M18" t="s">
         <v>93</v>
       </c>
-      <c r="B8" s="16">
-        <v>34</v>
-      </c>
-      <c r="C8" s="16">
-        <v>20</v>
-      </c>
-      <c r="D8" s="5">
-        <f t="shared" si="1"/>
-        <v>0.58823529411764708</v>
-      </c>
-      <c r="E8" s="9">
-        <f>E7/E6</f>
-        <v>0.55652173913043479</v>
-      </c>
-      <c r="F8" s="7">
-        <f>F7/F6</f>
-        <v>0.68604651162790697</v>
-      </c>
-      <c r="G8" s="13">
-        <f>G7/G6</f>
-        <v>0.7021276595744681</v>
-      </c>
-      <c r="H8" s="11">
-        <f>H7/H6</f>
-        <v>1</v>
-      </c>
-      <c r="L8" s="3" t="s">
+      <c r="N18" s="15">
+        <v>4</v>
+      </c>
+      <c r="O18" s="15">
+        <v>4</v>
+      </c>
+      <c r="P18" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="M19" t="s">
+        <v>50</v>
+      </c>
+      <c r="N19" s="15">
+        <v>3</v>
+      </c>
+      <c r="O19" s="15">
+        <v>3</v>
+      </c>
+      <c r="P19" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="M20" t="s">
+        <v>61</v>
+      </c>
+      <c r="N20" s="15">
+        <v>2</v>
+      </c>
+      <c r="O20" s="15">
+        <v>2</v>
+      </c>
+      <c r="P20" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L21" t="s">
+        <v>103</v>
+      </c>
+      <c r="N21" s="15">
+        <v>18</v>
+      </c>
+      <c r="O21" s="15">
+        <v>14</v>
+      </c>
+      <c r="P21" s="4">
+        <f t="shared" si="0"/>
+        <v>0.77777777777777779</v>
+      </c>
+    </row>
+    <row r="22" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L22" t="s">
         <v>91</v>
       </c>
-      <c r="M8" s="16">
-        <v>48</v>
-      </c>
-      <c r="N8" s="16">
-        <v>24</v>
-      </c>
-      <c r="O8" s="4">
+      <c r="M22" t="s">
+        <v>94</v>
+      </c>
+      <c r="N22" s="15">
+        <v>6</v>
+      </c>
+      <c r="O22" s="15">
+        <v>3</v>
+      </c>
+      <c r="P22" s="4">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+    <row r="23" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="M23" t="s">
+        <v>93</v>
+      </c>
+      <c r="N23" s="15">
+        <v>6</v>
+      </c>
+      <c r="O23" s="15">
+        <v>5</v>
+      </c>
+      <c r="P23" s="4">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="24" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="M24" t="s">
+        <v>50</v>
+      </c>
+      <c r="N24" s="15">
+        <v>1</v>
+      </c>
+      <c r="O24" s="15">
+        <v>1</v>
+      </c>
+      <c r="P24" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L25" t="s">
+        <v>104</v>
+      </c>
+      <c r="N25" s="15">
+        <v>13</v>
+      </c>
+      <c r="O25" s="15">
+        <v>9</v>
+      </c>
+      <c r="P25" s="4">
+        <f t="shared" si="0"/>
+        <v>0.69230769230769229</v>
+      </c>
+    </row>
+    <row r="26" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L26" t="s">
+        <v>90</v>
+      </c>
+      <c r="M26" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="16">
-        <v>39</v>
-      </c>
-      <c r="C9" s="16">
-        <v>26</v>
-      </c>
-      <c r="D9" s="5">
-        <f t="shared" si="1"/>
+      <c r="N26" s="15">
+        <v>8</v>
+      </c>
+      <c r="O26" s="15">
+        <v>6</v>
+      </c>
+      <c r="P26" s="4">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="27" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="M27" t="s">
+        <v>93</v>
+      </c>
+      <c r="N27" s="15">
+        <v>3</v>
+      </c>
+      <c r="O27" s="15">
+        <v>1</v>
+      </c>
+      <c r="P27" s="4">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="28" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="M28" t="s">
+        <v>61</v>
+      </c>
+      <c r="N28" s="15">
+        <v>1</v>
+      </c>
+      <c r="O28" s="15">
+        <v>1</v>
+      </c>
+      <c r="P28" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L29" t="s">
+        <v>105</v>
+      </c>
+      <c r="N29" s="15">
+        <v>12</v>
+      </c>
+      <c r="O29" s="15">
+        <v>8</v>
+      </c>
+      <c r="P29" s="4">
+        <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="M9" s="16">
-        <v>49</v>
-      </c>
-      <c r="N9" s="16">
-        <v>31</v>
-      </c>
-      <c r="O9" s="4">
+    </row>
+    <row r="30" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L30" t="s">
+        <v>99</v>
+      </c>
+      <c r="M30" t="s">
+        <v>93</v>
+      </c>
+      <c r="N30" s="15">
+        <v>3</v>
+      </c>
+      <c r="O30" s="15">
+        <v>3</v>
+      </c>
+      <c r="P30" s="4">
         <f t="shared" si="0"/>
-        <v>0.63265306122448983</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="16">
-        <v>99</v>
-      </c>
-      <c r="C10" s="16">
-        <v>58</v>
-      </c>
-      <c r="D10" s="5">
-        <f t="shared" si="1"/>
-        <v>0.58585858585858586</v>
-      </c>
-      <c r="L10" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L31" t="s">
+        <v>106</v>
+      </c>
+      <c r="N31" s="15">
+        <v>3</v>
+      </c>
+      <c r="O31" s="15">
+        <v>3</v>
+      </c>
+      <c r="P31" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L32" t="s">
         <v>53</v>
       </c>
-      <c r="M10" s="16">
-        <v>310</v>
-      </c>
-      <c r="N10" s="16">
-        <v>183</v>
-      </c>
-      <c r="O10" s="4">
+      <c r="N32" s="15">
+        <v>88</v>
+      </c>
+      <c r="O32" s="15">
+        <v>61</v>
+      </c>
+      <c r="P32" s="4">
         <f t="shared" si="0"/>
-        <v>0.5903225806451613</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11" s="16">
-        <v>66</v>
-      </c>
-      <c r="C11" s="16">
-        <v>36</v>
-      </c>
-      <c r="D11" s="5">
-        <f t="shared" si="1"/>
-        <v>0.54545454545454541</v>
-      </c>
-      <c r="O11" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B12" s="16">
-        <v>65</v>
-      </c>
-      <c r="C12" s="16">
-        <v>34</v>
-      </c>
-      <c r="D12" s="5">
-        <f t="shared" si="1"/>
-        <v>0.52307692307692311</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="16">
-        <v>316</v>
-      </c>
-      <c r="C13" s="16">
-        <v>187</v>
-      </c>
-      <c r="D13" s="5">
-        <f t="shared" si="1"/>
-        <v>0.59177215189873422</v>
-      </c>
+        <v>0.69318181818181823</v>
+      </c>
+    </row>
+    <row r="33" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P33" s="4"/>
+    </row>
+    <row r="34" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P34" s="4"/>
+    </row>
+    <row r="35" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P35" s="4"/>
+    </row>
+    <row r="36" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P36" s="4"/>
+    </row>
+    <row r="37" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P37" s="4"/>
+    </row>
+    <row r="38" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P38" s="4"/>
+    </row>
+    <row r="39" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P39" s="4"/>
+    </row>
+    <row r="40" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P40" s="4"/>
+    </row>
+    <row r="41" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P41" s="4"/>
+    </row>
+    <row r="42" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P42" s="4"/>
+    </row>
+    <row r="43" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P43" s="4"/>
+    </row>
+    <row r="44" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P44" s="4"/>
+    </row>
+    <row r="45" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P45" s="4"/>
+    </row>
+    <row r="46" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P46" s="4"/>
+    </row>
+    <row r="47" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P47" s="4"/>
+    </row>
+    <row r="48" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P48" s="4"/>
+    </row>
+    <row r="49" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P49" s="4"/>
+    </row>
+    <row r="50" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P50" s="4"/>
+    </row>
+    <row r="51" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P51" s="4"/>
+    </row>
+    <row r="52" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P52" s="4"/>
+    </row>
+    <row r="53" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P53" s="4"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D6:D13">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F833D603-4820-4345-BC01-8F370382F018}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P4:P32">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{59C707E9-25C8-43F4-98A6-E1AF8E25CF14}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{F833D603-4820-4345-BC01-8F370382F018}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D6:D13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{59C707E9-25C8-43F4-98A6-E1AF8E25CF14}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>P4:P32</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I317"/>
+  <dimension ref="A1:I323"/>
   <sheetViews>
     <sheetView topLeftCell="A293" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A312" sqref="A312:XFD312"/>
+      <selection activeCell="E326" sqref="E326"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="43" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>79</v>
       </c>
@@ -6685,13 +7329,13 @@
       <c r="C1" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="G1" t="s">
@@ -6704,7 +7348,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -6714,13 +7358,13 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>0.87609999999999999</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>0.1239</v>
       </c>
       <c r="G2" t="s">
@@ -6733,7 +7377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>86</v>
       </c>
@@ -6743,13 +7387,13 @@
       <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>0.78059999999999996</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>0.21940000000000001</v>
       </c>
       <c r="G3" t="s">
@@ -6762,7 +7406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>86</v>
       </c>
@@ -6772,13 +7416,13 @@
       <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>0.65859999999999996</v>
       </c>
       <c r="E4" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>0.34139999999999998</v>
       </c>
       <c r="G4" t="s">
@@ -6791,7 +7435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>86</v>
       </c>
@@ -6801,13 +7445,13 @@
       <c r="C5" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>0.64610000000000001</v>
       </c>
       <c r="E5" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>0.35389999999999999</v>
       </c>
       <c r="G5" t="s">
@@ -6820,7 +7464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>86</v>
       </c>
@@ -6830,13 +7474,13 @@
       <c r="C6" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>0.60309999999999997</v>
       </c>
       <c r="E6" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>0.39689999999999998</v>
       </c>
       <c r="G6" t="s">
@@ -6849,7 +7493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>86</v>
       </c>
@@ -6859,13 +7503,13 @@
       <c r="C7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>0.60260000000000002</v>
       </c>
       <c r="E7" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>0.39739999999999998</v>
       </c>
       <c r="G7" t="s">
@@ -6878,7 +7522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -6888,13 +7532,13 @@
       <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>0.59179999999999999</v>
       </c>
       <c r="E8" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>0.40820000000000001</v>
       </c>
       <c r="G8" t="s">
@@ -6907,7 +7551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -6917,13 +7561,13 @@
       <c r="C9" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>0.57840000000000003</v>
       </c>
       <c r="E9" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <v>0.42159999999999997</v>
       </c>
       <c r="G9" t="s">
@@ -6936,7 +7580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>86</v>
       </c>
@@ -6946,13 +7590,13 @@
       <c r="C10" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>0.55759999999999998</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <v>0.44240000000000002</v>
       </c>
       <c r="G10" t="s">
@@ -6965,7 +7609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>86</v>
       </c>
@@ -6975,13 +7619,13 @@
       <c r="C11" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>0.54039999999999999</v>
       </c>
       <c r="E11" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <v>0.45960000000000001</v>
       </c>
       <c r="G11" t="s">
@@ -6994,7 +7638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>86</v>
       </c>
@@ -7004,13 +7648,13 @@
       <c r="C12" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>0.53820000000000001</v>
       </c>
       <c r="E12" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <v>0.46179999999999999</v>
       </c>
       <c r="G12" t="s">
@@ -7023,7 +7667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>86</v>
       </c>
@@ -7033,13 +7677,13 @@
       <c r="C13" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>0.51359999999999995</v>
       </c>
       <c r="E13" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="4">
         <v>0.4864</v>
       </c>
       <c r="G13" t="s">
@@ -7052,7 +7696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>86</v>
       </c>
@@ -7062,13 +7706,13 @@
       <c r="C14" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>0.82889999999999997</v>
       </c>
       <c r="E14" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="4">
         <v>0.1711</v>
       </c>
       <c r="G14" t="s">
@@ -7081,7 +7725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>86</v>
       </c>
@@ -7091,13 +7735,13 @@
       <c r="C15" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>0.70760000000000001</v>
       </c>
       <c r="E15" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="4">
         <v>0.29239999999999999</v>
       </c>
       <c r="G15" t="s">
@@ -7110,7 +7754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>86</v>
       </c>
@@ -7120,13 +7764,13 @@
       <c r="C16" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>0.67510000000000003</v>
       </c>
       <c r="E16" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="4">
         <v>0.32490000000000002</v>
       </c>
       <c r="G16" t="s">
@@ -7139,7 +7783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>86</v>
       </c>
@@ -7149,13 +7793,13 @@
       <c r="C17" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>0.66</v>
       </c>
       <c r="E17" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="4">
         <v>0.34</v>
       </c>
       <c r="G17" t="s">
@@ -7168,7 +7812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>86</v>
       </c>
@@ -7178,13 +7822,13 @@
       <c r="C18" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>0.6149</v>
       </c>
       <c r="E18" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="4">
         <v>0.3851</v>
       </c>
       <c r="G18" t="s">
@@ -7197,7 +7841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>86</v>
       </c>
@@ -7207,13 +7851,13 @@
       <c r="C19" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <v>0.60699999999999998</v>
       </c>
       <c r="E19" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="4">
         <v>0.39300000000000002</v>
       </c>
       <c r="G19" t="s">
@@ -7226,7 +7870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>86</v>
       </c>
@@ -7236,13 +7880,13 @@
       <c r="C20" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <v>0.55869999999999997</v>
       </c>
       <c r="E20" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="4">
         <v>0.44130000000000003</v>
       </c>
       <c r="G20" t="s">
@@ -7255,7 +7899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>86</v>
       </c>
@@ -7265,13 +7909,13 @@
       <c r="C21" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4">
         <v>0.54339999999999999</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="4">
         <v>0.45660000000000001</v>
       </c>
       <c r="G21" t="s">
@@ -7284,7 +7928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>86</v>
       </c>
@@ -7294,13 +7938,13 @@
       <c r="C22" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="4">
         <v>0.72189999999999999</v>
       </c>
       <c r="E22" t="s">
         <v>37</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="4">
         <v>0.27810000000000001</v>
       </c>
       <c r="G22" t="s">
@@ -7313,7 +7957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>86</v>
       </c>
@@ -7323,13 +7967,13 @@
       <c r="C23" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="4">
         <v>0.70589999999999997</v>
       </c>
       <c r="E23" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="4">
         <v>0.29409999999999997</v>
       </c>
       <c r="G23" t="s">
@@ -7342,7 +7986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>86</v>
       </c>
@@ -7352,13 +7996,13 @@
       <c r="C24" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="4">
         <v>0.65190000000000003</v>
       </c>
       <c r="E24" t="s">
         <v>5</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="4">
         <v>0.34810000000000002</v>
       </c>
       <c r="G24" t="s">
@@ -7371,7 +8015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>86</v>
       </c>
@@ -7381,13 +8025,13 @@
       <c r="C25" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="4">
         <v>0.56810000000000005</v>
       </c>
       <c r="E25" t="s">
         <v>39</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="4">
         <v>0.43190000000000001</v>
       </c>
       <c r="G25" t="s">
@@ -7400,7 +8044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>86</v>
       </c>
@@ -7410,13 +8054,13 @@
       <c r="C26" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="4">
         <v>0.79159999999999997</v>
       </c>
       <c r="E26" t="s">
         <v>14</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="4">
         <v>0.2084</v>
       </c>
       <c r="G26" t="s">
@@ -7429,7 +8073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>86</v>
       </c>
@@ -7439,13 +8083,13 @@
       <c r="C27" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="4">
         <v>0.75219999999999998</v>
       </c>
       <c r="E27" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="4">
         <v>0.24779999999999999</v>
       </c>
       <c r="G27" t="s">
@@ -7458,7 +8102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>86</v>
       </c>
@@ -7468,13 +8112,13 @@
       <c r="C28" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="4">
         <v>0.72799999999999998</v>
       </c>
       <c r="E28" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="4">
         <v>0.27200000000000002</v>
       </c>
       <c r="G28" t="s">
@@ -7487,7 +8131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>86</v>
       </c>
@@ -7497,13 +8141,13 @@
       <c r="C29" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="4">
         <v>0.68079999999999996</v>
       </c>
       <c r="E29" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="4">
         <v>0.31919999999999998</v>
       </c>
       <c r="G29" t="s">
@@ -7516,7 +8160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>86</v>
       </c>
@@ -7526,13 +8170,13 @@
       <c r="C30" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="4">
         <v>0.64290000000000003</v>
       </c>
       <c r="E30" t="s">
         <v>36</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="4">
         <v>0.35709999999999997</v>
       </c>
       <c r="G30" t="s">
@@ -7545,7 +8189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>86</v>
       </c>
@@ -7555,13 +8199,13 @@
       <c r="C31" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="4">
         <v>0.62629999999999997</v>
       </c>
       <c r="E31" t="s">
         <v>5</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="4">
         <v>0.37369999999999998</v>
       </c>
       <c r="G31" t="s">
@@ -7574,7 +8218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>86</v>
       </c>
@@ -7584,13 +8228,13 @@
       <c r="C32" t="s">
         <v>25</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="4">
         <v>0.59960000000000002</v>
       </c>
       <c r="E32" t="s">
         <v>19</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="4">
         <v>0.40039999999999998</v>
       </c>
       <c r="G32" t="s">
@@ -7603,7 +8247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>86</v>
       </c>
@@ -7613,13 +8257,13 @@
       <c r="C33" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="4">
         <v>0.59419999999999995</v>
       </c>
       <c r="E33" t="s">
         <v>33</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33" s="4">
         <v>0.40579999999999999</v>
       </c>
       <c r="G33" t="s">
@@ -7632,7 +8276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>86</v>
       </c>
@@ -7642,13 +8286,13 @@
       <c r="C34" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="4">
         <v>0.54100000000000004</v>
       </c>
       <c r="E34" t="s">
         <v>22</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34" s="4">
         <v>0.45900000000000002</v>
       </c>
       <c r="G34" t="s">
@@ -7661,7 +8305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>86</v>
       </c>
@@ -7671,13 +8315,13 @@
       <c r="C35" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="4">
         <v>0.53069999999999995</v>
       </c>
       <c r="E35" t="s">
         <v>37</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F35" s="4">
         <v>0.46929999999999999</v>
       </c>
       <c r="G35" t="s">
@@ -7690,7 +8334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>86</v>
       </c>
@@ -7700,13 +8344,13 @@
       <c r="C36" t="s">
         <v>39</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="4">
         <v>0.71479999999999999</v>
       </c>
       <c r="E36" t="s">
         <v>17</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F36" s="4">
         <v>0.28520000000000001</v>
       </c>
       <c r="G36" t="s">
@@ -7719,7 +8363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>86</v>
       </c>
@@ -7729,13 +8373,13 @@
       <c r="C37" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="4">
         <v>0.69740000000000002</v>
       </c>
       <c r="E37" t="s">
         <v>11</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37" s="4">
         <v>0.30259999999999998</v>
       </c>
       <c r="G37" t="s">
@@ -7748,7 +8392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>86</v>
       </c>
@@ -7758,13 +8402,13 @@
       <c r="C38" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="4">
         <v>0.67269999999999996</v>
       </c>
       <c r="E38" t="s">
         <v>46</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38" s="4">
         <v>0.32729999999999998</v>
       </c>
       <c r="G38" t="s">
@@ -7777,7 +8421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>86</v>
       </c>
@@ -7787,13 +8431,13 @@
       <c r="C39" t="s">
         <v>66</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="4">
         <v>0.59689999999999999</v>
       </c>
       <c r="E39" t="s">
         <v>45</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F39" s="4">
         <v>0.40310000000000001</v>
       </c>
       <c r="G39" t="s">
@@ -7806,7 +8450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>86</v>
       </c>
@@ -7816,13 +8460,13 @@
       <c r="C40" t="s">
         <v>40</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="4">
         <v>0.51380000000000003</v>
       </c>
       <c r="E40" t="s">
         <v>16</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F40" s="4">
         <v>0.48620000000000002</v>
       </c>
       <c r="G40" t="s">
@@ -7835,7 +8479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>86</v>
       </c>
@@ -7845,13 +8489,13 @@
       <c r="C41" t="s">
         <v>23</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="4">
         <v>0.79010000000000002</v>
       </c>
       <c r="E41" t="s">
         <v>14</v>
       </c>
-      <c r="F41" s="5">
+      <c r="F41" s="4">
         <v>0.2099</v>
       </c>
       <c r="G41" t="s">
@@ -7864,7 +8508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>86</v>
       </c>
@@ -7874,13 +8518,13 @@
       <c r="C42" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="4">
         <v>0.7893</v>
       </c>
       <c r="E42" t="s">
         <v>34</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F42" s="4">
         <v>0.2107</v>
       </c>
       <c r="G42" t="s">
@@ -7893,7 +8537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>86</v>
       </c>
@@ -7903,13 +8547,13 @@
       <c r="C43" t="s">
         <v>43</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="4">
         <v>0.59060000000000001</v>
       </c>
       <c r="E43" t="s">
         <v>37</v>
       </c>
-      <c r="F43" s="5">
+      <c r="F43" s="4">
         <v>0.40939999999999999</v>
       </c>
       <c r="G43" t="s">
@@ -7922,7 +8566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>86</v>
       </c>
@@ -7932,13 +8576,13 @@
       <c r="C44" t="s">
         <v>58</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44" s="4">
         <v>0.58230000000000004</v>
       </c>
       <c r="E44" t="s">
         <v>31</v>
       </c>
-      <c r="F44" s="5">
+      <c r="F44" s="4">
         <v>0.41770000000000002</v>
       </c>
       <c r="G44" t="s">
@@ -7951,7 +8595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>86</v>
       </c>
@@ -7961,13 +8605,13 @@
       <c r="C45" t="s">
         <v>26</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="4">
         <v>0.56100000000000005</v>
       </c>
       <c r="E45" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="5">
+      <c r="F45" s="4">
         <v>0.439</v>
       </c>
       <c r="G45" t="s">
@@ -7980,7 +8624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>86</v>
       </c>
@@ -7990,13 +8634,13 @@
       <c r="C46" t="s">
         <v>10</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="4">
         <v>0.54139999999999999</v>
       </c>
       <c r="E46" t="s">
         <v>22</v>
       </c>
-      <c r="F46" s="5">
+      <c r="F46" s="4">
         <v>0.45860000000000001</v>
       </c>
       <c r="G46" t="s">
@@ -8009,7 +8653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>86</v>
       </c>
@@ -8019,13 +8663,13 @@
       <c r="C47" t="s">
         <v>42</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47" s="4">
         <v>0.5252</v>
       </c>
       <c r="E47" t="s">
         <v>33</v>
       </c>
-      <c r="F47" s="5">
+      <c r="F47" s="4">
         <v>0.4748</v>
       </c>
       <c r="G47" t="s">
@@ -8038,7 +8682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>86</v>
       </c>
@@ -8048,13 +8692,13 @@
       <c r="C48" t="s">
         <v>13</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48" s="4">
         <v>0.50580000000000003</v>
       </c>
       <c r="E48" t="s">
         <v>36</v>
       </c>
-      <c r="F48" s="5">
+      <c r="F48" s="4">
         <v>0.49419999999999997</v>
       </c>
       <c r="G48" t="s">
@@ -8067,7 +8711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>86</v>
       </c>
@@ -8077,13 +8721,13 @@
       <c r="C49" t="s">
         <v>25</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D49" s="4">
         <v>0.83030000000000004</v>
       </c>
       <c r="E49" t="s">
         <v>17</v>
       </c>
-      <c r="F49" s="5">
+      <c r="F49" s="4">
         <v>0.16969999999999999</v>
       </c>
       <c r="G49" t="s">
@@ -8096,7 +8740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>86</v>
       </c>
@@ -8106,13 +8750,13 @@
       <c r="C50" t="s">
         <v>4</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D50" s="4">
         <v>0.76970000000000005</v>
       </c>
       <c r="E50" t="s">
         <v>39</v>
       </c>
-      <c r="F50" s="5">
+      <c r="F50" s="4">
         <v>0.2303</v>
       </c>
       <c r="G50" t="s">
@@ -8125,7 +8769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>86</v>
       </c>
@@ -8135,13 +8779,13 @@
       <c r="C51" t="s">
         <v>29</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D51" s="4">
         <v>0.6885</v>
       </c>
       <c r="E51" t="s">
         <v>46</v>
       </c>
-      <c r="F51" s="5">
+      <c r="F51" s="4">
         <v>0.3115</v>
       </c>
       <c r="G51" t="s">
@@ -8154,7 +8798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>86</v>
       </c>
@@ -8164,13 +8808,13 @@
       <c r="C52" t="s">
         <v>28</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D52" s="4">
         <v>0.62419999999999998</v>
       </c>
       <c r="E52" t="s">
         <v>36</v>
       </c>
-      <c r="F52" s="5">
+      <c r="F52" s="4">
         <v>0.37580000000000002</v>
       </c>
       <c r="G52" t="s">
@@ -8183,7 +8827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>86</v>
       </c>
@@ -8193,13 +8837,13 @@
       <c r="C53" t="s">
         <v>43</v>
       </c>
-      <c r="D53" s="5">
+      <c r="D53" s="4">
         <v>0.61070000000000002</v>
       </c>
       <c r="E53" t="s">
         <v>20</v>
       </c>
-      <c r="F53" s="5">
+      <c r="F53" s="4">
         <v>0.38929999999999998</v>
       </c>
       <c r="G53" t="s">
@@ -8212,7 +8856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>86</v>
       </c>
@@ -8222,13 +8866,13 @@
       <c r="C54" t="s">
         <v>5</v>
       </c>
-      <c r="D54" s="5">
+      <c r="D54" s="4">
         <v>0.60250000000000004</v>
       </c>
       <c r="E54" t="s">
         <v>56</v>
       </c>
-      <c r="F54" s="5">
+      <c r="F54" s="4">
         <v>0.39750000000000002</v>
       </c>
       <c r="G54" t="s">
@@ -8241,7 +8885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>86</v>
       </c>
@@ -8251,13 +8895,13 @@
       <c r="C55" t="s">
         <v>11</v>
       </c>
-      <c r="D55" s="5">
+      <c r="D55" s="4">
         <v>0.78059999999999996</v>
       </c>
       <c r="E55" t="s">
         <v>34</v>
       </c>
-      <c r="F55" s="5">
+      <c r="F55" s="4">
         <v>0.21940000000000001</v>
       </c>
       <c r="G55" t="s">
@@ -8270,7 +8914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>86</v>
       </c>
@@ -8280,13 +8924,13 @@
       <c r="C56" t="s">
         <v>19</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D56" s="4">
         <v>0.66120000000000001</v>
       </c>
       <c r="E56" t="s">
         <v>66</v>
       </c>
-      <c r="F56" s="5">
+      <c r="F56" s="4">
         <v>0.33879999999999999</v>
       </c>
       <c r="G56" t="s">
@@ -8299,7 +8943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>86</v>
       </c>
@@ -8309,13 +8953,13 @@
       <c r="C57" t="s">
         <v>4</v>
       </c>
-      <c r="D57" s="5">
+      <c r="D57" s="4">
         <v>0.63180000000000003</v>
       </c>
       <c r="E57" t="s">
         <v>25</v>
       </c>
-      <c r="F57" s="5">
+      <c r="F57" s="4">
         <v>0.36820000000000003</v>
       </c>
       <c r="G57" t="s">
@@ -8328,7 +8972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>86</v>
       </c>
@@ -8338,13 +8982,13 @@
       <c r="C58" t="s">
         <v>46</v>
       </c>
-      <c r="D58" s="5">
+      <c r="D58" s="4">
         <v>0.61670000000000003</v>
       </c>
       <c r="E58" t="s">
         <v>5</v>
       </c>
-      <c r="F58" s="5">
+      <c r="F58" s="4">
         <v>0.38329999999999997</v>
       </c>
       <c r="G58" t="s">
@@ -8357,7 +9001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>86</v>
       </c>
@@ -8367,13 +9011,13 @@
       <c r="C59" t="s">
         <v>20</v>
       </c>
-      <c r="D59" s="5">
+      <c r="D59" s="4">
         <v>0.61219999999999997</v>
       </c>
       <c r="E59" t="s">
         <v>26</v>
       </c>
-      <c r="F59" s="5">
+      <c r="F59" s="4">
         <v>0.38779999999999998</v>
       </c>
       <c r="G59" t="s">
@@ -8386,7 +9030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>86</v>
       </c>
@@ -8396,13 +9040,13 @@
       <c r="C60" t="s">
         <v>39</v>
       </c>
-      <c r="D60" s="5">
+      <c r="D60" s="4">
         <v>0.60199999999999998</v>
       </c>
       <c r="E60" t="s">
         <v>45</v>
       </c>
-      <c r="F60" s="5">
+      <c r="F60" s="4">
         <v>0.39800000000000002</v>
       </c>
       <c r="G60" t="s">
@@ -8415,7 +9059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>86</v>
       </c>
@@ -8425,13 +9069,13 @@
       <c r="C61" t="s">
         <v>58</v>
       </c>
-      <c r="D61" s="5">
+      <c r="D61" s="4">
         <v>0.57769999999999999</v>
       </c>
       <c r="E61" t="s">
         <v>42</v>
       </c>
-      <c r="F61" s="5">
+      <c r="F61" s="4">
         <v>0.42230000000000001</v>
       </c>
       <c r="G61" t="s">
@@ -8444,7 +9088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>86</v>
       </c>
@@ -8454,13 +9098,13 @@
       <c r="C62" t="s">
         <v>40</v>
       </c>
-      <c r="D62" s="5">
+      <c r="D62" s="4">
         <v>0.57450000000000001</v>
       </c>
       <c r="E62" t="s">
         <v>23</v>
       </c>
-      <c r="F62" s="5">
+      <c r="F62" s="4">
         <v>0.42549999999999999</v>
       </c>
       <c r="G62" t="s">
@@ -8473,7 +9117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>86</v>
       </c>
@@ -8483,13 +9127,13 @@
       <c r="C63" t="s">
         <v>28</v>
       </c>
-      <c r="D63" s="5">
+      <c r="D63" s="4">
         <v>0.57079999999999997</v>
       </c>
       <c r="E63" t="s">
         <v>13</v>
       </c>
-      <c r="F63" s="5">
+      <c r="F63" s="4">
         <v>0.42920000000000003</v>
       </c>
       <c r="G63" t="s">
@@ -8502,7 +9146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>86</v>
       </c>
@@ -8512,13 +9156,13 @@
       <c r="C64" t="s">
         <v>37</v>
       </c>
-      <c r="D64" s="5">
+      <c r="D64" s="4">
         <v>0.54930000000000001</v>
       </c>
       <c r="E64" t="s">
         <v>8</v>
       </c>
-      <c r="F64" s="5">
+      <c r="F64" s="4">
         <v>0.45069999999999999</v>
       </c>
       <c r="G64" t="s">
@@ -8531,7 +9175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>86</v>
       </c>
@@ -8541,13 +9185,13 @@
       <c r="C65" t="s">
         <v>7</v>
       </c>
-      <c r="D65" s="5">
+      <c r="D65" s="4">
         <v>0.54920000000000002</v>
       </c>
       <c r="E65" t="s">
         <v>16</v>
       </c>
-      <c r="F65" s="5">
+      <c r="F65" s="4">
         <v>0.45079999999999998</v>
       </c>
       <c r="G65" t="s">
@@ -8560,7 +9204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>86</v>
       </c>
@@ -8570,13 +9214,13 @@
       <c r="C66" t="s">
         <v>22</v>
       </c>
-      <c r="D66" s="5">
+      <c r="D66" s="4">
         <v>0.54590000000000005</v>
       </c>
       <c r="E66" t="s">
         <v>31</v>
       </c>
-      <c r="F66" s="5">
+      <c r="F66" s="4">
         <v>0.4541</v>
       </c>
       <c r="G66" t="s">
@@ -8589,7 +9233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>86</v>
       </c>
@@ -8599,13 +9243,13 @@
       <c r="C67" t="s">
         <v>10</v>
       </c>
-      <c r="D67" s="5">
+      <c r="D67" s="4">
         <v>0.5323</v>
       </c>
       <c r="E67" t="s">
         <v>33</v>
       </c>
-      <c r="F67" s="5">
+      <c r="F67" s="4">
         <v>0.4677</v>
       </c>
       <c r="G67" t="s">
@@ -8618,7 +9262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>87</v>
       </c>
@@ -8628,13 +9272,13 @@
       <c r="C68" t="s">
         <v>7</v>
       </c>
-      <c r="D68" s="5">
+      <c r="D68" s="4">
         <v>0.82509999999999994</v>
       </c>
       <c r="E68" t="s">
         <v>56</v>
       </c>
-      <c r="F68" s="5">
+      <c r="F68" s="4">
         <v>0.1749</v>
       </c>
       <c r="G68" t="s">
@@ -8647,7 +9291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>87</v>
       </c>
@@ -8657,13 +9301,13 @@
       <c r="C69" t="s">
         <v>11</v>
       </c>
-      <c r="D69" s="5">
+      <c r="D69" s="4">
         <v>0.79220000000000002</v>
       </c>
       <c r="E69" t="s">
         <v>17</v>
       </c>
-      <c r="F69" s="5">
+      <c r="F69" s="4">
         <v>0.20780000000000001</v>
       </c>
       <c r="G69" t="s">
@@ -8676,7 +9320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>87</v>
       </c>
@@ -8686,13 +9330,13 @@
       <c r="C70" t="s">
         <v>42</v>
       </c>
-      <c r="D70" s="5">
+      <c r="D70" s="4">
         <v>0.72340000000000004</v>
       </c>
       <c r="E70" t="s">
         <v>14</v>
       </c>
-      <c r="F70" s="5">
+      <c r="F70" s="4">
         <v>0.27660000000000001</v>
       </c>
       <c r="G70" t="s">
@@ -8705,7 +9349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>87</v>
       </c>
@@ -8715,13 +9359,13 @@
       <c r="C71" t="s">
         <v>43</v>
       </c>
-      <c r="D71" s="5">
+      <c r="D71" s="4">
         <v>0.70669999999999999</v>
       </c>
       <c r="E71" t="s">
         <v>26</v>
       </c>
-      <c r="F71" s="5">
+      <c r="F71" s="4">
         <v>0.29330000000000001</v>
       </c>
       <c r="G71" t="s">
@@ -8734,7 +9378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>87</v>
       </c>
@@ -8744,13 +9388,13 @@
       <c r="C72" t="s">
         <v>29</v>
       </c>
-      <c r="D72" s="5">
+      <c r="D72" s="4">
         <v>0.65920000000000001</v>
       </c>
       <c r="E72" t="s">
         <v>36</v>
       </c>
-      <c r="F72" s="5">
+      <c r="F72" s="4">
         <v>0.34079999999999999</v>
       </c>
       <c r="G72" t="s">
@@ -8763,7 +9407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>87</v>
       </c>
@@ -8773,13 +9417,13 @@
       <c r="C73" t="s">
         <v>16</v>
       </c>
-      <c r="D73" s="5">
+      <c r="D73" s="4">
         <v>0.68469999999999998</v>
       </c>
       <c r="E73" t="s">
         <v>45</v>
       </c>
-      <c r="F73" s="5">
+      <c r="F73" s="4">
         <v>0.31530000000000002</v>
       </c>
       <c r="G73" t="s">
@@ -8792,7 +9436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>87</v>
       </c>
@@ -8802,13 +9446,13 @@
       <c r="C74" t="s">
         <v>37</v>
       </c>
-      <c r="D74" s="5">
+      <c r="D74" s="4">
         <v>0.62319999999999998</v>
       </c>
       <c r="E74" t="s">
         <v>17</v>
       </c>
-      <c r="F74" s="5">
+      <c r="F74" s="4">
         <v>0.37680000000000002</v>
       </c>
       <c r="G74" t="s">
@@ -8821,7 +9465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>87</v>
       </c>
@@ -8831,13 +9475,13 @@
       <c r="C75" t="s">
         <v>33</v>
       </c>
-      <c r="D75" s="5">
+      <c r="D75" s="4">
         <v>0.58650000000000002</v>
       </c>
       <c r="E75" t="s">
         <v>31</v>
       </c>
-      <c r="F75" s="5">
+      <c r="F75" s="4">
         <v>0.41349999999999998</v>
       </c>
       <c r="G75" t="s">
@@ -8850,7 +9494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>87</v>
       </c>
@@ -8860,13 +9504,13 @@
       <c r="C76" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="5">
+      <c r="D76" s="4">
         <v>0.57030000000000003</v>
       </c>
       <c r="E76" t="s">
         <v>23</v>
       </c>
-      <c r="F76" s="5">
+      <c r="F76" s="4">
         <v>0.42970000000000003</v>
       </c>
       <c r="G76" t="s">
@@ -8879,7 +9523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>87</v>
       </c>
@@ -8889,13 +9533,13 @@
       <c r="C77" t="s">
         <v>66</v>
       </c>
-      <c r="D77" s="5">
+      <c r="D77" s="4">
         <v>0.5121</v>
       </c>
       <c r="E77" t="s">
         <v>58</v>
       </c>
-      <c r="F77" s="5">
+      <c r="F77" s="4">
         <v>0.4879</v>
       </c>
       <c r="G77" t="s">
@@ -8908,7 +9552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>87</v>
       </c>
@@ -8918,13 +9562,13 @@
       <c r="C78" t="s">
         <v>40</v>
       </c>
-      <c r="D78" s="5">
+      <c r="D78" s="4">
         <v>0.7984</v>
       </c>
       <c r="E78" t="s">
         <v>56</v>
       </c>
-      <c r="F78" s="5">
+      <c r="F78" s="4">
         <v>0.2016</v>
       </c>
       <c r="G78" t="s">
@@ -8937,7 +9581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>87</v>
       </c>
@@ -8947,13 +9591,13 @@
       <c r="C79" t="s">
         <v>7</v>
       </c>
-      <c r="D79" s="5">
+      <c r="D79" s="4">
         <v>0.77600000000000002</v>
       </c>
       <c r="E79" t="s">
         <v>14</v>
       </c>
-      <c r="F79" s="5">
+      <c r="F79" s="4">
         <v>0.224</v>
       </c>
       <c r="G79" t="s">
@@ -8966,7 +9610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>87</v>
       </c>
@@ -8976,13 +9620,13 @@
       <c r="C80" t="s">
         <v>4</v>
       </c>
-      <c r="D80" s="5">
+      <c r="D80" s="4">
         <v>0.77070000000000005</v>
       </c>
       <c r="E80" t="s">
         <v>58</v>
       </c>
-      <c r="F80" s="5">
+      <c r="F80" s="4">
         <v>0.2293</v>
       </c>
       <c r="G80" t="s">
@@ -8995,7 +9639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>87</v>
       </c>
@@ -9005,13 +9649,13 @@
       <c r="C81" t="s">
         <v>11</v>
       </c>
-      <c r="D81" s="5">
+      <c r="D81" s="4">
         <v>0.76770000000000005</v>
       </c>
       <c r="E81" t="s">
         <v>8</v>
       </c>
-      <c r="F81" s="5">
+      <c r="F81" s="4">
         <v>0.23230000000000001</v>
       </c>
       <c r="G81" t="s">
@@ -9024,7 +9668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>87</v>
       </c>
@@ -9034,13 +9678,13 @@
       <c r="C82" t="s">
         <v>46</v>
       </c>
-      <c r="D82" s="5">
+      <c r="D82" s="4">
         <v>0.72099999999999997</v>
       </c>
       <c r="E82" t="s">
         <v>34</v>
       </c>
-      <c r="F82" s="5">
+      <c r="F82" s="4">
         <v>0.27900000000000003</v>
       </c>
       <c r="G82" t="s">
@@ -9053,7 +9697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>87</v>
       </c>
@@ -9063,13 +9707,13 @@
       <c r="C83" t="s">
         <v>22</v>
       </c>
-      <c r="D83" s="5">
+      <c r="D83" s="4">
         <v>0.63719999999999999</v>
       </c>
       <c r="E83" t="s">
         <v>13</v>
       </c>
-      <c r="F83" s="5">
+      <c r="F83" s="4">
         <v>0.36280000000000001</v>
       </c>
       <c r="G83" t="s">
@@ -9082,7 +9726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>87</v>
       </c>
@@ -9092,13 +9736,13 @@
       <c r="C84" t="s">
         <v>43</v>
       </c>
-      <c r="D84" s="5">
+      <c r="D84" s="4">
         <v>0.62960000000000005</v>
       </c>
       <c r="E84" t="s">
         <v>29</v>
       </c>
-      <c r="F84" s="5">
+      <c r="F84" s="4">
         <v>0.37040000000000001</v>
       </c>
       <c r="G84" t="s">
@@ -9111,7 +9755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>87</v>
       </c>
@@ -9121,13 +9765,13 @@
       <c r="C85" t="s">
         <v>36</v>
       </c>
-      <c r="D85" s="5">
+      <c r="D85" s="4">
         <v>0.62070000000000003</v>
       </c>
       <c r="E85" t="s">
         <v>5</v>
       </c>
-      <c r="F85" s="5">
+      <c r="F85" s="4">
         <v>0.37930000000000003</v>
       </c>
       <c r="G85" t="s">
@@ -9140,7 +9784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>87</v>
       </c>
@@ -9150,13 +9794,13 @@
       <c r="C86" t="s">
         <v>20</v>
       </c>
-      <c r="D86" s="5">
+      <c r="D86" s="4">
         <v>0.60609999999999997</v>
       </c>
       <c r="E86" t="s">
         <v>42</v>
       </c>
-      <c r="F86" s="5">
+      <c r="F86" s="4">
         <v>0.39389999999999997</v>
       </c>
       <c r="G86" t="s">
@@ -9169,7 +9813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>87</v>
       </c>
@@ -9179,13 +9823,13 @@
       <c r="C87" t="s">
         <v>10</v>
       </c>
-      <c r="D87" s="5">
+      <c r="D87" s="4">
         <v>0.58360000000000001</v>
       </c>
       <c r="E87" t="s">
         <v>39</v>
       </c>
-      <c r="F87" s="5">
+      <c r="F87" s="4">
         <v>0.41639999999999999</v>
       </c>
       <c r="G87" t="s">
@@ -9198,7 +9842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -9208,13 +9852,13 @@
       <c r="C88" t="s">
         <v>25</v>
       </c>
-      <c r="D88" s="5">
+      <c r="D88" s="4">
         <v>0.50929999999999997</v>
       </c>
       <c r="E88" t="s">
         <v>19</v>
       </c>
-      <c r="F88" s="5">
+      <c r="F88" s="4">
         <v>0.49070000000000003</v>
       </c>
       <c r="G88" t="s">
@@ -9227,7 +9871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -9237,13 +9881,13 @@
       <c r="C89" t="s">
         <v>40</v>
       </c>
-      <c r="D89" s="5">
+      <c r="D89" s="4">
         <v>0.60880000000000001</v>
       </c>
       <c r="E89" t="s">
         <v>23</v>
       </c>
-      <c r="F89" s="5">
+      <c r="F89" s="4">
         <v>0.39119999999999999</v>
       </c>
       <c r="G89" t="s">
@@ -9256,7 +9900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>87</v>
       </c>
@@ -9266,13 +9910,13 @@
       <c r="C90" t="s">
         <v>16</v>
       </c>
-      <c r="D90" s="5">
+      <c r="D90" s="4">
         <v>0.60489999999999999</v>
       </c>
       <c r="E90" t="s">
         <v>37</v>
       </c>
-      <c r="F90" s="5">
+      <c r="F90" s="4">
         <v>0.39510000000000001</v>
       </c>
       <c r="G90" t="s">
@@ -9285,7 +9929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>87</v>
       </c>
@@ -9295,13 +9939,13 @@
       <c r="C91" t="s">
         <v>39</v>
       </c>
-      <c r="D91" s="5">
+      <c r="D91" s="4">
         <v>0.50900000000000001</v>
       </c>
       <c r="E91" t="s">
         <v>26</v>
       </c>
-      <c r="F91" s="5">
+      <c r="F91" s="4">
         <v>0.49099999999999999</v>
       </c>
       <c r="G91" t="s">
@@ -9314,7 +9958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>87</v>
       </c>
@@ -9324,13 +9968,13 @@
       <c r="C92" t="s">
         <v>33</v>
       </c>
-      <c r="D92" s="5">
+      <c r="D92" s="4">
         <v>0.67910000000000004</v>
       </c>
       <c r="E92" t="s">
         <v>13</v>
       </c>
-      <c r="F92" s="5">
+      <c r="F92" s="4">
         <v>0.32090000000000002</v>
       </c>
       <c r="G92" t="s">
@@ -9343,7 +9987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>87</v>
       </c>
@@ -9353,13 +9997,13 @@
       <c r="C93" t="s">
         <v>58</v>
       </c>
-      <c r="D93" s="5">
+      <c r="D93" s="4">
         <v>0.66039999999999999</v>
       </c>
       <c r="E93" t="s">
         <v>45</v>
       </c>
-      <c r="F93" s="5">
+      <c r="F93" s="4">
         <v>0.33960000000000001</v>
       </c>
       <c r="G93" t="s">
@@ -9372,7 +10016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>87</v>
       </c>
@@ -9382,13 +10026,13 @@
       <c r="C94" t="s">
         <v>26</v>
       </c>
-      <c r="D94" s="5">
+      <c r="D94" s="4">
         <v>0.64400000000000002</v>
       </c>
       <c r="E94" t="s">
         <v>34</v>
       </c>
-      <c r="F94" s="5">
+      <c r="F94" s="4">
         <v>0.35599999999999998</v>
       </c>
       <c r="G94" t="s">
@@ -9401,7 +10045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>87</v>
       </c>
@@ -9411,13 +10055,13 @@
       <c r="C95" t="s">
         <v>43</v>
       </c>
-      <c r="D95" s="5">
+      <c r="D95" s="4">
         <v>0.64239999999999997</v>
       </c>
       <c r="E95" t="s">
         <v>66</v>
       </c>
-      <c r="F95" s="5">
+      <c r="F95" s="4">
         <v>0.35759999999999997</v>
       </c>
       <c r="G95" t="s">
@@ -9430,7 +10074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>87</v>
       </c>
@@ -9440,13 +10084,13 @@
       <c r="C96" t="s">
         <v>20</v>
       </c>
-      <c r="D96" s="5">
+      <c r="D96" s="4">
         <v>0.64149999999999996</v>
       </c>
       <c r="E96" t="s">
         <v>8</v>
       </c>
-      <c r="F96" s="5">
+      <c r="F96" s="4">
         <v>0.35849999999999999</v>
       </c>
       <c r="G96" t="s">
@@ -9459,7 +10103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>87</v>
       </c>
@@ -9469,13 +10113,13 @@
       <c r="C97" t="s">
         <v>7</v>
       </c>
-      <c r="D97" s="5">
+      <c r="D97" s="4">
         <v>0.62570000000000003</v>
       </c>
       <c r="E97" t="s">
         <v>36</v>
       </c>
-      <c r="F97" s="5">
+      <c r="F97" s="4">
         <v>0.37430000000000002</v>
       </c>
       <c r="G97" t="s">
@@ -9488,7 +10132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>87</v>
       </c>
@@ -9498,13 +10142,13 @@
       <c r="C98" t="s">
         <v>19</v>
       </c>
-      <c r="D98" s="5">
+      <c r="D98" s="4">
         <v>0.59250000000000003</v>
       </c>
       <c r="E98" t="s">
         <v>46</v>
       </c>
-      <c r="F98" s="5">
+      <c r="F98" s="4">
         <v>0.40749999999999997</v>
       </c>
       <c r="G98" t="s">
@@ -9517,7 +10161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>87</v>
       </c>
@@ -9527,13 +10171,13 @@
       <c r="C99" t="s">
         <v>11</v>
       </c>
-      <c r="D99" s="5">
+      <c r="D99" s="4">
         <v>0.58599999999999997</v>
       </c>
       <c r="E99" t="s">
         <v>10</v>
       </c>
-      <c r="F99" s="5">
+      <c r="F99" s="4">
         <v>0.41399999999999998</v>
       </c>
       <c r="G99" t="s">
@@ -9546,7 +10190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>87</v>
       </c>
@@ -9556,13 +10200,13 @@
       <c r="C100" t="s">
         <v>31</v>
       </c>
-      <c r="D100" s="5">
+      <c r="D100" s="4">
         <v>0.58579999999999999</v>
       </c>
       <c r="E100" t="s">
         <v>17</v>
       </c>
-      <c r="F100" s="5">
+      <c r="F100" s="4">
         <v>0.41420000000000001</v>
       </c>
       <c r="G100" t="s">
@@ -9575,7 +10219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>87</v>
       </c>
@@ -9585,13 +10229,13 @@
       <c r="C101" t="s">
         <v>28</v>
       </c>
-      <c r="D101" s="5">
+      <c r="D101" s="4">
         <v>0.57820000000000005</v>
       </c>
       <c r="E101" t="s">
         <v>42</v>
       </c>
-      <c r="F101" s="5">
+      <c r="F101" s="4">
         <v>0.42180000000000001</v>
       </c>
       <c r="G101" t="s">
@@ -9604,7 +10248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>87</v>
       </c>
@@ -9614,13 +10258,13 @@
       <c r="C102" t="s">
         <v>56</v>
       </c>
-      <c r="D102" s="5">
+      <c r="D102" s="4">
         <v>0.52749999999999997</v>
       </c>
       <c r="E102" t="s">
         <v>5</v>
       </c>
-      <c r="F102" s="5">
+      <c r="F102" s="4">
         <v>0.47249999999999998</v>
       </c>
       <c r="G102" t="s">
@@ -9633,7 +10277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>87</v>
       </c>
@@ -9643,13 +10287,13 @@
       <c r="C103" t="s">
         <v>22</v>
       </c>
-      <c r="D103" s="5">
+      <c r="D103" s="4">
         <v>0.50390000000000001</v>
       </c>
       <c r="E103" t="s">
         <v>29</v>
       </c>
-      <c r="F103" s="5">
+      <c r="F103" s="4">
         <v>0.49609999999999999</v>
       </c>
       <c r="G103" t="s">
@@ -9662,7 +10306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>87</v>
       </c>
@@ -9672,13 +10316,13 @@
       <c r="C104" t="s">
         <v>4</v>
       </c>
-      <c r="D104" s="5">
+      <c r="D104" s="4">
         <v>0.70309999999999995</v>
       </c>
       <c r="E104" t="s">
         <v>16</v>
       </c>
-      <c r="F104" s="5">
+      <c r="F104" s="4">
         <v>0.2969</v>
       </c>
       <c r="G104" t="s">
@@ -9691,7 +10335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>87</v>
       </c>
@@ -9701,13 +10345,13 @@
       <c r="C105" t="s">
         <v>37</v>
       </c>
-      <c r="D105" s="5">
+      <c r="D105" s="4">
         <v>0.62429999999999997</v>
       </c>
       <c r="E105" t="s">
         <v>8</v>
       </c>
-      <c r="F105" s="5">
+      <c r="F105" s="4">
         <v>0.37569999999999998</v>
       </c>
       <c r="G105" t="s">
@@ -9720,7 +10364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>87</v>
       </c>
@@ -9730,13 +10374,13 @@
       <c r="C106" t="s">
         <v>25</v>
       </c>
-      <c r="D106" s="5">
+      <c r="D106" s="4">
         <v>0.60919999999999996</v>
       </c>
       <c r="E106" t="s">
         <v>10</v>
       </c>
-      <c r="F106" s="5">
+      <c r="F106" s="4">
         <v>0.39079999999999998</v>
       </c>
       <c r="G106" t="s">
@@ -9749,7 +10393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>87</v>
       </c>
@@ -9759,13 +10403,13 @@
       <c r="C107" t="s">
         <v>45</v>
       </c>
-      <c r="D107" s="5">
+      <c r="D107" s="4">
         <v>0.56100000000000005</v>
       </c>
       <c r="E107" t="s">
         <v>14</v>
       </c>
-      <c r="F107" s="5">
+      <c r="F107" s="4">
         <v>0.439</v>
       </c>
       <c r="G107" t="s">
@@ -9778,7 +10422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>87</v>
       </c>
@@ -9788,13 +10432,13 @@
       <c r="C108" t="s">
         <v>4</v>
       </c>
-      <c r="D108" s="5">
+      <c r="D108" s="4">
         <v>0.75800000000000001</v>
       </c>
       <c r="E108" t="s">
         <v>58</v>
       </c>
-      <c r="F108" s="5">
+      <c r="F108" s="4">
         <v>0.24199999999999999</v>
       </c>
       <c r="G108" t="s">
@@ -9807,7 +10451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>87</v>
       </c>
@@ -9817,13 +10461,13 @@
       <c r="C109" t="s">
         <v>19</v>
       </c>
-      <c r="D109" s="5">
+      <c r="D109" s="4">
         <v>0.74</v>
       </c>
       <c r="E109" t="s">
         <v>34</v>
       </c>
-      <c r="F109" s="5">
+      <c r="F109" s="4">
         <v>0.26</v>
       </c>
       <c r="G109" t="s">
@@ -9836,7 +10480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>87</v>
       </c>
@@ -9846,13 +10490,13 @@
       <c r="C110" t="s">
         <v>42</v>
       </c>
-      <c r="D110" s="5">
+      <c r="D110" s="4">
         <v>0.73750000000000004</v>
       </c>
       <c r="E110" t="s">
         <v>56</v>
       </c>
-      <c r="F110" s="5">
+      <c r="F110" s="4">
         <v>0.26250000000000001</v>
       </c>
       <c r="G110" t="s">
@@ -9865,7 +10509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>87</v>
       </c>
@@ -9875,13 +10519,13 @@
       <c r="C111" t="s">
         <v>7</v>
       </c>
-      <c r="D111" s="5">
+      <c r="D111" s="4">
         <v>0.73729999999999996</v>
       </c>
       <c r="E111" t="s">
         <v>5</v>
       </c>
-      <c r="F111" s="5">
+      <c r="F111" s="4">
         <v>0.26269999999999999</v>
       </c>
       <c r="G111" t="s">
@@ -9894,7 +10538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>87</v>
       </c>
@@ -9904,13 +10548,13 @@
       <c r="C112" t="s">
         <v>13</v>
       </c>
-      <c r="D112" s="5">
+      <c r="D112" s="4">
         <v>0.71750000000000003</v>
       </c>
       <c r="E112" t="s">
         <v>14</v>
       </c>
-      <c r="F112" s="5">
+      <c r="F112" s="4">
         <v>0.28249999999999997</v>
       </c>
       <c r="G112" t="s">
@@ -9923,7 +10567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>87</v>
       </c>
@@ -9933,13 +10577,13 @@
       <c r="C113" t="s">
         <v>11</v>
       </c>
-      <c r="D113" s="5">
+      <c r="D113" s="4">
         <v>0.69510000000000005</v>
       </c>
       <c r="E113" t="s">
         <v>37</v>
       </c>
-      <c r="F113" s="5">
+      <c r="F113" s="4">
         <v>0.3049</v>
       </c>
       <c r="G113" t="s">
@@ -9952,7 +10596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>87</v>
       </c>
@@ -9962,13 +10606,13 @@
       <c r="C114" t="s">
         <v>23</v>
       </c>
-      <c r="D114" s="5">
+      <c r="D114" s="4">
         <v>0.68540000000000001</v>
       </c>
       <c r="E114" t="s">
         <v>17</v>
       </c>
-      <c r="F114" s="5">
+      <c r="F114" s="4">
         <v>0.31459999999999999</v>
       </c>
       <c r="G114" t="s">
@@ -9981,7 +10625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>87</v>
       </c>
@@ -9991,13 +10635,13 @@
       <c r="C115" t="s">
         <v>40</v>
       </c>
-      <c r="D115" s="5">
+      <c r="D115" s="4">
         <v>0.67279999999999995</v>
       </c>
       <c r="E115" t="s">
         <v>31</v>
       </c>
-      <c r="F115" s="5">
+      <c r="F115" s="4">
         <v>0.32719999999999999</v>
       </c>
       <c r="G115" t="s">
@@ -10010,7 +10654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>87</v>
       </c>
@@ -10020,13 +10664,13 @@
       <c r="C116" t="s">
         <v>22</v>
       </c>
-      <c r="D116" s="5">
+      <c r="D116" s="4">
         <v>0.65459999999999996</v>
       </c>
       <c r="E116" t="s">
         <v>26</v>
       </c>
-      <c r="F116" s="5">
+      <c r="F116" s="4">
         <v>0.34539999999999998</v>
       </c>
       <c r="G116" t="s">
@@ -10039,7 +10683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>87</v>
       </c>
@@ -10049,13 +10693,13 @@
       <c r="C117" t="s">
         <v>43</v>
       </c>
-      <c r="D117" s="5">
+      <c r="D117" s="4">
         <v>0.61319999999999997</v>
       </c>
       <c r="E117" t="s">
         <v>39</v>
       </c>
-      <c r="F117" s="5">
+      <c r="F117" s="4">
         <v>0.38679999999999998</v>
       </c>
       <c r="G117" t="s">
@@ -10068,7 +10712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>87</v>
       </c>
@@ -10078,13 +10722,13 @@
       <c r="C118" t="s">
         <v>25</v>
       </c>
-      <c r="D118" s="5">
+      <c r="D118" s="4">
         <v>0.5665</v>
       </c>
       <c r="E118" t="s">
         <v>46</v>
       </c>
-      <c r="F118" s="5">
+      <c r="F118" s="4">
         <v>0.4335</v>
       </c>
       <c r="G118" t="s">
@@ -10097,7 +10741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>87</v>
       </c>
@@ -10107,13 +10751,13 @@
       <c r="C119" t="s">
         <v>36</v>
       </c>
-      <c r="D119" s="5">
+      <c r="D119" s="4">
         <v>0.52010000000000001</v>
       </c>
       <c r="E119" t="s">
         <v>66</v>
       </c>
-      <c r="F119" s="5">
+      <c r="F119" s="4">
         <v>0.47989999999999999</v>
       </c>
       <c r="G119" t="s">
@@ -10126,7 +10770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>87</v>
       </c>
@@ -10136,13 +10780,13 @@
       <c r="C120" t="s">
         <v>28</v>
       </c>
-      <c r="D120" s="5">
+      <c r="D120" s="4">
         <v>0.51639999999999997</v>
       </c>
       <c r="E120" t="s">
         <v>20</v>
       </c>
-      <c r="F120" s="5">
+      <c r="F120" s="4">
         <v>0.48359999999999997</v>
       </c>
       <c r="G120" t="s">
@@ -10155,7 +10799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>87</v>
       </c>
@@ -10165,13 +10809,13 @@
       <c r="C121" t="s">
         <v>33</v>
       </c>
-      <c r="D121" s="5">
+      <c r="D121" s="4">
         <v>0.50790000000000002</v>
       </c>
       <c r="E121" t="s">
         <v>29</v>
       </c>
-      <c r="F121" s="5">
+      <c r="F121" s="4">
         <v>0.49209999999999998</v>
       </c>
       <c r="G121" t="s">
@@ -10184,7 +10828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>88</v>
       </c>
@@ -10194,13 +10838,13 @@
       <c r="C122" t="s">
         <v>40</v>
       </c>
-      <c r="D122" s="5">
+      <c r="D122" s="4">
         <v>0.81979999999999997</v>
       </c>
       <c r="E122" t="s">
         <v>56</v>
       </c>
-      <c r="F122" s="5">
+      <c r="F122" s="4">
         <v>0.1802</v>
       </c>
       <c r="G122" t="s">
@@ -10213,7 +10857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>88</v>
       </c>
@@ -10223,13 +10867,13 @@
       <c r="C123" t="s">
         <v>11</v>
       </c>
-      <c r="D123" s="5">
+      <c r="D123" s="4">
         <v>0.80459999999999998</v>
       </c>
       <c r="E123" t="s">
         <v>34</v>
       </c>
-      <c r="F123" s="5">
+      <c r="F123" s="4">
         <v>0.19539999999999999</v>
       </c>
       <c r="G123" t="s">
@@ -10242,7 +10886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>88</v>
       </c>
@@ -10252,13 +10896,13 @@
       <c r="C124" t="s">
         <v>4</v>
       </c>
-      <c r="D124" s="5">
+      <c r="D124" s="4">
         <v>0.79179999999999995</v>
       </c>
       <c r="E124" t="s">
         <v>46</v>
       </c>
-      <c r="F124" s="5">
+      <c r="F124" s="4">
         <v>0.2082</v>
       </c>
       <c r="G124" t="s">
@@ -10271,7 +10915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>88</v>
       </c>
@@ -10281,13 +10925,13 @@
       <c r="C125" t="s">
         <v>7</v>
       </c>
-      <c r="D125" s="5">
+      <c r="D125" s="4">
         <v>0.77310000000000001</v>
       </c>
       <c r="E125" t="s">
         <v>5</v>
       </c>
-      <c r="F125" s="5">
+      <c r="F125" s="4">
         <v>0.22689999999999999</v>
       </c>
       <c r="G125" t="s">
@@ -10300,7 +10944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>88</v>
       </c>
@@ -10310,13 +10954,13 @@
       <c r="C126" t="s">
         <v>29</v>
       </c>
-      <c r="D126" s="5">
+      <c r="D126" s="4">
         <v>0.76929999999999998</v>
       </c>
       <c r="E126" t="s">
         <v>17</v>
       </c>
-      <c r="F126" s="5">
+      <c r="F126" s="4">
         <v>0.23069999999999999</v>
       </c>
       <c r="G126" t="s">
@@ -10329,7 +10973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>88</v>
       </c>
@@ -10339,13 +10983,13 @@
       <c r="C127" t="s">
         <v>16</v>
       </c>
-      <c r="D127" s="5">
+      <c r="D127" s="4">
         <v>0.75980000000000003</v>
       </c>
       <c r="E127" t="s">
         <v>14</v>
       </c>
-      <c r="F127" s="5">
+      <c r="F127" s="4">
         <v>0.2402</v>
       </c>
       <c r="G127" t="s">
@@ -10358,7 +11002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>88</v>
       </c>
@@ -10368,13 +11012,13 @@
       <c r="C128" t="s">
         <v>25</v>
       </c>
-      <c r="D128" s="5">
+      <c r="D128" s="4">
         <v>0.745</v>
       </c>
       <c r="E128" t="s">
         <v>26</v>
       </c>
-      <c r="F128" s="5">
+      <c r="F128" s="4">
         <v>0.255</v>
       </c>
       <c r="G128" t="s">
@@ -10387,7 +11031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>88</v>
       </c>
@@ -10397,13 +11041,13 @@
       <c r="C129" t="s">
         <v>19</v>
       </c>
-      <c r="D129" s="5">
+      <c r="D129" s="4">
         <v>0.64259999999999995</v>
       </c>
       <c r="E129" t="s">
         <v>36</v>
       </c>
-      <c r="F129" s="5">
+      <c r="F129" s="4">
         <v>0.3574</v>
       </c>
       <c r="G129" t="s">
@@ -10416,7 +11060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>88</v>
       </c>
@@ -10426,13 +11070,13 @@
       <c r="C130" t="s">
         <v>39</v>
       </c>
-      <c r="D130" s="5">
+      <c r="D130" s="4">
         <v>0.5978</v>
       </c>
       <c r="E130" t="s">
         <v>66</v>
       </c>
-      <c r="F130" s="5">
+      <c r="F130" s="4">
         <v>0.4022</v>
       </c>
       <c r="G130" t="s">
@@ -10445,7 +11089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>88</v>
       </c>
@@ -10455,13 +11099,13 @@
       <c r="C131" t="s">
         <v>23</v>
       </c>
-      <c r="D131" s="5">
+      <c r="D131" s="4">
         <v>0.59709999999999996</v>
       </c>
       <c r="E131" t="s">
         <v>31</v>
       </c>
-      <c r="F131" s="5">
+      <c r="F131" s="4">
         <v>0.40289999999999998</v>
       </c>
       <c r="G131" t="s">
@@ -10474,7 +11118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>88</v>
       </c>
@@ -10484,13 +11128,13 @@
       <c r="C132" t="s">
         <v>28</v>
       </c>
-      <c r="D132" s="5">
+      <c r="D132" s="4">
         <v>0.58050000000000002</v>
       </c>
       <c r="E132" t="s">
         <v>13</v>
       </c>
-      <c r="F132" s="5">
+      <c r="F132" s="4">
         <v>0.41949999999999998</v>
       </c>
       <c r="G132" t="s">
@@ -10503,7 +11147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>88</v>
       </c>
@@ -10513,13 +11157,13 @@
       <c r="C133" t="s">
         <v>58</v>
       </c>
-      <c r="D133" s="5">
+      <c r="D133" s="4">
         <v>0.55759999999999998</v>
       </c>
       <c r="E133" t="s">
         <v>37</v>
       </c>
-      <c r="F133" s="5">
+      <c r="F133" s="4">
         <v>0.44240000000000002</v>
       </c>
       <c r="G133" t="s">
@@ -10532,7 +11176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>88</v>
       </c>
@@ -10542,13 +11186,13 @@
       <c r="C134" t="s">
         <v>43</v>
       </c>
-      <c r="D134" s="5">
+      <c r="D134" s="4">
         <v>0.55369999999999997</v>
       </c>
       <c r="E134" t="s">
         <v>20</v>
       </c>
-      <c r="F134" s="5">
+      <c r="F134" s="4">
         <v>0.44629999999999997</v>
       </c>
       <c r="G134" t="s">
@@ -10561,7 +11205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>88</v>
       </c>
@@ -10571,13 +11215,13 @@
       <c r="C135" t="s">
         <v>33</v>
       </c>
-      <c r="D135" s="5">
+      <c r="D135" s="4">
         <v>0.50560000000000005</v>
       </c>
       <c r="E135" t="s">
         <v>22</v>
       </c>
-      <c r="F135" s="5">
+      <c r="F135" s="4">
         <v>0.49440000000000001</v>
       </c>
       <c r="G135" t="s">
@@ -10590,7 +11234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>88</v>
       </c>
@@ -10600,13 +11244,13 @@
       <c r="C136" t="s">
         <v>43</v>
       </c>
-      <c r="D136" s="5">
+      <c r="D136" s="4">
         <v>0.75590000000000002</v>
       </c>
       <c r="E136" t="s">
         <v>45</v>
       </c>
-      <c r="F136" s="5">
+      <c r="F136" s="4">
         <v>0.24410000000000001</v>
       </c>
       <c r="G136" t="s">
@@ -10619,7 +11263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>88</v>
       </c>
@@ -10629,13 +11273,13 @@
       <c r="C137" t="s">
         <v>10</v>
       </c>
-      <c r="D137" s="5">
+      <c r="D137" s="4">
         <v>0.71850000000000003</v>
       </c>
       <c r="E137" t="s">
         <v>56</v>
       </c>
-      <c r="F137" s="5">
+      <c r="F137" s="4">
         <v>0.28149999999999997</v>
       </c>
       <c r="G137" t="s">
@@ -10648,7 +11292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>88</v>
       </c>
@@ -10658,13 +11302,13 @@
       <c r="C138" t="s">
         <v>42</v>
       </c>
-      <c r="D138" s="5">
+      <c r="D138" s="4">
         <v>0.69310000000000005</v>
       </c>
       <c r="E138" t="s">
         <v>8</v>
       </c>
-      <c r="F138" s="5">
+      <c r="F138" s="4">
         <v>0.30690000000000001</v>
       </c>
       <c r="G138" t="s">
@@ -10677,7 +11321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>88</v>
       </c>
@@ -10687,13 +11331,13 @@
       <c r="C139" t="s">
         <v>29</v>
       </c>
-      <c r="D139" s="5">
+      <c r="D139" s="4">
         <v>0.55800000000000005</v>
       </c>
       <c r="E139" t="s">
         <v>40</v>
       </c>
-      <c r="F139" s="5">
+      <c r="F139" s="4">
         <v>0.442</v>
       </c>
       <c r="G139" t="s">
@@ -10706,7 +11350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>88</v>
       </c>
@@ -10716,13 +11360,13 @@
       <c r="C140" t="s">
         <v>28</v>
       </c>
-      <c r="D140" s="5">
+      <c r="D140" s="4">
         <v>0.77049999999999996</v>
       </c>
       <c r="E140" t="s">
         <v>14</v>
       </c>
-      <c r="F140" s="5">
+      <c r="F140" s="4">
         <v>0.22950000000000001</v>
       </c>
       <c r="G140" t="s">
@@ -10735,7 +11379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>88</v>
       </c>
@@ -10745,13 +11389,13 @@
       <c r="C141" t="s">
         <v>19</v>
       </c>
-      <c r="D141" s="5">
+      <c r="D141" s="4">
         <v>0.73480000000000001</v>
       </c>
       <c r="E141" t="s">
         <v>34</v>
       </c>
-      <c r="F141" s="5">
+      <c r="F141" s="4">
         <v>0.26519999999999999</v>
       </c>
       <c r="G141" t="s">
@@ -10764,7 +11408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>88</v>
       </c>
@@ -10774,13 +11418,13 @@
       <c r="C142" t="s">
         <v>7</v>
       </c>
-      <c r="D142" s="5">
+      <c r="D142" s="4">
         <v>0.6653</v>
       </c>
       <c r="E142" t="s">
         <v>13</v>
       </c>
-      <c r="F142" s="5">
+      <c r="F142" s="4">
         <v>0.3347</v>
       </c>
       <c r="G142" t="s">
@@ -10793,7 +11437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>88</v>
       </c>
@@ -10803,13 +11447,13 @@
       <c r="C143" t="s">
         <v>25</v>
       </c>
-      <c r="D143" s="5">
+      <c r="D143" s="4">
         <v>0.65720000000000001</v>
       </c>
       <c r="E143" t="s">
         <v>33</v>
       </c>
-      <c r="F143" s="5">
+      <c r="F143" s="4">
         <v>0.34279999999999999</v>
       </c>
       <c r="G143" t="s">
@@ -10822,7 +11466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>88</v>
       </c>
@@ -10832,13 +11476,13 @@
       <c r="C144" t="s">
         <v>23</v>
       </c>
-      <c r="D144" s="5">
+      <c r="D144" s="4">
         <v>0.64800000000000002</v>
       </c>
       <c r="E144" t="s">
         <v>8</v>
       </c>
-      <c r="F144" s="5">
+      <c r="F144" s="4">
         <v>0.35199999999999998</v>
       </c>
       <c r="G144" t="s">
@@ -10851,7 +11495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>88</v>
       </c>
@@ -10861,13 +11505,13 @@
       <c r="C145" t="s">
         <v>39</v>
       </c>
-      <c r="D145" s="5">
+      <c r="D145" s="4">
         <v>0.61080000000000001</v>
       </c>
       <c r="E145" t="s">
         <v>26</v>
       </c>
-      <c r="F145" s="5">
+      <c r="F145" s="4">
         <v>0.38919999999999999</v>
       </c>
       <c r="G145" t="s">
@@ -10880,7 +11524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>88</v>
       </c>
@@ -10890,13 +11534,13 @@
       <c r="C146" t="s">
         <v>20</v>
       </c>
-      <c r="D146" s="5">
+      <c r="D146" s="4">
         <v>0.54959999999999998</v>
       </c>
       <c r="E146" t="s">
         <v>37</v>
       </c>
-      <c r="F146" s="5">
+      <c r="F146" s="4">
         <v>0.45040000000000002</v>
       </c>
       <c r="G146" t="s">
@@ -10909,7 +11553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>88</v>
       </c>
@@ -10919,13 +11563,13 @@
       <c r="C147" t="s">
         <v>11</v>
       </c>
-      <c r="D147" s="5">
+      <c r="D147" s="4">
         <v>0.54410000000000003</v>
       </c>
       <c r="E147" t="s">
         <v>36</v>
       </c>
-      <c r="F147" s="5">
+      <c r="F147" s="4">
         <v>0.45590000000000003</v>
       </c>
       <c r="G147" t="s">
@@ -10938,7 +11582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>88</v>
       </c>
@@ -10948,13 +11592,13 @@
       <c r="C148" t="s">
         <v>17</v>
       </c>
-      <c r="D148" s="5">
+      <c r="D148" s="4">
         <v>0.53649999999999998</v>
       </c>
       <c r="E148" t="s">
         <v>5</v>
       </c>
-      <c r="F148" s="5">
+      <c r="F148" s="4">
         <v>0.46350000000000002</v>
       </c>
       <c r="G148" t="s">
@@ -10967,7 +11611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>88</v>
       </c>
@@ -10977,13 +11621,13 @@
       <c r="C149" t="s">
         <v>4</v>
       </c>
-      <c r="D149" s="5">
+      <c r="D149" s="4">
         <v>0.75890000000000002</v>
       </c>
       <c r="E149" t="s">
         <v>11</v>
       </c>
-      <c r="F149" s="5">
+      <c r="F149" s="4">
         <v>0.24110000000000001</v>
       </c>
       <c r="G149" t="s">
@@ -10996,7 +11640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>88</v>
       </c>
@@ -11006,13 +11650,13 @@
       <c r="C150" t="s">
         <v>46</v>
       </c>
-      <c r="D150" s="5">
+      <c r="D150" s="4">
         <v>0.6956</v>
       </c>
       <c r="E150" t="s">
         <v>34</v>
       </c>
-      <c r="F150" s="5">
+      <c r="F150" s="4">
         <v>0.3044</v>
       </c>
       <c r="G150" t="s">
@@ -11025,7 +11669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>88</v>
       </c>
@@ -11035,13 +11679,13 @@
       <c r="C151" t="s">
         <v>33</v>
       </c>
-      <c r="D151" s="5">
+      <c r="D151" s="4">
         <v>0.63249999999999995</v>
       </c>
       <c r="E151" t="s">
         <v>45</v>
       </c>
-      <c r="F151" s="5">
+      <c r="F151" s="4">
         <v>0.36749999999999999</v>
       </c>
       <c r="G151" t="s">
@@ -11054,7 +11698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>88</v>
       </c>
@@ -11064,13 +11708,13 @@
       <c r="C152" t="s">
         <v>20</v>
       </c>
-      <c r="D152" s="5">
+      <c r="D152" s="4">
         <v>0.58899999999999997</v>
       </c>
       <c r="E152" t="s">
         <v>26</v>
       </c>
-      <c r="F152" s="5">
+      <c r="F152" s="4">
         <v>0.41099999999999998</v>
       </c>
       <c r="G152" t="s">
@@ -11083,7 +11727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>88</v>
       </c>
@@ -11093,13 +11737,13 @@
       <c r="C153" t="s">
         <v>16</v>
       </c>
-      <c r="D153" s="5">
+      <c r="D153" s="4">
         <v>0.57240000000000002</v>
       </c>
       <c r="E153" t="s">
         <v>58</v>
       </c>
-      <c r="F153" s="5">
+      <c r="F153" s="4">
         <v>0.42759999999999998</v>
       </c>
       <c r="G153" t="s">
@@ -11112,7 +11756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>88</v>
       </c>
@@ -11122,13 +11766,13 @@
       <c r="C154" t="s">
         <v>66</v>
       </c>
-      <c r="D154" s="5">
+      <c r="D154" s="4">
         <v>0.57230000000000003</v>
       </c>
       <c r="E154" t="s">
         <v>13</v>
       </c>
-      <c r="F154" s="5">
+      <c r="F154" s="4">
         <v>0.42770000000000002</v>
       </c>
       <c r="G154" t="s">
@@ -11141,7 +11785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>88</v>
       </c>
@@ -11151,13 +11795,13 @@
       <c r="C155" t="s">
         <v>40</v>
       </c>
-      <c r="D155" s="5">
+      <c r="D155" s="4">
         <v>0.56020000000000003</v>
       </c>
       <c r="E155" t="s">
         <v>10</v>
       </c>
-      <c r="F155" s="5">
+      <c r="F155" s="4">
         <v>0.43980000000000002</v>
       </c>
       <c r="G155" t="s">
@@ -11170,7 +11814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>88</v>
       </c>
@@ -11180,13 +11824,13 @@
       <c r="C156" t="s">
         <v>25</v>
       </c>
-      <c r="D156" s="5">
+      <c r="D156" s="4">
         <v>0.55789999999999995</v>
       </c>
       <c r="E156" t="s">
         <v>22</v>
       </c>
-      <c r="F156" s="5">
+      <c r="F156" s="4">
         <v>0.44209999999999999</v>
       </c>
       <c r="G156" t="s">
@@ -11199,7 +11843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>88</v>
       </c>
@@ -11209,13 +11853,13 @@
       <c r="C157" t="s">
         <v>43</v>
       </c>
-      <c r="D157" s="5">
+      <c r="D157" s="4">
         <v>0.51570000000000005</v>
       </c>
       <c r="E157" t="s">
         <v>19</v>
       </c>
-      <c r="F157" s="5">
+      <c r="F157" s="4">
         <v>0.48430000000000001</v>
       </c>
       <c r="G157" t="s">
@@ -11228,7 +11872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>89</v>
       </c>
@@ -11238,13 +11882,13 @@
       <c r="C158" t="s">
         <v>7</v>
       </c>
-      <c r="D158" s="5">
+      <c r="D158" s="4">
         <v>0.8458</v>
       </c>
       <c r="E158" t="s">
         <v>56</v>
       </c>
-      <c r="F158" s="5">
+      <c r="F158" s="4">
         <v>0.1542</v>
       </c>
       <c r="G158" t="s">
@@ -11257,7 +11901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>89</v>
       </c>
@@ -11267,13 +11911,13 @@
       <c r="C159" t="s">
         <v>4</v>
       </c>
-      <c r="D159" s="5">
+      <c r="D159" s="4">
         <v>0.79310000000000003</v>
       </c>
       <c r="E159" t="s">
         <v>37</v>
       </c>
-      <c r="F159" s="5">
+      <c r="F159" s="4">
         <v>0.2069</v>
       </c>
       <c r="G159" t="s">
@@ -11286,7 +11930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>89</v>
       </c>
@@ -11296,13 +11940,13 @@
       <c r="C160" t="s">
         <v>28</v>
       </c>
-      <c r="D160" s="5">
+      <c r="D160" s="4">
         <v>0.78449999999999998</v>
       </c>
       <c r="E160" t="s">
         <v>14</v>
       </c>
-      <c r="F160" s="5">
+      <c r="F160" s="4">
         <v>0.2155</v>
       </c>
       <c r="G160" t="s">
@@ -11315,7 +11959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>89</v>
       </c>
@@ -11325,13 +11969,13 @@
       <c r="C161" t="s">
         <v>10</v>
       </c>
-      <c r="D161" s="5">
+      <c r="D161" s="4">
         <v>0.7329</v>
       </c>
       <c r="E161" t="s">
         <v>17</v>
       </c>
-      <c r="F161" s="5">
+      <c r="F161" s="4">
         <v>0.2671</v>
       </c>
       <c r="G161" t="s">
@@ -11344,7 +11988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>89</v>
       </c>
@@ -11354,13 +11998,13 @@
       <c r="C162" t="s">
         <v>22</v>
       </c>
-      <c r="D162" s="5">
+      <c r="D162" s="4">
         <v>0.66010000000000002</v>
       </c>
       <c r="E162" t="s">
         <v>45</v>
       </c>
-      <c r="F162" s="5">
+      <c r="F162" s="4">
         <v>0.33989999999999998</v>
       </c>
       <c r="G162" t="s">
@@ -11373,7 +12017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>89</v>
       </c>
@@ -11383,13 +12027,13 @@
       <c r="C163" t="s">
         <v>31</v>
       </c>
-      <c r="D163" s="5">
+      <c r="D163" s="4">
         <v>0.58230000000000004</v>
       </c>
       <c r="E163" t="s">
         <v>8</v>
       </c>
-      <c r="F163" s="5">
+      <c r="F163" s="4">
         <v>0.41770000000000002</v>
       </c>
       <c r="G163" t="s">
@@ -11402,7 +12046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>89</v>
       </c>
@@ -11412,13 +12056,13 @@
       <c r="C164" t="s">
         <v>36</v>
       </c>
-      <c r="D164" s="5">
+      <c r="D164" s="4">
         <v>0.56579999999999997</v>
       </c>
       <c r="E164" t="s">
         <v>46</v>
       </c>
-      <c r="F164" s="5">
+      <c r="F164" s="4">
         <v>0.43419999999999997</v>
       </c>
       <c r="G164" t="s">
@@ -11431,7 +12075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>89</v>
       </c>
@@ -11441,13 +12085,13 @@
       <c r="C165" t="s">
         <v>16</v>
       </c>
-      <c r="D165" s="5">
+      <c r="D165" s="4">
         <v>0.56120000000000003</v>
       </c>
       <c r="E165" t="s">
         <v>58</v>
       </c>
-      <c r="F165" s="5">
+      <c r="F165" s="4">
         <v>0.43880000000000002</v>
       </c>
       <c r="G165" t="s">
@@ -11460,7 +12104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>89</v>
       </c>
@@ -11470,13 +12114,13 @@
       <c r="C166" t="s">
         <v>39</v>
       </c>
-      <c r="D166" s="5">
+      <c r="D166" s="4">
         <v>0.50829999999999997</v>
       </c>
       <c r="E166" t="s">
         <v>66</v>
       </c>
-      <c r="F166" s="5">
+      <c r="F166" s="4">
         <v>0.49170000000000003</v>
       </c>
       <c r="G166" t="s">
@@ -11489,7 +12133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>89</v>
       </c>
@@ -11499,13 +12143,13 @@
       <c r="C167" t="s">
         <v>29</v>
       </c>
-      <c r="D167" s="5">
+      <c r="D167" s="4">
         <v>0.59140000000000004</v>
       </c>
       <c r="E167" t="s">
         <v>23</v>
       </c>
-      <c r="F167" s="5">
+      <c r="F167" s="4">
         <v>0.40860000000000002</v>
       </c>
       <c r="G167" t="s">
@@ -11518,7 +12162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>89</v>
       </c>
@@ -11528,13 +12172,13 @@
       <c r="C168" t="s">
         <v>4</v>
       </c>
-      <c r="D168" s="5">
+      <c r="D168" s="4">
         <v>0.86409999999999998</v>
       </c>
       <c r="E168" t="s">
         <v>34</v>
       </c>
-      <c r="F168" s="5">
+      <c r="F168" s="4">
         <v>0.13589999999999999</v>
       </c>
       <c r="G168" t="s">
@@ -11547,7 +12191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>89</v>
       </c>
@@ -11557,13 +12201,13 @@
       <c r="C169" t="s">
         <v>20</v>
       </c>
-      <c r="D169" s="5">
+      <c r="D169" s="4">
         <v>0.80710000000000004</v>
       </c>
       <c r="E169" t="s">
         <v>14</v>
       </c>
-      <c r="F169" s="5">
+      <c r="F169" s="4">
         <v>0.19289999999999999</v>
       </c>
       <c r="G169" t="s">
@@ -11576,7 +12220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>89</v>
       </c>
@@ -11586,13 +12230,13 @@
       <c r="C170" t="s">
         <v>28</v>
       </c>
-      <c r="D170" s="5">
+      <c r="D170" s="4">
         <v>0.71930000000000005</v>
       </c>
       <c r="E170" t="s">
         <v>45</v>
       </c>
-      <c r="F170" s="5">
+      <c r="F170" s="4">
         <v>0.28070000000000001</v>
       </c>
       <c r="G170" t="s">
@@ -11605,7 +12249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>89</v>
       </c>
@@ -11615,13 +12259,13 @@
       <c r="C171" t="s">
         <v>10</v>
       </c>
-      <c r="D171" s="5">
+      <c r="D171" s="4">
         <v>0.70479999999999998</v>
       </c>
       <c r="E171" t="s">
         <v>8</v>
       </c>
-      <c r="F171" s="5">
+      <c r="F171" s="4">
         <v>0.29520000000000002</v>
       </c>
       <c r="G171" t="s">
@@ -11634,7 +12278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>89</v>
       </c>
@@ -11644,13 +12288,13 @@
       <c r="C172" t="s">
         <v>37</v>
       </c>
-      <c r="D172" s="5">
+      <c r="D172" s="4">
         <v>0.68200000000000005</v>
       </c>
       <c r="E172" t="s">
         <v>56</v>
       </c>
-      <c r="F172" s="5">
+      <c r="F172" s="4">
         <v>0.318</v>
       </c>
       <c r="G172" t="s">
@@ -11663,7 +12307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>89</v>
       </c>
@@ -11673,13 +12317,13 @@
       <c r="C173" t="s">
         <v>7</v>
       </c>
-      <c r="D173" s="5">
+      <c r="D173" s="4">
         <v>0.66500000000000004</v>
       </c>
       <c r="E173" t="s">
         <v>39</v>
       </c>
-      <c r="F173" s="5">
+      <c r="F173" s="4">
         <v>0.33500000000000002</v>
       </c>
       <c r="G173" t="s">
@@ -11692,7 +12336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>89</v>
       </c>
@@ -11702,13 +12346,13 @@
       <c r="C174" t="s">
         <v>58</v>
       </c>
-      <c r="D174" s="5">
+      <c r="D174" s="4">
         <v>0.63419999999999999</v>
       </c>
       <c r="E174" t="s">
         <v>31</v>
       </c>
-      <c r="F174" s="5">
+      <c r="F174" s="4">
         <v>0.36580000000000001</v>
       </c>
       <c r="G174" t="s">
@@ -11721,7 +12365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>89</v>
       </c>
@@ -11731,13 +12375,13 @@
       <c r="C175" t="s">
         <v>33</v>
       </c>
-      <c r="D175" s="5">
+      <c r="D175" s="4">
         <v>0.61380000000000001</v>
       </c>
       <c r="E175" t="s">
         <v>5</v>
       </c>
-      <c r="F175" s="5">
+      <c r="F175" s="4">
         <v>0.38619999999999999</v>
       </c>
       <c r="G175" t="s">
@@ -11750,7 +12394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>89</v>
       </c>
@@ -11760,13 +12404,13 @@
       <c r="C176" t="s">
         <v>42</v>
       </c>
-      <c r="D176" s="5">
+      <c r="D176" s="4">
         <v>0.60550000000000004</v>
       </c>
       <c r="E176" t="s">
         <v>36</v>
       </c>
-      <c r="F176" s="5">
+      <c r="F176" s="4">
         <v>0.39450000000000002</v>
       </c>
       <c r="G176" t="s">
@@ -11779,7 +12423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>89</v>
       </c>
@@ -11789,13 +12433,13 @@
       <c r="C177" t="s">
         <v>16</v>
       </c>
-      <c r="D177" s="5">
+      <c r="D177" s="4">
         <v>0.56720000000000004</v>
       </c>
       <c r="E177" t="s">
         <v>22</v>
       </c>
-      <c r="F177" s="5">
+      <c r="F177" s="4">
         <v>0.43280000000000002</v>
       </c>
       <c r="G177" t="s">
@@ -11808,7 +12452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>89</v>
       </c>
@@ -11818,13 +12462,13 @@
       <c r="C178" t="s">
         <v>66</v>
       </c>
-      <c r="D178" s="5">
+      <c r="D178" s="4">
         <v>0.56040000000000001</v>
       </c>
       <c r="E178" t="s">
         <v>26</v>
       </c>
-      <c r="F178" s="5">
+      <c r="F178" s="4">
         <v>0.43959999999999999</v>
       </c>
       <c r="G178" t="s">
@@ -11837,7 +12481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>89</v>
       </c>
@@ -11847,13 +12491,13 @@
       <c r="C179" t="s">
         <v>40</v>
       </c>
-      <c r="D179" s="5">
+      <c r="D179" s="4">
         <v>0.50960000000000005</v>
       </c>
       <c r="E179" t="s">
         <v>19</v>
       </c>
-      <c r="F179" s="5">
+      <c r="F179" s="4">
         <v>0.4904</v>
       </c>
       <c r="G179" t="s">
@@ -11866,7 +12510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>89</v>
       </c>
@@ -11876,13 +12520,13 @@
       <c r="C180" t="s">
         <v>25</v>
       </c>
-      <c r="D180" s="5">
+      <c r="D180" s="4">
         <v>0.50009999999999999</v>
       </c>
       <c r="E180" t="s">
         <v>43</v>
       </c>
-      <c r="F180" s="5">
+      <c r="F180" s="4">
         <v>0.49990000000000001</v>
       </c>
       <c r="G180" t="s">
@@ -11895,7 +12539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>89</v>
       </c>
@@ -11905,13 +12549,13 @@
       <c r="C181" t="s">
         <v>19</v>
       </c>
-      <c r="D181" s="5">
+      <c r="D181" s="4">
         <v>0.77290000000000003</v>
       </c>
       <c r="E181" t="s">
         <v>17</v>
       </c>
-      <c r="F181" s="5">
+      <c r="F181" s="4">
         <v>0.2271</v>
       </c>
       <c r="G181" t="s">
@@ -11924,7 +12568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>89</v>
       </c>
@@ -11934,13 +12578,13 @@
       <c r="C182" t="s">
         <v>11</v>
       </c>
-      <c r="D182" s="5">
+      <c r="D182" s="4">
         <v>0.66059999999999997</v>
       </c>
       <c r="E182" t="s">
         <v>26</v>
       </c>
-      <c r="F182" s="5">
+      <c r="F182" s="4">
         <v>0.33939999999999998</v>
       </c>
       <c r="G182" t="s">
@@ -11953,7 +12597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>89</v>
       </c>
@@ -11963,13 +12607,13 @@
       <c r="C183" t="s">
         <v>25</v>
       </c>
-      <c r="D183" s="5">
+      <c r="D183" s="4">
         <v>0.83740000000000003</v>
       </c>
       <c r="E183" t="s">
         <v>14</v>
       </c>
-      <c r="F183" s="5">
+      <c r="F183" s="4">
         <v>0.16259999999999999</v>
       </c>
       <c r="G183" t="s">
@@ -11982,7 +12626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>89</v>
       </c>
@@ -11992,13 +12636,13 @@
       <c r="C184" t="s">
         <v>40</v>
       </c>
-      <c r="D184" s="5">
+      <c r="D184" s="4">
         <v>0.73050000000000004</v>
       </c>
       <c r="E184" t="s">
         <v>37</v>
       </c>
-      <c r="F184" s="5">
+      <c r="F184" s="4">
         <v>0.26950000000000002</v>
       </c>
       <c r="G184" t="s">
@@ -12011,7 +12655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>89</v>
       </c>
@@ -12021,13 +12665,13 @@
       <c r="C185" t="s">
         <v>16</v>
       </c>
-      <c r="D185" s="5">
+      <c r="D185" s="4">
         <v>0.73</v>
       </c>
       <c r="E185" t="s">
         <v>56</v>
       </c>
-      <c r="F185" s="5">
+      <c r="F185" s="4">
         <v>0.27</v>
       </c>
       <c r="G185" t="s">
@@ -12040,7 +12684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>89</v>
       </c>
@@ -12050,13 +12694,13 @@
       <c r="C186" t="s">
         <v>4</v>
       </c>
-      <c r="D186" s="5">
+      <c r="D186" s="4">
         <v>0.72840000000000005</v>
       </c>
       <c r="E186" t="s">
         <v>66</v>
       </c>
-      <c r="F186" s="5">
+      <c r="F186" s="4">
         <v>0.27160000000000001</v>
       </c>
       <c r="G186" t="s">
@@ -12069,7 +12713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>89</v>
       </c>
@@ -12079,13 +12723,13 @@
       <c r="C187" t="s">
         <v>20</v>
       </c>
-      <c r="D187" s="5">
+      <c r="D187" s="4">
         <v>0.63770000000000004</v>
       </c>
       <c r="E187" t="s">
         <v>31</v>
       </c>
-      <c r="F187" s="5">
+      <c r="F187" s="4">
         <v>0.36230000000000001</v>
       </c>
       <c r="G187" t="s">
@@ -12098,7 +12742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>89</v>
       </c>
@@ -12108,13 +12752,13 @@
       <c r="C188" t="s">
         <v>23</v>
       </c>
-      <c r="D188" s="5">
+      <c r="D188" s="4">
         <v>0.60470000000000002</v>
       </c>
       <c r="E188" t="s">
         <v>36</v>
       </c>
-      <c r="F188" s="5">
+      <c r="F188" s="4">
         <v>0.39529999999999998</v>
       </c>
       <c r="G188" t="s">
@@ -12127,7 +12771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>89</v>
       </c>
@@ -12137,13 +12781,13 @@
       <c r="C189" t="s">
         <v>39</v>
       </c>
-      <c r="D189" s="5">
+      <c r="D189" s="4">
         <v>0.60119999999999996</v>
       </c>
       <c r="E189" t="s">
         <v>5</v>
       </c>
-      <c r="F189" s="5">
+      <c r="F189" s="4">
         <v>0.39879999999999999</v>
       </c>
       <c r="G189" t="s">
@@ -12156,7 +12800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>89</v>
       </c>
@@ -12166,13 +12810,13 @@
       <c r="C190" t="s">
         <v>8</v>
       </c>
-      <c r="D190" s="5">
+      <c r="D190" s="4">
         <v>0.59340000000000004</v>
       </c>
       <c r="E190" t="s">
         <v>34</v>
       </c>
-      <c r="F190" s="5">
+      <c r="F190" s="4">
         <v>0.40660000000000002</v>
       </c>
       <c r="G190" t="s">
@@ -12185,7 +12829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>89</v>
       </c>
@@ -12195,13 +12839,13 @@
       <c r="C191" t="s">
         <v>29</v>
       </c>
-      <c r="D191" s="5">
+      <c r="D191" s="4">
         <v>0.58379999999999999</v>
       </c>
       <c r="E191" t="s">
         <v>33</v>
       </c>
-      <c r="F191" s="5">
+      <c r="F191" s="4">
         <v>0.41620000000000001</v>
       </c>
       <c r="G191" t="s">
@@ -12214,7 +12858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>89</v>
       </c>
@@ -12224,13 +12868,13 @@
       <c r="C192" t="s">
         <v>58</v>
       </c>
-      <c r="D192" s="5">
+      <c r="D192" s="4">
         <v>0.55679999999999996</v>
       </c>
       <c r="E192" t="s">
         <v>22</v>
       </c>
-      <c r="F192" s="5">
+      <c r="F192" s="4">
         <v>0.44319999999999998</v>
       </c>
       <c r="G192" t="s">
@@ -12243,7 +12887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>89</v>
       </c>
@@ -12253,13 +12897,13 @@
       <c r="C193" t="s">
         <v>7</v>
       </c>
-      <c r="D193" s="5">
+      <c r="D193" s="4">
         <v>0.53590000000000004</v>
       </c>
       <c r="E193" t="s">
         <v>28</v>
       </c>
-      <c r="F193" s="5">
+      <c r="F193" s="4">
         <v>0.46410000000000001</v>
       </c>
       <c r="G193" t="s">
@@ -12272,7 +12916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>89</v>
       </c>
@@ -12282,13 +12926,13 @@
       <c r="C194" t="s">
         <v>46</v>
       </c>
-      <c r="D194" s="5">
+      <c r="D194" s="4">
         <v>0.53049999999999997</v>
       </c>
       <c r="E194" t="s">
         <v>45</v>
       </c>
-      <c r="F194" s="5">
+      <c r="F194" s="4">
         <v>0.46949999999999997</v>
       </c>
       <c r="G194" t="s">
@@ -12301,7 +12945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>89</v>
       </c>
@@ -12311,13 +12955,13 @@
       <c r="C195" t="s">
         <v>42</v>
       </c>
-      <c r="D195" s="5">
+      <c r="D195" s="4">
         <v>0.52610000000000001</v>
       </c>
       <c r="E195" t="s">
         <v>13</v>
       </c>
-      <c r="F195" s="5">
+      <c r="F195" s="4">
         <v>0.47389999999999999</v>
       </c>
       <c r="G195" t="s">
@@ -12330,7 +12974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>89</v>
       </c>
@@ -12340,13 +12984,13 @@
       <c r="C196" t="s">
         <v>11</v>
       </c>
-      <c r="D196" s="5">
+      <c r="D196" s="4">
         <v>0.85589999999999999</v>
       </c>
       <c r="E196" t="s">
         <v>14</v>
       </c>
-      <c r="F196" s="5">
+      <c r="F196" s="4">
         <v>0.14410000000000001</v>
       </c>
       <c r="G196" t="s">
@@ -12359,7 +13003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>89</v>
       </c>
@@ -12369,13 +13013,13 @@
       <c r="C197" t="s">
         <v>16</v>
       </c>
-      <c r="D197" s="5">
+      <c r="D197" s="4">
         <v>0.65910000000000002</v>
       </c>
       <c r="E197" t="s">
         <v>17</v>
       </c>
-      <c r="F197" s="5">
+      <c r="F197" s="4">
         <v>0.34089999999999998</v>
       </c>
       <c r="G197" t="s">
@@ -12388,7 +13032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>89</v>
       </c>
@@ -12398,13 +13042,13 @@
       <c r="C198" t="s">
         <v>43</v>
       </c>
-      <c r="D198" s="14" t="s">
+      <c r="D198" s="13" t="s">
         <v>95</v>
       </c>
       <c r="E198" t="s">
         <v>26</v>
       </c>
-      <c r="F198" s="5">
+      <c r="F198" s="4">
         <v>0.4501</v>
       </c>
       <c r="G198" t="s">
@@ -12417,7 +13061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>89</v>
       </c>
@@ -12427,13 +13071,13 @@
       <c r="C199" t="s">
         <v>19</v>
       </c>
-      <c r="D199" s="5">
+      <c r="D199" s="4">
         <v>0.75819999999999999</v>
       </c>
       <c r="E199" t="s">
         <v>56</v>
       </c>
-      <c r="F199" s="5">
+      <c r="F199" s="4">
         <v>0.24179999999999999</v>
       </c>
       <c r="G199" t="s">
@@ -12446,7 +13090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>89</v>
       </c>
@@ -12456,13 +13100,13 @@
       <c r="C200" t="s">
         <v>25</v>
       </c>
-      <c r="D200" s="5">
+      <c r="D200" s="4">
         <v>0.71479999999999999</v>
       </c>
       <c r="E200" t="s">
         <v>45</v>
       </c>
-      <c r="F200" s="5">
+      <c r="F200" s="4">
         <v>0.28520000000000001</v>
       </c>
       <c r="G200" t="s">
@@ -12475,7 +13119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>89</v>
       </c>
@@ -12485,13 +13129,13 @@
       <c r="C201" t="s">
         <v>4</v>
       </c>
-      <c r="D201" s="5">
+      <c r="D201" s="4">
         <v>0.71350000000000002</v>
       </c>
       <c r="E201" t="s">
         <v>22</v>
       </c>
-      <c r="F201" s="5">
+      <c r="F201" s="4">
         <v>0.28649999999999998</v>
       </c>
       <c r="G201" t="s">
@@ -12504,7 +13148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>89</v>
       </c>
@@ -12514,13 +13158,13 @@
       <c r="C202" t="s">
         <v>58</v>
       </c>
-      <c r="D202" s="5">
+      <c r="D202" s="4">
         <v>0.71279999999999999</v>
       </c>
       <c r="E202" t="s">
         <v>34</v>
       </c>
-      <c r="F202" s="5">
+      <c r="F202" s="4">
         <v>0.28720000000000001</v>
       </c>
       <c r="G202" t="s">
@@ -12533,7 +13177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>89</v>
       </c>
@@ -12543,13 +13187,13 @@
       <c r="C203" t="s">
         <v>10</v>
       </c>
-      <c r="D203" s="5">
+      <c r="D203" s="4">
         <v>0.66849999999999998</v>
       </c>
       <c r="E203" t="s">
         <v>36</v>
       </c>
-      <c r="F203" s="5">
+      <c r="F203" s="4">
         <v>0.33150000000000002</v>
       </c>
       <c r="G203" t="s">
@@ -12562,7 +13206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>89</v>
       </c>
@@ -12572,13 +13216,13 @@
       <c r="C204" t="s">
         <v>43</v>
       </c>
-      <c r="D204" s="5">
+      <c r="D204" s="4">
         <v>0.66190000000000004</v>
       </c>
       <c r="E204" t="s">
         <v>13</v>
       </c>
-      <c r="F204" s="5">
+      <c r="F204" s="4">
         <v>0.33810000000000001</v>
       </c>
       <c r="G204" t="s">
@@ -12591,7 +13235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>89</v>
       </c>
@@ -12601,13 +13245,13 @@
       <c r="C205" t="s">
         <v>29</v>
       </c>
-      <c r="D205" s="5">
+      <c r="D205" s="4">
         <v>0.61880000000000002</v>
       </c>
       <c r="E205" t="s">
         <v>39</v>
       </c>
-      <c r="F205" s="5">
+      <c r="F205" s="4">
         <v>0.38119999999999998</v>
       </c>
       <c r="G205" t="s">
@@ -12620,7 +13264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>89</v>
       </c>
@@ -12630,13 +13274,13 @@
       <c r="C206" t="s">
         <v>11</v>
       </c>
-      <c r="D206" s="5">
+      <c r="D206" s="4">
         <v>0.58189999999999997</v>
       </c>
       <c r="E206" t="s">
         <v>42</v>
       </c>
-      <c r="F206" s="5">
+      <c r="F206" s="4">
         <v>0.41810000000000003</v>
       </c>
       <c r="G206" t="s">
@@ -12649,7 +13293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>89</v>
       </c>
@@ -12659,13 +13303,13 @@
       <c r="C207" t="s">
         <v>7</v>
       </c>
-      <c r="D207" s="5">
+      <c r="D207" s="4">
         <v>0.57030000000000003</v>
       </c>
       <c r="E207" t="s">
         <v>33</v>
       </c>
-      <c r="F207" s="5">
+      <c r="F207" s="4">
         <v>0.42970000000000003</v>
       </c>
       <c r="G207" t="s">
@@ -12678,7 +13322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>89</v>
       </c>
@@ -12688,13 +13332,13 @@
       <c r="C208" t="s">
         <v>66</v>
       </c>
-      <c r="D208" s="5">
+      <c r="D208" s="4">
         <v>0.55979999999999996</v>
       </c>
       <c r="E208" t="s">
         <v>46</v>
       </c>
-      <c r="F208" s="5">
+      <c r="F208" s="4">
         <v>0.44019999999999998</v>
       </c>
       <c r="G208" t="s">
@@ -12707,7 +13351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>89</v>
       </c>
@@ -12717,13 +13361,13 @@
       <c r="C209" t="s">
         <v>28</v>
       </c>
-      <c r="D209" s="5">
+      <c r="D209" s="4">
         <v>0.54759999999999998</v>
       </c>
       <c r="E209" t="s">
         <v>20</v>
       </c>
-      <c r="F209" s="5">
+      <c r="F209" s="4">
         <v>0.45240000000000002</v>
       </c>
       <c r="G209" t="s">
@@ -12736,7 +13380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>89</v>
       </c>
@@ -12746,13 +13390,13 @@
       <c r="C210" t="s">
         <v>8</v>
       </c>
-      <c r="D210" s="5">
+      <c r="D210" s="4">
         <v>0.51910000000000001</v>
       </c>
       <c r="E210" t="s">
         <v>31</v>
       </c>
-      <c r="F210" s="5">
+      <c r="F210" s="4">
         <v>0.48089999999999999</v>
       </c>
       <c r="G210" t="s">
@@ -12765,7 +13409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>89</v>
       </c>
@@ -12775,13 +13419,13 @@
       <c r="C211" t="s">
         <v>16</v>
       </c>
-      <c r="D211" s="5">
+      <c r="D211" s="4">
         <v>0.67410000000000003</v>
       </c>
       <c r="E211" t="s">
         <v>5</v>
       </c>
-      <c r="F211" s="5">
+      <c r="F211" s="4">
         <v>0.32590000000000002</v>
       </c>
       <c r="G211" t="s">
@@ -12794,7 +13438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>89</v>
       </c>
@@ -12804,13 +13448,13 @@
       <c r="C212" t="s">
         <v>40</v>
       </c>
-      <c r="D212" s="5">
+      <c r="D212" s="4">
         <v>0.6411</v>
       </c>
       <c r="E212" t="s">
         <v>26</v>
       </c>
-      <c r="F212" s="5">
+      <c r="F212" s="4">
         <v>0.3589</v>
       </c>
       <c r="G212" t="s">
@@ -12823,7 +13467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>89</v>
       </c>
@@ -12833,13 +13477,13 @@
       <c r="C213" t="s">
         <v>37</v>
       </c>
-      <c r="D213" s="5">
+      <c r="D213" s="4">
         <v>0.61050000000000004</v>
       </c>
       <c r="E213" t="s">
         <v>17</v>
       </c>
-      <c r="F213" s="5">
+      <c r="F213" s="4">
         <v>0.38950000000000001</v>
       </c>
       <c r="G213" t="s">
@@ -12852,7 +13496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>89</v>
       </c>
@@ -12862,13 +13506,13 @@
       <c r="C214" t="s">
         <v>31</v>
       </c>
-      <c r="D214" s="5">
+      <c r="D214" s="4">
         <v>0.57930000000000004</v>
       </c>
       <c r="E214" t="s">
         <v>14</v>
       </c>
-      <c r="F214" s="5">
+      <c r="F214" s="4">
         <v>0.42070000000000002</v>
       </c>
       <c r="G214" t="s">
@@ -12881,7 +13525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>91</v>
       </c>
@@ -12891,13 +13535,13 @@
       <c r="C215" t="s">
         <v>4</v>
       </c>
-      <c r="D215" s="5">
+      <c r="D215" s="4">
         <v>0.62549999999999994</v>
       </c>
       <c r="E215" t="s">
         <v>7</v>
       </c>
-      <c r="F215" s="5">
+      <c r="F215" s="4">
         <v>0.3745</v>
       </c>
       <c r="G215" t="s">
@@ -12910,7 +13554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>91</v>
       </c>
@@ -12920,13 +13564,13 @@
       <c r="C216" t="s">
         <v>25</v>
       </c>
-      <c r="D216" s="5">
+      <c r="D216" s="4">
         <v>0.60009999999999997</v>
       </c>
       <c r="E216" t="s">
         <v>42</v>
       </c>
-      <c r="F216" s="5">
+      <c r="F216" s="4">
         <v>0.39989999999999998</v>
       </c>
       <c r="G216" t="s">
@@ -12939,7 +13583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>91</v>
       </c>
@@ -12949,13 +13593,13 @@
       <c r="C217" t="s">
         <v>66</v>
       </c>
-      <c r="D217" s="5">
+      <c r="D217" s="4">
         <v>0.56089999999999995</v>
       </c>
       <c r="E217" t="s">
         <v>8</v>
       </c>
-      <c r="F217" s="5">
+      <c r="F217" s="4">
         <v>0.43909999999999999</v>
       </c>
       <c r="G217" t="s">
@@ -12968,7 +13612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>91</v>
       </c>
@@ -12978,13 +13622,13 @@
       <c r="C218" t="s">
         <v>28</v>
       </c>
-      <c r="D218" s="5">
+      <c r="D218" s="4">
         <v>0.5363</v>
       </c>
       <c r="E218" t="s">
         <v>58</v>
       </c>
-      <c r="F218" s="5">
+      <c r="F218" s="4">
         <v>0.4637</v>
       </c>
       <c r="G218" t="s">
@@ -12997,7 +13641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>91</v>
       </c>
@@ -13007,13 +13651,13 @@
       <c r="C219" t="s">
         <v>4</v>
       </c>
-      <c r="D219" s="5">
+      <c r="D219" s="4">
         <v>0.79020000000000001</v>
       </c>
       <c r="E219" t="s">
         <v>5</v>
       </c>
-      <c r="F219" s="5">
+      <c r="F219" s="4">
         <v>0.20979999999999999</v>
       </c>
       <c r="G219" t="s">
@@ -13026,7 +13670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>91</v>
       </c>
@@ -13036,13 +13680,13 @@
       <c r="C220" t="s">
         <v>19</v>
       </c>
-      <c r="D220" s="5">
+      <c r="D220" s="4">
         <v>0.76049999999999995</v>
       </c>
       <c r="E220" t="s">
         <v>56</v>
       </c>
-      <c r="F220" s="5">
+      <c r="F220" s="4">
         <v>0.23949999999999999</v>
       </c>
       <c r="G220" t="s">
@@ -13055,7 +13699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>91</v>
       </c>
@@ -13065,13 +13709,13 @@
       <c r="C221" t="s">
         <v>16</v>
       </c>
-      <c r="D221" s="5">
+      <c r="D221" s="4">
         <v>0.75049999999999994</v>
       </c>
       <c r="E221" t="s">
         <v>34</v>
       </c>
-      <c r="F221" s="5">
+      <c r="F221" s="4">
         <v>0.2495</v>
       </c>
       <c r="G221" t="s">
@@ -13084,7 +13728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>91</v>
       </c>
@@ -13094,13 +13738,13 @@
       <c r="C222" t="s">
         <v>20</v>
       </c>
-      <c r="D222" s="5">
+      <c r="D222" s="4">
         <v>0.71519999999999995</v>
       </c>
       <c r="E222" t="s">
         <v>17</v>
       </c>
-      <c r="F222" s="5">
+      <c r="F222" s="4">
         <v>0.2848</v>
       </c>
       <c r="G222" t="s">
@@ -13113,7 +13757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>91</v>
       </c>
@@ -13123,13 +13767,13 @@
       <c r="C223" t="s">
         <v>10</v>
       </c>
-      <c r="D223" s="5">
+      <c r="D223" s="4">
         <v>0.69569999999999999</v>
       </c>
       <c r="E223" t="s">
         <v>14</v>
       </c>
-      <c r="F223" s="5">
+      <c r="F223" s="4">
         <v>0.30430000000000001</v>
       </c>
       <c r="G223" t="s">
@@ -13142,7 +13786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>91</v>
       </c>
@@ -13152,13 +13796,13 @@
       <c r="C224" t="s">
         <v>39</v>
       </c>
-      <c r="D224" s="5">
+      <c r="D224" s="4">
         <v>0.55649999999999999</v>
       </c>
       <c r="E224" t="s">
         <v>42</v>
       </c>
-      <c r="F224" s="5">
+      <c r="F224" s="4">
         <v>0.44350000000000001</v>
       </c>
       <c r="G224" t="s">
@@ -13171,7 +13815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>91</v>
       </c>
@@ -13181,13 +13825,13 @@
       <c r="C225" t="s">
         <v>40</v>
       </c>
-      <c r="D225" s="5">
+      <c r="D225" s="4">
         <v>0.55130000000000001</v>
       </c>
       <c r="E225" t="s">
         <v>22</v>
       </c>
-      <c r="F225" s="5">
+      <c r="F225" s="4">
         <v>0.44869999999999999</v>
       </c>
       <c r="G225" t="s">
@@ -13200,7 +13844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>91</v>
       </c>
@@ -13210,13 +13854,13 @@
       <c r="C226" t="s">
         <v>33</v>
       </c>
-      <c r="D226" s="5">
+      <c r="D226" s="4">
         <v>0.53500000000000003</v>
       </c>
       <c r="E226" t="s">
         <v>13</v>
       </c>
-      <c r="F226" s="5">
+      <c r="F226" s="4">
         <v>0.46500000000000002</v>
       </c>
       <c r="G226" t="s">
@@ -13229,7 +13873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>91</v>
       </c>
@@ -13239,13 +13883,13 @@
       <c r="C227" t="s">
         <v>36</v>
       </c>
-      <c r="D227" s="5">
+      <c r="D227" s="4">
         <v>0.52349999999999997</v>
       </c>
       <c r="E227" t="s">
         <v>31</v>
       </c>
-      <c r="F227" s="5">
+      <c r="F227" s="4">
         <v>0.47649999999999998</v>
       </c>
       <c r="G227" t="s">
@@ -13258,7 +13902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>91</v>
       </c>
@@ -13268,13 +13912,13 @@
       <c r="C228" t="s">
         <v>46</v>
       </c>
-      <c r="D228" s="5">
+      <c r="D228" s="4">
         <v>0.51370000000000005</v>
       </c>
       <c r="E228" t="s">
         <v>23</v>
       </c>
-      <c r="F228" s="5">
+      <c r="F228" s="4">
         <v>0.48630000000000001</v>
       </c>
       <c r="G228" t="s">
@@ -13287,7 +13931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>91</v>
       </c>
@@ -13297,13 +13941,13 @@
       <c r="C229" t="s">
         <v>28</v>
       </c>
-      <c r="D229" s="5">
+      <c r="D229" s="4">
         <v>0.58540000000000003</v>
       </c>
       <c r="E229" t="s">
         <v>58</v>
       </c>
-      <c r="F229" s="5">
+      <c r="F229" s="4">
         <v>0.41460000000000002</v>
       </c>
       <c r="G229" t="s">
@@ -13316,7 +13960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>91</v>
       </c>
@@ -13326,13 +13970,13 @@
       <c r="C230" t="s">
         <v>8</v>
       </c>
-      <c r="D230" s="5">
+      <c r="D230" s="4">
         <v>0.54049999999999998</v>
       </c>
       <c r="E230" t="s">
         <v>45</v>
       </c>
-      <c r="F230" s="5">
+      <c r="F230" s="4">
         <v>0.45950000000000002</v>
       </c>
       <c r="G230" t="s">
@@ -13345,7 +13989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>91</v>
       </c>
@@ -13355,13 +13999,13 @@
       <c r="C231" t="s">
         <v>7</v>
       </c>
-      <c r="D231" s="5">
+      <c r="D231" s="4">
         <v>0.52049999999999996</v>
       </c>
       <c r="E231" t="s">
         <v>29</v>
       </c>
-      <c r="F231" s="5">
+      <c r="F231" s="4">
         <v>0.47949999999999998</v>
       </c>
       <c r="G231" t="s">
@@ -13374,7 +14018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>91</v>
       </c>
@@ -13384,13 +14028,13 @@
       <c r="C232" t="s">
         <v>43</v>
       </c>
-      <c r="D232" s="5">
+      <c r="D232" s="4">
         <v>0.82769999999999999</v>
       </c>
       <c r="E232" t="s">
         <v>17</v>
       </c>
-      <c r="F232" s="5">
+      <c r="F232" s="4">
         <v>0.17230000000000001</v>
       </c>
       <c r="G232" t="s">
@@ -13403,7 +14047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>91</v>
       </c>
@@ -13413,13 +14057,13 @@
       <c r="C233" t="s">
         <v>16</v>
       </c>
-      <c r="D233" s="5">
+      <c r="D233" s="4">
         <v>0.75629999999999997</v>
       </c>
       <c r="E233" t="s">
         <v>14</v>
       </c>
-      <c r="F233" s="5">
+      <c r="F233" s="4">
         <v>0.2437</v>
       </c>
       <c r="G233" t="s">
@@ -13432,7 +14076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>91</v>
       </c>
@@ -13442,13 +14086,13 @@
       <c r="C234" t="s">
         <v>25</v>
       </c>
-      <c r="D234" s="5">
+      <c r="D234" s="4">
         <v>0.68789999999999996</v>
       </c>
       <c r="E234" t="s">
         <v>13</v>
       </c>
-      <c r="F234" s="5">
+      <c r="F234" s="4">
         <v>0.31209999999999999</v>
       </c>
       <c r="G234" t="s">
@@ -13461,7 +14105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>91</v>
       </c>
@@ -13471,13 +14115,13 @@
       <c r="C235" t="s">
         <v>4</v>
       </c>
-      <c r="D235" s="5">
+      <c r="D235" s="4">
         <v>0.64610000000000001</v>
       </c>
       <c r="E235" t="s">
         <v>29</v>
       </c>
-      <c r="F235" s="5">
+      <c r="F235" s="4">
         <v>0.35389999999999999</v>
       </c>
       <c r="G235" t="s">
@@ -13490,7 +14134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>91</v>
       </c>
@@ -13500,13 +14144,13 @@
       <c r="C236" t="s">
         <v>45</v>
       </c>
-      <c r="D236" s="5">
+      <c r="D236" s="4">
         <v>0.59650000000000003</v>
       </c>
       <c r="E236" t="s">
         <v>56</v>
       </c>
-      <c r="F236" s="5">
+      <c r="F236" s="4">
         <v>0.40350000000000003</v>
       </c>
       <c r="G236" t="s">
@@ -13519,7 +14163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>91</v>
       </c>
@@ -13529,13 +14173,13 @@
       <c r="C237" t="s">
         <v>10</v>
       </c>
-      <c r="D237" s="5">
+      <c r="D237" s="4">
         <v>0.56879999999999997</v>
       </c>
       <c r="E237" t="s">
         <v>37</v>
       </c>
-      <c r="F237" s="14" t="s">
+      <c r="F237" s="13" t="s">
         <v>96</v>
       </c>
       <c r="G237" t="s">
@@ -13548,7 +14192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>91</v>
       </c>
@@ -13558,13 +14202,13 @@
       <c r="C238" t="s">
         <v>5</v>
       </c>
-      <c r="D238" s="5">
+      <c r="D238" s="4">
         <v>0.56320000000000003</v>
       </c>
       <c r="E238" t="s">
         <v>31</v>
       </c>
-      <c r="F238" s="5">
+      <c r="F238" s="4">
         <v>0.43680000000000002</v>
       </c>
       <c r="G238" t="s">
@@ -13577,7 +14221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>91</v>
       </c>
@@ -13587,13 +14231,13 @@
       <c r="C239" t="s">
         <v>11</v>
       </c>
-      <c r="D239" s="5">
+      <c r="D239" s="4">
         <v>0.54900000000000004</v>
       </c>
       <c r="E239" t="s">
         <v>22</v>
       </c>
-      <c r="F239" s="5">
+      <c r="F239" s="4">
         <v>0.45100000000000001</v>
       </c>
       <c r="G239" t="s">
@@ -13606,7 +14250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>91</v>
       </c>
@@ -13616,13 +14260,13 @@
       <c r="C240" t="s">
         <v>19</v>
       </c>
-      <c r="D240" s="5">
+      <c r="D240" s="4">
         <v>0.53839999999999999</v>
       </c>
       <c r="E240" t="s">
         <v>39</v>
       </c>
-      <c r="F240" s="5">
+      <c r="F240" s="4">
         <v>0.46160000000000001</v>
       </c>
       <c r="G240" t="s">
@@ -13635,7 +14279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>91</v>
       </c>
@@ -13645,13 +14289,13 @@
       <c r="C241" t="s">
         <v>40</v>
       </c>
-      <c r="D241" s="5">
+      <c r="D241" s="4">
         <v>0.51170000000000004</v>
       </c>
       <c r="E241" t="s">
         <v>33</v>
       </c>
-      <c r="F241" s="5">
+      <c r="F241" s="4">
         <v>0.48830000000000001</v>
       </c>
       <c r="G241" t="s">
@@ -13664,7 +14308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>91</v>
       </c>
@@ -13674,13 +14318,13 @@
       <c r="C242" t="s">
         <v>36</v>
       </c>
-      <c r="D242" s="5">
+      <c r="D242" s="4">
         <v>0.50990000000000002</v>
       </c>
       <c r="E242" t="s">
         <v>46</v>
       </c>
-      <c r="F242" s="5">
+      <c r="F242" s="4">
         <v>0.49009999999999998</v>
       </c>
       <c r="G242" t="s">
@@ -13693,7 +14337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>91</v>
       </c>
@@ -13703,13 +14347,13 @@
       <c r="C243" t="s">
         <v>23</v>
       </c>
-      <c r="D243" s="5">
+      <c r="D243" s="4">
         <v>0.50609999999999999</v>
       </c>
       <c r="E243" t="s">
         <v>26</v>
       </c>
-      <c r="F243" s="5">
+      <c r="F243" s="4">
         <v>0.49390000000000001</v>
       </c>
       <c r="G243" t="s">
@@ -13722,7 +14366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>91</v>
       </c>
@@ -13732,13 +14376,13 @@
       <c r="C244" t="s">
         <v>42</v>
       </c>
-      <c r="D244" s="5">
+      <c r="D244" s="4">
         <v>0.50580000000000003</v>
       </c>
       <c r="E244" t="s">
         <v>66</v>
       </c>
-      <c r="F244" s="5">
+      <c r="F244" s="4">
         <v>0.49419999999999997</v>
       </c>
       <c r="G244" t="s">
@@ -13751,7 +14395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>91</v>
       </c>
@@ -13761,13 +14405,13 @@
       <c r="C245" t="s">
         <v>58</v>
       </c>
-      <c r="D245" s="5">
+      <c r="D245" s="4">
         <v>0.66439999999999999</v>
       </c>
       <c r="E245" t="s">
         <v>8</v>
       </c>
-      <c r="F245" s="5">
+      <c r="F245" s="4">
         <v>0.33560000000000001</v>
       </c>
       <c r="G245" t="s">
@@ -13780,7 +14424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>91</v>
       </c>
@@ -13790,13 +14434,13 @@
       <c r="C246" t="s">
         <v>28</v>
       </c>
-      <c r="D246" s="5">
+      <c r="D246" s="4">
         <v>0.53420000000000001</v>
       </c>
       <c r="E246" t="s">
         <v>20</v>
       </c>
-      <c r="F246" s="5">
+      <c r="F246" s="4">
         <v>0.46579999999999999</v>
       </c>
       <c r="G246" t="s">
@@ -13809,7 +14453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>91</v>
       </c>
@@ -13819,13 +14463,13 @@
       <c r="C247" t="s">
         <v>4</v>
       </c>
-      <c r="D247" s="5">
+      <c r="D247" s="4">
         <v>0.79330000000000001</v>
       </c>
       <c r="E247" t="s">
         <v>13</v>
       </c>
-      <c r="F247" s="5">
+      <c r="F247" s="4">
         <v>0.20669999999999999</v>
       </c>
       <c r="G247" t="s">
@@ -13838,7 +14482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>91</v>
       </c>
@@ -13848,13 +14492,13 @@
       <c r="C248" t="s">
         <v>22</v>
       </c>
-      <c r="D248" s="5">
+      <c r="D248" s="4">
         <v>0.77600000000000002</v>
       </c>
       <c r="E248" t="s">
         <v>17</v>
       </c>
-      <c r="F248" s="5">
+      <c r="F248" s="4">
         <v>0.224</v>
       </c>
       <c r="G248" t="s">
@@ -13867,7 +14511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>91</v>
       </c>
@@ -13877,13 +14521,13 @@
       <c r="C249" t="s">
         <v>29</v>
       </c>
-      <c r="D249" s="5">
+      <c r="D249" s="4">
         <v>0.73509999999999998</v>
       </c>
       <c r="E249" t="s">
         <v>31</v>
       </c>
-      <c r="F249" s="5">
+      <c r="F249" s="4">
         <v>0.26490000000000002</v>
       </c>
       <c r="G249" t="s">
@@ -13896,7 +14540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>91</v>
       </c>
@@ -13906,13 +14550,13 @@
       <c r="C250" t="s">
         <v>36</v>
       </c>
-      <c r="D250" s="5">
+      <c r="D250" s="4">
         <v>0.7298</v>
       </c>
       <c r="E250" t="s">
         <v>56</v>
       </c>
-      <c r="F250" s="5">
+      <c r="F250" s="4">
         <v>0.2702</v>
       </c>
       <c r="G250" t="s">
@@ -13925,7 +14569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>91</v>
       </c>
@@ -13935,13 +14579,13 @@
       <c r="C251" t="s">
         <v>28</v>
       </c>
-      <c r="D251" s="5">
+      <c r="D251" s="4">
         <v>0.71919999999999995</v>
       </c>
       <c r="E251" t="s">
         <v>14</v>
       </c>
-      <c r="F251" s="5">
+      <c r="F251" s="4">
         <v>0.28079999999999999</v>
       </c>
       <c r="G251" t="s">
@@ -13954,7 +14598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>91</v>
       </c>
@@ -13964,13 +14608,13 @@
       <c r="C252" t="s">
         <v>23</v>
       </c>
-      <c r="D252" s="5">
+      <c r="D252" s="4">
         <v>0.70960000000000001</v>
       </c>
       <c r="E252" t="s">
         <v>34</v>
       </c>
-      <c r="F252" s="5">
+      <c r="F252" s="4">
         <v>0.29039999999999999</v>
       </c>
       <c r="G252" t="s">
@@ -13983,7 +14627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>91</v>
       </c>
@@ -13993,13 +14637,13 @@
       <c r="C253" t="s">
         <v>25</v>
       </c>
-      <c r="D253" s="5">
+      <c r="D253" s="4">
         <v>0.70830000000000004</v>
       </c>
       <c r="E253" t="s">
         <v>26</v>
       </c>
-      <c r="F253" s="5">
+      <c r="F253" s="4">
         <v>0.29170000000000001</v>
       </c>
       <c r="G253" t="s">
@@ -14012,7 +14656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>91</v>
       </c>
@@ -14022,13 +14666,13 @@
       <c r="C254" t="s">
         <v>40</v>
       </c>
-      <c r="D254" s="5">
+      <c r="D254" s="4">
         <v>0.67630000000000001</v>
       </c>
       <c r="E254" t="s">
         <v>37</v>
       </c>
-      <c r="F254" s="5">
+      <c r="F254" s="4">
         <v>0.32369999999999999</v>
       </c>
       <c r="G254" t="s">
@@ -14041,7 +14685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>91</v>
       </c>
@@ -14051,13 +14695,13 @@
       <c r="C255" t="s">
         <v>10</v>
       </c>
-      <c r="D255" s="5">
+      <c r="D255" s="4">
         <v>0.67190000000000005</v>
       </c>
       <c r="E255" t="s">
         <v>45</v>
       </c>
-      <c r="F255" s="5">
+      <c r="F255" s="4">
         <v>0.3281</v>
       </c>
       <c r="G255" t="s">
@@ -14070,7 +14714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>91</v>
       </c>
@@ -14080,13 +14724,13 @@
       <c r="C256" t="s">
         <v>58</v>
       </c>
-      <c r="D256" s="5">
+      <c r="D256" s="4">
         <v>0.66779999999999995</v>
       </c>
       <c r="E256" t="s">
         <v>5</v>
       </c>
-      <c r="F256" s="5">
+      <c r="F256" s="4">
         <v>0.3322</v>
       </c>
       <c r="G256" t="s">
@@ -14099,7 +14743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>91</v>
       </c>
@@ -14109,13 +14753,13 @@
       <c r="C257" t="s">
         <v>16</v>
       </c>
-      <c r="D257" s="5">
+      <c r="D257" s="4">
         <v>0.66010000000000002</v>
       </c>
       <c r="E257" t="s">
         <v>8</v>
       </c>
-      <c r="F257" s="5">
+      <c r="F257" s="4">
         <v>0.33989999999999998</v>
       </c>
       <c r="G257" t="s">
@@ -14128,7 +14772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>91</v>
       </c>
@@ -14138,13 +14782,13 @@
       <c r="C258" t="s">
         <v>43</v>
       </c>
-      <c r="D258" s="5">
+      <c r="D258" s="4">
         <v>0.64039999999999997</v>
       </c>
       <c r="E258" t="s">
         <v>66</v>
       </c>
-      <c r="F258" s="5">
+      <c r="F258" s="4">
         <v>0.35959999999999998</v>
       </c>
       <c r="G258" t="s">
@@ -14157,7 +14801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>91</v>
       </c>
@@ -14167,13 +14811,13 @@
       <c r="C259" t="s">
         <v>42</v>
       </c>
-      <c r="D259" s="5">
+      <c r="D259" s="4">
         <v>0.53749999999999998</v>
       </c>
       <c r="E259" t="s">
         <v>46</v>
       </c>
-      <c r="F259" s="5">
+      <c r="F259" s="4">
         <v>0.46250000000000002</v>
       </c>
       <c r="G259" t="s">
@@ -14186,7 +14830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>91</v>
       </c>
@@ -14196,13 +14840,13 @@
       <c r="C260" t="s">
         <v>39</v>
       </c>
-      <c r="D260" s="5">
+      <c r="D260" s="4">
         <v>0.53190000000000004</v>
       </c>
       <c r="E260" t="s">
         <v>20</v>
       </c>
-      <c r="F260" s="5">
+      <c r="F260" s="4">
         <v>0.46810000000000002</v>
       </c>
       <c r="G260" t="s">
@@ -14215,7 +14859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>91</v>
       </c>
@@ -14225,13 +14869,13 @@
       <c r="C261" t="s">
         <v>7</v>
       </c>
-      <c r="D261" s="5">
+      <c r="D261" s="4">
         <v>0.53049999999999997</v>
       </c>
       <c r="E261" t="s">
         <v>19</v>
       </c>
-      <c r="F261" s="5">
+      <c r="F261" s="4">
         <v>0.46949999999999997</v>
       </c>
       <c r="G261" t="s">
@@ -14244,7 +14888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>91</v>
       </c>
@@ -14254,13 +14898,13 @@
       <c r="C262" t="s">
         <v>11</v>
       </c>
-      <c r="D262" s="5">
+      <c r="D262" s="4">
         <v>0.52100000000000002</v>
       </c>
       <c r="E262" t="s">
         <v>33</v>
       </c>
-      <c r="F262" s="5">
+      <c r="F262" s="4">
         <v>0.47899999999999998</v>
       </c>
       <c r="G262" t="s">
@@ -14273,7 +14917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>90</v>
       </c>
@@ -14283,13 +14927,13 @@
       <c r="C263" t="s">
         <v>25</v>
       </c>
-      <c r="D263" s="14" t="s">
+      <c r="D263" s="13" t="s">
         <v>97</v>
       </c>
       <c r="E263" t="s">
         <v>26</v>
       </c>
-      <c r="F263" s="5">
+      <c r="F263" s="4">
         <v>0.2626</v>
       </c>
       <c r="G263" t="s">
@@ -14302,7 +14946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>90</v>
       </c>
@@ -14312,13 +14956,13 @@
       <c r="C264" t="s">
         <v>19</v>
       </c>
-      <c r="D264" s="5">
+      <c r="D264" s="4">
         <v>0.63729999999999998</v>
       </c>
       <c r="E264" t="s">
         <v>37</v>
       </c>
-      <c r="F264" s="5">
+      <c r="F264" s="4">
         <v>0.36270000000000002</v>
       </c>
       <c r="G264" t="s">
@@ -14331,7 +14975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>90</v>
       </c>
@@ -14341,13 +14985,13 @@
       <c r="C265" t="s">
         <v>33</v>
       </c>
-      <c r="D265" s="5">
+      <c r="D265" s="4">
         <v>0.79749999999999999</v>
       </c>
       <c r="E265" t="s">
         <v>17</v>
       </c>
-      <c r="F265" s="5">
+      <c r="F265" s="4">
         <v>0.20250000000000001</v>
       </c>
       <c r="G265" t="s">
@@ -14360,7 +15004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>90</v>
       </c>
@@ -14370,13 +15014,13 @@
       <c r="C266" t="s">
         <v>46</v>
       </c>
-      <c r="D266" s="5">
+      <c r="D266" s="4">
         <v>0.76970000000000005</v>
       </c>
       <c r="E266" t="s">
         <v>56</v>
       </c>
-      <c r="F266" s="5">
+      <c r="F266" s="4">
         <v>0.2303</v>
       </c>
       <c r="G266" t="s">
@@ -14389,7 +15033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>90</v>
       </c>
@@ -14399,13 +15043,13 @@
       <c r="C267" t="s">
         <v>7</v>
       </c>
-      <c r="D267" s="5">
+      <c r="D267" s="4">
         <v>0.74399999999999999</v>
       </c>
       <c r="E267" t="s">
         <v>45</v>
       </c>
-      <c r="F267" s="5">
+      <c r="F267" s="4">
         <v>0.25600000000000001</v>
       </c>
       <c r="G267" t="s">
@@ -14418,7 +15062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>90</v>
       </c>
@@ -14428,13 +15072,13 @@
       <c r="C268" t="s">
         <v>42</v>
       </c>
-      <c r="D268" s="5">
+      <c r="D268" s="4">
         <v>0.73680000000000001</v>
       </c>
       <c r="E268" t="s">
         <v>34</v>
       </c>
-      <c r="F268" s="5">
+      <c r="F268" s="4">
         <v>0.26319999999999999</v>
       </c>
       <c r="G268" t="s">
@@ -14447,7 +15091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>90</v>
       </c>
@@ -14457,13 +15101,13 @@
       <c r="C269" t="s">
         <v>4</v>
       </c>
-      <c r="D269" s="5">
+      <c r="D269" s="4">
         <v>0.67330000000000001</v>
       </c>
       <c r="E269" t="s">
         <v>11</v>
       </c>
-      <c r="F269" s="5">
+      <c r="F269" s="4">
         <v>0.32669999999999999</v>
       </c>
       <c r="G269" t="s">
@@ -14476,7 +15120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>90</v>
       </c>
@@ -14486,13 +15130,13 @@
       <c r="C270" t="s">
         <v>13</v>
       </c>
-      <c r="D270" s="5">
+      <c r="D270" s="4">
         <v>0.63009999999999999</v>
       </c>
       <c r="E270" t="s">
         <v>8</v>
       </c>
-      <c r="F270" s="5">
+      <c r="F270" s="4">
         <v>0.36990000000000001</v>
       </c>
       <c r="G270" t="s">
@@ -14505,7 +15149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>90</v>
       </c>
@@ -14515,13 +15159,13 @@
       <c r="C271" t="s">
         <v>29</v>
       </c>
-      <c r="D271" s="5">
+      <c r="D271" s="4">
         <v>0.6099</v>
       </c>
       <c r="E271" t="s">
         <v>20</v>
       </c>
-      <c r="F271" s="5">
+      <c r="F271" s="4">
         <v>0.3901</v>
       </c>
       <c r="G271" t="s">
@@ -14534,7 +15178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>90</v>
       </c>
@@ -14544,13 +15188,13 @@
       <c r="C272" t="s">
         <v>58</v>
       </c>
-      <c r="D272" s="5">
+      <c r="D272" s="4">
         <v>0.59230000000000005</v>
       </c>
       <c r="E272" t="s">
         <v>39</v>
       </c>
-      <c r="F272" s="5">
+      <c r="F272" s="4">
         <v>0.40770000000000001</v>
       </c>
       <c r="G272" t="s">
@@ -14563,7 +15207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>90</v>
       </c>
@@ -14573,13 +15217,13 @@
       <c r="C273" t="s">
         <v>43</v>
       </c>
-      <c r="D273" s="5">
+      <c r="D273" s="4">
         <v>0.52039999999999997</v>
       </c>
       <c r="E273" t="s">
         <v>40</v>
       </c>
-      <c r="F273" s="5">
+      <c r="F273" s="4">
         <v>0.47960000000000003</v>
       </c>
       <c r="G273" t="s">
@@ -14592,7 +15236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>90</v>
       </c>
@@ -14602,13 +15246,13 @@
       <c r="C274" t="s">
         <v>66</v>
       </c>
-      <c r="D274" s="5">
+      <c r="D274" s="4">
         <v>0.51259999999999994</v>
       </c>
       <c r="E274" t="s">
         <v>23</v>
       </c>
-      <c r="F274" s="5">
+      <c r="F274" s="4">
         <v>0.4874</v>
       </c>
       <c r="G274" t="s">
@@ -14621,7 +15265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>90</v>
       </c>
@@ -14631,13 +15275,13 @@
       <c r="C275" t="s">
         <v>25</v>
       </c>
-      <c r="D275" s="5">
+      <c r="D275" s="4">
         <v>0.67249999999999999</v>
       </c>
       <c r="E275" t="s">
         <v>23</v>
       </c>
-      <c r="F275" s="5">
+      <c r="F275" s="4">
         <v>0.32750000000000001</v>
       </c>
       <c r="G275" t="s">
@@ -14650,7 +15294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>90</v>
       </c>
@@ -14660,13 +15304,13 @@
       <c r="C276" t="s">
         <v>26</v>
       </c>
-      <c r="D276" s="5">
+      <c r="D276" s="4">
         <v>0.64190000000000003</v>
       </c>
       <c r="E276" t="s">
         <v>17</v>
       </c>
-      <c r="F276" s="5">
+      <c r="F276" s="4">
         <v>0.35809999999999997</v>
       </c>
       <c r="G276" t="s">
@@ -14679,7 +15323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>90</v>
       </c>
@@ -14689,13 +15333,13 @@
       <c r="C277" t="s">
         <v>7</v>
       </c>
-      <c r="D277" s="5">
+      <c r="D277" s="4">
         <v>0.58069999999999999</v>
       </c>
       <c r="E277" t="s">
         <v>36</v>
       </c>
-      <c r="F277" s="5">
+      <c r="F277" s="4">
         <v>0.41930000000000001</v>
       </c>
       <c r="G277" t="s">
@@ -14708,7 +15352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>90</v>
       </c>
@@ -14718,13 +15362,13 @@
       <c r="C278" t="s">
         <v>16</v>
       </c>
-      <c r="D278" s="5">
+      <c r="D278" s="4">
         <v>0.57499999999999996</v>
       </c>
       <c r="E278" t="s">
         <v>39</v>
       </c>
-      <c r="F278" s="5">
+      <c r="F278" s="4">
         <v>0.42499999999999999</v>
       </c>
       <c r="G278" t="s">
@@ -14737,7 +15381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>90</v>
       </c>
@@ -14747,13 +15391,13 @@
       <c r="C279" t="s">
         <v>31</v>
       </c>
-      <c r="D279" s="5">
+      <c r="D279" s="4">
         <v>0.55569999999999997</v>
       </c>
       <c r="E279" t="s">
         <v>5</v>
       </c>
-      <c r="F279" s="5">
+      <c r="F279" s="4">
         <v>0.44429999999999997</v>
       </c>
       <c r="G279" t="s">
@@ -14766,7 +15410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>90</v>
       </c>
@@ -14776,13 +15420,13 @@
       <c r="C280" t="s">
         <v>14</v>
       </c>
-      <c r="D280" s="5">
+      <c r="D280" s="4">
         <v>0.51600000000000001</v>
       </c>
       <c r="E280" t="s">
         <v>56</v>
       </c>
-      <c r="F280" s="5">
+      <c r="F280" s="4">
         <v>0.48399999999999999</v>
       </c>
       <c r="G280" t="s">
@@ -14795,7 +15439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>90</v>
       </c>
@@ -14805,13 +15449,13 @@
       <c r="C281" t="s">
         <v>10</v>
       </c>
-      <c r="D281" s="5">
+      <c r="D281" s="4">
         <v>0.50939999999999996</v>
       </c>
       <c r="E281" t="s">
         <v>19</v>
       </c>
-      <c r="F281" s="5">
+      <c r="F281" s="4">
         <v>0.49059999999999998</v>
       </c>
       <c r="G281" t="s">
@@ -14824,7 +15468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>90</v>
       </c>
@@ -14834,13 +15478,13 @@
       <c r="C282" t="s">
         <v>40</v>
       </c>
-      <c r="D282" s="5">
+      <c r="D282" s="4">
         <v>0.50770000000000004</v>
       </c>
       <c r="E282" t="s">
         <v>28</v>
       </c>
-      <c r="F282" s="5">
+      <c r="F282" s="4">
         <v>0.49230000000000002</v>
       </c>
       <c r="G282" t="s">
@@ -14853,7 +15497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>90</v>
       </c>
@@ -14863,13 +15507,13 @@
       <c r="C283" t="s">
         <v>11</v>
       </c>
-      <c r="D283" s="5">
+      <c r="D283" s="4">
         <v>0.75990000000000002</v>
       </c>
       <c r="E283" t="s">
         <v>45</v>
       </c>
-      <c r="F283" s="5">
+      <c r="F283" s="4">
         <v>0.24010000000000001</v>
       </c>
       <c r="G283" t="s">
@@ -14882,7 +15526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>90</v>
       </c>
@@ -14892,13 +15536,13 @@
       <c r="C284" t="s">
         <v>33</v>
       </c>
-      <c r="D284" s="5">
+      <c r="D284" s="4">
         <v>0.61939999999999995</v>
       </c>
       <c r="E284" t="s">
         <v>37</v>
       </c>
-      <c r="F284" s="5">
+      <c r="F284" s="4">
         <v>0.38059999999999999</v>
       </c>
       <c r="G284" t="s">
@@ -14911,7 +15555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>90</v>
       </c>
@@ -14921,13 +15565,13 @@
       <c r="C285" t="s">
         <v>4</v>
       </c>
-      <c r="D285" s="5">
+      <c r="D285" s="4">
         <v>0.72950000000000004</v>
       </c>
       <c r="E285" t="s">
         <v>7</v>
       </c>
-      <c r="F285" s="5">
+      <c r="F285" s="4">
         <v>0.27050000000000002</v>
       </c>
       <c r="G285" t="s">
@@ -14940,7 +15584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>90</v>
       </c>
@@ -14950,13 +15594,13 @@
       <c r="C286" t="s">
         <v>46</v>
       </c>
-      <c r="D286" s="5">
+      <c r="D286" s="4">
         <v>0.71309999999999996</v>
       </c>
       <c r="E286" t="s">
         <v>14</v>
       </c>
-      <c r="F286" s="5">
+      <c r="F286" s="4">
         <v>0.28689999999999999</v>
       </c>
       <c r="G286" t="s">
@@ -14969,7 +15613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>90</v>
       </c>
@@ -14979,13 +15623,13 @@
       <c r="C287" t="s">
         <v>10</v>
       </c>
-      <c r="D287" s="5">
+      <c r="D287" s="4">
         <v>0.68240000000000001</v>
       </c>
       <c r="E287" t="s">
         <v>23</v>
       </c>
-      <c r="F287" s="5">
+      <c r="F287" s="4">
         <v>0.31759999999999999</v>
       </c>
       <c r="G287" t="s">
@@ -14998,7 +15642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>90</v>
       </c>
@@ -15008,13 +15652,13 @@
       <c r="C288" t="s">
         <v>28</v>
       </c>
-      <c r="D288" s="5">
+      <c r="D288" s="4">
         <v>0.63339999999999996</v>
       </c>
       <c r="E288" t="s">
         <v>8</v>
       </c>
-      <c r="F288" s="5">
+      <c r="F288" s="4">
         <v>0.36659999999999998</v>
       </c>
       <c r="G288" t="s">
@@ -15027,7 +15671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>90</v>
       </c>
@@ -15037,13 +15681,13 @@
       <c r="C289" t="s">
         <v>19</v>
       </c>
-      <c r="D289" s="5">
+      <c r="D289" s="4">
         <v>0.61580000000000001</v>
       </c>
       <c r="E289" t="s">
         <v>31</v>
       </c>
-      <c r="F289" s="5">
+      <c r="F289" s="4">
         <v>0.38419999999999999</v>
       </c>
       <c r="G289" t="s">
@@ -15056,7 +15700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>90</v>
       </c>
@@ -15066,13 +15710,13 @@
       <c r="C290" t="s">
         <v>42</v>
       </c>
-      <c r="D290" s="5">
+      <c r="D290" s="4">
         <v>0.61539999999999995</v>
       </c>
       <c r="E290" t="s">
         <v>5</v>
       </c>
-      <c r="F290" s="5">
+      <c r="F290" s="4">
         <v>0.3846</v>
       </c>
       <c r="G290" t="s">
@@ -15085,7 +15729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>90</v>
       </c>
@@ -15095,13 +15739,13 @@
       <c r="C291" t="s">
         <v>36</v>
       </c>
-      <c r="D291" s="5">
+      <c r="D291" s="4">
         <v>0.57830000000000004</v>
       </c>
       <c r="E291" t="s">
         <v>45</v>
       </c>
-      <c r="F291" s="5">
+      <c r="F291" s="4">
         <v>0.42170000000000002</v>
       </c>
       <c r="G291" t="s">
@@ -15114,7 +15758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>90</v>
       </c>
@@ -15124,13 +15768,13 @@
       <c r="C292" t="s">
         <v>22</v>
       </c>
-      <c r="D292" s="5">
+      <c r="D292" s="4">
         <v>0.55469999999999997</v>
       </c>
       <c r="E292" t="s">
         <v>58</v>
       </c>
-      <c r="F292" s="5">
+      <c r="F292" s="4">
         <v>0.44529999999999997</v>
       </c>
       <c r="G292" t="s">
@@ -15143,7 +15787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>90</v>
       </c>
@@ -15153,13 +15797,13 @@
       <c r="C293" t="s">
         <v>26</v>
       </c>
-      <c r="D293" s="5">
+      <c r="D293" s="4">
         <v>0.53610000000000002</v>
       </c>
       <c r="E293" t="s">
         <v>13</v>
       </c>
-      <c r="F293" s="5">
+      <c r="F293" s="4">
         <v>0.46389999999999998</v>
       </c>
       <c r="G293" t="s">
@@ -15172,7 +15816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>90</v>
       </c>
@@ -15182,13 +15826,13 @@
       <c r="C294" t="s">
         <v>40</v>
       </c>
-      <c r="D294" s="5">
+      <c r="D294" s="4">
         <v>0.52449999999999997</v>
       </c>
       <c r="E294" t="s">
         <v>20</v>
       </c>
-      <c r="F294" s="5">
+      <c r="F294" s="4">
         <v>0.47549999999999998</v>
       </c>
       <c r="G294" t="s">
@@ -15201,7 +15845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>90</v>
       </c>
@@ -15211,13 +15855,13 @@
       <c r="C295" t="s">
         <v>29</v>
       </c>
-      <c r="D295" s="5">
+      <c r="D295" s="4">
         <v>0.5101</v>
       </c>
       <c r="E295" t="s">
         <v>25</v>
       </c>
-      <c r="F295" s="5">
+      <c r="F295" s="4">
         <v>0.4899</v>
       </c>
       <c r="G295" t="s">
@@ -15230,7 +15874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>90</v>
       </c>
@@ -15240,13 +15884,13 @@
       <c r="C296" t="s">
         <v>11</v>
       </c>
-      <c r="D296" s="5">
+      <c r="D296" s="4">
         <v>0.74719999999999998</v>
       </c>
       <c r="E296" t="s">
         <v>34</v>
       </c>
-      <c r="F296" s="5">
+      <c r="F296" s="4">
         <v>0.25280000000000002</v>
       </c>
       <c r="G296" t="s">
@@ -15259,7 +15903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>90</v>
       </c>
@@ -15269,13 +15913,13 @@
       <c r="C297" t="s">
         <v>43</v>
       </c>
-      <c r="D297" s="5">
+      <c r="D297" s="4">
         <v>0.7107</v>
       </c>
       <c r="E297" t="s">
         <v>37</v>
       </c>
-      <c r="F297" s="5">
+      <c r="F297" s="4">
         <v>0.2893</v>
       </c>
       <c r="G297" t="s">
@@ -15288,7 +15932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>90</v>
       </c>
@@ -15298,13 +15942,13 @@
       <c r="C298" t="s">
         <v>39</v>
       </c>
-      <c r="D298" s="5">
+      <c r="D298" s="4">
         <v>0.68740000000000001</v>
       </c>
       <c r="E298" t="s">
         <v>14</v>
       </c>
-      <c r="F298" s="5">
+      <c r="F298" s="4">
         <v>0.31259999999999999</v>
       </c>
       <c r="G298" t="s">
@@ -15317,7 +15961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>90</v>
       </c>
@@ -15327,13 +15971,13 @@
       <c r="C299" t="s">
         <v>33</v>
       </c>
-      <c r="D299" s="5">
+      <c r="D299" s="4">
         <v>0.60340000000000005</v>
       </c>
       <c r="E299" t="s">
         <v>58</v>
       </c>
-      <c r="F299" s="5">
+      <c r="F299" s="4">
         <v>0.39660000000000001</v>
       </c>
       <c r="G299" t="s">
@@ -15346,7 +15990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>90</v>
       </c>
@@ -15356,13 +16000,13 @@
       <c r="C300" t="s">
         <v>4</v>
       </c>
-      <c r="D300" s="5">
+      <c r="D300" s="4">
         <v>0.86160000000000003</v>
       </c>
       <c r="E300" t="s">
         <v>45</v>
       </c>
-      <c r="F300" s="5">
+      <c r="F300" s="4">
         <v>0.1384</v>
       </c>
       <c r="G300" t="s">
@@ -15371,11 +16015,11 @@
       <c r="H300" t="s">
         <v>61</v>
       </c>
-      <c r="I300" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>90</v>
       </c>
@@ -15385,13 +16029,13 @@
       <c r="C301" t="s">
         <v>7</v>
       </c>
-      <c r="D301" s="5">
+      <c r="D301" s="4">
         <v>0.70850000000000002</v>
       </c>
       <c r="E301" t="s">
         <v>8</v>
       </c>
-      <c r="F301" s="5">
+      <c r="F301" s="4">
         <v>0.29149999999999998</v>
       </c>
       <c r="G301" t="s">
@@ -15400,11 +16044,11 @@
       <c r="H301" t="s">
         <v>94</v>
       </c>
-      <c r="I301" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>90</v>
       </c>
@@ -15414,13 +16058,13 @@
       <c r="C302" t="s">
         <v>20</v>
       </c>
-      <c r="D302" s="5">
+      <c r="D302" s="4">
         <v>0.64629999999999999</v>
       </c>
       <c r="E302" t="s">
         <v>5</v>
       </c>
-      <c r="F302" s="5">
+      <c r="F302" s="4">
         <v>0.35370000000000001</v>
       </c>
       <c r="G302" t="s">
@@ -15429,11 +16073,11 @@
       <c r="H302" t="s">
         <v>51</v>
       </c>
-      <c r="I302" s="15">
+      <c r="I302">
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>90</v>
       </c>
@@ -15443,13 +16087,13 @@
       <c r="C303" t="s">
         <v>10</v>
       </c>
-      <c r="D303" s="5">
+      <c r="D303" s="4">
         <v>0.63070000000000004</v>
       </c>
       <c r="E303" t="s">
         <v>31</v>
       </c>
-      <c r="F303" s="5">
+      <c r="F303" s="4">
         <v>0.36930000000000002</v>
       </c>
       <c r="G303" t="s">
@@ -15458,11 +16102,11 @@
       <c r="H303" t="s">
         <v>51</v>
       </c>
-      <c r="I303" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>90</v>
       </c>
@@ -15472,13 +16116,13 @@
       <c r="C304" t="s">
         <v>29</v>
       </c>
-      <c r="D304" s="5">
+      <c r="D304" s="4">
         <v>0.62219999999999998</v>
       </c>
       <c r="E304" t="s">
         <v>66</v>
       </c>
-      <c r="F304" s="5">
+      <c r="F304" s="4">
         <v>0.37780000000000002</v>
       </c>
       <c r="G304" t="s">
@@ -15487,11 +16131,11 @@
       <c r="H304" t="s">
         <v>51</v>
       </c>
-      <c r="I304" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>90</v>
       </c>
@@ -15501,13 +16145,13 @@
       <c r="C305" t="s">
         <v>16</v>
       </c>
-      <c r="D305" s="5">
+      <c r="D305" s="4">
         <v>0.6169</v>
       </c>
       <c r="E305" t="s">
         <v>36</v>
       </c>
-      <c r="F305" s="5">
+      <c r="F305" s="4">
         <v>0.3831</v>
       </c>
       <c r="G305" t="s">
@@ -15516,11 +16160,11 @@
       <c r="H305" t="s">
         <v>51</v>
       </c>
-      <c r="I305" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>90</v>
       </c>
@@ -15530,13 +16174,13 @@
       <c r="C306" t="s">
         <v>22</v>
       </c>
-      <c r="D306" s="5">
+      <c r="D306" s="4">
         <v>0.57050000000000001</v>
       </c>
       <c r="E306" t="s">
         <v>46</v>
       </c>
-      <c r="F306" s="5">
+      <c r="F306" s="4">
         <v>0.42949999999999999</v>
       </c>
       <c r="G306" t="s">
@@ -15545,11 +16189,11 @@
       <c r="H306" t="s">
         <v>84</v>
       </c>
-      <c r="I306" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>90</v>
       </c>
@@ -15559,13 +16203,13 @@
       <c r="C307" t="s">
         <v>11</v>
       </c>
-      <c r="D307" s="5">
+      <c r="D307" s="4">
         <v>0.5645</v>
       </c>
       <c r="E307" t="s">
         <v>28</v>
       </c>
-      <c r="F307" s="5">
+      <c r="F307" s="4">
         <v>0.4355</v>
       </c>
       <c r="G307" t="s">
@@ -15574,11 +16218,11 @@
       <c r="H307" t="s">
         <v>84</v>
       </c>
-      <c r="I307" s="15">
+      <c r="I307">
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>90</v>
       </c>
@@ -15588,13 +16232,13 @@
       <c r="C308" t="s">
         <v>17</v>
       </c>
-      <c r="D308" s="5">
+      <c r="D308" s="4">
         <v>0.56220000000000003</v>
       </c>
       <c r="E308" t="s">
         <v>56</v>
       </c>
-      <c r="F308" s="5">
+      <c r="F308" s="4">
         <v>0.43780000000000002</v>
       </c>
       <c r="G308" t="s">
@@ -15603,11 +16247,11 @@
       <c r="H308" t="s">
         <v>84</v>
       </c>
-      <c r="I308" s="15">
+      <c r="I308">
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>90</v>
       </c>
@@ -15617,13 +16261,13 @@
       <c r="C309" t="s">
         <v>25</v>
       </c>
-      <c r="D309" s="5">
+      <c r="D309" s="4">
         <v>0.55630000000000002</v>
       </c>
       <c r="E309" t="s">
         <v>40</v>
       </c>
-      <c r="F309" s="5">
+      <c r="F309" s="4">
         <v>0.44369999999999998</v>
       </c>
       <c r="G309" t="s">
@@ -15632,11 +16276,11 @@
       <c r="H309" t="s">
         <v>84</v>
       </c>
-      <c r="I309" s="15">
+      <c r="I309">
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>90</v>
       </c>
@@ -15646,13 +16290,13 @@
       <c r="C310" t="s">
         <v>19</v>
       </c>
-      <c r="D310" s="5">
+      <c r="D310" s="4">
         <v>0.52470000000000006</v>
       </c>
       <c r="E310" t="s">
         <v>42</v>
       </c>
-      <c r="F310" s="5">
+      <c r="F310" s="4">
         <v>0.4753</v>
       </c>
       <c r="G310" t="s">
@@ -15661,11 +16305,11 @@
       <c r="H310" t="s">
         <v>85</v>
       </c>
-      <c r="I310" s="15">
+      <c r="I310">
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>90</v>
       </c>
@@ -15675,13 +16319,13 @@
       <c r="C311" t="s">
         <v>13</v>
       </c>
-      <c r="D311" s="5">
+      <c r="D311" s="4">
         <v>0.52190000000000003</v>
       </c>
       <c r="E311" t="s">
         <v>26</v>
       </c>
-      <c r="F311" s="5">
+      <c r="F311" s="4">
         <v>0.47810000000000002</v>
       </c>
       <c r="G311" t="s">
@@ -15690,11 +16334,11 @@
       <c r="H311" t="s">
         <v>85</v>
       </c>
-      <c r="I311" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>99</v>
       </c>
@@ -15704,13 +16348,13 @@
       <c r="C312" t="s">
         <v>25</v>
       </c>
-      <c r="D312" s="17">
+      <c r="D312" s="14">
         <v>0.77761999999999998</v>
       </c>
       <c r="E312" t="s">
         <v>17</v>
       </c>
-      <c r="F312" s="17">
+      <c r="F312" s="14">
         <v>0.22237999999999999</v>
       </c>
       <c r="G312" t="s">
@@ -15719,11 +16363,11 @@
       <c r="H312" t="s">
         <v>93</v>
       </c>
-      <c r="I312" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>99</v>
       </c>
@@ -15733,13 +16377,13 @@
       <c r="C313" t="s">
         <v>43</v>
       </c>
-      <c r="D313" s="17">
+      <c r="D313" s="14">
         <v>0.62456999999999996</v>
       </c>
       <c r="E313" t="s">
         <v>58</v>
       </c>
-      <c r="F313" s="17">
+      <c r="F313" s="14">
         <v>0.37542999999999999</v>
       </c>
       <c r="G313" t="s">
@@ -15748,11 +16392,11 @@
       <c r="H313" t="s">
         <v>51</v>
       </c>
-      <c r="I313" s="15">
+      <c r="I313">
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>99</v>
       </c>
@@ -15762,13 +16406,13 @@
       <c r="C314" t="s">
         <v>22</v>
       </c>
-      <c r="D314" s="17">
+      <c r="D314" s="14">
         <v>0.58115000000000006</v>
       </c>
       <c r="E314" t="s">
         <v>37</v>
       </c>
-      <c r="F314" s="17">
+      <c r="F314" s="14">
         <v>0.41885</v>
       </c>
       <c r="G314" t="s">
@@ -15777,11 +16421,11 @@
       <c r="H314" t="s">
         <v>84</v>
       </c>
-      <c r="I314" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>99</v>
       </c>
@@ -15791,13 +16435,13 @@
       <c r="C315" t="s">
         <v>28</v>
       </c>
-      <c r="D315" s="17">
+      <c r="D315" s="14">
         <v>0.58060999999999996</v>
       </c>
       <c r="E315" t="s">
         <v>39</v>
       </c>
-      <c r="F315" s="17">
+      <c r="F315" s="14">
         <v>0.41938999999999999</v>
       </c>
       <c r="G315" t="s">
@@ -15806,11 +16450,11 @@
       <c r="H315" t="s">
         <v>84</v>
       </c>
-      <c r="I315" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>99</v>
       </c>
@@ -15820,13 +16464,13 @@
       <c r="C316" t="s">
         <v>19</v>
       </c>
-      <c r="D316" s="17">
+      <c r="D316" s="14">
         <v>0.54981999999999998</v>
       </c>
       <c r="E316" t="s">
         <v>23</v>
       </c>
-      <c r="F316" s="17">
+      <c r="F316" s="14">
         <v>0.45018000000000002</v>
       </c>
       <c r="G316" t="s">
@@ -15835,11 +16479,11 @@
       <c r="H316" t="s">
         <v>85</v>
       </c>
-      <c r="I316" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>99</v>
       </c>
@@ -15849,13 +16493,13 @@
       <c r="C317" t="s">
         <v>36</v>
       </c>
-      <c r="D317" s="17">
+      <c r="D317" s="14">
         <v>0.52839000000000003</v>
       </c>
       <c r="E317" t="s">
         <v>8</v>
       </c>
-      <c r="F317" s="17">
+      <c r="F317" s="14">
         <v>0.47160999999999997</v>
       </c>
       <c r="G317" t="s">
@@ -15864,8 +16508,182 @@
       <c r="H317" t="s">
         <v>85</v>
       </c>
-      <c r="I317" s="15">
+      <c r="I317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>99</v>
+      </c>
+      <c r="B318" s="1">
+        <v>45313</v>
+      </c>
+      <c r="C318" t="s">
+        <v>42</v>
+      </c>
+      <c r="D318" s="14">
+        <v>0.7742</v>
+      </c>
+      <c r="E318" t="s">
+        <v>14</v>
+      </c>
+      <c r="F318" s="14">
+        <v>0.2258</v>
+      </c>
+      <c r="G318" t="s">
+        <v>44</v>
+      </c>
+      <c r="H318" t="s">
+        <v>93</v>
+      </c>
+      <c r="I318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>99</v>
+      </c>
+      <c r="B319" s="1">
+        <v>45313</v>
+      </c>
+      <c r="C319" t="s">
+        <v>40</v>
+      </c>
+      <c r="D319" s="14">
+        <v>0.76790000000000003</v>
+      </c>
+      <c r="E319" t="s">
+        <v>56</v>
+      </c>
+      <c r="F319" s="14">
+        <v>0.2321</v>
+      </c>
+      <c r="G319" t="s">
+        <v>69</v>
+      </c>
+      <c r="H319" t="s">
+        <v>93</v>
+      </c>
+      <c r="I319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>99</v>
+      </c>
+      <c r="B320" s="1">
+        <v>45313</v>
+      </c>
+      <c r="C320" t="s">
+        <v>4</v>
+      </c>
+      <c r="D320" s="14">
+        <v>0.68989999999999996</v>
+      </c>
+      <c r="E320" t="s">
+        <v>16</v>
+      </c>
+      <c r="F320" s="14">
+        <v>0.31009999999999999</v>
+      </c>
+      <c r="G320" t="s">
+        <v>6</v>
+      </c>
+      <c r="H320" t="s">
+        <v>51</v>
+      </c>
+      <c r="I320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>99</v>
+      </c>
+      <c r="B321" s="1">
+        <v>45313</v>
+      </c>
+      <c r="C321" t="s">
+        <v>66</v>
+      </c>
+      <c r="D321" s="14">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="E321" t="s">
+        <v>5</v>
+      </c>
+      <c r="F321" s="14">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="G321" t="s">
+        <v>75</v>
+      </c>
+      <c r="H321" t="s">
+        <v>84</v>
+      </c>
+      <c r="I321">
         <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>99</v>
+      </c>
+      <c r="B322" s="1">
+        <v>45313</v>
+      </c>
+      <c r="C322" t="s">
+        <v>11</v>
+      </c>
+      <c r="D322" s="14">
+        <v>0.52280000000000004</v>
+      </c>
+      <c r="E322" t="s">
+        <v>29</v>
+      </c>
+      <c r="F322" s="14">
+        <v>0.47720000000000001</v>
+      </c>
+      <c r="G322" t="s">
+        <v>68</v>
+      </c>
+      <c r="H322" t="s">
+        <v>85</v>
+      </c>
+      <c r="I322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>99</v>
+      </c>
+      <c r="B323" s="1">
+        <v>45313</v>
+      </c>
+      <c r="C323" t="s">
+        <v>33</v>
+      </c>
+      <c r="D323" s="14">
+        <v>0.50860000000000005</v>
+      </c>
+      <c r="E323" t="s">
+        <v>20</v>
+      </c>
+      <c r="F323" s="14">
+        <v>0.4914</v>
+      </c>
+      <c r="G323" t="s">
+        <v>63</v>
+      </c>
+      <c r="H323" t="s">
+        <v>85</v>
+      </c>
+      <c r="I323">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/PDA Lifetime Predictions.xlsx
+++ b/PDA Lifetime Predictions.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thigg\Desktop\Hockey Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA134765-E83A-47FF-9F7F-A8C539CF34DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97470F8-0E54-4B52-B27E-DB6863450554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51480" yWindow="-195" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="7" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1685" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1731" uniqueCount="107">
   <si>
     <t>Date</t>
   </si>
@@ -954,7 +954,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45313.33396851852" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="323" xr:uid="{D3A71568-3061-40C8-A74B-8B86C64C3ADC}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45314.330231134256" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="332" xr:uid="{D3A71568-3061-40C8-A74B-8B86C64C3ADC}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:I1048576" sheet="Predictions"/>
   </cacheSource>
@@ -972,7 +972,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2024-01-23T00:00:00" count="43">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2024-01-24T00:00:00" count="44">
         <d v="2023-12-09T00:00:00"/>
         <d v="2023-12-10T00:00:00"/>
         <d v="2023-12-11T00:00:00"/>
@@ -1015,6 +1015,7 @@
         <d v="2024-01-20T00:00:00"/>
         <d v="2024-01-21T00:00:00"/>
         <d v="2024-01-22T00:00:00"/>
+        <d v="2024-01-23T00:00:00"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -1022,7 +1023,7 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Winner Probability" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="0.50009999999999999" maxValue="0.87610539305886403" count="620">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="0.5" maxValue="0.87610539305886403" count="628">
         <n v="0.87609999999999999"/>
         <n v="0.78059999999999996"/>
         <n v="0.65859999999999996"/>
@@ -1333,6 +1334,15 @@
         <n v="0.59699999999999998"/>
         <n v="0.52280000000000004"/>
         <n v="0.50860000000000005"/>
+        <n v="0.81510000000000005"/>
+        <n v="0.80110000000000003"/>
+        <n v="0.6694"/>
+        <n v="0.6613"/>
+        <n v="0.62160000000000004"/>
+        <n v="0.58919999999999995"/>
+        <n v="0.57199999999999995"/>
+        <n v="0.5585"/>
+        <n v="0.5"/>
         <m/>
         <n v="0.87610539305886403" u="1"/>
         <n v="0.78056782297496197" u="1"/>
@@ -1636,7 +1646,6 @@
         <n v="0.73040000000000005" u="1"/>
         <n v="0.63029999999999997" u="1"/>
         <n v="0.62729999999999997" u="1"/>
-        <n v="0.62160000000000004" u="1"/>
         <n v="0.60729999999999995" u="1"/>
         <n v="0.58479999999999999" u="1"/>
         <n v="0.56799999999999995" u="1"/>
@@ -1649,7 +1658,7 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Loser Probability" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="0.1239" maxValue="0.49990000000000001"/>
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="0.1239" maxValue="0.5"/>
     </cacheField>
     <cacheField name="Site" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -1681,7 +1690,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="323">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="332">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -5178,7 +5187,7 @@
     <n v="0.2321"/>
     <s v="Playing At:  Los Angeles Kings   Home"/>
     <x v="1"/>
-    <n v="1"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="6"/>
@@ -5211,7 +5220,7 @@
     <n v="0.47720000000000001"/>
     <s v="Playing At:  New Jersey Devils   Home"/>
     <x v="4"/>
-    <n v="0"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="6"/>
@@ -5225,10 +5234,109 @@
     <n v="1"/>
   </r>
   <r>
+    <x v="6"/>
+    <x v="42"/>
+    <s v="New York Rangers"/>
+    <x v="310"/>
+    <s v="San Jose Sharks"/>
+    <n v="0.18490000000000001"/>
+    <s v="Playing At:  San Jose Sharks   Home"/>
+    <x v="5"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="42"/>
+    <s v="Edmonton Oilers"/>
+    <x v="311"/>
+    <s v="Columbus Blue Jackets"/>
+    <n v="0.19889999999999999"/>
+    <s v="Playing At:  Edmonton Oilers   Home"/>
+    <x v="5"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="42"/>
+    <s v="Buffalo Sabres"/>
+    <x v="312"/>
+    <s v="Anaheim Ducks"/>
+    <n v="0.3306"/>
+    <s v="Playing At:  Anaheim Ducks   Home"/>
+    <x v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="42"/>
+    <s v="Tampa Bay Lightning"/>
+    <x v="313"/>
+    <s v="Philadelphia Flyers"/>
+    <n v="0.3387"/>
+    <s v="Playing At:  Philadelphia Flyers   Home"/>
+    <x v="2"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="42"/>
+    <s v="Vegas Golden Knights"/>
+    <x v="314"/>
+    <s v="New York Islanders"/>
+    <n v="0.37840000000000001"/>
+    <s v="Playing At:  New York Islanders   Home"/>
+    <x v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="42"/>
+    <s v="Dallas Stars"/>
+    <x v="315"/>
+    <s v="Detroit Red Wings"/>
+    <n v="0.4108"/>
+    <s v="Playing At:  Detroit Red Wings   Home"/>
+    <x v="3"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="42"/>
+    <s v="St. Louis Blues"/>
+    <x v="316"/>
+    <s v="Calgary Flames"/>
+    <n v="0.42799999999999999"/>
+    <s v="Playing At:  Calgary Flames   Home"/>
+    <x v="3"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="42"/>
+    <s v="Minnesota Wild"/>
+    <x v="317"/>
+    <s v="Washington Capitals"/>
+    <n v="0.4415"/>
+    <s v="Playing At:  Minnesota Wild   Home"/>
+    <x v="3"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="42"/>
+    <s v="Ottawa Senators"/>
+    <x v="318"/>
+    <s v="Montreal Canadiens"/>
+    <n v="0.5"/>
+    <s v="Playing At:  Montreal Canadiens   Home"/>
+    <x v="4"/>
+    <n v="0"/>
+  </r>
+  <r>
     <x v="7"/>
-    <x v="42"/>
+    <x v="43"/>
     <m/>
-    <x v="310"/>
+    <x v="319"/>
     <m/>
     <m/>
     <m/>
@@ -5239,7 +5347,177 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1FB34DD3-8207-4009-92F5-73C183F63DF8}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{80C3D042-980E-40EE-B50F-CF37801A1A1D}" name="PivotTable3" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="L3:O33" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
+  <pivotFields count="10">
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="9">
+        <item h="1" x="7"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" numFmtId="14" outline="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="10">
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="2"/>
+        <item x="6"/>
+        <item m="1" x="8"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="30">
+    <i>
+      <x v="1"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i t="default">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i t="default">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i t="default">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Count of Winner1" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Model" fld="8" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1FB34DD3-8207-4009-92F5-73C183F63DF8}" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A5:C13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
@@ -5256,7 +5534,7 @@
       </items>
     </pivotField>
     <pivotField axis="axisPage" showAll="0">
-      <items count="44">
+      <items count="45">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -5296,26 +5574,18 @@
         <item x="36"/>
         <item x="37"/>
         <item x="38"/>
-        <item x="42"/>
+        <item x="43"/>
         <item x="39"/>
         <item x="40"/>
         <item x="41"/>
+        <item x="42"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="621">
-        <item x="310"/>
-        <item m="1" x="311"/>
-        <item m="1" x="312"/>
-        <item m="1" x="313"/>
-        <item m="1" x="314"/>
-        <item m="1" x="315"/>
-        <item m="1" x="316"/>
-        <item m="1" x="317"/>
-        <item m="1" x="318"/>
-        <item m="1" x="319"/>
+      <items count="629">
+        <item x="319"/>
         <item m="1" x="320"/>
         <item m="1" x="321"/>
         <item m="1" x="322"/>
@@ -5615,8 +5885,17 @@
         <item m="1" x="616"/>
         <item m="1" x="617"/>
         <item m="1" x="618"/>
+        <item m="1" x="619"/>
+        <item m="1" x="620"/>
+        <item m="1" x="621"/>
+        <item x="314"/>
+        <item m="1" x="622"/>
+        <item m="1" x="623"/>
+        <item m="1" x="624"/>
+        <item m="1" x="625"/>
+        <item m="1" x="626"/>
         <item x="9"/>
-        <item m="1" x="619"/>
+        <item m="1" x="627"/>
         <item x="286"/>
         <item x="287"/>
         <item x="288"/>
@@ -5926,6 +6205,14 @@
         <item x="307"/>
         <item x="308"/>
         <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -5994,173 +6281,6 @@
     <pageField fld="1" hier="-1"/>
     <pageField fld="3" hier="-1"/>
   </pageFields>
-  <dataFields count="2">
-    <dataField name="Count of Winner1" fld="2" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Model" fld="8" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{80C3D042-980E-40EE-B50F-CF37801A1A1D}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="L3:O32" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
-  <pivotFields count="10">
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="9">
-        <item h="1" x="7"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" numFmtId="14" outline="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="10">
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="2"/>
-        <item x="6"/>
-        <item m="1" x="8"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="0"/>
-    <field x="7"/>
-  </rowFields>
-  <rowItems count="29">
-    <i>
-      <x v="1"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i t="default">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i t="default">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i t="default">
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-      <x v="5"/>
-    </i>
-    <i t="default">
-      <x v="7"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
   <dataFields count="2">
     <dataField name="Count of Winner1" fld="2" subtotal="count" baseField="0" baseItem="0"/>
     <dataField name="Sum of Model" fld="8" baseField="0" baseItem="0"/>
@@ -6476,8 +6596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6533,10 +6653,6 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E4" s="7"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="9"/>
       <c r="L4" t="s">
         <v>86</v>
       </c>
@@ -6589,7 +6705,7 @@
         <v>4</v>
       </c>
       <c r="P5" s="4">
-        <f t="shared" ref="P5:P53" si="0">O5/N5</f>
+        <f t="shared" ref="P5:P32" si="0">O5/N5</f>
         <v>0.5714285714285714</v>
       </c>
     </row>
@@ -6609,19 +6725,19 @@
       </c>
       <c r="E6" s="7">
         <f>SUM(B10:B12)</f>
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="F6" s="5">
         <f>SUM(B6:B9)</f>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G6" s="11">
         <f>SUM(B6:B8)</f>
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H6" s="9">
         <f>SUM(B6:B7)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M6" t="s">
         <v>50</v>
@@ -6642,10 +6758,10 @@
         <v>50</v>
       </c>
       <c r="B7" s="15">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7" s="15">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D13" si="1">C7/B7</f>
@@ -6653,19 +6769,19 @@
       </c>
       <c r="E7" s="7">
         <f>SUM(C10:C12)</f>
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F7" s="5">
         <f>SUM(C6:C9)</f>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G7" s="11">
         <f>SUM(C6:C8)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H7" s="9">
         <f>SUM(C6:C7)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M7" t="s">
         <v>61</v>
@@ -6689,23 +6805,23 @@
         <v>36</v>
       </c>
       <c r="C8" s="15">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" si="1"/>
-        <v>0.61111111111111116</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="E8" s="8">
         <f>E7/E6</f>
-        <v>0.55128205128205132</v>
+        <v>0.5477178423236515</v>
       </c>
       <c r="F8" s="6">
         <f>F7/F6</f>
-        <v>0.69318181818181823</v>
+        <v>0.68888888888888888</v>
       </c>
       <c r="G8" s="12">
         <f>G7/G6</f>
-        <v>0.7142857142857143</v>
+        <v>0.70588235294117652</v>
       </c>
       <c r="H8" s="10">
         <f>H7/H6</f>
@@ -6761,14 +6877,14 @@
         <v>51</v>
       </c>
       <c r="B10" s="15">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C10" s="15">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" si="1"/>
-        <v>0.59</v>
+        <v>0.59223300970873782</v>
       </c>
       <c r="M10" t="s">
         <v>93</v>
@@ -6789,14 +6905,14 @@
         <v>84</v>
       </c>
       <c r="B11" s="15">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C11" s="15">
         <v>34</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" si="1"/>
-        <v>0.5074626865671642</v>
+        <v>0.48571428571428571</v>
       </c>
       <c r="M11" t="s">
         <v>50</v>
@@ -6817,14 +6933,14 @@
         <v>85</v>
       </c>
       <c r="B12" s="15">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C12" s="15">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" si="1"/>
-        <v>0.53731343283582089</v>
+        <v>0.54411764705882348</v>
       </c>
       <c r="L12" t="s">
         <v>101</v>
@@ -6845,14 +6961,14 @@
         <v>53</v>
       </c>
       <c r="B13" s="15">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="C13" s="15">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" si="1"/>
-        <v>0.59006211180124224</v>
+        <v>0.58610271903323263</v>
       </c>
       <c r="L13" t="s">
         <v>88</v>
@@ -7131,22 +7247,22 @@
         <v>3</v>
       </c>
       <c r="O30" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P30" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="31" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L31" t="s">
-        <v>106</v>
+      <c r="M31" t="s">
+        <v>50</v>
       </c>
       <c r="N31" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O31" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P31" s="4">
         <f t="shared" si="0"/>
@@ -7155,65 +7271,74 @@
     </row>
     <row r="32" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L32" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="N32" s="15">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="O32" s="15">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="P32" s="4">
         <f t="shared" si="0"/>
-        <v>0.69318181818181823</v>
-      </c>
-    </row>
-    <row r="33" spans="16:16" x14ac:dyDescent="0.25">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="33" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L33" t="s">
+        <v>53</v>
+      </c>
+      <c r="N33" s="15">
+        <v>90</v>
+      </c>
+      <c r="O33" s="15">
+        <v>62</v>
+      </c>
       <c r="P33" s="4"/>
     </row>
-    <row r="34" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="12:16" x14ac:dyDescent="0.25">
       <c r="P34" s="4"/>
     </row>
-    <row r="35" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="12:16" x14ac:dyDescent="0.25">
       <c r="P35" s="4"/>
     </row>
-    <row r="36" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="12:16" x14ac:dyDescent="0.25">
       <c r="P36" s="4"/>
     </row>
-    <row r="37" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="12:16" x14ac:dyDescent="0.25">
       <c r="P37" s="4"/>
     </row>
-    <row r="38" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="12:16" x14ac:dyDescent="0.25">
       <c r="P38" s="4"/>
     </row>
-    <row r="39" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="12:16" x14ac:dyDescent="0.25">
       <c r="P39" s="4"/>
     </row>
-    <row r="40" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="12:16" x14ac:dyDescent="0.25">
       <c r="P40" s="4"/>
     </row>
-    <row r="41" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="12:16" x14ac:dyDescent="0.25">
       <c r="P41" s="4"/>
     </row>
-    <row r="42" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="12:16" x14ac:dyDescent="0.25">
       <c r="P42" s="4"/>
     </row>
-    <row r="43" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="12:16" x14ac:dyDescent="0.25">
       <c r="P43" s="4"/>
     </row>
-    <row r="44" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="12:16" x14ac:dyDescent="0.25">
       <c r="P44" s="4"/>
     </row>
-    <row r="45" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="12:16" x14ac:dyDescent="0.25">
       <c r="P45" s="4"/>
     </row>
-    <row r="46" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="12:16" x14ac:dyDescent="0.25">
       <c r="P46" s="4"/>
     </row>
-    <row r="47" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="12:16" x14ac:dyDescent="0.25">
       <c r="P47" s="4"/>
     </row>
-    <row r="48" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="12:16" x14ac:dyDescent="0.25">
       <c r="P48" s="4"/>
     </row>
     <row r="49" spans="16:16" x14ac:dyDescent="0.25">
@@ -7299,10 +7424,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I323"/>
+  <dimension ref="A1:I332"/>
   <sheetViews>
-    <sheetView topLeftCell="A293" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E326" sqref="E326"/>
+    <sheetView tabSelected="1" topLeftCell="A278" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J327" sqref="J327"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16567,7 +16692,7 @@
         <v>93</v>
       </c>
       <c r="I319">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.25">
@@ -16654,7 +16779,7 @@
         <v>85</v>
       </c>
       <c r="I322">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.25">
@@ -16684,6 +16809,267 @@
       </c>
       <c r="I323">
         <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>99</v>
+      </c>
+      <c r="B324" s="1">
+        <v>45314</v>
+      </c>
+      <c r="C324" t="s">
+        <v>25</v>
+      </c>
+      <c r="D324" s="14">
+        <v>0.81510000000000005</v>
+      </c>
+      <c r="E324" t="s">
+        <v>56</v>
+      </c>
+      <c r="F324" s="14">
+        <v>0.18490000000000001</v>
+      </c>
+      <c r="G324" t="s">
+        <v>62</v>
+      </c>
+      <c r="H324" t="s">
+        <v>50</v>
+      </c>
+      <c r="I324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>99</v>
+      </c>
+      <c r="B325" s="1">
+        <v>45314</v>
+      </c>
+      <c r="C325" t="s">
+        <v>10</v>
+      </c>
+      <c r="D325" s="14">
+        <v>0.80110000000000003</v>
+      </c>
+      <c r="E325" t="s">
+        <v>34</v>
+      </c>
+      <c r="F325" s="14">
+        <v>0.19889999999999999</v>
+      </c>
+      <c r="G325" t="s">
+        <v>12</v>
+      </c>
+      <c r="H325" t="s">
+        <v>50</v>
+      </c>
+      <c r="I325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>99</v>
+      </c>
+      <c r="B326" s="1">
+        <v>45314</v>
+      </c>
+      <c r="C326" t="s">
+        <v>46</v>
+      </c>
+      <c r="D326" s="14">
+        <v>0.6694</v>
+      </c>
+      <c r="E326" t="s">
+        <v>17</v>
+      </c>
+      <c r="F326" s="14">
+        <v>0.3306</v>
+      </c>
+      <c r="G326" t="s">
+        <v>18</v>
+      </c>
+      <c r="H326" t="s">
+        <v>51</v>
+      </c>
+      <c r="I326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>99</v>
+      </c>
+      <c r="B327" s="1">
+        <v>45314</v>
+      </c>
+      <c r="C327" t="s">
+        <v>22</v>
+      </c>
+      <c r="D327" s="14">
+        <v>0.6613</v>
+      </c>
+      <c r="E327" t="s">
+        <v>8</v>
+      </c>
+      <c r="F327" s="14">
+        <v>0.3387</v>
+      </c>
+      <c r="G327" t="s">
+        <v>73</v>
+      </c>
+      <c r="H327" t="s">
+        <v>51</v>
+      </c>
+      <c r="I327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>99</v>
+      </c>
+      <c r="B328" s="1">
+        <v>45314</v>
+      </c>
+      <c r="C328" t="s">
+        <v>29</v>
+      </c>
+      <c r="D328" s="14">
+        <v>0.62160000000000004</v>
+      </c>
+      <c r="E328" t="s">
+        <v>39</v>
+      </c>
+      <c r="F328" s="14">
+        <v>0.37840000000000001</v>
+      </c>
+      <c r="G328" t="s">
+        <v>41</v>
+      </c>
+      <c r="H328" t="s">
+        <v>51</v>
+      </c>
+      <c r="I328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>99</v>
+      </c>
+      <c r="B329" s="1">
+        <v>45314</v>
+      </c>
+      <c r="C329" t="s">
+        <v>28</v>
+      </c>
+      <c r="D329" s="14">
+        <v>0.58919999999999995</v>
+      </c>
+      <c r="E329" t="s">
+        <v>37</v>
+      </c>
+      <c r="F329" s="14">
+        <v>0.4108</v>
+      </c>
+      <c r="G329" t="s">
+        <v>38</v>
+      </c>
+      <c r="H329" t="s">
+        <v>84</v>
+      </c>
+      <c r="I329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>99</v>
+      </c>
+      <c r="B330" s="1">
+        <v>45314</v>
+      </c>
+      <c r="C330" t="s">
+        <v>13</v>
+      </c>
+      <c r="D330" s="14">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="E330" t="s">
+        <v>31</v>
+      </c>
+      <c r="F330" s="14">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="G330" t="s">
+        <v>32</v>
+      </c>
+      <c r="H330" t="s">
+        <v>84</v>
+      </c>
+      <c r="I330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>99</v>
+      </c>
+      <c r="B331" s="1">
+        <v>45314</v>
+      </c>
+      <c r="C331" t="s">
+        <v>58</v>
+      </c>
+      <c r="D331" s="14">
+        <v>0.5585</v>
+      </c>
+      <c r="E331" t="s">
+        <v>26</v>
+      </c>
+      <c r="F331" s="14">
+        <v>0.4415</v>
+      </c>
+      <c r="G331" t="s">
+        <v>72</v>
+      </c>
+      <c r="H331" t="s">
+        <v>84</v>
+      </c>
+      <c r="I331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>99</v>
+      </c>
+      <c r="B332" s="1">
+        <v>45314</v>
+      </c>
+      <c r="C332" t="s">
+        <v>36</v>
+      </c>
+      <c r="D332" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="E332" t="s">
+        <v>45</v>
+      </c>
+      <c r="F332" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="G332" t="s">
+        <v>59</v>
+      </c>
+      <c r="H332" t="s">
+        <v>85</v>
+      </c>
+      <c r="I332">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/PDA Lifetime Predictions.xlsx
+++ b/PDA Lifetime Predictions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thigg\Desktop\Hockey Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97470F8-0E54-4B52-B27E-DB6863450554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA42F25A-506B-452B-8C4C-A52C4FE5EA12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId3"/>
+    <pivotCache cacheId="14" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1731" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="107">
   <si>
     <t>Date</t>
   </si>
@@ -954,7 +954,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45314.330231134256" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="332" xr:uid="{D3A71568-3061-40C8-A74B-8B86C64C3ADC}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45315.3350587963" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="339" xr:uid="{D3A71568-3061-40C8-A74B-8B86C64C3ADC}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:I1048576" sheet="Predictions"/>
   </cacheSource>
@@ -972,7 +972,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2024-01-24T00:00:00" count="44">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2024-01-25T00:00:00" count="45">
         <d v="2023-12-09T00:00:00"/>
         <d v="2023-12-10T00:00:00"/>
         <d v="2023-12-11T00:00:00"/>
@@ -1016,6 +1016,7 @@
         <d v="2024-01-21T00:00:00"/>
         <d v="2024-01-22T00:00:00"/>
         <d v="2024-01-23T00:00:00"/>
+        <d v="2024-01-24T00:00:00"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -1023,7 +1024,7 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Winner Probability" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="0.5" maxValue="0.87610539305886403" count="628">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="0.5" maxValue="0.87610539305886403" count="634">
         <n v="0.87609999999999999"/>
         <n v="0.78059999999999996"/>
         <n v="0.65859999999999996"/>
@@ -1343,6 +1344,12 @@
         <n v="0.57199999999999995"/>
         <n v="0.5585"/>
         <n v="0.5"/>
+        <n v="0.76819999999999999"/>
+        <n v="0.67710000000000004"/>
+        <n v="0.61629999999999996"/>
+        <n v="0.61480000000000001"/>
+        <n v="0.57620000000000005"/>
+        <n v="0.50680000000000003"/>
         <m/>
         <n v="0.87610539305886403" u="1"/>
         <n v="0.78056782297496197" u="1"/>
@@ -1690,7 +1697,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="332">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="339">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -5242,7 +5249,7 @@
     <n v="0.18490000000000001"/>
     <s v="Playing At:  San Jose Sharks   Home"/>
     <x v="5"/>
-    <n v="1"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="6"/>
@@ -5264,7 +5271,7 @@
     <n v="0.3306"/>
     <s v="Playing At:  Anaheim Ducks   Home"/>
     <x v="2"/>
-    <n v="1"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="6"/>
@@ -5275,7 +5282,7 @@
     <n v="0.3387"/>
     <s v="Playing At:  Philadelphia Flyers   Home"/>
     <x v="2"/>
-    <n v="0"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="6"/>
@@ -5297,7 +5304,7 @@
     <n v="0.4108"/>
     <s v="Playing At:  Detroit Red Wings   Home"/>
     <x v="3"/>
-    <n v="0"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="6"/>
@@ -5308,7 +5315,7 @@
     <n v="0.42799999999999999"/>
     <s v="Playing At:  Calgary Flames   Home"/>
     <x v="3"/>
-    <n v="0"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="6"/>
@@ -5319,7 +5326,7 @@
     <n v="0.4415"/>
     <s v="Playing At:  Minnesota Wild   Home"/>
     <x v="3"/>
-    <n v="0"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="6"/>
@@ -5330,13 +5337,90 @@
     <n v="0.5"/>
     <s v="Playing At:  Montreal Canadiens   Home"/>
     <x v="4"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="43"/>
+    <s v="Seattle Kraken"/>
+    <x v="319"/>
+    <s v="Chicago Blackhawks"/>
+    <n v="0.23180000000000001"/>
+    <s v="Playing At:  Seattle Kraken   Home"/>
+    <x v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="43"/>
+    <s v="Florida Panthers"/>
+    <x v="320"/>
+    <s v="Arizona Coyotes"/>
+    <n v="0.32290000000000002"/>
+    <s v="Playing At:  Florida Panthers   Home"/>
+    <x v="2"/>
     <n v="0"/>
   </r>
   <r>
+    <x v="6"/>
+    <x v="43"/>
+    <s v="Colorado Avalanche"/>
+    <x v="245"/>
+    <s v="Washington Capitals"/>
+    <n v="0.3322"/>
+    <s v="Playing At:  Colorado Avalanche   Home"/>
+    <x v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="43"/>
+    <s v="Boston Bruins"/>
+    <x v="321"/>
+    <s v="Carolina Hurricanes"/>
+    <n v="0.38369999999999999"/>
+    <s v="Playing At:  Boston Bruins   Home"/>
+    <x v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="43"/>
+    <s v="Los Angeles Kings"/>
+    <x v="322"/>
+    <s v="Buffalo Sabres"/>
+    <n v="0.38519999999999999"/>
+    <s v="Playing At:  Los Angeles Kings   Home"/>
+    <x v="2"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="43"/>
+    <s v="Vancouver Canucks"/>
+    <x v="323"/>
+    <s v="St. Louis Blues"/>
+    <n v="0.42380000000000001"/>
+    <s v="Playing At:  Vancouver Canucks   Home"/>
+    <x v="3"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="43"/>
+    <s v="Winnipeg Jets"/>
+    <x v="324"/>
+    <s v="Toronto Maple Leafs"/>
+    <n v="0.49320000000000003"/>
+    <s v="Playing At:  Toronto Maple Leafs   Home"/>
+    <x v="4"/>
+    <n v="0"/>
+  </r>
+  <r>
     <x v="7"/>
-    <x v="43"/>
+    <x v="44"/>
     <m/>
-    <x v="319"/>
+    <x v="325"/>
     <m/>
     <m/>
     <m/>
@@ -5347,7 +5431,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{80C3D042-980E-40EE-B50F-CF37801A1A1D}" name="PivotTable3" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{80C3D042-980E-40EE-B50F-CF37801A1A1D}" name="PivotTable3" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="L3:O33" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
@@ -5517,7 +5601,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1FB34DD3-8207-4009-92F5-73C183F63DF8}" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1FB34DD3-8207-4009-92F5-73C183F63DF8}" name="PivotTable1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A5:C13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
@@ -5534,7 +5618,7 @@
       </items>
     </pivotField>
     <pivotField axis="axisPage" showAll="0">
-      <items count="45">
+      <items count="46">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -5574,24 +5658,19 @@
         <item x="36"/>
         <item x="37"/>
         <item x="38"/>
-        <item x="43"/>
+        <item x="44"/>
         <item x="39"/>
         <item x="40"/>
         <item x="41"/>
         <item x="42"/>
+        <item x="43"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="629">
-        <item x="319"/>
-        <item m="1" x="320"/>
-        <item m="1" x="321"/>
-        <item m="1" x="322"/>
-        <item m="1" x="323"/>
-        <item m="1" x="324"/>
-        <item m="1" x="325"/>
+      <items count="635">
+        <item x="325"/>
         <item m="1" x="326"/>
         <item m="1" x="327"/>
         <item m="1" x="328"/>
@@ -5888,14 +5967,20 @@
         <item m="1" x="619"/>
         <item m="1" x="620"/>
         <item m="1" x="621"/>
-        <item x="314"/>
         <item m="1" x="622"/>
         <item m="1" x="623"/>
         <item m="1" x="624"/>
         <item m="1" x="625"/>
         <item m="1" x="626"/>
+        <item m="1" x="627"/>
+        <item x="314"/>
+        <item m="1" x="628"/>
+        <item m="1" x="629"/>
+        <item m="1" x="630"/>
+        <item m="1" x="631"/>
+        <item m="1" x="632"/>
         <item x="9"/>
-        <item m="1" x="627"/>
+        <item m="1" x="633"/>
         <item x="286"/>
         <item x="287"/>
         <item x="288"/>
@@ -6213,6 +6298,12 @@
         <item x="316"/>
         <item x="317"/>
         <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -6596,8 +6687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6725,15 +6816,15 @@
       </c>
       <c r="E6" s="7">
         <f>SUM(B10:B12)</f>
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="F6" s="5">
         <f>SUM(B6:B9)</f>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G6" s="11">
         <f>SUM(B6:B8)</f>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H6" s="9">
         <f>SUM(B6:B7)</f>
@@ -6761,15 +6852,15 @@
         <v>11</v>
       </c>
       <c r="C7" s="15">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D13" si="1">C7/B7</f>
-        <v>1</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="E7" s="7">
         <f>SUM(C10:C12)</f>
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="F7" s="5">
         <f>SUM(C6:C9)</f>
@@ -6781,7 +6872,7 @@
       </c>
       <c r="H7" s="9">
         <f>SUM(C6:C7)</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M7" t="s">
         <v>61</v>
@@ -6802,30 +6893,30 @@
         <v>93</v>
       </c>
       <c r="B8" s="15">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" s="15">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" si="1"/>
-        <v>0.58333333333333337</v>
+        <v>0.59459459459459463</v>
       </c>
       <c r="E8" s="8">
         <f>E7/E6</f>
-        <v>0.5477178423236515</v>
+        <v>0.56275303643724695</v>
       </c>
       <c r="F8" s="6">
         <f>F7/F6</f>
-        <v>0.68888888888888888</v>
+        <v>0.68131868131868134</v>
       </c>
       <c r="G8" s="12">
         <f>G7/G6</f>
-        <v>0.70588235294117652</v>
+        <v>0.69230769230769229</v>
       </c>
       <c r="H8" s="10">
         <f>H7/H6</f>
-        <v>1</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="L8" t="s">
         <v>100</v>
@@ -6877,14 +6968,14 @@
         <v>51</v>
       </c>
       <c r="B10" s="15">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C10" s="15">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" si="1"/>
-        <v>0.59223300970873782</v>
+        <v>0.58878504672897192</v>
       </c>
       <c r="M10" t="s">
         <v>93</v>
@@ -6905,14 +6996,14 @@
         <v>84</v>
       </c>
       <c r="B11" s="15">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C11" s="15">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" si="1"/>
-        <v>0.48571428571428571</v>
+        <v>0.53521126760563376</v>
       </c>
       <c r="M11" t="s">
         <v>50</v>
@@ -6933,14 +7024,14 @@
         <v>85</v>
       </c>
       <c r="B12" s="15">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C12" s="15">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" si="1"/>
-        <v>0.54411764705882348</v>
+        <v>0.55072463768115942</v>
       </c>
       <c r="L12" t="s">
         <v>101</v>
@@ -6961,14 +7052,14 @@
         <v>53</v>
       </c>
       <c r="B13" s="15">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="C13" s="15">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" si="1"/>
-        <v>0.58610271903323263</v>
+        <v>0.59467455621301779</v>
       </c>
       <c r="L13" t="s">
         <v>88</v>
@@ -7244,14 +7335,14 @@
         <v>93</v>
       </c>
       <c r="N30" s="15">
+        <v>4</v>
+      </c>
+      <c r="O30" s="15">
         <v>3</v>
-      </c>
-      <c r="O30" s="15">
-        <v>2</v>
       </c>
       <c r="P30" s="4">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="31" spans="12:16" x14ac:dyDescent="0.25">
@@ -7262,11 +7353,11 @@
         <v>2</v>
       </c>
       <c r="O31" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P31" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="32" spans="12:16" x14ac:dyDescent="0.25">
@@ -7274,14 +7365,14 @@
         <v>106</v>
       </c>
       <c r="N32" s="15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O32" s="15">
         <v>4</v>
       </c>
       <c r="P32" s="4">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="33" spans="12:16" x14ac:dyDescent="0.25">
@@ -7289,7 +7380,7 @@
         <v>53</v>
       </c>
       <c r="N33" s="15">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O33" s="15">
         <v>62</v>
@@ -7424,10 +7515,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I332"/>
+  <dimension ref="A1:I339"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A278" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J327" sqref="J327"/>
+    <sheetView topLeftCell="A278" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I333" sqref="I333:I339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16837,7 +16928,7 @@
         <v>50</v>
       </c>
       <c r="I324">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.25">
@@ -16895,7 +16986,7 @@
         <v>51</v>
       </c>
       <c r="I326">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.25">
@@ -16924,7 +17015,7 @@
         <v>51</v>
       </c>
       <c r="I327">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.25">
@@ -16982,7 +17073,7 @@
         <v>84</v>
       </c>
       <c r="I329">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.25">
@@ -17011,7 +17102,7 @@
         <v>84</v>
       </c>
       <c r="I330">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.25">
@@ -17040,7 +17131,7 @@
         <v>84</v>
       </c>
       <c r="I331">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.25">
@@ -17069,6 +17160,209 @@
         <v>85</v>
       </c>
       <c r="I332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>99</v>
+      </c>
+      <c r="B333" s="1">
+        <v>45315</v>
+      </c>
+      <c r="C333" t="s">
+        <v>23</v>
+      </c>
+      <c r="D333" s="14">
+        <v>0.76819999999999999</v>
+      </c>
+      <c r="E333" t="s">
+        <v>14</v>
+      </c>
+      <c r="F333" s="14">
+        <v>0.23180000000000001</v>
+      </c>
+      <c r="G333" t="s">
+        <v>24</v>
+      </c>
+      <c r="H333" t="s">
+        <v>93</v>
+      </c>
+      <c r="I333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>99</v>
+      </c>
+      <c r="B334" s="1">
+        <v>45315</v>
+      </c>
+      <c r="C334" t="s">
+        <v>33</v>
+      </c>
+      <c r="D334" s="14">
+        <v>0.67710000000000004</v>
+      </c>
+      <c r="E334" t="s">
+        <v>5</v>
+      </c>
+      <c r="F334" s="14">
+        <v>0.32290000000000002</v>
+      </c>
+      <c r="G334" t="s">
+        <v>78</v>
+      </c>
+      <c r="H334" t="s">
+        <v>51</v>
+      </c>
+      <c r="I334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>99</v>
+      </c>
+      <c r="B335" s="1">
+        <v>45315</v>
+      </c>
+      <c r="C335" t="s">
+        <v>7</v>
+      </c>
+      <c r="D335" s="14">
+        <v>0.66779999999999995</v>
+      </c>
+      <c r="E335" t="s">
+        <v>26</v>
+      </c>
+      <c r="F335" s="14">
+        <v>0.3322</v>
+      </c>
+      <c r="G335" t="s">
+        <v>9</v>
+      </c>
+      <c r="H335" t="s">
+        <v>51</v>
+      </c>
+      <c r="I335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>99</v>
+      </c>
+      <c r="B336" s="1">
+        <v>45315</v>
+      </c>
+      <c r="C336" t="s">
+        <v>4</v>
+      </c>
+      <c r="D336" s="14">
+        <v>0.61629999999999996</v>
+      </c>
+      <c r="E336" t="s">
+        <v>43</v>
+      </c>
+      <c r="F336" s="14">
+        <v>0.38369999999999999</v>
+      </c>
+      <c r="G336" t="s">
+        <v>6</v>
+      </c>
+      <c r="H336" t="s">
+        <v>51</v>
+      </c>
+      <c r="I336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>99</v>
+      </c>
+      <c r="B337" s="1">
+        <v>45315</v>
+      </c>
+      <c r="C337" t="s">
+        <v>40</v>
+      </c>
+      <c r="D337" s="14">
+        <v>0.61480000000000001</v>
+      </c>
+      <c r="E337" t="s">
+        <v>46</v>
+      </c>
+      <c r="F337" s="14">
+        <v>0.38519999999999999</v>
+      </c>
+      <c r="G337" t="s">
+        <v>69</v>
+      </c>
+      <c r="H337" t="s">
+        <v>51</v>
+      </c>
+      <c r="I337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>99</v>
+      </c>
+      <c r="B338" s="1">
+        <v>45315</v>
+      </c>
+      <c r="C338" t="s">
+        <v>42</v>
+      </c>
+      <c r="D338" s="14">
+        <v>0.57620000000000005</v>
+      </c>
+      <c r="E338" t="s">
+        <v>13</v>
+      </c>
+      <c r="F338" s="14">
+        <v>0.42380000000000001</v>
+      </c>
+      <c r="G338" t="s">
+        <v>44</v>
+      </c>
+      <c r="H338" t="s">
+        <v>84</v>
+      </c>
+      <c r="I338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>99</v>
+      </c>
+      <c r="B339" s="1">
+        <v>45315</v>
+      </c>
+      <c r="C339" t="s">
+        <v>16</v>
+      </c>
+      <c r="D339" s="14">
+        <v>0.50680000000000003</v>
+      </c>
+      <c r="E339" t="s">
+        <v>19</v>
+      </c>
+      <c r="F339" s="14">
+        <v>0.49320000000000003</v>
+      </c>
+      <c r="G339" t="s">
+        <v>21</v>
+      </c>
+      <c r="H339" t="s">
+        <v>85</v>
+      </c>
+      <c r="I339">
         <v>0</v>
       </c>
     </row>

--- a/PDA Lifetime Predictions.xlsx
+++ b/PDA Lifetime Predictions.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thigg\Desktop\Hockey Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA42F25A-506B-452B-8C4C-A52C4FE5EA12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5BF79B-737D-4289-BCBB-E95DCE80AE1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="14" r:id="rId3"/>
+    <pivotCache cacheId="35" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1816" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -359,6 +359,9 @@
   <si>
     <t>PDA7 Total</t>
   </si>
+  <si>
+    <t>% Of Predictions</t>
+  </si>
 </sst>
 </file>
 
@@ -509,7 +512,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -713,6 +716,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -875,7 +884,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -893,6 +902,7 @@
     <xf numFmtId="164" fontId="0" fillId="36" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
@@ -954,7 +964,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45315.3350587963" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="339" xr:uid="{D3A71568-3061-40C8-A74B-8B86C64C3ADC}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45316.94707858796" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="348" xr:uid="{D3A71568-3061-40C8-A74B-8B86C64C3ADC}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:I1048576" sheet="Predictions"/>
   </cacheSource>
@@ -972,7 +982,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2024-01-25T00:00:00" count="45">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2024-01-26T00:00:00" count="46">
         <d v="2023-12-09T00:00:00"/>
         <d v="2023-12-10T00:00:00"/>
         <d v="2023-12-11T00:00:00"/>
@@ -1017,6 +1027,7 @@
         <d v="2024-01-22T00:00:00"/>
         <d v="2024-01-23T00:00:00"/>
         <d v="2024-01-24T00:00:00"/>
+        <d v="2024-01-25T00:00:00"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -1024,7 +1035,7 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Winner Probability" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="0.5" maxValue="0.87610539305886403" count="634">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="0.5" maxValue="0.87610539305886403" count="642">
         <n v="0.87609999999999999"/>
         <n v="0.78059999999999996"/>
         <n v="0.65859999999999996"/>
@@ -1350,6 +1361,14 @@
         <n v="0.61480000000000001"/>
         <n v="0.57620000000000005"/>
         <n v="0.50680000000000003"/>
+        <n v="0.78939999999999999"/>
+        <n v="0.75160000000000005"/>
+        <n v="0.74780000000000002"/>
+        <n v="0.71889999999999998"/>
+        <n v="0.64839999999999998"/>
+        <n v="0.55449999999999999"/>
+        <n v="0.53690000000000004"/>
+        <n v="0.52159999999999995"/>
         <m/>
         <n v="0.87610539305886403" u="1"/>
         <n v="0.78056782297496197" u="1"/>
@@ -1697,7 +1716,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="339">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="348">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -5359,7 +5378,7 @@
     <n v="0.32290000000000002"/>
     <s v="Playing At:  Florida Panthers   Home"/>
     <x v="2"/>
-    <n v="0"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="6"/>
@@ -5381,7 +5400,7 @@
     <n v="0.38369999999999999"/>
     <s v="Playing At:  Boston Bruins   Home"/>
     <x v="2"/>
-    <n v="1"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="6"/>
@@ -5403,7 +5422,7 @@
     <n v="0.42380000000000001"/>
     <s v="Playing At:  Vancouver Canucks   Home"/>
     <x v="3"/>
-    <n v="1"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="6"/>
@@ -5417,10 +5436,109 @@
     <n v="0"/>
   </r>
   <r>
+    <x v="6"/>
+    <x v="44"/>
+    <s v="Edmonton Oilers"/>
+    <x v="325"/>
+    <s v="Chicago Blackhawks"/>
+    <n v="0.21060000000000001"/>
+    <s v="Playing At:  Edmonton Oilers   Home"/>
+    <x v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="44"/>
+    <s v="Dallas Stars"/>
+    <x v="326"/>
+    <s v="Anaheim Ducks"/>
+    <n v="0.24840000000000001"/>
+    <s v="Playing At:  Dallas Stars   Home"/>
+    <x v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="44"/>
+    <s v="Boston Bruins"/>
+    <x v="327"/>
+    <s v="Ottawa Senators"/>
+    <n v="0.25219999999999998"/>
+    <s v="Playing At:  Ottawa Senators   Home"/>
+    <x v="6"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="44"/>
+    <s v="Calgary Flames"/>
+    <x v="328"/>
+    <s v="Columbus Blue Jackets"/>
+    <n v="0.28110000000000002"/>
+    <s v="Playing At:  Calgary Flames   Home"/>
+    <x v="6"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="44"/>
+    <s v="Tampa Bay Lightning"/>
+    <x v="284"/>
+    <s v="Arizona Coyotes"/>
+    <n v="0.31259999999999999"/>
+    <s v="Playing At:  Tampa Bay Lightning   Home"/>
+    <x v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="44"/>
+    <s v="New York Islanders"/>
+    <x v="329"/>
+    <s v="Montreal Canadiens"/>
+    <n v="0.35160000000000002"/>
+    <s v="Playing At:  Montreal Canadiens   Home"/>
+    <x v="2"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="44"/>
+    <s v="Detroit Red Wings"/>
+    <x v="330"/>
+    <s v="Philadelphia Flyers"/>
+    <n v="0.44550000000000001"/>
+    <s v="Playing At:  Detroit Red Wings   Home"/>
+    <x v="3"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="44"/>
+    <s v="Minnesota Wild"/>
+    <x v="331"/>
+    <s v="Nashville Predators"/>
+    <n v="0.46310000000000001"/>
+    <s v="Playing At:  Minnesota Wild   Home"/>
+    <x v="4"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="44"/>
+    <s v="New Jersey Devils"/>
+    <x v="332"/>
+    <s v="Carolina Hurricanes"/>
+    <n v="0.47839999999999999"/>
+    <s v="Playing At:  Carolina Hurricanes   Home"/>
+    <x v="4"/>
+    <n v="0"/>
+  </r>
+  <r>
     <x v="7"/>
-    <x v="44"/>
+    <x v="45"/>
     <m/>
-    <x v="325"/>
+    <x v="333"/>
     <m/>
     <m/>
     <m/>
@@ -5431,8 +5549,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{80C3D042-980E-40EE-B50F-CF37801A1A1D}" name="PivotTable3" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="L3:O33" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{80C3D042-980E-40EE-B50F-CF37801A1A1D}" name="PivotTable3" cacheId="35" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="L3:O34" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
       <items count="9">
@@ -5474,7 +5592,7 @@
     <field x="0"/>
     <field x="7"/>
   </rowFields>
-  <rowItems count="30">
+  <rowItems count="31">
     <i>
       <x v="1"/>
       <x v="3"/>
@@ -5561,6 +5679,9 @@
     </i>
     <i>
       <x v="7"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
       <x v="5"/>
     </i>
     <i r="1">
@@ -5601,7 +5722,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1FB34DD3-8207-4009-92F5-73C183F63DF8}" name="PivotTable1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1FB34DD3-8207-4009-92F5-73C183F63DF8}" name="PivotTable1" cacheId="35" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A5:C13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
@@ -5618,7 +5739,7 @@
       </items>
     </pivotField>
     <pivotField axis="axisPage" showAll="0">
-      <items count="46">
+      <items count="47">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -5658,27 +5779,20 @@
         <item x="36"/>
         <item x="37"/>
         <item x="38"/>
-        <item x="44"/>
+        <item x="45"/>
         <item x="39"/>
         <item x="40"/>
         <item x="41"/>
         <item x="42"/>
         <item x="43"/>
+        <item x="44"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="635">
-        <item x="325"/>
-        <item m="1" x="326"/>
-        <item m="1" x="327"/>
-        <item m="1" x="328"/>
-        <item m="1" x="329"/>
-        <item m="1" x="330"/>
-        <item m="1" x="331"/>
-        <item m="1" x="332"/>
-        <item m="1" x="333"/>
+      <items count="643">
+        <item x="333"/>
         <item m="1" x="334"/>
         <item m="1" x="335"/>
         <item m="1" x="336"/>
@@ -5973,14 +6087,22 @@
         <item m="1" x="625"/>
         <item m="1" x="626"/>
         <item m="1" x="627"/>
-        <item x="314"/>
         <item m="1" x="628"/>
         <item m="1" x="629"/>
         <item m="1" x="630"/>
         <item m="1" x="631"/>
         <item m="1" x="632"/>
+        <item m="1" x="633"/>
+        <item m="1" x="634"/>
+        <item m="1" x="635"/>
+        <item x="314"/>
+        <item m="1" x="636"/>
+        <item m="1" x="637"/>
+        <item m="1" x="638"/>
+        <item m="1" x="639"/>
+        <item m="1" x="640"/>
         <item x="9"/>
-        <item m="1" x="633"/>
+        <item m="1" x="641"/>
         <item x="286"/>
         <item x="287"/>
         <item x="288"/>
@@ -6304,6 +6426,14 @@
         <item x="322"/>
         <item x="323"/>
         <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -6687,24 +6817,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>79</v>
       </c>
@@ -6712,7 +6842,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -6720,7 +6850,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -6743,17 +6873,17 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="L4" t="s">
         <v>86</v>
       </c>
       <c r="M4" t="s">
         <v>94</v>
       </c>
-      <c r="N4" s="15">
+      <c r="N4" s="16">
         <v>5</v>
       </c>
-      <c r="O4" s="15">
+      <c r="O4" s="16">
         <v>5</v>
       </c>
       <c r="P4" s="4">
@@ -6761,7 +6891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>52</v>
       </c>
@@ -6789,10 +6919,10 @@
       <c r="M5" t="s">
         <v>93</v>
       </c>
-      <c r="N5" s="15">
+      <c r="N5" s="16">
         <v>7</v>
       </c>
-      <c r="O5" s="15">
+      <c r="O5" s="16">
         <v>4</v>
       </c>
       <c r="P5" s="4">
@@ -6800,14 +6930,14 @@
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="16">
         <v>4</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="16">
         <v>4</v>
       </c>
       <c r="D6" s="4">
@@ -6816,15 +6946,15 @@
       </c>
       <c r="E6" s="7">
         <f>SUM(B10:B12)</f>
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="F6" s="5">
         <f>SUM(B6:B9)</f>
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G6" s="11">
         <f>SUM(B6:B8)</f>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H6" s="9">
         <f>SUM(B6:B7)</f>
@@ -6833,10 +6963,10 @@
       <c r="M6" t="s">
         <v>50</v>
       </c>
-      <c r="N6" s="15">
+      <c r="N6" s="16">
         <v>2</v>
       </c>
-      <c r="O6" s="15">
+      <c r="O6" s="16">
         <v>2</v>
       </c>
       <c r="P6" s="4">
@@ -6844,14 +6974,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="16">
         <v>11</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="16">
         <v>10</v>
       </c>
       <c r="D7" s="4">
@@ -6860,15 +6990,15 @@
       </c>
       <c r="E7" s="7">
         <f>SUM(C10:C12)</f>
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F7" s="5">
         <f>SUM(C6:C9)</f>
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G7" s="11">
         <f>SUM(C6:C8)</f>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H7" s="9">
         <f>SUM(C6:C7)</f>
@@ -6877,10 +7007,10 @@
       <c r="M7" t="s">
         <v>61</v>
       </c>
-      <c r="N7" s="15">
-        <v>1</v>
-      </c>
-      <c r="O7" s="15">
+      <c r="N7" s="16">
+        <v>1</v>
+      </c>
+      <c r="O7" s="16">
         <v>1</v>
       </c>
       <c r="P7" s="4">
@@ -6888,31 +7018,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B8" s="15">
-        <v>37</v>
-      </c>
-      <c r="C8" s="15">
-        <v>22</v>
+      <c r="B8" s="16">
+        <v>39</v>
+      </c>
+      <c r="C8" s="16">
+        <v>24</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" si="1"/>
-        <v>0.59459459459459463</v>
+        <v>0.61538461538461542</v>
       </c>
       <c r="E8" s="8">
         <f>E7/E6</f>
-        <v>0.56275303643724695</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="F8" s="6">
         <f>F7/F6</f>
-        <v>0.68131868131868134</v>
+        <v>0.69473684210526321</v>
       </c>
       <c r="G8" s="12">
         <f>G7/G6</f>
-        <v>0.69230769230769229</v>
+        <v>0.70370370370370372</v>
       </c>
       <c r="H8" s="10">
         <f>H7/H6</f>
@@ -6921,10 +7051,10 @@
       <c r="L8" t="s">
         <v>100</v>
       </c>
-      <c r="N8" s="15">
+      <c r="N8" s="16">
         <v>15</v>
       </c>
-      <c r="O8" s="15">
+      <c r="O8" s="16">
         <v>12</v>
       </c>
       <c r="P8" s="4">
@@ -6932,19 +7062,31 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="15">
-        <v>39</v>
-      </c>
-      <c r="C9" s="15">
-        <v>26</v>
+      <c r="B9" s="16">
+        <v>41</v>
+      </c>
+      <c r="C9" s="16">
+        <v>28</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
+        <v>0.68292682926829273</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>107</v>
       </c>
       <c r="L9" t="s">
         <v>87</v>
@@ -6952,10 +7094,10 @@
       <c r="M9" t="s">
         <v>94</v>
       </c>
-      <c r="N9" s="15">
+      <c r="N9" s="16">
         <v>8</v>
       </c>
-      <c r="O9" s="15">
+      <c r="O9" s="16">
         <v>5</v>
       </c>
       <c r="P9" s="4">
@@ -6963,27 +7105,43 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="15">
-        <v>107</v>
-      </c>
-      <c r="C10" s="15">
-        <v>63</v>
+      <c r="B10" s="16">
+        <v>109</v>
+      </c>
+      <c r="C10" s="16">
+        <v>64</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" si="1"/>
-        <v>0.58878504672897192</v>
+        <v>0.58715596330275233</v>
+      </c>
+      <c r="E10" s="8">
+        <f>E6/$B$13</f>
+        <v>0.72622478386167144</v>
+      </c>
+      <c r="F10" s="6">
+        <f t="shared" ref="F10:H10" si="2">F6/$B$13</f>
+        <v>0.2737752161383285</v>
+      </c>
+      <c r="G10" s="12">
+        <f t="shared" si="2"/>
+        <v>0.15561959654178675</v>
+      </c>
+      <c r="H10" s="10">
+        <f t="shared" si="2"/>
+        <v>4.3227665706051875E-2</v>
       </c>
       <c r="M10" t="s">
         <v>93</v>
       </c>
-      <c r="N10" s="15">
+      <c r="N10" s="16">
         <v>6</v>
       </c>
-      <c r="O10" s="15">
+      <c r="O10" s="16">
         <v>1</v>
       </c>
       <c r="P10" s="4">
@@ -6991,27 +7149,27 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="15">
-        <v>71</v>
-      </c>
-      <c r="C11" s="15">
+      <c r="B11" s="16">
+        <v>72</v>
+      </c>
+      <c r="C11" s="16">
         <v>38</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" si="1"/>
-        <v>0.53521126760563376</v>
+        <v>0.52777777777777779</v>
       </c>
       <c r="M11" t="s">
         <v>50</v>
       </c>
-      <c r="N11" s="15">
-        <v>1</v>
-      </c>
-      <c r="O11" s="15">
+      <c r="N11" s="16">
+        <v>1</v>
+      </c>
+      <c r="O11" s="16">
         <v>1</v>
       </c>
       <c r="P11" s="4">
@@ -7019,27 +7177,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="15">
-        <v>69</v>
-      </c>
-      <c r="C12" s="15">
+      <c r="B12" s="16">
+        <v>71</v>
+      </c>
+      <c r="C12" s="16">
         <v>38</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" si="1"/>
-        <v>0.55072463768115942</v>
+        <v>0.53521126760563376</v>
       </c>
       <c r="L12" t="s">
         <v>101</v>
       </c>
-      <c r="N12" s="15">
+      <c r="N12" s="16">
         <v>15</v>
       </c>
-      <c r="O12" s="15">
+      <c r="O12" s="16">
         <v>7</v>
       </c>
       <c r="P12" s="4">
@@ -7047,19 +7205,19 @@
         <v>0.46666666666666667</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="15">
-        <v>338</v>
-      </c>
-      <c r="C13" s="15">
-        <v>201</v>
+      <c r="B13" s="16">
+        <v>347</v>
+      </c>
+      <c r="C13" s="16">
+        <v>206</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" si="1"/>
-        <v>0.59467455621301779</v>
+        <v>0.59365994236311237</v>
       </c>
       <c r="L13" t="s">
         <v>88</v>
@@ -7067,10 +7225,10 @@
       <c r="M13" t="s">
         <v>94</v>
       </c>
-      <c r="N13" s="15">
+      <c r="N13" s="16">
         <v>3</v>
       </c>
-      <c r="O13" s="15">
+      <c r="O13" s="16">
         <v>2</v>
       </c>
       <c r="P13" s="4">
@@ -7078,14 +7236,14 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="M14" t="s">
         <v>93</v>
       </c>
-      <c r="N14" s="15">
+      <c r="N14" s="16">
         <v>7</v>
       </c>
-      <c r="O14" s="15">
+      <c r="O14" s="16">
         <v>4</v>
       </c>
       <c r="P14" s="4">
@@ -7093,14 +7251,14 @@
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="M15" t="s">
         <v>50</v>
       </c>
-      <c r="N15" s="15">
+      <c r="N15" s="16">
         <v>2</v>
       </c>
-      <c r="O15" s="15">
+      <c r="O15" s="16">
         <v>2</v>
       </c>
       <c r="P15" s="4">
@@ -7108,14 +7266,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="L16" t="s">
         <v>102</v>
       </c>
-      <c r="N16" s="15">
+      <c r="N16" s="16">
         <v>12</v>
       </c>
-      <c r="O16" s="15">
+      <c r="O16" s="16">
         <v>8</v>
       </c>
       <c r="P16" s="4">
@@ -7123,17 +7281,17 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="17" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="12:16" x14ac:dyDescent="0.35">
       <c r="L17" t="s">
         <v>89</v>
       </c>
       <c r="M17" t="s">
         <v>94</v>
       </c>
-      <c r="N17" s="15">
+      <c r="N17" s="16">
         <v>9</v>
       </c>
-      <c r="O17" s="15">
+      <c r="O17" s="16">
         <v>5</v>
       </c>
       <c r="P17" s="4">
@@ -7141,14 +7299,14 @@
         <v>0.55555555555555558</v>
       </c>
     </row>
-    <row r="18" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="12:16" x14ac:dyDescent="0.35">
       <c r="M18" t="s">
         <v>93</v>
       </c>
-      <c r="N18" s="15">
+      <c r="N18" s="16">
         <v>4</v>
       </c>
-      <c r="O18" s="15">
+      <c r="O18" s="16">
         <v>4</v>
       </c>
       <c r="P18" s="4">
@@ -7156,14 +7314,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="12:16" x14ac:dyDescent="0.35">
       <c r="M19" t="s">
         <v>50</v>
       </c>
-      <c r="N19" s="15">
+      <c r="N19" s="16">
         <v>3</v>
       </c>
-      <c r="O19" s="15">
+      <c r="O19" s="16">
         <v>3</v>
       </c>
       <c r="P19" s="4">
@@ -7171,14 +7329,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="12:16" x14ac:dyDescent="0.35">
       <c r="M20" t="s">
         <v>61</v>
       </c>
-      <c r="N20" s="15">
+      <c r="N20" s="16">
         <v>2</v>
       </c>
-      <c r="O20" s="15">
+      <c r="O20" s="16">
         <v>2</v>
       </c>
       <c r="P20" s="4">
@@ -7186,14 +7344,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="12:16" x14ac:dyDescent="0.35">
       <c r="L21" t="s">
         <v>103</v>
       </c>
-      <c r="N21" s="15">
+      <c r="N21" s="16">
         <v>18</v>
       </c>
-      <c r="O21" s="15">
+      <c r="O21" s="16">
         <v>14</v>
       </c>
       <c r="P21" s="4">
@@ -7201,17 +7359,17 @@
         <v>0.77777777777777779</v>
       </c>
     </row>
-    <row r="22" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="12:16" x14ac:dyDescent="0.35">
       <c r="L22" t="s">
         <v>91</v>
       </c>
       <c r="M22" t="s">
         <v>94</v>
       </c>
-      <c r="N22" s="15">
+      <c r="N22" s="16">
         <v>6</v>
       </c>
-      <c r="O22" s="15">
+      <c r="O22" s="16">
         <v>3</v>
       </c>
       <c r="P22" s="4">
@@ -7219,14 +7377,14 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="12:16" x14ac:dyDescent="0.35">
       <c r="M23" t="s">
         <v>93</v>
       </c>
-      <c r="N23" s="15">
+      <c r="N23" s="16">
         <v>6</v>
       </c>
-      <c r="O23" s="15">
+      <c r="O23" s="16">
         <v>5</v>
       </c>
       <c r="P23" s="4">
@@ -7234,14 +7392,14 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="24" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="12:16" x14ac:dyDescent="0.35">
       <c r="M24" t="s">
         <v>50</v>
       </c>
-      <c r="N24" s="15">
-        <v>1</v>
-      </c>
-      <c r="O24" s="15">
+      <c r="N24" s="16">
+        <v>1</v>
+      </c>
+      <c r="O24" s="16">
         <v>1</v>
       </c>
       <c r="P24" s="4">
@@ -7249,14 +7407,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="12:16" x14ac:dyDescent="0.35">
       <c r="L25" t="s">
         <v>104</v>
       </c>
-      <c r="N25" s="15">
+      <c r="N25" s="16">
         <v>13</v>
       </c>
-      <c r="O25" s="15">
+      <c r="O25" s="16">
         <v>9</v>
       </c>
       <c r="P25" s="4">
@@ -7264,17 +7422,17 @@
         <v>0.69230769230769229</v>
       </c>
     </row>
-    <row r="26" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="12:16" x14ac:dyDescent="0.35">
       <c r="L26" t="s">
         <v>90</v>
       </c>
       <c r="M26" t="s">
         <v>94</v>
       </c>
-      <c r="N26" s="15">
+      <c r="N26" s="16">
         <v>8</v>
       </c>
-      <c r="O26" s="15">
+      <c r="O26" s="16">
         <v>6</v>
       </c>
       <c r="P26" s="4">
@@ -7282,14 +7440,14 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="27" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="12:16" x14ac:dyDescent="0.35">
       <c r="M27" t="s">
         <v>93</v>
       </c>
-      <c r="N27" s="15">
+      <c r="N27" s="16">
         <v>3</v>
       </c>
-      <c r="O27" s="15">
+      <c r="O27" s="16">
         <v>1</v>
       </c>
       <c r="P27" s="4">
@@ -7297,14 +7455,14 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="28" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="12:16" x14ac:dyDescent="0.35">
       <c r="M28" t="s">
         <v>61</v>
       </c>
-      <c r="N28" s="15">
-        <v>1</v>
-      </c>
-      <c r="O28" s="15">
+      <c r="N28" s="16">
+        <v>1</v>
+      </c>
+      <c r="O28" s="16">
         <v>1</v>
       </c>
       <c r="P28" s="4">
@@ -7312,14 +7470,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="12:16" x14ac:dyDescent="0.35">
       <c r="L29" t="s">
         <v>105</v>
       </c>
-      <c r="N29" s="15">
+      <c r="N29" s="16">
         <v>12</v>
       </c>
-      <c r="O29" s="15">
+      <c r="O29" s="16">
         <v>8</v>
       </c>
       <c r="P29" s="4">
@@ -7327,124 +7485,133 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="30" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="12:16" x14ac:dyDescent="0.35">
       <c r="L30" t="s">
         <v>99</v>
       </c>
       <c r="M30" t="s">
-        <v>93</v>
-      </c>
-      <c r="N30" s="15">
-        <v>4</v>
-      </c>
-      <c r="O30" s="15">
-        <v>3</v>
+        <v>94</v>
+      </c>
+      <c r="N30" s="16">
+        <v>2</v>
+      </c>
+      <c r="O30" s="16">
+        <v>2</v>
       </c>
       <c r="P30" s="4">
         <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="31" spans="12:16" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="12:16" x14ac:dyDescent="0.35">
       <c r="M31" t="s">
-        <v>50</v>
-      </c>
-      <c r="N31" s="15">
-        <v>2</v>
-      </c>
-      <c r="O31" s="15">
-        <v>1</v>
+        <v>93</v>
+      </c>
+      <c r="N31" s="16">
+        <v>6</v>
+      </c>
+      <c r="O31" s="16">
+        <v>5</v>
       </c>
       <c r="P31" s="4">
         <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="32" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L32" t="s">
-        <v>106</v>
-      </c>
-      <c r="N32" s="15">
-        <v>6</v>
-      </c>
-      <c r="O32" s="15">
-        <v>4</v>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="32" spans="12:16" x14ac:dyDescent="0.35">
+      <c r="M32" t="s">
+        <v>50</v>
+      </c>
+      <c r="N32" s="16">
+        <v>2</v>
+      </c>
+      <c r="O32" s="16">
+        <v>1</v>
       </c>
       <c r="P32" s="4">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="33" spans="12:16" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33" spans="12:16" x14ac:dyDescent="0.35">
       <c r="L33" t="s">
+        <v>106</v>
+      </c>
+      <c r="N33" s="16">
+        <v>10</v>
+      </c>
+      <c r="O33" s="16">
+        <v>8</v>
+      </c>
+      <c r="P33" s="4"/>
+    </row>
+    <row r="34" spans="12:16" x14ac:dyDescent="0.35">
+      <c r="L34" t="s">
         <v>53</v>
       </c>
-      <c r="N33" s="15">
-        <v>91</v>
-      </c>
-      <c r="O33" s="15">
-        <v>62</v>
-      </c>
-      <c r="P33" s="4"/>
-    </row>
-    <row r="34" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="N34" s="16">
+        <v>95</v>
+      </c>
+      <c r="O34" s="16">
+        <v>66</v>
+      </c>
       <c r="P34" s="4"/>
     </row>
-    <row r="35" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="12:16" x14ac:dyDescent="0.35">
       <c r="P35" s="4"/>
     </row>
-    <row r="36" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="12:16" x14ac:dyDescent="0.35">
       <c r="P36" s="4"/>
     </row>
-    <row r="37" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="12:16" x14ac:dyDescent="0.35">
       <c r="P37" s="4"/>
     </row>
-    <row r="38" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="12:16" x14ac:dyDescent="0.35">
       <c r="P38" s="4"/>
     </row>
-    <row r="39" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="12:16" x14ac:dyDescent="0.35">
       <c r="P39" s="4"/>
     </row>
-    <row r="40" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="12:16" x14ac:dyDescent="0.35">
       <c r="P40" s="4"/>
     </row>
-    <row r="41" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="12:16" x14ac:dyDescent="0.35">
       <c r="P41" s="4"/>
     </row>
-    <row r="42" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="12:16" x14ac:dyDescent="0.35">
       <c r="P42" s="4"/>
     </row>
-    <row r="43" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="12:16" x14ac:dyDescent="0.35">
       <c r="P43" s="4"/>
     </row>
-    <row r="44" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="12:16" x14ac:dyDescent="0.35">
       <c r="P44" s="4"/>
     </row>
-    <row r="45" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="12:16" x14ac:dyDescent="0.35">
       <c r="P45" s="4"/>
     </row>
-    <row r="46" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="12:16" x14ac:dyDescent="0.35">
       <c r="P46" s="4"/>
     </row>
-    <row r="47" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="12:16" x14ac:dyDescent="0.35">
       <c r="P47" s="4"/>
     </row>
-    <row r="48" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="12:16" x14ac:dyDescent="0.35">
       <c r="P48" s="4"/>
     </row>
-    <row r="49" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P49" s="4"/>
     </row>
-    <row r="50" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P50" s="4"/>
     </row>
-    <row r="51" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P51" s="4"/>
     </row>
-    <row r="52" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P52" s="4"/>
     </row>
-    <row r="53" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P53" s="4"/>
     </row>
   </sheetData>
@@ -7515,27 +7682,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I339"/>
+  <dimension ref="A1:I348"/>
   <sheetViews>
-    <sheetView topLeftCell="A278" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I333" sqref="I333:I339"/>
+    <sheetView tabSelected="1" topLeftCell="A322" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I344" sqref="I344"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7265625" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="43" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>79</v>
       </c>
@@ -7564,7 +7731,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -7593,7 +7760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>86</v>
       </c>
@@ -7622,7 +7789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>86</v>
       </c>
@@ -7651,7 +7818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>86</v>
       </c>
@@ -7680,7 +7847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>86</v>
       </c>
@@ -7709,7 +7876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>86</v>
       </c>
@@ -7738,7 +7905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -7767,7 +7934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -7796,7 +7963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>86</v>
       </c>
@@ -7825,7 +7992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>86</v>
       </c>
@@ -7854,7 +8021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>86</v>
       </c>
@@ -7883,7 +8050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>86</v>
       </c>
@@ -7912,7 +8079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>86</v>
       </c>
@@ -7941,7 +8108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>86</v>
       </c>
@@ -7970,7 +8137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>86</v>
       </c>
@@ -7999,7 +8166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>86</v>
       </c>
@@ -8028,7 +8195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>86</v>
       </c>
@@ -8057,7 +8224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>86</v>
       </c>
@@ -8086,7 +8253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>86</v>
       </c>
@@ -8115,7 +8282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>86</v>
       </c>
@@ -8144,7 +8311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>86</v>
       </c>
@@ -8173,7 +8340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>86</v>
       </c>
@@ -8202,7 +8369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>86</v>
       </c>
@@ -8231,7 +8398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>86</v>
       </c>
@@ -8260,7 +8427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>86</v>
       </c>
@@ -8289,7 +8456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>86</v>
       </c>
@@ -8318,7 +8485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>86</v>
       </c>
@@ -8347,7 +8514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>86</v>
       </c>
@@ -8376,7 +8543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>86</v>
       </c>
@@ -8405,7 +8572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>86</v>
       </c>
@@ -8434,7 +8601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>86</v>
       </c>
@@ -8463,7 +8630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>86</v>
       </c>
@@ -8492,7 +8659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>86</v>
       </c>
@@ -8521,7 +8688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>86</v>
       </c>
@@ -8550,7 +8717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>86</v>
       </c>
@@ -8579,7 +8746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>86</v>
       </c>
@@ -8608,7 +8775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>86</v>
       </c>
@@ -8637,7 +8804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>86</v>
       </c>
@@ -8666,7 +8833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>86</v>
       </c>
@@ -8695,7 +8862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>86</v>
       </c>
@@ -8724,7 +8891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>86</v>
       </c>
@@ -8753,7 +8920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>86</v>
       </c>
@@ -8782,7 +8949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>86</v>
       </c>
@@ -8811,7 +8978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>86</v>
       </c>
@@ -8840,7 +9007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>86</v>
       </c>
@@ -8869,7 +9036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>86</v>
       </c>
@@ -8898,7 +9065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>86</v>
       </c>
@@ -8927,7 +9094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>86</v>
       </c>
@@ -8956,7 +9123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>86</v>
       </c>
@@ -8985,7 +9152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>86</v>
       </c>
@@ -9014,7 +9181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>86</v>
       </c>
@@ -9043,7 +9210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>86</v>
       </c>
@@ -9072,7 +9239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>86</v>
       </c>
@@ -9101,7 +9268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>86</v>
       </c>
@@ -9130,7 +9297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>86</v>
       </c>
@@ -9159,7 +9326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>86</v>
       </c>
@@ -9188,7 +9355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>86</v>
       </c>
@@ -9217,7 +9384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>86</v>
       </c>
@@ -9246,7 +9413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>86</v>
       </c>
@@ -9275,7 +9442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>86</v>
       </c>
@@ -9304,7 +9471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>86</v>
       </c>
@@ -9333,7 +9500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>86</v>
       </c>
@@ -9362,7 +9529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>86</v>
       </c>
@@ -9391,7 +9558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>86</v>
       </c>
@@ -9420,7 +9587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>86</v>
       </c>
@@ -9449,7 +9616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>86</v>
       </c>
@@ -9478,7 +9645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>87</v>
       </c>
@@ -9507,7 +9674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>87</v>
       </c>
@@ -9536,7 +9703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>87</v>
       </c>
@@ -9565,7 +9732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>87</v>
       </c>
@@ -9594,7 +9761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>87</v>
       </c>
@@ -9623,7 +9790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>87</v>
       </c>
@@ -9652,7 +9819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>87</v>
       </c>
@@ -9681,7 +9848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>87</v>
       </c>
@@ -9710,7 +9877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>87</v>
       </c>
@@ -9739,7 +9906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>87</v>
       </c>
@@ -9768,7 +9935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>87</v>
       </c>
@@ -9797,7 +9964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>87</v>
       </c>
@@ -9826,7 +9993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>87</v>
       </c>
@@ -9855,7 +10022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>87</v>
       </c>
@@ -9884,7 +10051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>87</v>
       </c>
@@ -9913,7 +10080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>87</v>
       </c>
@@ -9942,7 +10109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>87</v>
       </c>
@@ -9971,7 +10138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>87</v>
       </c>
@@ -10000,7 +10167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>87</v>
       </c>
@@ -10029,7 +10196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>87</v>
       </c>
@@ -10058,7 +10225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -10087,7 +10254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -10116,7 +10283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>87</v>
       </c>
@@ -10145,7 +10312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>87</v>
       </c>
@@ -10174,7 +10341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>87</v>
       </c>
@@ -10203,7 +10370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>87</v>
       </c>
@@ -10232,7 +10399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>87</v>
       </c>
@@ -10261,7 +10428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>87</v>
       </c>
@@ -10290,7 +10457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>87</v>
       </c>
@@ -10319,7 +10486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>87</v>
       </c>
@@ -10348,7 +10515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>87</v>
       </c>
@@ -10377,7 +10544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>87</v>
       </c>
@@ -10406,7 +10573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>87</v>
       </c>
@@ -10435,7 +10602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>87</v>
       </c>
@@ -10464,7 +10631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>87</v>
       </c>
@@ -10493,7 +10660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>87</v>
       </c>
@@ -10522,7 +10689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>87</v>
       </c>
@@ -10551,7 +10718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>87</v>
       </c>
@@ -10580,7 +10747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>87</v>
       </c>
@@ -10609,7 +10776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>87</v>
       </c>
@@ -10638,7 +10805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>87</v>
       </c>
@@ -10667,7 +10834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>87</v>
       </c>
@@ -10696,7 +10863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>87</v>
       </c>
@@ -10725,7 +10892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>87</v>
       </c>
@@ -10754,7 +10921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>87</v>
       </c>
@@ -10783,7 +10950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>87</v>
       </c>
@@ -10812,7 +10979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>87</v>
       </c>
@@ -10841,7 +11008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>87</v>
       </c>
@@ -10870,7 +11037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>87</v>
       </c>
@@ -10899,7 +11066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>87</v>
       </c>
@@ -10928,7 +11095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>87</v>
       </c>
@@ -10957,7 +11124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>87</v>
       </c>
@@ -10986,7 +11153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>87</v>
       </c>
@@ -11015,7 +11182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>87</v>
       </c>
@@ -11044,7 +11211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>88</v>
       </c>
@@ -11073,7 +11240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>88</v>
       </c>
@@ -11102,7 +11269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>88</v>
       </c>
@@ -11131,7 +11298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>88</v>
       </c>
@@ -11160,7 +11327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>88</v>
       </c>
@@ -11189,7 +11356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>88</v>
       </c>
@@ -11218,7 +11385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>88</v>
       </c>
@@ -11247,7 +11414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>88</v>
       </c>
@@ -11276,7 +11443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>88</v>
       </c>
@@ -11305,7 +11472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>88</v>
       </c>
@@ -11334,7 +11501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>88</v>
       </c>
@@ -11363,7 +11530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>88</v>
       </c>
@@ -11392,7 +11559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>88</v>
       </c>
@@ -11421,7 +11588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>88</v>
       </c>
@@ -11450,7 +11617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>88</v>
       </c>
@@ -11479,7 +11646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>88</v>
       </c>
@@ -11508,7 +11675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>88</v>
       </c>
@@ -11537,7 +11704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>88</v>
       </c>
@@ -11566,7 +11733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>88</v>
       </c>
@@ -11595,7 +11762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>88</v>
       </c>
@@ -11624,7 +11791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>88</v>
       </c>
@@ -11653,7 +11820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>88</v>
       </c>
@@ -11682,7 +11849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>88</v>
       </c>
@@ -11711,7 +11878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>88</v>
       </c>
@@ -11740,7 +11907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>88</v>
       </c>
@@ -11769,7 +11936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>88</v>
       </c>
@@ -11798,7 +11965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>88</v>
       </c>
@@ -11827,7 +11994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>88</v>
       </c>
@@ -11856,7 +12023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>88</v>
       </c>
@@ -11885,7 +12052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>88</v>
       </c>
@@ -11914,7 +12081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>88</v>
       </c>
@@ -11943,7 +12110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>88</v>
       </c>
@@ -11972,7 +12139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>88</v>
       </c>
@@ -12001,7 +12168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>88</v>
       </c>
@@ -12030,7 +12197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>88</v>
       </c>
@@ -12059,7 +12226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>88</v>
       </c>
@@ -12088,7 +12255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>89</v>
       </c>
@@ -12117,7 +12284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>89</v>
       </c>
@@ -12146,7 +12313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>89</v>
       </c>
@@ -12175,7 +12342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>89</v>
       </c>
@@ -12204,7 +12371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>89</v>
       </c>
@@ -12233,7 +12400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>89</v>
       </c>
@@ -12262,7 +12429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>89</v>
       </c>
@@ -12291,7 +12458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>89</v>
       </c>
@@ -12320,7 +12487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>89</v>
       </c>
@@ -12349,7 +12516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>89</v>
       </c>
@@ -12378,7 +12545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>89</v>
       </c>
@@ -12407,7 +12574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>89</v>
       </c>
@@ -12436,7 +12603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>89</v>
       </c>
@@ -12465,7 +12632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>89</v>
       </c>
@@ -12494,7 +12661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>89</v>
       </c>
@@ -12523,7 +12690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>89</v>
       </c>
@@ -12552,7 +12719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>89</v>
       </c>
@@ -12581,7 +12748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>89</v>
       </c>
@@ -12610,7 +12777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>89</v>
       </c>
@@ -12639,7 +12806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>89</v>
       </c>
@@ -12668,7 +12835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>89</v>
       </c>
@@ -12697,7 +12864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>89</v>
       </c>
@@ -12726,7 +12893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>89</v>
       </c>
@@ -12755,7 +12922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>89</v>
       </c>
@@ -12784,7 +12951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>89</v>
       </c>
@@ -12813,7 +12980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>89</v>
       </c>
@@ -12842,7 +13009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>89</v>
       </c>
@@ -12871,7 +13038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>89</v>
       </c>
@@ -12900,7 +13067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>89</v>
       </c>
@@ -12929,7 +13096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>89</v>
       </c>
@@ -12958,7 +13125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>89</v>
       </c>
@@ -12987,7 +13154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>89</v>
       </c>
@@ -13016,7 +13183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>89</v>
       </c>
@@ -13045,7 +13212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>89</v>
       </c>
@@ -13074,7 +13241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>89</v>
       </c>
@@ -13103,7 +13270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>89</v>
       </c>
@@ -13132,7 +13299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>89</v>
       </c>
@@ -13161,7 +13328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>89</v>
       </c>
@@ -13190,7 +13357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>89</v>
       </c>
@@ -13219,7 +13386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>89</v>
       </c>
@@ -13248,7 +13415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>89</v>
       </c>
@@ -13277,7 +13444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>89</v>
       </c>
@@ -13306,7 +13473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>89</v>
       </c>
@@ -13335,7 +13502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>89</v>
       </c>
@@ -13364,7 +13531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>89</v>
       </c>
@@ -13393,7 +13560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>89</v>
       </c>
@@ -13422,7 +13589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>89</v>
       </c>
@@ -13451,7 +13618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>89</v>
       </c>
@@ -13480,7 +13647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>89</v>
       </c>
@@ -13509,7 +13676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>89</v>
       </c>
@@ -13538,7 +13705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>89</v>
       </c>
@@ -13567,7 +13734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>89</v>
       </c>
@@ -13596,7 +13763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>89</v>
       </c>
@@ -13625,7 +13792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>89</v>
       </c>
@@ -13654,7 +13821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>89</v>
       </c>
@@ -13683,7 +13850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>89</v>
       </c>
@@ -13712,7 +13879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>89</v>
       </c>
@@ -13741,7 +13908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>91</v>
       </c>
@@ -13770,7 +13937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>91</v>
       </c>
@@ -13799,7 +13966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>91</v>
       </c>
@@ -13828,7 +13995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>91</v>
       </c>
@@ -13857,7 +14024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>91</v>
       </c>
@@ -13886,7 +14053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>91</v>
       </c>
@@ -13915,7 +14082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>91</v>
       </c>
@@ -13944,7 +14111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>91</v>
       </c>
@@ -13973,7 +14140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>91</v>
       </c>
@@ -14002,7 +14169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>91</v>
       </c>
@@ -14031,7 +14198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>91</v>
       </c>
@@ -14060,7 +14227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>91</v>
       </c>
@@ -14089,7 +14256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>91</v>
       </c>
@@ -14118,7 +14285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>91</v>
       </c>
@@ -14147,7 +14314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>91</v>
       </c>
@@ -14176,7 +14343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>91</v>
       </c>
@@ -14205,7 +14372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>91</v>
       </c>
@@ -14234,7 +14401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>91</v>
       </c>
@@ -14263,7 +14430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>91</v>
       </c>
@@ -14292,7 +14459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>91</v>
       </c>
@@ -14321,7 +14488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>91</v>
       </c>
@@ -14350,7 +14517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>91</v>
       </c>
@@ -14379,7 +14546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>91</v>
       </c>
@@ -14408,7 +14575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>91</v>
       </c>
@@ -14437,7 +14604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>91</v>
       </c>
@@ -14466,7 +14633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>91</v>
       </c>
@@ -14495,7 +14662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>91</v>
       </c>
@@ -14524,7 +14691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>91</v>
       </c>
@@ -14553,7 +14720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>91</v>
       </c>
@@ -14582,7 +14749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>91</v>
       </c>
@@ -14611,7 +14778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>91</v>
       </c>
@@ -14640,7 +14807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>91</v>
       </c>
@@ -14669,7 +14836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>91</v>
       </c>
@@ -14698,7 +14865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>91</v>
       </c>
@@ -14727,7 +14894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>91</v>
       </c>
@@ -14756,7 +14923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>91</v>
       </c>
@@ -14785,7 +14952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>91</v>
       </c>
@@ -14814,7 +14981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>91</v>
       </c>
@@ -14843,7 +15010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>91</v>
       </c>
@@ -14872,7 +15039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>91</v>
       </c>
@@ -14901,7 +15068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>91</v>
       </c>
@@ -14930,7 +15097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>91</v>
       </c>
@@ -14959,7 +15126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>91</v>
       </c>
@@ -14988,7 +15155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>91</v>
       </c>
@@ -15017,7 +15184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>91</v>
       </c>
@@ -15046,7 +15213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>91</v>
       </c>
@@ -15075,7 +15242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>91</v>
       </c>
@@ -15104,7 +15271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>91</v>
       </c>
@@ -15133,7 +15300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>90</v>
       </c>
@@ -15162,7 +15329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>90</v>
       </c>
@@ -15191,7 +15358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>90</v>
       </c>
@@ -15220,7 +15387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>90</v>
       </c>
@@ -15249,7 +15416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>90</v>
       </c>
@@ -15278,7 +15445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>90</v>
       </c>
@@ -15307,7 +15474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>90</v>
       </c>
@@ -15336,7 +15503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>90</v>
       </c>
@@ -15365,7 +15532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>90</v>
       </c>
@@ -15394,7 +15561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>90</v>
       </c>
@@ -15423,7 +15590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>90</v>
       </c>
@@ -15452,7 +15619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>90</v>
       </c>
@@ -15481,7 +15648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>90</v>
       </c>
@@ -15510,7 +15677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>90</v>
       </c>
@@ -15539,7 +15706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>90</v>
       </c>
@@ -15568,7 +15735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>90</v>
       </c>
@@ -15597,7 +15764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>90</v>
       </c>
@@ -15626,7 +15793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>90</v>
       </c>
@@ -15655,7 +15822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>90</v>
       </c>
@@ -15684,7 +15851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>90</v>
       </c>
@@ -15713,7 +15880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>90</v>
       </c>
@@ -15742,7 +15909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>90</v>
       </c>
@@ -15771,7 +15938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>90</v>
       </c>
@@ -15800,7 +15967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>90</v>
       </c>
@@ -15829,7 +15996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>90</v>
       </c>
@@ -15858,7 +16025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>90</v>
       </c>
@@ -15887,7 +16054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>90</v>
       </c>
@@ -15916,7 +16083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>90</v>
       </c>
@@ -15945,7 +16112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>90</v>
       </c>
@@ -15974,7 +16141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>90</v>
       </c>
@@ -16003,7 +16170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>90</v>
       </c>
@@ -16032,7 +16199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>90</v>
       </c>
@@ -16061,7 +16228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>90</v>
       </c>
@@ -16090,7 +16257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>90</v>
       </c>
@@ -16119,7 +16286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>90</v>
       </c>
@@ -16148,7 +16315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>90</v>
       </c>
@@ -16177,7 +16344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>90</v>
       </c>
@@ -16206,7 +16373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>90</v>
       </c>
@@ -16235,7 +16402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>90</v>
       </c>
@@ -16264,7 +16431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>90</v>
       </c>
@@ -16293,7 +16460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>90</v>
       </c>
@@ -16322,7 +16489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>90</v>
       </c>
@@ -16351,7 +16518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>90</v>
       </c>
@@ -16380,7 +16547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>90</v>
       </c>
@@ -16409,7 +16576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>90</v>
       </c>
@@ -16438,7 +16605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>90</v>
       </c>
@@ -16467,7 +16634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>90</v>
       </c>
@@ -16496,7 +16663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>90</v>
       </c>
@@ -16525,7 +16692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>90</v>
       </c>
@@ -16554,7 +16721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>99</v>
       </c>
@@ -16583,7 +16750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>99</v>
       </c>
@@ -16612,7 +16779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>99</v>
       </c>
@@ -16641,7 +16808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>99</v>
       </c>
@@ -16670,7 +16837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>99</v>
       </c>
@@ -16699,7 +16866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>99</v>
       </c>
@@ -16728,7 +16895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>99</v>
       </c>
@@ -16757,7 +16924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>99</v>
       </c>
@@ -16786,7 +16953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>99</v>
       </c>
@@ -16815,7 +16982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>99</v>
       </c>
@@ -16844,7 +17011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>99</v>
       </c>
@@ -16873,7 +17040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>99</v>
       </c>
@@ -16902,7 +17069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>99</v>
       </c>
@@ -16931,7 +17098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>99</v>
       </c>
@@ -16960,7 +17127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>99</v>
       </c>
@@ -16989,7 +17156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>99</v>
       </c>
@@ -17018,7 +17185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>99</v>
       </c>
@@ -17047,7 +17214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>99</v>
       </c>
@@ -17076,7 +17243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>99</v>
       </c>
@@ -17105,7 +17272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>99</v>
       </c>
@@ -17134,7 +17301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>99</v>
       </c>
@@ -17163,7 +17330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>99</v>
       </c>
@@ -17192,7 +17359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>99</v>
       </c>
@@ -17218,10 +17385,10 @@
         <v>51</v>
       </c>
       <c r="I334">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>99</v>
       </c>
@@ -17250,7 +17417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>99</v>
       </c>
@@ -17276,10 +17443,10 @@
         <v>51</v>
       </c>
       <c r="I336">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>99</v>
       </c>
@@ -17308,7 +17475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>99</v>
       </c>
@@ -17334,10 +17501,10 @@
         <v>84</v>
       </c>
       <c r="I338">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>99</v>
       </c>
@@ -17363,6 +17530,267 @@
         <v>85</v>
       </c>
       <c r="I339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A340" t="s">
+        <v>99</v>
+      </c>
+      <c r="B340" s="1">
+        <v>45316</v>
+      </c>
+      <c r="C340" t="s">
+        <v>10</v>
+      </c>
+      <c r="D340" s="14">
+        <v>0.78939999999999999</v>
+      </c>
+      <c r="E340" t="s">
+        <v>14</v>
+      </c>
+      <c r="F340" s="14">
+        <v>0.21060000000000001</v>
+      </c>
+      <c r="G340" t="s">
+        <v>12</v>
+      </c>
+      <c r="H340" t="s">
+        <v>93</v>
+      </c>
+      <c r="I340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A341" t="s">
+        <v>99</v>
+      </c>
+      <c r="B341" s="1">
+        <v>45316</v>
+      </c>
+      <c r="C341" t="s">
+        <v>28</v>
+      </c>
+      <c r="D341" s="14">
+        <v>0.75160000000000005</v>
+      </c>
+      <c r="E341" t="s">
+        <v>17</v>
+      </c>
+      <c r="F341" s="14">
+        <v>0.24840000000000001</v>
+      </c>
+      <c r="G341" t="s">
+        <v>30</v>
+      </c>
+      <c r="H341" t="s">
+        <v>93</v>
+      </c>
+      <c r="I341" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A342" t="s">
+        <v>99</v>
+      </c>
+      <c r="B342" s="1">
+        <v>45316</v>
+      </c>
+      <c r="C342" t="s">
+        <v>4</v>
+      </c>
+      <c r="D342" s="14">
+        <v>0.74780000000000002</v>
+      </c>
+      <c r="E342" t="s">
+        <v>36</v>
+      </c>
+      <c r="F342" s="14">
+        <v>0.25219999999999998</v>
+      </c>
+      <c r="G342" t="s">
+        <v>64</v>
+      </c>
+      <c r="H342" t="s">
+        <v>94</v>
+      </c>
+      <c r="I342" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A343" t="s">
+        <v>99</v>
+      </c>
+      <c r="B343" s="1">
+        <v>45316</v>
+      </c>
+      <c r="C343" t="s">
+        <v>31</v>
+      </c>
+      <c r="D343" s="14">
+        <v>0.71889999999999998</v>
+      </c>
+      <c r="E343" t="s">
+        <v>34</v>
+      </c>
+      <c r="F343" s="14">
+        <v>0.28110000000000002</v>
+      </c>
+      <c r="G343" t="s">
+        <v>32</v>
+      </c>
+      <c r="H343" t="s">
+        <v>94</v>
+      </c>
+      <c r="I343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A344" t="s">
+        <v>99</v>
+      </c>
+      <c r="B344" s="1">
+        <v>45316</v>
+      </c>
+      <c r="C344" t="s">
+        <v>22</v>
+      </c>
+      <c r="D344" s="14">
+        <v>0.68740000000000001</v>
+      </c>
+      <c r="E344" t="s">
+        <v>5</v>
+      </c>
+      <c r="F344" s="14">
+        <v>0.31259999999999999</v>
+      </c>
+      <c r="G344" t="s">
+        <v>77</v>
+      </c>
+      <c r="H344" t="s">
+        <v>51</v>
+      </c>
+      <c r="I344" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A345" t="s">
+        <v>99</v>
+      </c>
+      <c r="B345" s="1">
+        <v>45316</v>
+      </c>
+      <c r="C345" t="s">
+        <v>39</v>
+      </c>
+      <c r="D345" s="14">
+        <v>0.64839999999999998</v>
+      </c>
+      <c r="E345" t="s">
+        <v>45</v>
+      </c>
+      <c r="F345" s="14">
+        <v>0.35160000000000002</v>
+      </c>
+      <c r="G345" t="s">
+        <v>59</v>
+      </c>
+      <c r="H345" t="s">
+        <v>51</v>
+      </c>
+      <c r="I345" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A346" t="s">
+        <v>99</v>
+      </c>
+      <c r="B346" s="1">
+        <v>45316</v>
+      </c>
+      <c r="C346" t="s">
+        <v>37</v>
+      </c>
+      <c r="D346" s="14">
+        <v>0.55449999999999999</v>
+      </c>
+      <c r="E346" t="s">
+        <v>8</v>
+      </c>
+      <c r="F346" s="14">
+        <v>0.44550000000000001</v>
+      </c>
+      <c r="G346" t="s">
+        <v>38</v>
+      </c>
+      <c r="H346" t="s">
+        <v>84</v>
+      </c>
+      <c r="I346" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A347" t="s">
+        <v>99</v>
+      </c>
+      <c r="B347" s="1">
+        <v>45316</v>
+      </c>
+      <c r="C347" t="s">
+        <v>58</v>
+      </c>
+      <c r="D347" s="14">
+        <v>0.53690000000000004</v>
+      </c>
+      <c r="E347" t="s">
+        <v>20</v>
+      </c>
+      <c r="F347" s="14">
+        <v>0.46310000000000001</v>
+      </c>
+      <c r="G347" t="s">
+        <v>72</v>
+      </c>
+      <c r="H347" t="s">
+        <v>85</v>
+      </c>
+      <c r="I347" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A348" t="s">
+        <v>99</v>
+      </c>
+      <c r="B348" s="1">
+        <v>45316</v>
+      </c>
+      <c r="C348" t="s">
+        <v>11</v>
+      </c>
+      <c r="D348" s="14">
+        <v>0.52159999999999995</v>
+      </c>
+      <c r="E348" t="s">
+        <v>43</v>
+      </c>
+      <c r="F348" s="14">
+        <v>0.47839999999999999</v>
+      </c>
+      <c r="G348" t="s">
+        <v>74</v>
+      </c>
+      <c r="H348" t="s">
+        <v>85</v>
+      </c>
+      <c r="I348" s="15">
         <v>0</v>
       </c>
     </row>

--- a/PDA Lifetime Predictions.xlsx
+++ b/PDA Lifetime Predictions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thigg\Desktop\Hockey Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5BF79B-737D-4289-BCBB-E95DCE80AE1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06E59C8-4F8D-4C48-BEC0-0685C0309BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="35" r:id="rId3"/>
+    <pivotCache cacheId="14" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1816" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1836" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -512,7 +512,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -716,12 +716,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -902,7 +896,7 @@
     <xf numFmtId="164" fontId="0" fillId="36" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
@@ -964,7 +958,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45316.94707858796" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="348" xr:uid="{D3A71568-3061-40C8-A74B-8B86C64C3ADC}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45317.326748726853" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="352" xr:uid="{D3A71568-3061-40C8-A74B-8B86C64C3ADC}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:I1048576" sheet="Predictions"/>
   </cacheSource>
@@ -982,7 +976,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2024-01-26T00:00:00" count="46">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2024-01-27T00:00:00" count="47">
         <d v="2023-12-09T00:00:00"/>
         <d v="2023-12-10T00:00:00"/>
         <d v="2023-12-11T00:00:00"/>
@@ -1028,6 +1022,7 @@
         <d v="2024-01-23T00:00:00"/>
         <d v="2024-01-24T00:00:00"/>
         <d v="2024-01-25T00:00:00"/>
+        <d v="2024-01-26T00:00:00"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -1035,7 +1030,7 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Winner Probability" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="0.5" maxValue="0.87610539305886403" count="642">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="0.5" maxValue="0.87610539305886403" count="646">
         <n v="0.87609999999999999"/>
         <n v="0.78059999999999996"/>
         <n v="0.65859999999999996"/>
@@ -1369,6 +1364,10 @@
         <n v="0.55449999999999999"/>
         <n v="0.53690000000000004"/>
         <n v="0.52159999999999995"/>
+        <n v="0.58199999999999996"/>
+        <n v="0.57720000000000005"/>
+        <n v="0.54"/>
+        <n v="0.52969999999999995"/>
         <m/>
         <n v="0.87610539305886403" u="1"/>
         <n v="0.78056782297496197" u="1"/>
@@ -1716,7 +1715,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="348">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="352">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -5477,7 +5476,7 @@
     <n v="0.28110000000000002"/>
     <s v="Playing At:  Calgary Flames   Home"/>
     <x v="6"/>
-    <n v="1"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="6"/>
@@ -5535,10 +5534,54 @@
     <n v="0"/>
   </r>
   <r>
+    <x v="6"/>
+    <x v="45"/>
+    <s v="Seattle Kraken"/>
+    <x v="333"/>
+    <s v="St. Louis Blues"/>
+    <n v="0.41799999999999998"/>
+    <s v="Playing At:  Seattle Kraken   Home"/>
+    <x v="3"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="45"/>
+    <s v="Colorado Avalanche"/>
+    <x v="334"/>
+    <s v="Los Angeles Kings"/>
+    <n v="0.42280000000000001"/>
+    <s v="Playing At:  Colorado Avalanche   Home"/>
+    <x v="3"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="45"/>
+    <s v="New York Rangers"/>
+    <x v="335"/>
+    <s v="Vegas Golden Knights"/>
+    <n v="0.46"/>
+    <s v="Playing At:  New York Rangers   Home"/>
+    <x v="4"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="45"/>
+    <s v="Florida Panthers"/>
+    <x v="336"/>
+    <s v="Pittsburgh Penguins"/>
+    <n v="0.4703"/>
+    <s v="Playing At:  Pittsburgh Penguins   Home"/>
+    <x v="4"/>
+    <n v="1"/>
+  </r>
+  <r>
     <x v="7"/>
-    <x v="45"/>
+    <x v="46"/>
     <m/>
-    <x v="333"/>
+    <x v="337"/>
     <m/>
     <m/>
     <m/>
@@ -5549,180 +5592,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{80C3D042-980E-40EE-B50F-CF37801A1A1D}" name="PivotTable3" cacheId="35" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="L3:O34" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
-  <pivotFields count="10">
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="9">
-        <item h="1" x="7"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" numFmtId="14" outline="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="10">
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="2"/>
-        <item x="6"/>
-        <item m="1" x="8"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="0"/>
-    <field x="7"/>
-  </rowFields>
-  <rowItems count="31">
-    <i>
-      <x v="1"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i t="default">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i t="default">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i t="default">
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="7"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Count of Winner1" fld="2" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Model" fld="8" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1FB34DD3-8207-4009-92F5-73C183F63DF8}" name="PivotTable1" cacheId="35" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1FB34DD3-8207-4009-92F5-73C183F63DF8}" name="PivotTable1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A5:C13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
@@ -5739,7 +5609,7 @@
       </items>
     </pivotField>
     <pivotField axis="axisPage" showAll="0">
-      <items count="47">
+      <items count="48">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -5779,24 +5649,21 @@
         <item x="36"/>
         <item x="37"/>
         <item x="38"/>
-        <item x="45"/>
+        <item x="46"/>
         <item x="39"/>
         <item x="40"/>
         <item x="41"/>
         <item x="42"/>
         <item x="43"/>
         <item x="44"/>
+        <item x="45"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="643">
-        <item x="333"/>
-        <item m="1" x="334"/>
-        <item m="1" x="335"/>
-        <item m="1" x="336"/>
-        <item m="1" x="337"/>
+      <items count="647">
+        <item x="337"/>
         <item m="1" x="338"/>
         <item m="1" x="339"/>
         <item m="1" x="340"/>
@@ -6095,14 +5962,18 @@
         <item m="1" x="633"/>
         <item m="1" x="634"/>
         <item m="1" x="635"/>
-        <item x="314"/>
         <item m="1" x="636"/>
         <item m="1" x="637"/>
         <item m="1" x="638"/>
         <item m="1" x="639"/>
+        <item x="314"/>
         <item m="1" x="640"/>
+        <item m="1" x="641"/>
+        <item m="1" x="642"/>
+        <item m="1" x="643"/>
+        <item m="1" x="644"/>
         <item x="9"/>
-        <item m="1" x="641"/>
+        <item m="1" x="645"/>
         <item x="286"/>
         <item x="287"/>
         <item x="288"/>
@@ -6434,6 +6305,10 @@
         <item x="330"/>
         <item x="331"/>
         <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -6502,6 +6377,179 @@
     <pageField fld="1" hier="-1"/>
     <pageField fld="3" hier="-1"/>
   </pageFields>
+  <dataFields count="2">
+    <dataField name="Count of Winner1" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Model" fld="8" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{80C3D042-980E-40EE-B50F-CF37801A1A1D}" name="PivotTable3" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="L3:O34" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
+  <pivotFields count="10">
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="9">
+        <item h="1" x="7"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" numFmtId="14" outline="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="10">
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="2"/>
+        <item x="6"/>
+        <item m="1" x="8"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="31">
+    <i>
+      <x v="1"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i t="default">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i t="default">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i t="default">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
   <dataFields count="2">
     <dataField name="Count of Winner1" fld="2" subtotal="count" baseField="0" baseItem="0"/>
     <dataField name="Sum of Model" fld="8" baseField="0" baseItem="0"/>
@@ -6817,24 +6865,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>79</v>
       </c>
@@ -6842,7 +6890,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -6850,7 +6898,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -6873,7 +6921,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="L4" t="s">
         <v>86</v>
       </c>
@@ -6891,7 +6939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>52</v>
       </c>
@@ -6926,11 +6974,11 @@
         <v>4</v>
       </c>
       <c r="P5" s="4">
-        <f t="shared" ref="P5:P32" si="0">O5/N5</f>
+        <f t="shared" ref="P5:P33" si="0">O5/N5</f>
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>61</v>
       </c>
@@ -6946,7 +6994,7 @@
       </c>
       <c r="E6" s="7">
         <f>SUM(B10:B12)</f>
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F6" s="5">
         <f>SUM(B6:B9)</f>
@@ -6974,7 +7022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>50</v>
       </c>
@@ -6990,11 +7038,11 @@
       </c>
       <c r="E7" s="7">
         <f>SUM(C10:C12)</f>
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F7" s="5">
         <f>SUM(C6:C9)</f>
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G7" s="11">
         <f>SUM(C6:C8)</f>
@@ -7018,7 +7066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>93</v>
       </c>
@@ -7034,11 +7082,11 @@
       </c>
       <c r="E8" s="8">
         <f>E7/E6</f>
-        <v>0.55555555555555558</v>
+        <v>0.5625</v>
       </c>
       <c r="F8" s="6">
         <f>F7/F6</f>
-        <v>0.69473684210526321</v>
+        <v>0.68421052631578949</v>
       </c>
       <c r="G8" s="12">
         <f>G7/G6</f>
@@ -7062,7 +7110,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>94</v>
       </c>
@@ -7070,11 +7118,11 @@
         <v>41</v>
       </c>
       <c r="C9" s="16">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" si="1"/>
-        <v>0.68292682926829273</v>
+        <v>0.65853658536585369</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>107</v>
@@ -7105,7 +7153,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>51</v>
       </c>
@@ -7121,19 +7169,19 @@
       </c>
       <c r="E10" s="8">
         <f>E6/$B$13</f>
-        <v>0.72622478386167144</v>
+        <v>0.72934472934472938</v>
       </c>
       <c r="F10" s="6">
         <f t="shared" ref="F10:H10" si="2">F6/$B$13</f>
-        <v>0.2737752161383285</v>
+        <v>0.27065527065527067</v>
       </c>
       <c r="G10" s="12">
         <f t="shared" si="2"/>
-        <v>0.15561959654178675</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="H10" s="10">
         <f t="shared" si="2"/>
-        <v>4.3227665706051875E-2</v>
+        <v>4.2735042735042736E-2</v>
       </c>
       <c r="M10" t="s">
         <v>93</v>
@@ -7149,19 +7197,19 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B11" s="16">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C11" s="16">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" si="1"/>
-        <v>0.52777777777777779</v>
+        <v>0.54054054054054057</v>
       </c>
       <c r="M11" t="s">
         <v>50</v>
@@ -7177,19 +7225,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B12" s="16">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C12" s="16">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" si="1"/>
-        <v>0.53521126760563376</v>
+        <v>0.54794520547945202</v>
       </c>
       <c r="L12" t="s">
         <v>101</v>
@@ -7205,19 +7253,19 @@
         <v>0.46666666666666667</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B13" s="16">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="C13" s="16">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" si="1"/>
-        <v>0.59365994236311237</v>
+        <v>0.59544159544159547</v>
       </c>
       <c r="L13" t="s">
         <v>88</v>
@@ -7236,7 +7284,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="M14" t="s">
         <v>93</v>
       </c>
@@ -7251,7 +7299,7 @@
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="M15" t="s">
         <v>50</v>
       </c>
@@ -7266,7 +7314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="L16" t="s">
         <v>102</v>
       </c>
@@ -7281,7 +7329,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="17" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L17" t="s">
         <v>89</v>
       </c>
@@ -7299,7 +7347,7 @@
         <v>0.55555555555555558</v>
       </c>
     </row>
-    <row r="18" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="12:16" x14ac:dyDescent="0.25">
       <c r="M18" t="s">
         <v>93</v>
       </c>
@@ -7314,7 +7362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="12:16" x14ac:dyDescent="0.25">
       <c r="M19" t="s">
         <v>50</v>
       </c>
@@ -7329,7 +7377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="12:16" x14ac:dyDescent="0.25">
       <c r="M20" t="s">
         <v>61</v>
       </c>
@@ -7344,7 +7392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L21" t="s">
         <v>103</v>
       </c>
@@ -7359,7 +7407,7 @@
         <v>0.77777777777777779</v>
       </c>
     </row>
-    <row r="22" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L22" t="s">
         <v>91</v>
       </c>
@@ -7377,7 +7425,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="12:16" x14ac:dyDescent="0.25">
       <c r="M23" t="s">
         <v>93</v>
       </c>
@@ -7392,7 +7440,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="24" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="12:16" x14ac:dyDescent="0.25">
       <c r="M24" t="s">
         <v>50</v>
       </c>
@@ -7407,7 +7455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L25" t="s">
         <v>104</v>
       </c>
@@ -7422,7 +7470,7 @@
         <v>0.69230769230769229</v>
       </c>
     </row>
-    <row r="26" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L26" t="s">
         <v>90</v>
       </c>
@@ -7440,7 +7488,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="27" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="12:16" x14ac:dyDescent="0.25">
       <c r="M27" t="s">
         <v>93</v>
       </c>
@@ -7455,7 +7503,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="28" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="12:16" x14ac:dyDescent="0.25">
       <c r="M28" t="s">
         <v>61</v>
       </c>
@@ -7470,7 +7518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L29" t="s">
         <v>105</v>
       </c>
@@ -7485,7 +7533,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="30" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L30" t="s">
         <v>99</v>
       </c>
@@ -7496,14 +7544,14 @@
         <v>2</v>
       </c>
       <c r="O30" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P30" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="12:16" x14ac:dyDescent="0.35">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="12:16" x14ac:dyDescent="0.25">
       <c r="M31" t="s">
         <v>93</v>
       </c>
@@ -7518,7 +7566,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="32" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="12:16" x14ac:dyDescent="0.25">
       <c r="M32" t="s">
         <v>50</v>
       </c>
@@ -7533,7 +7581,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L33" t="s">
         <v>106</v>
       </c>
@@ -7541,11 +7589,14 @@
         <v>10</v>
       </c>
       <c r="O33" s="16">
-        <v>8</v>
-      </c>
-      <c r="P33" s="4"/>
-    </row>
-    <row r="34" spans="12:16" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="P33" s="4">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="34" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L34" t="s">
         <v>53</v>
       </c>
@@ -7553,65 +7604,65 @@
         <v>95</v>
       </c>
       <c r="O34" s="16">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P34" s="4"/>
     </row>
-    <row r="35" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="12:16" x14ac:dyDescent="0.25">
       <c r="P35" s="4"/>
     </row>
-    <row r="36" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="12:16" x14ac:dyDescent="0.25">
       <c r="P36" s="4"/>
     </row>
-    <row r="37" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="12:16" x14ac:dyDescent="0.25">
       <c r="P37" s="4"/>
     </row>
-    <row r="38" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="12:16" x14ac:dyDescent="0.25">
       <c r="P38" s="4"/>
     </row>
-    <row r="39" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="12:16" x14ac:dyDescent="0.25">
       <c r="P39" s="4"/>
     </row>
-    <row r="40" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="12:16" x14ac:dyDescent="0.25">
       <c r="P40" s="4"/>
     </row>
-    <row r="41" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="12:16" x14ac:dyDescent="0.25">
       <c r="P41" s="4"/>
     </row>
-    <row r="42" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="12:16" x14ac:dyDescent="0.25">
       <c r="P42" s="4"/>
     </row>
-    <row r="43" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="12:16" x14ac:dyDescent="0.25">
       <c r="P43" s="4"/>
     </row>
-    <row r="44" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="44" spans="12:16" x14ac:dyDescent="0.25">
       <c r="P44" s="4"/>
     </row>
-    <row r="45" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="45" spans="12:16" x14ac:dyDescent="0.25">
       <c r="P45" s="4"/>
     </row>
-    <row r="46" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="46" spans="12:16" x14ac:dyDescent="0.25">
       <c r="P46" s="4"/>
     </row>
-    <row r="47" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="47" spans="12:16" x14ac:dyDescent="0.25">
       <c r="P47" s="4"/>
     </row>
-    <row r="48" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="48" spans="12:16" x14ac:dyDescent="0.25">
       <c r="P48" s="4"/>
     </row>
-    <row r="49" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="49" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P49" s="4"/>
     </row>
-    <row r="50" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="50" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P50" s="4"/>
     </row>
-    <row r="51" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="51" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P51" s="4"/>
     </row>
-    <row r="52" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="52" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P52" s="4"/>
     </row>
-    <row r="53" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="53" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P53" s="4"/>
     </row>
   </sheetData>
@@ -7629,7 +7680,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P4:P32">
+  <conditionalFormatting sqref="P4:P33">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -7672,7 +7723,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>P4:P32</xm:sqref>
+          <xm:sqref>P4:P33</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -7682,27 +7733,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I348"/>
+  <dimension ref="A1:I352"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A322" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I344" sqref="I344"/>
+    <sheetView topLeftCell="A316" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I353" sqref="I353"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="43" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>79</v>
       </c>
@@ -7731,7 +7782,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -7760,7 +7811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>86</v>
       </c>
@@ -7789,7 +7840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>86</v>
       </c>
@@ -7818,7 +7869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>86</v>
       </c>
@@ -7847,7 +7898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>86</v>
       </c>
@@ -7876,7 +7927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>86</v>
       </c>
@@ -7905,7 +7956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -7934,7 +7985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -7963,7 +8014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>86</v>
       </c>
@@ -7992,7 +8043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>86</v>
       </c>
@@ -8021,7 +8072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>86</v>
       </c>
@@ -8050,7 +8101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>86</v>
       </c>
@@ -8079,7 +8130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>86</v>
       </c>
@@ -8108,7 +8159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>86</v>
       </c>
@@ -8137,7 +8188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>86</v>
       </c>
@@ -8166,7 +8217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>86</v>
       </c>
@@ -8195,7 +8246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>86</v>
       </c>
@@ -8224,7 +8275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>86</v>
       </c>
@@ -8253,7 +8304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>86</v>
       </c>
@@ -8282,7 +8333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>86</v>
       </c>
@@ -8311,7 +8362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>86</v>
       </c>
@@ -8340,7 +8391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>86</v>
       </c>
@@ -8369,7 +8420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>86</v>
       </c>
@@ -8398,7 +8449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>86</v>
       </c>
@@ -8427,7 +8478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>86</v>
       </c>
@@ -8456,7 +8507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>86</v>
       </c>
@@ -8485,7 +8536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>86</v>
       </c>
@@ -8514,7 +8565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>86</v>
       </c>
@@ -8543,7 +8594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>86</v>
       </c>
@@ -8572,7 +8623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>86</v>
       </c>
@@ -8601,7 +8652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>86</v>
       </c>
@@ -8630,7 +8681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>86</v>
       </c>
@@ -8659,7 +8710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>86</v>
       </c>
@@ -8688,7 +8739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>86</v>
       </c>
@@ -8717,7 +8768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>86</v>
       </c>
@@ -8746,7 +8797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>86</v>
       </c>
@@ -8775,7 +8826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>86</v>
       </c>
@@ -8804,7 +8855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>86</v>
       </c>
@@ -8833,7 +8884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>86</v>
       </c>
@@ -8862,7 +8913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>86</v>
       </c>
@@ -8891,7 +8942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>86</v>
       </c>
@@ -8920,7 +8971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>86</v>
       </c>
@@ -8949,7 +9000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>86</v>
       </c>
@@ -8978,7 +9029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>86</v>
       </c>
@@ -9007,7 +9058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>86</v>
       </c>
@@ -9036,7 +9087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>86</v>
       </c>
@@ -9065,7 +9116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>86</v>
       </c>
@@ -9094,7 +9145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>86</v>
       </c>
@@ -9123,7 +9174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>86</v>
       </c>
@@ -9152,7 +9203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>86</v>
       </c>
@@ -9181,7 +9232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>86</v>
       </c>
@@ -9210,7 +9261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>86</v>
       </c>
@@ -9239,7 +9290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>86</v>
       </c>
@@ -9268,7 +9319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>86</v>
       </c>
@@ -9297,7 +9348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>86</v>
       </c>
@@ -9326,7 +9377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>86</v>
       </c>
@@ -9355,7 +9406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>86</v>
       </c>
@@ -9384,7 +9435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>86</v>
       </c>
@@ -9413,7 +9464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>86</v>
       </c>
@@ -9442,7 +9493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>86</v>
       </c>
@@ -9471,7 +9522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>86</v>
       </c>
@@ -9500,7 +9551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>86</v>
       </c>
@@ -9529,7 +9580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>86</v>
       </c>
@@ -9558,7 +9609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>86</v>
       </c>
@@ -9587,7 +9638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>86</v>
       </c>
@@ -9616,7 +9667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>86</v>
       </c>
@@ -9645,7 +9696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>87</v>
       </c>
@@ -9674,7 +9725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>87</v>
       </c>
@@ -9703,7 +9754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>87</v>
       </c>
@@ -9732,7 +9783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>87</v>
       </c>
@@ -9761,7 +9812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>87</v>
       </c>
@@ -9790,7 +9841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>87</v>
       </c>
@@ -9819,7 +9870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>87</v>
       </c>
@@ -9848,7 +9899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>87</v>
       </c>
@@ -9877,7 +9928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>87</v>
       </c>
@@ -9906,7 +9957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>87</v>
       </c>
@@ -9935,7 +9986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>87</v>
       </c>
@@ -9964,7 +10015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>87</v>
       </c>
@@ -9993,7 +10044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>87</v>
       </c>
@@ -10022,7 +10073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>87</v>
       </c>
@@ -10051,7 +10102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>87</v>
       </c>
@@ -10080,7 +10131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>87</v>
       </c>
@@ -10109,7 +10160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>87</v>
       </c>
@@ -10138,7 +10189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>87</v>
       </c>
@@ -10167,7 +10218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>87</v>
       </c>
@@ -10196,7 +10247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>87</v>
       </c>
@@ -10225,7 +10276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -10254,7 +10305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -10283,7 +10334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>87</v>
       </c>
@@ -10312,7 +10363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>87</v>
       </c>
@@ -10341,7 +10392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>87</v>
       </c>
@@ -10370,7 +10421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>87</v>
       </c>
@@ -10399,7 +10450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>87</v>
       </c>
@@ -10428,7 +10479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>87</v>
       </c>
@@ -10457,7 +10508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>87</v>
       </c>
@@ -10486,7 +10537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>87</v>
       </c>
@@ -10515,7 +10566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>87</v>
       </c>
@@ -10544,7 +10595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>87</v>
       </c>
@@ -10573,7 +10624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>87</v>
       </c>
@@ -10602,7 +10653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>87</v>
       </c>
@@ -10631,7 +10682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>87</v>
       </c>
@@ -10660,7 +10711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>87</v>
       </c>
@@ -10689,7 +10740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>87</v>
       </c>
@@ -10718,7 +10769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>87</v>
       </c>
@@ -10747,7 +10798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>87</v>
       </c>
@@ -10776,7 +10827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>87</v>
       </c>
@@ -10805,7 +10856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>87</v>
       </c>
@@ -10834,7 +10885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>87</v>
       </c>
@@ -10863,7 +10914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>87</v>
       </c>
@@ -10892,7 +10943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>87</v>
       </c>
@@ -10921,7 +10972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>87</v>
       </c>
@@ -10950,7 +11001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>87</v>
       </c>
@@ -10979,7 +11030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>87</v>
       </c>
@@ -11008,7 +11059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>87</v>
       </c>
@@ -11037,7 +11088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>87</v>
       </c>
@@ -11066,7 +11117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>87</v>
       </c>
@@ -11095,7 +11146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>87</v>
       </c>
@@ -11124,7 +11175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>87</v>
       </c>
@@ -11153,7 +11204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>87</v>
       </c>
@@ -11182,7 +11233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>87</v>
       </c>
@@ -11211,7 +11262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>88</v>
       </c>
@@ -11240,7 +11291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>88</v>
       </c>
@@ -11269,7 +11320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>88</v>
       </c>
@@ -11298,7 +11349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>88</v>
       </c>
@@ -11327,7 +11378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>88</v>
       </c>
@@ -11356,7 +11407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>88</v>
       </c>
@@ -11385,7 +11436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>88</v>
       </c>
@@ -11414,7 +11465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>88</v>
       </c>
@@ -11443,7 +11494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>88</v>
       </c>
@@ -11472,7 +11523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>88</v>
       </c>
@@ -11501,7 +11552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>88</v>
       </c>
@@ -11530,7 +11581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>88</v>
       </c>
@@ -11559,7 +11610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>88</v>
       </c>
@@ -11588,7 +11639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>88</v>
       </c>
@@ -11617,7 +11668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>88</v>
       </c>
@@ -11646,7 +11697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>88</v>
       </c>
@@ -11675,7 +11726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>88</v>
       </c>
@@ -11704,7 +11755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>88</v>
       </c>
@@ -11733,7 +11784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>88</v>
       </c>
@@ -11762,7 +11813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>88</v>
       </c>
@@ -11791,7 +11842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>88</v>
       </c>
@@ -11820,7 +11871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>88</v>
       </c>
@@ -11849,7 +11900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>88</v>
       </c>
@@ -11878,7 +11929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>88</v>
       </c>
@@ -11907,7 +11958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>88</v>
       </c>
@@ -11936,7 +11987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>88</v>
       </c>
@@ -11965,7 +12016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>88</v>
       </c>
@@ -11994,7 +12045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>88</v>
       </c>
@@ -12023,7 +12074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>88</v>
       </c>
@@ -12052,7 +12103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>88</v>
       </c>
@@ -12081,7 +12132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>88</v>
       </c>
@@ -12110,7 +12161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>88</v>
       </c>
@@ -12139,7 +12190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>88</v>
       </c>
@@ -12168,7 +12219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>88</v>
       </c>
@@ -12197,7 +12248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>88</v>
       </c>
@@ -12226,7 +12277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>88</v>
       </c>
@@ -12255,7 +12306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>89</v>
       </c>
@@ -12284,7 +12335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>89</v>
       </c>
@@ -12313,7 +12364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>89</v>
       </c>
@@ -12342,7 +12393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>89</v>
       </c>
@@ -12371,7 +12422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>89</v>
       </c>
@@ -12400,7 +12451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>89</v>
       </c>
@@ -12429,7 +12480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>89</v>
       </c>
@@ -12458,7 +12509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>89</v>
       </c>
@@ -12487,7 +12538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>89</v>
       </c>
@@ -12516,7 +12567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>89</v>
       </c>
@@ -12545,7 +12596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>89</v>
       </c>
@@ -12574,7 +12625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>89</v>
       </c>
@@ -12603,7 +12654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>89</v>
       </c>
@@ -12632,7 +12683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>89</v>
       </c>
@@ -12661,7 +12712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>89</v>
       </c>
@@ -12690,7 +12741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>89</v>
       </c>
@@ -12719,7 +12770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>89</v>
       </c>
@@ -12748,7 +12799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>89</v>
       </c>
@@ -12777,7 +12828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>89</v>
       </c>
@@ -12806,7 +12857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>89</v>
       </c>
@@ -12835,7 +12886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>89</v>
       </c>
@@ -12864,7 +12915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>89</v>
       </c>
@@ -12893,7 +12944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>89</v>
       </c>
@@ -12922,7 +12973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>89</v>
       </c>
@@ -12951,7 +13002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>89</v>
       </c>
@@ -12980,7 +13031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>89</v>
       </c>
@@ -13009,7 +13060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>89</v>
       </c>
@@ -13038,7 +13089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>89</v>
       </c>
@@ -13067,7 +13118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>89</v>
       </c>
@@ -13096,7 +13147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>89</v>
       </c>
@@ -13125,7 +13176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>89</v>
       </c>
@@ -13154,7 +13205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>89</v>
       </c>
@@ -13183,7 +13234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>89</v>
       </c>
@@ -13212,7 +13263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>89</v>
       </c>
@@ -13241,7 +13292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>89</v>
       </c>
@@ -13270,7 +13321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>89</v>
       </c>
@@ -13299,7 +13350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>89</v>
       </c>
@@ -13328,7 +13379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>89</v>
       </c>
@@ -13357,7 +13408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>89</v>
       </c>
@@ -13386,7 +13437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>89</v>
       </c>
@@ -13415,7 +13466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>89</v>
       </c>
@@ -13444,7 +13495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>89</v>
       </c>
@@ -13473,7 +13524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>89</v>
       </c>
@@ -13502,7 +13553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>89</v>
       </c>
@@ -13531,7 +13582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>89</v>
       </c>
@@ -13560,7 +13611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>89</v>
       </c>
@@ -13589,7 +13640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>89</v>
       </c>
@@ -13618,7 +13669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>89</v>
       </c>
@@ -13647,7 +13698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>89</v>
       </c>
@@ -13676,7 +13727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>89</v>
       </c>
@@ -13705,7 +13756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>89</v>
       </c>
@@ -13734,7 +13785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>89</v>
       </c>
@@ -13763,7 +13814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>89</v>
       </c>
@@ -13792,7 +13843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>89</v>
       </c>
@@ -13821,7 +13872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>89</v>
       </c>
@@ -13850,7 +13901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>89</v>
       </c>
@@ -13879,7 +13930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>89</v>
       </c>
@@ -13908,7 +13959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>91</v>
       </c>
@@ -13937,7 +13988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>91</v>
       </c>
@@ -13966,7 +14017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>91</v>
       </c>
@@ -13995,7 +14046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>91</v>
       </c>
@@ -14024,7 +14075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>91</v>
       </c>
@@ -14053,7 +14104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>91</v>
       </c>
@@ -14082,7 +14133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>91</v>
       </c>
@@ -14111,7 +14162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>91</v>
       </c>
@@ -14140,7 +14191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>91</v>
       </c>
@@ -14169,7 +14220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>91</v>
       </c>
@@ -14198,7 +14249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>91</v>
       </c>
@@ -14227,7 +14278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>91</v>
       </c>
@@ -14256,7 +14307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>91</v>
       </c>
@@ -14285,7 +14336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>91</v>
       </c>
@@ -14314,7 +14365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>91</v>
       </c>
@@ -14343,7 +14394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>91</v>
       </c>
@@ -14372,7 +14423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>91</v>
       </c>
@@ -14401,7 +14452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>91</v>
       </c>
@@ -14430,7 +14481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>91</v>
       </c>
@@ -14459,7 +14510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>91</v>
       </c>
@@ -14488,7 +14539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>91</v>
       </c>
@@ -14517,7 +14568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>91</v>
       </c>
@@ -14546,7 +14597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>91</v>
       </c>
@@ -14575,7 +14626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>91</v>
       </c>
@@ -14604,7 +14655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>91</v>
       </c>
@@ -14633,7 +14684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>91</v>
       </c>
@@ -14662,7 +14713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>91</v>
       </c>
@@ -14691,7 +14742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>91</v>
       </c>
@@ -14720,7 +14771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>91</v>
       </c>
@@ -14749,7 +14800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>91</v>
       </c>
@@ -14778,7 +14829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>91</v>
       </c>
@@ -14807,7 +14858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>91</v>
       </c>
@@ -14836,7 +14887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>91</v>
       </c>
@@ -14865,7 +14916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>91</v>
       </c>
@@ -14894,7 +14945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>91</v>
       </c>
@@ -14923,7 +14974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>91</v>
       </c>
@@ -14952,7 +15003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>91</v>
       </c>
@@ -14981,7 +15032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>91</v>
       </c>
@@ -15010,7 +15061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>91</v>
       </c>
@@ -15039,7 +15090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>91</v>
       </c>
@@ -15068,7 +15119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>91</v>
       </c>
@@ -15097,7 +15148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>91</v>
       </c>
@@ -15126,7 +15177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>91</v>
       </c>
@@ -15155,7 +15206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>91</v>
       </c>
@@ -15184,7 +15235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>91</v>
       </c>
@@ -15213,7 +15264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>91</v>
       </c>
@@ -15242,7 +15293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>91</v>
       </c>
@@ -15271,7 +15322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>91</v>
       </c>
@@ -15300,7 +15351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>90</v>
       </c>
@@ -15329,7 +15380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>90</v>
       </c>
@@ -15358,7 +15409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>90</v>
       </c>
@@ -15387,7 +15438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>90</v>
       </c>
@@ -15416,7 +15467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>90</v>
       </c>
@@ -15445,7 +15496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>90</v>
       </c>
@@ -15474,7 +15525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>90</v>
       </c>
@@ -15503,7 +15554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>90</v>
       </c>
@@ -15532,7 +15583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>90</v>
       </c>
@@ -15561,7 +15612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>90</v>
       </c>
@@ -15590,7 +15641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>90</v>
       </c>
@@ -15619,7 +15670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>90</v>
       </c>
@@ -15648,7 +15699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>90</v>
       </c>
@@ -15677,7 +15728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>90</v>
       </c>
@@ -15706,7 +15757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>90</v>
       </c>
@@ -15735,7 +15786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>90</v>
       </c>
@@ -15764,7 +15815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>90</v>
       </c>
@@ -15793,7 +15844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>90</v>
       </c>
@@ -15822,7 +15873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>90</v>
       </c>
@@ -15851,7 +15902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>90</v>
       </c>
@@ -15880,7 +15931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>90</v>
       </c>
@@ -15909,7 +15960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>90</v>
       </c>
@@ -15938,7 +15989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>90</v>
       </c>
@@ -15967,7 +16018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>90</v>
       </c>
@@ -15996,7 +16047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>90</v>
       </c>
@@ -16025,7 +16076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>90</v>
       </c>
@@ -16054,7 +16105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>90</v>
       </c>
@@ -16083,7 +16134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>90</v>
       </c>
@@ -16112,7 +16163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>90</v>
       </c>
@@ -16141,7 +16192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>90</v>
       </c>
@@ -16170,7 +16221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>90</v>
       </c>
@@ -16199,7 +16250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>90</v>
       </c>
@@ -16228,7 +16279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>90</v>
       </c>
@@ -16257,7 +16308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>90</v>
       </c>
@@ -16286,7 +16337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>90</v>
       </c>
@@ -16315,7 +16366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>90</v>
       </c>
@@ -16344,7 +16395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>90</v>
       </c>
@@ -16373,7 +16424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>90</v>
       </c>
@@ -16402,7 +16453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>90</v>
       </c>
@@ -16431,7 +16482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>90</v>
       </c>
@@ -16460,7 +16511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>90</v>
       </c>
@@ -16489,7 +16540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>90</v>
       </c>
@@ -16518,7 +16569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>90</v>
       </c>
@@ -16547,7 +16598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>90</v>
       </c>
@@ -16576,7 +16627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>90</v>
       </c>
@@ -16605,7 +16656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>90</v>
       </c>
@@ -16634,7 +16685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>90</v>
       </c>
@@ -16663,7 +16714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>90</v>
       </c>
@@ -16692,7 +16743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>90</v>
       </c>
@@ -16721,7 +16772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>99</v>
       </c>
@@ -16750,7 +16801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>99</v>
       </c>
@@ -16779,7 +16830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>99</v>
       </c>
@@ -16808,7 +16859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>99</v>
       </c>
@@ -16837,7 +16888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>99</v>
       </c>
@@ -16866,7 +16917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>99</v>
       </c>
@@ -16895,7 +16946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>99</v>
       </c>
@@ -16924,7 +16975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>99</v>
       </c>
@@ -16953,7 +17004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>99</v>
       </c>
@@ -16982,7 +17033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>99</v>
       </c>
@@ -17011,7 +17062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>99</v>
       </c>
@@ -17040,7 +17091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>99</v>
       </c>
@@ -17069,7 +17120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>99</v>
       </c>
@@ -17098,7 +17149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>99</v>
       </c>
@@ -17127,7 +17178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>99</v>
       </c>
@@ -17156,7 +17207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>99</v>
       </c>
@@ -17185,7 +17236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>99</v>
       </c>
@@ -17214,7 +17265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>99</v>
       </c>
@@ -17243,7 +17294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>99</v>
       </c>
@@ -17272,7 +17323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>99</v>
       </c>
@@ -17301,7 +17352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>99</v>
       </c>
@@ -17330,7 +17381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>99</v>
       </c>
@@ -17359,7 +17410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>99</v>
       </c>
@@ -17388,7 +17439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>99</v>
       </c>
@@ -17417,7 +17468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>99</v>
       </c>
@@ -17446,7 +17497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>99</v>
       </c>
@@ -17475,7 +17526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>99</v>
       </c>
@@ -17504,7 +17555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>99</v>
       </c>
@@ -17533,7 +17584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>99</v>
       </c>
@@ -17558,11 +17609,11 @@
       <c r="H340" t="s">
         <v>93</v>
       </c>
-      <c r="I340">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I340" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>99</v>
       </c>
@@ -17591,7 +17642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>99</v>
       </c>
@@ -17620,7 +17671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>99</v>
       </c>
@@ -17645,11 +17696,11 @@
       <c r="H343" t="s">
         <v>94</v>
       </c>
-      <c r="I343">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I343" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>99</v>
       </c>
@@ -17678,7 +17729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>99</v>
       </c>
@@ -17707,7 +17758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>99</v>
       </c>
@@ -17736,7 +17787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>99</v>
       </c>
@@ -17765,7 +17816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>99</v>
       </c>
@@ -17792,6 +17843,122 @@
       </c>
       <c r="I348" s="15">
         <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>99</v>
+      </c>
+      <c r="B349" s="1">
+        <v>45317</v>
+      </c>
+      <c r="C349" t="s">
+        <v>23</v>
+      </c>
+      <c r="D349" s="14">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="E349" t="s">
+        <v>13</v>
+      </c>
+      <c r="F349" s="14">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="G349" t="s">
+        <v>24</v>
+      </c>
+      <c r="H349" t="s">
+        <v>84</v>
+      </c>
+      <c r="I349" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>99</v>
+      </c>
+      <c r="B350" s="1">
+        <v>45317</v>
+      </c>
+      <c r="C350" t="s">
+        <v>7</v>
+      </c>
+      <c r="D350" s="14">
+        <v>0.57720000000000005</v>
+      </c>
+      <c r="E350" t="s">
+        <v>40</v>
+      </c>
+      <c r="F350" s="14">
+        <v>0.42280000000000001</v>
+      </c>
+      <c r="G350" t="s">
+        <v>9</v>
+      </c>
+      <c r="H350" t="s">
+        <v>84</v>
+      </c>
+      <c r="I350" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>99</v>
+      </c>
+      <c r="B351" s="1">
+        <v>45317</v>
+      </c>
+      <c r="C351" t="s">
+        <v>25</v>
+      </c>
+      <c r="D351" s="14">
+        <v>0.54</v>
+      </c>
+      <c r="E351" t="s">
+        <v>29</v>
+      </c>
+      <c r="F351" s="14">
+        <v>0.46</v>
+      </c>
+      <c r="G351" t="s">
+        <v>60</v>
+      </c>
+      <c r="H351" t="s">
+        <v>85</v>
+      </c>
+      <c r="I351" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>99</v>
+      </c>
+      <c r="B352" s="1">
+        <v>45317</v>
+      </c>
+      <c r="C352" t="s">
+        <v>33</v>
+      </c>
+      <c r="D352" s="14">
+        <v>0.52969999999999995</v>
+      </c>
+      <c r="E352" t="s">
+        <v>66</v>
+      </c>
+      <c r="F352" s="14">
+        <v>0.4703</v>
+      </c>
+      <c r="G352" t="s">
+        <v>67</v>
+      </c>
+      <c r="H352" t="s">
+        <v>85</v>
+      </c>
+      <c r="I352" s="15">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/PDA Lifetime Predictions.xlsx
+++ b/PDA Lifetime Predictions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thigg\Desktop\Hockey Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06E59C8-4F8D-4C48-BEC0-0685C0309BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1215CCB4-BE6E-4F51-8C51-3F81BB560699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51480" yWindow="-195" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1836" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1906" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -878,7 +878,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -896,7 +896,6 @@
     <xf numFmtId="164" fontId="0" fillId="36" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
@@ -958,7 +957,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45317.326748726853" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="352" xr:uid="{D3A71568-3061-40C8-A74B-8B86C64C3ADC}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45318.336384259259" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="366" xr:uid="{D3A71568-3061-40C8-A74B-8B86C64C3ADC}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:I1048576" sheet="Predictions"/>
   </cacheSource>
@@ -976,7 +975,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2024-01-27T00:00:00" count="47">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2024-01-28T00:00:00" count="48">
         <d v="2023-12-09T00:00:00"/>
         <d v="2023-12-10T00:00:00"/>
         <d v="2023-12-11T00:00:00"/>
@@ -1023,6 +1022,7 @@
         <d v="2024-01-24T00:00:00"/>
         <d v="2024-01-25T00:00:00"/>
         <d v="2024-01-26T00:00:00"/>
+        <d v="2024-01-27T00:00:00"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -1030,7 +1030,7 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Winner Probability" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="0.5" maxValue="0.87610539305886403" count="646">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="0.5" maxValue="0.87610539305886403" count="658">
         <n v="0.87609999999999999"/>
         <n v="0.78059999999999996"/>
         <n v="0.65859999999999996"/>
@@ -1368,6 +1368,18 @@
         <n v="0.57720000000000005"/>
         <n v="0.54"/>
         <n v="0.52969999999999995"/>
+        <n v="0.77569999999999995"/>
+        <n v="0.76380000000000003"/>
+        <n v="0.74439999999999995"/>
+        <n v="0.70169999999999999"/>
+        <n v="0.68259999999999998"/>
+        <n v="0.65820000000000001"/>
+        <n v="0.64870000000000005"/>
+        <n v="0.60129999999999995"/>
+        <n v="0.59099999999999997"/>
+        <n v="0.5887"/>
+        <n v="0.51970000000000005"/>
+        <n v="0.50490000000000002"/>
         <m/>
         <n v="0.87610539305886403" u="1"/>
         <n v="0.78056782297496197" u="1"/>
@@ -1715,7 +1727,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="352">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="366">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -5542,7 +5554,7 @@
     <n v="0.41799999999999998"/>
     <s v="Playing At:  Seattle Kraken   Home"/>
     <x v="3"/>
-    <n v="1"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="6"/>
@@ -5564,7 +5576,7 @@
     <n v="0.46"/>
     <s v="Playing At:  New York Rangers   Home"/>
     <x v="4"/>
-    <n v="1"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="6"/>
@@ -5578,10 +5590,164 @@
     <n v="1"/>
   </r>
   <r>
+    <x v="6"/>
+    <x v="46"/>
+    <s v="Vancouver Canucks"/>
+    <x v="337"/>
+    <s v="Columbus Blue Jackets"/>
+    <n v="0.2243"/>
+    <s v="Playing At:  Vancouver Canucks   Home"/>
+    <x v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="46"/>
+    <s v="Carolina Hurricanes"/>
+    <x v="338"/>
+    <s v="Arizona Coyotes"/>
+    <n v="0.23619999999999999"/>
+    <s v="Playing At:  Carolina Hurricanes   Home"/>
+    <x v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="46"/>
+    <s v="Minnesota Wild"/>
+    <x v="339"/>
+    <s v="Anaheim Ducks"/>
+    <n v="0.25559999999999999"/>
+    <s v="Playing At:  Minnesota Wild   Home"/>
+    <x v="6"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="46"/>
+    <s v="Buffalo Sabres"/>
+    <x v="79"/>
+    <s v="San Jose Sharks"/>
+    <n v="0.27900000000000003"/>
+    <s v="Playing At:  San Jose Sharks   Home"/>
+    <x v="6"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="46"/>
+    <s v="Boston Bruins"/>
+    <x v="340"/>
+    <s v="Philadelphia Flyers"/>
+    <n v="0.29830000000000001"/>
+    <s v="Playing At:  Philadelphia Flyers   Home"/>
+    <x v="6"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="46"/>
+    <s v="New York Rangers"/>
+    <x v="341"/>
+    <s v="Ottawa Senators"/>
+    <n v="0.31740000000000002"/>
+    <s v="Playing At:  Ottawa Senators   Home"/>
+    <x v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="46"/>
+    <s v="Dallas Stars"/>
+    <x v="342"/>
+    <s v="Washington Capitals"/>
+    <n v="0.34179999999999999"/>
+    <s v="Playing At:  Dallas Stars   Home"/>
+    <x v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="46"/>
+    <s v="Calgary Flames"/>
+    <x v="343"/>
+    <s v="Chicago Blackhawks"/>
+    <n v="0.3513"/>
+    <s v="Playing At:  Calgary Flames   Home"/>
+    <x v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="46"/>
+    <s v="Pittsburgh Penguins"/>
+    <x v="344"/>
+    <s v="Montreal Canadiens"/>
+    <n v="0.3987"/>
+    <s v="Playing At:  Pittsburgh Penguins   Home"/>
+    <x v="2"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="46"/>
+    <s v="Winnipeg Jets"/>
+    <x v="345"/>
+    <s v="Toronto Maple Leafs"/>
+    <n v="0.40899999999999997"/>
+    <s v="Playing At:  Winnipeg Jets   Home"/>
+    <x v="3"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="46"/>
+    <s v="Vegas Golden Knights"/>
+    <x v="346"/>
+    <s v="Detroit Red Wings"/>
+    <n v="0.4113"/>
+    <s v="Playing At:  Detroit Red Wings   Home"/>
+    <x v="3"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="46"/>
+    <s v="Edmonton Oilers"/>
+    <x v="172"/>
+    <s v="Nashville Predators"/>
+    <n v="0.43959999999999999"/>
+    <s v="Playing At:  Edmonton Oilers   Home"/>
+    <x v="3"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="46"/>
+    <s v="New Jersey Devils"/>
+    <x v="347"/>
+    <s v="Tampa Bay Lightning"/>
+    <n v="0.4803"/>
+    <s v="Playing At:  Tampa Bay Lightning   Home"/>
+    <x v="4"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="46"/>
+    <s v="Florida Panthers"/>
+    <x v="348"/>
+    <s v="New York Islanders"/>
+    <n v="0.49509999999999998"/>
+    <s v="Playing At:  New York Islanders   Home"/>
+    <x v="4"/>
+    <n v="1"/>
+  </r>
+  <r>
     <x v="7"/>
-    <x v="46"/>
+    <x v="47"/>
     <m/>
-    <x v="337"/>
+    <x v="349"/>
     <m/>
     <m/>
     <m/>
@@ -5609,7 +5775,7 @@
       </items>
     </pivotField>
     <pivotField axis="axisPage" showAll="0">
-      <items count="48">
+      <items count="49">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -5649,7 +5815,7 @@
         <item x="36"/>
         <item x="37"/>
         <item x="38"/>
-        <item x="46"/>
+        <item x="47"/>
         <item x="39"/>
         <item x="40"/>
         <item x="41"/>
@@ -5657,25 +5823,14 @@
         <item x="43"/>
         <item x="44"/>
         <item x="45"/>
+        <item x="46"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="647">
-        <item x="337"/>
-        <item m="1" x="338"/>
-        <item m="1" x="339"/>
-        <item m="1" x="340"/>
-        <item m="1" x="341"/>
-        <item m="1" x="342"/>
-        <item m="1" x="343"/>
-        <item m="1" x="344"/>
-        <item m="1" x="345"/>
-        <item m="1" x="346"/>
-        <item m="1" x="347"/>
-        <item m="1" x="348"/>
-        <item m="1" x="349"/>
+      <items count="659">
+        <item x="349"/>
         <item m="1" x="350"/>
         <item m="1" x="351"/>
         <item m="1" x="352"/>
@@ -5966,14 +6121,26 @@
         <item m="1" x="637"/>
         <item m="1" x="638"/>
         <item m="1" x="639"/>
-        <item x="314"/>
         <item m="1" x="640"/>
         <item m="1" x="641"/>
         <item m="1" x="642"/>
         <item m="1" x="643"/>
         <item m="1" x="644"/>
+        <item m="1" x="645"/>
+        <item m="1" x="646"/>
+        <item m="1" x="647"/>
+        <item m="1" x="648"/>
+        <item m="1" x="649"/>
+        <item m="1" x="650"/>
+        <item m="1" x="651"/>
+        <item x="314"/>
+        <item m="1" x="652"/>
+        <item m="1" x="653"/>
+        <item m="1" x="654"/>
+        <item m="1" x="655"/>
+        <item m="1" x="656"/>
         <item x="9"/>
-        <item m="1" x="645"/>
+        <item m="1" x="657"/>
         <item x="286"/>
         <item x="287"/>
         <item x="288"/>
@@ -6309,6 +6476,18 @@
         <item x="334"/>
         <item x="335"/>
         <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -6567,9 +6746,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6607,7 +6786,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -6713,7 +6892,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6855,7 +7034,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6866,7 +7045,7 @@
   <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6928,10 +7107,10 @@
       <c r="M4" t="s">
         <v>94</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="15">
         <v>5</v>
       </c>
-      <c r="O4" s="16">
+      <c r="O4" s="15">
         <v>5</v>
       </c>
       <c r="P4" s="4">
@@ -6967,10 +7146,10 @@
       <c r="M5" t="s">
         <v>93</v>
       </c>
-      <c r="N5" s="16">
+      <c r="N5" s="15">
         <v>7</v>
       </c>
-      <c r="O5" s="16">
+      <c r="O5" s="15">
         <v>4</v>
       </c>
       <c r="P5" s="4">
@@ -6982,10 +7161,10 @@
       <c r="A6" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="15">
         <v>4</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="15">
         <v>4</v>
       </c>
       <c r="D6" s="4">
@@ -6994,15 +7173,15 @@
       </c>
       <c r="E6" s="7">
         <f>SUM(B10:B12)</f>
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="F6" s="5">
         <f>SUM(B6:B9)</f>
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="G6" s="11">
         <f>SUM(B6:B8)</f>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H6" s="9">
         <f>SUM(B6:B7)</f>
@@ -7011,10 +7190,10 @@
       <c r="M6" t="s">
         <v>50</v>
       </c>
-      <c r="N6" s="16">
+      <c r="N6" s="15">
         <v>2</v>
       </c>
-      <c r="O6" s="16">
+      <c r="O6" s="15">
         <v>2</v>
       </c>
       <c r="P6" s="4">
@@ -7026,10 +7205,10 @@
       <c r="A7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="15">
         <v>11</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="15">
         <v>10</v>
       </c>
       <c r="D7" s="4">
@@ -7038,15 +7217,15 @@
       </c>
       <c r="E7" s="7">
         <f>SUM(C10:C12)</f>
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F7" s="5">
         <f>SUM(C6:C9)</f>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G7" s="11">
         <f>SUM(C6:C8)</f>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H7" s="9">
         <f>SUM(C6:C7)</f>
@@ -7055,10 +7234,10 @@
       <c r="M7" t="s">
         <v>61</v>
       </c>
-      <c r="N7" s="16">
-        <v>1</v>
-      </c>
-      <c r="O7" s="16">
+      <c r="N7" s="15">
+        <v>1</v>
+      </c>
+      <c r="O7" s="15">
         <v>1</v>
       </c>
       <c r="P7" s="4">
@@ -7070,27 +7249,27 @@
       <c r="A8" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B8" s="16">
-        <v>39</v>
-      </c>
-      <c r="C8" s="16">
-        <v>24</v>
+      <c r="B8" s="15">
+        <v>41</v>
+      </c>
+      <c r="C8" s="15">
+        <v>26</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" si="1"/>
-        <v>0.61538461538461542</v>
+        <v>0.63414634146341464</v>
       </c>
       <c r="E8" s="8">
         <f>E7/E6</f>
-        <v>0.5625</v>
+        <v>0.55849056603773584</v>
       </c>
       <c r="F8" s="6">
         <f>F7/F6</f>
-        <v>0.68421052631578949</v>
+        <v>0.7</v>
       </c>
       <c r="G8" s="12">
         <f>G7/G6</f>
-        <v>0.70370370370370372</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H8" s="10">
         <f>H7/H6</f>
@@ -7099,10 +7278,10 @@
       <c r="L8" t="s">
         <v>100</v>
       </c>
-      <c r="N8" s="16">
+      <c r="N8" s="15">
         <v>15</v>
       </c>
-      <c r="O8" s="16">
+      <c r="O8" s="15">
         <v>12</v>
       </c>
       <c r="P8" s="4">
@@ -7114,15 +7293,15 @@
       <c r="A9" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="16">
-        <v>41</v>
-      </c>
-      <c r="C9" s="16">
-        <v>27</v>
+      <c r="B9" s="15">
+        <v>44</v>
+      </c>
+      <c r="C9" s="15">
+        <v>30</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" si="1"/>
-        <v>0.65853658536585369</v>
+        <v>0.68181818181818177</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>107</v>
@@ -7142,10 +7321,10 @@
       <c r="M9" t="s">
         <v>94</v>
       </c>
-      <c r="N9" s="16">
+      <c r="N9" s="15">
         <v>8</v>
       </c>
-      <c r="O9" s="16">
+      <c r="O9" s="15">
         <v>5</v>
       </c>
       <c r="P9" s="4">
@@ -7157,39 +7336,39 @@
       <c r="A10" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="16">
-        <v>109</v>
-      </c>
-      <c r="C10" s="16">
-        <v>64</v>
+      <c r="B10" s="15">
+        <v>113</v>
+      </c>
+      <c r="C10" s="15">
+        <v>67</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" si="1"/>
-        <v>0.58715596330275233</v>
+        <v>0.59292035398230092</v>
       </c>
       <c r="E10" s="8">
         <f>E6/$B$13</f>
-        <v>0.72934472934472938</v>
+        <v>0.72602739726027399</v>
       </c>
       <c r="F10" s="6">
         <f t="shared" ref="F10:H10" si="2">F6/$B$13</f>
-        <v>0.27065527065527067</v>
+        <v>0.27397260273972601</v>
       </c>
       <c r="G10" s="12">
         <f t="shared" si="2"/>
-        <v>0.15384615384615385</v>
+        <v>0.15342465753424658</v>
       </c>
       <c r="H10" s="10">
         <f t="shared" si="2"/>
-        <v>4.2735042735042736E-2</v>
+        <v>4.1095890410958902E-2</v>
       </c>
       <c r="M10" t="s">
         <v>93</v>
       </c>
-      <c r="N10" s="16">
+      <c r="N10" s="15">
         <v>6</v>
       </c>
-      <c r="O10" s="16">
+      <c r="O10" s="15">
         <v>1</v>
       </c>
       <c r="P10" s="4">
@@ -7201,23 +7380,23 @@
       <c r="A11" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="16">
-        <v>74</v>
-      </c>
-      <c r="C11" s="16">
-        <v>40</v>
+      <c r="B11" s="15">
+        <v>77</v>
+      </c>
+      <c r="C11" s="15">
+        <v>41</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" si="1"/>
-        <v>0.54054054054054057</v>
+        <v>0.53246753246753242</v>
       </c>
       <c r="M11" t="s">
         <v>50</v>
       </c>
-      <c r="N11" s="16">
-        <v>1</v>
-      </c>
-      <c r="O11" s="16">
+      <c r="N11" s="15">
+        <v>1</v>
+      </c>
+      <c r="O11" s="15">
         <v>1</v>
       </c>
       <c r="P11" s="4">
@@ -7229,23 +7408,23 @@
       <c r="A12" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="16">
-        <v>73</v>
-      </c>
-      <c r="C12" s="16">
+      <c r="B12" s="15">
+        <v>75</v>
+      </c>
+      <c r="C12" s="15">
         <v>40</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" si="1"/>
-        <v>0.54794520547945202</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="L12" t="s">
         <v>101</v>
       </c>
-      <c r="N12" s="16">
+      <c r="N12" s="15">
         <v>15</v>
       </c>
-      <c r="O12" s="16">
+      <c r="O12" s="15">
         <v>7</v>
       </c>
       <c r="P12" s="4">
@@ -7257,15 +7436,15 @@
       <c r="A13" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="16">
-        <v>351</v>
-      </c>
-      <c r="C13" s="16">
-        <v>209</v>
+      <c r="B13" s="15">
+        <v>365</v>
+      </c>
+      <c r="C13" s="15">
+        <v>218</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" si="1"/>
-        <v>0.59544159544159547</v>
+        <v>0.59726027397260273</v>
       </c>
       <c r="L13" t="s">
         <v>88</v>
@@ -7273,10 +7452,10 @@
       <c r="M13" t="s">
         <v>94</v>
       </c>
-      <c r="N13" s="16">
+      <c r="N13" s="15">
         <v>3</v>
       </c>
-      <c r="O13" s="16">
+      <c r="O13" s="15">
         <v>2</v>
       </c>
       <c r="P13" s="4">
@@ -7288,10 +7467,10 @@
       <c r="M14" t="s">
         <v>93</v>
       </c>
-      <c r="N14" s="16">
+      <c r="N14" s="15">
         <v>7</v>
       </c>
-      <c r="O14" s="16">
+      <c r="O14" s="15">
         <v>4</v>
       </c>
       <c r="P14" s="4">
@@ -7303,10 +7482,10 @@
       <c r="M15" t="s">
         <v>50</v>
       </c>
-      <c r="N15" s="16">
+      <c r="N15" s="15">
         <v>2</v>
       </c>
-      <c r="O15" s="16">
+      <c r="O15" s="15">
         <v>2</v>
       </c>
       <c r="P15" s="4">
@@ -7318,10 +7497,10 @@
       <c r="L16" t="s">
         <v>102</v>
       </c>
-      <c r="N16" s="16">
+      <c r="N16" s="15">
         <v>12</v>
       </c>
-      <c r="O16" s="16">
+      <c r="O16" s="15">
         <v>8</v>
       </c>
       <c r="P16" s="4">
@@ -7336,10 +7515,10 @@
       <c r="M17" t="s">
         <v>94</v>
       </c>
-      <c r="N17" s="16">
+      <c r="N17" s="15">
         <v>9</v>
       </c>
-      <c r="O17" s="16">
+      <c r="O17" s="15">
         <v>5</v>
       </c>
       <c r="P17" s="4">
@@ -7351,10 +7530,10 @@
       <c r="M18" t="s">
         <v>93</v>
       </c>
-      <c r="N18" s="16">
+      <c r="N18" s="15">
         <v>4</v>
       </c>
-      <c r="O18" s="16">
+      <c r="O18" s="15">
         <v>4</v>
       </c>
       <c r="P18" s="4">
@@ -7366,10 +7545,10 @@
       <c r="M19" t="s">
         <v>50</v>
       </c>
-      <c r="N19" s="16">
+      <c r="N19" s="15">
         <v>3</v>
       </c>
-      <c r="O19" s="16">
+      <c r="O19" s="15">
         <v>3</v>
       </c>
       <c r="P19" s="4">
@@ -7381,10 +7560,10 @@
       <c r="M20" t="s">
         <v>61</v>
       </c>
-      <c r="N20" s="16">
+      <c r="N20" s="15">
         <v>2</v>
       </c>
-      <c r="O20" s="16">
+      <c r="O20" s="15">
         <v>2</v>
       </c>
       <c r="P20" s="4">
@@ -7396,10 +7575,10 @@
       <c r="L21" t="s">
         <v>103</v>
       </c>
-      <c r="N21" s="16">
+      <c r="N21" s="15">
         <v>18</v>
       </c>
-      <c r="O21" s="16">
+      <c r="O21" s="15">
         <v>14</v>
       </c>
       <c r="P21" s="4">
@@ -7414,10 +7593,10 @@
       <c r="M22" t="s">
         <v>94</v>
       </c>
-      <c r="N22" s="16">
+      <c r="N22" s="15">
         <v>6</v>
       </c>
-      <c r="O22" s="16">
+      <c r="O22" s="15">
         <v>3</v>
       </c>
       <c r="P22" s="4">
@@ -7429,10 +7608,10 @@
       <c r="M23" t="s">
         <v>93</v>
       </c>
-      <c r="N23" s="16">
+      <c r="N23" s="15">
         <v>6</v>
       </c>
-      <c r="O23" s="16">
+      <c r="O23" s="15">
         <v>5</v>
       </c>
       <c r="P23" s="4">
@@ -7444,10 +7623,10 @@
       <c r="M24" t="s">
         <v>50</v>
       </c>
-      <c r="N24" s="16">
-        <v>1</v>
-      </c>
-      <c r="O24" s="16">
+      <c r="N24" s="15">
+        <v>1</v>
+      </c>
+      <c r="O24" s="15">
         <v>1</v>
       </c>
       <c r="P24" s="4">
@@ -7459,10 +7638,10 @@
       <c r="L25" t="s">
         <v>104</v>
       </c>
-      <c r="N25" s="16">
+      <c r="N25" s="15">
         <v>13</v>
       </c>
-      <c r="O25" s="16">
+      <c r="O25" s="15">
         <v>9</v>
       </c>
       <c r="P25" s="4">
@@ -7477,10 +7656,10 @@
       <c r="M26" t="s">
         <v>94</v>
       </c>
-      <c r="N26" s="16">
+      <c r="N26" s="15">
         <v>8</v>
       </c>
-      <c r="O26" s="16">
+      <c r="O26" s="15">
         <v>6</v>
       </c>
       <c r="P26" s="4">
@@ -7492,10 +7671,10 @@
       <c r="M27" t="s">
         <v>93</v>
       </c>
-      <c r="N27" s="16">
+      <c r="N27" s="15">
         <v>3</v>
       </c>
-      <c r="O27" s="16">
+      <c r="O27" s="15">
         <v>1</v>
       </c>
       <c r="P27" s="4">
@@ -7507,10 +7686,10 @@
       <c r="M28" t="s">
         <v>61</v>
       </c>
-      <c r="N28" s="16">
-        <v>1</v>
-      </c>
-      <c r="O28" s="16">
+      <c r="N28" s="15">
+        <v>1</v>
+      </c>
+      <c r="O28" s="15">
         <v>1</v>
       </c>
       <c r="P28" s="4">
@@ -7522,10 +7701,10 @@
       <c r="L29" t="s">
         <v>105</v>
       </c>
-      <c r="N29" s="16">
+      <c r="N29" s="15">
         <v>12</v>
       </c>
-      <c r="O29" s="16">
+      <c r="O29" s="15">
         <v>8</v>
       </c>
       <c r="P29" s="4">
@@ -7540,40 +7719,40 @@
       <c r="M30" t="s">
         <v>94</v>
       </c>
-      <c r="N30" s="16">
-        <v>2</v>
-      </c>
-      <c r="O30" s="16">
-        <v>1</v>
+      <c r="N30" s="15">
+        <v>5</v>
+      </c>
+      <c r="O30" s="15">
+        <v>4</v>
       </c>
       <c r="P30" s="4">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="31" spans="12:16" x14ac:dyDescent="0.25">
       <c r="M31" t="s">
         <v>93</v>
       </c>
-      <c r="N31" s="16">
-        <v>6</v>
-      </c>
-      <c r="O31" s="16">
-        <v>5</v>
+      <c r="N31" s="15">
+        <v>8</v>
+      </c>
+      <c r="O31" s="15">
+        <v>7</v>
       </c>
       <c r="P31" s="4">
         <f t="shared" si="0"/>
-        <v>0.83333333333333337</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="32" spans="12:16" x14ac:dyDescent="0.25">
       <c r="M32" t="s">
         <v>50</v>
       </c>
-      <c r="N32" s="16">
+      <c r="N32" s="15">
         <v>2</v>
       </c>
-      <c r="O32" s="16">
+      <c r="O32" s="15">
         <v>1</v>
       </c>
       <c r="P32" s="4">
@@ -7585,26 +7764,26 @@
       <c r="L33" t="s">
         <v>106</v>
       </c>
-      <c r="N33" s="16">
-        <v>10</v>
-      </c>
-      <c r="O33" s="16">
-        <v>7</v>
+      <c r="N33" s="15">
+        <v>15</v>
+      </c>
+      <c r="O33" s="15">
+        <v>12</v>
       </c>
       <c r="P33" s="4">
         <f t="shared" si="0"/>
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="34" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L34" t="s">
         <v>53</v>
       </c>
-      <c r="N34" s="16">
-        <v>95</v>
-      </c>
-      <c r="O34" s="16">
-        <v>65</v>
+      <c r="N34" s="15">
+        <v>100</v>
+      </c>
+      <c r="O34" s="15">
+        <v>70</v>
       </c>
       <c r="P34" s="4"/>
     </row>
@@ -7733,10 +7912,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I352"/>
+  <dimension ref="A1:I366"/>
   <sheetViews>
-    <sheetView topLeftCell="A316" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I353" sqref="I353"/>
+    <sheetView topLeftCell="A325" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I356" sqref="I356"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17609,7 +17788,7 @@
       <c r="H340" t="s">
         <v>93</v>
       </c>
-      <c r="I340" s="15">
+      <c r="I340">
         <v>1</v>
       </c>
     </row>
@@ -17638,7 +17817,7 @@
       <c r="H341" t="s">
         <v>93</v>
       </c>
-      <c r="I341" s="15">
+      <c r="I341">
         <v>1</v>
       </c>
     </row>
@@ -17667,7 +17846,7 @@
       <c r="H342" t="s">
         <v>94</v>
       </c>
-      <c r="I342" s="15">
+      <c r="I342">
         <v>1</v>
       </c>
     </row>
@@ -17696,7 +17875,7 @@
       <c r="H343" t="s">
         <v>94</v>
       </c>
-      <c r="I343" s="15">
+      <c r="I343">
         <v>0</v>
       </c>
     </row>
@@ -17725,7 +17904,7 @@
       <c r="H344" t="s">
         <v>51</v>
       </c>
-      <c r="I344" s="15">
+      <c r="I344">
         <v>1</v>
       </c>
     </row>
@@ -17754,7 +17933,7 @@
       <c r="H345" t="s">
         <v>51</v>
       </c>
-      <c r="I345" s="15">
+      <c r="I345">
         <v>0</v>
       </c>
     </row>
@@ -17783,7 +17962,7 @@
       <c r="H346" t="s">
         <v>84</v>
       </c>
-      <c r="I346" s="15">
+      <c r="I346">
         <v>1</v>
       </c>
     </row>
@@ -17812,7 +17991,7 @@
       <c r="H347" t="s">
         <v>85</v>
       </c>
-      <c r="I347" s="15">
+      <c r="I347">
         <v>0</v>
       </c>
     </row>
@@ -17841,7 +18020,7 @@
       <c r="H348" t="s">
         <v>85</v>
       </c>
-      <c r="I348" s="15">
+      <c r="I348">
         <v>0</v>
       </c>
     </row>
@@ -17870,8 +18049,8 @@
       <c r="H349" t="s">
         <v>84</v>
       </c>
-      <c r="I349" s="15">
-        <v>1</v>
+      <c r="I349">
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.25">
@@ -17899,7 +18078,7 @@
       <c r="H350" t="s">
         <v>84</v>
       </c>
-      <c r="I350" s="15">
+      <c r="I350">
         <v>1</v>
       </c>
     </row>
@@ -17928,8 +18107,8 @@
       <c r="H351" t="s">
         <v>85</v>
       </c>
-      <c r="I351" s="15">
-        <v>1</v>
+      <c r="I351">
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.25">
@@ -17957,7 +18136,413 @@
       <c r="H352" t="s">
         <v>85</v>
       </c>
-      <c r="I352" s="15">
+      <c r="I352">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>99</v>
+      </c>
+      <c r="B353" s="1">
+        <v>45318</v>
+      </c>
+      <c r="C353" t="s">
+        <v>42</v>
+      </c>
+      <c r="D353" s="14">
+        <v>0.77569999999999995</v>
+      </c>
+      <c r="E353" t="s">
+        <v>34</v>
+      </c>
+      <c r="F353" s="14">
+        <v>0.2243</v>
+      </c>
+      <c r="G353" t="s">
+        <v>44</v>
+      </c>
+      <c r="H353" t="s">
+        <v>93</v>
+      </c>
+      <c r="I353">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>99</v>
+      </c>
+      <c r="B354" s="1">
+        <v>45318</v>
+      </c>
+      <c r="C354" t="s">
+        <v>43</v>
+      </c>
+      <c r="D354" s="14">
+        <v>0.76380000000000003</v>
+      </c>
+      <c r="E354" t="s">
+        <v>5</v>
+      </c>
+      <c r="F354" s="14">
+        <v>0.23619999999999999</v>
+      </c>
+      <c r="G354" t="s">
+        <v>74</v>
+      </c>
+      <c r="H354" t="s">
+        <v>93</v>
+      </c>
+      <c r="I354">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>99</v>
+      </c>
+      <c r="B355" s="1">
+        <v>45318</v>
+      </c>
+      <c r="C355" t="s">
+        <v>58</v>
+      </c>
+      <c r="D355" s="14">
+        <v>0.74439999999999995</v>
+      </c>
+      <c r="E355" t="s">
+        <v>17</v>
+      </c>
+      <c r="F355" s="14">
+        <v>0.25559999999999999</v>
+      </c>
+      <c r="G355" t="s">
+        <v>72</v>
+      </c>
+      <c r="H355" t="s">
+        <v>94</v>
+      </c>
+      <c r="I355">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>99</v>
+      </c>
+      <c r="B356" s="1">
+        <v>45318</v>
+      </c>
+      <c r="C356" t="s">
+        <v>46</v>
+      </c>
+      <c r="D356" s="14">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="E356" t="s">
+        <v>56</v>
+      </c>
+      <c r="F356" s="14">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="G356" t="s">
+        <v>62</v>
+      </c>
+      <c r="H356" t="s">
+        <v>94</v>
+      </c>
+      <c r="I356">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>99</v>
+      </c>
+      <c r="B357" s="1">
+        <v>45318</v>
+      </c>
+      <c r="C357" t="s">
+        <v>4</v>
+      </c>
+      <c r="D357" s="14">
+        <v>0.70169999999999999</v>
+      </c>
+      <c r="E357" t="s">
+        <v>8</v>
+      </c>
+      <c r="F357" s="14">
+        <v>0.29830000000000001</v>
+      </c>
+      <c r="G357" t="s">
+        <v>73</v>
+      </c>
+      <c r="H357" t="s">
+        <v>94</v>
+      </c>
+      <c r="I357">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>99</v>
+      </c>
+      <c r="B358" s="1">
+        <v>45318</v>
+      </c>
+      <c r="C358" t="s">
+        <v>25</v>
+      </c>
+      <c r="D358" s="14">
+        <v>0.68259999999999998</v>
+      </c>
+      <c r="E358" t="s">
+        <v>36</v>
+      </c>
+      <c r="F358" s="14">
+        <v>0.31740000000000002</v>
+      </c>
+      <c r="G358" t="s">
+        <v>64</v>
+      </c>
+      <c r="H358" t="s">
+        <v>51</v>
+      </c>
+      <c r="I358">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>99</v>
+      </c>
+      <c r="B359" s="1">
+        <v>45318</v>
+      </c>
+      <c r="C359" t="s">
+        <v>28</v>
+      </c>
+      <c r="D359" s="14">
+        <v>0.65820000000000001</v>
+      </c>
+      <c r="E359" t="s">
+        <v>26</v>
+      </c>
+      <c r="F359" s="14">
+        <v>0.34179999999999999</v>
+      </c>
+      <c r="G359" t="s">
+        <v>30</v>
+      </c>
+      <c r="H359" t="s">
+        <v>51</v>
+      </c>
+      <c r="I359">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>99</v>
+      </c>
+      <c r="B360" s="1">
+        <v>45318</v>
+      </c>
+      <c r="C360" t="s">
+        <v>31</v>
+      </c>
+      <c r="D360" s="14">
+        <v>0.64870000000000005</v>
+      </c>
+      <c r="E360" t="s">
+        <v>14</v>
+      </c>
+      <c r="F360" s="14">
+        <v>0.3513</v>
+      </c>
+      <c r="G360" t="s">
+        <v>32</v>
+      </c>
+      <c r="H360" t="s">
+        <v>51</v>
+      </c>
+      <c r="I360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>99</v>
+      </c>
+      <c r="B361" s="1">
+        <v>45318</v>
+      </c>
+      <c r="C361" t="s">
+        <v>66</v>
+      </c>
+      <c r="D361" s="14">
+        <v>0.60129999999999995</v>
+      </c>
+      <c r="E361" t="s">
+        <v>45</v>
+      </c>
+      <c r="F361" s="14">
+        <v>0.3987</v>
+      </c>
+      <c r="G361" t="s">
+        <v>67</v>
+      </c>
+      <c r="H361" t="s">
+        <v>51</v>
+      </c>
+      <c r="I361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>99</v>
+      </c>
+      <c r="B362" s="1">
+        <v>45318</v>
+      </c>
+      <c r="C362" t="s">
+        <v>16</v>
+      </c>
+      <c r="D362" s="14">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="E362" t="s">
+        <v>19</v>
+      </c>
+      <c r="F362" s="14">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="G362" t="s">
+        <v>76</v>
+      </c>
+      <c r="H362" t="s">
+        <v>84</v>
+      </c>
+      <c r="I362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>99</v>
+      </c>
+      <c r="B363" s="1">
+        <v>45318</v>
+      </c>
+      <c r="C363" t="s">
+        <v>29</v>
+      </c>
+      <c r="D363" s="14">
+        <v>0.5887</v>
+      </c>
+      <c r="E363" t="s">
+        <v>37</v>
+      </c>
+      <c r="F363" s="14">
+        <v>0.4113</v>
+      </c>
+      <c r="G363" t="s">
+        <v>38</v>
+      </c>
+      <c r="H363" t="s">
+        <v>84</v>
+      </c>
+      <c r="I363">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>99</v>
+      </c>
+      <c r="B364" s="1">
+        <v>45318</v>
+      </c>
+      <c r="C364" t="s">
+        <v>10</v>
+      </c>
+      <c r="D364" s="14">
+        <v>0.56040000000000001</v>
+      </c>
+      <c r="E364" t="s">
+        <v>20</v>
+      </c>
+      <c r="F364" s="14">
+        <v>0.43959999999999999</v>
+      </c>
+      <c r="G364" t="s">
+        <v>12</v>
+      </c>
+      <c r="H364" t="s">
+        <v>84</v>
+      </c>
+      <c r="I364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>99</v>
+      </c>
+      <c r="B365" s="1">
+        <v>45318</v>
+      </c>
+      <c r="C365" t="s">
+        <v>11</v>
+      </c>
+      <c r="D365" s="14">
+        <v>0.51970000000000005</v>
+      </c>
+      <c r="E365" t="s">
+        <v>22</v>
+      </c>
+      <c r="F365" s="14">
+        <v>0.4803</v>
+      </c>
+      <c r="G365" t="s">
+        <v>77</v>
+      </c>
+      <c r="H365" t="s">
+        <v>85</v>
+      </c>
+      <c r="I365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>99</v>
+      </c>
+      <c r="B366" s="1">
+        <v>45318</v>
+      </c>
+      <c r="C366" t="s">
+        <v>33</v>
+      </c>
+      <c r="D366" s="14">
+        <v>0.50490000000000002</v>
+      </c>
+      <c r="E366" t="s">
+        <v>39</v>
+      </c>
+      <c r="F366" s="14">
+        <v>0.49509999999999998</v>
+      </c>
+      <c r="G366" t="s">
+        <v>41</v>
+      </c>
+      <c r="H366" t="s">
+        <v>85</v>
+      </c>
+      <c r="I366">
         <v>1</v>
       </c>
     </row>

--- a/PDA Lifetime Predictions.xlsx
+++ b/PDA Lifetime Predictions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thigg\Desktop\Hockey Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1215CCB4-BE6E-4F51-8C51-3F81BB560699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D4D554-21A4-4F90-8306-82ED3810D9D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51480" yWindow="-195" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="14" r:id="rId3"/>
+    <pivotCache cacheId="28" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1906" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1919" uniqueCount="110">
   <si>
     <t>Date</t>
   </si>
@@ -361,6 +361,12 @@
   </si>
   <si>
     <t>% Of Predictions</t>
+  </si>
+  <si>
+    <t>PDA8</t>
+  </si>
+  <si>
+    <t>PDA8 Total</t>
   </si>
 </sst>
 </file>
@@ -878,7 +884,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -897,6 +903,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -957,13 +964,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45318.336384259259" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="366" xr:uid="{D3A71568-3061-40C8-A74B-8B86C64C3ADC}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45319.363471990742" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="368" xr:uid="{D3A71568-3061-40C8-A74B-8B86C64C3ADC}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:I1048576" sheet="Predictions"/>
   </cacheSource>
   <cacheFields count="10">
     <cacheField name="Model Used" numFmtId="0">
-      <sharedItems containsBlank="1" count="8">
+      <sharedItems containsBlank="1" count="9">
         <s v="PDA1"/>
         <s v="PDA2"/>
         <s v="PDA3"/>
@@ -971,11 +978,12 @@
         <s v="PDA5"/>
         <s v="PDA6"/>
         <s v="PDA7"/>
+        <s v="PDA8"/>
         <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2024-01-28T00:00:00" count="48">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2024-01-29T00:00:00" count="49">
         <d v="2023-12-09T00:00:00"/>
         <d v="2023-12-10T00:00:00"/>
         <d v="2023-12-11T00:00:00"/>
@@ -1023,6 +1031,7 @@
         <d v="2024-01-25T00:00:00"/>
         <d v="2024-01-26T00:00:00"/>
         <d v="2024-01-27T00:00:00"/>
+        <d v="2024-01-28T00:00:00"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -1030,7 +1039,7 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Winner Probability" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="0.5" maxValue="0.87610539305886403" count="658">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="0.5" maxValue="0.87610539305886403" count="660">
         <n v="0.87609999999999999"/>
         <n v="0.78059999999999996"/>
         <n v="0.65859999999999996"/>
@@ -1380,6 +1389,8 @@
         <n v="0.5887"/>
         <n v="0.51970000000000005"/>
         <n v="0.50490000000000002"/>
+        <n v="0.75"/>
+        <n v="0.56999999999999995"/>
         <m/>
         <n v="0.87610539305886403" u="1"/>
         <n v="0.78056782297496197" u="1"/>
@@ -1727,7 +1738,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="366">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="368">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -5620,7 +5631,7 @@
     <n v="0.25559999999999999"/>
     <s v="Playing At:  Minnesota Wild   Home"/>
     <x v="6"/>
-    <n v="1"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="6"/>
@@ -5708,7 +5719,7 @@
     <n v="0.4113"/>
     <s v="Playing At:  Detroit Red Wings   Home"/>
     <x v="3"/>
-    <n v="1"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="6"/>
@@ -5746,8 +5757,30 @@
   <r>
     <x v="7"/>
     <x v="47"/>
+    <s v="Seattle Kraken"/>
+    <x v="349"/>
+    <s v="Columbus Blue Jackets"/>
+    <n v="0.25"/>
+    <s v="Playing At:  Seattle Kraken   Home"/>
+    <x v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="47"/>
+    <s v="Los Angeles Kings"/>
+    <x v="350"/>
+    <s v="St. Louis Blues"/>
+    <n v="0.43"/>
+    <s v="Playing At:  St. Louis Blues   Home"/>
+    <x v="3"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="48"/>
     <m/>
-    <x v="349"/>
+    <x v="351"/>
     <m/>
     <m/>
     <m/>
@@ -5758,12 +5791,12 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1FB34DD3-8207-4009-92F5-73C183F63DF8}" name="PivotTable1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A5:C13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{80C3D042-980E-40EE-B50F-CF37801A1A1D}" name="PivotTable3" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="L3:O36" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="10">
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item x="7"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="10">
+        <item h="1" x="8"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -5771,11 +5804,193 @@
         <item x="4"/>
         <item x="5"/>
         <item x="6"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" numFmtId="14" outline="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="10">
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="2"/>
+        <item x="6"/>
+        <item m="1" x="8"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="33">
+    <i>
+      <x v="1"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i t="default">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i t="default">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i t="default">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+      <x v="5"/>
+    </i>
+    <i t="default">
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Count of Winner1" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Model" fld="8" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1FB34DD3-8207-4009-92F5-73C183F63DF8}" name="PivotTable1" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A5:C13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="10">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="10">
+        <item x="8"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisPage" showAll="0">
-      <items count="49">
+      <items count="50">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -5815,7 +6030,7 @@
         <item x="36"/>
         <item x="37"/>
         <item x="38"/>
-        <item x="47"/>
+        <item x="48"/>
         <item x="39"/>
         <item x="40"/>
         <item x="41"/>
@@ -5824,15 +6039,14 @@
         <item x="44"/>
         <item x="45"/>
         <item x="46"/>
+        <item x="47"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="659">
-        <item x="349"/>
-        <item m="1" x="350"/>
-        <item m="1" x="351"/>
+      <items count="661">
+        <item x="351"/>
         <item m="1" x="352"/>
         <item m="1" x="353"/>
         <item m="1" x="354"/>
@@ -6133,14 +6347,16 @@
         <item m="1" x="649"/>
         <item m="1" x="650"/>
         <item m="1" x="651"/>
-        <item x="314"/>
         <item m="1" x="652"/>
         <item m="1" x="653"/>
+        <item x="314"/>
         <item m="1" x="654"/>
         <item m="1" x="655"/>
         <item m="1" x="656"/>
+        <item m="1" x="657"/>
+        <item m="1" x="658"/>
         <item x="9"/>
-        <item m="1" x="657"/>
+        <item m="1" x="659"/>
         <item x="286"/>
         <item x="287"/>
         <item x="288"/>
@@ -6488,6 +6704,8 @@
         <item x="346"/>
         <item x="347"/>
         <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -6556,179 +6774,6 @@
     <pageField fld="1" hier="-1"/>
     <pageField fld="3" hier="-1"/>
   </pageFields>
-  <dataFields count="2">
-    <dataField name="Count of Winner1" fld="2" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Model" fld="8" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{80C3D042-980E-40EE-B50F-CF37801A1A1D}" name="PivotTable3" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="L3:O34" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
-  <pivotFields count="10">
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="9">
-        <item h="1" x="7"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" numFmtId="14" outline="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="10">
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="2"/>
-        <item x="6"/>
-        <item m="1" x="8"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="0"/>
-    <field x="7"/>
-  </rowFields>
-  <rowItems count="31">
-    <i>
-      <x v="1"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i t="default">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i t="default">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i t="default">
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="7"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
   <dataFields count="2">
     <dataField name="Count of Winner1" fld="2" subtotal="count" baseField="0" baseItem="0"/>
     <dataField name="Sum of Model" fld="8" baseField="0" baseItem="0"/>
@@ -7045,7 +7090,7 @@
   <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7153,7 +7198,7 @@
         <v>4</v>
       </c>
       <c r="P5" s="4">
-        <f t="shared" ref="P5:P33" si="0">O5/N5</f>
+        <f t="shared" ref="P5:P35" si="0">O5/N5</f>
         <v>0.5714285714285714</v>
       </c>
     </row>
@@ -7173,15 +7218,15 @@
       </c>
       <c r="E6" s="7">
         <f>SUM(B10:B12)</f>
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F6" s="5">
         <f>SUM(B6:B9)</f>
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G6" s="11">
         <f>SUM(B6:B8)</f>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H6" s="9">
         <f>SUM(B6:B7)</f>
@@ -7225,7 +7270,7 @@
       </c>
       <c r="G7" s="11">
         <f>SUM(C6:C8)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H7" s="9">
         <f>SUM(C6:C7)</f>
@@ -7250,26 +7295,26 @@
         <v>93</v>
       </c>
       <c r="B8" s="15">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" s="15">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" si="1"/>
-        <v>0.63414634146341464</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="E8" s="8">
         <f>E7/E6</f>
-        <v>0.55849056603773584</v>
+        <v>0.55639097744360899</v>
       </c>
       <c r="F8" s="6">
         <f>F7/F6</f>
-        <v>0.7</v>
+        <v>0.69306930693069302</v>
       </c>
       <c r="G8" s="12">
         <f>G7/G6</f>
-        <v>0.7142857142857143</v>
+        <v>0.7192982456140351</v>
       </c>
       <c r="H8" s="10">
         <f>H7/H6</f>
@@ -7297,11 +7342,11 @@
         <v>44</v>
       </c>
       <c r="C9" s="15">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" si="1"/>
-        <v>0.68181818181818177</v>
+        <v>0.65909090909090906</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>107</v>
@@ -7348,19 +7393,19 @@
       </c>
       <c r="E10" s="8">
         <f>E6/$B$13</f>
-        <v>0.72602739726027399</v>
+        <v>0.72479564032697552</v>
       </c>
       <c r="F10" s="6">
         <f t="shared" ref="F10:H10" si="2">F6/$B$13</f>
-        <v>0.27397260273972601</v>
+        <v>0.27520435967302453</v>
       </c>
       <c r="G10" s="12">
         <f t="shared" si="2"/>
-        <v>0.15342465753424658</v>
+        <v>0.15531335149863759</v>
       </c>
       <c r="H10" s="10">
         <f t="shared" si="2"/>
-        <v>4.1095890410958902E-2</v>
+        <v>4.0871934604904632E-2</v>
       </c>
       <c r="M10" t="s">
         <v>93</v>
@@ -7381,14 +7426,14 @@
         <v>84</v>
       </c>
       <c r="B11" s="15">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C11" s="15">
         <v>41</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" si="1"/>
-        <v>0.53246753246753242</v>
+        <v>0.52564102564102566</v>
       </c>
       <c r="M11" t="s">
         <v>50</v>
@@ -7437,14 +7482,14 @@
         <v>53</v>
       </c>
       <c r="B13" s="15">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C13" s="15">
         <v>218</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" si="1"/>
-        <v>0.59726027397260273</v>
+        <v>0.59400544959128065</v>
       </c>
       <c r="L13" t="s">
         <v>88</v>
@@ -7723,11 +7768,11 @@
         <v>5</v>
       </c>
       <c r="O30" s="15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P30" s="4">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="31" spans="12:16" x14ac:dyDescent="0.25">
@@ -7768,29 +7813,56 @@
         <v>15</v>
       </c>
       <c r="O33" s="15">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P33" s="4">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>0.73333333333333328</v>
       </c>
     </row>
     <row r="34" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L34" t="s">
+        <v>108</v>
+      </c>
+      <c r="M34" t="s">
+        <v>93</v>
+      </c>
+      <c r="N34" s="15">
+        <v>1</v>
+      </c>
+      <c r="O34" s="15">
+        <v>1</v>
+      </c>
+      <c r="P34" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L35" t="s">
+        <v>109</v>
+      </c>
+      <c r="N35" s="15">
+        <v>1</v>
+      </c>
+      <c r="O35" s="15">
+        <v>1</v>
+      </c>
+      <c r="P35" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L36" t="s">
         <v>53</v>
       </c>
-      <c r="N34" s="15">
-        <v>100</v>
-      </c>
-      <c r="O34" s="15">
+      <c r="N36" s="15">
+        <v>101</v>
+      </c>
+      <c r="O36" s="15">
         <v>70</v>
       </c>
-      <c r="P34" s="4"/>
-    </row>
-    <row r="35" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="P35" s="4"/>
-    </row>
-    <row r="36" spans="12:16" x14ac:dyDescent="0.25">
       <c r="P36" s="4"/>
     </row>
     <row r="37" spans="12:16" x14ac:dyDescent="0.25">
@@ -7859,7 +7931,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P4:P33">
+  <conditionalFormatting sqref="P4:P35">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -7902,7 +7974,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>P4:P33</xm:sqref>
+          <xm:sqref>P4:P35</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -7912,10 +7984,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I366"/>
+  <dimension ref="A1:I368"/>
   <sheetViews>
     <sheetView topLeftCell="A325" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I356" sqref="I356"/>
+      <selection activeCell="I369" sqref="I369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18169,7 +18241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>99</v>
       </c>
@@ -18224,7 +18296,7 @@
         <v>94</v>
       </c>
       <c r="I355">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.25">
@@ -18456,7 +18528,7 @@
         <v>84</v>
       </c>
       <c r="I363">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.25">
@@ -18543,6 +18615,64 @@
         <v>85</v>
       </c>
       <c r="I366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>108</v>
+      </c>
+      <c r="B367" s="1">
+        <v>45319</v>
+      </c>
+      <c r="C367" t="s">
+        <v>23</v>
+      </c>
+      <c r="D367" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="E367" t="s">
+        <v>34</v>
+      </c>
+      <c r="F367" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="G367" t="s">
+        <v>24</v>
+      </c>
+      <c r="H367" t="s">
+        <v>93</v>
+      </c>
+      <c r="I367">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>108</v>
+      </c>
+      <c r="B368" s="1">
+        <v>45319</v>
+      </c>
+      <c r="C368" t="s">
+        <v>40</v>
+      </c>
+      <c r="D368" s="16">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E368" t="s">
+        <v>13</v>
+      </c>
+      <c r="F368" s="16">
+        <v>0.43</v>
+      </c>
+      <c r="G368" t="s">
+        <v>65</v>
+      </c>
+      <c r="H368" t="s">
+        <v>84</v>
+      </c>
+      <c r="I368">
         <v>1</v>
       </c>
     </row>

--- a/PDA Lifetime Predictions.xlsx
+++ b/PDA Lifetime Predictions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thigg\Desktop\Hockey Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D4D554-21A4-4F90-8306-82ED3810D9D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F805017-830D-4194-BC72-639F5417717A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="28" r:id="rId3"/>
+    <pivotCache cacheId="14" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1919" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1924" uniqueCount="110">
   <si>
     <t>Date</t>
   </si>
@@ -902,8 +902,8 @@
     <xf numFmtId="164" fontId="0" fillId="36" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -964,7 +964,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45319.363471990742" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="368" xr:uid="{D3A71568-3061-40C8-A74B-8B86C64C3ADC}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45320.325966203702" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="369" xr:uid="{D3A71568-3061-40C8-A74B-8B86C64C3ADC}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:I1048576" sheet="Predictions"/>
   </cacheSource>
@@ -983,7 +983,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2024-01-29T00:00:00" count="49">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2024-01-30T00:00:00" count="50">
         <d v="2023-12-09T00:00:00"/>
         <d v="2023-12-10T00:00:00"/>
         <d v="2023-12-11T00:00:00"/>
@@ -1032,6 +1032,7 @@
         <d v="2024-01-26T00:00:00"/>
         <d v="2024-01-27T00:00:00"/>
         <d v="2024-01-28T00:00:00"/>
+        <d v="2024-01-29T00:00:00"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -1039,7 +1040,7 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Winner Probability" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="0.5" maxValue="0.87610539305886403" count="660">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="0.5" maxValue="0.87610539305886403" count="661">
         <n v="0.87609999999999999"/>
         <n v="0.78059999999999996"/>
         <n v="0.65859999999999996"/>
@@ -1391,6 +1392,7 @@
         <n v="0.50490000000000002"/>
         <n v="0.75"/>
         <n v="0.56999999999999995"/>
+        <n v="0.57999999999999996"/>
         <m/>
         <n v="0.87610539305886403" u="1"/>
         <n v="0.78056782297496197" u="1"/>
@@ -1738,7 +1740,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="368">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="369">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -5774,13 +5776,24 @@
     <n v="0.43"/>
     <s v="Playing At:  St. Louis Blues   Home"/>
     <x v="3"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="48"/>
+    <s v="Nashville Predators"/>
+    <x v="351"/>
+    <s v="Ottawa Senators"/>
+    <n v="0.42"/>
+    <s v="Playing At:  Ottawa Senators   Home"/>
+    <x v="3"/>
     <n v="1"/>
   </r>
   <r>
     <x v="8"/>
-    <x v="48"/>
+    <x v="49"/>
     <m/>
-    <x v="351"/>
+    <x v="352"/>
     <m/>
     <m/>
     <m/>
@@ -5791,188 +5804,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{80C3D042-980E-40EE-B50F-CF37801A1A1D}" name="PivotTable3" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="L3:O36" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
-  <pivotFields count="10">
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="10">
-        <item h="1" x="8"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" numFmtId="14" outline="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="10">
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="2"/>
-        <item x="6"/>
-        <item m="1" x="8"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="0"/>
-    <field x="7"/>
-  </rowFields>
-  <rowItems count="33">
-    <i>
-      <x v="1"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i t="default">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i t="default">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i t="default">
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-      <x v="5"/>
-    </i>
-    <i t="default">
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Count of Winner1" fld="2" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Model" fld="8" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1FB34DD3-8207-4009-92F5-73C183F63DF8}" name="PivotTable1" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1FB34DD3-8207-4009-92F5-73C183F63DF8}" name="PivotTable1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A5:C13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
@@ -5990,7 +5822,7 @@
       </items>
     </pivotField>
     <pivotField axis="axisPage" showAll="0">
-      <items count="50">
+      <items count="51">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -6030,7 +5862,7 @@
         <item x="36"/>
         <item x="37"/>
         <item x="38"/>
-        <item x="48"/>
+        <item x="49"/>
         <item x="39"/>
         <item x="40"/>
         <item x="41"/>
@@ -6040,14 +5872,14 @@
         <item x="45"/>
         <item x="46"/>
         <item x="47"/>
+        <item x="48"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="661">
-        <item x="351"/>
-        <item m="1" x="352"/>
+      <items count="662">
+        <item x="352"/>
         <item m="1" x="353"/>
         <item m="1" x="354"/>
         <item m="1" x="355"/>
@@ -6349,14 +6181,15 @@
         <item m="1" x="651"/>
         <item m="1" x="652"/>
         <item m="1" x="653"/>
+        <item m="1" x="654"/>
         <item x="314"/>
-        <item m="1" x="654"/>
         <item m="1" x="655"/>
         <item m="1" x="656"/>
         <item m="1" x="657"/>
         <item m="1" x="658"/>
+        <item m="1" x="659"/>
         <item x="9"/>
-        <item m="1" x="659"/>
+        <item m="1" x="660"/>
         <item x="286"/>
         <item x="287"/>
         <item x="288"/>
@@ -6706,6 +6539,7 @@
         <item x="348"/>
         <item x="349"/>
         <item x="350"/>
+        <item x="351"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -6774,6 +6608,187 @@
     <pageField fld="1" hier="-1"/>
     <pageField fld="3" hier="-1"/>
   </pageFields>
+  <dataFields count="2">
+    <dataField name="Count of Winner1" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Model" fld="8" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{80C3D042-980E-40EE-B50F-CF37801A1A1D}" name="PivotTable3" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="L3:O36" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
+  <pivotFields count="10">
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="10">
+        <item h="1" x="8"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" numFmtId="14" outline="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="10">
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="2"/>
+        <item x="6"/>
+        <item m="1" x="8"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="33">
+    <i>
+      <x v="1"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i t="default">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i t="default">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i t="default">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+      <x v="5"/>
+    </i>
+    <i t="default">
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
   <dataFields count="2">
     <dataField name="Count of Winner1" fld="2" subtotal="count" baseField="0" baseItem="0"/>
     <dataField name="Sum of Model" fld="8" baseField="0" baseItem="0"/>
@@ -7090,23 +7105,23 @@
   <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>79</v>
       </c>
@@ -7114,7 +7129,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -7122,7 +7137,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -7145,17 +7160,17 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="L4" t="s">
         <v>86</v>
       </c>
       <c r="M4" t="s">
         <v>94</v>
       </c>
-      <c r="N4" s="15">
+      <c r="N4" s="16">
         <v>5</v>
       </c>
-      <c r="O4" s="15">
+      <c r="O4" s="16">
         <v>5</v>
       </c>
       <c r="P4" s="4">
@@ -7163,7 +7178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>52</v>
       </c>
@@ -7191,10 +7206,10 @@
       <c r="M5" t="s">
         <v>93</v>
       </c>
-      <c r="N5" s="15">
+      <c r="N5" s="16">
         <v>7</v>
       </c>
-      <c r="O5" s="15">
+      <c r="O5" s="16">
         <v>4</v>
       </c>
       <c r="P5" s="4">
@@ -7202,14 +7217,14 @@
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="16">
         <v>4</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="16">
         <v>4</v>
       </c>
       <c r="D6" s="4">
@@ -7218,7 +7233,7 @@
       </c>
       <c r="E6" s="7">
         <f>SUM(B10:B12)</f>
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F6" s="5">
         <f>SUM(B6:B9)</f>
@@ -7235,10 +7250,10 @@
       <c r="M6" t="s">
         <v>50</v>
       </c>
-      <c r="N6" s="15">
+      <c r="N6" s="16">
         <v>2</v>
       </c>
-      <c r="O6" s="15">
+      <c r="O6" s="16">
         <v>2</v>
       </c>
       <c r="P6" s="4">
@@ -7246,14 +7261,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="16">
         <v>11</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="16">
         <v>10</v>
       </c>
       <c r="D7" s="4">
@@ -7279,10 +7294,10 @@
       <c r="M7" t="s">
         <v>61</v>
       </c>
-      <c r="N7" s="15">
-        <v>1</v>
-      </c>
-      <c r="O7" s="15">
+      <c r="N7" s="16">
+        <v>1</v>
+      </c>
+      <c r="O7" s="16">
         <v>1</v>
       </c>
       <c r="P7" s="4">
@@ -7290,14 +7305,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="16">
         <v>42</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="16">
         <v>27</v>
       </c>
       <c r="D8" s="4">
@@ -7306,7 +7321,7 @@
       </c>
       <c r="E8" s="8">
         <f>E7/E6</f>
-        <v>0.55639097744360899</v>
+        <v>0.55430711610486894</v>
       </c>
       <c r="F8" s="6">
         <f>F7/F6</f>
@@ -7323,10 +7338,10 @@
       <c r="L8" t="s">
         <v>100</v>
       </c>
-      <c r="N8" s="15">
+      <c r="N8" s="16">
         <v>15</v>
       </c>
-      <c r="O8" s="15">
+      <c r="O8" s="16">
         <v>12</v>
       </c>
       <c r="P8" s="4">
@@ -7334,14 +7349,14 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="16">
         <v>44</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="16">
         <v>29</v>
       </c>
       <c r="D9" s="4">
@@ -7366,10 +7381,10 @@
       <c r="M9" t="s">
         <v>94</v>
       </c>
-      <c r="N9" s="15">
+      <c r="N9" s="16">
         <v>8</v>
       </c>
-      <c r="O9" s="15">
+      <c r="O9" s="16">
         <v>5</v>
       </c>
       <c r="P9" s="4">
@@ -7377,14 +7392,14 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="16">
         <v>113</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="16">
         <v>67</v>
       </c>
       <c r="D10" s="4">
@@ -7393,27 +7408,27 @@
       </c>
       <c r="E10" s="8">
         <f>E6/$B$13</f>
-        <v>0.72479564032697552</v>
+        <v>0.72554347826086951</v>
       </c>
       <c r="F10" s="6">
         <f t="shared" ref="F10:H10" si="2">F6/$B$13</f>
-        <v>0.27520435967302453</v>
+        <v>0.27445652173913043</v>
       </c>
       <c r="G10" s="12">
         <f t="shared" si="2"/>
-        <v>0.15531335149863759</v>
+        <v>0.15489130434782608</v>
       </c>
       <c r="H10" s="10">
         <f t="shared" si="2"/>
-        <v>4.0871934604904632E-2</v>
+        <v>4.0760869565217392E-2</v>
       </c>
       <c r="M10" t="s">
         <v>93</v>
       </c>
-      <c r="N10" s="15">
+      <c r="N10" s="16">
         <v>6</v>
       </c>
-      <c r="O10" s="15">
+      <c r="O10" s="16">
         <v>1</v>
       </c>
       <c r="P10" s="4">
@@ -7421,27 +7436,27 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="15">
-        <v>78</v>
-      </c>
-      <c r="C11" s="15">
+      <c r="B11" s="16">
+        <v>79</v>
+      </c>
+      <c r="C11" s="16">
         <v>41</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" si="1"/>
-        <v>0.52564102564102566</v>
+        <v>0.51898734177215189</v>
       </c>
       <c r="M11" t="s">
         <v>50</v>
       </c>
-      <c r="N11" s="15">
-        <v>1</v>
-      </c>
-      <c r="O11" s="15">
+      <c r="N11" s="16">
+        <v>1</v>
+      </c>
+      <c r="O11" s="16">
         <v>1</v>
       </c>
       <c r="P11" s="4">
@@ -7449,14 +7464,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="16">
         <v>75</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="16">
         <v>40</v>
       </c>
       <c r="D12" s="4">
@@ -7466,10 +7481,10 @@
       <c r="L12" t="s">
         <v>101</v>
       </c>
-      <c r="N12" s="15">
+      <c r="N12" s="16">
         <v>15</v>
       </c>
-      <c r="O12" s="15">
+      <c r="O12" s="16">
         <v>7</v>
       </c>
       <c r="P12" s="4">
@@ -7477,19 +7492,19 @@
         <v>0.46666666666666667</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="15">
-        <v>367</v>
-      </c>
-      <c r="C13" s="15">
+      <c r="B13" s="16">
+        <v>368</v>
+      </c>
+      <c r="C13" s="16">
         <v>218</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" si="1"/>
-        <v>0.59400544959128065</v>
+        <v>0.59239130434782605</v>
       </c>
       <c r="L13" t="s">
         <v>88</v>
@@ -7497,10 +7512,10 @@
       <c r="M13" t="s">
         <v>94</v>
       </c>
-      <c r="N13" s="15">
+      <c r="N13" s="16">
         <v>3</v>
       </c>
-      <c r="O13" s="15">
+      <c r="O13" s="16">
         <v>2</v>
       </c>
       <c r="P13" s="4">
@@ -7508,14 +7523,14 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="M14" t="s">
         <v>93</v>
       </c>
-      <c r="N14" s="15">
+      <c r="N14" s="16">
         <v>7</v>
       </c>
-      <c r="O14" s="15">
+      <c r="O14" s="16">
         <v>4</v>
       </c>
       <c r="P14" s="4">
@@ -7523,14 +7538,14 @@
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="M15" t="s">
         <v>50</v>
       </c>
-      <c r="N15" s="15">
+      <c r="N15" s="16">
         <v>2</v>
       </c>
-      <c r="O15" s="15">
+      <c r="O15" s="16">
         <v>2</v>
       </c>
       <c r="P15" s="4">
@@ -7538,14 +7553,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="L16" t="s">
         <v>102</v>
       </c>
-      <c r="N16" s="15">
+      <c r="N16" s="16">
         <v>12</v>
       </c>
-      <c r="O16" s="15">
+      <c r="O16" s="16">
         <v>8</v>
       </c>
       <c r="P16" s="4">
@@ -7553,17 +7568,17 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="17" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="12:16" x14ac:dyDescent="0.35">
       <c r="L17" t="s">
         <v>89</v>
       </c>
       <c r="M17" t="s">
         <v>94</v>
       </c>
-      <c r="N17" s="15">
+      <c r="N17" s="16">
         <v>9</v>
       </c>
-      <c r="O17" s="15">
+      <c r="O17" s="16">
         <v>5</v>
       </c>
       <c r="P17" s="4">
@@ -7571,14 +7586,14 @@
         <v>0.55555555555555558</v>
       </c>
     </row>
-    <row r="18" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="12:16" x14ac:dyDescent="0.35">
       <c r="M18" t="s">
         <v>93</v>
       </c>
-      <c r="N18" s="15">
+      <c r="N18" s="16">
         <v>4</v>
       </c>
-      <c r="O18" s="15">
+      <c r="O18" s="16">
         <v>4</v>
       </c>
       <c r="P18" s="4">
@@ -7586,14 +7601,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="12:16" x14ac:dyDescent="0.35">
       <c r="M19" t="s">
         <v>50</v>
       </c>
-      <c r="N19" s="15">
+      <c r="N19" s="16">
         <v>3</v>
       </c>
-      <c r="O19" s="15">
+      <c r="O19" s="16">
         <v>3</v>
       </c>
       <c r="P19" s="4">
@@ -7601,14 +7616,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="12:16" x14ac:dyDescent="0.35">
       <c r="M20" t="s">
         <v>61</v>
       </c>
-      <c r="N20" s="15">
+      <c r="N20" s="16">
         <v>2</v>
       </c>
-      <c r="O20" s="15">
+      <c r="O20" s="16">
         <v>2</v>
       </c>
       <c r="P20" s="4">
@@ -7616,14 +7631,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="12:16" x14ac:dyDescent="0.35">
       <c r="L21" t="s">
         <v>103</v>
       </c>
-      <c r="N21" s="15">
+      <c r="N21" s="16">
         <v>18</v>
       </c>
-      <c r="O21" s="15">
+      <c r="O21" s="16">
         <v>14</v>
       </c>
       <c r="P21" s="4">
@@ -7631,17 +7646,17 @@
         <v>0.77777777777777779</v>
       </c>
     </row>
-    <row r="22" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="12:16" x14ac:dyDescent="0.35">
       <c r="L22" t="s">
         <v>91</v>
       </c>
       <c r="M22" t="s">
         <v>94</v>
       </c>
-      <c r="N22" s="15">
+      <c r="N22" s="16">
         <v>6</v>
       </c>
-      <c r="O22" s="15">
+      <c r="O22" s="16">
         <v>3</v>
       </c>
       <c r="P22" s="4">
@@ -7649,14 +7664,14 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="12:16" x14ac:dyDescent="0.35">
       <c r="M23" t="s">
         <v>93</v>
       </c>
-      <c r="N23" s="15">
+      <c r="N23" s="16">
         <v>6</v>
       </c>
-      <c r="O23" s="15">
+      <c r="O23" s="16">
         <v>5</v>
       </c>
       <c r="P23" s="4">
@@ -7664,14 +7679,14 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="24" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="12:16" x14ac:dyDescent="0.35">
       <c r="M24" t="s">
         <v>50</v>
       </c>
-      <c r="N24" s="15">
-        <v>1</v>
-      </c>
-      <c r="O24" s="15">
+      <c r="N24" s="16">
+        <v>1</v>
+      </c>
+      <c r="O24" s="16">
         <v>1</v>
       </c>
       <c r="P24" s="4">
@@ -7679,14 +7694,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="12:16" x14ac:dyDescent="0.35">
       <c r="L25" t="s">
         <v>104</v>
       </c>
-      <c r="N25" s="15">
+      <c r="N25" s="16">
         <v>13</v>
       </c>
-      <c r="O25" s="15">
+      <c r="O25" s="16">
         <v>9</v>
       </c>
       <c r="P25" s="4">
@@ -7694,17 +7709,17 @@
         <v>0.69230769230769229</v>
       </c>
     </row>
-    <row r="26" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="12:16" x14ac:dyDescent="0.35">
       <c r="L26" t="s">
         <v>90</v>
       </c>
       <c r="M26" t="s">
         <v>94</v>
       </c>
-      <c r="N26" s="15">
+      <c r="N26" s="16">
         <v>8</v>
       </c>
-      <c r="O26" s="15">
+      <c r="O26" s="16">
         <v>6</v>
       </c>
       <c r="P26" s="4">
@@ -7712,14 +7727,14 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="27" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="12:16" x14ac:dyDescent="0.35">
       <c r="M27" t="s">
         <v>93</v>
       </c>
-      <c r="N27" s="15">
+      <c r="N27" s="16">
         <v>3</v>
       </c>
-      <c r="O27" s="15">
+      <c r="O27" s="16">
         <v>1</v>
       </c>
       <c r="P27" s="4">
@@ -7727,14 +7742,14 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="28" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="12:16" x14ac:dyDescent="0.35">
       <c r="M28" t="s">
         <v>61</v>
       </c>
-      <c r="N28" s="15">
-        <v>1</v>
-      </c>
-      <c r="O28" s="15">
+      <c r="N28" s="16">
+        <v>1</v>
+      </c>
+      <c r="O28" s="16">
         <v>1</v>
       </c>
       <c r="P28" s="4">
@@ -7742,14 +7757,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="12:16" x14ac:dyDescent="0.35">
       <c r="L29" t="s">
         <v>105</v>
       </c>
-      <c r="N29" s="15">
+      <c r="N29" s="16">
         <v>12</v>
       </c>
-      <c r="O29" s="15">
+      <c r="O29" s="16">
         <v>8</v>
       </c>
       <c r="P29" s="4">
@@ -7757,17 +7772,17 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="30" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="12:16" x14ac:dyDescent="0.35">
       <c r="L30" t="s">
         <v>99</v>
       </c>
       <c r="M30" t="s">
         <v>94</v>
       </c>
-      <c r="N30" s="15">
+      <c r="N30" s="16">
         <v>5</v>
       </c>
-      <c r="O30" s="15">
+      <c r="O30" s="16">
         <v>3</v>
       </c>
       <c r="P30" s="4">
@@ -7775,14 +7790,14 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="31" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="12:16" x14ac:dyDescent="0.35">
       <c r="M31" t="s">
         <v>93</v>
       </c>
-      <c r="N31" s="15">
+      <c r="N31" s="16">
         <v>8</v>
       </c>
-      <c r="O31" s="15">
+      <c r="O31" s="16">
         <v>7</v>
       </c>
       <c r="P31" s="4">
@@ -7790,14 +7805,14 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="32" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="12:16" x14ac:dyDescent="0.35">
       <c r="M32" t="s">
         <v>50</v>
       </c>
-      <c r="N32" s="15">
+      <c r="N32" s="16">
         <v>2</v>
       </c>
-      <c r="O32" s="15">
+      <c r="O32" s="16">
         <v>1</v>
       </c>
       <c r="P32" s="4">
@@ -7805,14 +7820,14 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="12:16" x14ac:dyDescent="0.35">
       <c r="L33" t="s">
         <v>106</v>
       </c>
-      <c r="N33" s="15">
+      <c r="N33" s="16">
         <v>15</v>
       </c>
-      <c r="O33" s="15">
+      <c r="O33" s="16">
         <v>11</v>
       </c>
       <c r="P33" s="4">
@@ -7820,17 +7835,17 @@
         <v>0.73333333333333328</v>
       </c>
     </row>
-    <row r="34" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="12:16" x14ac:dyDescent="0.35">
       <c r="L34" t="s">
         <v>108</v>
       </c>
       <c r="M34" t="s">
         <v>93</v>
       </c>
-      <c r="N34" s="15">
-        <v>1</v>
-      </c>
-      <c r="O34" s="15">
+      <c r="N34" s="16">
+        <v>1</v>
+      </c>
+      <c r="O34" s="16">
         <v>1</v>
       </c>
       <c r="P34" s="4">
@@ -7838,14 +7853,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="12:16" x14ac:dyDescent="0.35">
       <c r="L35" t="s">
         <v>109</v>
       </c>
-      <c r="N35" s="15">
-        <v>1</v>
-      </c>
-      <c r="O35" s="15">
+      <c r="N35" s="16">
+        <v>1</v>
+      </c>
+      <c r="O35" s="16">
         <v>1</v>
       </c>
       <c r="P35" s="4">
@@ -7853,67 +7868,67 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="12:16" x14ac:dyDescent="0.35">
       <c r="L36" t="s">
         <v>53</v>
       </c>
-      <c r="N36" s="15">
+      <c r="N36" s="16">
         <v>101</v>
       </c>
-      <c r="O36" s="15">
+      <c r="O36" s="16">
         <v>70</v>
       </c>
       <c r="P36" s="4"/>
     </row>
-    <row r="37" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="12:16" x14ac:dyDescent="0.35">
       <c r="P37" s="4"/>
     </row>
-    <row r="38" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="12:16" x14ac:dyDescent="0.35">
       <c r="P38" s="4"/>
     </row>
-    <row r="39" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="12:16" x14ac:dyDescent="0.35">
       <c r="P39" s="4"/>
     </row>
-    <row r="40" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="12:16" x14ac:dyDescent="0.35">
       <c r="P40" s="4"/>
     </row>
-    <row r="41" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="12:16" x14ac:dyDescent="0.35">
       <c r="P41" s="4"/>
     </row>
-    <row r="42" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="12:16" x14ac:dyDescent="0.35">
       <c r="P42" s="4"/>
     </row>
-    <row r="43" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="12:16" x14ac:dyDescent="0.35">
       <c r="P43" s="4"/>
     </row>
-    <row r="44" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="12:16" x14ac:dyDescent="0.35">
       <c r="P44" s="4"/>
     </row>
-    <row r="45" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="12:16" x14ac:dyDescent="0.35">
       <c r="P45" s="4"/>
     </row>
-    <row r="46" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="12:16" x14ac:dyDescent="0.35">
       <c r="P46" s="4"/>
     </row>
-    <row r="47" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="12:16" x14ac:dyDescent="0.35">
       <c r="P47" s="4"/>
     </row>
-    <row r="48" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="12:16" x14ac:dyDescent="0.35">
       <c r="P48" s="4"/>
     </row>
-    <row r="49" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P49" s="4"/>
     </row>
-    <row r="50" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P50" s="4"/>
     </row>
-    <row r="51" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P51" s="4"/>
     </row>
-    <row r="52" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P52" s="4"/>
     </row>
-    <row r="53" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P53" s="4"/>
     </row>
   </sheetData>
@@ -7984,27 +7999,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I368"/>
+  <dimension ref="A1:I369"/>
   <sheetViews>
-    <sheetView topLeftCell="A325" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I369" sqref="I369"/>
+    <sheetView topLeftCell="A351" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I370" sqref="I370"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7265625" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="43" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>79</v>
       </c>
@@ -8033,7 +8048,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -8062,7 +8077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>86</v>
       </c>
@@ -8091,7 +8106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>86</v>
       </c>
@@ -8120,7 +8135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>86</v>
       </c>
@@ -8149,7 +8164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>86</v>
       </c>
@@ -8178,7 +8193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>86</v>
       </c>
@@ -8207,7 +8222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -8236,7 +8251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -8265,7 +8280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>86</v>
       </c>
@@ -8294,7 +8309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>86</v>
       </c>
@@ -8323,7 +8338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>86</v>
       </c>
@@ -8352,7 +8367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>86</v>
       </c>
@@ -8381,7 +8396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>86</v>
       </c>
@@ -8410,7 +8425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>86</v>
       </c>
@@ -8439,7 +8454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>86</v>
       </c>
@@ -8468,7 +8483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>86</v>
       </c>
@@ -8497,7 +8512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>86</v>
       </c>
@@ -8526,7 +8541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>86</v>
       </c>
@@ -8555,7 +8570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>86</v>
       </c>
@@ -8584,7 +8599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>86</v>
       </c>
@@ -8613,7 +8628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>86</v>
       </c>
@@ -8642,7 +8657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>86</v>
       </c>
@@ -8671,7 +8686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>86</v>
       </c>
@@ -8700,7 +8715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>86</v>
       </c>
@@ -8729,7 +8744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>86</v>
       </c>
@@ -8758,7 +8773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>86</v>
       </c>
@@ -8787,7 +8802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>86</v>
       </c>
@@ -8816,7 +8831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>86</v>
       </c>
@@ -8845,7 +8860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>86</v>
       </c>
@@ -8874,7 +8889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>86</v>
       </c>
@@ -8903,7 +8918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>86</v>
       </c>
@@ -8932,7 +8947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>86</v>
       </c>
@@ -8961,7 +8976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>86</v>
       </c>
@@ -8990,7 +9005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>86</v>
       </c>
@@ -9019,7 +9034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>86</v>
       </c>
@@ -9048,7 +9063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>86</v>
       </c>
@@ -9077,7 +9092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>86</v>
       </c>
@@ -9106,7 +9121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>86</v>
       </c>
@@ -9135,7 +9150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>86</v>
       </c>
@@ -9164,7 +9179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>86</v>
       </c>
@@ -9193,7 +9208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>86</v>
       </c>
@@ -9222,7 +9237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>86</v>
       </c>
@@ -9251,7 +9266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>86</v>
       </c>
@@ -9280,7 +9295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>86</v>
       </c>
@@ -9309,7 +9324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>86</v>
       </c>
@@ -9338,7 +9353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>86</v>
       </c>
@@ -9367,7 +9382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>86</v>
       </c>
@@ -9396,7 +9411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>86</v>
       </c>
@@ -9425,7 +9440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>86</v>
       </c>
@@ -9454,7 +9469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>86</v>
       </c>
@@ -9483,7 +9498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>86</v>
       </c>
@@ -9512,7 +9527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>86</v>
       </c>
@@ -9541,7 +9556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>86</v>
       </c>
@@ -9570,7 +9585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>86</v>
       </c>
@@ -9599,7 +9614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>86</v>
       </c>
@@ -9628,7 +9643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>86</v>
       </c>
@@ -9657,7 +9672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>86</v>
       </c>
@@ -9686,7 +9701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>86</v>
       </c>
@@ -9715,7 +9730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>86</v>
       </c>
@@ -9744,7 +9759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>86</v>
       </c>
@@ -9773,7 +9788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>86</v>
       </c>
@@ -9802,7 +9817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>86</v>
       </c>
@@ -9831,7 +9846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>86</v>
       </c>
@@ -9860,7 +9875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>86</v>
       </c>
@@ -9889,7 +9904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>86</v>
       </c>
@@ -9918,7 +9933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>86</v>
       </c>
@@ -9947,7 +9962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>87</v>
       </c>
@@ -9976,7 +9991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>87</v>
       </c>
@@ -10005,7 +10020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>87</v>
       </c>
@@ -10034,7 +10049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>87</v>
       </c>
@@ -10063,7 +10078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>87</v>
       </c>
@@ -10092,7 +10107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>87</v>
       </c>
@@ -10121,7 +10136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>87</v>
       </c>
@@ -10150,7 +10165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>87</v>
       </c>
@@ -10179,7 +10194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>87</v>
       </c>
@@ -10208,7 +10223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>87</v>
       </c>
@@ -10237,7 +10252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>87</v>
       </c>
@@ -10266,7 +10281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>87</v>
       </c>
@@ -10295,7 +10310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>87</v>
       </c>
@@ -10324,7 +10339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>87</v>
       </c>
@@ -10353,7 +10368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>87</v>
       </c>
@@ -10382,7 +10397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>87</v>
       </c>
@@ -10411,7 +10426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>87</v>
       </c>
@@ -10440,7 +10455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>87</v>
       </c>
@@ -10469,7 +10484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>87</v>
       </c>
@@ -10498,7 +10513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>87</v>
       </c>
@@ -10527,7 +10542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -10556,7 +10571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -10585,7 +10600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>87</v>
       </c>
@@ -10614,7 +10629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>87</v>
       </c>
@@ -10643,7 +10658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>87</v>
       </c>
@@ -10672,7 +10687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>87</v>
       </c>
@@ -10701,7 +10716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>87</v>
       </c>
@@ -10730,7 +10745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>87</v>
       </c>
@@ -10759,7 +10774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>87</v>
       </c>
@@ -10788,7 +10803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>87</v>
       </c>
@@ -10817,7 +10832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>87</v>
       </c>
@@ -10846,7 +10861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>87</v>
       </c>
@@ -10875,7 +10890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>87</v>
       </c>
@@ -10904,7 +10919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>87</v>
       </c>
@@ -10933,7 +10948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>87</v>
       </c>
@@ -10962,7 +10977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>87</v>
       </c>
@@ -10991,7 +11006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>87</v>
       </c>
@@ -11020,7 +11035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>87</v>
       </c>
@@ -11049,7 +11064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>87</v>
       </c>
@@ -11078,7 +11093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>87</v>
       </c>
@@ -11107,7 +11122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>87</v>
       </c>
@@ -11136,7 +11151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>87</v>
       </c>
@@ -11165,7 +11180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>87</v>
       </c>
@@ -11194,7 +11209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>87</v>
       </c>
@@ -11223,7 +11238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>87</v>
       </c>
@@ -11252,7 +11267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>87</v>
       </c>
@@ -11281,7 +11296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>87</v>
       </c>
@@ -11310,7 +11325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>87</v>
       </c>
@@ -11339,7 +11354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>87</v>
       </c>
@@ -11368,7 +11383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>87</v>
       </c>
@@ -11397,7 +11412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>87</v>
       </c>
@@ -11426,7 +11441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>87</v>
       </c>
@@ -11455,7 +11470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>87</v>
       </c>
@@ -11484,7 +11499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>87</v>
       </c>
@@ -11513,7 +11528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>88</v>
       </c>
@@ -11542,7 +11557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>88</v>
       </c>
@@ -11571,7 +11586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>88</v>
       </c>
@@ -11600,7 +11615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>88</v>
       </c>
@@ -11629,7 +11644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>88</v>
       </c>
@@ -11658,7 +11673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>88</v>
       </c>
@@ -11687,7 +11702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>88</v>
       </c>
@@ -11716,7 +11731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>88</v>
       </c>
@@ -11745,7 +11760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>88</v>
       </c>
@@ -11774,7 +11789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>88</v>
       </c>
@@ -11803,7 +11818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>88</v>
       </c>
@@ -11832,7 +11847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>88</v>
       </c>
@@ -11861,7 +11876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>88</v>
       </c>
@@ -11890,7 +11905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>88</v>
       </c>
@@ -11919,7 +11934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>88</v>
       </c>
@@ -11948,7 +11963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>88</v>
       </c>
@@ -11977,7 +11992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>88</v>
       </c>
@@ -12006,7 +12021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>88</v>
       </c>
@@ -12035,7 +12050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>88</v>
       </c>
@@ -12064,7 +12079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>88</v>
       </c>
@@ -12093,7 +12108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>88</v>
       </c>
@@ -12122,7 +12137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>88</v>
       </c>
@@ -12151,7 +12166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>88</v>
       </c>
@@ -12180,7 +12195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>88</v>
       </c>
@@ -12209,7 +12224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>88</v>
       </c>
@@ -12238,7 +12253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>88</v>
       </c>
@@ -12267,7 +12282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>88</v>
       </c>
@@ -12296,7 +12311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>88</v>
       </c>
@@ -12325,7 +12340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>88</v>
       </c>
@@ -12354,7 +12369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>88</v>
       </c>
@@ -12383,7 +12398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>88</v>
       </c>
@@ -12412,7 +12427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>88</v>
       </c>
@@ -12441,7 +12456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>88</v>
       </c>
@@ -12470,7 +12485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>88</v>
       </c>
@@ -12499,7 +12514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>88</v>
       </c>
@@ -12528,7 +12543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>88</v>
       </c>
@@ -12557,7 +12572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>89</v>
       </c>
@@ -12586,7 +12601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>89</v>
       </c>
@@ -12615,7 +12630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>89</v>
       </c>
@@ -12644,7 +12659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>89</v>
       </c>
@@ -12673,7 +12688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>89</v>
       </c>
@@ -12702,7 +12717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>89</v>
       </c>
@@ -12731,7 +12746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>89</v>
       </c>
@@ -12760,7 +12775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>89</v>
       </c>
@@ -12789,7 +12804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>89</v>
       </c>
@@ -12818,7 +12833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>89</v>
       </c>
@@ -12847,7 +12862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>89</v>
       </c>
@@ -12876,7 +12891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>89</v>
       </c>
@@ -12905,7 +12920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>89</v>
       </c>
@@ -12934,7 +12949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>89</v>
       </c>
@@ -12963,7 +12978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>89</v>
       </c>
@@ -12992,7 +13007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>89</v>
       </c>
@@ -13021,7 +13036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>89</v>
       </c>
@@ -13050,7 +13065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>89</v>
       </c>
@@ -13079,7 +13094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>89</v>
       </c>
@@ -13108,7 +13123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>89</v>
       </c>
@@ -13137,7 +13152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>89</v>
       </c>
@@ -13166,7 +13181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>89</v>
       </c>
@@ -13195,7 +13210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>89</v>
       </c>
@@ -13224,7 +13239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>89</v>
       </c>
@@ -13253,7 +13268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>89</v>
       </c>
@@ -13282,7 +13297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>89</v>
       </c>
@@ -13311,7 +13326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>89</v>
       </c>
@@ -13340,7 +13355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>89</v>
       </c>
@@ -13369,7 +13384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>89</v>
       </c>
@@ -13398,7 +13413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>89</v>
       </c>
@@ -13427,7 +13442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>89</v>
       </c>
@@ -13456,7 +13471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>89</v>
       </c>
@@ -13485,7 +13500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>89</v>
       </c>
@@ -13514,7 +13529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>89</v>
       </c>
@@ -13543,7 +13558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>89</v>
       </c>
@@ -13572,7 +13587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>89</v>
       </c>
@@ -13601,7 +13616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>89</v>
       </c>
@@ -13630,7 +13645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>89</v>
       </c>
@@ -13659,7 +13674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>89</v>
       </c>
@@ -13688,7 +13703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>89</v>
       </c>
@@ -13717,7 +13732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>89</v>
       </c>
@@ -13746,7 +13761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>89</v>
       </c>
@@ -13775,7 +13790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>89</v>
       </c>
@@ -13804,7 +13819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>89</v>
       </c>
@@ -13833,7 +13848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>89</v>
       </c>
@@ -13862,7 +13877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>89</v>
       </c>
@@ -13891,7 +13906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>89</v>
       </c>
@@ -13920,7 +13935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>89</v>
       </c>
@@ -13949,7 +13964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>89</v>
       </c>
@@ -13978,7 +13993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>89</v>
       </c>
@@ -14007,7 +14022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>89</v>
       </c>
@@ -14036,7 +14051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>89</v>
       </c>
@@ -14065,7 +14080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>89</v>
       </c>
@@ -14094,7 +14109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>89</v>
       </c>
@@ -14123,7 +14138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>89</v>
       </c>
@@ -14152,7 +14167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>89</v>
       </c>
@@ -14181,7 +14196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>89</v>
       </c>
@@ -14210,7 +14225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>91</v>
       </c>
@@ -14239,7 +14254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>91</v>
       </c>
@@ -14268,7 +14283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>91</v>
       </c>
@@ -14297,7 +14312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>91</v>
       </c>
@@ -14326,7 +14341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>91</v>
       </c>
@@ -14355,7 +14370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>91</v>
       </c>
@@ -14384,7 +14399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>91</v>
       </c>
@@ -14413,7 +14428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>91</v>
       </c>
@@ -14442,7 +14457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>91</v>
       </c>
@@ -14471,7 +14486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>91</v>
       </c>
@@ -14500,7 +14515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>91</v>
       </c>
@@ -14529,7 +14544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>91</v>
       </c>
@@ -14558,7 +14573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>91</v>
       </c>
@@ -14587,7 +14602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>91</v>
       </c>
@@ -14616,7 +14631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>91</v>
       </c>
@@ -14645,7 +14660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>91</v>
       </c>
@@ -14674,7 +14689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>91</v>
       </c>
@@ -14703,7 +14718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>91</v>
       </c>
@@ -14732,7 +14747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>91</v>
       </c>
@@ -14761,7 +14776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>91</v>
       </c>
@@ -14790,7 +14805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>91</v>
       </c>
@@ -14819,7 +14834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>91</v>
       </c>
@@ -14848,7 +14863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>91</v>
       </c>
@@ -14877,7 +14892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>91</v>
       </c>
@@ -14906,7 +14921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>91</v>
       </c>
@@ -14935,7 +14950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>91</v>
       </c>
@@ -14964,7 +14979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>91</v>
       </c>
@@ -14993,7 +15008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>91</v>
       </c>
@@ -15022,7 +15037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>91</v>
       </c>
@@ -15051,7 +15066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>91</v>
       </c>
@@ -15080,7 +15095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>91</v>
       </c>
@@ -15109,7 +15124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>91</v>
       </c>
@@ -15138,7 +15153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>91</v>
       </c>
@@ -15167,7 +15182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>91</v>
       </c>
@@ -15196,7 +15211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>91</v>
       </c>
@@ -15225,7 +15240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>91</v>
       </c>
@@ -15254,7 +15269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>91</v>
       </c>
@@ -15283,7 +15298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>91</v>
       </c>
@@ -15312,7 +15327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>91</v>
       </c>
@@ -15341,7 +15356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>91</v>
       </c>
@@ -15370,7 +15385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>91</v>
       </c>
@@ -15399,7 +15414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>91</v>
       </c>
@@ -15428,7 +15443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>91</v>
       </c>
@@ -15457,7 +15472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>91</v>
       </c>
@@ -15486,7 +15501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>91</v>
       </c>
@@ -15515,7 +15530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>91</v>
       </c>
@@ -15544,7 +15559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>91</v>
       </c>
@@ -15573,7 +15588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>91</v>
       </c>
@@ -15602,7 +15617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>90</v>
       </c>
@@ -15631,7 +15646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>90</v>
       </c>
@@ -15660,7 +15675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>90</v>
       </c>
@@ -15689,7 +15704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>90</v>
       </c>
@@ -15718,7 +15733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>90</v>
       </c>
@@ -15747,7 +15762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>90</v>
       </c>
@@ -15776,7 +15791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>90</v>
       </c>
@@ -15805,7 +15820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>90</v>
       </c>
@@ -15834,7 +15849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>90</v>
       </c>
@@ -15863,7 +15878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>90</v>
       </c>
@@ -15892,7 +15907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>90</v>
       </c>
@@ -15921,7 +15936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>90</v>
       </c>
@@ -15950,7 +15965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>90</v>
       </c>
@@ -15979,7 +15994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>90</v>
       </c>
@@ -16008,7 +16023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>90</v>
       </c>
@@ -16037,7 +16052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>90</v>
       </c>
@@ -16066,7 +16081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>90</v>
       </c>
@@ -16095,7 +16110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>90</v>
       </c>
@@ -16124,7 +16139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>90</v>
       </c>
@@ -16153,7 +16168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>90</v>
       </c>
@@ -16182,7 +16197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>90</v>
       </c>
@@ -16211,7 +16226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>90</v>
       </c>
@@ -16240,7 +16255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>90</v>
       </c>
@@ -16269,7 +16284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>90</v>
       </c>
@@ -16298,7 +16313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>90</v>
       </c>
@@ -16327,7 +16342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>90</v>
       </c>
@@ -16356,7 +16371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>90</v>
       </c>
@@ -16385,7 +16400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>90</v>
       </c>
@@ -16414,7 +16429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>90</v>
       </c>
@@ -16443,7 +16458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>90</v>
       </c>
@@ -16472,7 +16487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>90</v>
       </c>
@@ -16501,7 +16516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>90</v>
       </c>
@@ -16530,7 +16545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>90</v>
       </c>
@@ -16559,7 +16574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>90</v>
       </c>
@@ -16588,7 +16603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>90</v>
       </c>
@@ -16617,7 +16632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>90</v>
       </c>
@@ -16646,7 +16661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>90</v>
       </c>
@@ -16675,7 +16690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>90</v>
       </c>
@@ -16704,7 +16719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>90</v>
       </c>
@@ -16733,7 +16748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>90</v>
       </c>
@@ -16762,7 +16777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>90</v>
       </c>
@@ -16791,7 +16806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>90</v>
       </c>
@@ -16820,7 +16835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>90</v>
       </c>
@@ -16849,7 +16864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>90</v>
       </c>
@@ -16878,7 +16893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>90</v>
       </c>
@@ -16907,7 +16922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>90</v>
       </c>
@@ -16936,7 +16951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>90</v>
       </c>
@@ -16965,7 +16980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>90</v>
       </c>
@@ -16994,7 +17009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>90</v>
       </c>
@@ -17023,7 +17038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>99</v>
       </c>
@@ -17052,7 +17067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>99</v>
       </c>
@@ -17081,7 +17096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>99</v>
       </c>
@@ -17110,7 +17125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>99</v>
       </c>
@@ -17139,7 +17154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>99</v>
       </c>
@@ -17168,7 +17183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>99</v>
       </c>
@@ -17197,7 +17212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>99</v>
       </c>
@@ -17226,7 +17241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>99</v>
       </c>
@@ -17255,7 +17270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>99</v>
       </c>
@@ -17284,7 +17299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>99</v>
       </c>
@@ -17313,7 +17328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>99</v>
       </c>
@@ -17342,7 +17357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>99</v>
       </c>
@@ -17371,7 +17386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>99</v>
       </c>
@@ -17400,7 +17415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>99</v>
       </c>
@@ -17429,7 +17444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>99</v>
       </c>
@@ -17458,7 +17473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>99</v>
       </c>
@@ -17487,7 +17502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>99</v>
       </c>
@@ -17516,7 +17531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>99</v>
       </c>
@@ -17545,7 +17560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>99</v>
       </c>
@@ -17574,7 +17589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>99</v>
       </c>
@@ -17603,7 +17618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>99</v>
       </c>
@@ -17632,7 +17647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>99</v>
       </c>
@@ -17661,7 +17676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>99</v>
       </c>
@@ -17690,7 +17705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>99</v>
       </c>
@@ -17719,7 +17734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>99</v>
       </c>
@@ -17748,7 +17763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>99</v>
       </c>
@@ -17777,7 +17792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>99</v>
       </c>
@@ -17806,7 +17821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>99</v>
       </c>
@@ -17835,7 +17850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>99</v>
       </c>
@@ -17864,7 +17879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>99</v>
       </c>
@@ -17893,7 +17908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>99</v>
       </c>
@@ -17922,7 +17937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>99</v>
       </c>
@@ -17951,7 +17966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>99</v>
       </c>
@@ -17980,7 +17995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>99</v>
       </c>
@@ -18009,7 +18024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>99</v>
       </c>
@@ -18038,7 +18053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>99</v>
       </c>
@@ -18067,7 +18082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>99</v>
       </c>
@@ -18096,7 +18111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>99</v>
       </c>
@@ -18125,7 +18140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>99</v>
       </c>
@@ -18154,7 +18169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>99</v>
       </c>
@@ -18183,7 +18198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>99</v>
       </c>
@@ -18212,7 +18227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>99</v>
       </c>
@@ -18241,7 +18256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>99</v>
       </c>
@@ -18270,7 +18285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>99</v>
       </c>
@@ -18299,7 +18314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>99</v>
       </c>
@@ -18328,7 +18343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>99</v>
       </c>
@@ -18357,7 +18372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>99</v>
       </c>
@@ -18386,7 +18401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>99</v>
       </c>
@@ -18415,7 +18430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>99</v>
       </c>
@@ -18444,7 +18459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>99</v>
       </c>
@@ -18473,7 +18488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>99</v>
       </c>
@@ -18502,7 +18517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>99</v>
       </c>
@@ -18531,7 +18546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>99</v>
       </c>
@@ -18560,7 +18575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>99</v>
       </c>
@@ -18589,7 +18604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>99</v>
       </c>
@@ -18618,7 +18633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>108</v>
       </c>
@@ -18628,13 +18643,13 @@
       <c r="C367" t="s">
         <v>23</v>
       </c>
-      <c r="D367" s="16">
+      <c r="D367" s="15">
         <v>0.75</v>
       </c>
       <c r="E367" t="s">
         <v>34</v>
       </c>
-      <c r="F367" s="16">
+      <c r="F367" s="15">
         <v>0.25</v>
       </c>
       <c r="G367" t="s">
@@ -18647,7 +18662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>108</v>
       </c>
@@ -18657,13 +18672,13 @@
       <c r="C368" t="s">
         <v>40</v>
       </c>
-      <c r="D368" s="16">
+      <c r="D368" s="15">
         <v>0.56999999999999995</v>
       </c>
       <c r="E368" t="s">
         <v>13</v>
       </c>
-      <c r="F368" s="16">
+      <c r="F368" s="15">
         <v>0.43</v>
       </c>
       <c r="G368" t="s">
@@ -18673,6 +18688,35 @@
         <v>84</v>
       </c>
       <c r="I368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A369" t="s">
+        <v>108</v>
+      </c>
+      <c r="B369" s="1">
+        <v>45320</v>
+      </c>
+      <c r="C369" t="s">
+        <v>20</v>
+      </c>
+      <c r="D369" s="15">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E369" t="s">
+        <v>36</v>
+      </c>
+      <c r="F369" s="15">
+        <v>0.42</v>
+      </c>
+      <c r="G369" t="s">
+        <v>64</v>
+      </c>
+      <c r="H369" t="s">
+        <v>84</v>
+      </c>
+      <c r="I369">
         <v>1</v>
       </c>
     </row>

--- a/PDA Lifetime Predictions.xlsx
+++ b/PDA Lifetime Predictions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thigg\Desktop\Hockey Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F805017-830D-4194-BC72-639F5417717A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F49DA9-A53B-4152-B8C5-A25A326B68C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51480" yWindow="-195" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1924" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1935" uniqueCount="110">
   <si>
     <t>Date</t>
   </si>
@@ -964,7 +964,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45320.325966203702" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="369" xr:uid="{D3A71568-3061-40C8-A74B-8B86C64C3ADC}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45321.313462268517" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="371" xr:uid="{D3A71568-3061-40C8-A74B-8B86C64C3ADC}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:I1048576" sheet="Predictions"/>
   </cacheSource>
@@ -983,7 +983,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2024-01-30T00:00:00" count="50">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2024-01-31T00:00:00" count="51">
         <d v="2023-12-09T00:00:00"/>
         <d v="2023-12-10T00:00:00"/>
         <d v="2023-12-11T00:00:00"/>
@@ -1033,6 +1033,7 @@
         <d v="2024-01-27T00:00:00"/>
         <d v="2024-01-28T00:00:00"/>
         <d v="2024-01-29T00:00:00"/>
+        <d v="2024-01-30T00:00:00"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -1040,7 +1041,7 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Winner Probability" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="0.5" maxValue="0.87610539305886403" count="661">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="0.5" maxValue="0.87610539305886403" count="663">
         <n v="0.87609999999999999"/>
         <n v="0.78059999999999996"/>
         <n v="0.65859999999999996"/>
@@ -1393,6 +1394,8 @@
         <n v="0.75"/>
         <n v="0.56999999999999995"/>
         <n v="0.57999999999999996"/>
+        <n v="0.72299999999999998"/>
+        <n v="0.69799999999999995"/>
         <m/>
         <n v="0.87610539305886403" u="1"/>
         <n v="0.78056782297496197" u="1"/>
@@ -1740,7 +1743,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="369">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="371">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -5787,13 +5790,35 @@
     <n v="0.42"/>
     <s v="Playing At:  Ottawa Senators   Home"/>
     <x v="3"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="49"/>
+    <s v="St. Louis Blues"/>
+    <x v="352"/>
+    <s v="Columbus Blue Jackets"/>
+    <n v="0.27700000000000002"/>
+    <s v="Playing At:  St. Louis Blues   Home"/>
+    <x v="6"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="49"/>
+    <s v="Seattle Kraken"/>
+    <x v="353"/>
+    <s v="San Jose Sharks"/>
+    <n v="0.30199999999999999"/>
+    <s v="Playing At:  San Jose Sharks   Home"/>
+    <x v="2"/>
     <n v="1"/>
   </r>
   <r>
     <x v="8"/>
-    <x v="49"/>
+    <x v="50"/>
     <m/>
-    <x v="352"/>
+    <x v="354"/>
     <m/>
     <m/>
     <m/>
@@ -5804,6 +5829,190 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{80C3D042-980E-40EE-B50F-CF37801A1A1D}" name="PivotTable3" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="L3:O37" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
+  <pivotFields count="10">
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="10">
+        <item h="1" x="8"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" numFmtId="14" outline="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="10">
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="2"/>
+        <item x="6"/>
+        <item m="1" x="8"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="34">
+    <i>
+      <x v="1"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i t="default">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i t="default">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i t="default">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i t="default">
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Count of Winner1" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Model" fld="8" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1FB34DD3-8207-4009-92F5-73C183F63DF8}" name="PivotTable1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A5:C13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="10">
@@ -5822,7 +6031,7 @@
       </items>
     </pivotField>
     <pivotField axis="axisPage" showAll="0">
-      <items count="51">
+      <items count="52">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -5862,7 +6071,7 @@
         <item x="36"/>
         <item x="37"/>
         <item x="38"/>
-        <item x="49"/>
+        <item x="50"/>
         <item x="39"/>
         <item x="40"/>
         <item x="41"/>
@@ -5873,15 +6082,14 @@
         <item x="46"/>
         <item x="47"/>
         <item x="48"/>
+        <item x="49"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="662">
-        <item x="352"/>
-        <item m="1" x="353"/>
-        <item m="1" x="354"/>
+      <items count="664">
+        <item x="354"/>
         <item m="1" x="355"/>
         <item m="1" x="356"/>
         <item m="1" x="357"/>
@@ -6182,14 +6390,16 @@
         <item m="1" x="652"/>
         <item m="1" x="653"/>
         <item m="1" x="654"/>
-        <item x="314"/>
         <item m="1" x="655"/>
         <item m="1" x="656"/>
+        <item x="314"/>
         <item m="1" x="657"/>
         <item m="1" x="658"/>
         <item m="1" x="659"/>
+        <item m="1" x="660"/>
+        <item m="1" x="661"/>
         <item x="9"/>
-        <item m="1" x="660"/>
+        <item m="1" x="662"/>
         <item x="286"/>
         <item x="287"/>
         <item x="288"/>
@@ -6540,6 +6750,8 @@
         <item x="349"/>
         <item x="350"/>
         <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -6608,187 +6820,6 @@
     <pageField fld="1" hier="-1"/>
     <pageField fld="3" hier="-1"/>
   </pageFields>
-  <dataFields count="2">
-    <dataField name="Count of Winner1" fld="2" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Model" fld="8" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{80C3D042-980E-40EE-B50F-CF37801A1A1D}" name="PivotTable3" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="L3:O36" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
-  <pivotFields count="10">
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="10">
-        <item h="1" x="8"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" numFmtId="14" outline="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="10">
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="2"/>
-        <item x="6"/>
-        <item m="1" x="8"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="0"/>
-    <field x="7"/>
-  </rowFields>
-  <rowItems count="33">
-    <i>
-      <x v="1"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i t="default">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i t="default">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i t="default">
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-      <x v="5"/>
-    </i>
-    <i t="default">
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
   <dataFields count="2">
     <dataField name="Count of Winner1" fld="2" subtotal="count" baseField="0" baseItem="0"/>
     <dataField name="Sum of Model" fld="8" baseField="0" baseItem="0"/>
@@ -7105,23 +7136,23 @@
   <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>79</v>
       </c>
@@ -7129,7 +7160,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -7137,7 +7168,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -7160,7 +7191,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="L4" t="s">
         <v>86</v>
       </c>
@@ -7178,7 +7209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>52</v>
       </c>
@@ -7217,7 +7248,7 @@
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>61</v>
       </c>
@@ -7233,11 +7264,11 @@
       </c>
       <c r="E6" s="7">
         <f>SUM(B10:B12)</f>
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F6" s="5">
         <f>SUM(B6:B9)</f>
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G6" s="11">
         <f>SUM(B6:B8)</f>
@@ -7261,7 +7292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>50</v>
       </c>
@@ -7281,7 +7312,7 @@
       </c>
       <c r="F7" s="5">
         <f>SUM(C6:C9)</f>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G7" s="11">
         <f>SUM(C6:C8)</f>
@@ -7305,7 +7336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>93</v>
       </c>
@@ -7321,11 +7352,11 @@
       </c>
       <c r="E8" s="8">
         <f>E7/E6</f>
-        <v>0.55430711610486894</v>
+        <v>0.55223880597014929</v>
       </c>
       <c r="F8" s="6">
         <f>F7/F6</f>
-        <v>0.69306930693069302</v>
+        <v>0.69607843137254899</v>
       </c>
       <c r="G8" s="12">
         <f>G7/G6</f>
@@ -7349,19 +7380,19 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B9" s="16">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C9" s="16">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" si="1"/>
-        <v>0.65909090909090906</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>107</v>
@@ -7392,35 +7423,35 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B10" s="16">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C10" s="16">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" si="1"/>
-        <v>0.59292035398230092</v>
+        <v>0.59649122807017541</v>
       </c>
       <c r="E10" s="8">
         <f>E6/$B$13</f>
-        <v>0.72554347826086951</v>
+        <v>0.72432432432432436</v>
       </c>
       <c r="F10" s="6">
         <f t="shared" ref="F10:H10" si="2">F6/$B$13</f>
-        <v>0.27445652173913043</v>
+        <v>0.27567567567567569</v>
       </c>
       <c r="G10" s="12">
         <f t="shared" si="2"/>
-        <v>0.15489130434782608</v>
+        <v>0.15405405405405406</v>
       </c>
       <c r="H10" s="10">
         <f t="shared" si="2"/>
-        <v>4.0760869565217392E-2</v>
+        <v>4.0540540540540543E-2</v>
       </c>
       <c r="M10" t="s">
         <v>93</v>
@@ -7436,7 +7467,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>84</v>
       </c>
@@ -7444,11 +7475,11 @@
         <v>79</v>
       </c>
       <c r="C11" s="16">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" si="1"/>
-        <v>0.51898734177215189</v>
+        <v>0.50632911392405067</v>
       </c>
       <c r="M11" t="s">
         <v>50</v>
@@ -7464,7 +7495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>85</v>
       </c>
@@ -7492,19 +7523,19 @@
         <v>0.46666666666666667</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B13" s="16">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C13" s="16">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" si="1"/>
-        <v>0.59239130434782605</v>
+        <v>0.59189189189189184</v>
       </c>
       <c r="L13" t="s">
         <v>88</v>
@@ -7523,7 +7554,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="M14" t="s">
         <v>93</v>
       </c>
@@ -7538,7 +7569,7 @@
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="M15" t="s">
         <v>50</v>
       </c>
@@ -7553,7 +7584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="L16" t="s">
         <v>102</v>
       </c>
@@ -7568,7 +7599,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="17" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L17" t="s">
         <v>89</v>
       </c>
@@ -7586,7 +7617,7 @@
         <v>0.55555555555555558</v>
       </c>
     </row>
-    <row r="18" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="12:16" x14ac:dyDescent="0.25">
       <c r="M18" t="s">
         <v>93</v>
       </c>
@@ -7601,7 +7632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="12:16" x14ac:dyDescent="0.25">
       <c r="M19" t="s">
         <v>50</v>
       </c>
@@ -7616,7 +7647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="12:16" x14ac:dyDescent="0.25">
       <c r="M20" t="s">
         <v>61</v>
       </c>
@@ -7631,7 +7662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L21" t="s">
         <v>103</v>
       </c>
@@ -7646,7 +7677,7 @@
         <v>0.77777777777777779</v>
       </c>
     </row>
-    <row r="22" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L22" t="s">
         <v>91</v>
       </c>
@@ -7664,7 +7695,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="12:16" x14ac:dyDescent="0.25">
       <c r="M23" t="s">
         <v>93</v>
       </c>
@@ -7679,7 +7710,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="24" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="12:16" x14ac:dyDescent="0.25">
       <c r="M24" t="s">
         <v>50</v>
       </c>
@@ -7694,7 +7725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L25" t="s">
         <v>104</v>
       </c>
@@ -7709,7 +7740,7 @@
         <v>0.69230769230769229</v>
       </c>
     </row>
-    <row r="26" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L26" t="s">
         <v>90</v>
       </c>
@@ -7727,7 +7758,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="27" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="12:16" x14ac:dyDescent="0.25">
       <c r="M27" t="s">
         <v>93</v>
       </c>
@@ -7742,7 +7773,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="28" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="12:16" x14ac:dyDescent="0.25">
       <c r="M28" t="s">
         <v>61</v>
       </c>
@@ -7757,7 +7788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L29" t="s">
         <v>105</v>
       </c>
@@ -7772,7 +7803,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="30" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L30" t="s">
         <v>99</v>
       </c>
@@ -7790,7 +7821,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="31" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="12:16" x14ac:dyDescent="0.25">
       <c r="M31" t="s">
         <v>93</v>
       </c>
@@ -7805,7 +7836,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="32" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="12:16" x14ac:dyDescent="0.25">
       <c r="M32" t="s">
         <v>50</v>
       </c>
@@ -7820,7 +7851,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L33" t="s">
         <v>106</v>
       </c>
@@ -7835,12 +7866,12 @@
         <v>0.73333333333333328</v>
       </c>
     </row>
-    <row r="34" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L34" t="s">
         <v>108</v>
       </c>
       <c r="M34" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N34" s="16">
         <v>1</v>
@@ -7853,9 +7884,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="12:16" x14ac:dyDescent="0.35">
-      <c r="L35" t="s">
-        <v>109</v>
+    <row r="35" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="M35" t="s">
+        <v>93</v>
       </c>
       <c r="N35" s="16">
         <v>1</v>
@@ -7868,67 +7899,76 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L36" t="s">
+        <v>109</v>
+      </c>
+      <c r="N36" s="16">
+        <v>2</v>
+      </c>
+      <c r="O36" s="16">
+        <v>2</v>
+      </c>
+      <c r="P36" s="4"/>
+    </row>
+    <row r="37" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L37" t="s">
         <v>53</v>
       </c>
-      <c r="N36" s="16">
-        <v>101</v>
-      </c>
-      <c r="O36" s="16">
-        <v>70</v>
-      </c>
-      <c r="P36" s="4"/>
-    </row>
-    <row r="37" spans="12:16" x14ac:dyDescent="0.35">
+      <c r="N37" s="16">
+        <v>102</v>
+      </c>
+      <c r="O37" s="16">
+        <v>71</v>
+      </c>
       <c r="P37" s="4"/>
     </row>
-    <row r="38" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="12:16" x14ac:dyDescent="0.25">
       <c r="P38" s="4"/>
     </row>
-    <row r="39" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="12:16" x14ac:dyDescent="0.25">
       <c r="P39" s="4"/>
     </row>
-    <row r="40" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="12:16" x14ac:dyDescent="0.25">
       <c r="P40" s="4"/>
     </row>
-    <row r="41" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="12:16" x14ac:dyDescent="0.25">
       <c r="P41" s="4"/>
     </row>
-    <row r="42" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="12:16" x14ac:dyDescent="0.25">
       <c r="P42" s="4"/>
     </row>
-    <row r="43" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="12:16" x14ac:dyDescent="0.25">
       <c r="P43" s="4"/>
     </row>
-    <row r="44" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="44" spans="12:16" x14ac:dyDescent="0.25">
       <c r="P44" s="4"/>
     </row>
-    <row r="45" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="45" spans="12:16" x14ac:dyDescent="0.25">
       <c r="P45" s="4"/>
     </row>
-    <row r="46" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="46" spans="12:16" x14ac:dyDescent="0.25">
       <c r="P46" s="4"/>
     </row>
-    <row r="47" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="47" spans="12:16" x14ac:dyDescent="0.25">
       <c r="P47" s="4"/>
     </row>
-    <row r="48" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="48" spans="12:16" x14ac:dyDescent="0.25">
       <c r="P48" s="4"/>
     </row>
-    <row r="49" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="49" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P49" s="4"/>
     </row>
-    <row r="50" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="50" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P50" s="4"/>
     </row>
-    <row r="51" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="51" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P51" s="4"/>
     </row>
-    <row r="52" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="52" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P52" s="4"/>
     </row>
-    <row r="53" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="53" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P53" s="4"/>
     </row>
   </sheetData>
@@ -7999,27 +8039,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I369"/>
+  <dimension ref="A1:I371"/>
   <sheetViews>
     <sheetView topLeftCell="A351" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I370" sqref="I370"/>
+      <selection activeCell="I372" sqref="I372"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="43" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>79</v>
       </c>
@@ -8048,7 +8088,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -8077,7 +8117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>86</v>
       </c>
@@ -8106,7 +8146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>86</v>
       </c>
@@ -8135,7 +8175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>86</v>
       </c>
@@ -8164,7 +8204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>86</v>
       </c>
@@ -8193,7 +8233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>86</v>
       </c>
@@ -8222,7 +8262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -8251,7 +8291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -8280,7 +8320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>86</v>
       </c>
@@ -8309,7 +8349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>86</v>
       </c>
@@ -8338,7 +8378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>86</v>
       </c>
@@ -8367,7 +8407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>86</v>
       </c>
@@ -8396,7 +8436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>86</v>
       </c>
@@ -8425,7 +8465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>86</v>
       </c>
@@ -8454,7 +8494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>86</v>
       </c>
@@ -8483,7 +8523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>86</v>
       </c>
@@ -8512,7 +8552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>86</v>
       </c>
@@ -8541,7 +8581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>86</v>
       </c>
@@ -8570,7 +8610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>86</v>
       </c>
@@ -8599,7 +8639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>86</v>
       </c>
@@ -8628,7 +8668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>86</v>
       </c>
@@ -8657,7 +8697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>86</v>
       </c>
@@ -8686,7 +8726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>86</v>
       </c>
@@ -8715,7 +8755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>86</v>
       </c>
@@ -8744,7 +8784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>86</v>
       </c>
@@ -8773,7 +8813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>86</v>
       </c>
@@ -8802,7 +8842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>86</v>
       </c>
@@ -8831,7 +8871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>86</v>
       </c>
@@ -8860,7 +8900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>86</v>
       </c>
@@ -8889,7 +8929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>86</v>
       </c>
@@ -8918,7 +8958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>86</v>
       </c>
@@ -8947,7 +8987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>86</v>
       </c>
@@ -8976,7 +9016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>86</v>
       </c>
@@ -9005,7 +9045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>86</v>
       </c>
@@ -9034,7 +9074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>86</v>
       </c>
@@ -9063,7 +9103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>86</v>
       </c>
@@ -9092,7 +9132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>86</v>
       </c>
@@ -9121,7 +9161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>86</v>
       </c>
@@ -9150,7 +9190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>86</v>
       </c>
@@ -9179,7 +9219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>86</v>
       </c>
@@ -9208,7 +9248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>86</v>
       </c>
@@ -9237,7 +9277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>86</v>
       </c>
@@ -9266,7 +9306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>86</v>
       </c>
@@ -9295,7 +9335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>86</v>
       </c>
@@ -9324,7 +9364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>86</v>
       </c>
@@ -9353,7 +9393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>86</v>
       </c>
@@ -9382,7 +9422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>86</v>
       </c>
@@ -9411,7 +9451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>86</v>
       </c>
@@ -9440,7 +9480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>86</v>
       </c>
@@ -9469,7 +9509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>86</v>
       </c>
@@ -9498,7 +9538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>86</v>
       </c>
@@ -9527,7 +9567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>86</v>
       </c>
@@ -9556,7 +9596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>86</v>
       </c>
@@ -9585,7 +9625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>86</v>
       </c>
@@ -9614,7 +9654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>86</v>
       </c>
@@ -9643,7 +9683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>86</v>
       </c>
@@ -9672,7 +9712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>86</v>
       </c>
@@ -9701,7 +9741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>86</v>
       </c>
@@ -9730,7 +9770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>86</v>
       </c>
@@ -9759,7 +9799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>86</v>
       </c>
@@ -9788,7 +9828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>86</v>
       </c>
@@ -9817,7 +9857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>86</v>
       </c>
@@ -9846,7 +9886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>86</v>
       </c>
@@ -9875,7 +9915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>86</v>
       </c>
@@ -9904,7 +9944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>86</v>
       </c>
@@ -9933,7 +9973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>86</v>
       </c>
@@ -9962,7 +10002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>87</v>
       </c>
@@ -9991,7 +10031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>87</v>
       </c>
@@ -10020,7 +10060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>87</v>
       </c>
@@ -10049,7 +10089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>87</v>
       </c>
@@ -10078,7 +10118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>87</v>
       </c>
@@ -10107,7 +10147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>87</v>
       </c>
@@ -10136,7 +10176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>87</v>
       </c>
@@ -10165,7 +10205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>87</v>
       </c>
@@ -10194,7 +10234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>87</v>
       </c>
@@ -10223,7 +10263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>87</v>
       </c>
@@ -10252,7 +10292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>87</v>
       </c>
@@ -10281,7 +10321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>87</v>
       </c>
@@ -10310,7 +10350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>87</v>
       </c>
@@ -10339,7 +10379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>87</v>
       </c>
@@ -10368,7 +10408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>87</v>
       </c>
@@ -10397,7 +10437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>87</v>
       </c>
@@ -10426,7 +10466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>87</v>
       </c>
@@ -10455,7 +10495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>87</v>
       </c>
@@ -10484,7 +10524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>87</v>
       </c>
@@ -10513,7 +10553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>87</v>
       </c>
@@ -10542,7 +10582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -10571,7 +10611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -10600,7 +10640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>87</v>
       </c>
@@ -10629,7 +10669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>87</v>
       </c>
@@ -10658,7 +10698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>87</v>
       </c>
@@ -10687,7 +10727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>87</v>
       </c>
@@ -10716,7 +10756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>87</v>
       </c>
@@ -10745,7 +10785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>87</v>
       </c>
@@ -10774,7 +10814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>87</v>
       </c>
@@ -10803,7 +10843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>87</v>
       </c>
@@ -10832,7 +10872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>87</v>
       </c>
@@ -10861,7 +10901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>87</v>
       </c>
@@ -10890,7 +10930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>87</v>
       </c>
@@ -10919,7 +10959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>87</v>
       </c>
@@ -10948,7 +10988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>87</v>
       </c>
@@ -10977,7 +11017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>87</v>
       </c>
@@ -11006,7 +11046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>87</v>
       </c>
@@ -11035,7 +11075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>87</v>
       </c>
@@ -11064,7 +11104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>87</v>
       </c>
@@ -11093,7 +11133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>87</v>
       </c>
@@ -11122,7 +11162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>87</v>
       </c>
@@ -11151,7 +11191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>87</v>
       </c>
@@ -11180,7 +11220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>87</v>
       </c>
@@ -11209,7 +11249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>87</v>
       </c>
@@ -11238,7 +11278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>87</v>
       </c>
@@ -11267,7 +11307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>87</v>
       </c>
@@ -11296,7 +11336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>87</v>
       </c>
@@ -11325,7 +11365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>87</v>
       </c>
@@ -11354,7 +11394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>87</v>
       </c>
@@ -11383,7 +11423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>87</v>
       </c>
@@ -11412,7 +11452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>87</v>
       </c>
@@ -11441,7 +11481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>87</v>
       </c>
@@ -11470,7 +11510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>87</v>
       </c>
@@ -11499,7 +11539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>87</v>
       </c>
@@ -11528,7 +11568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>88</v>
       </c>
@@ -11557,7 +11597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>88</v>
       </c>
@@ -11586,7 +11626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>88</v>
       </c>
@@ -11615,7 +11655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>88</v>
       </c>
@@ -11644,7 +11684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>88</v>
       </c>
@@ -11673,7 +11713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>88</v>
       </c>
@@ -11702,7 +11742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>88</v>
       </c>
@@ -11731,7 +11771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>88</v>
       </c>
@@ -11760,7 +11800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>88</v>
       </c>
@@ -11789,7 +11829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>88</v>
       </c>
@@ -11818,7 +11858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>88</v>
       </c>
@@ -11847,7 +11887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>88</v>
       </c>
@@ -11876,7 +11916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>88</v>
       </c>
@@ -11905,7 +11945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>88</v>
       </c>
@@ -11934,7 +11974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>88</v>
       </c>
@@ -11963,7 +12003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>88</v>
       </c>
@@ -11992,7 +12032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>88</v>
       </c>
@@ -12021,7 +12061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>88</v>
       </c>
@@ -12050,7 +12090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>88</v>
       </c>
@@ -12079,7 +12119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>88</v>
       </c>
@@ -12108,7 +12148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>88</v>
       </c>
@@ -12137,7 +12177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>88</v>
       </c>
@@ -12166,7 +12206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>88</v>
       </c>
@@ -12195,7 +12235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>88</v>
       </c>
@@ -12224,7 +12264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>88</v>
       </c>
@@ -12253,7 +12293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>88</v>
       </c>
@@ -12282,7 +12322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>88</v>
       </c>
@@ -12311,7 +12351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>88</v>
       </c>
@@ -12340,7 +12380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>88</v>
       </c>
@@ -12369,7 +12409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>88</v>
       </c>
@@ -12398,7 +12438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>88</v>
       </c>
@@ -12427,7 +12467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>88</v>
       </c>
@@ -12456,7 +12496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>88</v>
       </c>
@@ -12485,7 +12525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>88</v>
       </c>
@@ -12514,7 +12554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>88</v>
       </c>
@@ -12543,7 +12583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>88</v>
       </c>
@@ -12572,7 +12612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>89</v>
       </c>
@@ -12601,7 +12641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>89</v>
       </c>
@@ -12630,7 +12670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>89</v>
       </c>
@@ -12659,7 +12699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>89</v>
       </c>
@@ -12688,7 +12728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>89</v>
       </c>
@@ -12717,7 +12757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>89</v>
       </c>
@@ -12746,7 +12786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>89</v>
       </c>
@@ -12775,7 +12815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>89</v>
       </c>
@@ -12804,7 +12844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>89</v>
       </c>
@@ -12833,7 +12873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>89</v>
       </c>
@@ -12862,7 +12902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>89</v>
       </c>
@@ -12891,7 +12931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>89</v>
       </c>
@@ -12920,7 +12960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>89</v>
       </c>
@@ -12949,7 +12989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>89</v>
       </c>
@@ -12978,7 +13018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>89</v>
       </c>
@@ -13007,7 +13047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>89</v>
       </c>
@@ -13036,7 +13076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>89</v>
       </c>
@@ -13065,7 +13105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>89</v>
       </c>
@@ -13094,7 +13134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>89</v>
       </c>
@@ -13123,7 +13163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>89</v>
       </c>
@@ -13152,7 +13192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>89</v>
       </c>
@@ -13181,7 +13221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>89</v>
       </c>
@@ -13210,7 +13250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>89</v>
       </c>
@@ -13239,7 +13279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>89</v>
       </c>
@@ -13268,7 +13308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>89</v>
       </c>
@@ -13297,7 +13337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>89</v>
       </c>
@@ -13326,7 +13366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>89</v>
       </c>
@@ -13355,7 +13395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>89</v>
       </c>
@@ -13384,7 +13424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>89</v>
       </c>
@@ -13413,7 +13453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>89</v>
       </c>
@@ -13442,7 +13482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>89</v>
       </c>
@@ -13471,7 +13511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>89</v>
       </c>
@@ -13500,7 +13540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>89</v>
       </c>
@@ -13529,7 +13569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>89</v>
       </c>
@@ -13558,7 +13598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>89</v>
       </c>
@@ -13587,7 +13627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>89</v>
       </c>
@@ -13616,7 +13656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>89</v>
       </c>
@@ -13645,7 +13685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>89</v>
       </c>
@@ -13674,7 +13714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>89</v>
       </c>
@@ -13703,7 +13743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>89</v>
       </c>
@@ -13732,7 +13772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>89</v>
       </c>
@@ -13761,7 +13801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>89</v>
       </c>
@@ -13790,7 +13830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>89</v>
       </c>
@@ -13819,7 +13859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>89</v>
       </c>
@@ -13848,7 +13888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>89</v>
       </c>
@@ -13877,7 +13917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>89</v>
       </c>
@@ -13906,7 +13946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>89</v>
       </c>
@@ -13935,7 +13975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>89</v>
       </c>
@@ -13964,7 +14004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>89</v>
       </c>
@@ -13993,7 +14033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>89</v>
       </c>
@@ -14022,7 +14062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>89</v>
       </c>
@@ -14051,7 +14091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>89</v>
       </c>
@@ -14080,7 +14120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>89</v>
       </c>
@@ -14109,7 +14149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>89</v>
       </c>
@@ -14138,7 +14178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>89</v>
       </c>
@@ -14167,7 +14207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>89</v>
       </c>
@@ -14196,7 +14236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>89</v>
       </c>
@@ -14225,7 +14265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>91</v>
       </c>
@@ -14254,7 +14294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>91</v>
       </c>
@@ -14283,7 +14323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>91</v>
       </c>
@@ -14312,7 +14352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>91</v>
       </c>
@@ -14341,7 +14381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>91</v>
       </c>
@@ -14370,7 +14410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>91</v>
       </c>
@@ -14399,7 +14439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>91</v>
       </c>
@@ -14428,7 +14468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>91</v>
       </c>
@@ -14457,7 +14497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>91</v>
       </c>
@@ -14486,7 +14526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>91</v>
       </c>
@@ -14515,7 +14555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>91</v>
       </c>
@@ -14544,7 +14584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>91</v>
       </c>
@@ -14573,7 +14613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>91</v>
       </c>
@@ -14602,7 +14642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>91</v>
       </c>
@@ -14631,7 +14671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>91</v>
       </c>
@@ -14660,7 +14700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>91</v>
       </c>
@@ -14689,7 +14729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>91</v>
       </c>
@@ -14718,7 +14758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>91</v>
       </c>
@@ -14747,7 +14787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>91</v>
       </c>
@@ -14776,7 +14816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>91</v>
       </c>
@@ -14805,7 +14845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>91</v>
       </c>
@@ -14834,7 +14874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>91</v>
       </c>
@@ -14863,7 +14903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>91</v>
       </c>
@@ -14892,7 +14932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>91</v>
       </c>
@@ -14921,7 +14961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>91</v>
       </c>
@@ -14950,7 +14990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>91</v>
       </c>
@@ -14979,7 +15019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>91</v>
       </c>
@@ -15008,7 +15048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>91</v>
       </c>
@@ -15037,7 +15077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>91</v>
       </c>
@@ -15066,7 +15106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>91</v>
       </c>
@@ -15095,7 +15135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>91</v>
       </c>
@@ -15124,7 +15164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>91</v>
       </c>
@@ -15153,7 +15193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>91</v>
       </c>
@@ -15182,7 +15222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>91</v>
       </c>
@@ -15211,7 +15251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>91</v>
       </c>
@@ -15240,7 +15280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>91</v>
       </c>
@@ -15269,7 +15309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>91</v>
       </c>
@@ -15298,7 +15338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>91</v>
       </c>
@@ -15327,7 +15367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>91</v>
       </c>
@@ -15356,7 +15396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>91</v>
       </c>
@@ -15385,7 +15425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>91</v>
       </c>
@@ -15414,7 +15454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>91</v>
       </c>
@@ -15443,7 +15483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>91</v>
       </c>
@@ -15472,7 +15512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>91</v>
       </c>
@@ -15501,7 +15541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>91</v>
       </c>
@@ -15530,7 +15570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>91</v>
       </c>
@@ -15559,7 +15599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>91</v>
       </c>
@@ -15588,7 +15628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>91</v>
       </c>
@@ -15617,7 +15657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>90</v>
       </c>
@@ -15646,7 +15686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>90</v>
       </c>
@@ -15675,7 +15715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>90</v>
       </c>
@@ -15704,7 +15744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>90</v>
       </c>
@@ -15733,7 +15773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>90</v>
       </c>
@@ -15762,7 +15802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>90</v>
       </c>
@@ -15791,7 +15831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>90</v>
       </c>
@@ -15820,7 +15860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>90</v>
       </c>
@@ -15849,7 +15889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>90</v>
       </c>
@@ -15878,7 +15918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>90</v>
       </c>
@@ -15907,7 +15947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>90</v>
       </c>
@@ -15936,7 +15976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>90</v>
       </c>
@@ -15965,7 +16005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>90</v>
       </c>
@@ -15994,7 +16034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>90</v>
       </c>
@@ -16023,7 +16063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>90</v>
       </c>
@@ -16052,7 +16092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>90</v>
       </c>
@@ -16081,7 +16121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>90</v>
       </c>
@@ -16110,7 +16150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>90</v>
       </c>
@@ -16139,7 +16179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>90</v>
       </c>
@@ -16168,7 +16208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>90</v>
       </c>
@@ -16197,7 +16237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>90</v>
       </c>
@@ -16226,7 +16266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>90</v>
       </c>
@@ -16255,7 +16295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>90</v>
       </c>
@@ -16284,7 +16324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>90</v>
       </c>
@@ -16313,7 +16353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>90</v>
       </c>
@@ -16342,7 +16382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>90</v>
       </c>
@@ -16371,7 +16411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>90</v>
       </c>
@@ -16400,7 +16440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>90</v>
       </c>
@@ -16429,7 +16469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>90</v>
       </c>
@@ -16458,7 +16498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>90</v>
       </c>
@@ -16487,7 +16527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>90</v>
       </c>
@@ -16516,7 +16556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>90</v>
       </c>
@@ -16545,7 +16585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>90</v>
       </c>
@@ -16574,7 +16614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>90</v>
       </c>
@@ -16603,7 +16643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>90</v>
       </c>
@@ -16632,7 +16672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>90</v>
       </c>
@@ -16661,7 +16701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>90</v>
       </c>
@@ -16690,7 +16730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>90</v>
       </c>
@@ -16719,7 +16759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>90</v>
       </c>
@@ -16748,7 +16788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>90</v>
       </c>
@@ -16777,7 +16817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>90</v>
       </c>
@@ -16806,7 +16846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>90</v>
       </c>
@@ -16835,7 +16875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>90</v>
       </c>
@@ -16864,7 +16904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>90</v>
       </c>
@@ -16893,7 +16933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>90</v>
       </c>
@@ -16922,7 +16962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>90</v>
       </c>
@@ -16951,7 +16991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>90</v>
       </c>
@@ -16980,7 +17020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>90</v>
       </c>
@@ -17009,7 +17049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>90</v>
       </c>
@@ -17038,7 +17078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>99</v>
       </c>
@@ -17067,7 +17107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>99</v>
       </c>
@@ -17096,7 +17136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>99</v>
       </c>
@@ -17125,7 +17165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>99</v>
       </c>
@@ -17154,7 +17194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>99</v>
       </c>
@@ -17183,7 +17223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>99</v>
       </c>
@@ -17212,7 +17252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>99</v>
       </c>
@@ -17241,7 +17281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>99</v>
       </c>
@@ -17270,7 +17310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>99</v>
       </c>
@@ -17299,7 +17339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>99</v>
       </c>
@@ -17328,7 +17368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>99</v>
       </c>
@@ -17357,7 +17397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>99</v>
       </c>
@@ -17386,7 +17426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>99</v>
       </c>
@@ -17415,7 +17455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>99</v>
       </c>
@@ -17444,7 +17484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>99</v>
       </c>
@@ -17473,7 +17513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>99</v>
       </c>
@@ -17502,7 +17542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>99</v>
       </c>
@@ -17531,7 +17571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>99</v>
       </c>
@@ -17560,7 +17600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>99</v>
       </c>
@@ -17589,7 +17629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>99</v>
       </c>
@@ -17618,7 +17658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>99</v>
       </c>
@@ -17647,7 +17687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>99</v>
       </c>
@@ -17676,7 +17716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>99</v>
       </c>
@@ -17705,7 +17745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>99</v>
       </c>
@@ -17734,7 +17774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>99</v>
       </c>
@@ -17763,7 +17803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>99</v>
       </c>
@@ -17792,7 +17832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>99</v>
       </c>
@@ -17821,7 +17861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>99</v>
       </c>
@@ -17850,7 +17890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>99</v>
       </c>
@@ -17879,7 +17919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>99</v>
       </c>
@@ -17908,7 +17948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>99</v>
       </c>
@@ -17937,7 +17977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>99</v>
       </c>
@@ -17966,7 +18006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>99</v>
       </c>
@@ -17995,7 +18035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>99</v>
       </c>
@@ -18024,7 +18064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>99</v>
       </c>
@@ -18053,7 +18093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>99</v>
       </c>
@@ -18082,7 +18122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>99</v>
       </c>
@@ -18111,7 +18151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>99</v>
       </c>
@@ -18140,7 +18180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>99</v>
       </c>
@@ -18169,7 +18209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>99</v>
       </c>
@@ -18198,7 +18238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>99</v>
       </c>
@@ -18227,7 +18267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>99</v>
       </c>
@@ -18256,7 +18296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>99</v>
       </c>
@@ -18285,7 +18325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>99</v>
       </c>
@@ -18314,7 +18354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>99</v>
       </c>
@@ -18343,7 +18383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>99</v>
       </c>
@@ -18372,7 +18412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>99</v>
       </c>
@@ -18401,7 +18441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>99</v>
       </c>
@@ -18430,7 +18470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>99</v>
       </c>
@@ -18459,7 +18499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>99</v>
       </c>
@@ -18488,7 +18528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>99</v>
       </c>
@@ -18517,7 +18557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>99</v>
       </c>
@@ -18546,7 +18586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>99</v>
       </c>
@@ -18575,7 +18615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>99</v>
       </c>
@@ -18604,7 +18644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>99</v>
       </c>
@@ -18633,7 +18673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>108</v>
       </c>
@@ -18662,7 +18702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>108</v>
       </c>
@@ -18691,7 +18731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>108</v>
       </c>
@@ -18717,6 +18757,64 @@
         <v>84</v>
       </c>
       <c r="I369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>108</v>
+      </c>
+      <c r="B370" s="1">
+        <v>45321</v>
+      </c>
+      <c r="C370" t="s">
+        <v>13</v>
+      </c>
+      <c r="D370" s="14">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="E370" t="s">
+        <v>34</v>
+      </c>
+      <c r="F370" s="14">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="G370" t="s">
+        <v>65</v>
+      </c>
+      <c r="H370" t="s">
+        <v>94</v>
+      </c>
+      <c r="I370">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>108</v>
+      </c>
+      <c r="B371" s="1">
+        <v>45321</v>
+      </c>
+      <c r="C371" t="s">
+        <v>23</v>
+      </c>
+      <c r="D371" s="14">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="E371" t="s">
+        <v>56</v>
+      </c>
+      <c r="F371" s="14">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="G371" t="s">
+        <v>62</v>
+      </c>
+      <c r="H371" t="s">
+        <v>51</v>
+      </c>
+      <c r="I371">
         <v>1</v>
       </c>
     </row>

--- a/PDA Lifetime Predictions.xlsx
+++ b/PDA Lifetime Predictions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thigg\Desktop\Hockey Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F49DA9-A53B-4152-B8C5-A25A326B68C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8E3308-9C7D-4A0C-933C-3487125B1E17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51480" yWindow="-195" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1935" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1950" uniqueCount="110">
   <si>
     <t>Date</t>
   </si>
@@ -964,7 +964,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45321.313462268517" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="371" xr:uid="{D3A71568-3061-40C8-A74B-8B86C64C3ADC}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45322.334382638888" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="374" xr:uid="{D3A71568-3061-40C8-A74B-8B86C64C3ADC}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:I1048576" sheet="Predictions"/>
   </cacheSource>
@@ -983,7 +983,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2024-01-31T00:00:00" count="51">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2024-02-01T00:00:00" count="52">
         <d v="2023-12-09T00:00:00"/>
         <d v="2023-12-10T00:00:00"/>
         <d v="2023-12-11T00:00:00"/>
@@ -1034,6 +1034,7 @@
         <d v="2024-01-28T00:00:00"/>
         <d v="2024-01-29T00:00:00"/>
         <d v="2024-01-30T00:00:00"/>
+        <d v="2024-01-31T00:00:00"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -1041,7 +1042,7 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Winner Probability" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="0.5" maxValue="0.87610539305886403" count="663">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="0.5" maxValue="0.87610539305886403" count="665">
         <n v="0.87609999999999999"/>
         <n v="0.78059999999999996"/>
         <n v="0.65859999999999996"/>
@@ -1396,6 +1397,8 @@
         <n v="0.57999999999999996"/>
         <n v="0.72299999999999998"/>
         <n v="0.69799999999999995"/>
+        <n v="0.61"/>
+        <n v="0.59599999999999997"/>
         <m/>
         <n v="0.87610539305886403" u="1"/>
         <n v="0.78056782297496197" u="1"/>
@@ -1743,7 +1746,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="371">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="374">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -5801,7 +5804,7 @@
     <n v="0.27700000000000002"/>
     <s v="Playing At:  St. Louis Blues   Home"/>
     <x v="6"/>
-    <n v="1"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="7"/>
@@ -5812,13 +5815,46 @@
     <n v="0.30199999999999999"/>
     <s v="Playing At:  San Jose Sharks   Home"/>
     <x v="2"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="50"/>
+    <s v="Anaheim Ducks"/>
+    <x v="354"/>
+    <s v="San Jose Sharks"/>
+    <n v="0.39"/>
+    <s v="Playing At:  Anaheim Ducks   Home"/>
+    <x v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="50"/>
+    <s v="Los Angeles Kings"/>
+    <x v="355"/>
+    <s v="Nashville Predators"/>
+    <n v="0.40400000000000003"/>
+    <s v="Playing At:  Nashville Predators   Home"/>
+    <x v="3"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="50"/>
+    <s v="Detroit Red Wings"/>
+    <x v="350"/>
+    <s v="Ottawa Senators"/>
+    <n v="0.43"/>
+    <s v="Playing At:  Detroit Red Wings   Home"/>
+    <x v="3"/>
     <n v="1"/>
   </r>
   <r>
     <x v="8"/>
-    <x v="50"/>
+    <x v="51"/>
     <m/>
-    <x v="354"/>
+    <x v="356"/>
     <m/>
     <m/>
     <m/>
@@ -5829,190 +5865,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{80C3D042-980E-40EE-B50F-CF37801A1A1D}" name="PivotTable3" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="L3:O37" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
-  <pivotFields count="10">
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="10">
-        <item h="1" x="8"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" numFmtId="14" outline="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="10">
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="2"/>
-        <item x="6"/>
-        <item m="1" x="8"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="0"/>
-    <field x="7"/>
-  </rowFields>
-  <rowItems count="34">
-    <i>
-      <x v="1"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i t="default">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i t="default">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i t="default">
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i t="default">
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Count of Winner1" fld="2" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Model" fld="8" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1FB34DD3-8207-4009-92F5-73C183F63DF8}" name="PivotTable1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A5:C13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="10">
@@ -6031,7 +5883,7 @@
       </items>
     </pivotField>
     <pivotField axis="axisPage" showAll="0">
-      <items count="52">
+      <items count="53">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -6071,7 +5923,7 @@
         <item x="36"/>
         <item x="37"/>
         <item x="38"/>
-        <item x="50"/>
+        <item x="51"/>
         <item x="39"/>
         <item x="40"/>
         <item x="41"/>
@@ -6083,15 +5935,14 @@
         <item x="47"/>
         <item x="48"/>
         <item x="49"/>
+        <item x="50"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="664">
-        <item x="354"/>
-        <item m="1" x="355"/>
-        <item m="1" x="356"/>
+      <items count="666">
+        <item x="356"/>
         <item m="1" x="357"/>
         <item m="1" x="358"/>
         <item m="1" x="359"/>
@@ -6392,14 +6243,16 @@
         <item m="1" x="654"/>
         <item m="1" x="655"/>
         <item m="1" x="656"/>
-        <item x="314"/>
         <item m="1" x="657"/>
         <item m="1" x="658"/>
+        <item x="314"/>
         <item m="1" x="659"/>
         <item m="1" x="660"/>
         <item m="1" x="661"/>
+        <item m="1" x="662"/>
+        <item m="1" x="663"/>
         <item x="9"/>
-        <item m="1" x="662"/>
+        <item m="1" x="664"/>
         <item x="286"/>
         <item x="287"/>
         <item x="288"/>
@@ -6752,6 +6605,8 @@
         <item x="351"/>
         <item x="352"/>
         <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -6820,6 +6675,190 @@
     <pageField fld="1" hier="-1"/>
     <pageField fld="3" hier="-1"/>
   </pageFields>
+  <dataFields count="2">
+    <dataField name="Count of Winner1" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Model" fld="8" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{80C3D042-980E-40EE-B50F-CF37801A1A1D}" name="PivotTable3" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="L3:O37" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
+  <pivotFields count="10">
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="10">
+        <item h="1" x="8"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" numFmtId="14" outline="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="10">
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="2"/>
+        <item x="6"/>
+        <item m="1" x="8"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="34">
+    <i>
+      <x v="1"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i t="default">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i t="default">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i t="default">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i t="default">
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
   <dataFields count="2">
     <dataField name="Count of Winner1" fld="2" subtotal="count" baseField="0" baseItem="0"/>
     <dataField name="Sum of Model" fld="8" baseField="0" baseItem="0"/>
@@ -7136,7 +7175,7 @@
   <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7264,7 +7303,7 @@
       </c>
       <c r="E6" s="7">
         <f>SUM(B10:B12)</f>
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F6" s="5">
         <f>SUM(B6:B9)</f>
@@ -7308,11 +7347,11 @@
       </c>
       <c r="E7" s="7">
         <f>SUM(C10:C12)</f>
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F7" s="5">
         <f>SUM(C6:C9)</f>
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G7" s="11">
         <f>SUM(C6:C8)</f>
@@ -7352,11 +7391,11 @@
       </c>
       <c r="E8" s="8">
         <f>E7/E6</f>
-        <v>0.55223880597014929</v>
+        <v>0.54981549815498154</v>
       </c>
       <c r="F8" s="6">
         <f>F7/F6</f>
-        <v>0.69607843137254899</v>
+        <v>0.68627450980392157</v>
       </c>
       <c r="G8" s="12">
         <f>G7/G6</f>
@@ -7388,11 +7427,11 @@
         <v>45</v>
       </c>
       <c r="C9" s="16">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
+        <v>0.64444444444444449</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>107</v>
@@ -7428,30 +7467,30 @@
         <v>51</v>
       </c>
       <c r="B10" s="16">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C10" s="16">
         <v>68</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" si="1"/>
-        <v>0.59649122807017541</v>
+        <v>0.59130434782608698</v>
       </c>
       <c r="E10" s="8">
         <f>E6/$B$13</f>
-        <v>0.72432432432432436</v>
+        <v>0.72654155495978556</v>
       </c>
       <c r="F10" s="6">
         <f t="shared" ref="F10:H10" si="2">F6/$B$13</f>
-        <v>0.27567567567567569</v>
+        <v>0.27345844504021449</v>
       </c>
       <c r="G10" s="12">
         <f t="shared" si="2"/>
-        <v>0.15405405405405406</v>
+        <v>0.15281501340482573</v>
       </c>
       <c r="H10" s="10">
         <f t="shared" si="2"/>
-        <v>4.0540540540540543E-2</v>
+        <v>4.0214477211796246E-2</v>
       </c>
       <c r="M10" t="s">
         <v>93</v>
@@ -7472,14 +7511,14 @@
         <v>84</v>
       </c>
       <c r="B11" s="16">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C11" s="16">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" si="1"/>
-        <v>0.50632911392405067</v>
+        <v>0.50617283950617287</v>
       </c>
       <c r="M11" t="s">
         <v>50</v>
@@ -7528,14 +7567,14 @@
         <v>53</v>
       </c>
       <c r="B13" s="16">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C13" s="16">
         <v>219</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" si="1"/>
-        <v>0.59189189189189184</v>
+        <v>0.58713136729222515</v>
       </c>
       <c r="L13" t="s">
         <v>88</v>
@@ -7877,11 +7916,11 @@
         <v>1</v>
       </c>
       <c r="O34" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="12:16" x14ac:dyDescent="0.25">
@@ -7907,7 +7946,7 @@
         <v>2</v>
       </c>
       <c r="O36" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P36" s="4"/>
     </row>
@@ -7919,7 +7958,7 @@
         <v>102</v>
       </c>
       <c r="O37" s="16">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P37" s="4"/>
     </row>
@@ -8039,10 +8078,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I371"/>
+  <dimension ref="A1:I374"/>
   <sheetViews>
     <sheetView topLeftCell="A351" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I372" sqref="I372"/>
+      <selection activeCell="I375" sqref="I375"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18786,7 +18825,7 @@
         <v>94</v>
       </c>
       <c r="I370">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.25">
@@ -18815,6 +18854,93 @@
         <v>51</v>
       </c>
       <c r="I371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>108</v>
+      </c>
+      <c r="B372" s="1">
+        <v>45322</v>
+      </c>
+      <c r="C372" t="s">
+        <v>17</v>
+      </c>
+      <c r="D372" s="14">
+        <v>0.61</v>
+      </c>
+      <c r="E372" t="s">
+        <v>56</v>
+      </c>
+      <c r="F372" s="14">
+        <v>0.39</v>
+      </c>
+      <c r="G372" t="s">
+        <v>18</v>
+      </c>
+      <c r="H372" t="s">
+        <v>51</v>
+      </c>
+      <c r="I372">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>108</v>
+      </c>
+      <c r="B373" s="1">
+        <v>45322</v>
+      </c>
+      <c r="C373" t="s">
+        <v>40</v>
+      </c>
+      <c r="D373" s="14">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="E373" t="s">
+        <v>20</v>
+      </c>
+      <c r="F373" s="14">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="G373" t="s">
+        <v>63</v>
+      </c>
+      <c r="H373" t="s">
+        <v>84</v>
+      </c>
+      <c r="I373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>108</v>
+      </c>
+      <c r="B374" s="1">
+        <v>45322</v>
+      </c>
+      <c r="C374" t="s">
+        <v>37</v>
+      </c>
+      <c r="D374" s="14">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E374" t="s">
+        <v>36</v>
+      </c>
+      <c r="F374" s="14">
+        <v>0.43</v>
+      </c>
+      <c r="G374" t="s">
+        <v>38</v>
+      </c>
+      <c r="H374" t="s">
+        <v>84</v>
+      </c>
+      <c r="I374">
         <v>1</v>
       </c>
     </row>

--- a/PDA Lifetime Predictions.xlsx
+++ b/PDA Lifetime Predictions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thigg\Desktop\Hockey Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8E3308-9C7D-4A0C-933C-3487125B1E17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{302B5917-C0F2-4122-B3D0-B7C1117D327A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="14" r:id="rId3"/>
+    <pivotCache cacheId="7" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1950" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1960" uniqueCount="111">
   <si>
     <t>Date</t>
   </si>
@@ -367,6 +367,9 @@
   </si>
   <si>
     <t>PDA8 Total</t>
+  </si>
+  <si>
+    <t>PDA9</t>
   </si>
 </sst>
 </file>
@@ -964,13 +967,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45322.334382638888" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="374" xr:uid="{D3A71568-3061-40C8-A74B-8B86C64C3ADC}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45327.342957986111" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="376" xr:uid="{D3A71568-3061-40C8-A74B-8B86C64C3ADC}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:I1048576" sheet="Predictions"/>
   </cacheSource>
   <cacheFields count="10">
     <cacheField name="Model Used" numFmtId="0">
-      <sharedItems containsBlank="1" count="9">
+      <sharedItems containsBlank="1" count="10">
         <s v="PDA1"/>
         <s v="PDA2"/>
         <s v="PDA3"/>
@@ -979,11 +982,12 @@
         <s v="PDA6"/>
         <s v="PDA7"/>
         <s v="PDA8"/>
+        <s v="PDA9"/>
         <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2024-02-01T00:00:00" count="52">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2024-02-06T00:00:00" count="53">
         <d v="2023-12-09T00:00:00"/>
         <d v="2023-12-10T00:00:00"/>
         <d v="2023-12-11T00:00:00"/>
@@ -1035,6 +1039,7 @@
         <d v="2024-01-29T00:00:00"/>
         <d v="2024-01-30T00:00:00"/>
         <d v="2024-01-31T00:00:00"/>
+        <d v="2024-02-05T00:00:00"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -1042,7 +1047,7 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Winner Probability" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="0.5" maxValue="0.87610539305886403" count="665">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="0.5" maxValue="0.87610539305886403" count="667">
         <n v="0.87609999999999999"/>
         <n v="0.78059999999999996"/>
         <n v="0.65859999999999996"/>
@@ -1399,6 +1404,8 @@
         <n v="0.69799999999999995"/>
         <n v="0.61"/>
         <n v="0.59599999999999997"/>
+        <n v="0.625"/>
+        <n v="0.54500000000000004"/>
         <m/>
         <n v="0.87610539305886403" u="1"/>
         <n v="0.78056782297496197" u="1"/>
@@ -1746,7 +1753,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="374">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="376">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -5853,8 +5860,30 @@
   <r>
     <x v="8"/>
     <x v="51"/>
+    <s v="Toronto Maple Leafs"/>
+    <x v="356"/>
+    <s v="New York Islanders"/>
+    <n v="0.375"/>
+    <s v="Playing At:  Toronto Maple Leafs   Home"/>
+    <x v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="51"/>
+    <s v="Colorado Avalanche"/>
+    <x v="357"/>
+    <s v="New York Rangers"/>
+    <n v="0.45500000000000002"/>
+    <s v="Playing At:  New York Rangers   Home"/>
+    <x v="4"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="52"/>
     <m/>
-    <x v="356"/>
+    <x v="358"/>
     <m/>
     <m/>
     <m/>
@@ -5865,12 +5894,12 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1FB34DD3-8207-4009-92F5-73C183F63DF8}" name="PivotTable1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A5:C13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{80C3D042-980E-40EE-B50F-CF37801A1A1D}" name="PivotTable3" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="L3:O37" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="10">
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="10">
-        <item x="8"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="11">
+        <item h="1" x="9"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -5879,11 +5908,197 @@
         <item x="5"/>
         <item x="6"/>
         <item x="7"/>
+        <item h="1" x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" numFmtId="14" outline="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="10">
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="2"/>
+        <item x="6"/>
+        <item m="1" x="8"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="34">
+    <i>
+      <x v="1"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i t="default">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i t="default">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i t="default">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i t="default">
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Count of Winner1" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Model" fld="8" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1FB34DD3-8207-4009-92F5-73C183F63DF8}" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A5:C13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="10">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="11">
+        <item x="9"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisPage" showAll="0">
-      <items count="53">
+      <items count="54">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -5923,7 +6138,7 @@
         <item x="36"/>
         <item x="37"/>
         <item x="38"/>
-        <item x="51"/>
+        <item x="52"/>
         <item x="39"/>
         <item x="40"/>
         <item x="41"/>
@@ -5936,15 +6151,14 @@
         <item x="48"/>
         <item x="49"/>
         <item x="50"/>
+        <item x="51"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="666">
-        <item x="356"/>
-        <item m="1" x="357"/>
-        <item m="1" x="358"/>
+      <items count="668">
+        <item x="358"/>
         <item m="1" x="359"/>
         <item m="1" x="360"/>
         <item m="1" x="361"/>
@@ -6245,14 +6459,16 @@
         <item m="1" x="656"/>
         <item m="1" x="657"/>
         <item m="1" x="658"/>
-        <item x="314"/>
         <item m="1" x="659"/>
         <item m="1" x="660"/>
+        <item x="314"/>
         <item m="1" x="661"/>
         <item m="1" x="662"/>
         <item m="1" x="663"/>
+        <item m="1" x="664"/>
+        <item m="1" x="665"/>
         <item x="9"/>
-        <item m="1" x="664"/>
+        <item m="1" x="666"/>
         <item x="286"/>
         <item x="287"/>
         <item x="288"/>
@@ -6607,6 +6823,8 @@
         <item x="353"/>
         <item x="354"/>
         <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -6675,190 +6893,6 @@
     <pageField fld="1" hier="-1"/>
     <pageField fld="3" hier="-1"/>
   </pageFields>
-  <dataFields count="2">
-    <dataField name="Count of Winner1" fld="2" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Model" fld="8" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{80C3D042-980E-40EE-B50F-CF37801A1A1D}" name="PivotTable3" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="L3:O37" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
-  <pivotFields count="10">
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="10">
-        <item h="1" x="8"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" numFmtId="14" outline="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="10">
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="2"/>
-        <item x="6"/>
-        <item m="1" x="8"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="0"/>
-    <field x="7"/>
-  </rowFields>
-  <rowItems count="34">
-    <i>
-      <x v="1"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i t="default">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i t="default">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i t="default">
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i t="default">
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
   <dataFields count="2">
     <dataField name="Count of Winner1" fld="2" subtotal="count" baseField="0" baseItem="0"/>
     <dataField name="Sum of Model" fld="8" baseField="0" baseItem="0"/>
@@ -7175,7 +7209,7 @@
   <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7303,7 +7337,7 @@
       </c>
       <c r="E6" s="7">
         <f>SUM(B10:B12)</f>
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F6" s="5">
         <f>SUM(B6:B9)</f>
@@ -7347,7 +7381,7 @@
       </c>
       <c r="E7" s="7">
         <f>SUM(C10:C12)</f>
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F7" s="5">
         <f>SUM(C6:C9)</f>
@@ -7391,7 +7425,7 @@
       </c>
       <c r="E8" s="8">
         <f>E7/E6</f>
-        <v>0.54981549815498154</v>
+        <v>0.55311355311355315</v>
       </c>
       <c r="F8" s="6">
         <f>F7/F6</f>
@@ -7467,30 +7501,30 @@
         <v>51</v>
       </c>
       <c r="B10" s="16">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C10" s="16">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" si="1"/>
-        <v>0.59130434782608698</v>
+        <v>0.59482758620689657</v>
       </c>
       <c r="E10" s="8">
         <f>E6/$B$13</f>
-        <v>0.72654155495978556</v>
+        <v>0.72799999999999998</v>
       </c>
       <c r="F10" s="6">
         <f t="shared" ref="F10:H10" si="2">F6/$B$13</f>
-        <v>0.27345844504021449</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="G10" s="12">
         <f t="shared" si="2"/>
-        <v>0.15281501340482573</v>
+        <v>0.152</v>
       </c>
       <c r="H10" s="10">
         <f t="shared" si="2"/>
-        <v>4.0214477211796246E-2</v>
+        <v>0.04</v>
       </c>
       <c r="M10" t="s">
         <v>93</v>
@@ -7539,14 +7573,14 @@
         <v>85</v>
       </c>
       <c r="B12" s="16">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C12" s="16">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" si="1"/>
-        <v>0.53333333333333333</v>
+        <v>0.53947368421052633</v>
       </c>
       <c r="L12" t="s">
         <v>101</v>
@@ -7567,14 +7601,14 @@
         <v>53</v>
       </c>
       <c r="B13" s="16">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C13" s="16">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" si="1"/>
-        <v>0.58713136729222515</v>
+        <v>0.58933333333333338</v>
       </c>
       <c r="L13" t="s">
         <v>88</v>
@@ -8078,10 +8112,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I374"/>
+  <dimension ref="A1:I376"/>
   <sheetViews>
-    <sheetView topLeftCell="A351" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I375" sqref="I375"/>
+    <sheetView topLeftCell="A345" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I377" sqref="I377"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18944,6 +18978,64 @@
         <v>1</v>
       </c>
     </row>
+    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>110</v>
+      </c>
+      <c r="B375" s="1">
+        <v>45327</v>
+      </c>
+      <c r="C375" t="s">
+        <v>19</v>
+      </c>
+      <c r="D375" s="14">
+        <v>0.625</v>
+      </c>
+      <c r="E375" t="s">
+        <v>39</v>
+      </c>
+      <c r="F375" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="G375" t="s">
+        <v>21</v>
+      </c>
+      <c r="H375" t="s">
+        <v>51</v>
+      </c>
+      <c r="I375">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>110</v>
+      </c>
+      <c r="B376" s="1">
+        <v>45327</v>
+      </c>
+      <c r="C376" t="s">
+        <v>7</v>
+      </c>
+      <c r="D376" s="14">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="E376" t="s">
+        <v>25</v>
+      </c>
+      <c r="F376" s="14">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="G376" t="s">
+        <v>60</v>
+      </c>
+      <c r="H376" t="s">
+        <v>85</v>
+      </c>
+      <c r="I376">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PDA Lifetime Predictions.xlsx
+++ b/PDA Lifetime Predictions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thigg\Desktop\Hockey Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{302B5917-C0F2-4122-B3D0-B7C1117D327A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE69773-0156-4F48-807B-677FA7C8DB52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1960" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2003" uniqueCount="112">
   <si>
     <t>Date</t>
   </si>
@@ -370,6 +370,9 @@
   </si>
   <si>
     <t>PDA9</t>
+  </si>
+  <si>
+    <t>PDA9 Total</t>
   </si>
 </sst>
 </file>
@@ -967,7 +970,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45327.342957986111" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="376" xr:uid="{D3A71568-3061-40C8-A74B-8B86C64C3ADC}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45328.476391319447" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="384" xr:uid="{D3A71568-3061-40C8-A74B-8B86C64C3ADC}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:I1048576" sheet="Predictions"/>
   </cacheSource>
@@ -987,7 +990,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2024-02-06T00:00:00" count="53">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2024-02-07T00:00:00" count="54">
         <d v="2023-12-09T00:00:00"/>
         <d v="2023-12-10T00:00:00"/>
         <d v="2023-12-11T00:00:00"/>
@@ -1040,6 +1043,7 @@
         <d v="2024-01-30T00:00:00"/>
         <d v="2024-01-31T00:00:00"/>
         <d v="2024-02-05T00:00:00"/>
+        <d v="2024-02-06T00:00:00"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -1047,7 +1051,7 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Winner Probability" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="0.5" maxValue="0.87610539305886403" count="667">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="0.5" maxValue="0.87610539305886403" count="674">
         <n v="0.87609999999999999"/>
         <n v="0.78059999999999996"/>
         <n v="0.65859999999999996"/>
@@ -1406,6 +1410,13 @@
         <n v="0.59599999999999997"/>
         <n v="0.625"/>
         <n v="0.54500000000000004"/>
+        <n v="0.77439999999999998"/>
+        <n v="0.66549999999999998"/>
+        <n v="0.62150000000000005"/>
+        <n v="0.61550000000000005"/>
+        <n v="0.57430000000000003"/>
+        <n v="0.57110000000000005"/>
+        <n v="0.52139999999999997"/>
         <m/>
         <n v="0.87610539305886403" u="1"/>
         <n v="0.78056782297496197" u="1"/>
@@ -1753,7 +1764,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="376">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="384">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -5866,7 +5877,7 @@
     <n v="0.375"/>
     <s v="Playing At:  Toronto Maple Leafs   Home"/>
     <x v="2"/>
-    <n v="1"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="8"/>
@@ -5877,13 +5888,101 @@
     <n v="0.45500000000000002"/>
     <s v="Playing At:  New York Rangers   Home"/>
     <x v="4"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="52"/>
+    <s v="Boston Bruins"/>
+    <x v="358"/>
+    <s v="Calgary Flames"/>
+    <n v="0.22559999999999999"/>
+    <s v="Playing At:  Boston Bruins   Home"/>
+    <x v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="52"/>
+    <s v="Florida Panthers"/>
+    <x v="359"/>
+    <s v="Philadelphia Flyers"/>
+    <n v="0.33450000000000002"/>
+    <s v="Playing At:  Florida Panthers   Home"/>
+    <x v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="52"/>
+    <s v="Carolina Hurricanes"/>
+    <x v="360"/>
+    <s v="Vancouver Canucks"/>
+    <n v="0.3785"/>
+    <s v="Playing At:  Carolina Hurricanes   Home"/>
+    <x v="2"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="52"/>
+    <s v="Winnipeg Jets"/>
+    <x v="361"/>
+    <s v="Pittsburgh Penguins"/>
+    <n v="0.38450000000000001"/>
+    <s v="Playing At:  Pittsburgh Penguins   Home"/>
+    <x v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="52"/>
+    <s v="Dallas Stars"/>
+    <x v="346"/>
+    <s v="Buffalo Sabres"/>
+    <n v="0.4113"/>
+    <s v="Playing At:  Buffalo Sabres   Home"/>
+    <x v="3"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="52"/>
+    <s v="Washington Capitals"/>
+    <x v="362"/>
+    <s v="Montreal Canadiens"/>
+    <n v="0.42570000000000002"/>
+    <s v="Playing At:  Washington Capitals   Home"/>
+    <x v="3"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="52"/>
+    <s v="New Jersey Devils"/>
+    <x v="363"/>
+    <s v="Colorado Avalanche"/>
+    <n v="0.4289"/>
+    <s v="Playing At:  New Jersey Devils   Home"/>
+    <x v="3"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="52"/>
+    <s v="Edmonton Oilers"/>
+    <x v="364"/>
+    <s v="Vegas Golden Knights"/>
+    <n v="0.47860000000000003"/>
+    <s v="Playing At:  Vegas Golden Knights   Home"/>
+    <x v="4"/>
     <n v="1"/>
   </r>
   <r>
     <x v="9"/>
-    <x v="52"/>
+    <x v="53"/>
     <m/>
-    <x v="358"/>
+    <x v="365"/>
     <m/>
     <m/>
     <m/>
@@ -5895,7 +5994,7 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{80C3D042-980E-40EE-B50F-CF37801A1A1D}" name="PivotTable3" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="L3:O37" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
+  <location ref="L3:O39" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
       <items count="11">
@@ -5908,7 +6007,7 @@
         <item x="5"/>
         <item x="6"/>
         <item x="7"/>
-        <item h="1" x="8"/>
+        <item x="8"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -5939,7 +6038,7 @@
     <field x="0"/>
     <field x="7"/>
   </rowFields>
-  <rowItems count="34">
+  <rowItems count="36">
     <i>
       <x v="1"/>
       <x v="3"/>
@@ -6047,6 +6146,13 @@
     <i t="default">
       <x v="8"/>
     </i>
+    <i>
+      <x v="9"/>
+      <x v="5"/>
+    </i>
+    <i t="default">
+      <x v="9"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -6098,7 +6204,7 @@
       </items>
     </pivotField>
     <pivotField axis="axisPage" showAll="0">
-      <items count="54">
+      <items count="55">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -6138,7 +6244,7 @@
         <item x="36"/>
         <item x="37"/>
         <item x="38"/>
-        <item x="52"/>
+        <item x="53"/>
         <item x="39"/>
         <item x="40"/>
         <item x="41"/>
@@ -6152,20 +6258,14 @@
         <item x="49"/>
         <item x="50"/>
         <item x="51"/>
+        <item x="52"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="668">
-        <item x="358"/>
-        <item m="1" x="359"/>
-        <item m="1" x="360"/>
-        <item m="1" x="361"/>
-        <item m="1" x="362"/>
-        <item m="1" x="363"/>
-        <item m="1" x="364"/>
-        <item m="1" x="365"/>
+      <items count="675">
+        <item x="365"/>
         <item m="1" x="366"/>
         <item m="1" x="367"/>
         <item m="1" x="368"/>
@@ -6461,14 +6561,21 @@
         <item m="1" x="658"/>
         <item m="1" x="659"/>
         <item m="1" x="660"/>
-        <item x="314"/>
         <item m="1" x="661"/>
         <item m="1" x="662"/>
         <item m="1" x="663"/>
         <item m="1" x="664"/>
         <item m="1" x="665"/>
+        <item m="1" x="666"/>
+        <item m="1" x="667"/>
+        <item x="314"/>
+        <item m="1" x="668"/>
+        <item m="1" x="669"/>
+        <item m="1" x="670"/>
+        <item m="1" x="671"/>
+        <item m="1" x="672"/>
         <item x="9"/>
-        <item m="1" x="666"/>
+        <item m="1" x="673"/>
         <item x="286"/>
         <item x="287"/>
         <item x="288"/>
@@ -6825,6 +6932,13 @@
         <item x="355"/>
         <item x="356"/>
         <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item x="364"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -7209,7 +7323,7 @@
   <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7317,7 +7431,7 @@
         <v>4</v>
       </c>
       <c r="P5" s="4">
-        <f t="shared" ref="P5:P35" si="0">O5/N5</f>
+        <f t="shared" ref="P5:P38" si="0">O5/N5</f>
         <v>0.5714285714285714</v>
       </c>
     </row>
@@ -7337,15 +7451,15 @@
       </c>
       <c r="E6" s="7">
         <f>SUM(B10:B12)</f>
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="F6" s="5">
         <f>SUM(B6:B9)</f>
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G6" s="11">
         <f>SUM(B6:B8)</f>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H6" s="9">
         <f>SUM(B6:B7)</f>
@@ -7381,15 +7495,15 @@
       </c>
       <c r="E7" s="7">
         <f>SUM(C10:C12)</f>
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F7" s="5">
         <f>SUM(C6:C9)</f>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G7" s="11">
         <f>SUM(C6:C8)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H7" s="9">
         <f>SUM(C6:C7)</f>
@@ -7414,26 +7528,26 @@
         <v>93</v>
       </c>
       <c r="B8" s="16">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8" s="16">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" si="1"/>
-        <v>0.6428571428571429</v>
+        <v>0.65116279069767447</v>
       </c>
       <c r="E8" s="8">
         <f>E7/E6</f>
-        <v>0.55311355311355315</v>
+        <v>0.54642857142857137</v>
       </c>
       <c r="F8" s="6">
         <f>F7/F6</f>
-        <v>0.68627450980392157</v>
+        <v>0.68932038834951459</v>
       </c>
       <c r="G8" s="12">
         <f>G7/G6</f>
-        <v>0.7192982456140351</v>
+        <v>0.72413793103448276</v>
       </c>
       <c r="H8" s="10">
         <f>H7/H6</f>
@@ -7501,30 +7615,30 @@
         <v>51</v>
       </c>
       <c r="B10" s="16">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C10" s="16">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" si="1"/>
-        <v>0.59482758620689657</v>
+        <v>0.58823529411764708</v>
       </c>
       <c r="E10" s="8">
         <f>E6/$B$13</f>
-        <v>0.72799999999999998</v>
+        <v>0.7310704960835509</v>
       </c>
       <c r="F10" s="6">
         <f t="shared" ref="F10:H10" si="2">F6/$B$13</f>
-        <v>0.27200000000000002</v>
+        <v>0.2689295039164491</v>
       </c>
       <c r="G10" s="12">
         <f t="shared" si="2"/>
-        <v>0.152</v>
+        <v>0.1514360313315927</v>
       </c>
       <c r="H10" s="10">
         <f t="shared" si="2"/>
-        <v>0.04</v>
+        <v>3.91644908616188E-2</v>
       </c>
       <c r="M10" t="s">
         <v>93</v>
@@ -7545,14 +7659,14 @@
         <v>84</v>
       </c>
       <c r="B11" s="16">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C11" s="16">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" si="1"/>
-        <v>0.50617283950617287</v>
+        <v>0.5</v>
       </c>
       <c r="M11" t="s">
         <v>50</v>
@@ -7573,14 +7687,14 @@
         <v>85</v>
       </c>
       <c r="B12" s="16">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C12" s="16">
         <v>41</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" si="1"/>
-        <v>0.53947368421052633</v>
+        <v>0.53246753246753242</v>
       </c>
       <c r="L12" t="s">
         <v>101</v>
@@ -7601,14 +7715,14 @@
         <v>53</v>
       </c>
       <c r="B13" s="16">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="C13" s="16">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" si="1"/>
-        <v>0.58933333333333338</v>
+        <v>0.58485639686684077</v>
       </c>
       <c r="L13" t="s">
         <v>88</v>
@@ -7982,24 +8096,54 @@
       <c r="O36" s="16">
         <v>1</v>
       </c>
-      <c r="P36" s="4"/>
+      <c r="P36" s="4">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
     </row>
     <row r="37" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L37" t="s">
+        <v>110</v>
+      </c>
+      <c r="M37" t="s">
+        <v>93</v>
+      </c>
+      <c r="N37" s="16">
+        <v>1</v>
+      </c>
+      <c r="O37" s="16">
+        <v>1</v>
+      </c>
+      <c r="P37" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L38" t="s">
+        <v>111</v>
+      </c>
+      <c r="N38" s="16">
+        <v>1</v>
+      </c>
+      <c r="O38" s="16">
+        <v>1</v>
+      </c>
+      <c r="P38" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L39" t="s">
         <v>53</v>
       </c>
-      <c r="N37" s="16">
-        <v>102</v>
-      </c>
-      <c r="O37" s="16">
-        <v>70</v>
-      </c>
-      <c r="P37" s="4"/>
-    </row>
-    <row r="38" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="P38" s="4"/>
-    </row>
-    <row r="39" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="N39" s="16">
+        <v>103</v>
+      </c>
+      <c r="O39" s="16">
+        <v>71</v>
+      </c>
       <c r="P39" s="4"/>
     </row>
     <row r="40" spans="12:16" x14ac:dyDescent="0.25">
@@ -8059,7 +8203,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P4:P35">
+  <conditionalFormatting sqref="P4:P38">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -8102,7 +8246,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>P4:P35</xm:sqref>
+          <xm:sqref>P4:P38</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -8112,10 +8256,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I376"/>
+  <dimension ref="A1:I384"/>
   <sheetViews>
     <sheetView topLeftCell="A345" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I377" sqref="I377"/>
+      <selection activeCell="I385" sqref="I385"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19004,7 +19148,7 @@
         <v>51</v>
       </c>
       <c r="I375">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.25">
@@ -19033,6 +19177,238 @@
         <v>85</v>
       </c>
       <c r="I376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>110</v>
+      </c>
+      <c r="B377" s="1">
+        <v>45328</v>
+      </c>
+      <c r="C377" t="s">
+        <v>4</v>
+      </c>
+      <c r="D377" s="14">
+        <v>0.77439999999999998</v>
+      </c>
+      <c r="E377" t="s">
+        <v>31</v>
+      </c>
+      <c r="F377" s="14">
+        <v>0.22559999999999999</v>
+      </c>
+      <c r="G377" t="s">
+        <v>6</v>
+      </c>
+      <c r="H377" t="s">
+        <v>93</v>
+      </c>
+      <c r="I377">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>110</v>
+      </c>
+      <c r="B378" s="1">
+        <v>45328</v>
+      </c>
+      <c r="C378" t="s">
+        <v>33</v>
+      </c>
+      <c r="D378" s="14">
+        <v>0.66549999999999998</v>
+      </c>
+      <c r="E378" t="s">
+        <v>8</v>
+      </c>
+      <c r="F378" s="14">
+        <v>0.33450000000000002</v>
+      </c>
+      <c r="G378" t="s">
+        <v>78</v>
+      </c>
+      <c r="H378" t="s">
+        <v>51</v>
+      </c>
+      <c r="I378">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>110</v>
+      </c>
+      <c r="B379" s="1">
+        <v>45328</v>
+      </c>
+      <c r="C379" t="s">
+        <v>43</v>
+      </c>
+      <c r="D379" s="14">
+        <v>0.62150000000000005</v>
+      </c>
+      <c r="E379" t="s">
+        <v>42</v>
+      </c>
+      <c r="F379" s="14">
+        <v>0.3785</v>
+      </c>
+      <c r="G379" t="s">
+        <v>74</v>
+      </c>
+      <c r="H379" t="s">
+        <v>51</v>
+      </c>
+      <c r="I379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>110</v>
+      </c>
+      <c r="B380" s="1">
+        <v>45328</v>
+      </c>
+      <c r="C380" t="s">
+        <v>16</v>
+      </c>
+      <c r="D380" s="14">
+        <v>0.61550000000000005</v>
+      </c>
+      <c r="E380" t="s">
+        <v>66</v>
+      </c>
+      <c r="F380" s="14">
+        <v>0.38450000000000001</v>
+      </c>
+      <c r="G380" t="s">
+        <v>67</v>
+      </c>
+      <c r="H380" t="s">
+        <v>51</v>
+      </c>
+      <c r="I380">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>110</v>
+      </c>
+      <c r="B381" s="1">
+        <v>45328</v>
+      </c>
+      <c r="C381" t="s">
+        <v>28</v>
+      </c>
+      <c r="D381" s="14">
+        <v>0.5887</v>
+      </c>
+      <c r="E381" t="s">
+        <v>46</v>
+      </c>
+      <c r="F381" s="14">
+        <v>0.4113</v>
+      </c>
+      <c r="G381" t="s">
+        <v>47</v>
+      </c>
+      <c r="H381" t="s">
+        <v>84</v>
+      </c>
+      <c r="I381">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>110</v>
+      </c>
+      <c r="B382" s="1">
+        <v>45328</v>
+      </c>
+      <c r="C382" t="s">
+        <v>26</v>
+      </c>
+      <c r="D382" s="14">
+        <v>0.57430000000000003</v>
+      </c>
+      <c r="E382" t="s">
+        <v>45</v>
+      </c>
+      <c r="F382" s="14">
+        <v>0.42570000000000002</v>
+      </c>
+      <c r="G382" t="s">
+        <v>27</v>
+      </c>
+      <c r="H382" t="s">
+        <v>84</v>
+      </c>
+      <c r="I382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>110</v>
+      </c>
+      <c r="B383" s="1">
+        <v>45328</v>
+      </c>
+      <c r="C383" t="s">
+        <v>11</v>
+      </c>
+      <c r="D383" s="14">
+        <v>0.57110000000000005</v>
+      </c>
+      <c r="E383" t="s">
+        <v>7</v>
+      </c>
+      <c r="F383" s="14">
+        <v>0.4289</v>
+      </c>
+      <c r="G383" t="s">
+        <v>68</v>
+      </c>
+      <c r="H383" t="s">
+        <v>84</v>
+      </c>
+      <c r="I383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>110</v>
+      </c>
+      <c r="B384" s="1">
+        <v>45328</v>
+      </c>
+      <c r="C384" t="s">
+        <v>10</v>
+      </c>
+      <c r="D384" s="14">
+        <v>0.52139999999999997</v>
+      </c>
+      <c r="E384" t="s">
+        <v>29</v>
+      </c>
+      <c r="F384" s="14">
+        <v>0.47860000000000003</v>
+      </c>
+      <c r="G384" t="s">
+        <v>57</v>
+      </c>
+      <c r="H384" t="s">
+        <v>85</v>
+      </c>
+      <c r="I384">
         <v>1</v>
       </c>
     </row>

--- a/PDA Lifetime Predictions.xlsx
+++ b/PDA Lifetime Predictions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thigg\Desktop\Hockey Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE69773-0156-4F48-807B-677FA7C8DB52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC60A455-5EE1-4477-8469-8CEC9528868E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId3"/>
+    <pivotCache cacheId="14" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2003" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2018" uniqueCount="112">
   <si>
     <t>Date</t>
   </si>
@@ -970,7 +970,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45328.476391319447" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="384" xr:uid="{D3A71568-3061-40C8-A74B-8B86C64C3ADC}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45329.359593171299" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="387" xr:uid="{D3A71568-3061-40C8-A74B-8B86C64C3ADC}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:I1048576" sheet="Predictions"/>
   </cacheSource>
@@ -990,7 +990,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2024-02-07T00:00:00" count="54">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2024-02-08T00:00:00" count="55">
         <d v="2023-12-09T00:00:00"/>
         <d v="2023-12-10T00:00:00"/>
         <d v="2023-12-11T00:00:00"/>
@@ -1044,6 +1044,7 @@
         <d v="2024-01-31T00:00:00"/>
         <d v="2024-02-05T00:00:00"/>
         <d v="2024-02-06T00:00:00"/>
+        <d v="2024-02-07T00:00:00"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -1051,7 +1052,7 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Winner Probability" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="0.5" maxValue="0.87610539305886403" count="674">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="0.5" maxValue="0.87610539305886403" count="677">
         <n v="0.87609999999999999"/>
         <n v="0.78059999999999996"/>
         <n v="0.65859999999999996"/>
@@ -1417,6 +1418,9 @@
         <n v="0.57430000000000003"/>
         <n v="0.57110000000000005"/>
         <n v="0.52139999999999997"/>
+        <n v="0.68400000000000005"/>
+        <n v="0.55100000000000005"/>
+        <n v="0.51900000000000002"/>
         <m/>
         <n v="0.87610539305886403" u="1"/>
         <n v="0.78056782297496197" u="1"/>
@@ -1764,7 +1768,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="384">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="387">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -5899,7 +5903,7 @@
     <n v="0.22559999999999999"/>
     <s v="Playing At:  Boston Bruins   Home"/>
     <x v="1"/>
-    <n v="1"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="8"/>
@@ -5910,7 +5914,7 @@
     <n v="0.33450000000000002"/>
     <s v="Playing At:  Florida Panthers   Home"/>
     <x v="2"/>
-    <n v="1"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="8"/>
@@ -5932,7 +5936,7 @@
     <n v="0.38450000000000001"/>
     <s v="Playing At:  Pittsburgh Penguins   Home"/>
     <x v="2"/>
-    <n v="1"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="8"/>
@@ -5965,7 +5969,7 @@
     <n v="0.4289"/>
     <s v="Playing At:  New Jersey Devils   Home"/>
     <x v="3"/>
-    <n v="0"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="8"/>
@@ -5976,13 +5980,46 @@
     <n v="0.47860000000000003"/>
     <s v="Playing At:  Vegas Golden Knights   Home"/>
     <x v="4"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="53"/>
+    <s v="Minnesota Wild"/>
+    <x v="365"/>
+    <s v="Chicago Blackhawks"/>
+    <n v="0.316"/>
+    <s v="Playing At:  Chicago Blackhawks   Home"/>
+    <x v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="53"/>
+    <s v="Toronto Maple Leafs"/>
+    <x v="366"/>
+    <s v="Dallas Stars"/>
+    <n v="0.44900000000000001"/>
+    <s v="Playing At:  Toronto Maple Leafs   Home"/>
+    <x v="3"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="53"/>
+    <s v="New York Rangers"/>
+    <x v="367"/>
+    <s v="Tampa Bay Lightning"/>
+    <n v="0.48099999999999998"/>
+    <s v="Playing At:  New York Rangers   Home"/>
+    <x v="4"/>
     <n v="1"/>
   </r>
   <r>
     <x v="9"/>
-    <x v="53"/>
+    <x v="54"/>
     <m/>
-    <x v="365"/>
+    <x v="368"/>
     <m/>
     <m/>
     <m/>
@@ -5993,199 +6030,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{80C3D042-980E-40EE-B50F-CF37801A1A1D}" name="PivotTable3" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="L3:O39" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
-  <pivotFields count="10">
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="11">
-        <item h="1" x="9"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" numFmtId="14" outline="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="10">
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="2"/>
-        <item x="6"/>
-        <item m="1" x="8"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="0"/>
-    <field x="7"/>
-  </rowFields>
-  <rowItems count="36">
-    <i>
-      <x v="1"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i t="default">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i t="default">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i t="default">
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i t="default">
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-      <x v="5"/>
-    </i>
-    <i t="default">
-      <x v="9"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Count of Winner1" fld="2" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Model" fld="8" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1FB34DD3-8207-4009-92F5-73C183F63DF8}" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1FB34DD3-8207-4009-92F5-73C183F63DF8}" name="PivotTable1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A5:C13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
@@ -6204,7 +6049,7 @@
       </items>
     </pivotField>
     <pivotField axis="axisPage" showAll="0">
-      <items count="55">
+      <items count="56">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -6244,7 +6089,7 @@
         <item x="36"/>
         <item x="37"/>
         <item x="38"/>
-        <item x="53"/>
+        <item x="54"/>
         <item x="39"/>
         <item x="40"/>
         <item x="41"/>
@@ -6259,16 +6104,14 @@
         <item x="50"/>
         <item x="51"/>
         <item x="52"/>
+        <item x="53"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="675">
-        <item x="365"/>
-        <item m="1" x="366"/>
-        <item m="1" x="367"/>
-        <item m="1" x="368"/>
+      <items count="678">
+        <item x="368"/>
         <item m="1" x="369"/>
         <item m="1" x="370"/>
         <item m="1" x="371"/>
@@ -6568,14 +6411,17 @@
         <item m="1" x="665"/>
         <item m="1" x="666"/>
         <item m="1" x="667"/>
-        <item x="314"/>
         <item m="1" x="668"/>
         <item m="1" x="669"/>
         <item m="1" x="670"/>
+        <item x="314"/>
         <item m="1" x="671"/>
         <item m="1" x="672"/>
+        <item m="1" x="673"/>
+        <item m="1" x="674"/>
+        <item m="1" x="675"/>
         <item x="9"/>
-        <item m="1" x="673"/>
+        <item m="1" x="676"/>
         <item x="286"/>
         <item x="287"/>
         <item x="288"/>
@@ -6939,6 +6785,9 @@
         <item x="362"/>
         <item x="363"/>
         <item x="364"/>
+        <item x="365"/>
+        <item x="366"/>
+        <item x="367"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -7007,6 +6856,198 @@
     <pageField fld="1" hier="-1"/>
     <pageField fld="3" hier="-1"/>
   </pageFields>
+  <dataFields count="2">
+    <dataField name="Count of Winner1" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Model" fld="8" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{80C3D042-980E-40EE-B50F-CF37801A1A1D}" name="PivotTable3" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="L3:O39" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
+  <pivotFields count="10">
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="11">
+        <item h="1" x="9"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" numFmtId="14" outline="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="10">
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="2"/>
+        <item x="6"/>
+        <item m="1" x="8"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="36">
+    <i>
+      <x v="1"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i t="default">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i t="default">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i t="default">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i t="default">
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+      <x v="5"/>
+    </i>
+    <i t="default">
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
   <dataFields count="2">
     <dataField name="Count of Winner1" fld="2" subtotal="count" baseField="0" baseItem="0"/>
     <dataField name="Sum of Model" fld="8" baseField="0" baseItem="0"/>
@@ -7323,7 +7364,7 @@
   <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7451,7 +7492,7 @@
       </c>
       <c r="E6" s="7">
         <f>SUM(B10:B12)</f>
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F6" s="5">
         <f>SUM(B6:B9)</f>
@@ -7495,15 +7536,15 @@
       </c>
       <c r="E7" s="7">
         <f>SUM(C10:C12)</f>
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F7" s="5">
         <f>SUM(C6:C9)</f>
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G7" s="11">
         <f>SUM(C6:C8)</f>
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H7" s="9">
         <f>SUM(C6:C7)</f>
@@ -7531,23 +7572,23 @@
         <v>43</v>
       </c>
       <c r="C8" s="16">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" si="1"/>
-        <v>0.65116279069767447</v>
+        <v>0.62790697674418605</v>
       </c>
       <c r="E8" s="8">
         <f>E7/E6</f>
-        <v>0.54642857142857137</v>
+        <v>0.54416961130742048</v>
       </c>
       <c r="F8" s="6">
         <f>F7/F6</f>
-        <v>0.68932038834951459</v>
+        <v>0.67961165048543692</v>
       </c>
       <c r="G8" s="12">
         <f>G7/G6</f>
-        <v>0.72413793103448276</v>
+        <v>0.7068965517241379</v>
       </c>
       <c r="H8" s="10">
         <f>H7/H6</f>
@@ -7615,30 +7656,30 @@
         <v>51</v>
       </c>
       <c r="B10" s="16">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C10" s="16">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" si="1"/>
-        <v>0.58823529411764708</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="E10" s="8">
         <f>E6/$B$13</f>
-        <v>0.7310704960835509</v>
+        <v>0.73316062176165808</v>
       </c>
       <c r="F10" s="6">
         <f t="shared" ref="F10:H10" si="2">F6/$B$13</f>
-        <v>0.2689295039164491</v>
+        <v>0.26683937823834197</v>
       </c>
       <c r="G10" s="12">
         <f t="shared" si="2"/>
-        <v>0.1514360313315927</v>
+        <v>0.15025906735751296</v>
       </c>
       <c r="H10" s="10">
         <f t="shared" si="2"/>
-        <v>3.91644908616188E-2</v>
+        <v>3.8860103626943004E-2</v>
       </c>
       <c r="M10" t="s">
         <v>93</v>
@@ -7659,14 +7700,14 @@
         <v>84</v>
       </c>
       <c r="B11" s="16">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C11" s="16">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0.51764705882352946</v>
       </c>
       <c r="M11" t="s">
         <v>50</v>
@@ -7687,14 +7728,14 @@
         <v>85</v>
       </c>
       <c r="B12" s="16">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C12" s="16">
         <v>41</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" si="1"/>
-        <v>0.53246753246753242</v>
+        <v>0.52564102564102566</v>
       </c>
       <c r="L12" t="s">
         <v>101</v>
@@ -7715,14 +7756,14 @@
         <v>53</v>
       </c>
       <c r="B13" s="16">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C13" s="16">
         <v>224</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" si="1"/>
-        <v>0.58485639686684077</v>
+        <v>0.5803108808290155</v>
       </c>
       <c r="L13" t="s">
         <v>88</v>
@@ -8112,11 +8153,11 @@
         <v>1</v>
       </c>
       <c r="O37" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P37" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="12:16" x14ac:dyDescent="0.25">
@@ -8127,11 +8168,11 @@
         <v>1</v>
       </c>
       <c r="O38" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P38" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="12:16" x14ac:dyDescent="0.25">
@@ -8142,7 +8183,7 @@
         <v>103</v>
       </c>
       <c r="O39" s="16">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P39" s="4"/>
     </row>
@@ -8256,10 +8297,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I384"/>
+  <dimension ref="A1:I387"/>
   <sheetViews>
     <sheetView topLeftCell="A345" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I385" sqref="I385"/>
+      <selection activeCell="I388" sqref="I388"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19206,7 +19247,7 @@
         <v>93</v>
       </c>
       <c r="I377">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.25">
@@ -19235,7 +19276,7 @@
         <v>51</v>
       </c>
       <c r="I378">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.25">
@@ -19293,7 +19334,7 @@
         <v>51</v>
       </c>
       <c r="I380">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:9" x14ac:dyDescent="0.25">
@@ -19380,7 +19421,7 @@
         <v>84</v>
       </c>
       <c r="I383">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384" spans="1:9" x14ac:dyDescent="0.25">
@@ -19409,6 +19450,93 @@
         <v>85</v>
       </c>
       <c r="I384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>110</v>
+      </c>
+      <c r="B385" s="1">
+        <v>45329</v>
+      </c>
+      <c r="C385" t="s">
+        <v>58</v>
+      </c>
+      <c r="D385" s="14">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="E385" t="s">
+        <v>14</v>
+      </c>
+      <c r="F385" s="14">
+        <v>0.316</v>
+      </c>
+      <c r="G385" t="s">
+        <v>15</v>
+      </c>
+      <c r="H385" t="s">
+        <v>51</v>
+      </c>
+      <c r="I385">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>110</v>
+      </c>
+      <c r="B386" s="1">
+        <v>45329</v>
+      </c>
+      <c r="C386" t="s">
+        <v>19</v>
+      </c>
+      <c r="D386" s="14">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="E386" t="s">
+        <v>28</v>
+      </c>
+      <c r="F386" s="14">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="G386" t="s">
+        <v>21</v>
+      </c>
+      <c r="H386" t="s">
+        <v>84</v>
+      </c>
+      <c r="I386">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>110</v>
+      </c>
+      <c r="B387" s="1">
+        <v>45329</v>
+      </c>
+      <c r="C387" t="s">
+        <v>25</v>
+      </c>
+      <c r="D387" s="14">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="E387" t="s">
+        <v>22</v>
+      </c>
+      <c r="F387" s="14">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="G387" t="s">
+        <v>60</v>
+      </c>
+      <c r="H387" t="s">
+        <v>85</v>
+      </c>
+      <c r="I387">
         <v>1</v>
       </c>
     </row>

--- a/PDA Lifetime Predictions.xlsx
+++ b/PDA Lifetime Predictions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thigg\Desktop\Hockey Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC60A455-5EE1-4477-8469-8CEC9528868E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD29E3A-4E98-40A5-8C47-753CD67B6144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2018" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2054" uniqueCount="112">
   <si>
     <t>Date</t>
   </si>
@@ -970,7 +970,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45329.359593171299" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="387" xr:uid="{D3A71568-3061-40C8-A74B-8B86C64C3ADC}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45330.370320023147" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="394" xr:uid="{D3A71568-3061-40C8-A74B-8B86C64C3ADC}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:I1048576" sheet="Predictions"/>
   </cacheSource>
@@ -990,7 +990,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2024-02-08T00:00:00" count="55">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2024-02-09T00:00:00" count="56">
         <d v="2023-12-09T00:00:00"/>
         <d v="2023-12-10T00:00:00"/>
         <d v="2023-12-11T00:00:00"/>
@@ -1045,6 +1045,7 @@
         <d v="2024-02-05T00:00:00"/>
         <d v="2024-02-06T00:00:00"/>
         <d v="2024-02-07T00:00:00"/>
+        <d v="2024-02-08T00:00:00"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -1052,7 +1053,7 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Winner Probability" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="0.5" maxValue="0.87610539305886403" count="677">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="0.5" maxValue="0.87610539305886403" count="682">
         <n v="0.87609999999999999"/>
         <n v="0.78059999999999996"/>
         <n v="0.65859999999999996"/>
@@ -1421,6 +1422,11 @@
         <n v="0.68400000000000005"/>
         <n v="0.55100000000000005"/>
         <n v="0.51900000000000002"/>
+        <n v="0.70899999999999996"/>
+        <n v="0.66600000000000004"/>
+        <n v="0.61199999999999999"/>
+        <n v="0.53100000000000003"/>
+        <n v="0.503"/>
         <m/>
         <n v="0.87610539305886403" u="1"/>
         <n v="0.78056782297496197" u="1"/>
@@ -1768,7 +1774,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="387">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="394">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -6016,10 +6022,87 @@
     <n v="1"/>
   </r>
   <r>
+    <x v="8"/>
+    <x v="54"/>
+    <s v="Boston Bruins"/>
+    <x v="368"/>
+    <s v="Vancouver Canucks"/>
+    <n v="0.29099999999999998"/>
+    <s v="Playing At:  Boston Bruins   Home"/>
+    <x v="6"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="54"/>
+    <s v="New Jersey Devils"/>
+    <x v="365"/>
+    <s v="Calgary Flames"/>
+    <n v="0.316"/>
+    <s v="Playing At:  New Jersey Devils   Home"/>
+    <x v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="54"/>
+    <s v="Winnipeg Jets"/>
+    <x v="369"/>
+    <s v="Philadelphia Flyers"/>
+    <n v="0.33400000000000002"/>
+    <s v="Playing At:  Philadelphia Flyers   Home"/>
+    <x v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="54"/>
+    <s v="Florida Panthers"/>
+    <x v="91"/>
+    <s v="Washington Capitals"/>
+    <n v="0.35599999999999998"/>
+    <s v="Playing At:  Florida Panthers   Home"/>
+    <x v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="54"/>
+    <s v="Vegas Golden Knights"/>
+    <x v="370"/>
+    <s v="Arizona Coyotes"/>
+    <n v="0.38800000000000001"/>
+    <s v="Playing At:  Arizona Coyotes   Home"/>
+    <x v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="54"/>
+    <s v="New York Islanders"/>
+    <x v="371"/>
+    <s v="Tampa Bay Lightning"/>
+    <n v="0.46899999999999997"/>
+    <s v="Playing At:  New York Islanders   Home"/>
+    <x v="4"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="54"/>
+    <s v="Carolina Hurricanes"/>
+    <x v="372"/>
+    <s v="Colorado Avalanche"/>
+    <n v="0.497"/>
+    <s v="Playing At:  Carolina Hurricanes   Home"/>
+    <x v="4"/>
+    <n v="0"/>
+  </r>
+  <r>
     <x v="9"/>
-    <x v="54"/>
+    <x v="55"/>
     <m/>
-    <x v="368"/>
+    <x v="373"/>
     <m/>
     <m/>
     <m/>
@@ -6030,6 +6113,201 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{80C3D042-980E-40EE-B50F-CF37801A1A1D}" name="PivotTable3" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="L3:O40" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
+  <pivotFields count="10">
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="11">
+        <item h="1" x="9"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" numFmtId="14" outline="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="10">
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="2"/>
+        <item x="6"/>
+        <item m="1" x="8"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="37">
+    <i>
+      <x v="1"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i t="default">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i t="default">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i t="default">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i t="default">
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i t="default">
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Count of Winner1" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Model" fld="8" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1FB34DD3-8207-4009-92F5-73C183F63DF8}" name="PivotTable1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A5:C13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="10">
@@ -6049,7 +6327,7 @@
       </items>
     </pivotField>
     <pivotField axis="axisPage" showAll="0">
-      <items count="56">
+      <items count="57">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -6089,7 +6367,7 @@
         <item x="36"/>
         <item x="37"/>
         <item x="38"/>
-        <item x="54"/>
+        <item x="55"/>
         <item x="39"/>
         <item x="40"/>
         <item x="41"/>
@@ -6105,18 +6383,14 @@
         <item x="51"/>
         <item x="52"/>
         <item x="53"/>
+        <item x="54"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="678">
-        <item x="368"/>
-        <item m="1" x="369"/>
-        <item m="1" x="370"/>
-        <item m="1" x="371"/>
-        <item m="1" x="372"/>
-        <item m="1" x="373"/>
+      <items count="683">
+        <item x="373"/>
         <item m="1" x="374"/>
         <item m="1" x="375"/>
         <item m="1" x="376"/>
@@ -6414,14 +6688,19 @@
         <item m="1" x="668"/>
         <item m="1" x="669"/>
         <item m="1" x="670"/>
-        <item x="314"/>
         <item m="1" x="671"/>
         <item m="1" x="672"/>
         <item m="1" x="673"/>
         <item m="1" x="674"/>
         <item m="1" x="675"/>
+        <item x="314"/>
+        <item m="1" x="676"/>
+        <item m="1" x="677"/>
+        <item m="1" x="678"/>
+        <item m="1" x="679"/>
+        <item m="1" x="680"/>
         <item x="9"/>
-        <item m="1" x="676"/>
+        <item m="1" x="681"/>
         <item x="286"/>
         <item x="287"/>
         <item x="288"/>
@@ -6788,6 +7067,11 @@
         <item x="365"/>
         <item x="366"/>
         <item x="367"/>
+        <item x="368"/>
+        <item x="369"/>
+        <item x="370"/>
+        <item x="371"/>
+        <item x="372"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -6856,198 +7140,6 @@
     <pageField fld="1" hier="-1"/>
     <pageField fld="3" hier="-1"/>
   </pageFields>
-  <dataFields count="2">
-    <dataField name="Count of Winner1" fld="2" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Model" fld="8" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{80C3D042-980E-40EE-B50F-CF37801A1A1D}" name="PivotTable3" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="L3:O39" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
-  <pivotFields count="10">
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="11">
-        <item h="1" x="9"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" numFmtId="14" outline="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="10">
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="2"/>
-        <item x="6"/>
-        <item m="1" x="8"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="0"/>
-    <field x="7"/>
-  </rowFields>
-  <rowItems count="36">
-    <i>
-      <x v="1"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i t="default">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i t="default">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i t="default">
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i t="default">
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-      <x v="5"/>
-    </i>
-    <i t="default">
-      <x v="9"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
   <dataFields count="2">
     <dataField name="Count of Winner1" fld="2" subtotal="count" baseField="0" baseItem="0"/>
     <dataField name="Sum of Model" fld="8" baseField="0" baseItem="0"/>
@@ -7364,7 +7456,7 @@
   <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7492,11 +7584,11 @@
       </c>
       <c r="E6" s="7">
         <f>SUM(B10:B12)</f>
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="F6" s="5">
         <f>SUM(B6:B9)</f>
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G6" s="11">
         <f>SUM(B6:B8)</f>
@@ -7536,11 +7628,11 @@
       </c>
       <c r="E7" s="7">
         <f>SUM(C10:C12)</f>
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F7" s="5">
         <f>SUM(C6:C9)</f>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G7" s="11">
         <f>SUM(C6:C8)</f>
@@ -7580,11 +7672,11 @@
       </c>
       <c r="E8" s="8">
         <f>E7/E6</f>
-        <v>0.54416961130742048</v>
+        <v>0.54671280276816614</v>
       </c>
       <c r="F8" s="6">
         <f>F7/F6</f>
-        <v>0.67961165048543692</v>
+        <v>0.68269230769230771</v>
       </c>
       <c r="G8" s="12">
         <f>G7/G6</f>
@@ -7613,14 +7705,14 @@
         <v>94</v>
       </c>
       <c r="B9" s="16">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C9" s="16">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" si="1"/>
-        <v>0.64444444444444449</v>
+        <v>0.65217391304347827</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>107</v>
@@ -7656,30 +7748,30 @@
         <v>51</v>
       </c>
       <c r="B10" s="16">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C10" s="16">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" si="1"/>
-        <v>0.57499999999999996</v>
+        <v>0.58870967741935487</v>
       </c>
       <c r="E10" s="8">
         <f>E6/$B$13</f>
-        <v>0.73316062176165808</v>
+        <v>0.73536895674300251</v>
       </c>
       <c r="F10" s="6">
         <f t="shared" ref="F10:H10" si="2">F6/$B$13</f>
-        <v>0.26683937823834197</v>
+        <v>0.26463104325699743</v>
       </c>
       <c r="G10" s="12">
         <f t="shared" si="2"/>
-        <v>0.15025906735751296</v>
+        <v>0.1475826972010178</v>
       </c>
       <c r="H10" s="10">
         <f t="shared" si="2"/>
-        <v>3.8860103626943004E-2</v>
+        <v>3.8167938931297711E-2</v>
       </c>
       <c r="M10" t="s">
         <v>93</v>
@@ -7728,14 +7820,14 @@
         <v>85</v>
       </c>
       <c r="B12" s="16">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C12" s="16">
         <v>41</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" si="1"/>
-        <v>0.52564102564102566</v>
+        <v>0.51249999999999996</v>
       </c>
       <c r="L12" t="s">
         <v>101</v>
@@ -7756,14 +7848,14 @@
         <v>53</v>
       </c>
       <c r="B13" s="16">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="C13" s="16">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" si="1"/>
-        <v>0.5803108808290155</v>
+        <v>0.58269720101781175</v>
       </c>
       <c r="L13" t="s">
         <v>88</v>
@@ -8147,22 +8239,22 @@
         <v>110</v>
       </c>
       <c r="M37" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N37" s="16">
         <v>1</v>
       </c>
       <c r="O37" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L38" t="s">
-        <v>111</v>
+      <c r="M38" t="s">
+        <v>93</v>
       </c>
       <c r="N38" s="16">
         <v>1</v>
@@ -8177,17 +8269,26 @@
     </row>
     <row r="39" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L39" t="s">
+        <v>111</v>
+      </c>
+      <c r="N39" s="16">
+        <v>2</v>
+      </c>
+      <c r="O39" s="16">
+        <v>1</v>
+      </c>
+      <c r="P39" s="4"/>
+    </row>
+    <row r="40" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L40" t="s">
         <v>53</v>
       </c>
-      <c r="N39" s="16">
-        <v>103</v>
-      </c>
-      <c r="O39" s="16">
-        <v>70</v>
-      </c>
-      <c r="P39" s="4"/>
-    </row>
-    <row r="40" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="N40" s="16">
+        <v>104</v>
+      </c>
+      <c r="O40" s="16">
+        <v>71</v>
+      </c>
       <c r="P40" s="4"/>
     </row>
     <row r="41" spans="12:16" x14ac:dyDescent="0.25">
@@ -8297,10 +8398,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I387"/>
+  <dimension ref="A1:I394"/>
   <sheetViews>
     <sheetView topLeftCell="A345" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I388" sqref="I388"/>
+      <selection activeCell="I388" sqref="I388:I394"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19540,6 +19641,209 @@
         <v>1</v>
       </c>
     </row>
+    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>110</v>
+      </c>
+      <c r="B388" s="1">
+        <v>45330</v>
+      </c>
+      <c r="C388" t="s">
+        <v>4</v>
+      </c>
+      <c r="D388" s="14">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="E388" t="s">
+        <v>42</v>
+      </c>
+      <c r="F388" s="14">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="G388" t="s">
+        <v>6</v>
+      </c>
+      <c r="H388" t="s">
+        <v>94</v>
+      </c>
+      <c r="I388">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>110</v>
+      </c>
+      <c r="B389" s="1">
+        <v>45330</v>
+      </c>
+      <c r="C389" t="s">
+        <v>11</v>
+      </c>
+      <c r="D389" s="14">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="E389" t="s">
+        <v>31</v>
+      </c>
+      <c r="F389" s="14">
+        <v>0.316</v>
+      </c>
+      <c r="G389" t="s">
+        <v>68</v>
+      </c>
+      <c r="H389" t="s">
+        <v>51</v>
+      </c>
+      <c r="I389">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>110</v>
+      </c>
+      <c r="B390" s="1">
+        <v>45330</v>
+      </c>
+      <c r="C390" t="s">
+        <v>16</v>
+      </c>
+      <c r="D390" s="14">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="E390" t="s">
+        <v>8</v>
+      </c>
+      <c r="F390" s="14">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="G390" t="s">
+        <v>73</v>
+      </c>
+      <c r="H390" t="s">
+        <v>51</v>
+      </c>
+      <c r="I390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>110</v>
+      </c>
+      <c r="B391" s="1">
+        <v>45330</v>
+      </c>
+      <c r="C391" t="s">
+        <v>33</v>
+      </c>
+      <c r="D391" s="14">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="E391" t="s">
+        <v>26</v>
+      </c>
+      <c r="F391" s="14">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="G391" t="s">
+        <v>78</v>
+      </c>
+      <c r="H391" t="s">
+        <v>51</v>
+      </c>
+      <c r="I391">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>110</v>
+      </c>
+      <c r="B392" s="1">
+        <v>45330</v>
+      </c>
+      <c r="C392" t="s">
+        <v>29</v>
+      </c>
+      <c r="D392" s="14">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="E392" t="s">
+        <v>5</v>
+      </c>
+      <c r="F392" s="14">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="G392" t="s">
+        <v>75</v>
+      </c>
+      <c r="H392" t="s">
+        <v>51</v>
+      </c>
+      <c r="I392">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>110</v>
+      </c>
+      <c r="B393" s="1">
+        <v>45330</v>
+      </c>
+      <c r="C393" t="s">
+        <v>39</v>
+      </c>
+      <c r="D393" s="14">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="E393" t="s">
+        <v>22</v>
+      </c>
+      <c r="F393" s="14">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="G393" t="s">
+        <v>41</v>
+      </c>
+      <c r="H393" t="s">
+        <v>85</v>
+      </c>
+      <c r="I393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>110</v>
+      </c>
+      <c r="B394" s="1">
+        <v>45330</v>
+      </c>
+      <c r="C394" t="s">
+        <v>43</v>
+      </c>
+      <c r="D394" s="14">
+        <v>0.503</v>
+      </c>
+      <c r="E394" t="s">
+        <v>7</v>
+      </c>
+      <c r="F394" s="14">
+        <v>0.497</v>
+      </c>
+      <c r="G394" t="s">
+        <v>74</v>
+      </c>
+      <c r="H394" t="s">
+        <v>85</v>
+      </c>
+      <c r="I394">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PDA Lifetime Predictions.xlsx
+++ b/PDA Lifetime Predictions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thigg\Desktop\Hockey Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD29E3A-4E98-40A5-8C47-753CD67B6144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244E4564-E66C-4B5B-993B-06ED803D2D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2054" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2069" uniqueCount="112">
   <si>
     <t>Date</t>
   </si>
@@ -970,7 +970,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45330.370320023147" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="394" xr:uid="{D3A71568-3061-40C8-A74B-8B86C64C3ADC}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45331.34269351852" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="397" xr:uid="{D3A71568-3061-40C8-A74B-8B86C64C3ADC}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:I1048576" sheet="Predictions"/>
   </cacheSource>
@@ -990,7 +990,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2024-02-09T00:00:00" count="56">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2024-02-10T00:00:00" count="57">
         <d v="2023-12-09T00:00:00"/>
         <d v="2023-12-10T00:00:00"/>
         <d v="2023-12-11T00:00:00"/>
@@ -1046,6 +1046,7 @@
         <d v="2024-02-06T00:00:00"/>
         <d v="2024-02-07T00:00:00"/>
         <d v="2024-02-08T00:00:00"/>
+        <d v="2024-02-09T00:00:00"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -1053,7 +1054,7 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Winner Probability" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="0.5" maxValue="0.87610539305886403" count="682">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="0.5" maxValue="0.87610539305886403" count="684">
         <n v="0.87609999999999999"/>
         <n v="0.78059999999999996"/>
         <n v="0.65859999999999996"/>
@@ -1427,6 +1428,8 @@
         <n v="0.61199999999999999"/>
         <n v="0.53100000000000003"/>
         <n v="0.503"/>
+        <n v="0.751"/>
+        <n v="0.73099999999999998"/>
         <m/>
         <n v="0.87610539305886403" u="1"/>
         <n v="0.78056782297496197" u="1"/>
@@ -1774,7 +1777,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="394">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="397">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -6041,7 +6044,7 @@
     <n v="0.316"/>
     <s v="Playing At:  New Jersey Devils   Home"/>
     <x v="2"/>
-    <n v="1"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="8"/>
@@ -6052,7 +6055,7 @@
     <n v="0.33400000000000002"/>
     <s v="Playing At:  Philadelphia Flyers   Home"/>
     <x v="2"/>
-    <n v="1"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="8"/>
@@ -6085,7 +6088,7 @@
     <n v="0.46899999999999997"/>
     <s v="Playing At:  New York Islanders   Home"/>
     <x v="4"/>
-    <n v="0"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="8"/>
@@ -6096,13 +6099,46 @@
     <n v="0.497"/>
     <s v="Playing At:  Carolina Hurricanes   Home"/>
     <x v="4"/>
-    <n v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="55"/>
+    <s v="Edmonton Oilers"/>
+    <x v="373"/>
+    <s v="Anaheim Ducks"/>
+    <n v="0.249"/>
+    <s v="Playing At:  Anaheim Ducks   Home"/>
+    <x v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="55"/>
+    <s v="New York Rangers"/>
+    <x v="374"/>
+    <s v="Chicago Blackhawks"/>
+    <n v="0.26900000000000002"/>
+    <s v="Playing At:  Chicago Blackhawks   Home"/>
+    <x v="6"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="55"/>
+    <s v="Minnesota Wild"/>
+    <x v="371"/>
+    <s v="Pittsburgh Penguins"/>
+    <n v="0.46899999999999997"/>
+    <s v="Playing At:  Minnesota Wild   Home"/>
+    <x v="4"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="9"/>
-    <x v="55"/>
+    <x v="56"/>
     <m/>
-    <x v="373"/>
+    <x v="375"/>
     <m/>
     <m/>
     <m/>
@@ -6113,201 +6149,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{80C3D042-980E-40EE-B50F-CF37801A1A1D}" name="PivotTable3" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="L3:O40" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
-  <pivotFields count="10">
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="11">
-        <item h="1" x="9"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" numFmtId="14" outline="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="10">
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="2"/>
-        <item x="6"/>
-        <item m="1" x="8"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="0"/>
-    <field x="7"/>
-  </rowFields>
-  <rowItems count="37">
-    <i>
-      <x v="1"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i t="default">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i t="default">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i t="default">
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i t="default">
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i t="default">
-      <x v="9"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Count of Winner1" fld="2" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Model" fld="8" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1FB34DD3-8207-4009-92F5-73C183F63DF8}" name="PivotTable1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A5:C13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="10">
@@ -6327,7 +6168,7 @@
       </items>
     </pivotField>
     <pivotField axis="axisPage" showAll="0">
-      <items count="57">
+      <items count="58">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -6367,7 +6208,7 @@
         <item x="36"/>
         <item x="37"/>
         <item x="38"/>
-        <item x="55"/>
+        <item x="56"/>
         <item x="39"/>
         <item x="40"/>
         <item x="41"/>
@@ -6384,15 +6225,14 @@
         <item x="52"/>
         <item x="53"/>
         <item x="54"/>
+        <item x="55"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="683">
-        <item x="373"/>
-        <item m="1" x="374"/>
-        <item m="1" x="375"/>
+      <items count="685">
+        <item x="375"/>
         <item m="1" x="376"/>
         <item m="1" x="377"/>
         <item m="1" x="378"/>
@@ -6693,14 +6533,16 @@
         <item m="1" x="673"/>
         <item m="1" x="674"/>
         <item m="1" x="675"/>
-        <item x="314"/>
         <item m="1" x="676"/>
         <item m="1" x="677"/>
+        <item x="314"/>
         <item m="1" x="678"/>
         <item m="1" x="679"/>
         <item m="1" x="680"/>
+        <item m="1" x="681"/>
+        <item m="1" x="682"/>
         <item x="9"/>
-        <item m="1" x="681"/>
+        <item m="1" x="683"/>
         <item x="286"/>
         <item x="287"/>
         <item x="288"/>
@@ -7072,6 +6914,8 @@
         <item x="370"/>
         <item x="371"/>
         <item x="372"/>
+        <item x="373"/>
+        <item x="374"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -7140,6 +6984,201 @@
     <pageField fld="1" hier="-1"/>
     <pageField fld="3" hier="-1"/>
   </pageFields>
+  <dataFields count="2">
+    <dataField name="Count of Winner1" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Model" fld="8" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{80C3D042-980E-40EE-B50F-CF37801A1A1D}" name="PivotTable3" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="L3:O40" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
+  <pivotFields count="10">
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="11">
+        <item h="1" x="9"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" numFmtId="14" outline="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="10">
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="2"/>
+        <item x="6"/>
+        <item m="1" x="8"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="37">
+    <i>
+      <x v="1"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i t="default">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i t="default">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i t="default">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i t="default">
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i t="default">
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
   <dataFields count="2">
     <dataField name="Count of Winner1" fld="2" subtotal="count" baseField="0" baseItem="0"/>
     <dataField name="Sum of Model" fld="8" baseField="0" baseItem="0"/>
@@ -7456,7 +7495,7 @@
   <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7584,15 +7623,15 @@
       </c>
       <c r="E6" s="7">
         <f>SUM(B10:B12)</f>
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F6" s="5">
         <f>SUM(B6:B9)</f>
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G6" s="11">
         <f>SUM(B6:B8)</f>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H6" s="9">
         <f>SUM(B6:B7)</f>
@@ -7628,15 +7667,15 @@
       </c>
       <c r="E7" s="7">
         <f>SUM(C10:C12)</f>
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F7" s="5">
         <f>SUM(C6:C9)</f>
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G7" s="11">
         <f>SUM(C6:C8)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H7" s="9">
         <f>SUM(C6:C7)</f>
@@ -7661,26 +7700,26 @@
         <v>93</v>
       </c>
       <c r="B8" s="16">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C8" s="16">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" si="1"/>
-        <v>0.62790697674418605</v>
+        <v>0.63636363636363635</v>
       </c>
       <c r="E8" s="8">
         <f>E7/E6</f>
-        <v>0.54671280276816614</v>
+        <v>0.5482758620689655</v>
       </c>
       <c r="F8" s="6">
         <f>F7/F6</f>
-        <v>0.68269230769230771</v>
+        <v>0.68867924528301883</v>
       </c>
       <c r="G8" s="12">
         <f>G7/G6</f>
-        <v>0.7068965517241379</v>
+        <v>0.71186440677966101</v>
       </c>
       <c r="H8" s="10">
         <f>H7/H6</f>
@@ -7705,14 +7744,14 @@
         <v>94</v>
       </c>
       <c r="B9" s="16">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C9" s="16">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" si="1"/>
-        <v>0.65217391304347827</v>
+        <v>0.65957446808510634</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>107</v>
@@ -7751,27 +7790,27 @@
         <v>124</v>
       </c>
       <c r="C10" s="16">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" si="1"/>
-        <v>0.58870967741935487</v>
+        <v>0.57258064516129037</v>
       </c>
       <c r="E10" s="8">
         <f>E6/$B$13</f>
-        <v>0.73536895674300251</v>
+        <v>0.73232323232323238</v>
       </c>
       <c r="F10" s="6">
         <f t="shared" ref="F10:H10" si="2">F6/$B$13</f>
-        <v>0.26463104325699743</v>
+        <v>0.26767676767676768</v>
       </c>
       <c r="G10" s="12">
         <f t="shared" si="2"/>
-        <v>0.1475826972010178</v>
+        <v>0.14898989898989898</v>
       </c>
       <c r="H10" s="10">
         <f t="shared" si="2"/>
-        <v>3.8167938931297711E-2</v>
+        <v>3.787878787878788E-2</v>
       </c>
       <c r="M10" t="s">
         <v>93</v>
@@ -7820,14 +7859,14 @@
         <v>85</v>
       </c>
       <c r="B12" s="16">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C12" s="16">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" si="1"/>
-        <v>0.51249999999999996</v>
+        <v>0.54320987654320985</v>
       </c>
       <c r="L12" t="s">
         <v>101</v>
@@ -7848,14 +7887,14 @@
         <v>53</v>
       </c>
       <c r="B13" s="16">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="C13" s="16">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" si="1"/>
-        <v>0.58269720101781175</v>
+        <v>0.58585858585858586</v>
       </c>
       <c r="L13" t="s">
         <v>88</v>
@@ -8242,10 +8281,10 @@
         <v>94</v>
       </c>
       <c r="N37" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O37" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P37" s="4">
         <f t="shared" si="0"/>
@@ -8257,14 +8296,14 @@
         <v>93</v>
       </c>
       <c r="N38" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O38" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="39" spans="12:16" x14ac:dyDescent="0.25">
@@ -8272,10 +8311,10 @@
         <v>111</v>
       </c>
       <c r="N39" s="16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O39" s="16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P39" s="4"/>
     </row>
@@ -8284,10 +8323,10 @@
         <v>53</v>
       </c>
       <c r="N40" s="16">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O40" s="16">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P40" s="4"/>
     </row>
@@ -8398,10 +8437,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I394"/>
+  <dimension ref="A1:I397"/>
   <sheetViews>
-    <sheetView topLeftCell="A345" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I388" sqref="I388:I394"/>
+    <sheetView topLeftCell="A348" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I398" sqref="I398"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19696,7 +19735,7 @@
         <v>51</v>
       </c>
       <c r="I389">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:9" x14ac:dyDescent="0.25">
@@ -19725,7 +19764,7 @@
         <v>51</v>
       </c>
       <c r="I390">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:9" x14ac:dyDescent="0.25">
@@ -19812,7 +19851,7 @@
         <v>85</v>
       </c>
       <c r="I393">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394" spans="1:9" x14ac:dyDescent="0.25">
@@ -19841,7 +19880,94 @@
         <v>85</v>
       </c>
       <c r="I394">
-        <v>0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>110</v>
+      </c>
+      <c r="B395" s="1">
+        <v>45331</v>
+      </c>
+      <c r="C395" t="s">
+        <v>10</v>
+      </c>
+      <c r="D395" s="14">
+        <v>0.751</v>
+      </c>
+      <c r="E395" t="s">
+        <v>17</v>
+      </c>
+      <c r="F395" s="14">
+        <v>0.249</v>
+      </c>
+      <c r="G395" t="s">
+        <v>18</v>
+      </c>
+      <c r="H395" t="s">
+        <v>93</v>
+      </c>
+      <c r="I395">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>110</v>
+      </c>
+      <c r="B396" s="1">
+        <v>45331</v>
+      </c>
+      <c r="C396" t="s">
+        <v>25</v>
+      </c>
+      <c r="D396" s="14">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="E396" t="s">
+        <v>14</v>
+      </c>
+      <c r="F396" s="14">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="G396" t="s">
+        <v>15</v>
+      </c>
+      <c r="H396" t="s">
+        <v>94</v>
+      </c>
+      <c r="I396">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>110</v>
+      </c>
+      <c r="B397" s="1">
+        <v>45331</v>
+      </c>
+      <c r="C397" t="s">
+        <v>58</v>
+      </c>
+      <c r="D397" s="14">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="E397" t="s">
+        <v>66</v>
+      </c>
+      <c r="F397" s="14">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="G397" t="s">
+        <v>72</v>
+      </c>
+      <c r="H397" t="s">
+        <v>85</v>
+      </c>
+      <c r="I397">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/PDA Lifetime Predictions.xlsx
+++ b/PDA Lifetime Predictions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thigg\Desktop\Hockey Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244E4564-E66C-4B5B-993B-06ED803D2D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00479090-37B3-4EC3-82FD-F7BA2DFA35A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="14" r:id="rId3"/>
+    <pivotCache cacheId="21" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2069" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2134" uniqueCount="112">
   <si>
     <t>Date</t>
   </si>
@@ -970,7 +970,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45331.34269351852" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="397" xr:uid="{D3A71568-3061-40C8-A74B-8B86C64C3ADC}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45332.425488194443" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="410" xr:uid="{D3A71568-3061-40C8-A74B-8B86C64C3ADC}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:I1048576" sheet="Predictions"/>
   </cacheSource>
@@ -990,7 +990,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2024-02-10T00:00:00" count="57">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2024-02-11T00:00:00" count="58">
         <d v="2023-12-09T00:00:00"/>
         <d v="2023-12-10T00:00:00"/>
         <d v="2023-12-11T00:00:00"/>
@@ -1047,6 +1047,7 @@
         <d v="2024-02-07T00:00:00"/>
         <d v="2024-02-08T00:00:00"/>
         <d v="2024-02-09T00:00:00"/>
+        <d v="2024-02-10T00:00:00"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -1054,7 +1055,7 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Winner Probability" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="0.5" maxValue="0.87610539305886403" count="684">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="0.5" maxValue="0.87610539305886403" count="697">
         <n v="0.87609999999999999"/>
         <n v="0.78059999999999996"/>
         <n v="0.65859999999999996"/>
@@ -1430,6 +1431,19 @@
         <n v="0.503"/>
         <n v="0.751"/>
         <n v="0.73099999999999998"/>
+        <n v="0.79323999999999995"/>
+        <n v="0.6925"/>
+        <n v="0.64649999999999996"/>
+        <n v="0.62655000000000005"/>
+        <n v="0.62473000000000001"/>
+        <n v="0.62444"/>
+        <n v="0.57301999999999997"/>
+        <n v="0.56406999999999996"/>
+        <n v="0.52083000000000002"/>
+        <n v="0.51793"/>
+        <n v="0.50551000000000001"/>
+        <n v="0.50116000000000005"/>
+        <n v="0.50094000000000005"/>
         <m/>
         <n v="0.87610539305886403" u="1"/>
         <n v="0.78056782297496197" u="1"/>
@@ -1777,7 +1791,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="397">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="410">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -6135,10 +6149,153 @@
     <n v="1"/>
   </r>
   <r>
+    <x v="8"/>
+    <x v="56"/>
+    <s v="Boston Bruins"/>
+    <x v="375"/>
+    <s v="Washington Capitals"/>
+    <n v="0.20676"/>
+    <s v="Playing At:  Boston Bruins   Home"/>
+    <x v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="56"/>
+    <s v="Nashville Predators"/>
+    <x v="376"/>
+    <s v="Arizona Coyotes"/>
+    <n v="0.3075"/>
+    <s v="Playing At:  Nashville Predators   Home"/>
+    <x v="2"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="56"/>
+    <s v="Dallas Stars"/>
+    <x v="377"/>
+    <s v="Montreal Canadiens"/>
+    <n v="0.35349999999999998"/>
+    <s v="Playing At:  Montreal Canadiens   Home"/>
+    <x v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="56"/>
+    <s v="Seattle Kraken"/>
+    <x v="378"/>
+    <s v="Philadelphia Flyers"/>
+    <n v="0.37345"/>
+    <s v="Playing At:  Philadelphia Flyers   Home"/>
+    <x v="2"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="56"/>
+    <s v="Tampa Bay Lightning"/>
+    <x v="379"/>
+    <s v="Columbus Blue Jackets"/>
+    <n v="0.37526999999999999"/>
+    <s v="Playing At:  Columbus Blue Jackets   Home"/>
+    <x v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="56"/>
+    <s v="Winnipeg Jets"/>
+    <x v="380"/>
+    <s v="Pittsburgh Penguins"/>
+    <n v="0.37556"/>
+    <s v="Playing At:  Winnipeg Jets   Home"/>
+    <x v="2"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="56"/>
+    <s v="Vancouver Canucks"/>
+    <x v="381"/>
+    <s v="Detroit Red Wings"/>
+    <n v="0.42698000000000003"/>
+    <s v="Playing At:  Detroit Red Wings   Home"/>
+    <x v="3"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="56"/>
+    <s v="Toronto Maple Leafs"/>
+    <x v="382"/>
+    <s v="Ottawa Senators"/>
+    <n v="0.43592999999999998"/>
+    <s v="Playing At:  Ottawa Senators   Home"/>
+    <x v="3"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="56"/>
+    <s v="New York Islanders"/>
+    <x v="383"/>
+    <s v="Calgary Flames"/>
+    <n v="0.47916999999999998"/>
+    <s v="Playing At:  New York Islanders   Home"/>
+    <x v="4"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="56"/>
+    <s v="Colorado Avalanche"/>
+    <x v="384"/>
+    <s v="Florida Panthers"/>
+    <n v="0.48207"/>
+    <s v="Playing At:  Florida Panthers   Home"/>
+    <x v="4"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="56"/>
+    <s v="Edmonton Oilers"/>
+    <x v="385"/>
+    <s v="Los Angeles Kings"/>
+    <n v="0.49448999999999999"/>
+    <s v="Playing At:  Los Angeles Kings   Home"/>
+    <x v="4"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="56"/>
+    <s v="Buffalo Sabres"/>
+    <x v="386"/>
+    <s v="St. Louis Blues"/>
+    <n v="0.49884000000000001"/>
+    <s v="Playing At:  Buffalo Sabres   Home"/>
+    <x v="4"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="56"/>
+    <s v="New Jersey Devils"/>
+    <x v="387"/>
+    <s v="Carolina Hurricanes"/>
+    <n v="0.49906"/>
+    <s v="Playing At:  Carolina Hurricanes   Home"/>
+    <x v="4"/>
+    <n v="0"/>
+  </r>
+  <r>
     <x v="9"/>
-    <x v="56"/>
+    <x v="57"/>
     <m/>
-    <x v="375"/>
+    <x v="388"/>
     <m/>
     <m/>
     <m/>
@@ -6149,7 +6306,202 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1FB34DD3-8207-4009-92F5-73C183F63DF8}" name="PivotTable1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{80C3D042-980E-40EE-B50F-CF37801A1A1D}" name="PivotTable3" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="L3:O40" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
+  <pivotFields count="10">
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="11">
+        <item h="1" x="9"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" numFmtId="14" outline="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="10">
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="2"/>
+        <item x="6"/>
+        <item m="1" x="8"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="37">
+    <i>
+      <x v="1"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i t="default">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i t="default">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i t="default">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i t="default">
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i t="default">
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Count of Winner1" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Model" fld="8" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1FB34DD3-8207-4009-92F5-73C183F63DF8}" name="PivotTable1" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A5:C13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
@@ -6168,7 +6520,7 @@
       </items>
     </pivotField>
     <pivotField axis="axisPage" showAll="0">
-      <items count="58">
+      <items count="59">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -6208,7 +6560,7 @@
         <item x="36"/>
         <item x="37"/>
         <item x="38"/>
-        <item x="56"/>
+        <item x="57"/>
         <item x="39"/>
         <item x="40"/>
         <item x="41"/>
@@ -6226,26 +6578,14 @@
         <item x="53"/>
         <item x="54"/>
         <item x="55"/>
+        <item x="56"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="685">
-        <item x="375"/>
-        <item m="1" x="376"/>
-        <item m="1" x="377"/>
-        <item m="1" x="378"/>
-        <item m="1" x="379"/>
-        <item m="1" x="380"/>
-        <item m="1" x="381"/>
-        <item m="1" x="382"/>
-        <item m="1" x="383"/>
-        <item m="1" x="384"/>
-        <item m="1" x="385"/>
-        <item m="1" x="386"/>
-        <item m="1" x="387"/>
-        <item m="1" x="388"/>
+      <items count="698">
+        <item x="388"/>
         <item m="1" x="389"/>
         <item m="1" x="390"/>
         <item m="1" x="391"/>
@@ -6535,14 +6875,27 @@
         <item m="1" x="675"/>
         <item m="1" x="676"/>
         <item m="1" x="677"/>
-        <item x="314"/>
         <item m="1" x="678"/>
         <item m="1" x="679"/>
         <item m="1" x="680"/>
         <item m="1" x="681"/>
         <item m="1" x="682"/>
+        <item m="1" x="683"/>
+        <item m="1" x="684"/>
+        <item m="1" x="685"/>
+        <item m="1" x="686"/>
+        <item m="1" x="687"/>
+        <item m="1" x="688"/>
+        <item m="1" x="689"/>
+        <item m="1" x="690"/>
+        <item x="314"/>
+        <item m="1" x="691"/>
+        <item m="1" x="692"/>
+        <item m="1" x="693"/>
+        <item m="1" x="694"/>
+        <item m="1" x="695"/>
         <item x="9"/>
-        <item m="1" x="683"/>
+        <item m="1" x="696"/>
         <item x="286"/>
         <item x="287"/>
         <item x="288"/>
@@ -6916,6 +7269,19 @@
         <item x="372"/>
         <item x="373"/>
         <item x="374"/>
+        <item x="375"/>
+        <item x="376"/>
+        <item x="377"/>
+        <item x="378"/>
+        <item x="379"/>
+        <item x="380"/>
+        <item x="381"/>
+        <item x="382"/>
+        <item x="383"/>
+        <item x="384"/>
+        <item x="385"/>
+        <item x="386"/>
+        <item x="387"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -6984,201 +7350,6 @@
     <pageField fld="1" hier="-1"/>
     <pageField fld="3" hier="-1"/>
   </pageFields>
-  <dataFields count="2">
-    <dataField name="Count of Winner1" fld="2" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Model" fld="8" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{80C3D042-980E-40EE-B50F-CF37801A1A1D}" name="PivotTable3" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="L3:O40" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
-  <pivotFields count="10">
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="11">
-        <item h="1" x="9"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" numFmtId="14" outline="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="10">
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="2"/>
-        <item x="6"/>
-        <item m="1" x="8"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="0"/>
-    <field x="7"/>
-  </rowFields>
-  <rowItems count="37">
-    <i>
-      <x v="1"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i t="default">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i t="default">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i t="default">
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i t="default">
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i t="default">
-      <x v="9"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
   <dataFields count="2">
     <dataField name="Count of Winner1" fld="2" subtotal="count" baseField="0" baseItem="0"/>
     <dataField name="Sum of Model" fld="8" baseField="0" baseItem="0"/>
@@ -7495,23 +7666,23 @@
   <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>79</v>
       </c>
@@ -7519,7 +7690,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -7527,7 +7698,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -7550,7 +7721,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="L4" t="s">
         <v>86</v>
       </c>
@@ -7568,7 +7739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>52</v>
       </c>
@@ -7607,7 +7778,7 @@
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>61</v>
       </c>
@@ -7623,15 +7794,15 @@
       </c>
       <c r="E6" s="7">
         <f>SUM(B10:B12)</f>
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="F6" s="5">
         <f>SUM(B6:B9)</f>
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G6" s="11">
         <f>SUM(B6:B8)</f>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H6" s="9">
         <f>SUM(B6:B7)</f>
@@ -7651,7 +7822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>50</v>
       </c>
@@ -7667,15 +7838,15 @@
       </c>
       <c r="E7" s="7">
         <f>SUM(C10:C12)</f>
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="F7" s="5">
         <f>SUM(C6:C9)</f>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G7" s="11">
         <f>SUM(C6:C8)</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="9">
         <f>SUM(C6:C7)</f>
@@ -7695,31 +7866,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B8" s="16">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8" s="16">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" si="1"/>
-        <v>0.63636363636363635</v>
+        <v>0.64444444444444449</v>
       </c>
       <c r="E8" s="8">
         <f>E7/E6</f>
-        <v>0.5482758620689655</v>
+        <v>0.54966887417218546</v>
       </c>
       <c r="F8" s="6">
         <f>F7/F6</f>
-        <v>0.68867924528301883</v>
+        <v>0.69158878504672894</v>
       </c>
       <c r="G8" s="12">
         <f>G7/G6</f>
-        <v>0.71186440677966101</v>
+        <v>0.71666666666666667</v>
       </c>
       <c r="H8" s="10">
         <f>H7/H6</f>
@@ -7739,7 +7910,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>94</v>
       </c>
@@ -7782,35 +7953,35 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B10" s="16">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C10" s="16">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" si="1"/>
-        <v>0.57258064516129037</v>
+        <v>0.56589147286821706</v>
       </c>
       <c r="E10" s="8">
         <f>E6/$B$13</f>
-        <v>0.73232323232323238</v>
+        <v>0.73838630806845962</v>
       </c>
       <c r="F10" s="6">
         <f t="shared" ref="F10:H10" si="2">F6/$B$13</f>
-        <v>0.26767676767676768</v>
+        <v>0.26161369193154033</v>
       </c>
       <c r="G10" s="12">
         <f t="shared" si="2"/>
-        <v>0.14898989898989898</v>
+        <v>0.14669926650366749</v>
       </c>
       <c r="H10" s="10">
         <f t="shared" si="2"/>
-        <v>3.787878787878788E-2</v>
+        <v>3.6674816625916873E-2</v>
       </c>
       <c r="M10" t="s">
         <v>93</v>
@@ -7826,19 +7997,19 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B11" s="16">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C11" s="16">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" si="1"/>
-        <v>0.51764705882352946</v>
+        <v>0.52873563218390807</v>
       </c>
       <c r="M11" t="s">
         <v>50</v>
@@ -7854,19 +8025,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B12" s="16">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C12" s="16">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" si="1"/>
-        <v>0.54320987654320985</v>
+        <v>0.54651162790697672</v>
       </c>
       <c r="L12" t="s">
         <v>101</v>
@@ -7882,19 +8053,19 @@
         <v>0.46666666666666667</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B13" s="16">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="C13" s="16">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" si="1"/>
-        <v>0.58585858585858586</v>
+        <v>0.58679706601466997</v>
       </c>
       <c r="L13" t="s">
         <v>88</v>
@@ -7913,7 +8084,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="M14" t="s">
         <v>93</v>
       </c>
@@ -7928,7 +8099,7 @@
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="M15" t="s">
         <v>50</v>
       </c>
@@ -7943,7 +8114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="L16" t="s">
         <v>102</v>
       </c>
@@ -7958,7 +8129,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="17" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="12:16" x14ac:dyDescent="0.35">
       <c r="L17" t="s">
         <v>89</v>
       </c>
@@ -7976,7 +8147,7 @@
         <v>0.55555555555555558</v>
       </c>
     </row>
-    <row r="18" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="12:16" x14ac:dyDescent="0.35">
       <c r="M18" t="s">
         <v>93</v>
       </c>
@@ -7991,7 +8162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="12:16" x14ac:dyDescent="0.35">
       <c r="M19" t="s">
         <v>50</v>
       </c>
@@ -8006,7 +8177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="12:16" x14ac:dyDescent="0.35">
       <c r="M20" t="s">
         <v>61</v>
       </c>
@@ -8021,7 +8192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="12:16" x14ac:dyDescent="0.35">
       <c r="L21" t="s">
         <v>103</v>
       </c>
@@ -8036,7 +8207,7 @@
         <v>0.77777777777777779</v>
       </c>
     </row>
-    <row r="22" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="12:16" x14ac:dyDescent="0.35">
       <c r="L22" t="s">
         <v>91</v>
       </c>
@@ -8054,7 +8225,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="12:16" x14ac:dyDescent="0.35">
       <c r="M23" t="s">
         <v>93</v>
       </c>
@@ -8069,7 +8240,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="24" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="12:16" x14ac:dyDescent="0.35">
       <c r="M24" t="s">
         <v>50</v>
       </c>
@@ -8084,7 +8255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="12:16" x14ac:dyDescent="0.35">
       <c r="L25" t="s">
         <v>104</v>
       </c>
@@ -8099,7 +8270,7 @@
         <v>0.69230769230769229</v>
       </c>
     </row>
-    <row r="26" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="12:16" x14ac:dyDescent="0.35">
       <c r="L26" t="s">
         <v>90</v>
       </c>
@@ -8117,7 +8288,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="27" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="12:16" x14ac:dyDescent="0.35">
       <c r="M27" t="s">
         <v>93</v>
       </c>
@@ -8132,7 +8303,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="28" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="12:16" x14ac:dyDescent="0.35">
       <c r="M28" t="s">
         <v>61</v>
       </c>
@@ -8147,7 +8318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="12:16" x14ac:dyDescent="0.35">
       <c r="L29" t="s">
         <v>105</v>
       </c>
@@ -8162,7 +8333,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="30" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="12:16" x14ac:dyDescent="0.35">
       <c r="L30" t="s">
         <v>99</v>
       </c>
@@ -8180,7 +8351,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="31" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="12:16" x14ac:dyDescent="0.35">
       <c r="M31" t="s">
         <v>93</v>
       </c>
@@ -8195,7 +8366,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="32" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="12:16" x14ac:dyDescent="0.35">
       <c r="M32" t="s">
         <v>50</v>
       </c>
@@ -8210,7 +8381,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="12:16" x14ac:dyDescent="0.35">
       <c r="L33" t="s">
         <v>106</v>
       </c>
@@ -8225,7 +8396,7 @@
         <v>0.73333333333333328</v>
       </c>
     </row>
-    <row r="34" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="12:16" x14ac:dyDescent="0.35">
       <c r="L34" t="s">
         <v>108</v>
       </c>
@@ -8243,7 +8414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="12:16" x14ac:dyDescent="0.35">
       <c r="M35" t="s">
         <v>93</v>
       </c>
@@ -8258,7 +8429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="12:16" x14ac:dyDescent="0.35">
       <c r="L36" t="s">
         <v>109</v>
       </c>
@@ -8273,7 +8444,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="12:16" x14ac:dyDescent="0.35">
       <c r="L37" t="s">
         <v>110</v>
       </c>
@@ -8291,82 +8462,82 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="12:16" x14ac:dyDescent="0.35">
       <c r="M38" t="s">
         <v>93</v>
       </c>
       <c r="N38" s="16">
+        <v>3</v>
+      </c>
+      <c r="O38" s="16">
         <v>2</v>
-      </c>
-      <c r="O38" s="16">
-        <v>1</v>
       </c>
       <c r="P38" s="4">
         <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="39" spans="12:16" x14ac:dyDescent="0.25">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="39" spans="12:16" x14ac:dyDescent="0.35">
       <c r="L39" t="s">
         <v>111</v>
       </c>
       <c r="N39" s="16">
+        <v>5</v>
+      </c>
+      <c r="O39" s="16">
         <v>4</v>
       </c>
-      <c r="O39" s="16">
-        <v>3</v>
-      </c>
       <c r="P39" s="4"/>
     </row>
-    <row r="40" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="12:16" x14ac:dyDescent="0.35">
       <c r="L40" t="s">
         <v>53</v>
       </c>
       <c r="N40" s="16">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O40" s="16">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P40" s="4"/>
     </row>
-    <row r="41" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="12:16" x14ac:dyDescent="0.35">
       <c r="P41" s="4"/>
     </row>
-    <row r="42" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="12:16" x14ac:dyDescent="0.35">
       <c r="P42" s="4"/>
     </row>
-    <row r="43" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="12:16" x14ac:dyDescent="0.35">
       <c r="P43" s="4"/>
     </row>
-    <row r="44" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="12:16" x14ac:dyDescent="0.35">
       <c r="P44" s="4"/>
     </row>
-    <row r="45" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="12:16" x14ac:dyDescent="0.35">
       <c r="P45" s="4"/>
     </row>
-    <row r="46" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="12:16" x14ac:dyDescent="0.35">
       <c r="P46" s="4"/>
     </row>
-    <row r="47" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="12:16" x14ac:dyDescent="0.35">
       <c r="P47" s="4"/>
     </row>
-    <row r="48" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="12:16" x14ac:dyDescent="0.35">
       <c r="P48" s="4"/>
     </row>
-    <row r="49" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P49" s="4"/>
     </row>
-    <row r="50" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P50" s="4"/>
     </row>
-    <row r="51" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P51" s="4"/>
     </row>
-    <row r="52" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P52" s="4"/>
     </row>
-    <row r="53" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P53" s="4"/>
     </row>
   </sheetData>
@@ -8437,27 +8608,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I397"/>
+  <dimension ref="A1:I410"/>
   <sheetViews>
-    <sheetView topLeftCell="A348" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I398" sqref="I398"/>
+    <sheetView topLeftCell="A385" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I399" sqref="I399"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7265625" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="43" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>79</v>
       </c>
@@ -8486,7 +8657,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -8515,7 +8686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>86</v>
       </c>
@@ -8544,7 +8715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>86</v>
       </c>
@@ -8573,7 +8744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>86</v>
       </c>
@@ -8602,7 +8773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>86</v>
       </c>
@@ -8631,7 +8802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>86</v>
       </c>
@@ -8660,7 +8831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -8689,7 +8860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -8718,7 +8889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>86</v>
       </c>
@@ -8747,7 +8918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>86</v>
       </c>
@@ -8776,7 +8947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>86</v>
       </c>
@@ -8805,7 +8976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>86</v>
       </c>
@@ -8834,7 +9005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>86</v>
       </c>
@@ -8863,7 +9034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>86</v>
       </c>
@@ -8892,7 +9063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>86</v>
       </c>
@@ -8921,7 +9092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>86</v>
       </c>
@@ -8950,7 +9121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>86</v>
       </c>
@@ -8979,7 +9150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>86</v>
       </c>
@@ -9008,7 +9179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>86</v>
       </c>
@@ -9037,7 +9208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>86</v>
       </c>
@@ -9066,7 +9237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>86</v>
       </c>
@@ -9095,7 +9266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>86</v>
       </c>
@@ -9124,7 +9295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>86</v>
       </c>
@@ -9153,7 +9324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>86</v>
       </c>
@@ -9182,7 +9353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>86</v>
       </c>
@@ -9211,7 +9382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>86</v>
       </c>
@@ -9240,7 +9411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>86</v>
       </c>
@@ -9269,7 +9440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>86</v>
       </c>
@@ -9298,7 +9469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>86</v>
       </c>
@@ -9327,7 +9498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>86</v>
       </c>
@@ -9356,7 +9527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>86</v>
       </c>
@@ -9385,7 +9556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>86</v>
       </c>
@@ -9414,7 +9585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>86</v>
       </c>
@@ -9443,7 +9614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>86</v>
       </c>
@@ -9472,7 +9643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>86</v>
       </c>
@@ -9501,7 +9672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>86</v>
       </c>
@@ -9530,7 +9701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>86</v>
       </c>
@@ -9559,7 +9730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>86</v>
       </c>
@@ -9588,7 +9759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>86</v>
       </c>
@@ -9617,7 +9788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>86</v>
       </c>
@@ -9646,7 +9817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>86</v>
       </c>
@@ -9675,7 +9846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>86</v>
       </c>
@@ -9704,7 +9875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>86</v>
       </c>
@@ -9733,7 +9904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>86</v>
       </c>
@@ -9762,7 +9933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>86</v>
       </c>
@@ -9791,7 +9962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>86</v>
       </c>
@@ -9820,7 +9991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>86</v>
       </c>
@@ -9849,7 +10020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>86</v>
       </c>
@@ -9878,7 +10049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>86</v>
       </c>
@@ -9907,7 +10078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>86</v>
       </c>
@@ -9936,7 +10107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>86</v>
       </c>
@@ -9965,7 +10136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>86</v>
       </c>
@@ -9994,7 +10165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>86</v>
       </c>
@@ -10023,7 +10194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>86</v>
       </c>
@@ -10052,7 +10223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>86</v>
       </c>
@@ -10081,7 +10252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>86</v>
       </c>
@@ -10110,7 +10281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>86</v>
       </c>
@@ -10139,7 +10310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>86</v>
       </c>
@@ -10168,7 +10339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>86</v>
       </c>
@@ -10197,7 +10368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>86</v>
       </c>
@@ -10226,7 +10397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>86</v>
       </c>
@@ -10255,7 +10426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>86</v>
       </c>
@@ -10284,7 +10455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>86</v>
       </c>
@@ -10313,7 +10484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>86</v>
       </c>
@@ -10342,7 +10513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>86</v>
       </c>
@@ -10371,7 +10542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>86</v>
       </c>
@@ -10400,7 +10571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>87</v>
       </c>
@@ -10429,7 +10600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>87</v>
       </c>
@@ -10458,7 +10629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>87</v>
       </c>
@@ -10487,7 +10658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>87</v>
       </c>
@@ -10516,7 +10687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>87</v>
       </c>
@@ -10545,7 +10716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>87</v>
       </c>
@@ -10574,7 +10745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>87</v>
       </c>
@@ -10603,7 +10774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>87</v>
       </c>
@@ -10632,7 +10803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>87</v>
       </c>
@@ -10661,7 +10832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>87</v>
       </c>
@@ -10690,7 +10861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>87</v>
       </c>
@@ -10719,7 +10890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>87</v>
       </c>
@@ -10748,7 +10919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>87</v>
       </c>
@@ -10777,7 +10948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>87</v>
       </c>
@@ -10806,7 +10977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>87</v>
       </c>
@@ -10835,7 +11006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>87</v>
       </c>
@@ -10864,7 +11035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>87</v>
       </c>
@@ -10893,7 +11064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>87</v>
       </c>
@@ -10922,7 +11093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>87</v>
       </c>
@@ -10951,7 +11122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>87</v>
       </c>
@@ -10980,7 +11151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -11009,7 +11180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -11038,7 +11209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>87</v>
       </c>
@@ -11067,7 +11238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>87</v>
       </c>
@@ -11096,7 +11267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>87</v>
       </c>
@@ -11125,7 +11296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>87</v>
       </c>
@@ -11154,7 +11325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>87</v>
       </c>
@@ -11183,7 +11354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>87</v>
       </c>
@@ -11212,7 +11383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>87</v>
       </c>
@@ -11241,7 +11412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>87</v>
       </c>
@@ -11270,7 +11441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>87</v>
       </c>
@@ -11299,7 +11470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>87</v>
       </c>
@@ -11328,7 +11499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>87</v>
       </c>
@@ -11357,7 +11528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>87</v>
       </c>
@@ -11386,7 +11557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>87</v>
       </c>
@@ -11415,7 +11586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>87</v>
       </c>
@@ -11444,7 +11615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>87</v>
       </c>
@@ -11473,7 +11644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>87</v>
       </c>
@@ -11502,7 +11673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>87</v>
       </c>
@@ -11531,7 +11702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>87</v>
       </c>
@@ -11560,7 +11731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>87</v>
       </c>
@@ -11589,7 +11760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>87</v>
       </c>
@@ -11618,7 +11789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>87</v>
       </c>
@@ -11647,7 +11818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>87</v>
       </c>
@@ -11676,7 +11847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>87</v>
       </c>
@@ -11705,7 +11876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>87</v>
       </c>
@@ -11734,7 +11905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>87</v>
       </c>
@@ -11763,7 +11934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>87</v>
       </c>
@@ -11792,7 +11963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>87</v>
       </c>
@@ -11821,7 +11992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>87</v>
       </c>
@@ -11850,7 +12021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>87</v>
       </c>
@@ -11879,7 +12050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>87</v>
       </c>
@@ -11908,7 +12079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>87</v>
       </c>
@@ -11937,7 +12108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>87</v>
       </c>
@@ -11966,7 +12137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>88</v>
       </c>
@@ -11995,7 +12166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>88</v>
       </c>
@@ -12024,7 +12195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>88</v>
       </c>
@@ -12053,7 +12224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>88</v>
       </c>
@@ -12082,7 +12253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>88</v>
       </c>
@@ -12111,7 +12282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>88</v>
       </c>
@@ -12140,7 +12311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>88</v>
       </c>
@@ -12169,7 +12340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>88</v>
       </c>
@@ -12198,7 +12369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>88</v>
       </c>
@@ -12227,7 +12398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>88</v>
       </c>
@@ -12256,7 +12427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>88</v>
       </c>
@@ -12285,7 +12456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>88</v>
       </c>
@@ -12314,7 +12485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>88</v>
       </c>
@@ -12343,7 +12514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>88</v>
       </c>
@@ -12372,7 +12543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>88</v>
       </c>
@@ -12401,7 +12572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>88</v>
       </c>
@@ -12430,7 +12601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>88</v>
       </c>
@@ -12459,7 +12630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>88</v>
       </c>
@@ -12488,7 +12659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>88</v>
       </c>
@@ -12517,7 +12688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>88</v>
       </c>
@@ -12546,7 +12717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>88</v>
       </c>
@@ -12575,7 +12746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>88</v>
       </c>
@@ -12604,7 +12775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>88</v>
       </c>
@@ -12633,7 +12804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>88</v>
       </c>
@@ -12662,7 +12833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>88</v>
       </c>
@@ -12691,7 +12862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>88</v>
       </c>
@@ -12720,7 +12891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>88</v>
       </c>
@@ -12749,7 +12920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>88</v>
       </c>
@@ -12778,7 +12949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>88</v>
       </c>
@@ -12807,7 +12978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>88</v>
       </c>
@@ -12836,7 +13007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>88</v>
       </c>
@@ -12865,7 +13036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>88</v>
       </c>
@@ -12894,7 +13065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>88</v>
       </c>
@@ -12923,7 +13094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>88</v>
       </c>
@@ -12952,7 +13123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>88</v>
       </c>
@@ -12981,7 +13152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>88</v>
       </c>
@@ -13010,7 +13181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>89</v>
       </c>
@@ -13039,7 +13210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>89</v>
       </c>
@@ -13068,7 +13239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>89</v>
       </c>
@@ -13097,7 +13268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>89</v>
       </c>
@@ -13126,7 +13297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>89</v>
       </c>
@@ -13155,7 +13326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>89</v>
       </c>
@@ -13184,7 +13355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>89</v>
       </c>
@@ -13213,7 +13384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>89</v>
       </c>
@@ -13242,7 +13413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>89</v>
       </c>
@@ -13271,7 +13442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>89</v>
       </c>
@@ -13300,7 +13471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>89</v>
       </c>
@@ -13329,7 +13500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>89</v>
       </c>
@@ -13358,7 +13529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>89</v>
       </c>
@@ -13387,7 +13558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>89</v>
       </c>
@@ -13416,7 +13587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>89</v>
       </c>
@@ -13445,7 +13616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>89</v>
       </c>
@@ -13474,7 +13645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>89</v>
       </c>
@@ -13503,7 +13674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>89</v>
       </c>
@@ -13532,7 +13703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>89</v>
       </c>
@@ -13561,7 +13732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>89</v>
       </c>
@@ -13590,7 +13761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>89</v>
       </c>
@@ -13619,7 +13790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>89</v>
       </c>
@@ -13648,7 +13819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>89</v>
       </c>
@@ -13677,7 +13848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>89</v>
       </c>
@@ -13706,7 +13877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>89</v>
       </c>
@@ -13735,7 +13906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>89</v>
       </c>
@@ -13764,7 +13935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>89</v>
       </c>
@@ -13793,7 +13964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>89</v>
       </c>
@@ -13822,7 +13993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>89</v>
       </c>
@@ -13851,7 +14022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>89</v>
       </c>
@@ -13880,7 +14051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>89</v>
       </c>
@@ -13909,7 +14080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>89</v>
       </c>
@@ -13938,7 +14109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>89</v>
       </c>
@@ -13967,7 +14138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>89</v>
       </c>
@@ -13996,7 +14167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>89</v>
       </c>
@@ -14025,7 +14196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>89</v>
       </c>
@@ -14054,7 +14225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>89</v>
       </c>
@@ -14083,7 +14254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>89</v>
       </c>
@@ -14112,7 +14283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>89</v>
       </c>
@@ -14141,7 +14312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>89</v>
       </c>
@@ -14170,7 +14341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>89</v>
       </c>
@@ -14199,7 +14370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>89</v>
       </c>
@@ -14228,7 +14399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>89</v>
       </c>
@@ -14257,7 +14428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>89</v>
       </c>
@@ -14286,7 +14457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>89</v>
       </c>
@@ -14315,7 +14486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>89</v>
       </c>
@@ -14344,7 +14515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>89</v>
       </c>
@@ -14373,7 +14544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>89</v>
       </c>
@@ -14402,7 +14573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>89</v>
       </c>
@@ -14431,7 +14602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>89</v>
       </c>
@@ -14460,7 +14631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>89</v>
       </c>
@@ -14489,7 +14660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>89</v>
       </c>
@@ -14518,7 +14689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>89</v>
       </c>
@@ -14547,7 +14718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>89</v>
       </c>
@@ -14576,7 +14747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>89</v>
       </c>
@@ -14605,7 +14776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>89</v>
       </c>
@@ -14634,7 +14805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>89</v>
       </c>
@@ -14663,7 +14834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>91</v>
       </c>
@@ -14692,7 +14863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>91</v>
       </c>
@@ -14721,7 +14892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>91</v>
       </c>
@@ -14750,7 +14921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>91</v>
       </c>
@@ -14779,7 +14950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>91</v>
       </c>
@@ -14808,7 +14979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>91</v>
       </c>
@@ -14837,7 +15008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>91</v>
       </c>
@@ -14866,7 +15037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>91</v>
       </c>
@@ -14895,7 +15066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>91</v>
       </c>
@@ -14924,7 +15095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>91</v>
       </c>
@@ -14953,7 +15124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>91</v>
       </c>
@@ -14982,7 +15153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>91</v>
       </c>
@@ -15011,7 +15182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>91</v>
       </c>
@@ -15040,7 +15211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>91</v>
       </c>
@@ -15069,7 +15240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>91</v>
       </c>
@@ -15098,7 +15269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>91</v>
       </c>
@@ -15127,7 +15298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>91</v>
       </c>
@@ -15156,7 +15327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>91</v>
       </c>
@@ -15185,7 +15356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>91</v>
       </c>
@@ -15214,7 +15385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>91</v>
       </c>
@@ -15243,7 +15414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>91</v>
       </c>
@@ -15272,7 +15443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>91</v>
       </c>
@@ -15301,7 +15472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>91</v>
       </c>
@@ -15330,7 +15501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>91</v>
       </c>
@@ -15359,7 +15530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>91</v>
       </c>
@@ -15388,7 +15559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>91</v>
       </c>
@@ -15417,7 +15588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>91</v>
       </c>
@@ -15446,7 +15617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>91</v>
       </c>
@@ -15475,7 +15646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>91</v>
       </c>
@@ -15504,7 +15675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>91</v>
       </c>
@@ -15533,7 +15704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>91</v>
       </c>
@@ -15562,7 +15733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>91</v>
       </c>
@@ -15591,7 +15762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>91</v>
       </c>
@@ -15620,7 +15791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>91</v>
       </c>
@@ -15649,7 +15820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>91</v>
       </c>
@@ -15678,7 +15849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>91</v>
       </c>
@@ -15707,7 +15878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>91</v>
       </c>
@@ -15736,7 +15907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>91</v>
       </c>
@@ -15765,7 +15936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>91</v>
       </c>
@@ -15794,7 +15965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>91</v>
       </c>
@@ -15823,7 +15994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>91</v>
       </c>
@@ -15852,7 +16023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>91</v>
       </c>
@@ -15881,7 +16052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>91</v>
       </c>
@@ -15910,7 +16081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>91</v>
       </c>
@@ -15939,7 +16110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>91</v>
       </c>
@@ -15968,7 +16139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>91</v>
       </c>
@@ -15997,7 +16168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>91</v>
       </c>
@@ -16026,7 +16197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>91</v>
       </c>
@@ -16055,7 +16226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>90</v>
       </c>
@@ -16084,7 +16255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>90</v>
       </c>
@@ -16113,7 +16284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>90</v>
       </c>
@@ -16142,7 +16313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>90</v>
       </c>
@@ -16171,7 +16342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>90</v>
       </c>
@@ -16200,7 +16371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>90</v>
       </c>
@@ -16229,7 +16400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>90</v>
       </c>
@@ -16258,7 +16429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>90</v>
       </c>
@@ -16287,7 +16458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>90</v>
       </c>
@@ -16316,7 +16487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>90</v>
       </c>
@@ -16345,7 +16516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>90</v>
       </c>
@@ -16374,7 +16545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>90</v>
       </c>
@@ -16403,7 +16574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>90</v>
       </c>
@@ -16432,7 +16603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>90</v>
       </c>
@@ -16461,7 +16632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>90</v>
       </c>
@@ -16490,7 +16661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>90</v>
       </c>
@@ -16519,7 +16690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>90</v>
       </c>
@@ -16548,7 +16719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>90</v>
       </c>
@@ -16577,7 +16748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>90</v>
       </c>
@@ -16606,7 +16777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>90</v>
       </c>
@@ -16635,7 +16806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>90</v>
       </c>
@@ -16664,7 +16835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>90</v>
       </c>
@@ -16693,7 +16864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>90</v>
       </c>
@@ -16722,7 +16893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>90</v>
       </c>
@@ -16751,7 +16922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>90</v>
       </c>
@@ -16780,7 +16951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>90</v>
       </c>
@@ -16809,7 +16980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>90</v>
       </c>
@@ -16838,7 +17009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>90</v>
       </c>
@@ -16867,7 +17038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>90</v>
       </c>
@@ -16896,7 +17067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>90</v>
       </c>
@@ -16925,7 +17096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>90</v>
       </c>
@@ -16954,7 +17125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>90</v>
       </c>
@@ -16983,7 +17154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>90</v>
       </c>
@@ -17012,7 +17183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>90</v>
       </c>
@@ -17041,7 +17212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>90</v>
       </c>
@@ -17070,7 +17241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>90</v>
       </c>
@@ -17099,7 +17270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>90</v>
       </c>
@@ -17128,7 +17299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>90</v>
       </c>
@@ -17157,7 +17328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>90</v>
       </c>
@@ -17186,7 +17357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>90</v>
       </c>
@@ -17215,7 +17386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>90</v>
       </c>
@@ -17244,7 +17415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>90</v>
       </c>
@@ -17273,7 +17444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>90</v>
       </c>
@@ -17302,7 +17473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>90</v>
       </c>
@@ -17331,7 +17502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>90</v>
       </c>
@@ -17360,7 +17531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>90</v>
       </c>
@@ -17389,7 +17560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>90</v>
       </c>
@@ -17418,7 +17589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>90</v>
       </c>
@@ -17447,7 +17618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>90</v>
       </c>
@@ -17476,7 +17647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>99</v>
       </c>
@@ -17505,7 +17676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>99</v>
       </c>
@@ -17534,7 +17705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>99</v>
       </c>
@@ -17563,7 +17734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>99</v>
       </c>
@@ -17592,7 +17763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>99</v>
       </c>
@@ -17621,7 +17792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>99</v>
       </c>
@@ -17650,7 +17821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>99</v>
       </c>
@@ -17679,7 +17850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>99</v>
       </c>
@@ -17708,7 +17879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>99</v>
       </c>
@@ -17737,7 +17908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>99</v>
       </c>
@@ -17766,7 +17937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>99</v>
       </c>
@@ -17795,7 +17966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>99</v>
       </c>
@@ -17824,7 +17995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>99</v>
       </c>
@@ -17853,7 +18024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>99</v>
       </c>
@@ -17882,7 +18053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>99</v>
       </c>
@@ -17911,7 +18082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>99</v>
       </c>
@@ -17940,7 +18111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>99</v>
       </c>
@@ -17969,7 +18140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>99</v>
       </c>
@@ -17998,7 +18169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>99</v>
       </c>
@@ -18027,7 +18198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>99</v>
       </c>
@@ -18056,7 +18227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>99</v>
       </c>
@@ -18085,7 +18256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>99</v>
       </c>
@@ -18114,7 +18285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>99</v>
       </c>
@@ -18143,7 +18314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>99</v>
       </c>
@@ -18172,7 +18343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>99</v>
       </c>
@@ -18201,7 +18372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>99</v>
       </c>
@@ -18230,7 +18401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>99</v>
       </c>
@@ -18259,7 +18430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>99</v>
       </c>
@@ -18288,7 +18459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>99</v>
       </c>
@@ -18317,7 +18488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>99</v>
       </c>
@@ -18346,7 +18517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>99</v>
       </c>
@@ -18375,7 +18546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>99</v>
       </c>
@@ -18404,7 +18575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>99</v>
       </c>
@@ -18433,7 +18604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>99</v>
       </c>
@@ -18462,7 +18633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>99</v>
       </c>
@@ -18491,7 +18662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>99</v>
       </c>
@@ -18520,7 +18691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>99</v>
       </c>
@@ -18549,7 +18720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>99</v>
       </c>
@@ -18578,7 +18749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>99</v>
       </c>
@@ -18607,7 +18778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>99</v>
       </c>
@@ -18636,7 +18807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>99</v>
       </c>
@@ -18665,7 +18836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>99</v>
       </c>
@@ -18694,7 +18865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>99</v>
       </c>
@@ -18723,7 +18894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>99</v>
       </c>
@@ -18752,7 +18923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>99</v>
       </c>
@@ -18781,7 +18952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>99</v>
       </c>
@@ -18810,7 +18981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>99</v>
       </c>
@@ -18839,7 +19010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>99</v>
       </c>
@@ -18868,7 +19039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>99</v>
       </c>
@@ -18897,7 +19068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>99</v>
       </c>
@@ -18926,7 +19097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>99</v>
       </c>
@@ -18955,7 +19126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>99</v>
       </c>
@@ -18984,7 +19155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>99</v>
       </c>
@@ -19013,7 +19184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>99</v>
       </c>
@@ -19042,7 +19213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>99</v>
       </c>
@@ -19071,7 +19242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>108</v>
       </c>
@@ -19100,7 +19271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>108</v>
       </c>
@@ -19129,7 +19300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>108</v>
       </c>
@@ -19158,7 +19329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>108</v>
       </c>
@@ -19187,7 +19358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>108</v>
       </c>
@@ -19216,7 +19387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>108</v>
       </c>
@@ -19245,7 +19416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>108</v>
       </c>
@@ -19274,7 +19445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>108</v>
       </c>
@@ -19303,7 +19474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>110</v>
       </c>
@@ -19332,7 +19503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>110</v>
       </c>
@@ -19361,7 +19532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>110</v>
       </c>
@@ -19390,7 +19561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>110</v>
       </c>
@@ -19419,7 +19590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>110</v>
       </c>
@@ -19448,7 +19619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>110</v>
       </c>
@@ -19477,7 +19648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>110</v>
       </c>
@@ -19506,7 +19677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>110</v>
       </c>
@@ -19535,7 +19706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>110</v>
       </c>
@@ -19564,7 +19735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>110</v>
       </c>
@@ -19593,7 +19764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>110</v>
       </c>
@@ -19622,7 +19793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>110</v>
       </c>
@@ -19651,7 +19822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>110</v>
       </c>
@@ -19680,7 +19851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>110</v>
       </c>
@@ -19709,7 +19880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>110</v>
       </c>
@@ -19738,7 +19909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>110</v>
       </c>
@@ -19767,7 +19938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>110</v>
       </c>
@@ -19796,7 +19967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>110</v>
       </c>
@@ -19825,7 +19996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>110</v>
       </c>
@@ -19854,7 +20025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>110</v>
       </c>
@@ -19883,7 +20054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>110</v>
       </c>
@@ -19912,7 +20083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>110</v>
       </c>
@@ -19941,7 +20112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>110</v>
       </c>
@@ -19968,6 +20139,383 @@
       </c>
       <c r="I397">
         <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A398" t="s">
+        <v>110</v>
+      </c>
+      <c r="B398" s="1">
+        <v>45332</v>
+      </c>
+      <c r="C398" t="s">
+        <v>4</v>
+      </c>
+      <c r="D398" s="14">
+        <v>0.79323999999999995</v>
+      </c>
+      <c r="E398" t="s">
+        <v>26</v>
+      </c>
+      <c r="F398" s="14">
+        <v>0.20676</v>
+      </c>
+      <c r="G398" t="s">
+        <v>6</v>
+      </c>
+      <c r="H398" t="s">
+        <v>93</v>
+      </c>
+      <c r="I398">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A399" t="s">
+        <v>110</v>
+      </c>
+      <c r="B399" s="1">
+        <v>45332</v>
+      </c>
+      <c r="C399" t="s">
+        <v>20</v>
+      </c>
+      <c r="D399" s="14">
+        <v>0.6925</v>
+      </c>
+      <c r="E399" t="s">
+        <v>5</v>
+      </c>
+      <c r="F399" s="14">
+        <v>0.3075</v>
+      </c>
+      <c r="G399" t="s">
+        <v>63</v>
+      </c>
+      <c r="H399" t="s">
+        <v>51</v>
+      </c>
+      <c r="I399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A400" t="s">
+        <v>110</v>
+      </c>
+      <c r="B400" s="1">
+        <v>45332</v>
+      </c>
+      <c r="C400" t="s">
+        <v>28</v>
+      </c>
+      <c r="D400" s="14">
+        <v>0.64649999999999996</v>
+      </c>
+      <c r="E400" t="s">
+        <v>45</v>
+      </c>
+      <c r="F400" s="14">
+        <v>0.35349999999999998</v>
+      </c>
+      <c r="G400" t="s">
+        <v>59</v>
+      </c>
+      <c r="H400" t="s">
+        <v>51</v>
+      </c>
+      <c r="I400">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A401" t="s">
+        <v>110</v>
+      </c>
+      <c r="B401" s="1">
+        <v>45332</v>
+      </c>
+      <c r="C401" t="s">
+        <v>23</v>
+      </c>
+      <c r="D401" s="14">
+        <v>0.62655000000000005</v>
+      </c>
+      <c r="E401" t="s">
+        <v>8</v>
+      </c>
+      <c r="F401" s="14">
+        <v>0.37345</v>
+      </c>
+      <c r="G401" t="s">
+        <v>73</v>
+      </c>
+      <c r="H401" t="s">
+        <v>51</v>
+      </c>
+      <c r="I401">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A402" t="s">
+        <v>110</v>
+      </c>
+      <c r="B402" s="1">
+        <v>45332</v>
+      </c>
+      <c r="C402" t="s">
+        <v>22</v>
+      </c>
+      <c r="D402" s="14">
+        <v>0.62473000000000001</v>
+      </c>
+      <c r="E402" t="s">
+        <v>34</v>
+      </c>
+      <c r="F402" s="14">
+        <v>0.37526999999999999</v>
+      </c>
+      <c r="G402" t="s">
+        <v>35</v>
+      </c>
+      <c r="H402" t="s">
+        <v>51</v>
+      </c>
+      <c r="I402">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A403" t="s">
+        <v>110</v>
+      </c>
+      <c r="B403" s="1">
+        <v>45332</v>
+      </c>
+      <c r="C403" t="s">
+        <v>16</v>
+      </c>
+      <c r="D403" s="14">
+        <v>0.62444</v>
+      </c>
+      <c r="E403" t="s">
+        <v>66</v>
+      </c>
+      <c r="F403" s="14">
+        <v>0.37556</v>
+      </c>
+      <c r="G403" t="s">
+        <v>76</v>
+      </c>
+      <c r="H403" t="s">
+        <v>51</v>
+      </c>
+      <c r="I403">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A404" t="s">
+        <v>110</v>
+      </c>
+      <c r="B404" s="1">
+        <v>45332</v>
+      </c>
+      <c r="C404" t="s">
+        <v>42</v>
+      </c>
+      <c r="D404" s="14">
+        <v>0.57301999999999997</v>
+      </c>
+      <c r="E404" t="s">
+        <v>37</v>
+      </c>
+      <c r="F404" s="14">
+        <v>0.42698000000000003</v>
+      </c>
+      <c r="G404" t="s">
+        <v>38</v>
+      </c>
+      <c r="H404" t="s">
+        <v>84</v>
+      </c>
+      <c r="I404">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A405" t="s">
+        <v>110</v>
+      </c>
+      <c r="B405" s="1">
+        <v>45332</v>
+      </c>
+      <c r="C405" t="s">
+        <v>19</v>
+      </c>
+      <c r="D405" s="14">
+        <v>0.56406999999999996</v>
+      </c>
+      <c r="E405" t="s">
+        <v>36</v>
+      </c>
+      <c r="F405" s="14">
+        <v>0.43592999999999998</v>
+      </c>
+      <c r="G405" t="s">
+        <v>64</v>
+      </c>
+      <c r="H405" t="s">
+        <v>84</v>
+      </c>
+      <c r="I405">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A406" t="s">
+        <v>110</v>
+      </c>
+      <c r="B406" s="1">
+        <v>45332</v>
+      </c>
+      <c r="C406" t="s">
+        <v>39</v>
+      </c>
+      <c r="D406" s="14">
+        <v>0.52083000000000002</v>
+      </c>
+      <c r="E406" t="s">
+        <v>31</v>
+      </c>
+      <c r="F406" s="14">
+        <v>0.47916999999999998</v>
+      </c>
+      <c r="G406" t="s">
+        <v>41</v>
+      </c>
+      <c r="H406" t="s">
+        <v>85</v>
+      </c>
+      <c r="I406">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A407" t="s">
+        <v>110</v>
+      </c>
+      <c r="B407" s="1">
+        <v>45332</v>
+      </c>
+      <c r="C407" t="s">
+        <v>7</v>
+      </c>
+      <c r="D407" s="14">
+        <v>0.51793</v>
+      </c>
+      <c r="E407" t="s">
+        <v>33</v>
+      </c>
+      <c r="F407" s="14">
+        <v>0.48207</v>
+      </c>
+      <c r="G407" t="s">
+        <v>78</v>
+      </c>
+      <c r="H407" t="s">
+        <v>85</v>
+      </c>
+      <c r="I407">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A408" t="s">
+        <v>110</v>
+      </c>
+      <c r="B408" s="1">
+        <v>45332</v>
+      </c>
+      <c r="C408" t="s">
+        <v>10</v>
+      </c>
+      <c r="D408" s="14">
+        <v>0.50551000000000001</v>
+      </c>
+      <c r="E408" t="s">
+        <v>40</v>
+      </c>
+      <c r="F408" s="14">
+        <v>0.49448999999999999</v>
+      </c>
+      <c r="G408" t="s">
+        <v>69</v>
+      </c>
+      <c r="H408" t="s">
+        <v>85</v>
+      </c>
+      <c r="I408">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A409" t="s">
+        <v>110</v>
+      </c>
+      <c r="B409" s="1">
+        <v>45332</v>
+      </c>
+      <c r="C409" t="s">
+        <v>46</v>
+      </c>
+      <c r="D409" s="14">
+        <v>0.50116000000000005</v>
+      </c>
+      <c r="E409" t="s">
+        <v>13</v>
+      </c>
+      <c r="F409" s="14">
+        <v>0.49884000000000001</v>
+      </c>
+      <c r="G409" t="s">
+        <v>47</v>
+      </c>
+      <c r="H409" t="s">
+        <v>85</v>
+      </c>
+      <c r="I409">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A410" t="s">
+        <v>110</v>
+      </c>
+      <c r="B410" s="1">
+        <v>45332</v>
+      </c>
+      <c r="C410" t="s">
+        <v>11</v>
+      </c>
+      <c r="D410" s="14">
+        <v>0.50094000000000005</v>
+      </c>
+      <c r="E410" t="s">
+        <v>43</v>
+      </c>
+      <c r="F410" s="14">
+        <v>0.49906</v>
+      </c>
+      <c r="G410" t="s">
+        <v>74</v>
+      </c>
+      <c r="H410" t="s">
+        <v>85</v>
+      </c>
+      <c r="I410">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/PDA Lifetime Predictions.xlsx
+++ b/PDA Lifetime Predictions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thigg\Desktop\Hockey Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00479090-37B3-4EC3-82FD-F7BA2DFA35A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8170A1-A456-4F6C-B8BC-BDE919423C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="21" r:id="rId3"/>
+    <pivotCache cacheId="14" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2134" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2144" uniqueCount="113">
   <si>
     <t>Date</t>
   </si>
@@ -373,6 +373,9 @@
   </si>
   <si>
     <t>PDA9 Total</t>
+  </si>
+  <si>
+    <t>PDA10</t>
   </si>
 </sst>
 </file>
@@ -970,13 +973,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45332.425488194443" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="410" xr:uid="{D3A71568-3061-40C8-A74B-8B86C64C3ADC}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45333.425284143515" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="412" xr:uid="{D3A71568-3061-40C8-A74B-8B86C64C3ADC}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:I1048576" sheet="Predictions"/>
   </cacheSource>
   <cacheFields count="10">
     <cacheField name="Model Used" numFmtId="0">
-      <sharedItems containsBlank="1" count="10">
+      <sharedItems containsBlank="1" count="11">
         <s v="PDA1"/>
         <s v="PDA2"/>
         <s v="PDA3"/>
@@ -986,11 +989,12 @@
         <s v="PDA7"/>
         <s v="PDA8"/>
         <s v="PDA9"/>
+        <s v="PDA10"/>
         <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2024-02-11T00:00:00" count="58">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2024-02-12T00:00:00" count="59">
         <d v="2023-12-09T00:00:00"/>
         <d v="2023-12-10T00:00:00"/>
         <d v="2023-12-11T00:00:00"/>
@@ -1048,6 +1052,7 @@
         <d v="2024-02-08T00:00:00"/>
         <d v="2024-02-09T00:00:00"/>
         <d v="2024-02-10T00:00:00"/>
+        <d v="2024-02-11T00:00:00"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -1791,7 +1796,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="410">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="412">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -6157,7 +6162,7 @@
     <n v="0.20676"/>
     <s v="Playing At:  Boston Bruins   Home"/>
     <x v="1"/>
-    <n v="1"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="8"/>
@@ -6168,7 +6173,7 @@
     <n v="0.3075"/>
     <s v="Playing At:  Nashville Predators   Home"/>
     <x v="2"/>
-    <n v="0"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="8"/>
@@ -6212,7 +6217,7 @@
     <n v="0.37556"/>
     <s v="Playing At:  Winnipeg Jets   Home"/>
     <x v="2"/>
-    <n v="0"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="8"/>
@@ -6223,7 +6228,7 @@
     <n v="0.42698000000000003"/>
     <s v="Playing At:  Detroit Red Wings   Home"/>
     <x v="3"/>
-    <n v="1"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="8"/>
@@ -6234,7 +6239,7 @@
     <n v="0.43592999999999998"/>
     <s v="Playing At:  Ottawa Senators   Home"/>
     <x v="3"/>
-    <n v="1"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="8"/>
@@ -6245,7 +6250,7 @@
     <n v="0.47916999999999998"/>
     <s v="Playing At:  New York Islanders   Home"/>
     <x v="4"/>
-    <n v="1"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="8"/>
@@ -6256,7 +6261,7 @@
     <n v="0.48207"/>
     <s v="Playing At:  Florida Panthers   Home"/>
     <x v="4"/>
-    <n v="1"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="8"/>
@@ -6267,7 +6272,7 @@
     <n v="0.49448999999999999"/>
     <s v="Playing At:  Los Angeles Kings   Home"/>
     <x v="4"/>
-    <n v="1"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="8"/>
@@ -6294,6 +6299,28 @@
   <r>
     <x v="9"/>
     <x v="57"/>
+    <s v="St. Louis Blues"/>
+    <x v="57"/>
+    <s v="Montreal Canadiens"/>
+    <n v="0.39800000000000002"/>
+    <s v="Playing At:  Montreal Canadiens   Home"/>
+    <x v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="57"/>
+    <s v="Vancouver Canucks"/>
+    <x v="316"/>
+    <s v="Washington Capitals"/>
+    <n v="0.42799999999999999"/>
+    <s v="Playing At:  Washington Capitals   Home"/>
+    <x v="3"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="58"/>
     <m/>
     <x v="388"/>
     <m/>
@@ -6306,12 +6333,12 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{80C3D042-980E-40EE-B50F-CF37801A1A1D}" name="PivotTable3" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="L3:O40" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1FB34DD3-8207-4009-92F5-73C183F63DF8}" name="PivotTable1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A5:C13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="10">
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="11">
-        <item h="1" x="9"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="12">
+        <item x="10"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -6321,206 +6348,12 @@
         <item x="6"/>
         <item x="7"/>
         <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" numFmtId="14" outline="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="10">
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="2"/>
-        <item x="6"/>
-        <item m="1" x="8"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="0"/>
-    <field x="7"/>
-  </rowFields>
-  <rowItems count="37">
-    <i>
-      <x v="1"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i t="default">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i t="default">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i t="default">
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i t="default">
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i t="default">
-      <x v="9"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Count of Winner1" fld="2" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Model" fld="8" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1FB34DD3-8207-4009-92F5-73C183F63DF8}" name="PivotTable1" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A5:C13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="10">
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="11">
         <item x="9"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisPage" showAll="0">
-      <items count="59">
+      <items count="60">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -6560,7 +6393,7 @@
         <item x="36"/>
         <item x="37"/>
         <item x="38"/>
-        <item x="57"/>
+        <item x="58"/>
         <item x="39"/>
         <item x="40"/>
         <item x="41"/>
@@ -6579,6 +6412,7 @@
         <item x="54"/>
         <item x="55"/>
         <item x="56"/>
+        <item x="57"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -7366,6 +7200,202 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{80C3D042-980E-40EE-B50F-CF37801A1A1D}" name="PivotTable3" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="L3:O40" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
+  <pivotFields count="10">
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="12">
+        <item h="1" x="10"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item h="1" x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" numFmtId="14" outline="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="10">
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="2"/>
+        <item x="6"/>
+        <item m="1" x="8"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="37">
+    <i>
+      <x v="1"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i t="default">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i t="default">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i t="default">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i t="default">
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i t="default">
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Count of Winner1" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Model" fld="8" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -7666,23 +7696,23 @@
   <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>79</v>
       </c>
@@ -7690,7 +7720,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -7698,7 +7728,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -7721,7 +7751,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="L4" t="s">
         <v>86</v>
       </c>
@@ -7739,7 +7769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>52</v>
       </c>
@@ -7778,7 +7808,7 @@
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>61</v>
       </c>
@@ -7794,7 +7824,7 @@
       </c>
       <c r="E6" s="7">
         <f>SUM(B10:B12)</f>
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F6" s="5">
         <f>SUM(B6:B9)</f>
@@ -7822,7 +7852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>50</v>
       </c>
@@ -7838,15 +7868,15 @@
       </c>
       <c r="E7" s="7">
         <f>SUM(C10:C12)</f>
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F7" s="5">
         <f>SUM(C6:C9)</f>
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G7" s="11">
         <f>SUM(C6:C8)</f>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H7" s="9">
         <f>SUM(C6:C7)</f>
@@ -7866,7 +7896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>93</v>
       </c>
@@ -7874,23 +7904,23 @@
         <v>45</v>
       </c>
       <c r="C8" s="16">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" si="1"/>
-        <v>0.64444444444444449</v>
+        <v>0.62222222222222223</v>
       </c>
       <c r="E8" s="8">
         <f>E7/E6</f>
-        <v>0.54966887417218546</v>
+        <v>0.54276315789473684</v>
       </c>
       <c r="F8" s="6">
         <f>F7/F6</f>
-        <v>0.69158878504672894</v>
+        <v>0.68224299065420557</v>
       </c>
       <c r="G8" s="12">
         <f>G7/G6</f>
-        <v>0.71666666666666667</v>
+        <v>0.7</v>
       </c>
       <c r="H8" s="10">
         <f>H7/H6</f>
@@ -7910,7 +7940,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>94</v>
       </c>
@@ -7953,35 +7983,35 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B10" s="16">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C10" s="16">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" si="1"/>
-        <v>0.56589147286821706</v>
+        <v>0.58461538461538465</v>
       </c>
       <c r="E10" s="8">
         <f>E6/$B$13</f>
-        <v>0.73838630806845962</v>
+        <v>0.73965936739659366</v>
       </c>
       <c r="F10" s="6">
         <f t="shared" ref="F10:H10" si="2">F6/$B$13</f>
-        <v>0.26161369193154033</v>
+        <v>0.26034063260340634</v>
       </c>
       <c r="G10" s="12">
         <f t="shared" si="2"/>
-        <v>0.14669926650366749</v>
+        <v>0.145985401459854</v>
       </c>
       <c r="H10" s="10">
         <f t="shared" si="2"/>
-        <v>3.6674816625916873E-2</v>
+        <v>3.6496350364963501E-2</v>
       </c>
       <c r="M10" t="s">
         <v>93</v>
@@ -7997,19 +8027,19 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B11" s="16">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C11" s="16">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" si="1"/>
-        <v>0.52873563218390807</v>
+        <v>0.51136363636363635</v>
       </c>
       <c r="M11" t="s">
         <v>50</v>
@@ -8025,7 +8055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>85</v>
       </c>
@@ -8033,11 +8063,11 @@
         <v>86</v>
       </c>
       <c r="C12" s="16">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" si="1"/>
-        <v>0.54651162790697672</v>
+        <v>0.51162790697674421</v>
       </c>
       <c r="L12" t="s">
         <v>101</v>
@@ -8053,19 +8083,19 @@
         <v>0.46666666666666667</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B13" s="16">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C13" s="16">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" si="1"/>
-        <v>0.58679706601466997</v>
+        <v>0.57907542579075422</v>
       </c>
       <c r="L13" t="s">
         <v>88</v>
@@ -8084,7 +8114,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="M14" t="s">
         <v>93</v>
       </c>
@@ -8099,7 +8129,7 @@
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="M15" t="s">
         <v>50</v>
       </c>
@@ -8114,7 +8144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="L16" t="s">
         <v>102</v>
       </c>
@@ -8129,7 +8159,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="17" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L17" t="s">
         <v>89</v>
       </c>
@@ -8147,7 +8177,7 @@
         <v>0.55555555555555558</v>
       </c>
     </row>
-    <row r="18" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="12:16" x14ac:dyDescent="0.25">
       <c r="M18" t="s">
         <v>93</v>
       </c>
@@ -8162,7 +8192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="12:16" x14ac:dyDescent="0.25">
       <c r="M19" t="s">
         <v>50</v>
       </c>
@@ -8177,7 +8207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="12:16" x14ac:dyDescent="0.25">
       <c r="M20" t="s">
         <v>61</v>
       </c>
@@ -8192,7 +8222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L21" t="s">
         <v>103</v>
       </c>
@@ -8207,7 +8237,7 @@
         <v>0.77777777777777779</v>
       </c>
     </row>
-    <row r="22" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L22" t="s">
         <v>91</v>
       </c>
@@ -8225,7 +8255,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="12:16" x14ac:dyDescent="0.25">
       <c r="M23" t="s">
         <v>93</v>
       </c>
@@ -8240,7 +8270,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="24" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="12:16" x14ac:dyDescent="0.25">
       <c r="M24" t="s">
         <v>50</v>
       </c>
@@ -8255,7 +8285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L25" t="s">
         <v>104</v>
       </c>
@@ -8270,7 +8300,7 @@
         <v>0.69230769230769229</v>
       </c>
     </row>
-    <row r="26" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L26" t="s">
         <v>90</v>
       </c>
@@ -8288,7 +8318,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="27" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="12:16" x14ac:dyDescent="0.25">
       <c r="M27" t="s">
         <v>93</v>
       </c>
@@ -8303,7 +8333,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="28" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="12:16" x14ac:dyDescent="0.25">
       <c r="M28" t="s">
         <v>61</v>
       </c>
@@ -8318,7 +8348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L29" t="s">
         <v>105</v>
       </c>
@@ -8333,7 +8363,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="30" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L30" t="s">
         <v>99</v>
       </c>
@@ -8351,7 +8381,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="31" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="12:16" x14ac:dyDescent="0.25">
       <c r="M31" t="s">
         <v>93</v>
       </c>
@@ -8366,7 +8396,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="32" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="12:16" x14ac:dyDescent="0.25">
       <c r="M32" t="s">
         <v>50</v>
       </c>
@@ -8381,7 +8411,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L33" t="s">
         <v>106</v>
       </c>
@@ -8396,7 +8426,7 @@
         <v>0.73333333333333328</v>
       </c>
     </row>
-    <row r="34" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L34" t="s">
         <v>108</v>
       </c>
@@ -8414,7 +8444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="12:16" x14ac:dyDescent="0.25">
       <c r="M35" t="s">
         <v>93</v>
       </c>
@@ -8429,7 +8459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L36" t="s">
         <v>109</v>
       </c>
@@ -8444,7 +8474,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L37" t="s">
         <v>110</v>
       </c>
@@ -8462,7 +8492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="12:16" x14ac:dyDescent="0.25">
       <c r="M38" t="s">
         <v>93</v>
       </c>
@@ -8470,14 +8500,14 @@
         <v>3</v>
       </c>
       <c r="O38" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P38" s="4">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="39" spans="12:16" x14ac:dyDescent="0.35">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="39" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L39" t="s">
         <v>111</v>
       </c>
@@ -8485,11 +8515,11 @@
         <v>5</v>
       </c>
       <c r="O39" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P39" s="4"/>
     </row>
-    <row r="40" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L40" t="s">
         <v>53</v>
       </c>
@@ -8497,47 +8527,47 @@
         <v>107</v>
       </c>
       <c r="O40" s="16">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P40" s="4"/>
     </row>
-    <row r="41" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="12:16" x14ac:dyDescent="0.25">
       <c r="P41" s="4"/>
     </row>
-    <row r="42" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="12:16" x14ac:dyDescent="0.25">
       <c r="P42" s="4"/>
     </row>
-    <row r="43" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="12:16" x14ac:dyDescent="0.25">
       <c r="P43" s="4"/>
     </row>
-    <row r="44" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="44" spans="12:16" x14ac:dyDescent="0.25">
       <c r="P44" s="4"/>
     </row>
-    <row r="45" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="45" spans="12:16" x14ac:dyDescent="0.25">
       <c r="P45" s="4"/>
     </row>
-    <row r="46" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="46" spans="12:16" x14ac:dyDescent="0.25">
       <c r="P46" s="4"/>
     </row>
-    <row r="47" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="47" spans="12:16" x14ac:dyDescent="0.25">
       <c r="P47" s="4"/>
     </row>
-    <row r="48" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="48" spans="12:16" x14ac:dyDescent="0.25">
       <c r="P48" s="4"/>
     </row>
-    <row r="49" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="49" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P49" s="4"/>
     </row>
-    <row r="50" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="50" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P50" s="4"/>
     </row>
-    <row r="51" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="51" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P51" s="4"/>
     </row>
-    <row r="52" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="52" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P52" s="4"/>
     </row>
-    <row r="53" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="53" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P53" s="4"/>
     </row>
   </sheetData>
@@ -8608,27 +8638,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I410"/>
+  <dimension ref="A1:I412"/>
   <sheetViews>
     <sheetView topLeftCell="A385" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I399" sqref="I399"/>
+      <selection activeCell="I413" sqref="I413"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="43" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>79</v>
       </c>
@@ -8657,7 +8687,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -8686,7 +8716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>86</v>
       </c>
@@ -8715,7 +8745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>86</v>
       </c>
@@ -8744,7 +8774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>86</v>
       </c>
@@ -8773,7 +8803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>86</v>
       </c>
@@ -8802,7 +8832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>86</v>
       </c>
@@ -8831,7 +8861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -8860,7 +8890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -8889,7 +8919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>86</v>
       </c>
@@ -8918,7 +8948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>86</v>
       </c>
@@ -8947,7 +8977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>86</v>
       </c>
@@ -8976,7 +9006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>86</v>
       </c>
@@ -9005,7 +9035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>86</v>
       </c>
@@ -9034,7 +9064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>86</v>
       </c>
@@ -9063,7 +9093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>86</v>
       </c>
@@ -9092,7 +9122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>86</v>
       </c>
@@ -9121,7 +9151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>86</v>
       </c>
@@ -9150,7 +9180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>86</v>
       </c>
@@ -9179,7 +9209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>86</v>
       </c>
@@ -9208,7 +9238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>86</v>
       </c>
@@ -9237,7 +9267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>86</v>
       </c>
@@ -9266,7 +9296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>86</v>
       </c>
@@ -9295,7 +9325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>86</v>
       </c>
@@ -9324,7 +9354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>86</v>
       </c>
@@ -9353,7 +9383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>86</v>
       </c>
@@ -9382,7 +9412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>86</v>
       </c>
@@ -9411,7 +9441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>86</v>
       </c>
@@ -9440,7 +9470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>86</v>
       </c>
@@ -9469,7 +9499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>86</v>
       </c>
@@ -9498,7 +9528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>86</v>
       </c>
@@ -9527,7 +9557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>86</v>
       </c>
@@ -9556,7 +9586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>86</v>
       </c>
@@ -9585,7 +9615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>86</v>
       </c>
@@ -9614,7 +9644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>86</v>
       </c>
@@ -9643,7 +9673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>86</v>
       </c>
@@ -9672,7 +9702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>86</v>
       </c>
@@ -9701,7 +9731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>86</v>
       </c>
@@ -9730,7 +9760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>86</v>
       </c>
@@ -9759,7 +9789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>86</v>
       </c>
@@ -9788,7 +9818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>86</v>
       </c>
@@ -9817,7 +9847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>86</v>
       </c>
@@ -9846,7 +9876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>86</v>
       </c>
@@ -9875,7 +9905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>86</v>
       </c>
@@ -9904,7 +9934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>86</v>
       </c>
@@ -9933,7 +9963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>86</v>
       </c>
@@ -9962,7 +9992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>86</v>
       </c>
@@ -9991,7 +10021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>86</v>
       </c>
@@ -10020,7 +10050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>86</v>
       </c>
@@ -10049,7 +10079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>86</v>
       </c>
@@ -10078,7 +10108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>86</v>
       </c>
@@ -10107,7 +10137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>86</v>
       </c>
@@ -10136,7 +10166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>86</v>
       </c>
@@ -10165,7 +10195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>86</v>
       </c>
@@ -10194,7 +10224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>86</v>
       </c>
@@ -10223,7 +10253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>86</v>
       </c>
@@ -10252,7 +10282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>86</v>
       </c>
@@ -10281,7 +10311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>86</v>
       </c>
@@ -10310,7 +10340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>86</v>
       </c>
@@ -10339,7 +10369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>86</v>
       </c>
@@ -10368,7 +10398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>86</v>
       </c>
@@ -10397,7 +10427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>86</v>
       </c>
@@ -10426,7 +10456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>86</v>
       </c>
@@ -10455,7 +10485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>86</v>
       </c>
@@ -10484,7 +10514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>86</v>
       </c>
@@ -10513,7 +10543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>86</v>
       </c>
@@ -10542,7 +10572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>86</v>
       </c>
@@ -10571,7 +10601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>87</v>
       </c>
@@ -10600,7 +10630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>87</v>
       </c>
@@ -10629,7 +10659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>87</v>
       </c>
@@ -10658,7 +10688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>87</v>
       </c>
@@ -10687,7 +10717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>87</v>
       </c>
@@ -10716,7 +10746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>87</v>
       </c>
@@ -10745,7 +10775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>87</v>
       </c>
@@ -10774,7 +10804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>87</v>
       </c>
@@ -10803,7 +10833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>87</v>
       </c>
@@ -10832,7 +10862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>87</v>
       </c>
@@ -10861,7 +10891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>87</v>
       </c>
@@ -10890,7 +10920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>87</v>
       </c>
@@ -10919,7 +10949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>87</v>
       </c>
@@ -10948,7 +10978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>87</v>
       </c>
@@ -10977,7 +11007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>87</v>
       </c>
@@ -11006,7 +11036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>87</v>
       </c>
@@ -11035,7 +11065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>87</v>
       </c>
@@ -11064,7 +11094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>87</v>
       </c>
@@ -11093,7 +11123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>87</v>
       </c>
@@ -11122,7 +11152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>87</v>
       </c>
@@ -11151,7 +11181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -11180,7 +11210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -11209,7 +11239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>87</v>
       </c>
@@ -11238,7 +11268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>87</v>
       </c>
@@ -11267,7 +11297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>87</v>
       </c>
@@ -11296,7 +11326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>87</v>
       </c>
@@ -11325,7 +11355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>87</v>
       </c>
@@ -11354,7 +11384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>87</v>
       </c>
@@ -11383,7 +11413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>87</v>
       </c>
@@ -11412,7 +11442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>87</v>
       </c>
@@ -11441,7 +11471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>87</v>
       </c>
@@ -11470,7 +11500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>87</v>
       </c>
@@ -11499,7 +11529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>87</v>
       </c>
@@ -11528,7 +11558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>87</v>
       </c>
@@ -11557,7 +11587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>87</v>
       </c>
@@ -11586,7 +11616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>87</v>
       </c>
@@ -11615,7 +11645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>87</v>
       </c>
@@ -11644,7 +11674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>87</v>
       </c>
@@ -11673,7 +11703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>87</v>
       </c>
@@ -11702,7 +11732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>87</v>
       </c>
@@ -11731,7 +11761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>87</v>
       </c>
@@ -11760,7 +11790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>87</v>
       </c>
@@ -11789,7 +11819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>87</v>
       </c>
@@ -11818,7 +11848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>87</v>
       </c>
@@ -11847,7 +11877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>87</v>
       </c>
@@ -11876,7 +11906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>87</v>
       </c>
@@ -11905,7 +11935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>87</v>
       </c>
@@ -11934,7 +11964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>87</v>
       </c>
@@ -11963,7 +11993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>87</v>
       </c>
@@ -11992,7 +12022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>87</v>
       </c>
@@ -12021,7 +12051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>87</v>
       </c>
@@ -12050,7 +12080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>87</v>
       </c>
@@ -12079,7 +12109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>87</v>
       </c>
@@ -12108,7 +12138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>87</v>
       </c>
@@ -12137,7 +12167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>88</v>
       </c>
@@ -12166,7 +12196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>88</v>
       </c>
@@ -12195,7 +12225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>88</v>
       </c>
@@ -12224,7 +12254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>88</v>
       </c>
@@ -12253,7 +12283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>88</v>
       </c>
@@ -12282,7 +12312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>88</v>
       </c>
@@ -12311,7 +12341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>88</v>
       </c>
@@ -12340,7 +12370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>88</v>
       </c>
@@ -12369,7 +12399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>88</v>
       </c>
@@ -12398,7 +12428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>88</v>
       </c>
@@ -12427,7 +12457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>88</v>
       </c>
@@ -12456,7 +12486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>88</v>
       </c>
@@ -12485,7 +12515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>88</v>
       </c>
@@ -12514,7 +12544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>88</v>
       </c>
@@ -12543,7 +12573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>88</v>
       </c>
@@ -12572,7 +12602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>88</v>
       </c>
@@ -12601,7 +12631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>88</v>
       </c>
@@ -12630,7 +12660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>88</v>
       </c>
@@ -12659,7 +12689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>88</v>
       </c>
@@ -12688,7 +12718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>88</v>
       </c>
@@ -12717,7 +12747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>88</v>
       </c>
@@ -12746,7 +12776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>88</v>
       </c>
@@ -12775,7 +12805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>88</v>
       </c>
@@ -12804,7 +12834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>88</v>
       </c>
@@ -12833,7 +12863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>88</v>
       </c>
@@ -12862,7 +12892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>88</v>
       </c>
@@ -12891,7 +12921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>88</v>
       </c>
@@ -12920,7 +12950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>88</v>
       </c>
@@ -12949,7 +12979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>88</v>
       </c>
@@ -12978,7 +13008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>88</v>
       </c>
@@ -13007,7 +13037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>88</v>
       </c>
@@ -13036,7 +13066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>88</v>
       </c>
@@ -13065,7 +13095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>88</v>
       </c>
@@ -13094,7 +13124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>88</v>
       </c>
@@ -13123,7 +13153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>88</v>
       </c>
@@ -13152,7 +13182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>88</v>
       </c>
@@ -13181,7 +13211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>89</v>
       </c>
@@ -13210,7 +13240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>89</v>
       </c>
@@ -13239,7 +13269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>89</v>
       </c>
@@ -13268,7 +13298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>89</v>
       </c>
@@ -13297,7 +13327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>89</v>
       </c>
@@ -13326,7 +13356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>89</v>
       </c>
@@ -13355,7 +13385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>89</v>
       </c>
@@ -13384,7 +13414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>89</v>
       </c>
@@ -13413,7 +13443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>89</v>
       </c>
@@ -13442,7 +13472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>89</v>
       </c>
@@ -13471,7 +13501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>89</v>
       </c>
@@ -13500,7 +13530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>89</v>
       </c>
@@ -13529,7 +13559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>89</v>
       </c>
@@ -13558,7 +13588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>89</v>
       </c>
@@ -13587,7 +13617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>89</v>
       </c>
@@ -13616,7 +13646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>89</v>
       </c>
@@ -13645,7 +13675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>89</v>
       </c>
@@ -13674,7 +13704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>89</v>
       </c>
@@ -13703,7 +13733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>89</v>
       </c>
@@ -13732,7 +13762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>89</v>
       </c>
@@ -13761,7 +13791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>89</v>
       </c>
@@ -13790,7 +13820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>89</v>
       </c>
@@ -13819,7 +13849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>89</v>
       </c>
@@ -13848,7 +13878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>89</v>
       </c>
@@ -13877,7 +13907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>89</v>
       </c>
@@ -13906,7 +13936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>89</v>
       </c>
@@ -13935,7 +13965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>89</v>
       </c>
@@ -13964,7 +13994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>89</v>
       </c>
@@ -13993,7 +14023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>89</v>
       </c>
@@ -14022,7 +14052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>89</v>
       </c>
@@ -14051,7 +14081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>89</v>
       </c>
@@ -14080,7 +14110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>89</v>
       </c>
@@ -14109,7 +14139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>89</v>
       </c>
@@ -14138,7 +14168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>89</v>
       </c>
@@ -14167,7 +14197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>89</v>
       </c>
@@ -14196,7 +14226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>89</v>
       </c>
@@ -14225,7 +14255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>89</v>
       </c>
@@ -14254,7 +14284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>89</v>
       </c>
@@ -14283,7 +14313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>89</v>
       </c>
@@ -14312,7 +14342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>89</v>
       </c>
@@ -14341,7 +14371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>89</v>
       </c>
@@ -14370,7 +14400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>89</v>
       </c>
@@ -14399,7 +14429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>89</v>
       </c>
@@ -14428,7 +14458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>89</v>
       </c>
@@ -14457,7 +14487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>89</v>
       </c>
@@ -14486,7 +14516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>89</v>
       </c>
@@ -14515,7 +14545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>89</v>
       </c>
@@ -14544,7 +14574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>89</v>
       </c>
@@ -14573,7 +14603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>89</v>
       </c>
@@ -14602,7 +14632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>89</v>
       </c>
@@ -14631,7 +14661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>89</v>
       </c>
@@ -14660,7 +14690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>89</v>
       </c>
@@ -14689,7 +14719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>89</v>
       </c>
@@ -14718,7 +14748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>89</v>
       </c>
@@ -14747,7 +14777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>89</v>
       </c>
@@ -14776,7 +14806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>89</v>
       </c>
@@ -14805,7 +14835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>89</v>
       </c>
@@ -14834,7 +14864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>91</v>
       </c>
@@ -14863,7 +14893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>91</v>
       </c>
@@ -14892,7 +14922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>91</v>
       </c>
@@ -14921,7 +14951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>91</v>
       </c>
@@ -14950,7 +14980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>91</v>
       </c>
@@ -14979,7 +15009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>91</v>
       </c>
@@ -15008,7 +15038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>91</v>
       </c>
@@ -15037,7 +15067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>91</v>
       </c>
@@ -15066,7 +15096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>91</v>
       </c>
@@ -15095,7 +15125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>91</v>
       </c>
@@ -15124,7 +15154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>91</v>
       </c>
@@ -15153,7 +15183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>91</v>
       </c>
@@ -15182,7 +15212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>91</v>
       </c>
@@ -15211,7 +15241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>91</v>
       </c>
@@ -15240,7 +15270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>91</v>
       </c>
@@ -15269,7 +15299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>91</v>
       </c>
@@ -15298,7 +15328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>91</v>
       </c>
@@ -15327,7 +15357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>91</v>
       </c>
@@ -15356,7 +15386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>91</v>
       </c>
@@ -15385,7 +15415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>91</v>
       </c>
@@ -15414,7 +15444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>91</v>
       </c>
@@ -15443,7 +15473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>91</v>
       </c>
@@ -15472,7 +15502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>91</v>
       </c>
@@ -15501,7 +15531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>91</v>
       </c>
@@ -15530,7 +15560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>91</v>
       </c>
@@ -15559,7 +15589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>91</v>
       </c>
@@ -15588,7 +15618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>91</v>
       </c>
@@ -15617,7 +15647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>91</v>
       </c>
@@ -15646,7 +15676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>91</v>
       </c>
@@ -15675,7 +15705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>91</v>
       </c>
@@ -15704,7 +15734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>91</v>
       </c>
@@ -15733,7 +15763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>91</v>
       </c>
@@ -15762,7 +15792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>91</v>
       </c>
@@ -15791,7 +15821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>91</v>
       </c>
@@ -15820,7 +15850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>91</v>
       </c>
@@ -15849,7 +15879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>91</v>
       </c>
@@ -15878,7 +15908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>91</v>
       </c>
@@ -15907,7 +15937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>91</v>
       </c>
@@ -15936,7 +15966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>91</v>
       </c>
@@ -15965,7 +15995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>91</v>
       </c>
@@ -15994,7 +16024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>91</v>
       </c>
@@ -16023,7 +16053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>91</v>
       </c>
@@ -16052,7 +16082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>91</v>
       </c>
@@ -16081,7 +16111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>91</v>
       </c>
@@ -16110,7 +16140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>91</v>
       </c>
@@ -16139,7 +16169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>91</v>
       </c>
@@ -16168,7 +16198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>91</v>
       </c>
@@ -16197,7 +16227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>91</v>
       </c>
@@ -16226,7 +16256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>90</v>
       </c>
@@ -16255,7 +16285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>90</v>
       </c>
@@ -16284,7 +16314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>90</v>
       </c>
@@ -16313,7 +16343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>90</v>
       </c>
@@ -16342,7 +16372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>90</v>
       </c>
@@ -16371,7 +16401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>90</v>
       </c>
@@ -16400,7 +16430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>90</v>
       </c>
@@ -16429,7 +16459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>90</v>
       </c>
@@ -16458,7 +16488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>90</v>
       </c>
@@ -16487,7 +16517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>90</v>
       </c>
@@ -16516,7 +16546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>90</v>
       </c>
@@ -16545,7 +16575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>90</v>
       </c>
@@ -16574,7 +16604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>90</v>
       </c>
@@ -16603,7 +16633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>90</v>
       </c>
@@ -16632,7 +16662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>90</v>
       </c>
@@ -16661,7 +16691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>90</v>
       </c>
@@ -16690,7 +16720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>90</v>
       </c>
@@ -16719,7 +16749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>90</v>
       </c>
@@ -16748,7 +16778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>90</v>
       </c>
@@ -16777,7 +16807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>90</v>
       </c>
@@ -16806,7 +16836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>90</v>
       </c>
@@ -16835,7 +16865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>90</v>
       </c>
@@ -16864,7 +16894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>90</v>
       </c>
@@ -16893,7 +16923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>90</v>
       </c>
@@ -16922,7 +16952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>90</v>
       </c>
@@ -16951,7 +16981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>90</v>
       </c>
@@ -16980,7 +17010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>90</v>
       </c>
@@ -17009,7 +17039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>90</v>
       </c>
@@ -17038,7 +17068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>90</v>
       </c>
@@ -17067,7 +17097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>90</v>
       </c>
@@ -17096,7 +17126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>90</v>
       </c>
@@ -17125,7 +17155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>90</v>
       </c>
@@ -17154,7 +17184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>90</v>
       </c>
@@ -17183,7 +17213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>90</v>
       </c>
@@ -17212,7 +17242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>90</v>
       </c>
@@ -17241,7 +17271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>90</v>
       </c>
@@ -17270,7 +17300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>90</v>
       </c>
@@ -17299,7 +17329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>90</v>
       </c>
@@ -17328,7 +17358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>90</v>
       </c>
@@ -17357,7 +17387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>90</v>
       </c>
@@ -17386,7 +17416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>90</v>
       </c>
@@ -17415,7 +17445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>90</v>
       </c>
@@ -17444,7 +17474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>90</v>
       </c>
@@ -17473,7 +17503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>90</v>
       </c>
@@ -17502,7 +17532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>90</v>
       </c>
@@ -17531,7 +17561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>90</v>
       </c>
@@ -17560,7 +17590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>90</v>
       </c>
@@ -17589,7 +17619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>90</v>
       </c>
@@ -17618,7 +17648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>90</v>
       </c>
@@ -17647,7 +17677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>99</v>
       </c>
@@ -17676,7 +17706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>99</v>
       </c>
@@ -17705,7 +17735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>99</v>
       </c>
@@ -17734,7 +17764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>99</v>
       </c>
@@ -17763,7 +17793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>99</v>
       </c>
@@ -17792,7 +17822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>99</v>
       </c>
@@ -17821,7 +17851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>99</v>
       </c>
@@ -17850,7 +17880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>99</v>
       </c>
@@ -17879,7 +17909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>99</v>
       </c>
@@ -17908,7 +17938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>99</v>
       </c>
@@ -17937,7 +17967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>99</v>
       </c>
@@ -17966,7 +17996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>99</v>
       </c>
@@ -17995,7 +18025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>99</v>
       </c>
@@ -18024,7 +18054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>99</v>
       </c>
@@ -18053,7 +18083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>99</v>
       </c>
@@ -18082,7 +18112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>99</v>
       </c>
@@ -18111,7 +18141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>99</v>
       </c>
@@ -18140,7 +18170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>99</v>
       </c>
@@ -18169,7 +18199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>99</v>
       </c>
@@ -18198,7 +18228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>99</v>
       </c>
@@ -18227,7 +18257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>99</v>
       </c>
@@ -18256,7 +18286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>99</v>
       </c>
@@ -18285,7 +18315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>99</v>
       </c>
@@ -18314,7 +18344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>99</v>
       </c>
@@ -18343,7 +18373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>99</v>
       </c>
@@ -18372,7 +18402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>99</v>
       </c>
@@ -18401,7 +18431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>99</v>
       </c>
@@ -18430,7 +18460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>99</v>
       </c>
@@ -18459,7 +18489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>99</v>
       </c>
@@ -18488,7 +18518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>99</v>
       </c>
@@ -18517,7 +18547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>99</v>
       </c>
@@ -18546,7 +18576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>99</v>
       </c>
@@ -18575,7 +18605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>99</v>
       </c>
@@ -18604,7 +18634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>99</v>
       </c>
@@ -18633,7 +18663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>99</v>
       </c>
@@ -18662,7 +18692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>99</v>
       </c>
@@ -18691,7 +18721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>99</v>
       </c>
@@ -18720,7 +18750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>99</v>
       </c>
@@ -18749,7 +18779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>99</v>
       </c>
@@ -18778,7 +18808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>99</v>
       </c>
@@ -18807,7 +18837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>99</v>
       </c>
@@ -18836,7 +18866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>99</v>
       </c>
@@ -18865,7 +18895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>99</v>
       </c>
@@ -18894,7 +18924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>99</v>
       </c>
@@ -18923,7 +18953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>99</v>
       </c>
@@ -18952,7 +18982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>99</v>
       </c>
@@ -18981,7 +19011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>99</v>
       </c>
@@ -19010,7 +19040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>99</v>
       </c>
@@ -19039,7 +19069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>99</v>
       </c>
@@ -19068,7 +19098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>99</v>
       </c>
@@ -19097,7 +19127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>99</v>
       </c>
@@ -19126,7 +19156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>99</v>
       </c>
@@ -19155,7 +19185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>99</v>
       </c>
@@ -19184,7 +19214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>99</v>
       </c>
@@ -19213,7 +19243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>99</v>
       </c>
@@ -19242,7 +19272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>108</v>
       </c>
@@ -19271,7 +19301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>108</v>
       </c>
@@ -19300,7 +19330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>108</v>
       </c>
@@ -19329,7 +19359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>108</v>
       </c>
@@ -19358,7 +19388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>108</v>
       </c>
@@ -19387,7 +19417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>108</v>
       </c>
@@ -19416,7 +19446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>108</v>
       </c>
@@ -19445,7 +19475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>108</v>
       </c>
@@ -19474,7 +19504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>110</v>
       </c>
@@ -19503,7 +19533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>110</v>
       </c>
@@ -19532,7 +19562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>110</v>
       </c>
@@ -19561,7 +19591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>110</v>
       </c>
@@ -19590,7 +19620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>110</v>
       </c>
@@ -19619,7 +19649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>110</v>
       </c>
@@ -19648,7 +19678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>110</v>
       </c>
@@ -19677,7 +19707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>110</v>
       </c>
@@ -19706,7 +19736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>110</v>
       </c>
@@ -19735,7 +19765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>110</v>
       </c>
@@ -19764,7 +19794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>110</v>
       </c>
@@ -19793,7 +19823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>110</v>
       </c>
@@ -19822,7 +19852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>110</v>
       </c>
@@ -19851,7 +19881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>110</v>
       </c>
@@ -19880,7 +19910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>110</v>
       </c>
@@ -19909,7 +19939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>110</v>
       </c>
@@ -19938,7 +19968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>110</v>
       </c>
@@ -19967,7 +19997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>110</v>
       </c>
@@ -19996,7 +20026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>110</v>
       </c>
@@ -20025,7 +20055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>110</v>
       </c>
@@ -20054,7 +20084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>110</v>
       </c>
@@ -20083,7 +20113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>110</v>
       </c>
@@ -20112,7 +20142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>110</v>
       </c>
@@ -20141,7 +20171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>110</v>
       </c>
@@ -20167,10 +20197,10 @@
         <v>93</v>
       </c>
       <c r="I398">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>110</v>
       </c>
@@ -20196,10 +20226,10 @@
         <v>51</v>
       </c>
       <c r="I399">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>110</v>
       </c>
@@ -20228,7 +20258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>110</v>
       </c>
@@ -20257,7 +20287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>110</v>
       </c>
@@ -20286,7 +20316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>110</v>
       </c>
@@ -20312,10 +20342,10 @@
         <v>51</v>
       </c>
       <c r="I403">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>110</v>
       </c>
@@ -20341,10 +20371,10 @@
         <v>84</v>
       </c>
       <c r="I404">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>110</v>
       </c>
@@ -20370,10 +20400,10 @@
         <v>84</v>
       </c>
       <c r="I405">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>110</v>
       </c>
@@ -20399,10 +20429,10 @@
         <v>85</v>
       </c>
       <c r="I406">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>110</v>
       </c>
@@ -20428,10 +20458,10 @@
         <v>85</v>
       </c>
       <c r="I407">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>110</v>
       </c>
@@ -20457,10 +20487,10 @@
         <v>85</v>
       </c>
       <c r="I408">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>110</v>
       </c>
@@ -20489,7 +20519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>110</v>
       </c>
@@ -20516,6 +20546,64 @@
       </c>
       <c r="I410">
         <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>112</v>
+      </c>
+      <c r="B411" s="1">
+        <v>45333</v>
+      </c>
+      <c r="C411" t="s">
+        <v>13</v>
+      </c>
+      <c r="D411" s="14">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="E411" t="s">
+        <v>45</v>
+      </c>
+      <c r="F411" s="14">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="G411" t="s">
+        <v>59</v>
+      </c>
+      <c r="H411" t="s">
+        <v>51</v>
+      </c>
+      <c r="I411">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>112</v>
+      </c>
+      <c r="B412" s="1">
+        <v>45333</v>
+      </c>
+      <c r="C412" t="s">
+        <v>42</v>
+      </c>
+      <c r="D412" s="14">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="E412" t="s">
+        <v>26</v>
+      </c>
+      <c r="F412" s="14">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="G412" t="s">
+        <v>27</v>
+      </c>
+      <c r="H412" t="s">
+        <v>84</v>
+      </c>
+      <c r="I412">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/PDA Lifetime Predictions.xlsx
+++ b/PDA Lifetime Predictions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thigg\Desktop\Hockey Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8170A1-A456-4F6C-B8BC-BDE919423C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8441A68-6896-4D7F-BA56-CF83A9CC4EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="14" r:id="rId3"/>
+    <pivotCache cacheId="21" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2144" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2164" uniqueCount="113">
   <si>
     <t>Date</t>
   </si>
@@ -973,7 +973,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45333.425284143515" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="412" xr:uid="{D3A71568-3061-40C8-A74B-8B86C64C3ADC}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45334.333824884263" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="416" xr:uid="{D3A71568-3061-40C8-A74B-8B86C64C3ADC}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:I1048576" sheet="Predictions"/>
   </cacheSource>
@@ -994,7 +994,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2024-02-12T00:00:00" count="59">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2024-02-13T00:00:00" count="60">
         <d v="2023-12-09T00:00:00"/>
         <d v="2023-12-10T00:00:00"/>
         <d v="2023-12-11T00:00:00"/>
@@ -1053,6 +1053,7 @@
         <d v="2024-02-09T00:00:00"/>
         <d v="2024-02-10T00:00:00"/>
         <d v="2024-02-11T00:00:00"/>
+        <d v="2024-02-12T00:00:00"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -1060,7 +1061,7 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Winner Probability" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="0.5" maxValue="0.87610539305886403" count="697">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="0.5" maxValue="0.87610539305886403" count="701">
         <n v="0.87609999999999999"/>
         <n v="0.78059999999999996"/>
         <n v="0.65859999999999996"/>
@@ -1449,6 +1450,10 @@
         <n v="0.50551000000000001"/>
         <n v="0.50116000000000005"/>
         <n v="0.50094000000000005"/>
+        <n v="0.68149999999999999"/>
+        <n v="0.61799999999999999"/>
+        <n v="0.59319999999999995"/>
+        <n v="0.58350000000000002"/>
         <m/>
         <n v="0.87610539305886403" u="1"/>
         <n v="0.78056782297496197" u="1"/>
@@ -1796,7 +1801,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="412">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="416">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -6319,10 +6324,54 @@
     <n v="1"/>
   </r>
   <r>
+    <x v="9"/>
+    <x v="58"/>
+    <s v="New York Rangers"/>
+    <x v="388"/>
+    <s v="Calgary Flames"/>
+    <n v="0.31850000000000001"/>
+    <s v="Playing At:  New York Rangers   Home"/>
+    <x v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="58"/>
+    <s v="New Jersey Devils"/>
+    <x v="389"/>
+    <s v="Seattle Kraken"/>
+    <n v="0.38200000000000001"/>
+    <s v="Playing At:  New Jersey Devils   Home"/>
+    <x v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="58"/>
+    <s v="Vegas Golden Knights"/>
+    <x v="390"/>
+    <s v="Minnesota Wild"/>
+    <n v="0.40679999999999999"/>
+    <s v="Playing At:  Vegas Golden Knights   Home"/>
+    <x v="3"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="58"/>
+    <s v="Philadelphia Flyers"/>
+    <x v="391"/>
+    <s v="Arizona Coyotes"/>
+    <n v="0.41649999999999998"/>
+    <s v="Playing At:  Philadelphia Flyers   Home"/>
+    <x v="3"/>
+    <n v="0"/>
+  </r>
+  <r>
     <x v="10"/>
-    <x v="58"/>
+    <x v="59"/>
     <m/>
-    <x v="388"/>
+    <x v="392"/>
     <m/>
     <m/>
     <m/>
@@ -6333,7 +6382,203 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1FB34DD3-8207-4009-92F5-73C183F63DF8}" name="PivotTable1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{80C3D042-980E-40EE-B50F-CF37801A1A1D}" name="PivotTable3" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="L3:O40" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
+  <pivotFields count="10">
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="12">
+        <item h="1" x="10"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" numFmtId="14" outline="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="10">
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="2"/>
+        <item x="6"/>
+        <item m="1" x="8"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="37">
+    <i>
+      <x v="1"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i t="default">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i t="default">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i t="default">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i t="default">
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i t="default">
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Count of Winner1" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Model" fld="8" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1FB34DD3-8207-4009-92F5-73C183F63DF8}" name="PivotTable1" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A5:C13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
@@ -6353,7 +6598,7 @@
       </items>
     </pivotField>
     <pivotField axis="axisPage" showAll="0">
-      <items count="60">
+      <items count="61">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -6393,7 +6638,7 @@
         <item x="36"/>
         <item x="37"/>
         <item x="38"/>
-        <item x="58"/>
+        <item x="59"/>
         <item x="39"/>
         <item x="40"/>
         <item x="41"/>
@@ -6413,17 +6658,14 @@
         <item x="55"/>
         <item x="56"/>
         <item x="57"/>
+        <item x="58"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="698">
-        <item x="388"/>
-        <item m="1" x="389"/>
-        <item m="1" x="390"/>
-        <item m="1" x="391"/>
-        <item m="1" x="392"/>
+      <items count="702">
+        <item x="392"/>
         <item m="1" x="393"/>
         <item m="1" x="394"/>
         <item m="1" x="395"/>
@@ -6722,14 +6964,18 @@
         <item m="1" x="688"/>
         <item m="1" x="689"/>
         <item m="1" x="690"/>
-        <item x="314"/>
         <item m="1" x="691"/>
         <item m="1" x="692"/>
         <item m="1" x="693"/>
         <item m="1" x="694"/>
+        <item x="314"/>
         <item m="1" x="695"/>
+        <item m="1" x="696"/>
+        <item m="1" x="697"/>
+        <item m="1" x="698"/>
+        <item m="1" x="699"/>
         <item x="9"/>
-        <item m="1" x="696"/>
+        <item m="1" x="700"/>
         <item x="286"/>
         <item x="287"/>
         <item x="288"/>
@@ -7116,6 +7362,10 @@
         <item x="385"/>
         <item x="386"/>
         <item x="387"/>
+        <item x="388"/>
+        <item x="389"/>
+        <item x="390"/>
+        <item x="391"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -7184,202 +7434,6 @@
     <pageField fld="1" hier="-1"/>
     <pageField fld="3" hier="-1"/>
   </pageFields>
-  <dataFields count="2">
-    <dataField name="Count of Winner1" fld="2" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Model" fld="8" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{80C3D042-980E-40EE-B50F-CF37801A1A1D}" name="PivotTable3" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="L3:O40" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
-  <pivotFields count="10">
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="12">
-        <item h="1" x="10"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item h="1" x="9"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" numFmtId="14" outline="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="10">
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="2"/>
-        <item x="6"/>
-        <item m="1" x="8"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="0"/>
-    <field x="7"/>
-  </rowFields>
-  <rowItems count="37">
-    <i>
-      <x v="1"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i t="default">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i t="default">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i t="default">
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i t="default">
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i t="default">
-      <x v="9"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
   <dataFields count="2">
     <dataField name="Count of Winner1" fld="2" subtotal="count" baseField="0" baseItem="0"/>
     <dataField name="Sum of Model" fld="8" baseField="0" baseItem="0"/>
@@ -7696,7 +7750,7 @@
   <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7824,7 +7878,7 @@
       </c>
       <c r="E6" s="7">
         <f>SUM(B10:B12)</f>
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="F6" s="5">
         <f>SUM(B6:B9)</f>
@@ -7868,7 +7922,7 @@
       </c>
       <c r="E7" s="7">
         <f>SUM(C10:C12)</f>
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F7" s="5">
         <f>SUM(C6:C9)</f>
@@ -7912,7 +7966,7 @@
       </c>
       <c r="E8" s="8">
         <f>E7/E6</f>
-        <v>0.54276315789473684</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="F8" s="6">
         <f>F7/F6</f>
@@ -7988,30 +8042,30 @@
         <v>51</v>
       </c>
       <c r="B10" s="16">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C10" s="16">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" si="1"/>
-        <v>0.58461538461538465</v>
+        <v>0.59090909090909094</v>
       </c>
       <c r="E10" s="8">
         <f>E6/$B$13</f>
-        <v>0.73965936739659366</v>
+        <v>0.74216867469879522</v>
       </c>
       <c r="F10" s="6">
         <f t="shared" ref="F10:H10" si="2">F6/$B$13</f>
-        <v>0.26034063260340634</v>
+        <v>0.25783132530120484</v>
       </c>
       <c r="G10" s="12">
         <f t="shared" si="2"/>
-        <v>0.145985401459854</v>
+        <v>0.14457831325301204</v>
       </c>
       <c r="H10" s="10">
         <f t="shared" si="2"/>
-        <v>3.6496350364963501E-2</v>
+        <v>3.614457831325301E-2</v>
       </c>
       <c r="M10" t="s">
         <v>93</v>
@@ -8032,14 +8086,14 @@
         <v>84</v>
       </c>
       <c r="B11" s="16">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C11" s="16">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" si="1"/>
-        <v>0.51136363636363635</v>
+        <v>0.51111111111111107</v>
       </c>
       <c r="M11" t="s">
         <v>50</v>
@@ -8088,14 +8142,14 @@
         <v>53</v>
       </c>
       <c r="B13" s="16">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="C13" s="16">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" si="1"/>
-        <v>0.57907542579075422</v>
+        <v>0.58072289156626511</v>
       </c>
       <c r="L13" t="s">
         <v>88</v>
@@ -8638,10 +8692,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I412"/>
+  <dimension ref="A1:I416"/>
   <sheetViews>
     <sheetView topLeftCell="A385" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I413" sqref="I413"/>
+      <selection activeCell="I417" sqref="I417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20606,6 +20660,122 @@
         <v>1</v>
       </c>
     </row>
+    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>112</v>
+      </c>
+      <c r="B413" s="1">
+        <v>45334</v>
+      </c>
+      <c r="C413" t="s">
+        <v>25</v>
+      </c>
+      <c r="D413" s="14">
+        <v>0.68149999999999999</v>
+      </c>
+      <c r="E413" t="s">
+        <v>31</v>
+      </c>
+      <c r="F413" s="14">
+        <v>0.31850000000000001</v>
+      </c>
+      <c r="G413" t="s">
+        <v>60</v>
+      </c>
+      <c r="H413" t="s">
+        <v>51</v>
+      </c>
+      <c r="I413">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>112</v>
+      </c>
+      <c r="B414" s="1">
+        <v>45334</v>
+      </c>
+      <c r="C414" t="s">
+        <v>11</v>
+      </c>
+      <c r="D414" s="14">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="E414" t="s">
+        <v>23</v>
+      </c>
+      <c r="F414" s="14">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="G414" t="s">
+        <v>68</v>
+      </c>
+      <c r="H414" t="s">
+        <v>51</v>
+      </c>
+      <c r="I414">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>112</v>
+      </c>
+      <c r="B415" s="1">
+        <v>45334</v>
+      </c>
+      <c r="C415" t="s">
+        <v>29</v>
+      </c>
+      <c r="D415" s="14">
+        <v>0.59319999999999995</v>
+      </c>
+      <c r="E415" t="s">
+        <v>58</v>
+      </c>
+      <c r="F415" s="14">
+        <v>0.40679999999999999</v>
+      </c>
+      <c r="G415" t="s">
+        <v>57</v>
+      </c>
+      <c r="H415" t="s">
+        <v>84</v>
+      </c>
+      <c r="I415">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>112</v>
+      </c>
+      <c r="B416" s="1">
+        <v>45334</v>
+      </c>
+      <c r="C416" t="s">
+        <v>8</v>
+      </c>
+      <c r="D416" s="14">
+        <v>0.58350000000000002</v>
+      </c>
+      <c r="E416" t="s">
+        <v>5</v>
+      </c>
+      <c r="F416" s="14">
+        <v>0.41649999999999998</v>
+      </c>
+      <c r="G416" t="s">
+        <v>73</v>
+      </c>
+      <c r="H416" t="s">
+        <v>84</v>
+      </c>
+      <c r="I416">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PDA Lifetime Predictions.xlsx
+++ b/PDA Lifetime Predictions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thigg\Desktop\Hockey Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8441A68-6896-4D7F-BA56-CF83A9CC4EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA7B870-BD71-4B2A-8B25-438ECA079436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="21" r:id="rId3"/>
+    <pivotCache cacheId="14" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2164" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2223" uniqueCount="114">
   <si>
     <t>Date</t>
   </si>
@@ -376,6 +376,9 @@
   </si>
   <si>
     <t>PDA10</t>
+  </si>
+  <si>
+    <t>PDA10 Total</t>
   </si>
 </sst>
 </file>
@@ -973,7 +976,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45334.333824884263" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="416" xr:uid="{D3A71568-3061-40C8-A74B-8B86C64C3ADC}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45335.349402662039" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="427" xr:uid="{D3A71568-3061-40C8-A74B-8B86C64C3ADC}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:I1048576" sheet="Predictions"/>
   </cacheSource>
@@ -994,7 +997,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2024-02-13T00:00:00" count="60">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2024-02-14T00:00:00" count="61">
         <d v="2023-12-09T00:00:00"/>
         <d v="2023-12-10T00:00:00"/>
         <d v="2023-12-11T00:00:00"/>
@@ -1054,6 +1057,7 @@
         <d v="2024-02-10T00:00:00"/>
         <d v="2024-02-11T00:00:00"/>
         <d v="2024-02-12T00:00:00"/>
+        <d v="2024-02-13T00:00:00"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -1061,7 +1065,7 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Winner Probability" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="0.5" maxValue="0.87610539305886403" count="701">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="0.5" maxValue="0.87610539305886403" count="711">
         <n v="0.87609999999999999"/>
         <n v="0.78059999999999996"/>
         <n v="0.65859999999999996"/>
@@ -1454,6 +1458,16 @@
         <n v="0.61799999999999999"/>
         <n v="0.59319999999999995"/>
         <n v="0.58350000000000002"/>
+        <n v="0.76859999999999995"/>
+        <n v="0.74670000000000003"/>
+        <n v="0.71679999999999999"/>
+        <n v="0.66869999999999996"/>
+        <n v="0.66069999999999995"/>
+        <n v="0.62019999999999997"/>
+        <n v="0.61099999999999999"/>
+        <n v="0.57950000000000002"/>
+        <n v="0.51100000000000001"/>
+        <n v="0.50290000000000001"/>
         <m/>
         <n v="0.87610539305886403" u="1"/>
         <n v="0.78056782297496197" u="1"/>
@@ -1801,7 +1815,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="416">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="427">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -6354,7 +6368,7 @@
     <n v="0.40679999999999999"/>
     <s v="Playing At:  Vegas Golden Knights   Home"/>
     <x v="3"/>
-    <n v="1"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="9"/>
@@ -6365,13 +6379,134 @@
     <n v="0.41649999999999998"/>
     <s v="Playing At:  Philadelphia Flyers   Home"/>
     <x v="3"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="59"/>
+    <s v="Vancouver Canucks"/>
+    <x v="392"/>
+    <s v="Chicago Blackhawks"/>
+    <n v="0.23139999999999999"/>
+    <s v="Playing At:  Chicago Blackhawks   Home"/>
+    <x v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="59"/>
+    <s v="Boston Bruins"/>
+    <x v="393"/>
+    <s v="Tampa Bay Lightning"/>
+    <n v="0.25330000000000003"/>
+    <s v="Playing At:  Boston Bruins   Home"/>
+    <x v="6"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="59"/>
+    <s v="Ottawa Senators"/>
+    <x v="394"/>
+    <s v="Columbus Blue Jackets"/>
+    <n v="0.28320000000000001"/>
+    <s v="Playing At:  Ottawa Senators   Home"/>
+    <x v="6"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="59"/>
+    <s v="Montreal Canadiens"/>
+    <x v="395"/>
+    <s v="Anaheim Ducks"/>
+    <n v="0.33129999999999998"/>
+    <s v="Playing At:  Montreal Canadiens   Home"/>
+    <x v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="59"/>
+    <s v="Edmonton Oilers"/>
+    <x v="396"/>
+    <s v="Detroit Red Wings"/>
+    <n v="0.33929999999999999"/>
+    <s v="Playing At:  Edmonton Oilers   Home"/>
+    <x v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="59"/>
+    <s v="Colorado Avalanche"/>
+    <x v="397"/>
+    <s v="Washington Capitals"/>
+    <n v="0.37980000000000003"/>
+    <s v="Playing At:  Washington Capitals   Home"/>
+    <x v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="59"/>
+    <s v="Toronto Maple Leafs"/>
+    <x v="398"/>
+    <s v="St. Louis Blues"/>
+    <n v="0.38900000000000001"/>
+    <s v="Playing At:  Toronto Maple Leafs   Home"/>
+    <x v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="59"/>
+    <s v="Carolina Hurricanes"/>
+    <x v="399"/>
+    <s v="Dallas Stars"/>
+    <n v="0.42049999999999998"/>
+    <s v="Playing At:  Dallas Stars   Home"/>
+    <x v="3"/>
     <n v="0"/>
   </r>
   <r>
+    <x v="9"/>
+    <x v="59"/>
+    <s v="Seattle Kraken"/>
+    <x v="64"/>
+    <s v="New York Islanders"/>
+    <n v="0.4677"/>
+    <s v="Playing At:  New York Islanders   Home"/>
+    <x v="4"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="59"/>
+    <s v="New Jersey Devils"/>
+    <x v="400"/>
+    <s v="Nashville Predators"/>
+    <n v="0.48899999999999999"/>
+    <s v="Playing At:  Nashville Predators   Home"/>
+    <x v="4"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="59"/>
+    <s v="Los Angeles Kings"/>
+    <x v="401"/>
+    <s v="Buffalo Sabres"/>
+    <n v="0.49709999999999999"/>
+    <s v="Playing At:  Buffalo Sabres   Home"/>
+    <x v="4"/>
+    <n v="1"/>
+  </r>
+  <r>
     <x v="10"/>
-    <x v="59"/>
+    <x v="60"/>
     <m/>
-    <x v="392"/>
+    <x v="402"/>
     <m/>
     <m/>
     <m/>
@@ -6382,203 +6517,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{80C3D042-980E-40EE-B50F-CF37801A1A1D}" name="PivotTable3" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="L3:O40" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
-  <pivotFields count="10">
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="12">
-        <item h="1" x="10"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" numFmtId="14" outline="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="10">
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="2"/>
-        <item x="6"/>
-        <item m="1" x="8"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="0"/>
-    <field x="7"/>
-  </rowFields>
-  <rowItems count="37">
-    <i>
-      <x v="1"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i t="default">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i t="default">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i t="default">
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i t="default">
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i t="default">
-      <x v="9"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Count of Winner1" fld="2" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Model" fld="8" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1FB34DD3-8207-4009-92F5-73C183F63DF8}" name="PivotTable1" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1FB34DD3-8207-4009-92F5-73C183F63DF8}" name="PivotTable1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A5:C13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
@@ -6598,7 +6537,7 @@
       </items>
     </pivotField>
     <pivotField axis="axisPage" showAll="0">
-      <items count="61">
+      <items count="62">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -6638,7 +6577,7 @@
         <item x="36"/>
         <item x="37"/>
         <item x="38"/>
-        <item x="59"/>
+        <item x="60"/>
         <item x="39"/>
         <item x="40"/>
         <item x="41"/>
@@ -6659,23 +6598,14 @@
         <item x="56"/>
         <item x="57"/>
         <item x="58"/>
+        <item x="59"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="702">
-        <item x="392"/>
-        <item m="1" x="393"/>
-        <item m="1" x="394"/>
-        <item m="1" x="395"/>
-        <item m="1" x="396"/>
-        <item m="1" x="397"/>
-        <item m="1" x="398"/>
-        <item m="1" x="399"/>
-        <item m="1" x="400"/>
-        <item m="1" x="401"/>
-        <item m="1" x="402"/>
+      <items count="712">
+        <item x="402"/>
         <item m="1" x="403"/>
         <item m="1" x="404"/>
         <item m="1" x="405"/>
@@ -6968,14 +6898,24 @@
         <item m="1" x="692"/>
         <item m="1" x="693"/>
         <item m="1" x="694"/>
-        <item x="314"/>
         <item m="1" x="695"/>
         <item m="1" x="696"/>
         <item m="1" x="697"/>
         <item m="1" x="698"/>
         <item m="1" x="699"/>
+        <item m="1" x="700"/>
+        <item m="1" x="701"/>
+        <item m="1" x="702"/>
+        <item m="1" x="703"/>
+        <item m="1" x="704"/>
+        <item x="314"/>
+        <item m="1" x="705"/>
+        <item m="1" x="706"/>
+        <item m="1" x="707"/>
+        <item m="1" x="708"/>
+        <item m="1" x="709"/>
         <item x="9"/>
-        <item m="1" x="700"/>
+        <item m="1" x="710"/>
         <item x="286"/>
         <item x="287"/>
         <item x="288"/>
@@ -7366,6 +7306,16 @@
         <item x="389"/>
         <item x="390"/>
         <item x="391"/>
+        <item x="392"/>
+        <item x="393"/>
+        <item x="394"/>
+        <item x="395"/>
+        <item x="396"/>
+        <item x="397"/>
+        <item x="398"/>
+        <item x="399"/>
+        <item x="400"/>
+        <item x="401"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -7434,6 +7384,212 @@
     <pageField fld="1" hier="-1"/>
     <pageField fld="3" hier="-1"/>
   </pageFields>
+  <dataFields count="2">
+    <dataField name="Count of Winner1" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Model" fld="8" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{80C3D042-980E-40EE-B50F-CF37801A1A1D}" name="PivotTable3" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="L3:O43" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
+  <pivotFields count="10">
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="12">
+        <item h="1" x="10"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" numFmtId="14" outline="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="10">
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="2"/>
+        <item x="6"/>
+        <item m="1" x="8"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="40">
+    <i>
+      <x v="1"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i t="default">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i t="default">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i t="default">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i t="default">
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i t="default">
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i t="default">
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
   <dataFields count="2">
     <dataField name="Count of Winner1" fld="2" subtotal="count" baseField="0" baseItem="0"/>
     <dataField name="Sum of Model" fld="8" baseField="0" baseItem="0"/>
@@ -7750,7 +7906,7 @@
   <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7858,7 +8014,7 @@
         <v>4</v>
       </c>
       <c r="P5" s="4">
-        <f t="shared" ref="P5:P38" si="0">O5/N5</f>
+        <f t="shared" ref="P5:P43" si="0">O5/N5</f>
         <v>0.5714285714285714</v>
       </c>
     </row>
@@ -7878,15 +8034,15 @@
       </c>
       <c r="E6" s="7">
         <f>SUM(B10:B12)</f>
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="F6" s="5">
         <f>SUM(B6:B9)</f>
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G6" s="11">
         <f>SUM(B6:B8)</f>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H6" s="9">
         <f>SUM(B6:B7)</f>
@@ -7922,15 +8078,15 @@
       </c>
       <c r="E7" s="7">
         <f>SUM(C10:C12)</f>
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="F7" s="5">
         <f>SUM(C6:C9)</f>
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G7" s="11">
         <f>SUM(C6:C8)</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="9">
         <f>SUM(C6:C7)</f>
@@ -7955,26 +8111,26 @@
         <v>93</v>
       </c>
       <c r="B8" s="16">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C8" s="16">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" si="1"/>
-        <v>0.62222222222222223</v>
+        <v>0.63043478260869568</v>
       </c>
       <c r="E8" s="8">
         <f>E7/E6</f>
-        <v>0.54545454545454541</v>
+        <v>0.55063291139240511</v>
       </c>
       <c r="F8" s="6">
         <f>F7/F6</f>
-        <v>0.68224299065420557</v>
+        <v>0.69090909090909092</v>
       </c>
       <c r="G8" s="12">
         <f>G7/G6</f>
-        <v>0.7</v>
+        <v>0.70491803278688525</v>
       </c>
       <c r="H8" s="10">
         <f>H7/H6</f>
@@ -7999,14 +8155,14 @@
         <v>94</v>
       </c>
       <c r="B9" s="16">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C9" s="16">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" si="1"/>
-        <v>0.65957446808510634</v>
+        <v>0.67346938775510201</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>107</v>
@@ -8042,30 +8198,30 @@
         <v>51</v>
       </c>
       <c r="B10" s="16">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C10" s="16">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" si="1"/>
-        <v>0.59090909090909094</v>
+        <v>0.6029411764705882</v>
       </c>
       <c r="E10" s="8">
         <f>E6/$B$13</f>
-        <v>0.74216867469879522</v>
+        <v>0.74178403755868549</v>
       </c>
       <c r="F10" s="6">
         <f t="shared" ref="F10:H10" si="2">F6/$B$13</f>
-        <v>0.25783132530120484</v>
+        <v>0.25821596244131456</v>
       </c>
       <c r="G10" s="12">
         <f t="shared" si="2"/>
-        <v>0.14457831325301204</v>
+        <v>0.14319248826291081</v>
       </c>
       <c r="H10" s="10">
         <f t="shared" si="2"/>
-        <v>3.614457831325301E-2</v>
+        <v>3.5211267605633804E-2</v>
       </c>
       <c r="M10" t="s">
         <v>93</v>
@@ -8086,14 +8242,14 @@
         <v>84</v>
       </c>
       <c r="B11" s="16">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C11" s="16">
         <v>46</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" si="1"/>
-        <v>0.51111111111111107</v>
+        <v>0.50549450549450547</v>
       </c>
       <c r="M11" t="s">
         <v>50</v>
@@ -8114,14 +8270,14 @@
         <v>85</v>
       </c>
       <c r="B12" s="16">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C12" s="16">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" si="1"/>
-        <v>0.51162790697674421</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="L12" t="s">
         <v>101</v>
@@ -8142,14 +8298,14 @@
         <v>53</v>
       </c>
       <c r="B13" s="16">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="C13" s="16">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" si="1"/>
-        <v>0.58072289156626511</v>
+        <v>0.58685446009389675</v>
       </c>
       <c r="L13" t="s">
         <v>88</v>
@@ -8571,28 +8727,73 @@
       <c r="O39" s="16">
         <v>3</v>
       </c>
-      <c r="P39" s="4"/>
+      <c r="P39" s="4">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
     </row>
     <row r="40" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L40" t="s">
+        <v>112</v>
+      </c>
+      <c r="M40" t="s">
+        <v>94</v>
+      </c>
+      <c r="N40" s="16">
+        <v>2</v>
+      </c>
+      <c r="O40" s="16">
+        <v>2</v>
+      </c>
+      <c r="P40" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="M41" t="s">
+        <v>93</v>
+      </c>
+      <c r="N41" s="16">
+        <v>1</v>
+      </c>
+      <c r="O41" s="16">
+        <v>1</v>
+      </c>
+      <c r="P41" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L42" t="s">
+        <v>113</v>
+      </c>
+      <c r="N42" s="16">
+        <v>3</v>
+      </c>
+      <c r="O42" s="16">
+        <v>3</v>
+      </c>
+      <c r="P42" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L43" t="s">
         <v>53</v>
       </c>
-      <c r="N40" s="16">
-        <v>107</v>
-      </c>
-      <c r="O40" s="16">
-        <v>73</v>
-      </c>
-      <c r="P40" s="4"/>
-    </row>
-    <row r="41" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="P41" s="4"/>
-    </row>
-    <row r="42" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="P42" s="4"/>
-    </row>
-    <row r="43" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="P43" s="4"/>
+      <c r="N43" s="16">
+        <v>110</v>
+      </c>
+      <c r="O43" s="16">
+        <v>76</v>
+      </c>
+      <c r="P43" s="4">
+        <f t="shared" si="0"/>
+        <v>0.69090909090909092</v>
+      </c>
     </row>
     <row r="44" spans="12:16" x14ac:dyDescent="0.25">
       <c r="P44" s="4"/>
@@ -8639,7 +8840,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P4:P38">
+  <conditionalFormatting sqref="P4:P43">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -8682,7 +8883,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>P4:P38</xm:sqref>
+          <xm:sqref>P4:P43</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -8692,10 +8893,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I416"/>
+  <dimension ref="A1:I427"/>
   <sheetViews>
     <sheetView topLeftCell="A385" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I417" sqref="I417"/>
+      <selection activeCell="I417" sqref="I417:I427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20744,7 +20945,7 @@
         <v>84</v>
       </c>
       <c r="I415">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.25">
@@ -20773,7 +20974,326 @@
         <v>84</v>
       </c>
       <c r="I416">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>112</v>
+      </c>
+      <c r="B417" s="1">
+        <v>45335</v>
+      </c>
+      <c r="C417" t="s">
+        <v>42</v>
+      </c>
+      <c r="D417" s="14">
+        <v>0.76859999999999995</v>
+      </c>
+      <c r="E417" t="s">
+        <v>14</v>
+      </c>
+      <c r="F417" s="14">
+        <v>0.23139999999999999</v>
+      </c>
+      <c r="G417" t="s">
+        <v>15</v>
+      </c>
+      <c r="H417" t="s">
+        <v>93</v>
+      </c>
+      <c r="I417">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>112</v>
+      </c>
+      <c r="B418" s="1">
+        <v>45335</v>
+      </c>
+      <c r="C418" t="s">
+        <v>4</v>
+      </c>
+      <c r="D418" s="14">
+        <v>0.74670000000000003</v>
+      </c>
+      <c r="E418" t="s">
+        <v>22</v>
+      </c>
+      <c r="F418" s="14">
+        <v>0.25330000000000003</v>
+      </c>
+      <c r="G418" t="s">
+        <v>6</v>
+      </c>
+      <c r="H418" t="s">
+        <v>94</v>
+      </c>
+      <c r="I418">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>112</v>
+      </c>
+      <c r="B419" s="1">
+        <v>45335</v>
+      </c>
+      <c r="C419" t="s">
+        <v>36</v>
+      </c>
+      <c r="D419" s="14">
+        <v>0.71679999999999999</v>
+      </c>
+      <c r="E419" t="s">
+        <v>34</v>
+      </c>
+      <c r="F419" s="14">
+        <v>0.28320000000000001</v>
+      </c>
+      <c r="G419" t="s">
+        <v>64</v>
+      </c>
+      <c r="H419" t="s">
+        <v>94</v>
+      </c>
+      <c r="I419">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>112</v>
+      </c>
+      <c r="B420" s="1">
+        <v>45335</v>
+      </c>
+      <c r="C420" t="s">
+        <v>45</v>
+      </c>
+      <c r="D420" s="14">
+        <v>0.66869999999999996</v>
+      </c>
+      <c r="E420" t="s">
+        <v>17</v>
+      </c>
+      <c r="F420" s="14">
+        <v>0.33129999999999998</v>
+      </c>
+      <c r="G420" t="s">
+        <v>59</v>
+      </c>
+      <c r="H420" t="s">
+        <v>51</v>
+      </c>
+      <c r="I420">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>112</v>
+      </c>
+      <c r="B421" s="1">
+        <v>45335</v>
+      </c>
+      <c r="C421" t="s">
+        <v>10</v>
+      </c>
+      <c r="D421" s="14">
+        <v>0.66069999999999995</v>
+      </c>
+      <c r="E421" t="s">
+        <v>37</v>
+      </c>
+      <c r="F421" s="14">
+        <v>0.33929999999999999</v>
+      </c>
+      <c r="G421" t="s">
+        <v>12</v>
+      </c>
+      <c r="H421" t="s">
+        <v>51</v>
+      </c>
+      <c r="I421">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>112</v>
+      </c>
+      <c r="B422" s="1">
+        <v>45335</v>
+      </c>
+      <c r="C422" t="s">
+        <v>7</v>
+      </c>
+      <c r="D422" s="14">
+        <v>0.62019999999999997</v>
+      </c>
+      <c r="E422" t="s">
+        <v>26</v>
+      </c>
+      <c r="F422" s="14">
+        <v>0.37980000000000003</v>
+      </c>
+      <c r="G422" t="s">
+        <v>27</v>
+      </c>
+      <c r="H422" t="s">
+        <v>51</v>
+      </c>
+      <c r="I422">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>112</v>
+      </c>
+      <c r="B423" s="1">
+        <v>45335</v>
+      </c>
+      <c r="C423" t="s">
+        <v>19</v>
+      </c>
+      <c r="D423" s="14">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="E423" t="s">
+        <v>13</v>
+      </c>
+      <c r="F423" s="14">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="G423" t="s">
+        <v>21</v>
+      </c>
+      <c r="H423" t="s">
+        <v>51</v>
+      </c>
+      <c r="I423">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>112</v>
+      </c>
+      <c r="B424" s="1">
+        <v>45335</v>
+      </c>
+      <c r="C424" t="s">
+        <v>43</v>
+      </c>
+      <c r="D424" s="14">
+        <v>0.57950000000000002</v>
+      </c>
+      <c r="E424" t="s">
+        <v>28</v>
+      </c>
+      <c r="F424" s="14">
+        <v>0.42049999999999998</v>
+      </c>
+      <c r="G424" t="s">
+        <v>30</v>
+      </c>
+      <c r="H424" t="s">
+        <v>84</v>
+      </c>
+      <c r="I424">
         <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>112</v>
+      </c>
+      <c r="B425" s="1">
+        <v>45335</v>
+      </c>
+      <c r="C425" t="s">
+        <v>23</v>
+      </c>
+      <c r="D425" s="14">
+        <v>0.5323</v>
+      </c>
+      <c r="E425" t="s">
+        <v>39</v>
+      </c>
+      <c r="F425" s="14">
+        <v>0.4677</v>
+      </c>
+      <c r="G425" t="s">
+        <v>41</v>
+      </c>
+      <c r="H425" t="s">
+        <v>85</v>
+      </c>
+      <c r="I425">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>112</v>
+      </c>
+      <c r="B426" s="1">
+        <v>45335</v>
+      </c>
+      <c r="C426" t="s">
+        <v>11</v>
+      </c>
+      <c r="D426" s="14">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="E426" t="s">
+        <v>20</v>
+      </c>
+      <c r="F426" s="14">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="G426" t="s">
+        <v>63</v>
+      </c>
+      <c r="H426" t="s">
+        <v>85</v>
+      </c>
+      <c r="I426">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>112</v>
+      </c>
+      <c r="B427" s="1">
+        <v>45335</v>
+      </c>
+      <c r="C427" t="s">
+        <v>40</v>
+      </c>
+      <c r="D427" s="14">
+        <v>0.50290000000000001</v>
+      </c>
+      <c r="E427" t="s">
+        <v>46</v>
+      </c>
+      <c r="F427" s="14">
+        <v>0.49709999999999999</v>
+      </c>
+      <c r="G427" t="s">
+        <v>47</v>
+      </c>
+      <c r="H427" t="s">
+        <v>85</v>
+      </c>
+      <c r="I427">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/PDA Lifetime Predictions.xlsx
+++ b/PDA Lifetime Predictions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thigg\Desktop\Hockey Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA7B870-BD71-4B2A-8B25-438ECA079436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5965E8AF-3D5A-4555-ADA5-6A128ADDD348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="14" r:id="rId3"/>
+    <pivotCache cacheId="28" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2223" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2238" uniqueCount="114">
   <si>
     <t>Date</t>
   </si>
@@ -976,7 +976,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45335.349402662039" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="427" xr:uid="{D3A71568-3061-40C8-A74B-8B86C64C3ADC}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45336.934096412035" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="430" xr:uid="{D3A71568-3061-40C8-A74B-8B86C64C3ADC}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:I1048576" sheet="Predictions"/>
   </cacheSource>
@@ -997,7 +997,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2024-02-14T00:00:00" count="61">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2024-02-15T00:00:00" count="62">
         <d v="2023-12-09T00:00:00"/>
         <d v="2023-12-10T00:00:00"/>
         <d v="2023-12-11T00:00:00"/>
@@ -1058,6 +1058,7 @@
         <d v="2024-02-11T00:00:00"/>
         <d v="2024-02-12T00:00:00"/>
         <d v="2024-02-13T00:00:00"/>
+        <d v="2024-02-14T00:00:00"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -1065,7 +1066,7 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Winner Probability" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="0.5" maxValue="0.87610539305886403" count="711">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="0.5" maxValue="0.87610539305886403" count="714">
         <n v="0.87609999999999999"/>
         <n v="0.78059999999999996"/>
         <n v="0.65859999999999996"/>
@@ -1468,6 +1469,9 @@
         <n v="0.57950000000000002"/>
         <n v="0.51100000000000001"/>
         <n v="0.50290000000000001"/>
+        <n v="0.78"/>
+        <n v="0.62"/>
+        <n v="0.51"/>
         <m/>
         <n v="0.87610539305886403" u="1"/>
         <n v="0.78056782297496197" u="1"/>
@@ -1815,7 +1819,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="427">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="430">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -6401,7 +6405,7 @@
     <n v="0.25330000000000003"/>
     <s v="Playing At:  Boston Bruins   Home"/>
     <x v="6"/>
-    <n v="1"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="9"/>
@@ -6478,7 +6482,7 @@
     <n v="0.4677"/>
     <s v="Playing At:  New York Islanders   Home"/>
     <x v="4"/>
-    <n v="0"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="9"/>
@@ -6500,13 +6504,46 @@
     <n v="0.49709999999999999"/>
     <s v="Playing At:  Buffalo Sabres   Home"/>
     <x v="4"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="60"/>
+    <s v="Winnipeg Jets"/>
+    <x v="402"/>
+    <s v="San Jose Sharks"/>
+    <n v="0.22"/>
+    <s v="Playing At:  Winnipeg Jets   Home"/>
+    <x v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="60"/>
+    <s v="Minnesota Wild"/>
+    <x v="403"/>
+    <s v="Arizona Coyotes"/>
+    <n v="0.38"/>
+    <s v="Playing At:  Arizona Coyotes   Home"/>
+    <x v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="60"/>
+    <s v="Florida Panthers"/>
+    <x v="404"/>
+    <s v="Pittsburgh Penguins"/>
+    <n v="0.49"/>
+    <s v="Playing At:  Pittsburgh Penguins   Home"/>
+    <x v="4"/>
     <n v="1"/>
   </r>
   <r>
     <x v="10"/>
-    <x v="60"/>
+    <x v="61"/>
     <m/>
-    <x v="402"/>
+    <x v="405"/>
     <m/>
     <m/>
     <m/>
@@ -6517,7 +6554,213 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1FB34DD3-8207-4009-92F5-73C183F63DF8}" name="PivotTable1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{80C3D042-980E-40EE-B50F-CF37801A1A1D}" name="PivotTable3" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="L3:O43" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
+  <pivotFields count="10">
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="12">
+        <item h="1" x="10"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" numFmtId="14" outline="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="10">
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="2"/>
+        <item x="6"/>
+        <item m="1" x="8"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="40">
+    <i>
+      <x v="1"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i t="default">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i t="default">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i t="default">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i t="default">
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i t="default">
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i t="default">
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Count of Winner1" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Model" fld="8" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1FB34DD3-8207-4009-92F5-73C183F63DF8}" name="PivotTable1" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A5:C13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
@@ -6537,7 +6780,7 @@
       </items>
     </pivotField>
     <pivotField axis="axisPage" showAll="0">
-      <items count="62">
+      <items count="63">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -6577,7 +6820,7 @@
         <item x="36"/>
         <item x="37"/>
         <item x="38"/>
-        <item x="60"/>
+        <item x="61"/>
         <item x="39"/>
         <item x="40"/>
         <item x="41"/>
@@ -6599,16 +6842,14 @@
         <item x="57"/>
         <item x="58"/>
         <item x="59"/>
+        <item x="60"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="712">
-        <item x="402"/>
-        <item m="1" x="403"/>
-        <item m="1" x="404"/>
-        <item m="1" x="405"/>
+      <items count="715">
+        <item x="405"/>
         <item m="1" x="406"/>
         <item m="1" x="407"/>
         <item m="1" x="408"/>
@@ -6908,14 +7149,17 @@
         <item m="1" x="702"/>
         <item m="1" x="703"/>
         <item m="1" x="704"/>
-        <item x="314"/>
         <item m="1" x="705"/>
         <item m="1" x="706"/>
         <item m="1" x="707"/>
+        <item x="314"/>
         <item m="1" x="708"/>
         <item m="1" x="709"/>
+        <item m="1" x="710"/>
+        <item m="1" x="711"/>
+        <item m="1" x="712"/>
         <item x="9"/>
-        <item m="1" x="710"/>
+        <item m="1" x="713"/>
         <item x="286"/>
         <item x="287"/>
         <item x="288"/>
@@ -7316,6 +7560,9 @@
         <item x="399"/>
         <item x="400"/>
         <item x="401"/>
+        <item x="402"/>
+        <item x="403"/>
+        <item x="404"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -7384,212 +7631,6 @@
     <pageField fld="1" hier="-1"/>
     <pageField fld="3" hier="-1"/>
   </pageFields>
-  <dataFields count="2">
-    <dataField name="Count of Winner1" fld="2" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Model" fld="8" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{80C3D042-980E-40EE-B50F-CF37801A1A1D}" name="PivotTable3" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="L3:O43" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
-  <pivotFields count="10">
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="12">
-        <item h="1" x="10"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" numFmtId="14" outline="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="10">
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="2"/>
-        <item x="6"/>
-        <item m="1" x="8"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="0"/>
-    <field x="7"/>
-  </rowFields>
-  <rowItems count="40">
-    <i>
-      <x v="1"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i t="default">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i t="default">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i t="default">
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i t="default">
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i t="default">
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i t="default">
-      <x v="10"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
   <dataFields count="2">
     <dataField name="Count of Winner1" fld="2" subtotal="count" baseField="0" baseItem="0"/>
     <dataField name="Sum of Model" fld="8" baseField="0" baseItem="0"/>
@@ -7906,23 +7947,23 @@
   <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>79</v>
       </c>
@@ -7930,7 +7971,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -7938,7 +7979,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -7961,7 +8002,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="L4" t="s">
         <v>86</v>
       </c>
@@ -7979,7 +8020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>52</v>
       </c>
@@ -8018,7 +8059,7 @@
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>61</v>
       </c>
@@ -8034,15 +8075,15 @@
       </c>
       <c r="E6" s="7">
         <f>SUM(B10:B12)</f>
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F6" s="5">
         <f>SUM(B6:B9)</f>
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G6" s="11">
         <f>SUM(B6:B8)</f>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H6" s="9">
         <f>SUM(B6:B7)</f>
@@ -8062,7 +8103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>50</v>
       </c>
@@ -8078,7 +8119,7 @@
       </c>
       <c r="E7" s="7">
         <f>SUM(C10:C12)</f>
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F7" s="5">
         <f>SUM(C6:C9)</f>
@@ -8086,7 +8127,7 @@
       </c>
       <c r="G7" s="11">
         <f>SUM(C6:C8)</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H7" s="9">
         <f>SUM(C6:C7)</f>
@@ -8106,31 +8147,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B8" s="16">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8" s="16">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" si="1"/>
-        <v>0.63043478260869568</v>
+        <v>0.63829787234042556</v>
       </c>
       <c r="E8" s="8">
         <f>E7/E6</f>
-        <v>0.55063291139240511</v>
+        <v>0.55345911949685533</v>
       </c>
       <c r="F8" s="6">
         <f>F7/F6</f>
-        <v>0.69090909090909092</v>
+        <v>0.68468468468468469</v>
       </c>
       <c r="G8" s="12">
         <f>G7/G6</f>
-        <v>0.70491803278688525</v>
+        <v>0.70967741935483875</v>
       </c>
       <c r="H8" s="10">
         <f>H7/H6</f>
@@ -8150,7 +8191,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>94</v>
       </c>
@@ -8158,11 +8199,11 @@
         <v>49</v>
       </c>
       <c r="C9" s="16">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" si="1"/>
-        <v>0.67346938775510201</v>
+        <v>0.65306122448979587</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>107</v>
@@ -8193,35 +8234,35 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B10" s="16">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C10" s="16">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" si="1"/>
-        <v>0.6029411764705882</v>
+        <v>0.6058394160583942</v>
       </c>
       <c r="E10" s="8">
         <f>E6/$B$13</f>
-        <v>0.74178403755868549</v>
+        <v>0.74125874125874125</v>
       </c>
       <c r="F10" s="6">
         <f t="shared" ref="F10:H10" si="2">F6/$B$13</f>
-        <v>0.25821596244131456</v>
+        <v>0.25874125874125875</v>
       </c>
       <c r="G10" s="12">
         <f t="shared" si="2"/>
-        <v>0.14319248826291081</v>
+        <v>0.14452214452214451</v>
       </c>
       <c r="H10" s="10">
         <f t="shared" si="2"/>
-        <v>3.5211267605633804E-2</v>
+        <v>3.4965034965034968E-2</v>
       </c>
       <c r="M10" t="s">
         <v>93</v>
@@ -8237,7 +8278,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>84</v>
       </c>
@@ -8265,19 +8306,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B12" s="16">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C12" s="16">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" si="1"/>
-        <v>0.5168539325842697</v>
+        <v>0.52222222222222225</v>
       </c>
       <c r="L12" t="s">
         <v>101</v>
@@ -8293,19 +8334,19 @@
         <v>0.46666666666666667</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B13" s="16">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C13" s="16">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" si="1"/>
-        <v>0.58685446009389675</v>
+        <v>0.58741258741258739</v>
       </c>
       <c r="L13" t="s">
         <v>88</v>
@@ -8324,7 +8365,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="M14" t="s">
         <v>93</v>
       </c>
@@ -8339,7 +8380,7 @@
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="M15" t="s">
         <v>50</v>
       </c>
@@ -8354,7 +8395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="L16" t="s">
         <v>102</v>
       </c>
@@ -8369,7 +8410,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="17" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="12:16" x14ac:dyDescent="0.35">
       <c r="L17" t="s">
         <v>89</v>
       </c>
@@ -8387,7 +8428,7 @@
         <v>0.55555555555555558</v>
       </c>
     </row>
-    <row r="18" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="12:16" x14ac:dyDescent="0.35">
       <c r="M18" t="s">
         <v>93</v>
       </c>
@@ -8402,7 +8443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="12:16" x14ac:dyDescent="0.35">
       <c r="M19" t="s">
         <v>50</v>
       </c>
@@ -8417,7 +8458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="12:16" x14ac:dyDescent="0.35">
       <c r="M20" t="s">
         <v>61</v>
       </c>
@@ -8432,7 +8473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="12:16" x14ac:dyDescent="0.35">
       <c r="L21" t="s">
         <v>103</v>
       </c>
@@ -8447,7 +8488,7 @@
         <v>0.77777777777777779</v>
       </c>
     </row>
-    <row r="22" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="12:16" x14ac:dyDescent="0.35">
       <c r="L22" t="s">
         <v>91</v>
       </c>
@@ -8465,7 +8506,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="12:16" x14ac:dyDescent="0.35">
       <c r="M23" t="s">
         <v>93</v>
       </c>
@@ -8480,7 +8521,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="24" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="12:16" x14ac:dyDescent="0.35">
       <c r="M24" t="s">
         <v>50</v>
       </c>
@@ -8495,7 +8536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="12:16" x14ac:dyDescent="0.35">
       <c r="L25" t="s">
         <v>104</v>
       </c>
@@ -8510,7 +8551,7 @@
         <v>0.69230769230769229</v>
       </c>
     </row>
-    <row r="26" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="12:16" x14ac:dyDescent="0.35">
       <c r="L26" t="s">
         <v>90</v>
       </c>
@@ -8528,7 +8569,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="27" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="12:16" x14ac:dyDescent="0.35">
       <c r="M27" t="s">
         <v>93</v>
       </c>
@@ -8543,7 +8584,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="28" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="12:16" x14ac:dyDescent="0.35">
       <c r="M28" t="s">
         <v>61</v>
       </c>
@@ -8558,7 +8599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="12:16" x14ac:dyDescent="0.35">
       <c r="L29" t="s">
         <v>105</v>
       </c>
@@ -8573,7 +8614,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="30" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="12:16" x14ac:dyDescent="0.35">
       <c r="L30" t="s">
         <v>99</v>
       </c>
@@ -8591,7 +8632,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="31" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="12:16" x14ac:dyDescent="0.35">
       <c r="M31" t="s">
         <v>93</v>
       </c>
@@ -8606,7 +8647,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="32" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="12:16" x14ac:dyDescent="0.35">
       <c r="M32" t="s">
         <v>50</v>
       </c>
@@ -8621,7 +8662,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="12:16" x14ac:dyDescent="0.35">
       <c r="L33" t="s">
         <v>106</v>
       </c>
@@ -8636,7 +8677,7 @@
         <v>0.73333333333333328</v>
       </c>
     </row>
-    <row r="34" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="12:16" x14ac:dyDescent="0.35">
       <c r="L34" t="s">
         <v>108</v>
       </c>
@@ -8654,7 +8695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="12:16" x14ac:dyDescent="0.35">
       <c r="M35" t="s">
         <v>93</v>
       </c>
@@ -8669,7 +8710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="12:16" x14ac:dyDescent="0.35">
       <c r="L36" t="s">
         <v>109</v>
       </c>
@@ -8684,7 +8725,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="12:16" x14ac:dyDescent="0.35">
       <c r="L37" t="s">
         <v>110</v>
       </c>
@@ -8702,7 +8743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="12:16" x14ac:dyDescent="0.35">
       <c r="M38" t="s">
         <v>93</v>
       </c>
@@ -8717,7 +8758,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="39" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="12:16" x14ac:dyDescent="0.35">
       <c r="L39" t="s">
         <v>111</v>
       </c>
@@ -8732,7 +8773,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="40" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="12:16" x14ac:dyDescent="0.35">
       <c r="L40" t="s">
         <v>112</v>
       </c>
@@ -8743,86 +8784,86 @@
         <v>2</v>
       </c>
       <c r="O40" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P40" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="12:16" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="41" spans="12:16" x14ac:dyDescent="0.35">
       <c r="M41" t="s">
         <v>93</v>
       </c>
       <c r="N41" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O41" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P41" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="12:16" x14ac:dyDescent="0.35">
       <c r="L42" t="s">
         <v>113</v>
       </c>
       <c r="N42" s="16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O42" s="16">
         <v>3</v>
       </c>
       <c r="P42" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="12:16" x14ac:dyDescent="0.25">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="43" spans="12:16" x14ac:dyDescent="0.35">
       <c r="L43" t="s">
         <v>53</v>
       </c>
       <c r="N43" s="16">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O43" s="16">
         <v>76</v>
       </c>
       <c r="P43" s="4">
         <f t="shared" si="0"/>
-        <v>0.69090909090909092</v>
-      </c>
-    </row>
-    <row r="44" spans="12:16" x14ac:dyDescent="0.25">
+        <v>0.68468468468468469</v>
+      </c>
+    </row>
+    <row r="44" spans="12:16" x14ac:dyDescent="0.35">
       <c r="P44" s="4"/>
     </row>
-    <row r="45" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="12:16" x14ac:dyDescent="0.35">
       <c r="P45" s="4"/>
     </row>
-    <row r="46" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="12:16" x14ac:dyDescent="0.35">
       <c r="P46" s="4"/>
     </row>
-    <row r="47" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="12:16" x14ac:dyDescent="0.35">
       <c r="P47" s="4"/>
     </row>
-    <row r="48" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="12:16" x14ac:dyDescent="0.35">
       <c r="P48" s="4"/>
     </row>
-    <row r="49" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P49" s="4"/>
     </row>
-    <row r="50" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P50" s="4"/>
     </row>
-    <row r="51" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P51" s="4"/>
     </row>
-    <row r="52" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P52" s="4"/>
     </row>
-    <row r="53" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P53" s="4"/>
     </row>
   </sheetData>
@@ -8893,27 +8934,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I427"/>
+  <dimension ref="A1:I430"/>
   <sheetViews>
-    <sheetView topLeftCell="A385" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I417" sqref="I417:I427"/>
+    <sheetView topLeftCell="A406" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I430" sqref="I430"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7265625" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="43" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>79</v>
       </c>
@@ -8942,7 +8983,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -8971,7 +9012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>86</v>
       </c>
@@ -9000,7 +9041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>86</v>
       </c>
@@ -9029,7 +9070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>86</v>
       </c>
@@ -9058,7 +9099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>86</v>
       </c>
@@ -9087,7 +9128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>86</v>
       </c>
@@ -9116,7 +9157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -9145,7 +9186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -9174,7 +9215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>86</v>
       </c>
@@ -9203,7 +9244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>86</v>
       </c>
@@ -9232,7 +9273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>86</v>
       </c>
@@ -9261,7 +9302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>86</v>
       </c>
@@ -9290,7 +9331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>86</v>
       </c>
@@ -9319,7 +9360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>86</v>
       </c>
@@ -9348,7 +9389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>86</v>
       </c>
@@ -9377,7 +9418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>86</v>
       </c>
@@ -9406,7 +9447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>86</v>
       </c>
@@ -9435,7 +9476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>86</v>
       </c>
@@ -9464,7 +9505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>86</v>
       </c>
@@ -9493,7 +9534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>86</v>
       </c>
@@ -9522,7 +9563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>86</v>
       </c>
@@ -9551,7 +9592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>86</v>
       </c>
@@ -9580,7 +9621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>86</v>
       </c>
@@ -9609,7 +9650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>86</v>
       </c>
@@ -9638,7 +9679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>86</v>
       </c>
@@ -9667,7 +9708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>86</v>
       </c>
@@ -9696,7 +9737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>86</v>
       </c>
@@ -9725,7 +9766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>86</v>
       </c>
@@ -9754,7 +9795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>86</v>
       </c>
@@ -9783,7 +9824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>86</v>
       </c>
@@ -9812,7 +9853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>86</v>
       </c>
@@ -9841,7 +9882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>86</v>
       </c>
@@ -9870,7 +9911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>86</v>
       </c>
@@ -9899,7 +9940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>86</v>
       </c>
@@ -9928,7 +9969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>86</v>
       </c>
@@ -9957,7 +9998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>86</v>
       </c>
@@ -9986,7 +10027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>86</v>
       </c>
@@ -10015,7 +10056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>86</v>
       </c>
@@ -10044,7 +10085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>86</v>
       </c>
@@ -10073,7 +10114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>86</v>
       </c>
@@ -10102,7 +10143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>86</v>
       </c>
@@ -10131,7 +10172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>86</v>
       </c>
@@ -10160,7 +10201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>86</v>
       </c>
@@ -10189,7 +10230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>86</v>
       </c>
@@ -10218,7 +10259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>86</v>
       </c>
@@ -10247,7 +10288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>86</v>
       </c>
@@ -10276,7 +10317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>86</v>
       </c>
@@ -10305,7 +10346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>86</v>
       </c>
@@ -10334,7 +10375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>86</v>
       </c>
@@ -10363,7 +10404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>86</v>
       </c>
@@ -10392,7 +10433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>86</v>
       </c>
@@ -10421,7 +10462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>86</v>
       </c>
@@ -10450,7 +10491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>86</v>
       </c>
@@ -10479,7 +10520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>86</v>
       </c>
@@ -10508,7 +10549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>86</v>
       </c>
@@ -10537,7 +10578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>86</v>
       </c>
@@ -10566,7 +10607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>86</v>
       </c>
@@ -10595,7 +10636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>86</v>
       </c>
@@ -10624,7 +10665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>86</v>
       </c>
@@ -10653,7 +10694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>86</v>
       </c>
@@ -10682,7 +10723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>86</v>
       </c>
@@ -10711,7 +10752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>86</v>
       </c>
@@ -10740,7 +10781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>86</v>
       </c>
@@ -10769,7 +10810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>86</v>
       </c>
@@ -10798,7 +10839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>86</v>
       </c>
@@ -10827,7 +10868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>86</v>
       </c>
@@ -10856,7 +10897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>87</v>
       </c>
@@ -10885,7 +10926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>87</v>
       </c>
@@ -10914,7 +10955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>87</v>
       </c>
@@ -10943,7 +10984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>87</v>
       </c>
@@ -10972,7 +11013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>87</v>
       </c>
@@ -11001,7 +11042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>87</v>
       </c>
@@ -11030,7 +11071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>87</v>
       </c>
@@ -11059,7 +11100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>87</v>
       </c>
@@ -11088,7 +11129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>87</v>
       </c>
@@ -11117,7 +11158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>87</v>
       </c>
@@ -11146,7 +11187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>87</v>
       </c>
@@ -11175,7 +11216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>87</v>
       </c>
@@ -11204,7 +11245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>87</v>
       </c>
@@ -11233,7 +11274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>87</v>
       </c>
@@ -11262,7 +11303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>87</v>
       </c>
@@ -11291,7 +11332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>87</v>
       </c>
@@ -11320,7 +11361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>87</v>
       </c>
@@ -11349,7 +11390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>87</v>
       </c>
@@ -11378,7 +11419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>87</v>
       </c>
@@ -11407,7 +11448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>87</v>
       </c>
@@ -11436,7 +11477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -11465,7 +11506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -11494,7 +11535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>87</v>
       </c>
@@ -11523,7 +11564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>87</v>
       </c>
@@ -11552,7 +11593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>87</v>
       </c>
@@ -11581,7 +11622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>87</v>
       </c>
@@ -11610,7 +11651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>87</v>
       </c>
@@ -11639,7 +11680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>87</v>
       </c>
@@ -11668,7 +11709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>87</v>
       </c>
@@ -11697,7 +11738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>87</v>
       </c>
@@ -11726,7 +11767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>87</v>
       </c>
@@ -11755,7 +11796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>87</v>
       </c>
@@ -11784,7 +11825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>87</v>
       </c>
@@ -11813,7 +11854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>87</v>
       </c>
@@ -11842,7 +11883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>87</v>
       </c>
@@ -11871,7 +11912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>87</v>
       </c>
@@ -11900,7 +11941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>87</v>
       </c>
@@ -11929,7 +11970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>87</v>
       </c>
@@ -11958,7 +11999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>87</v>
       </c>
@@ -11987,7 +12028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>87</v>
       </c>
@@ -12016,7 +12057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>87</v>
       </c>
@@ -12045,7 +12086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>87</v>
       </c>
@@ -12074,7 +12115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>87</v>
       </c>
@@ -12103,7 +12144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>87</v>
       </c>
@@ -12132,7 +12173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>87</v>
       </c>
@@ -12161,7 +12202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>87</v>
       </c>
@@ -12190,7 +12231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>87</v>
       </c>
@@ -12219,7 +12260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>87</v>
       </c>
@@ -12248,7 +12289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>87</v>
       </c>
@@ -12277,7 +12318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>87</v>
       </c>
@@ -12306,7 +12347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>87</v>
       </c>
@@ -12335,7 +12376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>87</v>
       </c>
@@ -12364,7 +12405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>87</v>
       </c>
@@ -12393,7 +12434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>87</v>
       </c>
@@ -12422,7 +12463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>88</v>
       </c>
@@ -12451,7 +12492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>88</v>
       </c>
@@ -12480,7 +12521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>88</v>
       </c>
@@ -12509,7 +12550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>88</v>
       </c>
@@ -12538,7 +12579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>88</v>
       </c>
@@ -12567,7 +12608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>88</v>
       </c>
@@ -12596,7 +12637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>88</v>
       </c>
@@ -12625,7 +12666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>88</v>
       </c>
@@ -12654,7 +12695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>88</v>
       </c>
@@ -12683,7 +12724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>88</v>
       </c>
@@ -12712,7 +12753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>88</v>
       </c>
@@ -12741,7 +12782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>88</v>
       </c>
@@ -12770,7 +12811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>88</v>
       </c>
@@ -12799,7 +12840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>88</v>
       </c>
@@ -12828,7 +12869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>88</v>
       </c>
@@ -12857,7 +12898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>88</v>
       </c>
@@ -12886,7 +12927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>88</v>
       </c>
@@ -12915,7 +12956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>88</v>
       </c>
@@ -12944,7 +12985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>88</v>
       </c>
@@ -12973,7 +13014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>88</v>
       </c>
@@ -13002,7 +13043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>88</v>
       </c>
@@ -13031,7 +13072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>88</v>
       </c>
@@ -13060,7 +13101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>88</v>
       </c>
@@ -13089,7 +13130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>88</v>
       </c>
@@ -13118,7 +13159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>88</v>
       </c>
@@ -13147,7 +13188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>88</v>
       </c>
@@ -13176,7 +13217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>88</v>
       </c>
@@ -13205,7 +13246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>88</v>
       </c>
@@ -13234,7 +13275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>88</v>
       </c>
@@ -13263,7 +13304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>88</v>
       </c>
@@ -13292,7 +13333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>88</v>
       </c>
@@ -13321,7 +13362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>88</v>
       </c>
@@ -13350,7 +13391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>88</v>
       </c>
@@ -13379,7 +13420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>88</v>
       </c>
@@ -13408,7 +13449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>88</v>
       </c>
@@ -13437,7 +13478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>88</v>
       </c>
@@ -13466,7 +13507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>89</v>
       </c>
@@ -13495,7 +13536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>89</v>
       </c>
@@ -13524,7 +13565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>89</v>
       </c>
@@ -13553,7 +13594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>89</v>
       </c>
@@ -13582,7 +13623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>89</v>
       </c>
@@ -13611,7 +13652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>89</v>
       </c>
@@ -13640,7 +13681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>89</v>
       </c>
@@ -13669,7 +13710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>89</v>
       </c>
@@ -13698,7 +13739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>89</v>
       </c>
@@ -13727,7 +13768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>89</v>
       </c>
@@ -13756,7 +13797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>89</v>
       </c>
@@ -13785,7 +13826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>89</v>
       </c>
@@ -13814,7 +13855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>89</v>
       </c>
@@ -13843,7 +13884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>89</v>
       </c>
@@ -13872,7 +13913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>89</v>
       </c>
@@ -13901,7 +13942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>89</v>
       </c>
@@ -13930,7 +13971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>89</v>
       </c>
@@ -13959,7 +14000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>89</v>
       </c>
@@ -13988,7 +14029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>89</v>
       </c>
@@ -14017,7 +14058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>89</v>
       </c>
@@ -14046,7 +14087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>89</v>
       </c>
@@ -14075,7 +14116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>89</v>
       </c>
@@ -14104,7 +14145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>89</v>
       </c>
@@ -14133,7 +14174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>89</v>
       </c>
@@ -14162,7 +14203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>89</v>
       </c>
@@ -14191,7 +14232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>89</v>
       </c>
@@ -14220,7 +14261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>89</v>
       </c>
@@ -14249,7 +14290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>89</v>
       </c>
@@ -14278,7 +14319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>89</v>
       </c>
@@ -14307,7 +14348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>89</v>
       </c>
@@ -14336,7 +14377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>89</v>
       </c>
@@ -14365,7 +14406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>89</v>
       </c>
@@ -14394,7 +14435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>89</v>
       </c>
@@ -14423,7 +14464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>89</v>
       </c>
@@ -14452,7 +14493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>89</v>
       </c>
@@ -14481,7 +14522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>89</v>
       </c>
@@ -14510,7 +14551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>89</v>
       </c>
@@ -14539,7 +14580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>89</v>
       </c>
@@ -14568,7 +14609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>89</v>
       </c>
@@ -14597,7 +14638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>89</v>
       </c>
@@ -14626,7 +14667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>89</v>
       </c>
@@ -14655,7 +14696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>89</v>
       </c>
@@ -14684,7 +14725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>89</v>
       </c>
@@ -14713,7 +14754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>89</v>
       </c>
@@ -14742,7 +14783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>89</v>
       </c>
@@ -14771,7 +14812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>89</v>
       </c>
@@ -14800,7 +14841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>89</v>
       </c>
@@ -14829,7 +14870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>89</v>
       </c>
@@ -14858,7 +14899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>89</v>
       </c>
@@ -14887,7 +14928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>89</v>
       </c>
@@ -14916,7 +14957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>89</v>
       </c>
@@ -14945,7 +14986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>89</v>
       </c>
@@ -14974,7 +15015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>89</v>
       </c>
@@ -15003,7 +15044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>89</v>
       </c>
@@ -15032,7 +15073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>89</v>
       </c>
@@ -15061,7 +15102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>89</v>
       </c>
@@ -15090,7 +15131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>89</v>
       </c>
@@ -15119,7 +15160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>91</v>
       </c>
@@ -15148,7 +15189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>91</v>
       </c>
@@ -15177,7 +15218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>91</v>
       </c>
@@ -15206,7 +15247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>91</v>
       </c>
@@ -15235,7 +15276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>91</v>
       </c>
@@ -15264,7 +15305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>91</v>
       </c>
@@ -15293,7 +15334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>91</v>
       </c>
@@ -15322,7 +15363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>91</v>
       </c>
@@ -15351,7 +15392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>91</v>
       </c>
@@ -15380,7 +15421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>91</v>
       </c>
@@ -15409,7 +15450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>91</v>
       </c>
@@ -15438,7 +15479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>91</v>
       </c>
@@ -15467,7 +15508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>91</v>
       </c>
@@ -15496,7 +15537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>91</v>
       </c>
@@ -15525,7 +15566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>91</v>
       </c>
@@ -15554,7 +15595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>91</v>
       </c>
@@ -15583,7 +15624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>91</v>
       </c>
@@ -15612,7 +15653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>91</v>
       </c>
@@ -15641,7 +15682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>91</v>
       </c>
@@ -15670,7 +15711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>91</v>
       </c>
@@ -15699,7 +15740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>91</v>
       </c>
@@ -15728,7 +15769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>91</v>
       </c>
@@ -15757,7 +15798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>91</v>
       </c>
@@ -15786,7 +15827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>91</v>
       </c>
@@ -15815,7 +15856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>91</v>
       </c>
@@ -15844,7 +15885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>91</v>
       </c>
@@ -15873,7 +15914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>91</v>
       </c>
@@ -15902,7 +15943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>91</v>
       </c>
@@ -15931,7 +15972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>91</v>
       </c>
@@ -15960,7 +16001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>91</v>
       </c>
@@ -15989,7 +16030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>91</v>
       </c>
@@ -16018,7 +16059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>91</v>
       </c>
@@ -16047,7 +16088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>91</v>
       </c>
@@ -16076,7 +16117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>91</v>
       </c>
@@ -16105,7 +16146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>91</v>
       </c>
@@ -16134,7 +16175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>91</v>
       </c>
@@ -16163,7 +16204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>91</v>
       </c>
@@ -16192,7 +16233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>91</v>
       </c>
@@ -16221,7 +16262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>91</v>
       </c>
@@ -16250,7 +16291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>91</v>
       </c>
@@ -16279,7 +16320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>91</v>
       </c>
@@ -16308,7 +16349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>91</v>
       </c>
@@ -16337,7 +16378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>91</v>
       </c>
@@ -16366,7 +16407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>91</v>
       </c>
@@ -16395,7 +16436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>91</v>
       </c>
@@ -16424,7 +16465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>91</v>
       </c>
@@ -16453,7 +16494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>91</v>
       </c>
@@ -16482,7 +16523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>91</v>
       </c>
@@ -16511,7 +16552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>90</v>
       </c>
@@ -16540,7 +16581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>90</v>
       </c>
@@ -16569,7 +16610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>90</v>
       </c>
@@ -16598,7 +16639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>90</v>
       </c>
@@ -16627,7 +16668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>90</v>
       </c>
@@ -16656,7 +16697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>90</v>
       </c>
@@ -16685,7 +16726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>90</v>
       </c>
@@ -16714,7 +16755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>90</v>
       </c>
@@ -16743,7 +16784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>90</v>
       </c>
@@ -16772,7 +16813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>90</v>
       </c>
@@ -16801,7 +16842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>90</v>
       </c>
@@ -16830,7 +16871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>90</v>
       </c>
@@ -16859,7 +16900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>90</v>
       </c>
@@ -16888,7 +16929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>90</v>
       </c>
@@ -16917,7 +16958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>90</v>
       </c>
@@ -16946,7 +16987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>90</v>
       </c>
@@ -16975,7 +17016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>90</v>
       </c>
@@ -17004,7 +17045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>90</v>
       </c>
@@ -17033,7 +17074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>90</v>
       </c>
@@ -17062,7 +17103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>90</v>
       </c>
@@ -17091,7 +17132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>90</v>
       </c>
@@ -17120,7 +17161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>90</v>
       </c>
@@ -17149,7 +17190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>90</v>
       </c>
@@ -17178,7 +17219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>90</v>
       </c>
@@ -17207,7 +17248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>90</v>
       </c>
@@ -17236,7 +17277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>90</v>
       </c>
@@ -17265,7 +17306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>90</v>
       </c>
@@ -17294,7 +17335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>90</v>
       </c>
@@ -17323,7 +17364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>90</v>
       </c>
@@ -17352,7 +17393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>90</v>
       </c>
@@ -17381,7 +17422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>90</v>
       </c>
@@ -17410,7 +17451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>90</v>
       </c>
@@ -17439,7 +17480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>90</v>
       </c>
@@ -17468,7 +17509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>90</v>
       </c>
@@ -17497,7 +17538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>90</v>
       </c>
@@ -17526,7 +17567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>90</v>
       </c>
@@ -17555,7 +17596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>90</v>
       </c>
@@ -17584,7 +17625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>90</v>
       </c>
@@ -17613,7 +17654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>90</v>
       </c>
@@ -17642,7 +17683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>90</v>
       </c>
@@ -17671,7 +17712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>90</v>
       </c>
@@ -17700,7 +17741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>90</v>
       </c>
@@ -17729,7 +17770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>90</v>
       </c>
@@ -17758,7 +17799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>90</v>
       </c>
@@ -17787,7 +17828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>90</v>
       </c>
@@ -17816,7 +17857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>90</v>
       </c>
@@ -17845,7 +17886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>90</v>
       </c>
@@ -17874,7 +17915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>90</v>
       </c>
@@ -17903,7 +17944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>90</v>
       </c>
@@ -17932,7 +17973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>99</v>
       </c>
@@ -17961,7 +18002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>99</v>
       </c>
@@ -17990,7 +18031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>99</v>
       </c>
@@ -18019,7 +18060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>99</v>
       </c>
@@ -18048,7 +18089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>99</v>
       </c>
@@ -18077,7 +18118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>99</v>
       </c>
@@ -18106,7 +18147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>99</v>
       </c>
@@ -18135,7 +18176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>99</v>
       </c>
@@ -18164,7 +18205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>99</v>
       </c>
@@ -18193,7 +18234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>99</v>
       </c>
@@ -18222,7 +18263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>99</v>
       </c>
@@ -18251,7 +18292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>99</v>
       </c>
@@ -18280,7 +18321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>99</v>
       </c>
@@ -18309,7 +18350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>99</v>
       </c>
@@ -18338,7 +18379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>99</v>
       </c>
@@ -18367,7 +18408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>99</v>
       </c>
@@ -18396,7 +18437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>99</v>
       </c>
@@ -18425,7 +18466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>99</v>
       </c>
@@ -18454,7 +18495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>99</v>
       </c>
@@ -18483,7 +18524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>99</v>
       </c>
@@ -18512,7 +18553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>99</v>
       </c>
@@ -18541,7 +18582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>99</v>
       </c>
@@ -18570,7 +18611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>99</v>
       </c>
@@ -18599,7 +18640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>99</v>
       </c>
@@ -18628,7 +18669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>99</v>
       </c>
@@ -18657,7 +18698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>99</v>
       </c>
@@ -18686,7 +18727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>99</v>
       </c>
@@ -18715,7 +18756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>99</v>
       </c>
@@ -18744,7 +18785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>99</v>
       </c>
@@ -18773,7 +18814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>99</v>
       </c>
@@ -18802,7 +18843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>99</v>
       </c>
@@ -18831,7 +18872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>99</v>
       </c>
@@ -18860,7 +18901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>99</v>
       </c>
@@ -18889,7 +18930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>99</v>
       </c>
@@ -18918,7 +18959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>99</v>
       </c>
@@ -18947,7 +18988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>99</v>
       </c>
@@ -18976,7 +19017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>99</v>
       </c>
@@ -19005,7 +19046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>99</v>
       </c>
@@ -19034,7 +19075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>99</v>
       </c>
@@ -19063,7 +19104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>99</v>
       </c>
@@ -19092,7 +19133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>99</v>
       </c>
@@ -19121,7 +19162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>99</v>
       </c>
@@ -19150,7 +19191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>99</v>
       </c>
@@ -19179,7 +19220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>99</v>
       </c>
@@ -19208,7 +19249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>99</v>
       </c>
@@ -19237,7 +19278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>99</v>
       </c>
@@ -19266,7 +19307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>99</v>
       </c>
@@ -19295,7 +19336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>99</v>
       </c>
@@ -19324,7 +19365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>99</v>
       </c>
@@ -19353,7 +19394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>99</v>
       </c>
@@ -19382,7 +19423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>99</v>
       </c>
@@ -19411,7 +19452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>99</v>
       </c>
@@ -19440,7 +19481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>99</v>
       </c>
@@ -19469,7 +19510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>99</v>
       </c>
@@ -19498,7 +19539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>99</v>
       </c>
@@ -19527,7 +19568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>108</v>
       </c>
@@ -19556,7 +19597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>108</v>
       </c>
@@ -19585,7 +19626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>108</v>
       </c>
@@ -19614,7 +19655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>108</v>
       </c>
@@ -19643,7 +19684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>108</v>
       </c>
@@ -19672,7 +19713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>108</v>
       </c>
@@ -19701,7 +19742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>108</v>
       </c>
@@ -19730,7 +19771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>108</v>
       </c>
@@ -19759,7 +19800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>110</v>
       </c>
@@ -19788,7 +19829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>110</v>
       </c>
@@ -19817,7 +19858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>110</v>
       </c>
@@ -19846,7 +19887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>110</v>
       </c>
@@ -19875,7 +19916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>110</v>
       </c>
@@ -19904,7 +19945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>110</v>
       </c>
@@ -19933,7 +19974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>110</v>
       </c>
@@ -19962,7 +20003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>110</v>
       </c>
@@ -19991,7 +20032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>110</v>
       </c>
@@ -20020,7 +20061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>110</v>
       </c>
@@ -20049,7 +20090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>110</v>
       </c>
@@ -20078,7 +20119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>110</v>
       </c>
@@ -20107,7 +20148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>110</v>
       </c>
@@ -20136,7 +20177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>110</v>
       </c>
@@ -20165,7 +20206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>110</v>
       </c>
@@ -20194,7 +20235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>110</v>
       </c>
@@ -20223,7 +20264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>110</v>
       </c>
@@ -20252,7 +20293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>110</v>
       </c>
@@ -20281,7 +20322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>110</v>
       </c>
@@ -20310,7 +20351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>110</v>
       </c>
@@ -20339,7 +20380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>110</v>
       </c>
@@ -20368,7 +20409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>110</v>
       </c>
@@ -20397,7 +20438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>110</v>
       </c>
@@ -20426,7 +20467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>110</v>
       </c>
@@ -20455,7 +20496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>110</v>
       </c>
@@ -20484,7 +20525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>110</v>
       </c>
@@ -20513,7 +20554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>110</v>
       </c>
@@ -20542,7 +20583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>110</v>
       </c>
@@ -20571,7 +20612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>110</v>
       </c>
@@ -20600,7 +20641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>110</v>
       </c>
@@ -20629,7 +20670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>110</v>
       </c>
@@ -20658,7 +20699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>110</v>
       </c>
@@ -20687,7 +20728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>110</v>
       </c>
@@ -20716,7 +20757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>110</v>
       </c>
@@ -20745,7 +20786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>110</v>
       </c>
@@ -20774,7 +20815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>110</v>
       </c>
@@ -20803,7 +20844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>112</v>
       </c>
@@ -20832,7 +20873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>112</v>
       </c>
@@ -20861,7 +20902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>112</v>
       </c>
@@ -20890,7 +20931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>112</v>
       </c>
@@ -20919,7 +20960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>112</v>
       </c>
@@ -20948,7 +20989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
         <v>112</v>
       </c>
@@ -20977,7 +21018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>112</v>
       </c>
@@ -21006,7 +21047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>112</v>
       </c>
@@ -21032,10 +21073,10 @@
         <v>94</v>
       </c>
       <c r="I418">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>112</v>
       </c>
@@ -21064,7 +21105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>112</v>
       </c>
@@ -21093,7 +21134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>112</v>
       </c>
@@ -21122,7 +21163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>112</v>
       </c>
@@ -21151,7 +21192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
         <v>112</v>
       </c>
@@ -21180,7 +21221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
         <v>112</v>
       </c>
@@ -21209,7 +21250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
         <v>112</v>
       </c>
@@ -21235,10 +21276,10 @@
         <v>85</v>
       </c>
       <c r="I425">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
         <v>112</v>
       </c>
@@ -21267,7 +21308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
         <v>112</v>
       </c>
@@ -21293,6 +21334,93 @@
         <v>85</v>
       </c>
       <c r="I427">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A428" t="s">
+        <v>112</v>
+      </c>
+      <c r="B428" s="1">
+        <v>45336</v>
+      </c>
+      <c r="C428" t="s">
+        <v>16</v>
+      </c>
+      <c r="D428" s="15">
+        <v>0.78</v>
+      </c>
+      <c r="E428" t="s">
+        <v>56</v>
+      </c>
+      <c r="F428" s="15">
+        <v>0.22</v>
+      </c>
+      <c r="G428" t="s">
+        <v>76</v>
+      </c>
+      <c r="H428" t="s">
+        <v>93</v>
+      </c>
+      <c r="I428">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A429" t="s">
+        <v>112</v>
+      </c>
+      <c r="B429" s="1">
+        <v>45336</v>
+      </c>
+      <c r="C429" t="s">
+        <v>58</v>
+      </c>
+      <c r="D429" s="15">
+        <v>0.62</v>
+      </c>
+      <c r="E429" t="s">
+        <v>5</v>
+      </c>
+      <c r="F429" s="15">
+        <v>0.38</v>
+      </c>
+      <c r="G429" t="s">
+        <v>75</v>
+      </c>
+      <c r="H429" t="s">
+        <v>51</v>
+      </c>
+      <c r="I429">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A430" t="s">
+        <v>112</v>
+      </c>
+      <c r="B430" s="1">
+        <v>45336</v>
+      </c>
+      <c r="C430" t="s">
+        <v>33</v>
+      </c>
+      <c r="D430" s="15">
+        <v>0.51</v>
+      </c>
+      <c r="E430" t="s">
+        <v>66</v>
+      </c>
+      <c r="F430" s="15">
+        <v>0.49</v>
+      </c>
+      <c r="G430" t="s">
+        <v>67</v>
+      </c>
+      <c r="H430" t="s">
+        <v>85</v>
+      </c>
+      <c r="I430">
         <v>1</v>
       </c>
     </row>

--- a/PDA Lifetime Predictions.xlsx
+++ b/PDA Lifetime Predictions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thigg\Desktop\Hockey Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5965E8AF-3D5A-4555-ADA5-6A128ADDD348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBCA393-2FC4-429D-B4B4-ECA416E51341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="28" r:id="rId3"/>
+    <pivotCache cacheId="7" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2238" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2298" uniqueCount="114">
   <si>
     <t>Date</t>
   </si>
@@ -976,7 +976,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45336.934096412035" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="430" xr:uid="{D3A71568-3061-40C8-A74B-8B86C64C3ADC}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45337.383455324074" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="442" xr:uid="{D3A71568-3061-40C8-A74B-8B86C64C3ADC}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:I1048576" sheet="Predictions"/>
   </cacheSource>
@@ -997,7 +997,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2024-02-15T00:00:00" count="62">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2024-02-16T00:00:00" count="63">
         <d v="2023-12-09T00:00:00"/>
         <d v="2023-12-10T00:00:00"/>
         <d v="2023-12-11T00:00:00"/>
@@ -1059,6 +1059,7 @@
         <d v="2024-02-12T00:00:00"/>
         <d v="2024-02-13T00:00:00"/>
         <d v="2024-02-14T00:00:00"/>
+        <d v="2024-02-15T00:00:00"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -1066,7 +1067,7 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Winner Probability" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="0.5" maxValue="0.87610539305886403" count="714">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="0.5" maxValue="0.87610539305886403" count="723">
         <n v="0.87609999999999999"/>
         <n v="0.78059999999999996"/>
         <n v="0.65859999999999996"/>
@@ -1472,6 +1473,15 @@
         <n v="0.78"/>
         <n v="0.62"/>
         <n v="0.51"/>
+        <n v="0.75329999999999997"/>
+        <n v="0.72889999999999999"/>
+        <n v="0.68059999999999998"/>
+        <n v="0.66969999999999996"/>
+        <n v="0.63100000000000001"/>
+        <n v="0.5867"/>
+        <n v="0.55879999999999996"/>
+        <n v="0.53369999999999995"/>
+        <n v="0.50549999999999995"/>
         <m/>
         <n v="0.87610539305886403" u="1"/>
         <n v="0.78056782297496197" u="1"/>
@@ -1819,7 +1829,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="430">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="442">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -6540,10 +6550,142 @@
     <n v="1"/>
   </r>
   <r>
+    <x v="9"/>
+    <x v="61"/>
+    <s v="New York Rangers"/>
+    <x v="405"/>
+    <s v="Montreal Canadiens"/>
+    <n v="0.2467"/>
+    <s v="Playing At:  New York Rangers   Home"/>
+    <x v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="61"/>
+    <s v="Boston Bruins"/>
+    <x v="406"/>
+    <s v="Seattle Kraken"/>
+    <n v="0.27110000000000001"/>
+    <s v="Playing At:  Boston Bruins   Home"/>
+    <x v="6"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="61"/>
+    <s v="Toronto Maple Leafs"/>
+    <x v="240"/>
+    <s v="Philadelphia Flyers"/>
+    <n v="0.28079999999999999"/>
+    <s v="Playing At:  Toronto Maple Leafs   Home"/>
+    <x v="6"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="61"/>
+    <s v="Calgary Flames"/>
+    <x v="407"/>
+    <s v="San Jose Sharks"/>
+    <n v="0.31940000000000002"/>
+    <s v="Playing At:  Calgary Flames   Home"/>
+    <x v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="61"/>
+    <s v="Pittsburgh Penguins"/>
+    <x v="408"/>
+    <s v="Chicago Blackhawks"/>
+    <n v="0.33029999999999998"/>
+    <s v="Playing At:  Chicago Blackhawks   Home"/>
+    <x v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="61"/>
+    <s v="Ottawa Senators"/>
+    <x v="157"/>
+    <s v="Anaheim Ducks"/>
+    <n v="0.33989999999999998"/>
+    <s v="Playing At:  Ottawa Senators   Home"/>
+    <x v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="61"/>
+    <s v="Vancouver Canucks"/>
+    <x v="409"/>
+    <s v="Detroit Red Wings"/>
+    <n v="0.36899999999999999"/>
+    <s v="Playing At:  Vancouver Canucks   Home"/>
+    <x v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="61"/>
+    <s v="Edmonton Oilers"/>
+    <x v="410"/>
+    <s v="St. Louis Blues"/>
+    <n v="0.4133"/>
+    <s v="Playing At:  St. Louis Blues   Home"/>
+    <x v="3"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="61"/>
+    <s v="Colorado Avalanche"/>
+    <x v="411"/>
+    <s v="Tampa Bay Lightning"/>
+    <n v="0.44119999999999998"/>
+    <s v="Playing At:  Tampa Bay Lightning   Home"/>
+    <x v="3"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="61"/>
+    <s v="Nashville Predators"/>
+    <x v="279"/>
+    <s v="Dallas Stars"/>
+    <n v="0.46389999999999998"/>
+    <s v="Playing At:  Nashville Predators   Home"/>
+    <x v="4"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="61"/>
+    <s v="New Jersey Devils"/>
+    <x v="412"/>
+    <s v="Los Angeles Kings"/>
+    <n v="0.46629999999999999"/>
+    <s v="Playing At:  New Jersey Devils   Home"/>
+    <x v="4"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="61"/>
+    <s v="Florida Panthers"/>
+    <x v="413"/>
+    <s v="Buffalo Sabres"/>
+    <n v="0.4945"/>
+    <s v="Playing At:  Buffalo Sabres   Home"/>
+    <x v="4"/>
+    <n v="1"/>
+  </r>
+  <r>
     <x v="10"/>
-    <x v="61"/>
+    <x v="62"/>
     <m/>
-    <x v="405"/>
+    <x v="414"/>
     <m/>
     <m/>
     <m/>
@@ -6554,213 +6696,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{80C3D042-980E-40EE-B50F-CF37801A1A1D}" name="PivotTable3" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="L3:O43" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
-  <pivotFields count="10">
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="12">
-        <item h="1" x="10"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" numFmtId="14" outline="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="10">
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="2"/>
-        <item x="6"/>
-        <item m="1" x="8"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="0"/>
-    <field x="7"/>
-  </rowFields>
-  <rowItems count="40">
-    <i>
-      <x v="1"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i t="default">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i t="default">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i t="default">
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i t="default">
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i t="default">
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i t="default">
-      <x v="10"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Count of Winner1" fld="2" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Model" fld="8" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1FB34DD3-8207-4009-92F5-73C183F63DF8}" name="PivotTable1" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1FB34DD3-8207-4009-92F5-73C183F63DF8}" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A5:C13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
@@ -6780,7 +6716,7 @@
       </items>
     </pivotField>
     <pivotField axis="axisPage" showAll="0">
-      <items count="63">
+      <items count="64">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -6820,7 +6756,7 @@
         <item x="36"/>
         <item x="37"/>
         <item x="38"/>
-        <item x="61"/>
+        <item x="62"/>
         <item x="39"/>
         <item x="40"/>
         <item x="41"/>
@@ -6843,22 +6779,14 @@
         <item x="58"/>
         <item x="59"/>
         <item x="60"/>
+        <item x="61"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="715">
-        <item x="405"/>
-        <item m="1" x="406"/>
-        <item m="1" x="407"/>
-        <item m="1" x="408"/>
-        <item m="1" x="409"/>
-        <item m="1" x="410"/>
-        <item m="1" x="411"/>
-        <item m="1" x="412"/>
-        <item m="1" x="413"/>
-        <item m="1" x="414"/>
+      <items count="724">
+        <item x="414"/>
         <item m="1" x="415"/>
         <item m="1" x="416"/>
         <item m="1" x="417"/>
@@ -7152,14 +7080,23 @@
         <item m="1" x="705"/>
         <item m="1" x="706"/>
         <item m="1" x="707"/>
-        <item x="314"/>
         <item m="1" x="708"/>
         <item m="1" x="709"/>
         <item m="1" x="710"/>
         <item m="1" x="711"/>
         <item m="1" x="712"/>
+        <item m="1" x="713"/>
+        <item m="1" x="714"/>
+        <item m="1" x="715"/>
+        <item m="1" x="716"/>
+        <item x="314"/>
+        <item m="1" x="717"/>
+        <item m="1" x="718"/>
+        <item m="1" x="719"/>
+        <item m="1" x="720"/>
+        <item m="1" x="721"/>
         <item x="9"/>
-        <item m="1" x="713"/>
+        <item m="1" x="722"/>
         <item x="286"/>
         <item x="287"/>
         <item x="288"/>
@@ -7563,6 +7500,15 @@
         <item x="402"/>
         <item x="403"/>
         <item x="404"/>
+        <item x="405"/>
+        <item x="406"/>
+        <item x="407"/>
+        <item x="408"/>
+        <item x="409"/>
+        <item x="410"/>
+        <item x="411"/>
+        <item x="412"/>
+        <item x="413"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -7631,6 +7577,212 @@
     <pageField fld="1" hier="-1"/>
     <pageField fld="3" hier="-1"/>
   </pageFields>
+  <dataFields count="2">
+    <dataField name="Count of Winner1" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Model" fld="8" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{80C3D042-980E-40EE-B50F-CF37801A1A1D}" name="PivotTable3" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="L3:O43" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
+  <pivotFields count="10">
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="12">
+        <item h="1" x="10"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" numFmtId="14" outline="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="10">
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="2"/>
+        <item x="6"/>
+        <item m="1" x="8"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="40">
+    <i>
+      <x v="1"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i t="default">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i t="default">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i t="default">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i t="default">
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i t="default">
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i t="default">
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
   <dataFields count="2">
     <dataField name="Count of Winner1" fld="2" subtotal="count" baseField="0" baseItem="0"/>
     <dataField name="Sum of Model" fld="8" baseField="0" baseItem="0"/>
@@ -7947,23 +8099,23 @@
   <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>79</v>
       </c>
@@ -7971,7 +8123,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -7979,7 +8131,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -8002,7 +8154,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="L4" t="s">
         <v>86</v>
       </c>
@@ -8020,7 +8172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>52</v>
       </c>
@@ -8059,7 +8211,7 @@
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>61</v>
       </c>
@@ -8075,15 +8227,15 @@
       </c>
       <c r="E6" s="7">
         <f>SUM(B10:B12)</f>
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="F6" s="5">
         <f>SUM(B6:B9)</f>
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G6" s="11">
         <f>SUM(B6:B8)</f>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H6" s="9">
         <f>SUM(B6:B7)</f>
@@ -8103,7 +8255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>50</v>
       </c>
@@ -8119,15 +8271,15 @@
       </c>
       <c r="E7" s="7">
         <f>SUM(C10:C12)</f>
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="F7" s="5">
         <f>SUM(C6:C9)</f>
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G7" s="11">
         <f>SUM(C6:C8)</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H7" s="9">
         <f>SUM(C6:C7)</f>
@@ -8147,31 +8299,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B8" s="16">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C8" s="16">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" si="1"/>
-        <v>0.63829787234042556</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="E8" s="8">
         <f>E7/E6</f>
-        <v>0.55345911949685533</v>
+        <v>0.56269113149847094</v>
       </c>
       <c r="F8" s="6">
         <f>F7/F6</f>
-        <v>0.68468468468468469</v>
+        <v>0.69298245614035092</v>
       </c>
       <c r="G8" s="12">
         <f>G7/G6</f>
-        <v>0.70967741935483875</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H8" s="10">
         <f>H7/H6</f>
@@ -8191,19 +8343,19 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B9" s="16">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C9" s="16">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" si="1"/>
-        <v>0.65306122448979587</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>107</v>
@@ -8234,35 +8386,35 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B10" s="16">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C10" s="16">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" si="1"/>
-        <v>0.6058394160583942</v>
+        <v>0.61702127659574468</v>
       </c>
       <c r="E10" s="8">
         <f>E6/$B$13</f>
-        <v>0.74125874125874125</v>
+        <v>0.74149659863945583</v>
       </c>
       <c r="F10" s="6">
         <f t="shared" ref="F10:H10" si="2">F6/$B$13</f>
-        <v>0.25874125874125875</v>
+        <v>0.25850340136054423</v>
       </c>
       <c r="G10" s="12">
         <f t="shared" si="2"/>
-        <v>0.14452214452214451</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="H10" s="10">
         <f t="shared" si="2"/>
-        <v>3.4965034965034968E-2</v>
+        <v>3.4013605442176874E-2</v>
       </c>
       <c r="M10" t="s">
         <v>93</v>
@@ -8278,19 +8430,19 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B11" s="16">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C11" s="16">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" si="1"/>
-        <v>0.50549450549450547</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="M11" t="s">
         <v>50</v>
@@ -8306,19 +8458,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B12" s="16">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C12" s="16">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" si="1"/>
-        <v>0.52222222222222225</v>
+        <v>0.5268817204301075</v>
       </c>
       <c r="L12" t="s">
         <v>101</v>
@@ -8334,19 +8486,19 @@
         <v>0.46666666666666667</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B13" s="16">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="C13" s="16">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" si="1"/>
-        <v>0.58741258741258739</v>
+        <v>0.59637188208616776</v>
       </c>
       <c r="L13" t="s">
         <v>88</v>
@@ -8365,7 +8517,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="M14" t="s">
         <v>93</v>
       </c>
@@ -8380,7 +8532,7 @@
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="M15" t="s">
         <v>50</v>
       </c>
@@ -8395,7 +8547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="L16" t="s">
         <v>102</v>
       </c>
@@ -8410,7 +8562,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="17" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L17" t="s">
         <v>89</v>
       </c>
@@ -8428,7 +8580,7 @@
         <v>0.55555555555555558</v>
       </c>
     </row>
-    <row r="18" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="12:16" x14ac:dyDescent="0.25">
       <c r="M18" t="s">
         <v>93</v>
       </c>
@@ -8443,7 +8595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="12:16" x14ac:dyDescent="0.25">
       <c r="M19" t="s">
         <v>50</v>
       </c>
@@ -8458,7 +8610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="12:16" x14ac:dyDescent="0.25">
       <c r="M20" t="s">
         <v>61</v>
       </c>
@@ -8473,7 +8625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L21" t="s">
         <v>103</v>
       </c>
@@ -8488,7 +8640,7 @@
         <v>0.77777777777777779</v>
       </c>
     </row>
-    <row r="22" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L22" t="s">
         <v>91</v>
       </c>
@@ -8506,7 +8658,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="12:16" x14ac:dyDescent="0.25">
       <c r="M23" t="s">
         <v>93</v>
       </c>
@@ -8521,7 +8673,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="24" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="12:16" x14ac:dyDescent="0.25">
       <c r="M24" t="s">
         <v>50</v>
       </c>
@@ -8536,7 +8688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L25" t="s">
         <v>104</v>
       </c>
@@ -8551,7 +8703,7 @@
         <v>0.69230769230769229</v>
       </c>
     </row>
-    <row r="26" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L26" t="s">
         <v>90</v>
       </c>
@@ -8569,7 +8721,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="27" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="12:16" x14ac:dyDescent="0.25">
       <c r="M27" t="s">
         <v>93</v>
       </c>
@@ -8584,7 +8736,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="28" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="12:16" x14ac:dyDescent="0.25">
       <c r="M28" t="s">
         <v>61</v>
       </c>
@@ -8599,7 +8751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L29" t="s">
         <v>105</v>
       </c>
@@ -8614,7 +8766,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="30" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L30" t="s">
         <v>99</v>
       </c>
@@ -8632,7 +8784,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="31" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="12:16" x14ac:dyDescent="0.25">
       <c r="M31" t="s">
         <v>93</v>
       </c>
@@ -8647,7 +8799,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="32" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="12:16" x14ac:dyDescent="0.25">
       <c r="M32" t="s">
         <v>50</v>
       </c>
@@ -8662,7 +8814,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L33" t="s">
         <v>106</v>
       </c>
@@ -8677,7 +8829,7 @@
         <v>0.73333333333333328</v>
       </c>
     </row>
-    <row r="34" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L34" t="s">
         <v>108</v>
       </c>
@@ -8695,7 +8847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="12:16" x14ac:dyDescent="0.25">
       <c r="M35" t="s">
         <v>93</v>
       </c>
@@ -8710,7 +8862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L36" t="s">
         <v>109</v>
       </c>
@@ -8725,7 +8877,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L37" t="s">
         <v>110</v>
       </c>
@@ -8743,7 +8895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="12:16" x14ac:dyDescent="0.25">
       <c r="M38" t="s">
         <v>93</v>
       </c>
@@ -8758,7 +8910,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="39" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L39" t="s">
         <v>111</v>
       </c>
@@ -8773,7 +8925,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="40" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L40" t="s">
         <v>112</v>
       </c>
@@ -8781,89 +8933,89 @@
         <v>94</v>
       </c>
       <c r="N40" s="16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O40" s="16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P40" s="4">
         <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="41" spans="12:16" x14ac:dyDescent="0.35">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="41" spans="12:16" x14ac:dyDescent="0.25">
       <c r="M41" t="s">
         <v>93</v>
       </c>
       <c r="N41" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O41" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P41" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L42" t="s">
         <v>113</v>
       </c>
       <c r="N42" s="16">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O42" s="16">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P42" s="4">
         <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="43" spans="12:16" x14ac:dyDescent="0.35">
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="43" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L43" t="s">
         <v>53</v>
       </c>
       <c r="N43" s="16">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="O43" s="16">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="P43" s="4">
         <f t="shared" si="0"/>
-        <v>0.68468468468468469</v>
-      </c>
-    </row>
-    <row r="44" spans="12:16" x14ac:dyDescent="0.35">
+        <v>0.69298245614035092</v>
+      </c>
+    </row>
+    <row r="44" spans="12:16" x14ac:dyDescent="0.25">
       <c r="P44" s="4"/>
     </row>
-    <row r="45" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="45" spans="12:16" x14ac:dyDescent="0.25">
       <c r="P45" s="4"/>
     </row>
-    <row r="46" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="46" spans="12:16" x14ac:dyDescent="0.25">
       <c r="P46" s="4"/>
     </row>
-    <row r="47" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="47" spans="12:16" x14ac:dyDescent="0.25">
       <c r="P47" s="4"/>
     </row>
-    <row r="48" spans="12:16" x14ac:dyDescent="0.35">
+    <row r="48" spans="12:16" x14ac:dyDescent="0.25">
       <c r="P48" s="4"/>
     </row>
-    <row r="49" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="49" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P49" s="4"/>
     </row>
-    <row r="50" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="50" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P50" s="4"/>
     </row>
-    <row r="51" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="51" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P51" s="4"/>
     </row>
-    <row r="52" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="52" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P52" s="4"/>
     </row>
-    <row r="53" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="53" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P53" s="4"/>
     </row>
   </sheetData>
@@ -8934,27 +9086,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I430"/>
+  <dimension ref="A1:I442"/>
   <sheetViews>
     <sheetView topLeftCell="A406" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I430" sqref="I430"/>
+      <selection activeCell="I443" sqref="I443"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="43" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>79</v>
       </c>
@@ -8983,7 +9135,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -9012,7 +9164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>86</v>
       </c>
@@ -9041,7 +9193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>86</v>
       </c>
@@ -9070,7 +9222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>86</v>
       </c>
@@ -9099,7 +9251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>86</v>
       </c>
@@ -9128,7 +9280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>86</v>
       </c>
@@ -9157,7 +9309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -9186,7 +9338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -9215,7 +9367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>86</v>
       </c>
@@ -9244,7 +9396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>86</v>
       </c>
@@ -9273,7 +9425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>86</v>
       </c>
@@ -9302,7 +9454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>86</v>
       </c>
@@ -9331,7 +9483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>86</v>
       </c>
@@ -9360,7 +9512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>86</v>
       </c>
@@ -9389,7 +9541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>86</v>
       </c>
@@ -9418,7 +9570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>86</v>
       </c>
@@ -9447,7 +9599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>86</v>
       </c>
@@ -9476,7 +9628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>86</v>
       </c>
@@ -9505,7 +9657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>86</v>
       </c>
@@ -9534,7 +9686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>86</v>
       </c>
@@ -9563,7 +9715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>86</v>
       </c>
@@ -9592,7 +9744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>86</v>
       </c>
@@ -9621,7 +9773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>86</v>
       </c>
@@ -9650,7 +9802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>86</v>
       </c>
@@ -9679,7 +9831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>86</v>
       </c>
@@ -9708,7 +9860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>86</v>
       </c>
@@ -9737,7 +9889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>86</v>
       </c>
@@ -9766,7 +9918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>86</v>
       </c>
@@ -9795,7 +9947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>86</v>
       </c>
@@ -9824,7 +9976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>86</v>
       </c>
@@ -9853,7 +10005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>86</v>
       </c>
@@ -9882,7 +10034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>86</v>
       </c>
@@ -9911,7 +10063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>86</v>
       </c>
@@ -9940,7 +10092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>86</v>
       </c>
@@ -9969,7 +10121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>86</v>
       </c>
@@ -9998,7 +10150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>86</v>
       </c>
@@ -10027,7 +10179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>86</v>
       </c>
@@ -10056,7 +10208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>86</v>
       </c>
@@ -10085,7 +10237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>86</v>
       </c>
@@ -10114,7 +10266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>86</v>
       </c>
@@ -10143,7 +10295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>86</v>
       </c>
@@ -10172,7 +10324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>86</v>
       </c>
@@ -10201,7 +10353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>86</v>
       </c>
@@ -10230,7 +10382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>86</v>
       </c>
@@ -10259,7 +10411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>86</v>
       </c>
@@ -10288,7 +10440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>86</v>
       </c>
@@ -10317,7 +10469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>86</v>
       </c>
@@ -10346,7 +10498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>86</v>
       </c>
@@ -10375,7 +10527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>86</v>
       </c>
@@ -10404,7 +10556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>86</v>
       </c>
@@ -10433,7 +10585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>86</v>
       </c>
@@ -10462,7 +10614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>86</v>
       </c>
@@ -10491,7 +10643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>86</v>
       </c>
@@ -10520,7 +10672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>86</v>
       </c>
@@ -10549,7 +10701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>86</v>
       </c>
@@ -10578,7 +10730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>86</v>
       </c>
@@ -10607,7 +10759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>86</v>
       </c>
@@ -10636,7 +10788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>86</v>
       </c>
@@ -10665,7 +10817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>86</v>
       </c>
@@ -10694,7 +10846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>86</v>
       </c>
@@ -10723,7 +10875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>86</v>
       </c>
@@ -10752,7 +10904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>86</v>
       </c>
@@ -10781,7 +10933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>86</v>
       </c>
@@ -10810,7 +10962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>86</v>
       </c>
@@ -10839,7 +10991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>86</v>
       </c>
@@ -10868,7 +11020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>86</v>
       </c>
@@ -10897,7 +11049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>87</v>
       </c>
@@ -10926,7 +11078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>87</v>
       </c>
@@ -10955,7 +11107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>87</v>
       </c>
@@ -10984,7 +11136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>87</v>
       </c>
@@ -11013,7 +11165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>87</v>
       </c>
@@ -11042,7 +11194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>87</v>
       </c>
@@ -11071,7 +11223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>87</v>
       </c>
@@ -11100,7 +11252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>87</v>
       </c>
@@ -11129,7 +11281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>87</v>
       </c>
@@ -11158,7 +11310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>87</v>
       </c>
@@ -11187,7 +11339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>87</v>
       </c>
@@ -11216,7 +11368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>87</v>
       </c>
@@ -11245,7 +11397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>87</v>
       </c>
@@ -11274,7 +11426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>87</v>
       </c>
@@ -11303,7 +11455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>87</v>
       </c>
@@ -11332,7 +11484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>87</v>
       </c>
@@ -11361,7 +11513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>87</v>
       </c>
@@ -11390,7 +11542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>87</v>
       </c>
@@ -11419,7 +11571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>87</v>
       </c>
@@ -11448,7 +11600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>87</v>
       </c>
@@ -11477,7 +11629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -11506,7 +11658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -11535,7 +11687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>87</v>
       </c>
@@ -11564,7 +11716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>87</v>
       </c>
@@ -11593,7 +11745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>87</v>
       </c>
@@ -11622,7 +11774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>87</v>
       </c>
@@ -11651,7 +11803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>87</v>
       </c>
@@ -11680,7 +11832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>87</v>
       </c>
@@ -11709,7 +11861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>87</v>
       </c>
@@ -11738,7 +11890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>87</v>
       </c>
@@ -11767,7 +11919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>87</v>
       </c>
@@ -11796,7 +11948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>87</v>
       </c>
@@ -11825,7 +11977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>87</v>
       </c>
@@ -11854,7 +12006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>87</v>
       </c>
@@ -11883,7 +12035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>87</v>
       </c>
@@ -11912,7 +12064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>87</v>
       </c>
@@ -11941,7 +12093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>87</v>
       </c>
@@ -11970,7 +12122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>87</v>
       </c>
@@ -11999,7 +12151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>87</v>
       </c>
@@ -12028,7 +12180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>87</v>
       </c>
@@ -12057,7 +12209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>87</v>
       </c>
@@ -12086,7 +12238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>87</v>
       </c>
@@ -12115,7 +12267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>87</v>
       </c>
@@ -12144,7 +12296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>87</v>
       </c>
@@ -12173,7 +12325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>87</v>
       </c>
@@ -12202,7 +12354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>87</v>
       </c>
@@ -12231,7 +12383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>87</v>
       </c>
@@ -12260,7 +12412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>87</v>
       </c>
@@ -12289,7 +12441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>87</v>
       </c>
@@ -12318,7 +12470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>87</v>
       </c>
@@ -12347,7 +12499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>87</v>
       </c>
@@ -12376,7 +12528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>87</v>
       </c>
@@ -12405,7 +12557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>87</v>
       </c>
@@ -12434,7 +12586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>87</v>
       </c>
@@ -12463,7 +12615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>88</v>
       </c>
@@ -12492,7 +12644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>88</v>
       </c>
@@ -12521,7 +12673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>88</v>
       </c>
@@ -12550,7 +12702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>88</v>
       </c>
@@ -12579,7 +12731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>88</v>
       </c>
@@ -12608,7 +12760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>88</v>
       </c>
@@ -12637,7 +12789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>88</v>
       </c>
@@ -12666,7 +12818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>88</v>
       </c>
@@ -12695,7 +12847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>88</v>
       </c>
@@ -12724,7 +12876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>88</v>
       </c>
@@ -12753,7 +12905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>88</v>
       </c>
@@ -12782,7 +12934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>88</v>
       </c>
@@ -12811,7 +12963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>88</v>
       </c>
@@ -12840,7 +12992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>88</v>
       </c>
@@ -12869,7 +13021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>88</v>
       </c>
@@ -12898,7 +13050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>88</v>
       </c>
@@ -12927,7 +13079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>88</v>
       </c>
@@ -12956,7 +13108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>88</v>
       </c>
@@ -12985,7 +13137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>88</v>
       </c>
@@ -13014,7 +13166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>88</v>
       </c>
@@ -13043,7 +13195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>88</v>
       </c>
@@ -13072,7 +13224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>88</v>
       </c>
@@ -13101,7 +13253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>88</v>
       </c>
@@ -13130,7 +13282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>88</v>
       </c>
@@ -13159,7 +13311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>88</v>
       </c>
@@ -13188,7 +13340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>88</v>
       </c>
@@ -13217,7 +13369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>88</v>
       </c>
@@ -13246,7 +13398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>88</v>
       </c>
@@ -13275,7 +13427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>88</v>
       </c>
@@ -13304,7 +13456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>88</v>
       </c>
@@ -13333,7 +13485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>88</v>
       </c>
@@ -13362,7 +13514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>88</v>
       </c>
@@ -13391,7 +13543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>88</v>
       </c>
@@ -13420,7 +13572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>88</v>
       </c>
@@ -13449,7 +13601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>88</v>
       </c>
@@ -13478,7 +13630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>88</v>
       </c>
@@ -13507,7 +13659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>89</v>
       </c>
@@ -13536,7 +13688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>89</v>
       </c>
@@ -13565,7 +13717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>89</v>
       </c>
@@ -13594,7 +13746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>89</v>
       </c>
@@ -13623,7 +13775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>89</v>
       </c>
@@ -13652,7 +13804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>89</v>
       </c>
@@ -13681,7 +13833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>89</v>
       </c>
@@ -13710,7 +13862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>89</v>
       </c>
@@ -13739,7 +13891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>89</v>
       </c>
@@ -13768,7 +13920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>89</v>
       </c>
@@ -13797,7 +13949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>89</v>
       </c>
@@ -13826,7 +13978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>89</v>
       </c>
@@ -13855,7 +14007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>89</v>
       </c>
@@ -13884,7 +14036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>89</v>
       </c>
@@ -13913,7 +14065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>89</v>
       </c>
@@ -13942,7 +14094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>89</v>
       </c>
@@ -13971,7 +14123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>89</v>
       </c>
@@ -14000,7 +14152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>89</v>
       </c>
@@ -14029,7 +14181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>89</v>
       </c>
@@ -14058,7 +14210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>89</v>
       </c>
@@ -14087,7 +14239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>89</v>
       </c>
@@ -14116,7 +14268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>89</v>
       </c>
@@ -14145,7 +14297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>89</v>
       </c>
@@ -14174,7 +14326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>89</v>
       </c>
@@ -14203,7 +14355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>89</v>
       </c>
@@ -14232,7 +14384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>89</v>
       </c>
@@ -14261,7 +14413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>89</v>
       </c>
@@ -14290,7 +14442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>89</v>
       </c>
@@ -14319,7 +14471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>89</v>
       </c>
@@ -14348,7 +14500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>89</v>
       </c>
@@ -14377,7 +14529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>89</v>
       </c>
@@ -14406,7 +14558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>89</v>
       </c>
@@ -14435,7 +14587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>89</v>
       </c>
@@ -14464,7 +14616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>89</v>
       </c>
@@ -14493,7 +14645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>89</v>
       </c>
@@ -14522,7 +14674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>89</v>
       </c>
@@ -14551,7 +14703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>89</v>
       </c>
@@ -14580,7 +14732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>89</v>
       </c>
@@ -14609,7 +14761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>89</v>
       </c>
@@ -14638,7 +14790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>89</v>
       </c>
@@ -14667,7 +14819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>89</v>
       </c>
@@ -14696,7 +14848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>89</v>
       </c>
@@ -14725,7 +14877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>89</v>
       </c>
@@ -14754,7 +14906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>89</v>
       </c>
@@ -14783,7 +14935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>89</v>
       </c>
@@ -14812,7 +14964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>89</v>
       </c>
@@ -14841,7 +14993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>89</v>
       </c>
@@ -14870,7 +15022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>89</v>
       </c>
@@ -14899,7 +15051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>89</v>
       </c>
@@ -14928,7 +15080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>89</v>
       </c>
@@ -14957,7 +15109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>89</v>
       </c>
@@ -14986,7 +15138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>89</v>
       </c>
@@ -15015,7 +15167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>89</v>
       </c>
@@ -15044,7 +15196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>89</v>
       </c>
@@ -15073,7 +15225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>89</v>
       </c>
@@ -15102,7 +15254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>89</v>
       </c>
@@ -15131,7 +15283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>89</v>
       </c>
@@ -15160,7 +15312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>91</v>
       </c>
@@ -15189,7 +15341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>91</v>
       </c>
@@ -15218,7 +15370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>91</v>
       </c>
@@ -15247,7 +15399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>91</v>
       </c>
@@ -15276,7 +15428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>91</v>
       </c>
@@ -15305,7 +15457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>91</v>
       </c>
@@ -15334,7 +15486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>91</v>
       </c>
@@ -15363,7 +15515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>91</v>
       </c>
@@ -15392,7 +15544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>91</v>
       </c>
@@ -15421,7 +15573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>91</v>
       </c>
@@ -15450,7 +15602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>91</v>
       </c>
@@ -15479,7 +15631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>91</v>
       </c>
@@ -15508,7 +15660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>91</v>
       </c>
@@ -15537,7 +15689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>91</v>
       </c>
@@ -15566,7 +15718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>91</v>
       </c>
@@ -15595,7 +15747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>91</v>
       </c>
@@ -15624,7 +15776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>91</v>
       </c>
@@ -15653,7 +15805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>91</v>
       </c>
@@ -15682,7 +15834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>91</v>
       </c>
@@ -15711,7 +15863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>91</v>
       </c>
@@ -15740,7 +15892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>91</v>
       </c>
@@ -15769,7 +15921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>91</v>
       </c>
@@ -15798,7 +15950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>91</v>
       </c>
@@ -15827,7 +15979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>91</v>
       </c>
@@ -15856,7 +16008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>91</v>
       </c>
@@ -15885,7 +16037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>91</v>
       </c>
@@ -15914,7 +16066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>91</v>
       </c>
@@ -15943,7 +16095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>91</v>
       </c>
@@ -15972,7 +16124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>91</v>
       </c>
@@ -16001,7 +16153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>91</v>
       </c>
@@ -16030,7 +16182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>91</v>
       </c>
@@ -16059,7 +16211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>91</v>
       </c>
@@ -16088,7 +16240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>91</v>
       </c>
@@ -16117,7 +16269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>91</v>
       </c>
@@ -16146,7 +16298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>91</v>
       </c>
@@ -16175,7 +16327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>91</v>
       </c>
@@ -16204,7 +16356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>91</v>
       </c>
@@ -16233,7 +16385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>91</v>
       </c>
@@ -16262,7 +16414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>91</v>
       </c>
@@ -16291,7 +16443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>91</v>
       </c>
@@ -16320,7 +16472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>91</v>
       </c>
@@ -16349,7 +16501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>91</v>
       </c>
@@ -16378,7 +16530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>91</v>
       </c>
@@ -16407,7 +16559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>91</v>
       </c>
@@ -16436,7 +16588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>91</v>
       </c>
@@ -16465,7 +16617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>91</v>
       </c>
@@ -16494,7 +16646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>91</v>
       </c>
@@ -16523,7 +16675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>91</v>
       </c>
@@ -16552,7 +16704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>90</v>
       </c>
@@ -16581,7 +16733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>90</v>
       </c>
@@ -16610,7 +16762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>90</v>
       </c>
@@ -16639,7 +16791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>90</v>
       </c>
@@ -16668,7 +16820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>90</v>
       </c>
@@ -16697,7 +16849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>90</v>
       </c>
@@ -16726,7 +16878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>90</v>
       </c>
@@ -16755,7 +16907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>90</v>
       </c>
@@ -16784,7 +16936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>90</v>
       </c>
@@ -16813,7 +16965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>90</v>
       </c>
@@ -16842,7 +16994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>90</v>
       </c>
@@ -16871,7 +17023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>90</v>
       </c>
@@ -16900,7 +17052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>90</v>
       </c>
@@ -16929,7 +17081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>90</v>
       </c>
@@ -16958,7 +17110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>90</v>
       </c>
@@ -16987,7 +17139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>90</v>
       </c>
@@ -17016,7 +17168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>90</v>
       </c>
@@ -17045,7 +17197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>90</v>
       </c>
@@ -17074,7 +17226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>90</v>
       </c>
@@ -17103,7 +17255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>90</v>
       </c>
@@ -17132,7 +17284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>90</v>
       </c>
@@ -17161,7 +17313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>90</v>
       </c>
@@ -17190,7 +17342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>90</v>
       </c>
@@ -17219,7 +17371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>90</v>
       </c>
@@ -17248,7 +17400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>90</v>
       </c>
@@ -17277,7 +17429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>90</v>
       </c>
@@ -17306,7 +17458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>90</v>
       </c>
@@ -17335,7 +17487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>90</v>
       </c>
@@ -17364,7 +17516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>90</v>
       </c>
@@ -17393,7 +17545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>90</v>
       </c>
@@ -17422,7 +17574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>90</v>
       </c>
@@ -17451,7 +17603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>90</v>
       </c>
@@ -17480,7 +17632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>90</v>
       </c>
@@ -17509,7 +17661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>90</v>
       </c>
@@ -17538,7 +17690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>90</v>
       </c>
@@ -17567,7 +17719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>90</v>
       </c>
@@ -17596,7 +17748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>90</v>
       </c>
@@ -17625,7 +17777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>90</v>
       </c>
@@ -17654,7 +17806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>90</v>
       </c>
@@ -17683,7 +17835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>90</v>
       </c>
@@ -17712,7 +17864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>90</v>
       </c>
@@ -17741,7 +17893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>90</v>
       </c>
@@ -17770,7 +17922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>90</v>
       </c>
@@ -17799,7 +17951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>90</v>
       </c>
@@ -17828,7 +17980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>90</v>
       </c>
@@ -17857,7 +18009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>90</v>
       </c>
@@ -17886,7 +18038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>90</v>
       </c>
@@ -17915,7 +18067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>90</v>
       </c>
@@ -17944,7 +18096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>90</v>
       </c>
@@ -17973,7 +18125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>99</v>
       </c>
@@ -18002,7 +18154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>99</v>
       </c>
@@ -18031,7 +18183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>99</v>
       </c>
@@ -18060,7 +18212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>99</v>
       </c>
@@ -18089,7 +18241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>99</v>
       </c>
@@ -18118,7 +18270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>99</v>
       </c>
@@ -18147,7 +18299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>99</v>
       </c>
@@ -18176,7 +18328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>99</v>
       </c>
@@ -18205,7 +18357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>99</v>
       </c>
@@ -18234,7 +18386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>99</v>
       </c>
@@ -18263,7 +18415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>99</v>
       </c>
@@ -18292,7 +18444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>99</v>
       </c>
@@ -18321,7 +18473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>99</v>
       </c>
@@ -18350,7 +18502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>99</v>
       </c>
@@ -18379,7 +18531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>99</v>
       </c>
@@ -18408,7 +18560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>99</v>
       </c>
@@ -18437,7 +18589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>99</v>
       </c>
@@ -18466,7 +18618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>99</v>
       </c>
@@ -18495,7 +18647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>99</v>
       </c>
@@ -18524,7 +18676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>99</v>
       </c>
@@ -18553,7 +18705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>99</v>
       </c>
@@ -18582,7 +18734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>99</v>
       </c>
@@ -18611,7 +18763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>99</v>
       </c>
@@ -18640,7 +18792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>99</v>
       </c>
@@ -18669,7 +18821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>99</v>
       </c>
@@ -18698,7 +18850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>99</v>
       </c>
@@ -18727,7 +18879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>99</v>
       </c>
@@ -18756,7 +18908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>99</v>
       </c>
@@ -18785,7 +18937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>99</v>
       </c>
@@ -18814,7 +18966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>99</v>
       </c>
@@ -18843,7 +18995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>99</v>
       </c>
@@ -18872,7 +19024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>99</v>
       </c>
@@ -18901,7 +19053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>99</v>
       </c>
@@ -18930,7 +19082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>99</v>
       </c>
@@ -18959,7 +19111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>99</v>
       </c>
@@ -18988,7 +19140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>99</v>
       </c>
@@ -19017,7 +19169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>99</v>
       </c>
@@ -19046,7 +19198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>99</v>
       </c>
@@ -19075,7 +19227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>99</v>
       </c>
@@ -19104,7 +19256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>99</v>
       </c>
@@ -19133,7 +19285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>99</v>
       </c>
@@ -19162,7 +19314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>99</v>
       </c>
@@ -19191,7 +19343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>99</v>
       </c>
@@ -19220,7 +19372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>99</v>
       </c>
@@ -19249,7 +19401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>99</v>
       </c>
@@ -19278,7 +19430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>99</v>
       </c>
@@ -19307,7 +19459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>99</v>
       </c>
@@ -19336,7 +19488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>99</v>
       </c>
@@ -19365,7 +19517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>99</v>
       </c>
@@ -19394,7 +19546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>99</v>
       </c>
@@ -19423,7 +19575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>99</v>
       </c>
@@ -19452,7 +19604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>99</v>
       </c>
@@ -19481,7 +19633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>99</v>
       </c>
@@ -19510,7 +19662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>99</v>
       </c>
@@ -19539,7 +19691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>99</v>
       </c>
@@ -19568,7 +19720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>108</v>
       </c>
@@ -19597,7 +19749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>108</v>
       </c>
@@ -19626,7 +19778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>108</v>
       </c>
@@ -19655,7 +19807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>108</v>
       </c>
@@ -19684,7 +19836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>108</v>
       </c>
@@ -19713,7 +19865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>108</v>
       </c>
@@ -19742,7 +19894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>108</v>
       </c>
@@ -19771,7 +19923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>108</v>
       </c>
@@ -19800,7 +19952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>110</v>
       </c>
@@ -19829,7 +19981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>110</v>
       </c>
@@ -19858,7 +20010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>110</v>
       </c>
@@ -19887,7 +20039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>110</v>
       </c>
@@ -19916,7 +20068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>110</v>
       </c>
@@ -19945,7 +20097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>110</v>
       </c>
@@ -19974,7 +20126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>110</v>
       </c>
@@ -20003,7 +20155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>110</v>
       </c>
@@ -20032,7 +20184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>110</v>
       </c>
@@ -20061,7 +20213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>110</v>
       </c>
@@ -20090,7 +20242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>110</v>
       </c>
@@ -20119,7 +20271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>110</v>
       </c>
@@ -20148,7 +20300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>110</v>
       </c>
@@ -20177,7 +20329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>110</v>
       </c>
@@ -20206,7 +20358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>110</v>
       </c>
@@ -20235,7 +20387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>110</v>
       </c>
@@ -20264,7 +20416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>110</v>
       </c>
@@ -20293,7 +20445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>110</v>
       </c>
@@ -20322,7 +20474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>110</v>
       </c>
@@ -20351,7 +20503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>110</v>
       </c>
@@ -20380,7 +20532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>110</v>
       </c>
@@ -20409,7 +20561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>110</v>
       </c>
@@ -20438,7 +20590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>110</v>
       </c>
@@ -20467,7 +20619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>110</v>
       </c>
@@ -20496,7 +20648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>110</v>
       </c>
@@ -20525,7 +20677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>110</v>
       </c>
@@ -20554,7 +20706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>110</v>
       </c>
@@ -20583,7 +20735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>110</v>
       </c>
@@ -20612,7 +20764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>110</v>
       </c>
@@ -20641,7 +20793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>110</v>
       </c>
@@ -20670,7 +20822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>110</v>
       </c>
@@ -20699,7 +20851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>110</v>
       </c>
@@ -20728,7 +20880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>110</v>
       </c>
@@ -20757,7 +20909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>110</v>
       </c>
@@ -20786,7 +20938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>110</v>
       </c>
@@ -20815,7 +20967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>110</v>
       </c>
@@ -20844,7 +20996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>112</v>
       </c>
@@ -20873,7 +21025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>112</v>
       </c>
@@ -20902,7 +21054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>112</v>
       </c>
@@ -20931,7 +21083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>112</v>
       </c>
@@ -20960,7 +21112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>112</v>
       </c>
@@ -20989,7 +21141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>112</v>
       </c>
@@ -21018,7 +21170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>112</v>
       </c>
@@ -21047,7 +21199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>112</v>
       </c>
@@ -21076,7 +21228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>112</v>
       </c>
@@ -21105,7 +21257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>112</v>
       </c>
@@ -21134,7 +21286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>112</v>
       </c>
@@ -21163,7 +21315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>112</v>
       </c>
@@ -21192,7 +21344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>112</v>
       </c>
@@ -21221,7 +21373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>112</v>
       </c>
@@ -21250,7 +21402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>112</v>
       </c>
@@ -21279,7 +21431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>112</v>
       </c>
@@ -21308,7 +21460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>112</v>
       </c>
@@ -21337,7 +21489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>112</v>
       </c>
@@ -21366,7 +21518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>112</v>
       </c>
@@ -21395,7 +21547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>112</v>
       </c>
@@ -21421,6 +21573,354 @@
         <v>85</v>
       </c>
       <c r="I430">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>112</v>
+      </c>
+      <c r="B431" s="1">
+        <v>45337</v>
+      </c>
+      <c r="C431" t="s">
+        <v>25</v>
+      </c>
+      <c r="D431" s="14">
+        <v>0.75329999999999997</v>
+      </c>
+      <c r="E431" t="s">
+        <v>45</v>
+      </c>
+      <c r="F431" s="14">
+        <v>0.2467</v>
+      </c>
+      <c r="G431" t="s">
+        <v>60</v>
+      </c>
+      <c r="H431" t="s">
+        <v>93</v>
+      </c>
+      <c r="I431">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>112</v>
+      </c>
+      <c r="B432" s="1">
+        <v>45337</v>
+      </c>
+      <c r="C432" t="s">
+        <v>4</v>
+      </c>
+      <c r="D432" s="14">
+        <v>0.72889999999999999</v>
+      </c>
+      <c r="E432" t="s">
+        <v>23</v>
+      </c>
+      <c r="F432" s="14">
+        <v>0.27110000000000001</v>
+      </c>
+      <c r="G432" t="s">
+        <v>6</v>
+      </c>
+      <c r="H432" t="s">
+        <v>94</v>
+      </c>
+      <c r="I432">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>112</v>
+      </c>
+      <c r="B433" s="1">
+        <v>45337</v>
+      </c>
+      <c r="C433" t="s">
+        <v>19</v>
+      </c>
+      <c r="D433" s="14">
+        <v>0.71919999999999995</v>
+      </c>
+      <c r="E433" t="s">
+        <v>8</v>
+      </c>
+      <c r="F433" s="14">
+        <v>0.28079999999999999</v>
+      </c>
+      <c r="G433" t="s">
+        <v>21</v>
+      </c>
+      <c r="H433" t="s">
+        <v>94</v>
+      </c>
+      <c r="I433">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>112</v>
+      </c>
+      <c r="B434" s="1">
+        <v>45337</v>
+      </c>
+      <c r="C434" t="s">
+        <v>31</v>
+      </c>
+      <c r="D434" s="14">
+        <v>0.68059999999999998</v>
+      </c>
+      <c r="E434" t="s">
+        <v>56</v>
+      </c>
+      <c r="F434" s="14">
+        <v>0.31940000000000002</v>
+      </c>
+      <c r="G434" t="s">
+        <v>32</v>
+      </c>
+      <c r="H434" t="s">
+        <v>51</v>
+      </c>
+      <c r="I434">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>112</v>
+      </c>
+      <c r="B435" s="1">
+        <v>45337</v>
+      </c>
+      <c r="C435" t="s">
+        <v>66</v>
+      </c>
+      <c r="D435" s="14">
+        <v>0.66969999999999996</v>
+      </c>
+      <c r="E435" t="s">
+        <v>14</v>
+      </c>
+      <c r="F435" s="14">
+        <v>0.33029999999999998</v>
+      </c>
+      <c r="G435" t="s">
+        <v>15</v>
+      </c>
+      <c r="H435" t="s">
+        <v>51</v>
+      </c>
+      <c r="I435">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>112</v>
+      </c>
+      <c r="B436" s="1">
+        <v>45337</v>
+      </c>
+      <c r="C436" t="s">
+        <v>36</v>
+      </c>
+      <c r="D436" s="14">
+        <v>0.66010000000000002</v>
+      </c>
+      <c r="E436" t="s">
+        <v>17</v>
+      </c>
+      <c r="F436" s="14">
+        <v>0.33989999999999998</v>
+      </c>
+      <c r="G436" t="s">
+        <v>64</v>
+      </c>
+      <c r="H436" t="s">
+        <v>51</v>
+      </c>
+      <c r="I436">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>112</v>
+      </c>
+      <c r="B437" s="1">
+        <v>45337</v>
+      </c>
+      <c r="C437" t="s">
+        <v>42</v>
+      </c>
+      <c r="D437" s="14">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="E437" t="s">
+        <v>37</v>
+      </c>
+      <c r="F437" s="14">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="G437" t="s">
+        <v>44</v>
+      </c>
+      <c r="H437" t="s">
+        <v>51</v>
+      </c>
+      <c r="I437">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>112</v>
+      </c>
+      <c r="B438" s="1">
+        <v>45337</v>
+      </c>
+      <c r="C438" t="s">
+        <v>10</v>
+      </c>
+      <c r="D438" s="14">
+        <v>0.5867</v>
+      </c>
+      <c r="E438" t="s">
+        <v>13</v>
+      </c>
+      <c r="F438" s="14">
+        <v>0.4133</v>
+      </c>
+      <c r="G438" t="s">
+        <v>65</v>
+      </c>
+      <c r="H438" t="s">
+        <v>84</v>
+      </c>
+      <c r="I438">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>112</v>
+      </c>
+      <c r="B439" s="1">
+        <v>45337</v>
+      </c>
+      <c r="C439" t="s">
+        <v>7</v>
+      </c>
+      <c r="D439" s="14">
+        <v>0.55879999999999996</v>
+      </c>
+      <c r="E439" t="s">
+        <v>22</v>
+      </c>
+      <c r="F439" s="14">
+        <v>0.44119999999999998</v>
+      </c>
+      <c r="G439" t="s">
+        <v>77</v>
+      </c>
+      <c r="H439" t="s">
+        <v>84</v>
+      </c>
+      <c r="I439">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>112</v>
+      </c>
+      <c r="B440" s="1">
+        <v>45337</v>
+      </c>
+      <c r="C440" t="s">
+        <v>20</v>
+      </c>
+      <c r="D440" s="14">
+        <v>0.53610000000000002</v>
+      </c>
+      <c r="E440" t="s">
+        <v>28</v>
+      </c>
+      <c r="F440" s="14">
+        <v>0.46389999999999998</v>
+      </c>
+      <c r="G440" t="s">
+        <v>63</v>
+      </c>
+      <c r="H440" t="s">
+        <v>85</v>
+      </c>
+      <c r="I440">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>112</v>
+      </c>
+      <c r="B441" s="1">
+        <v>45337</v>
+      </c>
+      <c r="C441" t="s">
+        <v>11</v>
+      </c>
+      <c r="D441" s="14">
+        <v>0.53369999999999995</v>
+      </c>
+      <c r="E441" t="s">
+        <v>40</v>
+      </c>
+      <c r="F441" s="14">
+        <v>0.46629999999999999</v>
+      </c>
+      <c r="G441" t="s">
+        <v>68</v>
+      </c>
+      <c r="H441" t="s">
+        <v>85</v>
+      </c>
+      <c r="I441">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>112</v>
+      </c>
+      <c r="B442" s="1">
+        <v>45337</v>
+      </c>
+      <c r="C442" t="s">
+        <v>33</v>
+      </c>
+      <c r="D442" s="14">
+        <v>0.50549999999999995</v>
+      </c>
+      <c r="E442" t="s">
+        <v>46</v>
+      </c>
+      <c r="F442" s="14">
+        <v>0.4945</v>
+      </c>
+      <c r="G442" t="s">
+        <v>47</v>
+      </c>
+      <c r="H442" t="s">
+        <v>85</v>
+      </c>
+      <c r="I442">
         <v>1</v>
       </c>
     </row>

--- a/PDA Lifetime Predictions.xlsx
+++ b/PDA Lifetime Predictions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thigg\Desktop\Hockey Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBCA393-2FC4-429D-B4B4-ECA416E51341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4D2768-A189-419A-97D7-823F7FC0B933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId3"/>
+    <pivotCache cacheId="21" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2298" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2369" uniqueCount="114">
   <si>
     <t>Date</t>
   </si>
@@ -976,7 +976,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45337.383455324074" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="442" xr:uid="{D3A71568-3061-40C8-A74B-8B86C64C3ADC}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45339.429619212962" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="456" xr:uid="{D3A71568-3061-40C8-A74B-8B86C64C3ADC}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:I1048576" sheet="Predictions"/>
   </cacheSource>
@@ -997,7 +997,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2024-02-16T00:00:00" count="63">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-12-09T00:00:00" maxDate="2024-02-18T00:00:00" count="65">
         <d v="2023-12-09T00:00:00"/>
         <d v="2023-12-10T00:00:00"/>
         <d v="2023-12-11T00:00:00"/>
@@ -1060,6 +1060,8 @@
         <d v="2024-02-13T00:00:00"/>
         <d v="2024-02-14T00:00:00"/>
         <d v="2024-02-15T00:00:00"/>
+        <d v="2024-02-16T00:00:00"/>
+        <d v="2024-02-17T00:00:00"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -1067,7 +1069,7 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Winner Probability" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="0.5" maxValue="0.87610539305886403" count="723">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="0.5" maxValue="0.87610539305886403" count="736">
         <n v="0.87609999999999999"/>
         <n v="0.78059999999999996"/>
         <n v="0.65859999999999996"/>
@@ -1482,6 +1484,19 @@
         <n v="0.55879999999999996"/>
         <n v="0.53369999999999995"/>
         <n v="0.50549999999999995"/>
+        <n v="0.63"/>
+        <n v="0.8155"/>
+        <n v="0.68489999999999995"/>
+        <n v="0.66859999999999997"/>
+        <n v="0.66449999999999998"/>
+        <n v="0.58689999999999998"/>
+        <n v="0.54679999999999995"/>
+        <n v="0.54090000000000005"/>
+        <n v="0.5373"/>
+        <n v="0.52739999999999998"/>
+        <n v="0.51239999999999997"/>
+        <n v="0.51039999999999996"/>
+        <n v="0.501"/>
         <m/>
         <n v="0.87610539305886403" u="1"/>
         <n v="0.78056782297496197" u="1"/>
@@ -1829,7 +1844,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="442">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="456">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -6569,7 +6584,7 @@
     <n v="0.27110000000000001"/>
     <s v="Playing At:  Boston Bruins   Home"/>
     <x v="6"/>
-    <n v="1"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="9"/>
@@ -6591,7 +6606,7 @@
     <n v="0.31940000000000002"/>
     <s v="Playing At:  Calgary Flames   Home"/>
     <x v="2"/>
-    <n v="1"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="9"/>
@@ -6613,7 +6628,7 @@
     <n v="0.33989999999999998"/>
     <s v="Playing At:  Ottawa Senators   Home"/>
     <x v="2"/>
-    <n v="1"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="9"/>
@@ -6635,7 +6650,7 @@
     <n v="0.4133"/>
     <s v="Playing At:  St. Louis Blues   Home"/>
     <x v="3"/>
-    <n v="1"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="9"/>
@@ -6646,7 +6661,7 @@
     <n v="0.44119999999999998"/>
     <s v="Playing At:  Tampa Bay Lightning   Home"/>
     <x v="3"/>
-    <n v="1"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="9"/>
@@ -6668,7 +6683,7 @@
     <n v="0.46629999999999999"/>
     <s v="Playing At:  New Jersey Devils   Home"/>
     <x v="4"/>
-    <n v="1"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="9"/>
@@ -6682,10 +6697,164 @@
     <n v="1"/>
   </r>
   <r>
+    <x v="9"/>
+    <x v="62"/>
+    <s v="Carolina Hurricanes"/>
+    <x v="414"/>
+    <s v="Arizona Coyotes"/>
+    <n v="0.37"/>
+    <s v="Playing At:  Arizona Coyotes   Home"/>
+    <x v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="63"/>
+    <s v="Toronto Maple Leafs"/>
+    <x v="415"/>
+    <s v="Anaheim Ducks"/>
+    <n v="0.1845"/>
+    <s v="Playing At:  Toronto Maple Leafs   Home"/>
+    <x v="5"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="63"/>
+    <s v="New Jersey Devils"/>
+    <x v="416"/>
+    <s v="Philadelphia Flyers"/>
+    <n v="0.31509999999999999"/>
+    <s v="Playing At:  New Jersey Devils   Home"/>
+    <x v="2"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="63"/>
+    <s v="Ottawa Senators"/>
+    <x v="417"/>
+    <s v="Chicago Blackhawks"/>
+    <n v="0.33139999999999997"/>
+    <s v="Playing At:  Chicago Blackhawks   Home"/>
+    <x v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="63"/>
+    <s v="Boston Bruins"/>
+    <x v="418"/>
+    <s v="Los Angeles Kings"/>
+    <n v="0.33550000000000002"/>
+    <s v="Playing At:  Boston Bruins   Home"/>
+    <x v="2"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="63"/>
+    <s v="Washington Capitals"/>
+    <x v="41"/>
+    <s v="Montreal Canadiens"/>
+    <n v="0.40939999999999999"/>
+    <s v="Playing At:  Montreal Canadiens   Home"/>
+    <x v="3"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="63"/>
+    <s v="Edmonton Oilers"/>
+    <x v="419"/>
+    <s v="Dallas Stars"/>
+    <n v="0.41310000000000002"/>
+    <s v="Playing At:  Dallas Stars   Home"/>
+    <x v="3"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="63"/>
+    <s v="Minnesota Wild"/>
+    <x v="420"/>
+    <s v="Buffalo Sabres"/>
+    <n v="0.45319999999999999"/>
+    <s v="Playing At:  Minnesota Wild   Home"/>
+    <x v="4"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="63"/>
+    <s v="San Jose Sharks"/>
+    <x v="421"/>
+    <s v="Columbus Blue Jackets"/>
+    <n v="0.45910000000000001"/>
+    <s v="Playing At:  San Jose Sharks   Home"/>
+    <x v="4"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="63"/>
+    <s v="Vegas Golden Knights"/>
+    <x v="422"/>
+    <s v="Carolina Hurricanes"/>
+    <n v="0.4627"/>
+    <s v="Playing At:  Vegas Golden Knights   Home"/>
+    <x v="4"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="63"/>
+    <s v="Nashville Predators"/>
+    <x v="423"/>
+    <s v="St. Louis Blues"/>
+    <n v="0.47260000000000002"/>
+    <s v="Playing At:  St. Louis Blues   Home"/>
+    <x v="4"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="63"/>
+    <s v="Winnipeg Jets"/>
+    <x v="424"/>
+    <s v="Vancouver Canucks"/>
+    <n v="0.48759999999999998"/>
+    <s v="Playing At:  Vancouver Canucks   Home"/>
+    <x v="4"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="63"/>
+    <s v="Calgary Flames"/>
+    <x v="425"/>
+    <s v="Detroit Red Wings"/>
+    <n v="0.48959999999999998"/>
+    <s v="Playing At:  Calgary Flames   Home"/>
+    <x v="4"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="63"/>
+    <s v="Florida Panthers"/>
+    <x v="426"/>
+    <s v="Tampa Bay Lightning"/>
+    <n v="0.499"/>
+    <s v="Playing At:  Tampa Bay Lightning   Home"/>
+    <x v="4"/>
+    <n v="1"/>
+  </r>
+  <r>
     <x v="10"/>
-    <x v="62"/>
+    <x v="64"/>
     <m/>
-    <x v="414"/>
+    <x v="427"/>
     <m/>
     <m/>
     <m/>
@@ -6696,7 +6865,216 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1FB34DD3-8207-4009-92F5-73C183F63DF8}" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{80C3D042-980E-40EE-B50F-CF37801A1A1D}" name="PivotTable3" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="L3:O44" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
+  <pivotFields count="10">
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="12">
+        <item h="1" x="10"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" numFmtId="14" outline="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="10">
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="2"/>
+        <item x="6"/>
+        <item m="1" x="8"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="41">
+    <i>
+      <x v="1"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i t="default">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i t="default">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i t="default">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i t="default">
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i t="default">
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Count of Winner1" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Model" fld="8" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1FB34DD3-8207-4009-92F5-73C183F63DF8}" name="PivotTable1" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A5:C13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
@@ -6716,7 +7094,7 @@
       </items>
     </pivotField>
     <pivotField axis="axisPage" showAll="0">
-      <items count="64">
+      <items count="66">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -6756,7 +7134,7 @@
         <item x="36"/>
         <item x="37"/>
         <item x="38"/>
-        <item x="62"/>
+        <item x="64"/>
         <item x="39"/>
         <item x="40"/>
         <item x="41"/>
@@ -6780,26 +7158,15 @@
         <item x="59"/>
         <item x="60"/>
         <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="724">
-        <item x="414"/>
-        <item m="1" x="415"/>
-        <item m="1" x="416"/>
-        <item m="1" x="417"/>
-        <item m="1" x="418"/>
-        <item m="1" x="419"/>
-        <item m="1" x="420"/>
-        <item m="1" x="421"/>
-        <item m="1" x="422"/>
-        <item m="1" x="423"/>
-        <item m="1" x="424"/>
-        <item m="1" x="425"/>
-        <item m="1" x="426"/>
-        <item m="1" x="427"/>
+      <items count="737">
+        <item x="427"/>
         <item m="1" x="428"/>
         <item m="1" x="429"/>
         <item m="1" x="430"/>
@@ -7089,14 +7456,27 @@
         <item m="1" x="714"/>
         <item m="1" x="715"/>
         <item m="1" x="716"/>
-        <item x="314"/>
         <item m="1" x="717"/>
         <item m="1" x="718"/>
         <item m="1" x="719"/>
         <item m="1" x="720"/>
         <item m="1" x="721"/>
+        <item m="1" x="722"/>
+        <item m="1" x="723"/>
+        <item m="1" x="724"/>
+        <item m="1" x="725"/>
+        <item m="1" x="726"/>
+        <item m="1" x="727"/>
+        <item m="1" x="728"/>
+        <item m="1" x="729"/>
+        <item x="314"/>
+        <item m="1" x="730"/>
+        <item m="1" x="731"/>
+        <item m="1" x="732"/>
+        <item m="1" x="733"/>
+        <item m="1" x="734"/>
         <item x="9"/>
-        <item m="1" x="722"/>
+        <item m="1" x="735"/>
         <item x="286"/>
         <item x="287"/>
         <item x="288"/>
@@ -7509,6 +7889,19 @@
         <item x="411"/>
         <item x="412"/>
         <item x="413"/>
+        <item x="414"/>
+        <item x="415"/>
+        <item x="416"/>
+        <item x="417"/>
+        <item x="418"/>
+        <item x="419"/>
+        <item x="420"/>
+        <item x="421"/>
+        <item x="422"/>
+        <item x="423"/>
+        <item x="424"/>
+        <item x="425"/>
+        <item x="426"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -7577,212 +7970,6 @@
     <pageField fld="1" hier="-1"/>
     <pageField fld="3" hier="-1"/>
   </pageFields>
-  <dataFields count="2">
-    <dataField name="Count of Winner1" fld="2" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Model" fld="8" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{80C3D042-980E-40EE-B50F-CF37801A1A1D}" name="PivotTable3" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="L3:O43" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
-  <pivotFields count="10">
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="12">
-        <item h="1" x="10"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" numFmtId="14" outline="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="10">
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="2"/>
-        <item x="6"/>
-        <item m="1" x="8"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="0"/>
-    <field x="7"/>
-  </rowFields>
-  <rowItems count="40">
-    <i>
-      <x v="1"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i t="default">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i t="default">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i t="default">
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i t="default">
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i t="default">
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i t="default">
-      <x v="10"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
   <dataFields count="2">
     <dataField name="Count of Winner1" fld="2" subtotal="count" baseField="0" baseItem="0"/>
     <dataField name="Sum of Model" fld="8" baseField="0" baseItem="0"/>
@@ -8099,23 +8286,23 @@
   <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>79</v>
       </c>
@@ -8123,7 +8310,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -8131,7 +8318,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -8154,7 +8341,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="L4" t="s">
         <v>86</v>
       </c>
@@ -8172,7 +8359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>52</v>
       </c>
@@ -8211,7 +8398,7 @@
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>61</v>
       </c>
@@ -8227,19 +8414,19 @@
       </c>
       <c r="E6" s="7">
         <f>SUM(B10:B12)</f>
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="F6" s="5">
         <f>SUM(B6:B9)</f>
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G6" s="11">
         <f>SUM(B6:B8)</f>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H6" s="9">
         <f>SUM(B6:B7)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M6" t="s">
         <v>50</v>
@@ -8255,23 +8442,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B7" s="16">
+        <v>12</v>
+      </c>
+      <c r="C7" s="16">
         <v>11</v>
-      </c>
-      <c r="C7" s="16">
-        <v>10</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D13" si="1">C7/B7</f>
-        <v>0.90909090909090906</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E7" s="7">
         <f>SUM(C10:C12)</f>
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F7" s="5">
         <f>SUM(C6:C9)</f>
@@ -8279,11 +8466,11 @@
       </c>
       <c r="G7" s="11">
         <f>SUM(C6:C8)</f>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" s="9">
         <f>SUM(C6:C7)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M7" t="s">
         <v>61</v>
@@ -8299,7 +8486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>93</v>
       </c>
@@ -8315,19 +8502,19 @@
       </c>
       <c r="E8" s="8">
         <f>E7/E6</f>
-        <v>0.56269113149847094</v>
+        <v>0.54705882352941182</v>
       </c>
       <c r="F8" s="6">
         <f>F7/F6</f>
-        <v>0.69298245614035092</v>
+        <v>0.68695652173913047</v>
       </c>
       <c r="G8" s="12">
         <f>G7/G6</f>
-        <v>0.7142857142857143</v>
+        <v>0.71875</v>
       </c>
       <c r="H8" s="10">
         <f>H7/H6</f>
-        <v>0.93333333333333335</v>
+        <v>0.9375</v>
       </c>
       <c r="L8" t="s">
         <v>100</v>
@@ -8343,7 +8530,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>94</v>
       </c>
@@ -8351,11 +8538,11 @@
         <v>51</v>
       </c>
       <c r="C9" s="16">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>107</v>
@@ -8386,35 +8573,35 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B10" s="16">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C10" s="16">
         <v>87</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" si="1"/>
-        <v>0.61702127659574468</v>
+        <v>0.6</v>
       </c>
       <c r="E10" s="8">
         <f>E6/$B$13</f>
-        <v>0.74149659863945583</v>
+        <v>0.74725274725274726</v>
       </c>
       <c r="F10" s="6">
         <f t="shared" ref="F10:H10" si="2">F6/$B$13</f>
-        <v>0.25850340136054423</v>
+        <v>0.25274725274725274</v>
       </c>
       <c r="G10" s="12">
         <f t="shared" si="2"/>
-        <v>0.14285714285714285</v>
+        <v>0.14065934065934066</v>
       </c>
       <c r="H10" s="10">
         <f t="shared" si="2"/>
-        <v>3.4013605442176874E-2</v>
+        <v>3.5164835164835165E-2</v>
       </c>
       <c r="M10" t="s">
         <v>93</v>
@@ -8430,19 +8617,19 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B11" s="16">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C11" s="16">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" si="1"/>
-        <v>0.5161290322580645</v>
+        <v>0.49473684210526314</v>
       </c>
       <c r="M11" t="s">
         <v>50</v>
@@ -8458,19 +8645,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B12" s="16">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C12" s="16">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" si="1"/>
-        <v>0.5268817204301075</v>
+        <v>0.52</v>
       </c>
       <c r="L12" t="s">
         <v>101</v>
@@ -8486,19 +8673,19 @@
         <v>0.46666666666666667</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B13" s="16">
-        <v>441</v>
+        <v>455</v>
       </c>
       <c r="C13" s="16">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" si="1"/>
-        <v>0.59637188208616776</v>
+        <v>0.58241758241758246</v>
       </c>
       <c r="L13" t="s">
         <v>88</v>
@@ -8517,7 +8704,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="M14" t="s">
         <v>93</v>
       </c>
@@ -8532,7 +8719,7 @@
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="M15" t="s">
         <v>50</v>
       </c>
@@ -8547,7 +8734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="L16" t="s">
         <v>102</v>
       </c>
@@ -8562,7 +8749,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="17" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="12:16" x14ac:dyDescent="0.35">
       <c r="L17" t="s">
         <v>89</v>
       </c>
@@ -8580,7 +8767,7 @@
         <v>0.55555555555555558</v>
       </c>
     </row>
-    <row r="18" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="12:16" x14ac:dyDescent="0.35">
       <c r="M18" t="s">
         <v>93</v>
       </c>
@@ -8595,7 +8782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="12:16" x14ac:dyDescent="0.35">
       <c r="M19" t="s">
         <v>50</v>
       </c>
@@ -8610,7 +8797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="12:16" x14ac:dyDescent="0.35">
       <c r="M20" t="s">
         <v>61</v>
       </c>
@@ -8625,7 +8812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="12:16" x14ac:dyDescent="0.35">
       <c r="L21" t="s">
         <v>103</v>
       </c>
@@ -8640,7 +8827,7 @@
         <v>0.77777777777777779</v>
       </c>
     </row>
-    <row r="22" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="12:16" x14ac:dyDescent="0.35">
       <c r="L22" t="s">
         <v>91</v>
       </c>
@@ -8658,7 +8845,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="12:16" x14ac:dyDescent="0.35">
       <c r="M23" t="s">
         <v>93</v>
       </c>
@@ -8673,7 +8860,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="24" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="12:16" x14ac:dyDescent="0.35">
       <c r="M24" t="s">
         <v>50</v>
       </c>
@@ -8688,7 +8875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="12:16" x14ac:dyDescent="0.35">
       <c r="L25" t="s">
         <v>104</v>
       </c>
@@ -8703,7 +8890,7 @@
         <v>0.69230769230769229</v>
       </c>
     </row>
-    <row r="26" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="12:16" x14ac:dyDescent="0.35">
       <c r="L26" t="s">
         <v>90</v>
       </c>
@@ -8721,7 +8908,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="27" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="12:16" x14ac:dyDescent="0.35">
       <c r="M27" t="s">
         <v>93</v>
       </c>
@@ -8736,7 +8923,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="28" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="12:16" x14ac:dyDescent="0.35">
       <c r="M28" t="s">
         <v>61</v>
       </c>
@@ -8751,7 +8938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="12:16" x14ac:dyDescent="0.35">
       <c r="L29" t="s">
         <v>105</v>
       </c>
@@ -8766,7 +8953,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="30" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="12:16" x14ac:dyDescent="0.35">
       <c r="L30" t="s">
         <v>99</v>
       </c>
@@ -8784,7 +8971,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="31" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="12:16" x14ac:dyDescent="0.35">
       <c r="M31" t="s">
         <v>93</v>
       </c>
@@ -8799,7 +8986,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="32" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="12:16" x14ac:dyDescent="0.35">
       <c r="M32" t="s">
         <v>50</v>
       </c>
@@ -8814,7 +9001,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="12:16" x14ac:dyDescent="0.35">
       <c r="L33" t="s">
         <v>106</v>
       </c>
@@ -8829,7 +9016,7 @@
         <v>0.73333333333333328</v>
       </c>
     </row>
-    <row r="34" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="12:16" x14ac:dyDescent="0.35">
       <c r="L34" t="s">
         <v>108</v>
       </c>
@@ -8847,7 +9034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="12:16" x14ac:dyDescent="0.35">
       <c r="M35" t="s">
         <v>93</v>
       </c>
@@ -8862,7 +9049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="12:16" x14ac:dyDescent="0.35">
       <c r="L36" t="s">
         <v>109</v>
       </c>
@@ -8877,7 +9064,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="12:16" x14ac:dyDescent="0.35">
       <c r="L37" t="s">
         <v>110</v>
       </c>
@@ -8895,7 +9082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="12:16" x14ac:dyDescent="0.35">
       <c r="M38" t="s">
         <v>93</v>
       </c>
@@ -8910,7 +9097,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="39" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="12:16" x14ac:dyDescent="0.35">
       <c r="L39" t="s">
         <v>111</v>
       </c>
@@ -8925,7 +9112,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="40" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="12:16" x14ac:dyDescent="0.35">
       <c r="L40" t="s">
         <v>112</v>
       </c>
@@ -8936,14 +9123,14 @@
         <v>4</v>
       </c>
       <c r="O40" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P40" s="4">
         <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="41" spans="12:16" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="41" spans="12:16" x14ac:dyDescent="0.35">
       <c r="M41" t="s">
         <v>93</v>
       </c>
@@ -8958,64 +9145,73 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L42" t="s">
-        <v>113</v>
+    <row r="42" spans="12:16" x14ac:dyDescent="0.35">
+      <c r="M42" t="s">
+        <v>50</v>
       </c>
       <c r="N42" s="16">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="O42" s="16">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P42" s="4">
         <f t="shared" si="0"/>
-        <v>0.8571428571428571</v>
-      </c>
-    </row>
-    <row r="43" spans="12:16" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="12:16" x14ac:dyDescent="0.35">
       <c r="L43" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="N43" s="16">
-        <v>114</v>
+        <v>8</v>
       </c>
       <c r="O43" s="16">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="P43" s="4">
         <f t="shared" si="0"/>
-        <v>0.69298245614035092</v>
-      </c>
-    </row>
-    <row r="44" spans="12:16" x14ac:dyDescent="0.25">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="44" spans="12:16" x14ac:dyDescent="0.35">
+      <c r="L44" t="s">
+        <v>53</v>
+      </c>
+      <c r="N44" s="16">
+        <v>115</v>
+      </c>
+      <c r="O44" s="16">
+        <v>79</v>
+      </c>
       <c r="P44" s="4"/>
     </row>
-    <row r="45" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="12:16" x14ac:dyDescent="0.35">
       <c r="P45" s="4"/>
     </row>
-    <row r="46" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="12:16" x14ac:dyDescent="0.35">
       <c r="P46" s="4"/>
     </row>
-    <row r="47" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="12:16" x14ac:dyDescent="0.35">
       <c r="P47" s="4"/>
     </row>
-    <row r="48" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="12:16" x14ac:dyDescent="0.35">
       <c r="P48" s="4"/>
     </row>
-    <row r="49" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P49" s="4"/>
     </row>
-    <row r="50" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P50" s="4"/>
     </row>
-    <row r="51" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P51" s="4"/>
     </row>
-    <row r="52" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P52" s="4"/>
     </row>
-    <row r="53" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P53" s="4"/>
     </row>
   </sheetData>
@@ -9086,27 +9282,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I442"/>
+  <dimension ref="A1:I456"/>
   <sheetViews>
-    <sheetView topLeftCell="A406" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I443" sqref="I443"/>
+    <sheetView topLeftCell="A434" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I444" sqref="I444:I456"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7265625" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="43" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>79</v>
       </c>
@@ -9135,7 +9331,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -9164,7 +9360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>86</v>
       </c>
@@ -9193,7 +9389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>86</v>
       </c>
@@ -9222,7 +9418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>86</v>
       </c>
@@ -9251,7 +9447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>86</v>
       </c>
@@ -9280,7 +9476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>86</v>
       </c>
@@ -9309,7 +9505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -9338,7 +9534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -9367,7 +9563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>86</v>
       </c>
@@ -9396,7 +9592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>86</v>
       </c>
@@ -9425,7 +9621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>86</v>
       </c>
@@ -9454,7 +9650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>86</v>
       </c>
@@ -9483,7 +9679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>86</v>
       </c>
@@ -9512,7 +9708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>86</v>
       </c>
@@ -9541,7 +9737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>86</v>
       </c>
@@ -9570,7 +9766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>86</v>
       </c>
@@ -9599,7 +9795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>86</v>
       </c>
@@ -9628,7 +9824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>86</v>
       </c>
@@ -9657,7 +9853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>86</v>
       </c>
@@ -9686,7 +9882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>86</v>
       </c>
@@ -9715,7 +9911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>86</v>
       </c>
@@ -9744,7 +9940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>86</v>
       </c>
@@ -9773,7 +9969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>86</v>
       </c>
@@ -9802,7 +9998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>86</v>
       </c>
@@ -9831,7 +10027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>86</v>
       </c>
@@ -9860,7 +10056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>86</v>
       </c>
@@ -9889,7 +10085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>86</v>
       </c>
@@ -9918,7 +10114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>86</v>
       </c>
@@ -9947,7 +10143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>86</v>
       </c>
@@ -9976,7 +10172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>86</v>
       </c>
@@ -10005,7 +10201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>86</v>
       </c>
@@ -10034,7 +10230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>86</v>
       </c>
@@ -10063,7 +10259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>86</v>
       </c>
@@ -10092,7 +10288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>86</v>
       </c>
@@ -10121,7 +10317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>86</v>
       </c>
@@ -10150,7 +10346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>86</v>
       </c>
@@ -10179,7 +10375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>86</v>
       </c>
@@ -10208,7 +10404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>86</v>
       </c>
@@ -10237,7 +10433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>86</v>
       </c>
@@ -10266,7 +10462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>86</v>
       </c>
@@ -10295,7 +10491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>86</v>
       </c>
@@ -10324,7 +10520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>86</v>
       </c>
@@ -10353,7 +10549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>86</v>
       </c>
@@ -10382,7 +10578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>86</v>
       </c>
@@ -10411,7 +10607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>86</v>
       </c>
@@ -10440,7 +10636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>86</v>
       </c>
@@ -10469,7 +10665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>86</v>
       </c>
@@ -10498,7 +10694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>86</v>
       </c>
@@ -10527,7 +10723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>86</v>
       </c>
@@ -10556,7 +10752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>86</v>
       </c>
@@ -10585,7 +10781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>86</v>
       </c>
@@ -10614,7 +10810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>86</v>
       </c>
@@ -10643,7 +10839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>86</v>
       </c>
@@ -10672,7 +10868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>86</v>
       </c>
@@ -10701,7 +10897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>86</v>
       </c>
@@ -10730,7 +10926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>86</v>
       </c>
@@ -10759,7 +10955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>86</v>
       </c>
@@ -10788,7 +10984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>86</v>
       </c>
@@ -10817,7 +11013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>86</v>
       </c>
@@ -10846,7 +11042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>86</v>
       </c>
@@ -10875,7 +11071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>86</v>
       </c>
@@ -10904,7 +11100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>86</v>
       </c>
@@ -10933,7 +11129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>86</v>
       </c>
@@ -10962,7 +11158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>86</v>
       </c>
@@ -10991,7 +11187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>86</v>
       </c>
@@ -11020,7 +11216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>86</v>
       </c>
@@ -11049,7 +11245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>87</v>
       </c>
@@ -11078,7 +11274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>87</v>
       </c>
@@ -11107,7 +11303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>87</v>
       </c>
@@ -11136,7 +11332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>87</v>
       </c>
@@ -11165,7 +11361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>87</v>
       </c>
@@ -11194,7 +11390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>87</v>
       </c>
@@ -11223,7 +11419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>87</v>
       </c>
@@ -11252,7 +11448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>87</v>
       </c>
@@ -11281,7 +11477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>87</v>
       </c>
@@ -11310,7 +11506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>87</v>
       </c>
@@ -11339,7 +11535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>87</v>
       </c>
@@ -11368,7 +11564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>87</v>
       </c>
@@ -11397,7 +11593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>87</v>
       </c>
@@ -11426,7 +11622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>87</v>
       </c>
@@ -11455,7 +11651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>87</v>
       </c>
@@ -11484,7 +11680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>87</v>
       </c>
@@ -11513,7 +11709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>87</v>
       </c>
@@ -11542,7 +11738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>87</v>
       </c>
@@ -11571,7 +11767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>87</v>
       </c>
@@ -11600,7 +11796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>87</v>
       </c>
@@ -11629,7 +11825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -11658,7 +11854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -11687,7 +11883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>87</v>
       </c>
@@ -11716,7 +11912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>87</v>
       </c>
@@ -11745,7 +11941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>87</v>
       </c>
@@ -11774,7 +11970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>87</v>
       </c>
@@ -11803,7 +11999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>87</v>
       </c>
@@ -11832,7 +12028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>87</v>
       </c>
@@ -11861,7 +12057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>87</v>
       </c>
@@ -11890,7 +12086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>87</v>
       </c>
@@ -11919,7 +12115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>87</v>
       </c>
@@ -11948,7 +12144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>87</v>
       </c>
@@ -11977,7 +12173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>87</v>
       </c>
@@ -12006,7 +12202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>87</v>
       </c>
@@ -12035,7 +12231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>87</v>
       </c>
@@ -12064,7 +12260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>87</v>
       </c>
@@ -12093,7 +12289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>87</v>
       </c>
@@ -12122,7 +12318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>87</v>
       </c>
@@ -12151,7 +12347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>87</v>
       </c>
@@ -12180,7 +12376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>87</v>
       </c>
@@ -12209,7 +12405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>87</v>
       </c>
@@ -12238,7 +12434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>87</v>
       </c>
@@ -12267,7 +12463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>87</v>
       </c>
@@ -12296,7 +12492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>87</v>
       </c>
@@ -12325,7 +12521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>87</v>
       </c>
@@ -12354,7 +12550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>87</v>
       </c>
@@ -12383,7 +12579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>87</v>
       </c>
@@ -12412,7 +12608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>87</v>
       </c>
@@ -12441,7 +12637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>87</v>
       </c>
@@ -12470,7 +12666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>87</v>
       </c>
@@ -12499,7 +12695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>87</v>
       </c>
@@ -12528,7 +12724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>87</v>
       </c>
@@ -12557,7 +12753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>87</v>
       </c>
@@ -12586,7 +12782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>87</v>
       </c>
@@ -12615,7 +12811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>88</v>
       </c>
@@ -12644,7 +12840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>88</v>
       </c>
@@ -12673,7 +12869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>88</v>
       </c>
@@ -12702,7 +12898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>88</v>
       </c>
@@ -12731,7 +12927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>88</v>
       </c>
@@ -12760,7 +12956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>88</v>
       </c>
@@ -12789,7 +12985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>88</v>
       </c>
@@ -12818,7 +13014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>88</v>
       </c>
@@ -12847,7 +13043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>88</v>
       </c>
@@ -12876,7 +13072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>88</v>
       </c>
@@ -12905,7 +13101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>88</v>
       </c>
@@ -12934,7 +13130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>88</v>
       </c>
@@ -12963,7 +13159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>88</v>
       </c>
@@ -12992,7 +13188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>88</v>
       </c>
@@ -13021,7 +13217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>88</v>
       </c>
@@ -13050,7 +13246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>88</v>
       </c>
@@ -13079,7 +13275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>88</v>
       </c>
@@ -13108,7 +13304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>88</v>
       </c>
@@ -13137,7 +13333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>88</v>
       </c>
@@ -13166,7 +13362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>88</v>
       </c>
@@ -13195,7 +13391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>88</v>
       </c>
@@ -13224,7 +13420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>88</v>
       </c>
@@ -13253,7 +13449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>88</v>
       </c>
@@ -13282,7 +13478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>88</v>
       </c>
@@ -13311,7 +13507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>88</v>
       </c>
@@ -13340,7 +13536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>88</v>
       </c>
@@ -13369,7 +13565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>88</v>
       </c>
@@ -13398,7 +13594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>88</v>
       </c>
@@ -13427,7 +13623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>88</v>
       </c>
@@ -13456,7 +13652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>88</v>
       </c>
@@ -13485,7 +13681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>88</v>
       </c>
@@ -13514,7 +13710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>88</v>
       </c>
@@ -13543,7 +13739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>88</v>
       </c>
@@ -13572,7 +13768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>88</v>
       </c>
@@ -13601,7 +13797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>88</v>
       </c>
@@ -13630,7 +13826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>88</v>
       </c>
@@ -13659,7 +13855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>89</v>
       </c>
@@ -13688,7 +13884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>89</v>
       </c>
@@ -13717,7 +13913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>89</v>
       </c>
@@ -13746,7 +13942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>89</v>
       </c>
@@ -13775,7 +13971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>89</v>
       </c>
@@ -13804,7 +14000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>89</v>
       </c>
@@ -13833,7 +14029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>89</v>
       </c>
@@ -13862,7 +14058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>89</v>
       </c>
@@ -13891,7 +14087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>89</v>
       </c>
@@ -13920,7 +14116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>89</v>
       </c>
@@ -13949,7 +14145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>89</v>
       </c>
@@ -13978,7 +14174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>89</v>
       </c>
@@ -14007,7 +14203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>89</v>
       </c>
@@ -14036,7 +14232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>89</v>
       </c>
@@ -14065,7 +14261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>89</v>
       </c>
@@ -14094,7 +14290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>89</v>
       </c>
@@ -14123,7 +14319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>89</v>
       </c>
@@ -14152,7 +14348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>89</v>
       </c>
@@ -14181,7 +14377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>89</v>
       </c>
@@ -14210,7 +14406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>89</v>
       </c>
@@ -14239,7 +14435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>89</v>
       </c>
@@ -14268,7 +14464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>89</v>
       </c>
@@ -14297,7 +14493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>89</v>
       </c>
@@ -14326,7 +14522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>89</v>
       </c>
@@ -14355,7 +14551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>89</v>
       </c>
@@ -14384,7 +14580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>89</v>
       </c>
@@ -14413,7 +14609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>89</v>
       </c>
@@ -14442,7 +14638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>89</v>
       </c>
@@ -14471,7 +14667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>89</v>
       </c>
@@ -14500,7 +14696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>89</v>
       </c>
@@ -14529,7 +14725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>89</v>
       </c>
@@ -14558,7 +14754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>89</v>
       </c>
@@ -14587,7 +14783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>89</v>
       </c>
@@ -14616,7 +14812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>89</v>
       </c>
@@ -14645,7 +14841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>89</v>
       </c>
@@ -14674,7 +14870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>89</v>
       </c>
@@ -14703,7 +14899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>89</v>
       </c>
@@ -14732,7 +14928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>89</v>
       </c>
@@ -14761,7 +14957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>89</v>
       </c>
@@ -14790,7 +14986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>89</v>
       </c>
@@ -14819,7 +15015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>89</v>
       </c>
@@ -14848,7 +15044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>89</v>
       </c>
@@ -14877,7 +15073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>89</v>
       </c>
@@ -14906,7 +15102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>89</v>
       </c>
@@ -14935,7 +15131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>89</v>
       </c>
@@ -14964,7 +15160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>89</v>
       </c>
@@ -14993,7 +15189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>89</v>
       </c>
@@ -15022,7 +15218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>89</v>
       </c>
@@ -15051,7 +15247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>89</v>
       </c>
@@ -15080,7 +15276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>89</v>
       </c>
@@ -15109,7 +15305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>89</v>
       </c>
@@ -15138,7 +15334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>89</v>
       </c>
@@ -15167,7 +15363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>89</v>
       </c>
@@ -15196,7 +15392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>89</v>
       </c>
@@ -15225,7 +15421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>89</v>
       </c>
@@ -15254,7 +15450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>89</v>
       </c>
@@ -15283,7 +15479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>89</v>
       </c>
@@ -15312,7 +15508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>91</v>
       </c>
@@ -15341,7 +15537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>91</v>
       </c>
@@ -15370,7 +15566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>91</v>
       </c>
@@ -15399,7 +15595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>91</v>
       </c>
@@ -15428,7 +15624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>91</v>
       </c>
@@ -15457,7 +15653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>91</v>
       </c>
@@ -15486,7 +15682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>91</v>
       </c>
@@ -15515,7 +15711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>91</v>
       </c>
@@ -15544,7 +15740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>91</v>
       </c>
@@ -15573,7 +15769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>91</v>
       </c>
@@ -15602,7 +15798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>91</v>
       </c>
@@ -15631,7 +15827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>91</v>
       </c>
@@ -15660,7 +15856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>91</v>
       </c>
@@ -15689,7 +15885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>91</v>
       </c>
@@ -15718,7 +15914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>91</v>
       </c>
@@ -15747,7 +15943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>91</v>
       </c>
@@ -15776,7 +15972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>91</v>
       </c>
@@ -15805,7 +16001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>91</v>
       </c>
@@ -15834,7 +16030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>91</v>
       </c>
@@ -15863,7 +16059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>91</v>
       </c>
@@ -15892,7 +16088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>91</v>
       </c>
@@ -15921,7 +16117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>91</v>
       </c>
@@ -15950,7 +16146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>91</v>
       </c>
@@ -15979,7 +16175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>91</v>
       </c>
@@ -16008,7 +16204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>91</v>
       </c>
@@ -16037,7 +16233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>91</v>
       </c>
@@ -16066,7 +16262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>91</v>
       </c>
@@ -16095,7 +16291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>91</v>
       </c>
@@ -16124,7 +16320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>91</v>
       </c>
@@ -16153,7 +16349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>91</v>
       </c>
@@ -16182,7 +16378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>91</v>
       </c>
@@ -16211,7 +16407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>91</v>
       </c>
@@ -16240,7 +16436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>91</v>
       </c>
@@ -16269,7 +16465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>91</v>
       </c>
@@ -16298,7 +16494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>91</v>
       </c>
@@ -16327,7 +16523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>91</v>
       </c>
@@ -16356,7 +16552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>91</v>
       </c>
@@ -16385,7 +16581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>91</v>
       </c>
@@ -16414,7 +16610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>91</v>
       </c>
@@ -16443,7 +16639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>91</v>
       </c>
@@ -16472,7 +16668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>91</v>
       </c>
@@ -16501,7 +16697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>91</v>
       </c>
@@ -16530,7 +16726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>91</v>
       </c>
@@ -16559,7 +16755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>91</v>
       </c>
@@ -16588,7 +16784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>91</v>
       </c>
@@ -16617,7 +16813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>91</v>
       </c>
@@ -16646,7 +16842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>91</v>
       </c>
@@ -16675,7 +16871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>91</v>
       </c>
@@ -16704,7 +16900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>90</v>
       </c>
@@ -16733,7 +16929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>90</v>
       </c>
@@ -16762,7 +16958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>90</v>
       </c>
@@ -16791,7 +16987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>90</v>
       </c>
@@ -16820,7 +17016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>90</v>
       </c>
@@ -16849,7 +17045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>90</v>
       </c>
@@ -16878,7 +17074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>90</v>
       </c>
@@ -16907,7 +17103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>90</v>
       </c>
@@ -16936,7 +17132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>90</v>
       </c>
@@ -16965,7 +17161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>90</v>
       </c>
@@ -16994,7 +17190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>90</v>
       </c>
@@ -17023,7 +17219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>90</v>
       </c>
@@ -17052,7 +17248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>90</v>
       </c>
@@ -17081,7 +17277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>90</v>
       </c>
@@ -17110,7 +17306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>90</v>
       </c>
@@ -17139,7 +17335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>90</v>
       </c>
@@ -17168,7 +17364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>90</v>
       </c>
@@ -17197,7 +17393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>90</v>
       </c>
@@ -17226,7 +17422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>90</v>
       </c>
@@ -17255,7 +17451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>90</v>
       </c>
@@ -17284,7 +17480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>90</v>
       </c>
@@ -17313,7 +17509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>90</v>
       </c>
@@ -17342,7 +17538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>90</v>
       </c>
@@ -17371,7 +17567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>90</v>
       </c>
@@ -17400,7 +17596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>90</v>
       </c>
@@ -17429,7 +17625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>90</v>
       </c>
@@ -17458,7 +17654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>90</v>
       </c>
@@ -17487,7 +17683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>90</v>
       </c>
@@ -17516,7 +17712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>90</v>
       </c>
@@ -17545,7 +17741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>90</v>
       </c>
@@ -17574,7 +17770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>90</v>
       </c>
@@ -17603,7 +17799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>90</v>
       </c>
@@ -17632,7 +17828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>90</v>
       </c>
@@ -17661,7 +17857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>90</v>
       </c>
@@ -17690,7 +17886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>90</v>
       </c>
@@ -17719,7 +17915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>90</v>
       </c>
@@ -17748,7 +17944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>90</v>
       </c>
@@ -17777,7 +17973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>90</v>
       </c>
@@ -17806,7 +18002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>90</v>
       </c>
@@ -17835,7 +18031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>90</v>
       </c>
@@ -17864,7 +18060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>90</v>
       </c>
@@ -17893,7 +18089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>90</v>
       </c>
@@ -17922,7 +18118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>90</v>
       </c>
@@ -17951,7 +18147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>90</v>
       </c>
@@ -17980,7 +18176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>90</v>
       </c>
@@ -18009,7 +18205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>90</v>
       </c>
@@ -18038,7 +18234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>90</v>
       </c>
@@ -18067,7 +18263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>90</v>
       </c>
@@ -18096,7 +18292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>90</v>
       </c>
@@ -18125,7 +18321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>99</v>
       </c>
@@ -18154,7 +18350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>99</v>
       </c>
@@ -18183,7 +18379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>99</v>
       </c>
@@ -18212,7 +18408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>99</v>
       </c>
@@ -18241,7 +18437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>99</v>
       </c>
@@ -18270,7 +18466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>99</v>
       </c>
@@ -18299,7 +18495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>99</v>
       </c>
@@ -18328,7 +18524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>99</v>
       </c>
@@ -18357,7 +18553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>99</v>
       </c>
@@ -18386,7 +18582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>99</v>
       </c>
@@ -18415,7 +18611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>99</v>
       </c>
@@ -18444,7 +18640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>99</v>
       </c>
@@ -18473,7 +18669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>99</v>
       </c>
@@ -18502,7 +18698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>99</v>
       </c>
@@ -18531,7 +18727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>99</v>
       </c>
@@ -18560,7 +18756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>99</v>
       </c>
@@ -18589,7 +18785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>99</v>
       </c>
@@ -18618,7 +18814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>99</v>
       </c>
@@ -18647,7 +18843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>99</v>
       </c>
@@ -18676,7 +18872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>99</v>
       </c>
@@ -18705,7 +18901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>99</v>
       </c>
@@ -18734,7 +18930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>99</v>
       </c>
@@ -18763,7 +18959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>99</v>
       </c>
@@ -18792,7 +18988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>99</v>
       </c>
@@ -18821,7 +19017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>99</v>
       </c>
@@ -18850,7 +19046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>99</v>
       </c>
@@ -18879,7 +19075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>99</v>
       </c>
@@ -18908,7 +19104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>99</v>
       </c>
@@ -18937,7 +19133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>99</v>
       </c>
@@ -18966,7 +19162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>99</v>
       </c>
@@ -18995,7 +19191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>99</v>
       </c>
@@ -19024,7 +19220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>99</v>
       </c>
@@ -19053,7 +19249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>99</v>
       </c>
@@ -19082,7 +19278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>99</v>
       </c>
@@ -19111,7 +19307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>99</v>
       </c>
@@ -19140,7 +19336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>99</v>
       </c>
@@ -19169,7 +19365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>99</v>
       </c>
@@ -19198,7 +19394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>99</v>
       </c>
@@ -19227,7 +19423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>99</v>
       </c>
@@ -19256,7 +19452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>99</v>
       </c>
@@ -19285,7 +19481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>99</v>
       </c>
@@ -19314,7 +19510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>99</v>
       </c>
@@ -19343,7 +19539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>99</v>
       </c>
@@ -19372,7 +19568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>99</v>
       </c>
@@ -19401,7 +19597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>99</v>
       </c>
@@ -19430,7 +19626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>99</v>
       </c>
@@ -19459,7 +19655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>99</v>
       </c>
@@ -19488,7 +19684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>99</v>
       </c>
@@ -19517,7 +19713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>99</v>
       </c>
@@ -19546,7 +19742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>99</v>
       </c>
@@ -19575,7 +19771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>99</v>
       </c>
@@ -19604,7 +19800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>99</v>
       </c>
@@ -19633,7 +19829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>99</v>
       </c>
@@ -19662,7 +19858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>99</v>
       </c>
@@ -19691,7 +19887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>99</v>
       </c>
@@ -19720,7 +19916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>108</v>
       </c>
@@ -19749,7 +19945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>108</v>
       </c>
@@ -19778,7 +19974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>108</v>
       </c>
@@ -19807,7 +20003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>108</v>
       </c>
@@ -19836,7 +20032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>108</v>
       </c>
@@ -19865,7 +20061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>108</v>
       </c>
@@ -19894,7 +20090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>108</v>
       </c>
@@ -19923,7 +20119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>108</v>
       </c>
@@ -19952,7 +20148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>110</v>
       </c>
@@ -19981,7 +20177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>110</v>
       </c>
@@ -20010,7 +20206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>110</v>
       </c>
@@ -20039,7 +20235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>110</v>
       </c>
@@ -20068,7 +20264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>110</v>
       </c>
@@ -20097,7 +20293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>110</v>
       </c>
@@ -20126,7 +20322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>110</v>
       </c>
@@ -20155,7 +20351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>110</v>
       </c>
@@ -20184,7 +20380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>110</v>
       </c>
@@ -20213,7 +20409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>110</v>
       </c>
@@ -20242,7 +20438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>110</v>
       </c>
@@ -20271,7 +20467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>110</v>
       </c>
@@ -20300,7 +20496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>110</v>
       </c>
@@ -20329,7 +20525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>110</v>
       </c>
@@ -20358,7 +20554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>110</v>
       </c>
@@ -20387,7 +20583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>110</v>
       </c>
@@ -20416,7 +20612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>110</v>
       </c>
@@ -20445,7 +20641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>110</v>
       </c>
@@ -20474,7 +20670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>110</v>
       </c>
@@ -20503,7 +20699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>110</v>
       </c>
@@ -20532,7 +20728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>110</v>
       </c>
@@ -20561,7 +20757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>110</v>
       </c>
@@ -20590,7 +20786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>110</v>
       </c>
@@ -20619,7 +20815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>110</v>
       </c>
@@ -20648,7 +20844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>110</v>
       </c>
@@ -20677,7 +20873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>110</v>
       </c>
@@ -20706,7 +20902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>110</v>
       </c>
@@ -20735,7 +20931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>110</v>
       </c>
@@ -20764,7 +20960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>110</v>
       </c>
@@ -20793,7 +20989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>110</v>
       </c>
@@ -20822,7 +21018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>110</v>
       </c>
@@ -20851,7 +21047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>110</v>
       </c>
@@ -20880,7 +21076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>110</v>
       </c>
@@ -20909,7 +21105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>110</v>
       </c>
@@ -20938,7 +21134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>110</v>
       </c>
@@ -20967,7 +21163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>110</v>
       </c>
@@ -20996,7 +21192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>112</v>
       </c>
@@ -21025,7 +21221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>112</v>
       </c>
@@ -21054,7 +21250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>112</v>
       </c>
@@ -21083,7 +21279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>112</v>
       </c>
@@ -21112,7 +21308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>112</v>
       </c>
@@ -21141,7 +21337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
         <v>112</v>
       </c>
@@ -21170,7 +21366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>112</v>
       </c>
@@ -21199,7 +21395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>112</v>
       </c>
@@ -21228,7 +21424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>112</v>
       </c>
@@ -21257,7 +21453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>112</v>
       </c>
@@ -21286,7 +21482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>112</v>
       </c>
@@ -21315,7 +21511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>112</v>
       </c>
@@ -21344,7 +21540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
         <v>112</v>
       </c>
@@ -21373,7 +21569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
         <v>112</v>
       </c>
@@ -21402,7 +21598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
         <v>112</v>
       </c>
@@ -21431,7 +21627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
         <v>112</v>
       </c>
@@ -21460,7 +21656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
         <v>112</v>
       </c>
@@ -21489,7 +21685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
         <v>112</v>
       </c>
@@ -21518,7 +21714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
         <v>112</v>
       </c>
@@ -21547,7 +21743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
         <v>112</v>
       </c>
@@ -21576,7 +21772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
         <v>112</v>
       </c>
@@ -21605,7 +21801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
         <v>112</v>
       </c>
@@ -21631,10 +21827,10 @@
         <v>94</v>
       </c>
       <c r="I432">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
         <v>112</v>
       </c>
@@ -21663,7 +21859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
         <v>112</v>
       </c>
@@ -21689,10 +21885,10 @@
         <v>51</v>
       </c>
       <c r="I434">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
         <v>112</v>
       </c>
@@ -21721,7 +21917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
         <v>112</v>
       </c>
@@ -21747,10 +21943,10 @@
         <v>51</v>
       </c>
       <c r="I436">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
         <v>112</v>
       </c>
@@ -21779,7 +21975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
         <v>112</v>
       </c>
@@ -21805,10 +22001,10 @@
         <v>84</v>
       </c>
       <c r="I438">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
         <v>112</v>
       </c>
@@ -21834,10 +22030,10 @@
         <v>84</v>
       </c>
       <c r="I439">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
         <v>112</v>
       </c>
@@ -21866,7 +22062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
         <v>112</v>
       </c>
@@ -21892,10 +22088,10 @@
         <v>85</v>
       </c>
       <c r="I441">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
         <v>112</v>
       </c>
@@ -21921,6 +22117,412 @@
         <v>85</v>
       </c>
       <c r="I442">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A443" t="s">
+        <v>112</v>
+      </c>
+      <c r="B443" s="1">
+        <v>45338</v>
+      </c>
+      <c r="C443" t="s">
+        <v>43</v>
+      </c>
+      <c r="D443" s="15">
+        <v>0.63</v>
+      </c>
+      <c r="E443" t="s">
+        <v>5</v>
+      </c>
+      <c r="F443" s="15">
+        <v>0.37</v>
+      </c>
+      <c r="G443" t="s">
+        <v>75</v>
+      </c>
+      <c r="H443" t="s">
+        <v>51</v>
+      </c>
+      <c r="I443">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A444" t="s">
+        <v>112</v>
+      </c>
+      <c r="B444" s="1">
+        <v>45339</v>
+      </c>
+      <c r="C444" t="s">
+        <v>19</v>
+      </c>
+      <c r="D444" s="14">
+        <v>0.8155</v>
+      </c>
+      <c r="E444" t="s">
+        <v>17</v>
+      </c>
+      <c r="F444" s="14">
+        <v>0.1845</v>
+      </c>
+      <c r="G444" t="s">
+        <v>21</v>
+      </c>
+      <c r="H444" t="s">
+        <v>50</v>
+      </c>
+      <c r="I444">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A445" t="s">
+        <v>112</v>
+      </c>
+      <c r="B445" s="1">
+        <v>45339</v>
+      </c>
+      <c r="C445" t="s">
+        <v>11</v>
+      </c>
+      <c r="D445" s="14">
+        <v>0.68489999999999995</v>
+      </c>
+      <c r="E445" t="s">
+        <v>8</v>
+      </c>
+      <c r="F445" s="14">
+        <v>0.31509999999999999</v>
+      </c>
+      <c r="G445" t="s">
+        <v>68</v>
+      </c>
+      <c r="H445" t="s">
+        <v>51</v>
+      </c>
+      <c r="I445">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A446" t="s">
+        <v>112</v>
+      </c>
+      <c r="B446" s="1">
+        <v>45339</v>
+      </c>
+      <c r="C446" t="s">
+        <v>36</v>
+      </c>
+      <c r="D446" s="14">
+        <v>0.66859999999999997</v>
+      </c>
+      <c r="E446" t="s">
+        <v>14</v>
+      </c>
+      <c r="F446" s="14">
+        <v>0.33139999999999997</v>
+      </c>
+      <c r="G446" t="s">
+        <v>15</v>
+      </c>
+      <c r="H446" t="s">
+        <v>51</v>
+      </c>
+      <c r="I446">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A447" t="s">
+        <v>112</v>
+      </c>
+      <c r="B447" s="1">
+        <v>45339</v>
+      </c>
+      <c r="C447" t="s">
+        <v>4</v>
+      </c>
+      <c r="D447" s="14">
+        <v>0.66449999999999998</v>
+      </c>
+      <c r="E447" t="s">
+        <v>40</v>
+      </c>
+      <c r="F447" s="14">
+        <v>0.33550000000000002</v>
+      </c>
+      <c r="G447" t="s">
+        <v>6</v>
+      </c>
+      <c r="H447" t="s">
+        <v>51</v>
+      </c>
+      <c r="I447">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A448" t="s">
+        <v>112</v>
+      </c>
+      <c r="B448" s="1">
+        <v>45339</v>
+      </c>
+      <c r="C448" t="s">
+        <v>26</v>
+      </c>
+      <c r="D448" s="14">
+        <v>0.59060000000000001</v>
+      </c>
+      <c r="E448" t="s">
+        <v>45</v>
+      </c>
+      <c r="F448" s="14">
+        <v>0.40939999999999999</v>
+      </c>
+      <c r="G448" t="s">
+        <v>59</v>
+      </c>
+      <c r="H448" t="s">
+        <v>84</v>
+      </c>
+      <c r="I448">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A449" t="s">
+        <v>112</v>
+      </c>
+      <c r="B449" s="1">
+        <v>45339</v>
+      </c>
+      <c r="C449" t="s">
+        <v>10</v>
+      </c>
+      <c r="D449" s="14">
+        <v>0.58689999999999998</v>
+      </c>
+      <c r="E449" t="s">
+        <v>28</v>
+      </c>
+      <c r="F449" s="14">
+        <v>0.41310000000000002</v>
+      </c>
+      <c r="G449" t="s">
+        <v>30</v>
+      </c>
+      <c r="H449" t="s">
+        <v>84</v>
+      </c>
+      <c r="I449">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A450" t="s">
+        <v>112</v>
+      </c>
+      <c r="B450" s="1">
+        <v>45339</v>
+      </c>
+      <c r="C450" t="s">
+        <v>58</v>
+      </c>
+      <c r="D450" s="14">
+        <v>0.54679999999999995</v>
+      </c>
+      <c r="E450" t="s">
+        <v>46</v>
+      </c>
+      <c r="F450" s="14">
+        <v>0.45319999999999999</v>
+      </c>
+      <c r="G450" t="s">
+        <v>72</v>
+      </c>
+      <c r="H450" t="s">
+        <v>85</v>
+      </c>
+      <c r="I450">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A451" t="s">
+        <v>112</v>
+      </c>
+      <c r="B451" s="1">
+        <v>45339</v>
+      </c>
+      <c r="C451" t="s">
+        <v>56</v>
+      </c>
+      <c r="D451" s="14">
+        <v>0.54090000000000005</v>
+      </c>
+      <c r="E451" t="s">
+        <v>34</v>
+      </c>
+      <c r="F451" s="14">
+        <v>0.45910000000000001</v>
+      </c>
+      <c r="G451" t="s">
+        <v>62</v>
+      </c>
+      <c r="H451" t="s">
+        <v>85</v>
+      </c>
+      <c r="I451">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A452" t="s">
+        <v>112</v>
+      </c>
+      <c r="B452" s="1">
+        <v>45339</v>
+      </c>
+      <c r="C452" t="s">
+        <v>29</v>
+      </c>
+      <c r="D452" s="14">
+        <v>0.5373</v>
+      </c>
+      <c r="E452" t="s">
+        <v>43</v>
+      </c>
+      <c r="F452" s="14">
+        <v>0.4627</v>
+      </c>
+      <c r="G452" t="s">
+        <v>57</v>
+      </c>
+      <c r="H452" t="s">
+        <v>85</v>
+      </c>
+      <c r="I452">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A453" t="s">
+        <v>112</v>
+      </c>
+      <c r="B453" s="1">
+        <v>45339</v>
+      </c>
+      <c r="C453" t="s">
+        <v>20</v>
+      </c>
+      <c r="D453" s="14">
+        <v>0.52739999999999998</v>
+      </c>
+      <c r="E453" t="s">
+        <v>13</v>
+      </c>
+      <c r="F453" s="14">
+        <v>0.47260000000000002</v>
+      </c>
+      <c r="G453" t="s">
+        <v>65</v>
+      </c>
+      <c r="H453" t="s">
+        <v>85</v>
+      </c>
+      <c r="I453">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A454" t="s">
+        <v>112</v>
+      </c>
+      <c r="B454" s="1">
+        <v>45339</v>
+      </c>
+      <c r="C454" t="s">
+        <v>16</v>
+      </c>
+      <c r="D454" s="14">
+        <v>0.51239999999999997</v>
+      </c>
+      <c r="E454" t="s">
+        <v>42</v>
+      </c>
+      <c r="F454" s="14">
+        <v>0.48759999999999998</v>
+      </c>
+      <c r="G454" t="s">
+        <v>44</v>
+      </c>
+      <c r="H454" t="s">
+        <v>85</v>
+      </c>
+      <c r="I454">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A455" t="s">
+        <v>112</v>
+      </c>
+      <c r="B455" s="1">
+        <v>45339</v>
+      </c>
+      <c r="C455" t="s">
+        <v>31</v>
+      </c>
+      <c r="D455" s="14">
+        <v>0.51039999999999996</v>
+      </c>
+      <c r="E455" t="s">
+        <v>37</v>
+      </c>
+      <c r="F455" s="14">
+        <v>0.48959999999999998</v>
+      </c>
+      <c r="G455" t="s">
+        <v>32</v>
+      </c>
+      <c r="H455" t="s">
+        <v>85</v>
+      </c>
+      <c r="I455">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A456" t="s">
+        <v>112</v>
+      </c>
+      <c r="B456" s="1">
+        <v>45339</v>
+      </c>
+      <c r="C456" t="s">
+        <v>33</v>
+      </c>
+      <c r="D456" s="14">
+        <v>0.501</v>
+      </c>
+      <c r="E456" t="s">
+        <v>22</v>
+      </c>
+      <c r="F456" s="14">
+        <v>0.499</v>
+      </c>
+      <c r="G456" t="s">
+        <v>77</v>
+      </c>
+      <c r="H456" t="s">
+        <v>85</v>
+      </c>
+      <c r="I456">
         <v>1</v>
       </c>
     </row>

--- a/PDA Lifetime Predictions.xlsx
+++ b/PDA Lifetime Predictions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thigg\Desktop\Hockey Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4D2768-A189-419A-97D7-823F7FC0B933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8AF6BFC-919F-4B26-B4E8-CF8E97570427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="21" r:id="rId3"/>
+    <pivotCache cacheId="7" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -976,7 +976,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45339.429619212962" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="456" xr:uid="{D3A71568-3061-40C8-A74B-8B86C64C3ADC}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Higgins" refreshedDate="45339.891772106479" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="456" xr:uid="{D3A71568-3061-40C8-A74B-8B86C64C3ADC}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:I1048576" sheet="Predictions"/>
   </cacheSource>
@@ -6727,7 +6727,7 @@
     <n v="0.31509999999999999"/>
     <s v="Playing At:  New Jersey Devils   Home"/>
     <x v="2"/>
-    <n v="0"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="9"/>
@@ -6738,7 +6738,7 @@
     <n v="0.33139999999999997"/>
     <s v="Playing At:  Chicago Blackhawks   Home"/>
     <x v="2"/>
-    <n v="1"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="9"/>
@@ -6760,7 +6760,7 @@
     <n v="0.40939999999999999"/>
     <s v="Playing At:  Montreal Canadiens   Home"/>
     <x v="3"/>
-    <n v="0"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="9"/>
@@ -6782,7 +6782,7 @@
     <n v="0.45319999999999999"/>
     <s v="Playing At:  Minnesota Wild   Home"/>
     <x v="4"/>
-    <n v="1"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="9"/>
@@ -6815,7 +6815,7 @@
     <n v="0.47260000000000002"/>
     <s v="Playing At:  St. Louis Blues   Home"/>
     <x v="4"/>
-    <n v="0"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="9"/>
@@ -6837,7 +6837,7 @@
     <n v="0.48959999999999998"/>
     <s v="Playing At:  Calgary Flames   Home"/>
     <x v="4"/>
-    <n v="1"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="9"/>
@@ -6865,216 +6865,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{80C3D042-980E-40EE-B50F-CF37801A1A1D}" name="PivotTable3" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="L3:O44" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
-  <pivotFields count="10">
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="12">
-        <item h="1" x="10"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" numFmtId="14" outline="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="10">
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="2"/>
-        <item x="6"/>
-        <item m="1" x="8"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="0"/>
-    <field x="7"/>
-  </rowFields>
-  <rowItems count="41">
-    <i>
-      <x v="1"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i t="default">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i t="default">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i t="default">
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i t="default">
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i t="default">
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="10"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Count of Winner1" fld="2" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Model" fld="8" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1FB34DD3-8207-4009-92F5-73C183F63DF8}" name="PivotTable1" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1FB34DD3-8207-4009-92F5-73C183F63DF8}" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A5:C13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
@@ -7986,6 +7777,215 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{80C3D042-980E-40EE-B50F-CF37801A1A1D}" name="PivotTable3" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="L3:O44" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
+  <pivotFields count="10">
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="12">
+        <item h="1" x="10"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" numFmtId="14" outline="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="10">
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="2"/>
+        <item x="6"/>
+        <item m="1" x="8"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="41">
+    <i>
+      <x v="1"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i t="default">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i t="default">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i t="default">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i t="default">
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i t="default">
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="default">
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Count of Winner1" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Model" fld="8" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -8286,7 +8286,7 @@
   <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8625,11 +8625,11 @@
         <v>95</v>
       </c>
       <c 